--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Coliflor.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Coliflor.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R250"/>
+  <dimension ref="A1:R254"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8325,7 +8325,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44176</v>
+        <v>44413</v>
       </c>
       <c r="E111" t="n">
         <v>13</v>
@@ -8349,16 +8349,16 @@
         </is>
       </c>
       <c r="J111" t="n">
-        <v>5200</v>
+        <v>4300</v>
       </c>
       <c r="K111" t="n">
+        <v>600</v>
+      </c>
+      <c r="L111" t="n">
         <v>700</v>
       </c>
-      <c r="L111" t="n">
-        <v>800</v>
-      </c>
       <c r="M111" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="N111" t="inlineStr">
         <is>
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="P111" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="Q111" t="n">
         <v>1</v>
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44237</v>
+        <v>44413</v>
       </c>
       <c r="E112" t="n">
         <v>13</v>
@@ -8421,16 +8421,16 @@
         </is>
       </c>
       <c r="J112" t="n">
-        <v>1800</v>
+        <v>5200</v>
       </c>
       <c r="K112" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="L112" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="M112" t="n">
-        <v>1000</v>
+        <v>650</v>
       </c>
       <c r="N112" t="inlineStr">
         <is>
@@ -8439,11 +8439,11 @@
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P112" t="n">
-        <v>1000</v>
+        <v>650</v>
       </c>
       <c r="Q112" t="n">
         <v>1</v>
@@ -8469,7 +8469,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44273</v>
+        <v>44413</v>
       </c>
       <c r="E113" t="n">
         <v>13</v>
@@ -8489,20 +8489,20 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J113" t="n">
-        <v>1600</v>
+        <v>2500</v>
       </c>
       <c r="K113" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="L113" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="M113" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="N113" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         </is>
       </c>
       <c r="P113" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="Q113" t="n">
         <v>1</v>
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44377</v>
+        <v>44413</v>
       </c>
       <c r="E114" t="n">
         <v>13</v>
@@ -8561,20 +8561,20 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J114" t="n">
-        <v>1600</v>
+        <v>3400</v>
       </c>
       <c r="K114" t="n">
         <v>500</v>
       </c>
       <c r="L114" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M114" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="N114" t="inlineStr">
         <is>
@@ -8583,11 +8583,11 @@
       </c>
       <c r="O114" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P114" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="Q114" t="n">
         <v>1</v>
@@ -8613,7 +8613,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44377</v>
+        <v>44176</v>
       </c>
       <c r="E115" t="n">
         <v>13</v>
@@ -8637,16 +8637,16 @@
         </is>
       </c>
       <c r="J115" t="n">
-        <v>2500</v>
+        <v>5200</v>
       </c>
       <c r="K115" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L115" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M115" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="N115" t="inlineStr">
         <is>
@@ -8655,11 +8655,11 @@
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P115" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="Q115" t="n">
         <v>1</v>
@@ -8685,7 +8685,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44377</v>
+        <v>44237</v>
       </c>
       <c r="E116" t="n">
         <v>13</v>
@@ -8705,20 +8705,20 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J116" t="n">
-        <v>520</v>
+        <v>1800</v>
       </c>
       <c r="K116" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="L116" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="M116" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="N116" t="inlineStr">
         <is>
@@ -8731,7 +8731,7 @@
         </is>
       </c>
       <c r="P116" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="Q116" t="n">
         <v>1</v>
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44377</v>
+        <v>44273</v>
       </c>
       <c r="E117" t="n">
         <v>13</v>
@@ -8777,20 +8777,20 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J117" t="n">
-        <v>970</v>
+        <v>1600</v>
       </c>
       <c r="K117" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="L117" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="M117" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="N117" t="inlineStr">
         <is>
@@ -8799,11 +8799,11 @@
       </c>
       <c r="O117" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P117" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="Q117" t="n">
         <v>1</v>
@@ -8829,7 +8829,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44257</v>
+        <v>44377</v>
       </c>
       <c r="E118" t="n">
         <v>13</v>
@@ -8853,16 +8853,16 @@
         </is>
       </c>
       <c r="J118" t="n">
-        <v>700</v>
+        <v>1600</v>
       </c>
       <c r="K118" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="L118" t="n">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="M118" t="n">
-        <v>1200</v>
+        <v>550</v>
       </c>
       <c r="N118" t="inlineStr">
         <is>
@@ -8875,7 +8875,7 @@
         </is>
       </c>
       <c r="P118" t="n">
-        <v>1200</v>
+        <v>550</v>
       </c>
       <c r="Q118" t="n">
         <v>1</v>
@@ -8901,7 +8901,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44400</v>
+        <v>44377</v>
       </c>
       <c r="E119" t="n">
         <v>13</v>
@@ -8925,7 +8925,7 @@
         </is>
       </c>
       <c r="J119" t="n">
-        <v>4300</v>
+        <v>2500</v>
       </c>
       <c r="K119" t="n">
         <v>500</v>
@@ -8943,7 +8943,7 @@
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P119" t="n">
@@ -8973,7 +8973,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44400</v>
+        <v>44377</v>
       </c>
       <c r="E120" t="n">
         <v>13</v>
@@ -8993,20 +8993,20 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J120" t="n">
-        <v>3400</v>
+        <v>520</v>
       </c>
       <c r="K120" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L120" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M120" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="N120" t="inlineStr">
         <is>
@@ -9015,11 +9015,11 @@
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P120" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="Q120" t="n">
         <v>1</v>
@@ -9045,7 +9045,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44400</v>
+        <v>44377</v>
       </c>
       <c r="E121" t="n">
         <v>13</v>
@@ -9069,7 +9069,7 @@
         </is>
       </c>
       <c r="J121" t="n">
-        <v>1600</v>
+        <v>970</v>
       </c>
       <c r="K121" t="n">
         <v>400</v>
@@ -9087,7 +9087,7 @@
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P121" t="n">
@@ -9117,7 +9117,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44400</v>
+        <v>44257</v>
       </c>
       <c r="E122" t="n">
         <v>13</v>
@@ -9137,20 +9137,20 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J122" t="n">
-        <v>970</v>
+        <v>700</v>
       </c>
       <c r="K122" t="n">
-        <v>400</v>
+        <v>1200</v>
       </c>
       <c r="L122" t="n">
-        <v>400</v>
+        <v>1200</v>
       </c>
       <c r="M122" t="n">
-        <v>400</v>
+        <v>1200</v>
       </c>
       <c r="N122" t="inlineStr">
         <is>
@@ -9159,11 +9159,11 @@
       </c>
       <c r="O122" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P122" t="n">
-        <v>400</v>
+        <v>1200</v>
       </c>
       <c r="Q122" t="n">
         <v>1</v>
@@ -9189,7 +9189,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44225</v>
+        <v>44400</v>
       </c>
       <c r="E123" t="n">
         <v>13</v>
@@ -9213,16 +9213,16 @@
         </is>
       </c>
       <c r="J123" t="n">
-        <v>2200</v>
+        <v>4300</v>
       </c>
       <c r="K123" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="L123" t="n">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="M123" t="n">
-        <v>1091</v>
+        <v>550</v>
       </c>
       <c r="N123" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         </is>
       </c>
       <c r="P123" t="n">
-        <v>1091</v>
+        <v>550</v>
       </c>
       <c r="Q123" t="n">
         <v>1</v>
@@ -9261,7 +9261,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44295</v>
+        <v>44400</v>
       </c>
       <c r="E124" t="n">
         <v>13</v>
@@ -9285,16 +9285,16 @@
         </is>
       </c>
       <c r="J124" t="n">
-        <v>1600</v>
+        <v>3400</v>
       </c>
       <c r="K124" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="L124" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M124" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="N124" t="inlineStr">
         <is>
@@ -9303,11 +9303,11 @@
       </c>
       <c r="O124" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P124" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="Q124" t="n">
         <v>1</v>
@@ -9333,7 +9333,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44295</v>
+        <v>44400</v>
       </c>
       <c r="E125" t="n">
         <v>13</v>
@@ -9353,20 +9353,20 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J125" t="n">
-        <v>2500</v>
+        <v>1600</v>
       </c>
       <c r="K125" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="L125" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="M125" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="N125" t="inlineStr">
         <is>
@@ -9375,11 +9375,11 @@
       </c>
       <c r="O125" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P125" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="Q125" t="n">
         <v>1</v>
@@ -9405,7 +9405,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44194</v>
+        <v>44400</v>
       </c>
       <c r="E126" t="n">
         <v>13</v>
@@ -9425,20 +9425,20 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J126" t="n">
-        <v>3400</v>
+        <v>970</v>
       </c>
       <c r="K126" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="L126" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="M126" t="n">
-        <v>950</v>
+        <v>400</v>
       </c>
       <c r="N126" t="inlineStr">
         <is>
@@ -9447,11 +9447,11 @@
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P126" t="n">
-        <v>950</v>
+        <v>400</v>
       </c>
       <c r="Q126" t="n">
         <v>1</v>
@@ -9477,7 +9477,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44390</v>
+        <v>44225</v>
       </c>
       <c r="E127" t="n">
         <v>13</v>
@@ -9501,16 +9501,16 @@
         </is>
       </c>
       <c r="J127" t="n">
-        <v>4300</v>
+        <v>2200</v>
       </c>
       <c r="K127" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="L127" t="n">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="M127" t="n">
-        <v>550</v>
+        <v>1091</v>
       </c>
       <c r="N127" t="inlineStr">
         <is>
@@ -9523,7 +9523,7 @@
         </is>
       </c>
       <c r="P127" t="n">
-        <v>550</v>
+        <v>1091</v>
       </c>
       <c r="Q127" t="n">
         <v>1</v>
@@ -9549,7 +9549,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44390</v>
+        <v>44295</v>
       </c>
       <c r="E128" t="n">
         <v>13</v>
@@ -9573,16 +9573,16 @@
         </is>
       </c>
       <c r="J128" t="n">
-        <v>3400</v>
+        <v>1600</v>
       </c>
       <c r="K128" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="L128" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M128" t="n">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="N128" t="inlineStr">
         <is>
@@ -9591,11 +9591,11 @@
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P128" t="n">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="Q128" t="n">
         <v>1</v>
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44390</v>
+        <v>44295</v>
       </c>
       <c r="E129" t="n">
         <v>13</v>
@@ -9641,20 +9641,20 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J129" t="n">
-        <v>1600</v>
+        <v>2500</v>
       </c>
       <c r="K129" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="L129" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="M129" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="N129" t="inlineStr">
         <is>
@@ -9663,11 +9663,11 @@
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P129" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="Q129" t="n">
         <v>1</v>
@@ -9693,7 +9693,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44390</v>
+        <v>44194</v>
       </c>
       <c r="E130" t="n">
         <v>13</v>
@@ -9713,20 +9713,20 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J130" t="n">
-        <v>970</v>
+        <v>3400</v>
       </c>
       <c r="K130" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="L130" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="M130" t="n">
-        <v>400</v>
+        <v>950</v>
       </c>
       <c r="N130" t="inlineStr">
         <is>
@@ -9735,11 +9735,11 @@
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P130" t="n">
-        <v>400</v>
+        <v>950</v>
       </c>
       <c r="Q130" t="n">
         <v>1</v>
@@ -9765,7 +9765,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44321</v>
+        <v>44390</v>
       </c>
       <c r="E131" t="n">
         <v>13</v>
@@ -9789,16 +9789,16 @@
         </is>
       </c>
       <c r="J131" t="n">
-        <v>2500</v>
+        <v>4300</v>
       </c>
       <c r="K131" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L131" t="n">
         <v>600</v>
       </c>
       <c r="M131" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="N131" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         </is>
       </c>
       <c r="P131" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="Q131" t="n">
         <v>1</v>
@@ -9837,7 +9837,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44321</v>
+        <v>44390</v>
       </c>
       <c r="E132" t="n">
         <v>13</v>
@@ -9861,16 +9861,16 @@
         </is>
       </c>
       <c r="J132" t="n">
-        <v>1600</v>
+        <v>3400</v>
       </c>
       <c r="K132" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L132" t="n">
         <v>600</v>
       </c>
       <c r="M132" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="N132" t="inlineStr">
         <is>
@@ -9883,7 +9883,7 @@
         </is>
       </c>
       <c r="P132" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="Q132" t="n">
         <v>1</v>
@@ -9909,7 +9909,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44383</v>
+        <v>44390</v>
       </c>
       <c r="E133" t="n">
         <v>13</v>
@@ -9929,20 +9929,20 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J133" t="n">
-        <v>4300</v>
+        <v>1600</v>
       </c>
       <c r="K133" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L133" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M133" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="N133" t="inlineStr">
         <is>
@@ -9955,7 +9955,7 @@
         </is>
       </c>
       <c r="P133" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="Q133" t="n">
         <v>1</v>
@@ -9981,7 +9981,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44383</v>
+        <v>44390</v>
       </c>
       <c r="E134" t="n">
         <v>13</v>
@@ -10001,20 +10001,20 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J134" t="n">
-        <v>3400</v>
+        <v>970</v>
       </c>
       <c r="K134" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L134" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M134" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="N134" t="inlineStr">
         <is>
@@ -10027,7 +10027,7 @@
         </is>
       </c>
       <c r="P134" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="Q134" t="n">
         <v>1</v>
@@ -10053,7 +10053,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44383</v>
+        <v>44321</v>
       </c>
       <c r="E135" t="n">
         <v>13</v>
@@ -10073,20 +10073,20 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J135" t="n">
-        <v>1600</v>
+        <v>2500</v>
       </c>
       <c r="K135" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L135" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M135" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="N135" t="inlineStr">
         <is>
@@ -10099,7 +10099,7 @@
         </is>
       </c>
       <c r="P135" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="Q135" t="n">
         <v>1</v>
@@ -10125,7 +10125,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44383</v>
+        <v>44321</v>
       </c>
       <c r="E136" t="n">
         <v>13</v>
@@ -10145,20 +10145,20 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J136" t="n">
-        <v>970</v>
+        <v>1600</v>
       </c>
       <c r="K136" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L136" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M136" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="N136" t="inlineStr">
         <is>
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="P136" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="Q136" t="n">
         <v>1</v>
@@ -10197,7 +10197,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44354</v>
+        <v>44383</v>
       </c>
       <c r="E137" t="n">
         <v>13</v>
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="J137" t="n">
-        <v>2500</v>
+        <v>4300</v>
       </c>
       <c r="K137" t="n">
         <v>500</v>
@@ -10269,7 +10269,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44412</v>
+        <v>44383</v>
       </c>
       <c r="E138" t="n">
         <v>13</v>
@@ -10293,16 +10293,16 @@
         </is>
       </c>
       <c r="J138" t="n">
-        <v>2500</v>
+        <v>3400</v>
       </c>
       <c r="K138" t="n">
+        <v>500</v>
+      </c>
+      <c r="L138" t="n">
         <v>600</v>
       </c>
-      <c r="L138" t="n">
-        <v>700</v>
-      </c>
       <c r="M138" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="N138" t="inlineStr">
         <is>
@@ -10311,11 +10311,11 @@
       </c>
       <c r="O138" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P138" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="Q138" t="n">
         <v>1</v>
@@ -10341,7 +10341,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44412</v>
+        <v>44383</v>
       </c>
       <c r="E139" t="n">
         <v>13</v>
@@ -10361,20 +10361,20 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J139" t="n">
         <v>1600</v>
       </c>
       <c r="K139" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L139" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="M139" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="N139" t="inlineStr">
         <is>
@@ -10383,11 +10383,11 @@
       </c>
       <c r="O139" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P139" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="Q139" t="n">
         <v>1</v>
@@ -10413,7 +10413,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44412</v>
+        <v>44383</v>
       </c>
       <c r="E140" t="n">
         <v>13</v>
@@ -10440,13 +10440,13 @@
         <v>970</v>
       </c>
       <c r="K140" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L140" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M140" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="N140" t="inlineStr">
         <is>
@@ -10455,11 +10455,11 @@
       </c>
       <c r="O140" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P140" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="Q140" t="n">
         <v>1</v>
@@ -10485,7 +10485,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44412</v>
+        <v>44354</v>
       </c>
       <c r="E141" t="n">
         <v>13</v>
@@ -10505,20 +10505,20 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J141" t="n">
-        <v>790</v>
+        <v>2500</v>
       </c>
       <c r="K141" t="n">
         <v>500</v>
       </c>
       <c r="L141" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M141" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="N141" t="inlineStr">
         <is>
@@ -10527,11 +10527,11 @@
       </c>
       <c r="O141" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P141" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="Q141" t="n">
         <v>1</v>
@@ -10557,7 +10557,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44336</v>
+        <v>44412</v>
       </c>
       <c r="E142" t="n">
         <v>13</v>
@@ -10581,7 +10581,7 @@
         </is>
       </c>
       <c r="J142" t="n">
-        <v>4300</v>
+        <v>2500</v>
       </c>
       <c r="K142" t="n">
         <v>600</v>
@@ -10629,7 +10629,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44336</v>
+        <v>44412</v>
       </c>
       <c r="E143" t="n">
         <v>13</v>
@@ -10653,7 +10653,7 @@
         </is>
       </c>
       <c r="J143" t="n">
-        <v>3400</v>
+        <v>1600</v>
       </c>
       <c r="K143" t="n">
         <v>600</v>
@@ -10701,7 +10701,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44336</v>
+        <v>44412</v>
       </c>
       <c r="E144" t="n">
         <v>13</v>
@@ -10725,16 +10725,16 @@
         </is>
       </c>
       <c r="J144" t="n">
-        <v>1600</v>
+        <v>970</v>
       </c>
       <c r="K144" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L144" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M144" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N144" t="inlineStr">
         <is>
@@ -10747,7 +10747,7 @@
         </is>
       </c>
       <c r="P144" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Q144" t="n">
         <v>1</v>
@@ -10773,7 +10773,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44336</v>
+        <v>44412</v>
       </c>
       <c r="E145" t="n">
         <v>13</v>
@@ -10797,7 +10797,7 @@
         </is>
       </c>
       <c r="J145" t="n">
-        <v>1600</v>
+        <v>790</v>
       </c>
       <c r="K145" t="n">
         <v>500</v>
@@ -10845,7 +10845,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44300</v>
+        <v>44336</v>
       </c>
       <c r="E146" t="n">
         <v>13</v>
@@ -10869,16 +10869,16 @@
         </is>
       </c>
       <c r="J146" t="n">
-        <v>1600</v>
+        <v>4300</v>
       </c>
       <c r="K146" t="n">
+        <v>600</v>
+      </c>
+      <c r="L146" t="n">
         <v>700</v>
       </c>
-      <c r="L146" t="n">
-        <v>800</v>
-      </c>
       <c r="M146" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="N146" t="inlineStr">
         <is>
@@ -10891,7 +10891,7 @@
         </is>
       </c>
       <c r="P146" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="Q146" t="n">
         <v>1</v>
@@ -10917,7 +10917,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44214</v>
+        <v>44336</v>
       </c>
       <c r="E147" t="n">
         <v>13</v>
@@ -10941,16 +10941,16 @@
         </is>
       </c>
       <c r="J147" t="n">
-        <v>1300</v>
+        <v>3400</v>
       </c>
       <c r="K147" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="L147" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="M147" t="n">
-        <v>1000</v>
+        <v>650</v>
       </c>
       <c r="N147" t="inlineStr">
         <is>
@@ -10959,11 +10959,11 @@
       </c>
       <c r="O147" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P147" t="n">
-        <v>1000</v>
+        <v>650</v>
       </c>
       <c r="Q147" t="n">
         <v>1</v>
@@ -10989,7 +10989,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44371</v>
+        <v>44336</v>
       </c>
       <c r="E148" t="n">
         <v>13</v>
@@ -11009,20 +11009,20 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J148" t="n">
-        <v>2500</v>
+        <v>1600</v>
       </c>
       <c r="K148" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L148" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M148" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="N148" t="inlineStr">
         <is>
@@ -11035,7 +11035,7 @@
         </is>
       </c>
       <c r="P148" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="Q148" t="n">
         <v>1</v>
@@ -11061,7 +11061,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44371</v>
+        <v>44336</v>
       </c>
       <c r="E149" t="n">
         <v>13</v>
@@ -11081,20 +11081,20 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J149" t="n">
-        <v>3400</v>
+        <v>1600</v>
       </c>
       <c r="K149" t="n">
         <v>500</v>
       </c>
       <c r="L149" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M149" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="N149" t="inlineStr">
         <is>
@@ -11107,7 +11107,7 @@
         </is>
       </c>
       <c r="P149" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="Q149" t="n">
         <v>1</v>
@@ -11133,7 +11133,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44371</v>
+        <v>44300</v>
       </c>
       <c r="E150" t="n">
         <v>13</v>
@@ -11153,20 +11153,20 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J150" t="n">
-        <v>970</v>
+        <v>1600</v>
       </c>
       <c r="K150" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="L150" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="M150" t="n">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="N150" t="inlineStr">
         <is>
@@ -11179,7 +11179,7 @@
         </is>
       </c>
       <c r="P150" t="n">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="Q150" t="n">
         <v>1</v>
@@ -11205,7 +11205,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44371</v>
+        <v>44214</v>
       </c>
       <c r="E151" t="n">
         <v>13</v>
@@ -11225,20 +11225,20 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J151" t="n">
-        <v>1600</v>
+        <v>1300</v>
       </c>
       <c r="K151" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="L151" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="M151" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="N151" t="inlineStr">
         <is>
@@ -11247,11 +11247,11 @@
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P151" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="Q151" t="n">
         <v>1</v>
@@ -11277,7 +11277,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44274</v>
+        <v>44371</v>
       </c>
       <c r="E152" t="n">
         <v>13</v>
@@ -11301,16 +11301,16 @@
         </is>
       </c>
       <c r="J152" t="n">
-        <v>1600</v>
+        <v>2500</v>
       </c>
       <c r="K152" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="L152" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="M152" t="n">
-        <v>1000</v>
+        <v>550</v>
       </c>
       <c r="N152" t="inlineStr">
         <is>
@@ -11323,7 +11323,7 @@
         </is>
       </c>
       <c r="P152" t="n">
-        <v>1000</v>
+        <v>550</v>
       </c>
       <c r="Q152" t="n">
         <v>1</v>
@@ -11349,7 +11349,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44320</v>
+        <v>44371</v>
       </c>
       <c r="E153" t="n">
         <v>13</v>
@@ -11373,16 +11373,16 @@
         </is>
       </c>
       <c r="J153" t="n">
-        <v>2500</v>
+        <v>3400</v>
       </c>
       <c r="K153" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L153" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M153" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="N153" t="inlineStr">
         <is>
@@ -11391,11 +11391,11 @@
       </c>
       <c r="O153" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P153" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="Q153" t="n">
         <v>1</v>
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44320</v>
+        <v>44371</v>
       </c>
       <c r="E154" t="n">
         <v>13</v>
@@ -11445,16 +11445,16 @@
         </is>
       </c>
       <c r="J154" t="n">
-        <v>700</v>
+        <v>970</v>
       </c>
       <c r="K154" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L154" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M154" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="N154" t="inlineStr">
         <is>
@@ -11467,7 +11467,7 @@
         </is>
       </c>
       <c r="P154" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="Q154" t="n">
         <v>1</v>
@@ -11493,7 +11493,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44314</v>
+        <v>44371</v>
       </c>
       <c r="E155" t="n">
         <v>13</v>
@@ -11513,20 +11513,20 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J155" t="n">
-        <v>2500</v>
+        <v>1600</v>
       </c>
       <c r="K155" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L155" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M155" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="N155" t="inlineStr">
         <is>
@@ -11539,7 +11539,7 @@
         </is>
       </c>
       <c r="P155" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="Q155" t="n">
         <v>1</v>
@@ -11565,7 +11565,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44364</v>
+        <v>44274</v>
       </c>
       <c r="E156" t="n">
         <v>13</v>
@@ -11589,16 +11589,16 @@
         </is>
       </c>
       <c r="J156" t="n">
-        <v>3800</v>
+        <v>1600</v>
       </c>
       <c r="K156" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="L156" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="M156" t="n">
-        <v>550</v>
+        <v>1000</v>
       </c>
       <c r="N156" t="inlineStr">
         <is>
@@ -11607,11 +11607,11 @@
       </c>
       <c r="O156" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P156" t="n">
-        <v>550</v>
+        <v>1000</v>
       </c>
       <c r="Q156" t="n">
         <v>1</v>
@@ -11637,7 +11637,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44364</v>
+        <v>44320</v>
       </c>
       <c r="E157" t="n">
         <v>13</v>
@@ -11657,20 +11657,20 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J157" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="K157" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="L157" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="M157" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="N157" t="inlineStr">
         <is>
@@ -11679,11 +11679,11 @@
       </c>
       <c r="O157" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P157" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="Q157" t="n">
         <v>1</v>
@@ -11709,7 +11709,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44405</v>
+        <v>44320</v>
       </c>
       <c r="E158" t="n">
         <v>13</v>
@@ -11729,20 +11729,20 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J158" t="n">
-        <v>1600</v>
+        <v>700</v>
       </c>
       <c r="K158" t="n">
         <v>500</v>
       </c>
       <c r="L158" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M158" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="N158" t="inlineStr">
         <is>
@@ -11751,11 +11751,11 @@
       </c>
       <c r="O158" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P158" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="Q158" t="n">
         <v>1</v>
@@ -11781,7 +11781,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44405</v>
+        <v>44314</v>
       </c>
       <c r="E159" t="n">
         <v>13</v>
@@ -11801,20 +11801,20 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J159" t="n">
-        <v>790</v>
+        <v>2500</v>
       </c>
       <c r="K159" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L159" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M159" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="N159" t="inlineStr">
         <is>
@@ -11827,7 +11827,7 @@
         </is>
       </c>
       <c r="P159" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="Q159" t="n">
         <v>1</v>
@@ -11853,7 +11853,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44327</v>
+        <v>44364</v>
       </c>
       <c r="E160" t="n">
         <v>13</v>
@@ -11877,16 +11877,16 @@
         </is>
       </c>
       <c r="J160" t="n">
-        <v>4300</v>
+        <v>3800</v>
       </c>
       <c r="K160" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L160" t="n">
         <v>600</v>
       </c>
       <c r="M160" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="N160" t="inlineStr">
         <is>
@@ -11899,7 +11899,7 @@
         </is>
       </c>
       <c r="P160" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="Q160" t="n">
         <v>1</v>
@@ -11925,7 +11925,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44327</v>
+        <v>44364</v>
       </c>
       <c r="E161" t="n">
         <v>13</v>
@@ -11949,7 +11949,7 @@
         </is>
       </c>
       <c r="J161" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="K161" t="n">
         <v>400</v>
@@ -11997,7 +11997,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44313</v>
+        <v>44405</v>
       </c>
       <c r="E162" t="n">
         <v>13</v>
@@ -12021,16 +12021,16 @@
         </is>
       </c>
       <c r="J162" t="n">
-        <v>1420</v>
+        <v>1600</v>
       </c>
       <c r="K162" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L162" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M162" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="N162" t="inlineStr">
         <is>
@@ -12039,11 +12039,11 @@
       </c>
       <c r="O162" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P162" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="Q162" t="n">
         <v>1</v>
@@ -12069,7 +12069,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44330</v>
+        <v>44405</v>
       </c>
       <c r="E163" t="n">
         <v>13</v>
@@ -12089,20 +12089,20 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J163" t="n">
-        <v>2500</v>
+        <v>790</v>
       </c>
       <c r="K163" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L163" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="M163" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="N163" t="inlineStr">
         <is>
@@ -12111,11 +12111,11 @@
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P163" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="Q163" t="n">
         <v>1</v>
@@ -12141,7 +12141,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44330</v>
+        <v>44327</v>
       </c>
       <c r="E164" t="n">
         <v>13</v>
@@ -12165,16 +12165,16 @@
         </is>
       </c>
       <c r="J164" t="n">
-        <v>3400</v>
+        <v>4300</v>
       </c>
       <c r="K164" t="n">
         <v>600</v>
       </c>
       <c r="L164" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M164" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="N164" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         </is>
       </c>
       <c r="P164" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="Q164" t="n">
         <v>1</v>
@@ -12213,7 +12213,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44330</v>
+        <v>44327</v>
       </c>
       <c r="E165" t="n">
         <v>13</v>
@@ -12237,7 +12237,7 @@
         </is>
       </c>
       <c r="J165" t="n">
-        <v>700</v>
+        <v>1600</v>
       </c>
       <c r="K165" t="n">
         <v>400</v>
@@ -12255,7 +12255,7 @@
       </c>
       <c r="O165" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P165" t="n">
@@ -12285,7 +12285,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44330</v>
+        <v>44313</v>
       </c>
       <c r="E166" t="n">
         <v>13</v>
@@ -12305,20 +12305,20 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J166" t="n">
-        <v>1600</v>
+        <v>1420</v>
       </c>
       <c r="K166" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="L166" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="M166" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="N166" t="inlineStr">
         <is>
@@ -12327,11 +12327,11 @@
       </c>
       <c r="O166" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P166" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="Q166" t="n">
         <v>1</v>
@@ -12357,7 +12357,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44391</v>
+        <v>44330</v>
       </c>
       <c r="E167" t="n">
         <v>13</v>
@@ -12381,16 +12381,16 @@
         </is>
       </c>
       <c r="J167" t="n">
-        <v>1600</v>
+        <v>2500</v>
       </c>
       <c r="K167" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L167" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M167" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="N167" t="inlineStr">
         <is>
@@ -12403,7 +12403,7 @@
         </is>
       </c>
       <c r="P167" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="Q167" t="n">
         <v>1</v>
@@ -12429,7 +12429,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44391</v>
+        <v>44330</v>
       </c>
       <c r="E168" t="n">
         <v>13</v>
@@ -12453,16 +12453,16 @@
         </is>
       </c>
       <c r="J168" t="n">
-        <v>2500</v>
+        <v>3400</v>
       </c>
       <c r="K168" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L168" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M168" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="N168" t="inlineStr">
         <is>
@@ -12475,7 +12475,7 @@
         </is>
       </c>
       <c r="P168" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="Q168" t="n">
         <v>1</v>
@@ -12501,7 +12501,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44391</v>
+        <v>44330</v>
       </c>
       <c r="E169" t="n">
         <v>13</v>
@@ -12525,7 +12525,7 @@
         </is>
       </c>
       <c r="J169" t="n">
-        <v>520</v>
+        <v>700</v>
       </c>
       <c r="K169" t="n">
         <v>400</v>
@@ -12573,7 +12573,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44391</v>
+        <v>44330</v>
       </c>
       <c r="E170" t="n">
         <v>13</v>
@@ -12597,7 +12597,7 @@
         </is>
       </c>
       <c r="J170" t="n">
-        <v>970</v>
+        <v>1600</v>
       </c>
       <c r="K170" t="n">
         <v>400</v>
@@ -12645,7 +12645,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44351</v>
+        <v>44391</v>
       </c>
       <c r="E171" t="n">
         <v>13</v>
@@ -12669,7 +12669,7 @@
         </is>
       </c>
       <c r="J171" t="n">
-        <v>3400</v>
+        <v>1600</v>
       </c>
       <c r="K171" t="n">
         <v>500</v>
@@ -12717,7 +12717,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44351</v>
+        <v>44391</v>
       </c>
       <c r="E172" t="n">
         <v>13</v>
@@ -12741,7 +12741,7 @@
         </is>
       </c>
       <c r="J172" t="n">
-        <v>4300</v>
+        <v>2500</v>
       </c>
       <c r="K172" t="n">
         <v>500</v>
@@ -12789,7 +12789,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44351</v>
+        <v>44391</v>
       </c>
       <c r="E173" t="n">
         <v>13</v>
@@ -12813,7 +12813,7 @@
         </is>
       </c>
       <c r="J173" t="n">
-        <v>1600</v>
+        <v>520</v>
       </c>
       <c r="K173" t="n">
         <v>400</v>
@@ -12861,7 +12861,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44351</v>
+        <v>44391</v>
       </c>
       <c r="E174" t="n">
         <v>13</v>
@@ -12885,7 +12885,7 @@
         </is>
       </c>
       <c r="J174" t="n">
-        <v>2500</v>
+        <v>970</v>
       </c>
       <c r="K174" t="n">
         <v>400</v>
@@ -12933,7 +12933,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44350</v>
+        <v>44351</v>
       </c>
       <c r="E175" t="n">
         <v>13</v>
@@ -12957,16 +12957,16 @@
         </is>
       </c>
       <c r="J175" t="n">
-        <v>21000</v>
+        <v>3400</v>
       </c>
       <c r="K175" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L175" t="n">
         <v>600</v>
       </c>
       <c r="M175" t="n">
-        <v>467</v>
+        <v>550</v>
       </c>
       <c r="N175" t="inlineStr">
         <is>
@@ -12979,7 +12979,7 @@
         </is>
       </c>
       <c r="P175" t="n">
-        <v>467</v>
+        <v>550</v>
       </c>
       <c r="Q175" t="n">
         <v>1</v>
@@ -13005,7 +13005,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44350</v>
+        <v>44351</v>
       </c>
       <c r="E176" t="n">
         <v>13</v>
@@ -13029,7 +13029,7 @@
         </is>
       </c>
       <c r="J176" t="n">
-        <v>6200</v>
+        <v>4300</v>
       </c>
       <c r="K176" t="n">
         <v>500</v>
@@ -13038,7 +13038,7 @@
         <v>600</v>
       </c>
       <c r="M176" t="n">
-        <v>523</v>
+        <v>550</v>
       </c>
       <c r="N176" t="inlineStr">
         <is>
@@ -13051,7 +13051,7 @@
         </is>
       </c>
       <c r="P176" t="n">
-        <v>523</v>
+        <v>550</v>
       </c>
       <c r="Q176" t="n">
         <v>1</v>
@@ -13077,7 +13077,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44350</v>
+        <v>44351</v>
       </c>
       <c r="E177" t="n">
         <v>13</v>
@@ -13101,16 +13101,16 @@
         </is>
       </c>
       <c r="J177" t="n">
-        <v>7500</v>
+        <v>1600</v>
       </c>
       <c r="K177" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="L177" t="n">
         <v>400</v>
       </c>
       <c r="M177" t="n">
-        <v>299</v>
+        <v>400</v>
       </c>
       <c r="N177" t="inlineStr">
         <is>
@@ -13123,7 +13123,7 @@
         </is>
       </c>
       <c r="P177" t="n">
-        <v>299</v>
+        <v>400</v>
       </c>
       <c r="Q177" t="n">
         <v>1</v>
@@ -13149,7 +13149,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44350</v>
+        <v>44351</v>
       </c>
       <c r="E178" t="n">
         <v>13</v>
@@ -13173,7 +13173,7 @@
         </is>
       </c>
       <c r="J178" t="n">
-        <v>1300</v>
+        <v>2500</v>
       </c>
       <c r="K178" t="n">
         <v>400</v>
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44196</v>
+        <v>44350</v>
       </c>
       <c r="E179" t="n">
         <v>13</v>
@@ -13245,16 +13245,16 @@
         </is>
       </c>
       <c r="J179" t="n">
-        <v>3400</v>
+        <v>21000</v>
       </c>
       <c r="K179" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="L179" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="M179" t="n">
-        <v>950</v>
+        <v>467</v>
       </c>
       <c r="N179" t="inlineStr">
         <is>
@@ -13267,7 +13267,7 @@
         </is>
       </c>
       <c r="P179" t="n">
-        <v>950</v>
+        <v>467</v>
       </c>
       <c r="Q179" t="n">
         <v>1</v>
@@ -13293,7 +13293,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44315</v>
+        <v>44350</v>
       </c>
       <c r="E180" t="n">
         <v>13</v>
@@ -13317,16 +13317,16 @@
         </is>
       </c>
       <c r="J180" t="n">
-        <v>2500</v>
+        <v>6200</v>
       </c>
       <c r="K180" t="n">
+        <v>500</v>
+      </c>
+      <c r="L180" t="n">
         <v>600</v>
       </c>
-      <c r="L180" t="n">
-        <v>700</v>
-      </c>
       <c r="M180" t="n">
-        <v>650</v>
+        <v>523</v>
       </c>
       <c r="N180" t="inlineStr">
         <is>
@@ -13335,11 +13335,11 @@
       </c>
       <c r="O180" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P180" t="n">
-        <v>650</v>
+        <v>523</v>
       </c>
       <c r="Q180" t="n">
         <v>1</v>
@@ -13365,7 +13365,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44315</v>
+        <v>44350</v>
       </c>
       <c r="E181" t="n">
         <v>13</v>
@@ -13385,20 +13385,20 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J181" t="n">
-        <v>1600</v>
+        <v>7500</v>
       </c>
       <c r="K181" t="n">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="L181" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M181" t="n">
-        <v>600</v>
+        <v>299</v>
       </c>
       <c r="N181" t="inlineStr">
         <is>
@@ -13407,11 +13407,11 @@
       </c>
       <c r="O181" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P181" t="n">
-        <v>600</v>
+        <v>299</v>
       </c>
       <c r="Q181" t="n">
         <v>1</v>
@@ -13437,7 +13437,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44278</v>
+        <v>44350</v>
       </c>
       <c r="E182" t="n">
         <v>13</v>
@@ -13457,20 +13457,20 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J182" t="n">
-        <v>1600</v>
+        <v>1300</v>
       </c>
       <c r="K182" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="L182" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="M182" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="N182" t="inlineStr">
         <is>
@@ -13479,11 +13479,11 @@
       </c>
       <c r="O182" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P182" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="Q182" t="n">
         <v>1</v>
@@ -13509,7 +13509,7 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>44358</v>
+        <v>44196</v>
       </c>
       <c r="E183" t="n">
         <v>13</v>
@@ -13533,16 +13533,16 @@
         </is>
       </c>
       <c r="J183" t="n">
-        <v>4300</v>
+        <v>3400</v>
       </c>
       <c r="K183" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="L183" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="M183" t="n">
-        <v>550</v>
+        <v>950</v>
       </c>
       <c r="N183" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         </is>
       </c>
       <c r="P183" t="n">
-        <v>550</v>
+        <v>950</v>
       </c>
       <c r="Q183" t="n">
         <v>1</v>
@@ -13581,7 +13581,7 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>44358</v>
+        <v>44315</v>
       </c>
       <c r="E184" t="n">
         <v>13</v>
@@ -13605,16 +13605,16 @@
         </is>
       </c>
       <c r="J184" t="n">
-        <v>3400</v>
+        <v>2500</v>
       </c>
       <c r="K184" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L184" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M184" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="N184" t="inlineStr">
         <is>
@@ -13623,11 +13623,11 @@
       </c>
       <c r="O184" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P184" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="Q184" t="n">
         <v>1</v>
@@ -13653,7 +13653,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44358</v>
+        <v>44315</v>
       </c>
       <c r="E185" t="n">
         <v>13</v>
@@ -13673,20 +13673,20 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J185" t="n">
-        <v>2500</v>
+        <v>1600</v>
       </c>
       <c r="K185" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L185" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M185" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="N185" t="inlineStr">
         <is>
@@ -13695,11 +13695,11 @@
       </c>
       <c r="O185" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P185" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="Q185" t="n">
         <v>1</v>
@@ -13725,7 +13725,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44358</v>
+        <v>44278</v>
       </c>
       <c r="E186" t="n">
         <v>13</v>
@@ -13745,20 +13745,20 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J186" t="n">
         <v>1600</v>
       </c>
       <c r="K186" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="L186" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="M186" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="N186" t="inlineStr">
         <is>
@@ -13767,11 +13767,11 @@
       </c>
       <c r="O186" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P186" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="Q186" t="n">
         <v>1</v>
@@ -13797,7 +13797,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44389</v>
+        <v>44358</v>
       </c>
       <c r="E187" t="n">
         <v>13</v>
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="J187" t="n">
-        <v>1600</v>
+        <v>4300</v>
       </c>
       <c r="K187" t="n">
         <v>500</v>
@@ -13839,7 +13839,7 @@
       </c>
       <c r="O187" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P187" t="n">
@@ -13869,7 +13869,7 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>44389</v>
+        <v>44358</v>
       </c>
       <c r="E188" t="n">
         <v>13</v>
@@ -13889,20 +13889,20 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J188" t="n">
-        <v>520</v>
+        <v>3400</v>
       </c>
       <c r="K188" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L188" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M188" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="N188" t="inlineStr">
         <is>
@@ -13915,7 +13915,7 @@
         </is>
       </c>
       <c r="P188" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="Q188" t="n">
         <v>1</v>
@@ -13941,7 +13941,7 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>44399</v>
+        <v>44358</v>
       </c>
       <c r="E189" t="n">
         <v>13</v>
@@ -13961,20 +13961,20 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J189" t="n">
-        <v>4300</v>
+        <v>2500</v>
       </c>
       <c r="K189" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L189" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M189" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="N189" t="inlineStr">
         <is>
@@ -13987,7 +13987,7 @@
         </is>
       </c>
       <c r="P189" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="Q189" t="n">
         <v>1</v>
@@ -14013,7 +14013,7 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>44399</v>
+        <v>44358</v>
       </c>
       <c r="E190" t="n">
         <v>13</v>
@@ -14033,20 +14033,20 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J190" t="n">
-        <v>3400</v>
+        <v>1600</v>
       </c>
       <c r="K190" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L190" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M190" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="N190" t="inlineStr">
         <is>
@@ -14059,7 +14059,7 @@
         </is>
       </c>
       <c r="P190" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="Q190" t="n">
         <v>1</v>
@@ -14085,7 +14085,7 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>44399</v>
+        <v>44389</v>
       </c>
       <c r="E191" t="n">
         <v>13</v>
@@ -14105,20 +14105,20 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J191" t="n">
         <v>1600</v>
       </c>
       <c r="K191" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L191" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M191" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="N191" t="inlineStr">
         <is>
@@ -14127,11 +14127,11 @@
       </c>
       <c r="O191" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P191" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="Q191" t="n">
         <v>1</v>
@@ -14157,7 +14157,7 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>44399</v>
+        <v>44389</v>
       </c>
       <c r="E192" t="n">
         <v>13</v>
@@ -14181,7 +14181,7 @@
         </is>
       </c>
       <c r="J192" t="n">
-        <v>970</v>
+        <v>520</v>
       </c>
       <c r="K192" t="n">
         <v>400</v>
@@ -14229,7 +14229,7 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>44250</v>
+        <v>44399</v>
       </c>
       <c r="E193" t="n">
         <v>13</v>
@@ -14253,16 +14253,16 @@
         </is>
       </c>
       <c r="J193" t="n">
-        <v>700</v>
+        <v>4300</v>
       </c>
       <c r="K193" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="L193" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="M193" t="n">
-        <v>1000</v>
+        <v>550</v>
       </c>
       <c r="N193" t="inlineStr">
         <is>
@@ -14275,7 +14275,7 @@
         </is>
       </c>
       <c r="P193" t="n">
-        <v>1000</v>
+        <v>550</v>
       </c>
       <c r="Q193" t="n">
         <v>1</v>
@@ -14301,7 +14301,7 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>44292</v>
+        <v>44399</v>
       </c>
       <c r="E194" t="n">
         <v>13</v>
@@ -14325,16 +14325,16 @@
         </is>
       </c>
       <c r="J194" t="n">
-        <v>1600</v>
+        <v>3400</v>
       </c>
       <c r="K194" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="L194" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="M194" t="n">
-        <v>900</v>
+        <v>550</v>
       </c>
       <c r="N194" t="inlineStr">
         <is>
@@ -14343,11 +14343,11 @@
       </c>
       <c r="O194" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P194" t="n">
-        <v>900</v>
+        <v>550</v>
       </c>
       <c r="Q194" t="n">
         <v>1</v>
@@ -14373,7 +14373,7 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>44294</v>
+        <v>44399</v>
       </c>
       <c r="E195" t="n">
         <v>13</v>
@@ -14393,20 +14393,20 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J195" t="n">
         <v>1600</v>
       </c>
       <c r="K195" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="L195" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="M195" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="N195" t="inlineStr">
         <is>
@@ -14419,7 +14419,7 @@
         </is>
       </c>
       <c r="P195" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="Q195" t="n">
         <v>1</v>
@@ -14445,7 +14445,7 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>44294</v>
+        <v>44399</v>
       </c>
       <c r="E196" t="n">
         <v>13</v>
@@ -14465,20 +14465,20 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J196" t="n">
-        <v>1600</v>
+        <v>970</v>
       </c>
       <c r="K196" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="L196" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="M196" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="N196" t="inlineStr">
         <is>
@@ -14491,7 +14491,7 @@
         </is>
       </c>
       <c r="P196" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="Q196" t="n">
         <v>1</v>
@@ -14517,7 +14517,7 @@
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>44245</v>
+        <v>44250</v>
       </c>
       <c r="E197" t="n">
         <v>13</v>
@@ -14541,16 +14541,16 @@
         </is>
       </c>
       <c r="J197" t="n">
-        <v>1600</v>
+        <v>700</v>
       </c>
       <c r="K197" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="L197" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="M197" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="N197" t="inlineStr">
         <is>
@@ -14563,7 +14563,7 @@
         </is>
       </c>
       <c r="P197" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="Q197" t="n">
         <v>1</v>
@@ -14589,7 +14589,7 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>44202</v>
+        <v>44292</v>
       </c>
       <c r="E198" t="n">
         <v>13</v>
@@ -14613,16 +14613,16 @@
         </is>
       </c>
       <c r="J198" t="n">
-        <v>3100</v>
+        <v>1600</v>
       </c>
       <c r="K198" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="L198" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="M198" t="n">
-        <v>748</v>
+        <v>900</v>
       </c>
       <c r="N198" t="inlineStr">
         <is>
@@ -14631,11 +14631,11 @@
       </c>
       <c r="O198" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P198" t="n">
-        <v>748</v>
+        <v>900</v>
       </c>
       <c r="Q198" t="n">
         <v>1</v>
@@ -14661,7 +14661,7 @@
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>44369</v>
+        <v>44294</v>
       </c>
       <c r="E199" t="n">
         <v>13</v>
@@ -14685,16 +14685,16 @@
         </is>
       </c>
       <c r="J199" t="n">
-        <v>3400</v>
+        <v>1600</v>
       </c>
       <c r="K199" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="L199" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M199" t="n">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="N199" t="inlineStr">
         <is>
@@ -14707,7 +14707,7 @@
         </is>
       </c>
       <c r="P199" t="n">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="Q199" t="n">
         <v>1</v>
@@ -14733,7 +14733,7 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>44369</v>
+        <v>44294</v>
       </c>
       <c r="E200" t="n">
         <v>13</v>
@@ -14757,16 +14757,16 @@
         </is>
       </c>
       <c r="J200" t="n">
-        <v>2500</v>
+        <v>1600</v>
       </c>
       <c r="K200" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="L200" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="M200" t="n">
-        <v>550</v>
+        <v>900</v>
       </c>
       <c r="N200" t="inlineStr">
         <is>
@@ -14779,7 +14779,7 @@
         </is>
       </c>
       <c r="P200" t="n">
-        <v>550</v>
+        <v>900</v>
       </c>
       <c r="Q200" t="n">
         <v>1</v>
@@ -14805,7 +14805,7 @@
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>44369</v>
+        <v>44245</v>
       </c>
       <c r="E201" t="n">
         <v>13</v>
@@ -14825,20 +14825,20 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J201" t="n">
         <v>1600</v>
       </c>
       <c r="K201" t="n">
-        <v>400</v>
+        <v>1200</v>
       </c>
       <c r="L201" t="n">
-        <v>400</v>
+        <v>1200</v>
       </c>
       <c r="M201" t="n">
-        <v>400</v>
+        <v>1200</v>
       </c>
       <c r="N201" t="inlineStr">
         <is>
@@ -14851,7 +14851,7 @@
         </is>
       </c>
       <c r="P201" t="n">
-        <v>400</v>
+        <v>1200</v>
       </c>
       <c r="Q201" t="n">
         <v>1</v>
@@ -14877,7 +14877,7 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>44369</v>
+        <v>44202</v>
       </c>
       <c r="E202" t="n">
         <v>13</v>
@@ -14897,20 +14897,20 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J202" t="n">
+        <v>3100</v>
+      </c>
+      <c r="K202" t="n">
         <v>700</v>
       </c>
-      <c r="K202" t="n">
-        <v>400</v>
-      </c>
       <c r="L202" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="M202" t="n">
-        <v>400</v>
+        <v>748</v>
       </c>
       <c r="N202" t="inlineStr">
         <is>
@@ -14919,11 +14919,11 @@
       </c>
       <c r="O202" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P202" t="n">
-        <v>400</v>
+        <v>748</v>
       </c>
       <c r="Q202" t="n">
         <v>1</v>
@@ -14949,7 +14949,7 @@
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>44307</v>
+        <v>44369</v>
       </c>
       <c r="E203" t="n">
         <v>13</v>
@@ -14973,16 +14973,16 @@
         </is>
       </c>
       <c r="J203" t="n">
-        <v>2100</v>
+        <v>3400</v>
       </c>
       <c r="K203" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L203" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M203" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="N203" t="inlineStr">
         <is>
@@ -14995,7 +14995,7 @@
         </is>
       </c>
       <c r="P203" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="Q203" t="n">
         <v>1</v>
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>44161</v>
+        <v>44369</v>
       </c>
       <c r="E204" t="n">
         <v>13</v>
@@ -15045,16 +15045,16 @@
         </is>
       </c>
       <c r="J204" t="n">
-        <v>4500</v>
+        <v>2500</v>
       </c>
       <c r="K204" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L204" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M204" t="n">
-        <v>456</v>
+        <v>550</v>
       </c>
       <c r="N204" t="inlineStr">
         <is>
@@ -15063,11 +15063,11 @@
       </c>
       <c r="O204" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P204" t="n">
-        <v>456</v>
+        <v>550</v>
       </c>
       <c r="Q204" t="n">
         <v>1</v>
@@ -15093,7 +15093,7 @@
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>44195</v>
+        <v>44369</v>
       </c>
       <c r="E205" t="n">
         <v>13</v>
@@ -15113,20 +15113,20 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J205" t="n">
-        <v>4300</v>
+        <v>1600</v>
       </c>
       <c r="K205" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="L205" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="M205" t="n">
-        <v>950</v>
+        <v>400</v>
       </c>
       <c r="N205" t="inlineStr">
         <is>
@@ -15139,7 +15139,7 @@
         </is>
       </c>
       <c r="P205" t="n">
-        <v>950</v>
+        <v>400</v>
       </c>
       <c r="Q205" t="n">
         <v>1</v>
@@ -15165,7 +15165,7 @@
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>44159</v>
+        <v>44369</v>
       </c>
       <c r="E206" t="n">
         <v>13</v>
@@ -15185,20 +15185,20 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J206" t="n">
-        <v>4500</v>
+        <v>700</v>
       </c>
       <c r="K206" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L206" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M206" t="n">
-        <v>544</v>
+        <v>400</v>
       </c>
       <c r="N206" t="inlineStr">
         <is>
@@ -15207,11 +15207,11 @@
       </c>
       <c r="O206" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P206" t="n">
-        <v>544</v>
+        <v>400</v>
       </c>
       <c r="Q206" t="n">
         <v>1</v>
@@ -15237,7 +15237,7 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>44333</v>
+        <v>44307</v>
       </c>
       <c r="E207" t="n">
         <v>13</v>
@@ -15261,16 +15261,16 @@
         </is>
       </c>
       <c r="J207" t="n">
-        <v>1400</v>
+        <v>2100</v>
       </c>
       <c r="K207" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L207" t="n">
         <v>700</v>
       </c>
       <c r="M207" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="N207" t="inlineStr">
         <is>
@@ -15283,7 +15283,7 @@
         </is>
       </c>
       <c r="P207" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="Q207" t="n">
         <v>1</v>
@@ -15309,7 +15309,7 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>44201</v>
+        <v>44161</v>
       </c>
       <c r="E208" t="n">
         <v>13</v>
@@ -15333,16 +15333,16 @@
         </is>
       </c>
       <c r="J208" t="n">
-        <v>3600</v>
+        <v>4500</v>
       </c>
       <c r="K208" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L208" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M208" t="n">
-        <v>656</v>
+        <v>456</v>
       </c>
       <c r="N208" t="inlineStr">
         <is>
@@ -15351,11 +15351,11 @@
       </c>
       <c r="O208" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P208" t="n">
-        <v>656</v>
+        <v>456</v>
       </c>
       <c r="Q208" t="n">
         <v>1</v>
@@ -15381,7 +15381,7 @@
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>44309</v>
+        <v>44195</v>
       </c>
       <c r="E209" t="n">
         <v>13</v>
@@ -15405,16 +15405,16 @@
         </is>
       </c>
       <c r="J209" t="n">
-        <v>2500</v>
+        <v>4300</v>
       </c>
       <c r="K209" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="L209" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="M209" t="n">
-        <v>700</v>
+        <v>950</v>
       </c>
       <c r="N209" t="inlineStr">
         <is>
@@ -15427,7 +15427,7 @@
         </is>
       </c>
       <c r="P209" t="n">
-        <v>700</v>
+        <v>950</v>
       </c>
       <c r="Q209" t="n">
         <v>1</v>
@@ -15453,7 +15453,7 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>44309</v>
+        <v>44159</v>
       </c>
       <c r="E210" t="n">
         <v>13</v>
@@ -15473,20 +15473,20 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J210" t="n">
-        <v>700</v>
+        <v>4500</v>
       </c>
       <c r="K210" t="n">
         <v>500</v>
       </c>
       <c r="L210" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M210" t="n">
-        <v>500</v>
+        <v>544</v>
       </c>
       <c r="N210" t="inlineStr">
         <is>
@@ -15495,11 +15495,11 @@
       </c>
       <c r="O210" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P210" t="n">
-        <v>500</v>
+        <v>544</v>
       </c>
       <c r="Q210" t="n">
         <v>1</v>
@@ -15525,7 +15525,7 @@
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>44188</v>
+        <v>44333</v>
       </c>
       <c r="E211" t="n">
         <v>13</v>
@@ -15549,16 +15549,16 @@
         </is>
       </c>
       <c r="J211" t="n">
-        <v>2100</v>
+        <v>1400</v>
       </c>
       <c r="K211" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="L211" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M211" t="n">
-        <v>852</v>
+        <v>650</v>
       </c>
       <c r="N211" t="inlineStr">
         <is>
@@ -15567,11 +15567,11 @@
       </c>
       <c r="O211" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P211" t="n">
-        <v>852</v>
+        <v>650</v>
       </c>
       <c r="Q211" t="n">
         <v>1</v>
@@ -15597,7 +15597,7 @@
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>44344</v>
+        <v>44201</v>
       </c>
       <c r="E212" t="n">
         <v>13</v>
@@ -15621,16 +15621,16 @@
         </is>
       </c>
       <c r="J212" t="n">
-        <v>5200</v>
+        <v>3600</v>
       </c>
       <c r="K212" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L212" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M212" t="n">
-        <v>550</v>
+        <v>656</v>
       </c>
       <c r="N212" t="inlineStr">
         <is>
@@ -15643,7 +15643,7 @@
         </is>
       </c>
       <c r="P212" t="n">
-        <v>550</v>
+        <v>656</v>
       </c>
       <c r="Q212" t="n">
         <v>1</v>
@@ -15669,7 +15669,7 @@
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>44344</v>
+        <v>44309</v>
       </c>
       <c r="E213" t="n">
         <v>13</v>
@@ -15693,16 +15693,16 @@
         </is>
       </c>
       <c r="J213" t="n">
-        <v>3900</v>
+        <v>2500</v>
       </c>
       <c r="K213" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L213" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M213" t="n">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="N213" t="inlineStr">
         <is>
@@ -15711,11 +15711,11 @@
       </c>
       <c r="O213" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P213" t="n">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="Q213" t="n">
         <v>1</v>
@@ -15741,7 +15741,7 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>44344</v>
+        <v>44309</v>
       </c>
       <c r="E214" t="n">
         <v>13</v>
@@ -15765,16 +15765,16 @@
         </is>
       </c>
       <c r="J214" t="n">
-        <v>2100</v>
+        <v>700</v>
       </c>
       <c r="K214" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L214" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M214" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N214" t="inlineStr">
         <is>
@@ -15787,7 +15787,7 @@
         </is>
       </c>
       <c r="P214" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Q214" t="n">
         <v>1</v>
@@ -15813,7 +15813,7 @@
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>44344</v>
+        <v>44188</v>
       </c>
       <c r="E215" t="n">
         <v>13</v>
@@ -15833,20 +15833,20 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J215" t="n">
-        <v>1800</v>
+        <v>2100</v>
       </c>
       <c r="K215" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="L215" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="M215" t="n">
-        <v>400</v>
+        <v>852</v>
       </c>
       <c r="N215" t="inlineStr">
         <is>
@@ -15859,7 +15859,7 @@
         </is>
       </c>
       <c r="P215" t="n">
-        <v>400</v>
+        <v>852</v>
       </c>
       <c r="Q215" t="n">
         <v>1</v>
@@ -15885,7 +15885,7 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>44319</v>
+        <v>44344</v>
       </c>
       <c r="E216" t="n">
         <v>13</v>
@@ -15909,16 +15909,16 @@
         </is>
       </c>
       <c r="J216" t="n">
-        <v>1600</v>
+        <v>5200</v>
       </c>
       <c r="K216" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L216" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M216" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="N216" t="inlineStr">
         <is>
@@ -15931,7 +15931,7 @@
         </is>
       </c>
       <c r="P216" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="Q216" t="n">
         <v>1</v>
@@ -15957,7 +15957,7 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44316</v>
+        <v>44344</v>
       </c>
       <c r="E217" t="n">
         <v>13</v>
@@ -15981,16 +15981,16 @@
         </is>
       </c>
       <c r="J217" t="n">
-        <v>3400</v>
+        <v>3900</v>
       </c>
       <c r="K217" t="n">
+        <v>500</v>
+      </c>
+      <c r="L217" t="n">
         <v>600</v>
       </c>
-      <c r="L217" t="n">
-        <v>700</v>
-      </c>
       <c r="M217" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="N217" t="inlineStr">
         <is>
@@ -15999,11 +15999,11 @@
       </c>
       <c r="O217" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P217" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="Q217" t="n">
         <v>1</v>
@@ -16029,7 +16029,7 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>44316</v>
+        <v>44344</v>
       </c>
       <c r="E218" t="n">
         <v>13</v>
@@ -16053,16 +16053,16 @@
         </is>
       </c>
       <c r="J218" t="n">
-        <v>1600</v>
+        <v>2100</v>
       </c>
       <c r="K218" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L218" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M218" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="N218" t="inlineStr">
         <is>
@@ -16075,7 +16075,7 @@
         </is>
       </c>
       <c r="P218" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="Q218" t="n">
         <v>1</v>
@@ -16101,7 +16101,7 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>44160</v>
+        <v>44344</v>
       </c>
       <c r="E219" t="n">
         <v>13</v>
@@ -16121,20 +16121,20 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J219" t="n">
-        <v>3600</v>
+        <v>1800</v>
       </c>
       <c r="K219" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L219" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M219" t="n">
-        <v>556</v>
+        <v>400</v>
       </c>
       <c r="N219" t="inlineStr">
         <is>
@@ -16143,11 +16143,11 @@
       </c>
       <c r="O219" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P219" t="n">
-        <v>556</v>
+        <v>400</v>
       </c>
       <c r="Q219" t="n">
         <v>1</v>
@@ -16173,7 +16173,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44211</v>
+        <v>44319</v>
       </c>
       <c r="E220" t="n">
         <v>13</v>
@@ -16197,16 +16197,16 @@
         </is>
       </c>
       <c r="J220" t="n">
-        <v>2500</v>
+        <v>1600</v>
       </c>
       <c r="K220" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="L220" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="M220" t="n">
-        <v>950</v>
+        <v>700</v>
       </c>
       <c r="N220" t="inlineStr">
         <is>
@@ -16219,7 +16219,7 @@
         </is>
       </c>
       <c r="P220" t="n">
-        <v>950</v>
+        <v>700</v>
       </c>
       <c r="Q220" t="n">
         <v>1</v>
@@ -16245,7 +16245,7 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44301</v>
+        <v>44316</v>
       </c>
       <c r="E221" t="n">
         <v>13</v>
@@ -16269,16 +16269,16 @@
         </is>
       </c>
       <c r="J221" t="n">
-        <v>1600</v>
+        <v>3400</v>
       </c>
       <c r="K221" t="n">
+        <v>600</v>
+      </c>
+      <c r="L221" t="n">
         <v>700</v>
       </c>
-      <c r="L221" t="n">
-        <v>800</v>
-      </c>
       <c r="M221" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="N221" t="inlineStr">
         <is>
@@ -16291,7 +16291,7 @@
         </is>
       </c>
       <c r="P221" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="Q221" t="n">
         <v>1</v>
@@ -16317,7 +16317,7 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>44370</v>
+        <v>44316</v>
       </c>
       <c r="E222" t="n">
         <v>13</v>
@@ -16337,7 +16337,7 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J222" t="n">
@@ -16347,10 +16347,10 @@
         <v>500</v>
       </c>
       <c r="L222" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M222" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="N222" t="inlineStr">
         <is>
@@ -16363,7 +16363,7 @@
         </is>
       </c>
       <c r="P222" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="Q222" t="n">
         <v>1</v>
@@ -16389,7 +16389,7 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>44370</v>
+        <v>44160</v>
       </c>
       <c r="E223" t="n">
         <v>13</v>
@@ -16413,7 +16413,7 @@
         </is>
       </c>
       <c r="J223" t="n">
-        <v>2500</v>
+        <v>3600</v>
       </c>
       <c r="K223" t="n">
         <v>500</v>
@@ -16422,7 +16422,7 @@
         <v>600</v>
       </c>
       <c r="M223" t="n">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="N223" t="inlineStr">
         <is>
@@ -16431,11 +16431,11 @@
       </c>
       <c r="O223" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P223" t="n">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="Q223" t="n">
         <v>1</v>
@@ -16461,7 +16461,7 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>44370</v>
+        <v>44211</v>
       </c>
       <c r="E224" t="n">
         <v>13</v>
@@ -16481,20 +16481,20 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J224" t="n">
-        <v>700</v>
+        <v>2500</v>
       </c>
       <c r="K224" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="L224" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="M224" t="n">
-        <v>400</v>
+        <v>950</v>
       </c>
       <c r="N224" t="inlineStr">
         <is>
@@ -16507,7 +16507,7 @@
         </is>
       </c>
       <c r="P224" t="n">
-        <v>400</v>
+        <v>950</v>
       </c>
       <c r="Q224" t="n">
         <v>1</v>
@@ -16533,7 +16533,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44370</v>
+        <v>44301</v>
       </c>
       <c r="E225" t="n">
         <v>13</v>
@@ -16553,20 +16553,20 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J225" t="n">
-        <v>970</v>
+        <v>1600</v>
       </c>
       <c r="K225" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="L225" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="M225" t="n">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="N225" t="inlineStr">
         <is>
@@ -16575,11 +16575,11 @@
       </c>
       <c r="O225" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P225" t="n">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="Q225" t="n">
         <v>1</v>
@@ -16605,7 +16605,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44326</v>
+        <v>44370</v>
       </c>
       <c r="E226" t="n">
         <v>13</v>
@@ -16629,16 +16629,16 @@
         </is>
       </c>
       <c r="J226" t="n">
-        <v>700</v>
+        <v>1600</v>
       </c>
       <c r="K226" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L226" t="n">
         <v>600</v>
       </c>
       <c r="M226" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="N226" t="inlineStr">
         <is>
@@ -16651,7 +16651,7 @@
         </is>
       </c>
       <c r="P226" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="Q226" t="n">
         <v>1</v>
@@ -16677,7 +16677,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44230</v>
+        <v>44370</v>
       </c>
       <c r="E227" t="n">
         <v>13</v>
@@ -16701,16 +16701,16 @@
         </is>
       </c>
       <c r="J227" t="n">
-        <v>1900</v>
+        <v>2500</v>
       </c>
       <c r="K227" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="L227" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="M227" t="n">
-        <v>884</v>
+        <v>550</v>
       </c>
       <c r="N227" t="inlineStr">
         <is>
@@ -16719,11 +16719,11 @@
       </c>
       <c r="O227" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P227" t="n">
-        <v>884</v>
+        <v>550</v>
       </c>
       <c r="Q227" t="n">
         <v>1</v>
@@ -16749,7 +16749,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44382</v>
+        <v>44370</v>
       </c>
       <c r="E228" t="n">
         <v>13</v>
@@ -16769,20 +16769,20 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J228" t="n">
-        <v>1600</v>
+        <v>700</v>
       </c>
       <c r="K228" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L228" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M228" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="N228" t="inlineStr">
         <is>
@@ -16795,7 +16795,7 @@
         </is>
       </c>
       <c r="P228" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="Q228" t="n">
         <v>1</v>
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44382</v>
+        <v>44370</v>
       </c>
       <c r="E229" t="n">
         <v>13</v>
@@ -16845,7 +16845,7 @@
         </is>
       </c>
       <c r="J229" t="n">
-        <v>520</v>
+        <v>970</v>
       </c>
       <c r="K229" t="n">
         <v>400</v>
@@ -16863,7 +16863,7 @@
       </c>
       <c r="O229" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P229" t="n">
@@ -16893,7 +16893,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44232</v>
+        <v>44326</v>
       </c>
       <c r="E230" t="n">
         <v>13</v>
@@ -16917,16 +16917,16 @@
         </is>
       </c>
       <c r="J230" t="n">
-        <v>1800</v>
+        <v>700</v>
       </c>
       <c r="K230" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="L230" t="n">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="M230" t="n">
-        <v>1111</v>
+        <v>600</v>
       </c>
       <c r="N230" t="inlineStr">
         <is>
@@ -16939,7 +16939,7 @@
         </is>
       </c>
       <c r="P230" t="n">
-        <v>1111</v>
+        <v>600</v>
       </c>
       <c r="Q230" t="n">
         <v>1</v>
@@ -16965,7 +16965,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44398</v>
+        <v>44230</v>
       </c>
       <c r="E231" t="n">
         <v>13</v>
@@ -16989,16 +16989,16 @@
         </is>
       </c>
       <c r="J231" t="n">
-        <v>3400</v>
+        <v>1900</v>
       </c>
       <c r="K231" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="L231" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="M231" t="n">
-        <v>550</v>
+        <v>884</v>
       </c>
       <c r="N231" t="inlineStr">
         <is>
@@ -17011,7 +17011,7 @@
         </is>
       </c>
       <c r="P231" t="n">
-        <v>550</v>
+        <v>884</v>
       </c>
       <c r="Q231" t="n">
         <v>1</v>
@@ -17037,7 +17037,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44398</v>
+        <v>44382</v>
       </c>
       <c r="E232" t="n">
         <v>13</v>
@@ -17057,20 +17057,20 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J232" t="n">
-        <v>970</v>
+        <v>1600</v>
       </c>
       <c r="K232" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L232" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M232" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="N232" t="inlineStr">
         <is>
@@ -17083,7 +17083,7 @@
         </is>
       </c>
       <c r="P232" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="Q232" t="n">
         <v>1</v>
@@ -17109,7 +17109,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44355</v>
+        <v>44382</v>
       </c>
       <c r="E233" t="n">
         <v>13</v>
@@ -17129,20 +17129,20 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J233" t="n">
-        <v>3400</v>
+        <v>520</v>
       </c>
       <c r="K233" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L233" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M233" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="N233" t="inlineStr">
         <is>
@@ -17155,7 +17155,7 @@
         </is>
       </c>
       <c r="P233" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="Q233" t="n">
         <v>1</v>
@@ -17181,7 +17181,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44355</v>
+        <v>44232</v>
       </c>
       <c r="E234" t="n">
         <v>13</v>
@@ -17205,16 +17205,16 @@
         </is>
       </c>
       <c r="J234" t="n">
-        <v>2500</v>
+        <v>1800</v>
       </c>
       <c r="K234" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="L234" t="n">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="M234" t="n">
-        <v>550</v>
+        <v>1111</v>
       </c>
       <c r="N234" t="inlineStr">
         <is>
@@ -17223,11 +17223,11 @@
       </c>
       <c r="O234" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P234" t="n">
-        <v>550</v>
+        <v>1111</v>
       </c>
       <c r="Q234" t="n">
         <v>1</v>
@@ -17253,7 +17253,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44355</v>
+        <v>44398</v>
       </c>
       <c r="E235" t="n">
         <v>13</v>
@@ -17273,20 +17273,20 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J235" t="n">
-        <v>1600</v>
+        <v>3400</v>
       </c>
       <c r="K235" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L235" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M235" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="N235" t="inlineStr">
         <is>
@@ -17299,7 +17299,7 @@
         </is>
       </c>
       <c r="P235" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="Q235" t="n">
         <v>1</v>
@@ -17325,7 +17325,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44355</v>
+        <v>44398</v>
       </c>
       <c r="E236" t="n">
         <v>13</v>
@@ -17349,7 +17349,7 @@
         </is>
       </c>
       <c r="J236" t="n">
-        <v>1330</v>
+        <v>970</v>
       </c>
       <c r="K236" t="n">
         <v>400</v>
@@ -17367,7 +17367,7 @@
       </c>
       <c r="O236" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P236" t="n">
@@ -17397,7 +17397,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44286</v>
+        <v>44355</v>
       </c>
       <c r="E237" t="n">
         <v>13</v>
@@ -17421,16 +17421,16 @@
         </is>
       </c>
       <c r="J237" t="n">
-        <v>1600</v>
+        <v>3400</v>
       </c>
       <c r="K237" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="L237" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="M237" t="n">
-        <v>900</v>
+        <v>550</v>
       </c>
       <c r="N237" t="inlineStr">
         <is>
@@ -17443,7 +17443,7 @@
         </is>
       </c>
       <c r="P237" t="n">
-        <v>900</v>
+        <v>550</v>
       </c>
       <c r="Q237" t="n">
         <v>1</v>
@@ -17469,7 +17469,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44217</v>
+        <v>44355</v>
       </c>
       <c r="E238" t="n">
         <v>13</v>
@@ -17493,16 +17493,16 @@
         </is>
       </c>
       <c r="J238" t="n">
-        <v>2700</v>
+        <v>2500</v>
       </c>
       <c r="K238" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="L238" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="M238" t="n">
-        <v>956</v>
+        <v>550</v>
       </c>
       <c r="N238" t="inlineStr">
         <is>
@@ -17511,11 +17511,11 @@
       </c>
       <c r="O238" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P238" t="n">
-        <v>956</v>
+        <v>550</v>
       </c>
       <c r="Q238" t="n">
         <v>1</v>
@@ -17541,7 +17541,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44343</v>
+        <v>44355</v>
       </c>
       <c r="E239" t="n">
         <v>13</v>
@@ -17561,20 +17561,20 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J239" t="n">
-        <v>4200</v>
+        <v>1600</v>
       </c>
       <c r="K239" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L239" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="M239" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="N239" t="inlineStr">
         <is>
@@ -17587,7 +17587,7 @@
         </is>
       </c>
       <c r="P239" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="Q239" t="n">
         <v>1</v>
@@ -17613,7 +17613,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44343</v>
+        <v>44355</v>
       </c>
       <c r="E240" t="n">
         <v>13</v>
@@ -17633,20 +17633,20 @@
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J240" t="n">
-        <v>3500</v>
+        <v>1330</v>
       </c>
       <c r="K240" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L240" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="M240" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="N240" t="inlineStr">
         <is>
@@ -17659,7 +17659,7 @@
         </is>
       </c>
       <c r="P240" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="Q240" t="n">
         <v>1</v>
@@ -17685,7 +17685,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44343</v>
+        <v>44286</v>
       </c>
       <c r="E241" t="n">
         <v>13</v>
@@ -17705,20 +17705,20 @@
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J241" t="n">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="K241" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="L241" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="M241" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="N241" t="inlineStr">
         <is>
@@ -17731,7 +17731,7 @@
         </is>
       </c>
       <c r="P241" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="Q241" t="n">
         <v>1</v>
@@ -17757,7 +17757,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44343</v>
+        <v>44217</v>
       </c>
       <c r="E242" t="n">
         <v>13</v>
@@ -17777,20 +17777,20 @@
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J242" t="n">
-        <v>1700</v>
+        <v>2700</v>
       </c>
       <c r="K242" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="L242" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="M242" t="n">
-        <v>400</v>
+        <v>956</v>
       </c>
       <c r="N242" t="inlineStr">
         <is>
@@ -17799,11 +17799,11 @@
       </c>
       <c r="O242" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P242" t="n">
-        <v>400</v>
+        <v>956</v>
       </c>
       <c r="Q242" t="n">
         <v>1</v>
@@ -17829,7 +17829,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44376</v>
+        <v>44343</v>
       </c>
       <c r="E243" t="n">
         <v>13</v>
@@ -17853,16 +17853,16 @@
         </is>
       </c>
       <c r="J243" t="n">
-        <v>3400</v>
+        <v>4200</v>
       </c>
       <c r="K243" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L243" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M243" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="N243" t="inlineStr">
         <is>
@@ -17875,7 +17875,7 @@
         </is>
       </c>
       <c r="P243" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="Q243" t="n">
         <v>1</v>
@@ -17901,7 +17901,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44376</v>
+        <v>44343</v>
       </c>
       <c r="E244" t="n">
         <v>13</v>
@@ -17925,16 +17925,16 @@
         </is>
       </c>
       <c r="J244" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="K244" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L244" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M244" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="N244" t="inlineStr">
         <is>
@@ -17947,7 +17947,7 @@
         </is>
       </c>
       <c r="P244" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="Q244" t="n">
         <v>1</v>
@@ -17973,7 +17973,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44376</v>
+        <v>44343</v>
       </c>
       <c r="E245" t="n">
         <v>13</v>
@@ -17997,7 +17997,7 @@
         </is>
       </c>
       <c r="J245" t="n">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="K245" t="n">
         <v>400</v>
@@ -18045,7 +18045,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44376</v>
+        <v>44343</v>
       </c>
       <c r="E246" t="n">
         <v>13</v>
@@ -18069,7 +18069,7 @@
         </is>
       </c>
       <c r="J246" t="n">
-        <v>970</v>
+        <v>1700</v>
       </c>
       <c r="K246" t="n">
         <v>400</v>
@@ -18117,7 +18117,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44334</v>
+        <v>44376</v>
       </c>
       <c r="E247" t="n">
         <v>13</v>
@@ -18141,16 +18141,16 @@
         </is>
       </c>
       <c r="J247" t="n">
-        <v>4300</v>
+        <v>3400</v>
       </c>
       <c r="K247" t="n">
+        <v>500</v>
+      </c>
+      <c r="L247" t="n">
         <v>600</v>
       </c>
-      <c r="L247" t="n">
-        <v>700</v>
-      </c>
       <c r="M247" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="N247" t="inlineStr">
         <is>
@@ -18163,7 +18163,7 @@
         </is>
       </c>
       <c r="P247" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="Q247" t="n">
         <v>1</v>
@@ -18189,7 +18189,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44334</v>
+        <v>44376</v>
       </c>
       <c r="E248" t="n">
         <v>13</v>
@@ -18213,16 +18213,16 @@
         </is>
       </c>
       <c r="J248" t="n">
-        <v>5200</v>
+        <v>2500</v>
       </c>
       <c r="K248" t="n">
+        <v>500</v>
+      </c>
+      <c r="L248" t="n">
         <v>600</v>
       </c>
-      <c r="L248" t="n">
-        <v>700</v>
-      </c>
       <c r="M248" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="N248" t="inlineStr">
         <is>
@@ -18235,7 +18235,7 @@
         </is>
       </c>
       <c r="P248" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="Q248" t="n">
         <v>1</v>
@@ -18261,7 +18261,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44334</v>
+        <v>44376</v>
       </c>
       <c r="E249" t="n">
         <v>13</v>
@@ -18333,58 +18333,346 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
+        <v>44376</v>
+      </c>
+      <c r="E250" t="n">
+        <v>13</v>
+      </c>
+      <c r="F250" t="n">
+        <v>100112008</v>
+      </c>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>Coliflor</t>
+        </is>
+      </c>
+      <c r="H250" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I250" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J250" t="n">
+        <v>970</v>
+      </c>
+      <c r="K250" t="n">
+        <v>400</v>
+      </c>
+      <c r="L250" t="n">
+        <v>400</v>
+      </c>
+      <c r="M250" t="n">
+        <v>400</v>
+      </c>
+      <c r="N250" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O250" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P250" t="n">
+        <v>400</v>
+      </c>
+      <c r="Q250" t="n">
+        <v>1</v>
+      </c>
+      <c r="R250" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>9</v>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D251" s="2" t="n">
         <v>44334</v>
       </c>
-      <c r="E250" t="n">
-        <v>13</v>
-      </c>
-      <c r="F250" t="n">
-        <v>100112008</v>
-      </c>
-      <c r="G250" t="inlineStr">
-        <is>
-          <t>Coliflor</t>
-        </is>
-      </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="I250" t="inlineStr">
+      <c r="E251" t="n">
+        <v>13</v>
+      </c>
+      <c r="F251" t="n">
+        <v>100112008</v>
+      </c>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>Coliflor</t>
+        </is>
+      </c>
+      <c r="H251" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I251" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J251" t="n">
+        <v>4300</v>
+      </c>
+      <c r="K251" t="n">
+        <v>600</v>
+      </c>
+      <c r="L251" t="n">
+        <v>700</v>
+      </c>
+      <c r="M251" t="n">
+        <v>650</v>
+      </c>
+      <c r="N251" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O251" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P251" t="n">
+        <v>650</v>
+      </c>
+      <c r="Q251" t="n">
+        <v>1</v>
+      </c>
+      <c r="R251" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>9</v>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D252" s="2" t="n">
+        <v>44334</v>
+      </c>
+      <c r="E252" t="n">
+        <v>13</v>
+      </c>
+      <c r="F252" t="n">
+        <v>100112008</v>
+      </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>Coliflor</t>
+        </is>
+      </c>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I252" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J252" t="n">
+        <v>5200</v>
+      </c>
+      <c r="K252" t="n">
+        <v>600</v>
+      </c>
+      <c r="L252" t="n">
+        <v>700</v>
+      </c>
+      <c r="M252" t="n">
+        <v>650</v>
+      </c>
+      <c r="N252" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O252" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P252" t="n">
+        <v>650</v>
+      </c>
+      <c r="Q252" t="n">
+        <v>1</v>
+      </c>
+      <c r="R252" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>9</v>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D253" s="2" t="n">
+        <v>44334</v>
+      </c>
+      <c r="E253" t="n">
+        <v>13</v>
+      </c>
+      <c r="F253" t="n">
+        <v>100112008</v>
+      </c>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>Coliflor</t>
+        </is>
+      </c>
+      <c r="H253" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I253" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J250" t="n">
+      <c r="J253" t="n">
+        <v>1600</v>
+      </c>
+      <c r="K253" t="n">
+        <v>400</v>
+      </c>
+      <c r="L253" t="n">
+        <v>400</v>
+      </c>
+      <c r="M253" t="n">
+        <v>400</v>
+      </c>
+      <c r="N253" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O253" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P253" t="n">
+        <v>400</v>
+      </c>
+      <c r="Q253" t="n">
+        <v>1</v>
+      </c>
+      <c r="R253" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>9</v>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D254" s="2" t="n">
+        <v>44334</v>
+      </c>
+      <c r="E254" t="n">
+        <v>13</v>
+      </c>
+      <c r="F254" t="n">
+        <v>100112008</v>
+      </c>
+      <c r="G254" t="inlineStr">
+        <is>
+          <t>Coliflor</t>
+        </is>
+      </c>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I254" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J254" t="n">
         <v>2500</v>
       </c>
-      <c r="K250" t="n">
+      <c r="K254" t="n">
         <v>500</v>
       </c>
-      <c r="L250" t="n">
+      <c r="L254" t="n">
         <v>500</v>
       </c>
-      <c r="M250" t="n">
+      <c r="M254" t="n">
         <v>500</v>
       </c>
-      <c r="N250" t="inlineStr">
-        <is>
-          <t>$/unidad</t>
-        </is>
-      </c>
-      <c r="O250" t="inlineStr">
+      <c r="N254" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O254" t="inlineStr">
         <is>
           <t>Región de O'Higgins</t>
         </is>
       </c>
-      <c r="P250" t="n">
+      <c r="P254" t="n">
         <v>500</v>
       </c>
-      <c r="Q250" t="n">
-        <v>1</v>
-      </c>
-      <c r="R250" t="inlineStr">
+      <c r="Q254" t="n">
+        <v>1</v>
+      </c>
+      <c r="R254" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Coliflor.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Coliflor.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R254"/>
+  <dimension ref="A1:R258"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44215</v>
+        <v>44414</v>
       </c>
       <c r="E74" t="n">
         <v>13</v>
@@ -5685,16 +5685,16 @@
         </is>
       </c>
       <c r="J74" t="n">
-        <v>2000</v>
+        <v>4300</v>
       </c>
       <c r="K74" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="L74" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="M74" t="n">
-        <v>950</v>
+        <v>650</v>
       </c>
       <c r="N74" t="inlineStr">
         <is>
@@ -5703,11 +5703,11 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P74" t="n">
-        <v>950</v>
+        <v>650</v>
       </c>
       <c r="Q74" t="n">
         <v>1</v>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44308</v>
+        <v>44414</v>
       </c>
       <c r="E75" t="n">
         <v>13</v>
@@ -5757,16 +5757,16 @@
         </is>
       </c>
       <c r="J75" t="n">
-        <v>1600</v>
+        <v>5200</v>
       </c>
       <c r="K75" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="L75" t="n">
         <v>700</v>
       </c>
       <c r="M75" t="n">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="N75" t="inlineStr">
         <is>
@@ -5775,11 +5775,11 @@
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P75" t="n">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="Q75" t="n">
         <v>1</v>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44403</v>
+        <v>44414</v>
       </c>
       <c r="E76" t="n">
         <v>13</v>
@@ -5825,7 +5825,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J76" t="n">
@@ -5835,10 +5835,10 @@
         <v>500</v>
       </c>
       <c r="L76" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M76" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="N76" t="inlineStr">
         <is>
@@ -5851,7 +5851,7 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="Q76" t="n">
         <v>1</v>
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44403</v>
+        <v>44414</v>
       </c>
       <c r="E77" t="n">
         <v>13</v>
@@ -5901,16 +5901,16 @@
         </is>
       </c>
       <c r="J77" t="n">
-        <v>970</v>
+        <v>2500</v>
       </c>
       <c r="K77" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L77" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M77" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N77" t="inlineStr">
         <is>
@@ -5919,11 +5919,11 @@
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P77" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Q77" t="n">
         <v>1</v>
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44239</v>
+        <v>44215</v>
       </c>
       <c r="E78" t="n">
         <v>13</v>
@@ -5973,16 +5973,16 @@
         </is>
       </c>
       <c r="J78" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="K78" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="L78" t="n">
         <v>1000</v>
       </c>
       <c r="M78" t="n">
-        <v>1000</v>
+        <v>950</v>
       </c>
       <c r="N78" t="inlineStr">
         <is>
@@ -5991,11 +5991,11 @@
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P78" t="n">
-        <v>1000</v>
+        <v>950</v>
       </c>
       <c r="Q78" t="n">
         <v>1</v>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44379</v>
+        <v>44308</v>
       </c>
       <c r="E79" t="n">
         <v>13</v>
@@ -6045,16 +6045,16 @@
         </is>
       </c>
       <c r="J79" t="n">
-        <v>2500</v>
+        <v>1600</v>
       </c>
       <c r="K79" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L79" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M79" t="n">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="N79" t="inlineStr">
         <is>
@@ -6063,11 +6063,11 @@
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P79" t="n">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="Q79" t="n">
         <v>1</v>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44379</v>
+        <v>44403</v>
       </c>
       <c r="E80" t="n">
         <v>13</v>
@@ -6113,20 +6113,20 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J80" t="n">
-        <v>970</v>
+        <v>1600</v>
       </c>
       <c r="K80" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L80" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M80" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="N80" t="inlineStr">
         <is>
@@ -6135,11 +6135,11 @@
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P80" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="Q80" t="n">
         <v>1</v>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44306</v>
+        <v>44403</v>
       </c>
       <c r="E81" t="n">
         <v>13</v>
@@ -6185,20 +6185,20 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J81" t="n">
-        <v>1600</v>
+        <v>970</v>
       </c>
       <c r="K81" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="L81" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="M81" t="n">
-        <v>750</v>
+        <v>400</v>
       </c>
       <c r="N81" t="inlineStr">
         <is>
@@ -6207,11 +6207,11 @@
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P81" t="n">
-        <v>750</v>
+        <v>400</v>
       </c>
       <c r="Q81" t="n">
         <v>1</v>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44356</v>
+        <v>44239</v>
       </c>
       <c r="E82" t="n">
         <v>13</v>
@@ -6261,16 +6261,16 @@
         </is>
       </c>
       <c r="J82" t="n">
-        <v>2500</v>
+        <v>1600</v>
       </c>
       <c r="K82" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="L82" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="M82" t="n">
-        <v>550</v>
+        <v>1000</v>
       </c>
       <c r="N82" t="inlineStr">
         <is>
@@ -6279,11 +6279,11 @@
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P82" t="n">
-        <v>550</v>
+        <v>1000</v>
       </c>
       <c r="Q82" t="n">
         <v>1</v>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44356</v>
+        <v>44379</v>
       </c>
       <c r="E83" t="n">
         <v>13</v>
@@ -6329,20 +6329,20 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J83" t="n">
-        <v>700</v>
+        <v>2500</v>
       </c>
       <c r="K83" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L83" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M83" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="N83" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="Q83" t="n">
         <v>1</v>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44174</v>
+        <v>44379</v>
       </c>
       <c r="E84" t="n">
         <v>13</v>
@@ -6401,20 +6401,20 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J84" t="n">
-        <v>3300</v>
+        <v>970</v>
       </c>
       <c r="K84" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L84" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="M84" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="N84" t="inlineStr">
         <is>
@@ -6423,11 +6423,11 @@
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P84" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="Q84" t="n">
         <v>1</v>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44271</v>
+        <v>44306</v>
       </c>
       <c r="E85" t="n">
         <v>13</v>
@@ -6480,13 +6480,13 @@
         <v>1600</v>
       </c>
       <c r="K85" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="L85" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="M85" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="N85" t="inlineStr">
         <is>
@@ -6495,11 +6495,11 @@
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P85" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="Q85" t="n">
         <v>1</v>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44280</v>
+        <v>44356</v>
       </c>
       <c r="E86" t="n">
         <v>13</v>
@@ -6549,16 +6549,16 @@
         </is>
       </c>
       <c r="J86" t="n">
-        <v>1600</v>
+        <v>2500</v>
       </c>
       <c r="K86" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="L86" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="M86" t="n">
-        <v>900</v>
+        <v>550</v>
       </c>
       <c r="N86" t="inlineStr">
         <is>
@@ -6567,11 +6567,11 @@
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P86" t="n">
-        <v>900</v>
+        <v>550</v>
       </c>
       <c r="Q86" t="n">
         <v>1</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44299</v>
+        <v>44356</v>
       </c>
       <c r="E87" t="n">
         <v>13</v>
@@ -6617,20 +6617,20 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J87" t="n">
-        <v>1600</v>
+        <v>700</v>
       </c>
       <c r="K87" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="L87" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="M87" t="n">
-        <v>750</v>
+        <v>400</v>
       </c>
       <c r="N87" t="inlineStr">
         <is>
@@ -6639,11 +6639,11 @@
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P87" t="n">
-        <v>750</v>
+        <v>400</v>
       </c>
       <c r="Q87" t="n">
         <v>1</v>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44162</v>
+        <v>44174</v>
       </c>
       <c r="E88" t="n">
         <v>13</v>
@@ -6693,16 +6693,16 @@
         </is>
       </c>
       <c r="J88" t="n">
-        <v>4800</v>
+        <v>3300</v>
       </c>
       <c r="K88" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L88" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M88" t="n">
-        <v>448</v>
+        <v>650</v>
       </c>
       <c r="N88" t="inlineStr">
         <is>
@@ -6711,11 +6711,11 @@
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P88" t="n">
-        <v>448</v>
+        <v>650</v>
       </c>
       <c r="Q88" t="n">
         <v>1</v>
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44342</v>
+        <v>44271</v>
       </c>
       <c r="E89" t="n">
         <v>13</v>
@@ -6765,16 +6765,16 @@
         </is>
       </c>
       <c r="J89" t="n">
-        <v>2400</v>
+        <v>1600</v>
       </c>
       <c r="K89" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="L89" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="M89" t="n">
-        <v>550</v>
+        <v>1000</v>
       </c>
       <c r="N89" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>550</v>
+        <v>1000</v>
       </c>
       <c r="Q89" t="n">
         <v>1</v>
@@ -6813,7 +6813,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44342</v>
+        <v>44280</v>
       </c>
       <c r="E90" t="n">
         <v>13</v>
@@ -6837,16 +6837,16 @@
         </is>
       </c>
       <c r="J90" t="n">
-        <v>2800</v>
+        <v>1600</v>
       </c>
       <c r="K90" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="L90" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="M90" t="n">
-        <v>550</v>
+        <v>900</v>
       </c>
       <c r="N90" t="inlineStr">
         <is>
@@ -6855,11 +6855,11 @@
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P90" t="n">
-        <v>550</v>
+        <v>900</v>
       </c>
       <c r="Q90" t="n">
         <v>1</v>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44362</v>
+        <v>44299</v>
       </c>
       <c r="E91" t="n">
         <v>13</v>
@@ -6909,16 +6909,16 @@
         </is>
       </c>
       <c r="J91" t="n">
-        <v>2500</v>
+        <v>1600</v>
       </c>
       <c r="K91" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L91" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M91" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="N91" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="Q91" t="n">
         <v>1</v>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44362</v>
+        <v>44162</v>
       </c>
       <c r="E92" t="n">
         <v>13</v>
@@ -6981,16 +6981,16 @@
         </is>
       </c>
       <c r="J92" t="n">
-        <v>3400</v>
+        <v>4800</v>
       </c>
       <c r="K92" t="n">
+        <v>400</v>
+      </c>
+      <c r="L92" t="n">
         <v>500</v>
       </c>
-      <c r="L92" t="n">
-        <v>600</v>
-      </c>
       <c r="M92" t="n">
-        <v>550</v>
+        <v>448</v>
       </c>
       <c r="N92" t="inlineStr">
         <is>
@@ -6999,11 +6999,11 @@
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P92" t="n">
-        <v>550</v>
+        <v>448</v>
       </c>
       <c r="Q92" t="n">
         <v>1</v>
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44362</v>
+        <v>44342</v>
       </c>
       <c r="E93" t="n">
         <v>13</v>
@@ -7049,20 +7049,20 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J93" t="n">
-        <v>700</v>
+        <v>2400</v>
       </c>
       <c r="K93" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L93" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M93" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="N93" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="Q93" t="n">
         <v>1</v>
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44362</v>
+        <v>44342</v>
       </c>
       <c r="E94" t="n">
         <v>13</v>
@@ -7121,20 +7121,20 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J94" t="n">
-        <v>1600</v>
+        <v>2800</v>
       </c>
       <c r="K94" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L94" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M94" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="N94" t="inlineStr">
         <is>
@@ -7147,7 +7147,7 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="Q94" t="n">
         <v>1</v>
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44175</v>
+        <v>44362</v>
       </c>
       <c r="E95" t="n">
         <v>13</v>
@@ -7197,16 +7197,16 @@
         </is>
       </c>
       <c r="J95" t="n">
-        <v>5200</v>
+        <v>2500</v>
       </c>
       <c r="K95" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="L95" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="M95" t="n">
-        <v>850</v>
+        <v>550</v>
       </c>
       <c r="N95" t="inlineStr">
         <is>
@@ -7219,7 +7219,7 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>850</v>
+        <v>550</v>
       </c>
       <c r="Q95" t="n">
         <v>1</v>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44384</v>
+        <v>44362</v>
       </c>
       <c r="E96" t="n">
         <v>13</v>
@@ -7269,7 +7269,7 @@
         </is>
       </c>
       <c r="J96" t="n">
-        <v>2500</v>
+        <v>3400</v>
       </c>
       <c r="K96" t="n">
         <v>500</v>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44384</v>
+        <v>44362</v>
       </c>
       <c r="E97" t="n">
         <v>13</v>
@@ -7341,7 +7341,7 @@
         </is>
       </c>
       <c r="J97" t="n">
-        <v>970</v>
+        <v>700</v>
       </c>
       <c r="K97" t="n">
         <v>400</v>
@@ -7359,7 +7359,7 @@
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P97" t="n">
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44204</v>
+        <v>44362</v>
       </c>
       <c r="E98" t="n">
         <v>13</v>
@@ -7409,20 +7409,20 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J98" t="n">
-        <v>4300</v>
+        <v>1600</v>
       </c>
       <c r="K98" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="L98" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="M98" t="n">
-        <v>747</v>
+        <v>400</v>
       </c>
       <c r="N98" t="inlineStr">
         <is>
@@ -7431,11 +7431,11 @@
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P98" t="n">
-        <v>747</v>
+        <v>400</v>
       </c>
       <c r="Q98" t="n">
         <v>1</v>
@@ -7461,7 +7461,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44323</v>
+        <v>44175</v>
       </c>
       <c r="E99" t="n">
         <v>13</v>
@@ -7485,16 +7485,16 @@
         </is>
       </c>
       <c r="J99" t="n">
-        <v>2500</v>
+        <v>5200</v>
       </c>
       <c r="K99" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L99" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="M99" t="n">
-        <v>600</v>
+        <v>850</v>
       </c>
       <c r="N99" t="inlineStr">
         <is>
@@ -7507,7 +7507,7 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>600</v>
+        <v>850</v>
       </c>
       <c r="Q99" t="n">
         <v>1</v>
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44323</v>
+        <v>44384</v>
       </c>
       <c r="E100" t="n">
         <v>13</v>
@@ -7553,20 +7553,20 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J100" t="n">
-        <v>700</v>
+        <v>2500</v>
       </c>
       <c r="K100" t="n">
         <v>500</v>
       </c>
       <c r="L100" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M100" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="N100" t="inlineStr">
         <is>
@@ -7575,11 +7575,11 @@
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P100" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="Q100" t="n">
         <v>1</v>
@@ -7605,7 +7605,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44363</v>
+        <v>44384</v>
       </c>
       <c r="E101" t="n">
         <v>13</v>
@@ -7625,20 +7625,20 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J101" t="n">
-        <v>2500</v>
+        <v>970</v>
       </c>
       <c r="K101" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L101" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M101" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="N101" t="inlineStr">
         <is>
@@ -7647,11 +7647,11 @@
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P101" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="Q101" t="n">
         <v>1</v>
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44363</v>
+        <v>44204</v>
       </c>
       <c r="E102" t="n">
         <v>13</v>
@@ -7701,16 +7701,16 @@
         </is>
       </c>
       <c r="J102" t="n">
-        <v>1600</v>
+        <v>4300</v>
       </c>
       <c r="K102" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L102" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M102" t="n">
-        <v>550</v>
+        <v>747</v>
       </c>
       <c r="N102" t="inlineStr">
         <is>
@@ -7719,11 +7719,11 @@
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P102" t="n">
-        <v>550</v>
+        <v>747</v>
       </c>
       <c r="Q102" t="n">
         <v>1</v>
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44363</v>
+        <v>44323</v>
       </c>
       <c r="E103" t="n">
         <v>13</v>
@@ -7769,20 +7769,20 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J103" t="n">
-        <v>1600</v>
+        <v>2500</v>
       </c>
       <c r="K103" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L103" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M103" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="N103" t="inlineStr">
         <is>
@@ -7795,7 +7795,7 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="Q103" t="n">
         <v>1</v>
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44363</v>
+        <v>44323</v>
       </c>
       <c r="E104" t="n">
         <v>13</v>
@@ -7848,13 +7848,13 @@
         <v>700</v>
       </c>
       <c r="K104" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L104" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M104" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N104" t="inlineStr">
         <is>
@@ -7863,11 +7863,11 @@
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P104" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Q104" t="n">
         <v>1</v>
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44349</v>
+        <v>44363</v>
       </c>
       <c r="E105" t="n">
         <v>13</v>
@@ -7917,7 +7917,7 @@
         </is>
       </c>
       <c r="J105" t="n">
-        <v>3300</v>
+        <v>2500</v>
       </c>
       <c r="K105" t="n">
         <v>500</v>
@@ -7935,7 +7935,7 @@
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P105" t="n">
@@ -7965,7 +7965,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44349</v>
+        <v>44363</v>
       </c>
       <c r="E106" t="n">
         <v>13</v>
@@ -7985,20 +7985,20 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J106" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="K106" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L106" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M106" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="N106" t="inlineStr">
         <is>
@@ -8011,7 +8011,7 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="Q106" t="n">
         <v>1</v>
@@ -8037,7 +8037,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44385</v>
+        <v>44363</v>
       </c>
       <c r="E107" t="n">
         <v>13</v>
@@ -8057,20 +8057,20 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J107" t="n">
-        <v>3400</v>
+        <v>1600</v>
       </c>
       <c r="K107" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L107" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M107" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="N107" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="Q107" t="n">
         <v>1</v>
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44385</v>
+        <v>44363</v>
       </c>
       <c r="E108" t="n">
         <v>13</v>
@@ -8129,20 +8129,20 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J108" t="n">
-        <v>4300</v>
+        <v>700</v>
       </c>
       <c r="K108" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L108" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M108" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="N108" t="inlineStr">
         <is>
@@ -8155,7 +8155,7 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="Q108" t="n">
         <v>1</v>
@@ -8181,7 +8181,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44385</v>
+        <v>44349</v>
       </c>
       <c r="E109" t="n">
         <v>13</v>
@@ -8201,20 +8201,20 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J109" t="n">
-        <v>970</v>
+        <v>3300</v>
       </c>
       <c r="K109" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L109" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M109" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="N109" t="inlineStr">
         <is>
@@ -8223,11 +8223,11 @@
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P109" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="Q109" t="n">
         <v>1</v>
@@ -8253,7 +8253,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44385</v>
+        <v>44349</v>
       </c>
       <c r="E110" t="n">
         <v>13</v>
@@ -8277,7 +8277,7 @@
         </is>
       </c>
       <c r="J110" t="n">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="K110" t="n">
         <v>400</v>
@@ -8325,7 +8325,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44413</v>
+        <v>44385</v>
       </c>
       <c r="E111" t="n">
         <v>13</v>
@@ -8349,16 +8349,16 @@
         </is>
       </c>
       <c r="J111" t="n">
-        <v>4300</v>
+        <v>3400</v>
       </c>
       <c r="K111" t="n">
+        <v>500</v>
+      </c>
+      <c r="L111" t="n">
         <v>600</v>
       </c>
-      <c r="L111" t="n">
-        <v>700</v>
-      </c>
       <c r="M111" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="N111" t="inlineStr">
         <is>
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="P111" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="Q111" t="n">
         <v>1</v>
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44413</v>
+        <v>44385</v>
       </c>
       <c r="E112" t="n">
         <v>13</v>
@@ -8421,16 +8421,16 @@
         </is>
       </c>
       <c r="J112" t="n">
-        <v>5200</v>
+        <v>4300</v>
       </c>
       <c r="K112" t="n">
+        <v>500</v>
+      </c>
+      <c r="L112" t="n">
         <v>600</v>
       </c>
-      <c r="L112" t="n">
-        <v>700</v>
-      </c>
       <c r="M112" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="N112" t="inlineStr">
         <is>
@@ -8443,7 +8443,7 @@
         </is>
       </c>
       <c r="P112" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="Q112" t="n">
         <v>1</v>
@@ -8469,7 +8469,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44413</v>
+        <v>44385</v>
       </c>
       <c r="E113" t="n">
         <v>13</v>
@@ -8493,16 +8493,16 @@
         </is>
       </c>
       <c r="J113" t="n">
-        <v>2500</v>
+        <v>970</v>
       </c>
       <c r="K113" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L113" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M113" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="N113" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         </is>
       </c>
       <c r="P113" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="Q113" t="n">
         <v>1</v>
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44413</v>
+        <v>44385</v>
       </c>
       <c r="E114" t="n">
         <v>13</v>
@@ -8565,16 +8565,16 @@
         </is>
       </c>
       <c r="J114" t="n">
-        <v>3400</v>
+        <v>1600</v>
       </c>
       <c r="K114" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L114" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M114" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="N114" t="inlineStr">
         <is>
@@ -8587,7 +8587,7 @@
         </is>
       </c>
       <c r="P114" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="Q114" t="n">
         <v>1</v>
@@ -8613,7 +8613,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44176</v>
+        <v>44413</v>
       </c>
       <c r="E115" t="n">
         <v>13</v>
@@ -8637,16 +8637,16 @@
         </is>
       </c>
       <c r="J115" t="n">
-        <v>5200</v>
+        <v>4300</v>
       </c>
       <c r="K115" t="n">
+        <v>600</v>
+      </c>
+      <c r="L115" t="n">
         <v>700</v>
       </c>
-      <c r="L115" t="n">
-        <v>800</v>
-      </c>
       <c r="M115" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="N115" t="inlineStr">
         <is>
@@ -8659,7 +8659,7 @@
         </is>
       </c>
       <c r="P115" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="Q115" t="n">
         <v>1</v>
@@ -8685,7 +8685,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44237</v>
+        <v>44413</v>
       </c>
       <c r="E116" t="n">
         <v>13</v>
@@ -8709,16 +8709,16 @@
         </is>
       </c>
       <c r="J116" t="n">
-        <v>1800</v>
+        <v>5200</v>
       </c>
       <c r="K116" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="L116" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="M116" t="n">
-        <v>1000</v>
+        <v>650</v>
       </c>
       <c r="N116" t="inlineStr">
         <is>
@@ -8727,11 +8727,11 @@
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P116" t="n">
-        <v>1000</v>
+        <v>650</v>
       </c>
       <c r="Q116" t="n">
         <v>1</v>
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44273</v>
+        <v>44413</v>
       </c>
       <c r="E117" t="n">
         <v>13</v>
@@ -8777,20 +8777,20 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J117" t="n">
-        <v>1600</v>
+        <v>2500</v>
       </c>
       <c r="K117" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="L117" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="M117" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="N117" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         </is>
       </c>
       <c r="P117" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="Q117" t="n">
         <v>1</v>
@@ -8829,7 +8829,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44377</v>
+        <v>44413</v>
       </c>
       <c r="E118" t="n">
         <v>13</v>
@@ -8849,20 +8849,20 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J118" t="n">
-        <v>1600</v>
+        <v>3400</v>
       </c>
       <c r="K118" t="n">
         <v>500</v>
       </c>
       <c r="L118" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M118" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="N118" t="inlineStr">
         <is>
@@ -8871,11 +8871,11 @@
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P118" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="Q118" t="n">
         <v>1</v>
@@ -8901,7 +8901,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44377</v>
+        <v>44176</v>
       </c>
       <c r="E119" t="n">
         <v>13</v>
@@ -8925,16 +8925,16 @@
         </is>
       </c>
       <c r="J119" t="n">
-        <v>2500</v>
+        <v>5200</v>
       </c>
       <c r="K119" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L119" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M119" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="N119" t="inlineStr">
         <is>
@@ -8943,11 +8943,11 @@
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P119" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="Q119" t="n">
         <v>1</v>
@@ -8973,7 +8973,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44377</v>
+        <v>44237</v>
       </c>
       <c r="E120" t="n">
         <v>13</v>
@@ -8993,20 +8993,20 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J120" t="n">
-        <v>520</v>
+        <v>1800</v>
       </c>
       <c r="K120" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="L120" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="M120" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="N120" t="inlineStr">
         <is>
@@ -9019,7 +9019,7 @@
         </is>
       </c>
       <c r="P120" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="Q120" t="n">
         <v>1</v>
@@ -9045,7 +9045,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44377</v>
+        <v>44273</v>
       </c>
       <c r="E121" t="n">
         <v>13</v>
@@ -9065,20 +9065,20 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J121" t="n">
-        <v>970</v>
+        <v>1600</v>
       </c>
       <c r="K121" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="L121" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="M121" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="N121" t="inlineStr">
         <is>
@@ -9087,11 +9087,11 @@
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P121" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="Q121" t="n">
         <v>1</v>
@@ -9117,7 +9117,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44257</v>
+        <v>44377</v>
       </c>
       <c r="E122" t="n">
         <v>13</v>
@@ -9141,16 +9141,16 @@
         </is>
       </c>
       <c r="J122" t="n">
-        <v>700</v>
+        <v>1600</v>
       </c>
       <c r="K122" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="L122" t="n">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="M122" t="n">
-        <v>1200</v>
+        <v>550</v>
       </c>
       <c r="N122" t="inlineStr">
         <is>
@@ -9163,7 +9163,7 @@
         </is>
       </c>
       <c r="P122" t="n">
-        <v>1200</v>
+        <v>550</v>
       </c>
       <c r="Q122" t="n">
         <v>1</v>
@@ -9189,7 +9189,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44400</v>
+        <v>44377</v>
       </c>
       <c r="E123" t="n">
         <v>13</v>
@@ -9213,7 +9213,7 @@
         </is>
       </c>
       <c r="J123" t="n">
-        <v>4300</v>
+        <v>2500</v>
       </c>
       <c r="K123" t="n">
         <v>500</v>
@@ -9231,7 +9231,7 @@
       </c>
       <c r="O123" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P123" t="n">
@@ -9261,7 +9261,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44400</v>
+        <v>44377</v>
       </c>
       <c r="E124" t="n">
         <v>13</v>
@@ -9281,20 +9281,20 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J124" t="n">
-        <v>3400</v>
+        <v>520</v>
       </c>
       <c r="K124" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L124" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M124" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="N124" t="inlineStr">
         <is>
@@ -9303,11 +9303,11 @@
       </c>
       <c r="O124" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P124" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="Q124" t="n">
         <v>1</v>
@@ -9333,7 +9333,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44400</v>
+        <v>44377</v>
       </c>
       <c r="E125" t="n">
         <v>13</v>
@@ -9357,7 +9357,7 @@
         </is>
       </c>
       <c r="J125" t="n">
-        <v>1600</v>
+        <v>970</v>
       </c>
       <c r="K125" t="n">
         <v>400</v>
@@ -9375,7 +9375,7 @@
       </c>
       <c r="O125" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P125" t="n">
@@ -9405,7 +9405,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44400</v>
+        <v>44257</v>
       </c>
       <c r="E126" t="n">
         <v>13</v>
@@ -9425,20 +9425,20 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J126" t="n">
-        <v>970</v>
+        <v>700</v>
       </c>
       <c r="K126" t="n">
-        <v>400</v>
+        <v>1200</v>
       </c>
       <c r="L126" t="n">
-        <v>400</v>
+        <v>1200</v>
       </c>
       <c r="M126" t="n">
-        <v>400</v>
+        <v>1200</v>
       </c>
       <c r="N126" t="inlineStr">
         <is>
@@ -9447,11 +9447,11 @@
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P126" t="n">
-        <v>400</v>
+        <v>1200</v>
       </c>
       <c r="Q126" t="n">
         <v>1</v>
@@ -9477,7 +9477,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44225</v>
+        <v>44400</v>
       </c>
       <c r="E127" t="n">
         <v>13</v>
@@ -9501,16 +9501,16 @@
         </is>
       </c>
       <c r="J127" t="n">
-        <v>2200</v>
+        <v>4300</v>
       </c>
       <c r="K127" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="L127" t="n">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="M127" t="n">
-        <v>1091</v>
+        <v>550</v>
       </c>
       <c r="N127" t="inlineStr">
         <is>
@@ -9523,7 +9523,7 @@
         </is>
       </c>
       <c r="P127" t="n">
-        <v>1091</v>
+        <v>550</v>
       </c>
       <c r="Q127" t="n">
         <v>1</v>
@@ -9549,7 +9549,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44295</v>
+        <v>44400</v>
       </c>
       <c r="E128" t="n">
         <v>13</v>
@@ -9573,16 +9573,16 @@
         </is>
       </c>
       <c r="J128" t="n">
-        <v>1600</v>
+        <v>3400</v>
       </c>
       <c r="K128" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="L128" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M128" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="N128" t="inlineStr">
         <is>
@@ -9591,11 +9591,11 @@
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P128" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="Q128" t="n">
         <v>1</v>
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44295</v>
+        <v>44400</v>
       </c>
       <c r="E129" t="n">
         <v>13</v>
@@ -9641,20 +9641,20 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J129" t="n">
-        <v>2500</v>
+        <v>1600</v>
       </c>
       <c r="K129" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="L129" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="M129" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="N129" t="inlineStr">
         <is>
@@ -9663,11 +9663,11 @@
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P129" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="Q129" t="n">
         <v>1</v>
@@ -9693,7 +9693,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44194</v>
+        <v>44400</v>
       </c>
       <c r="E130" t="n">
         <v>13</v>
@@ -9713,20 +9713,20 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J130" t="n">
-        <v>3400</v>
+        <v>970</v>
       </c>
       <c r="K130" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="L130" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="M130" t="n">
-        <v>950</v>
+        <v>400</v>
       </c>
       <c r="N130" t="inlineStr">
         <is>
@@ -9735,11 +9735,11 @@
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P130" t="n">
-        <v>950</v>
+        <v>400</v>
       </c>
       <c r="Q130" t="n">
         <v>1</v>
@@ -9765,7 +9765,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44390</v>
+        <v>44225</v>
       </c>
       <c r="E131" t="n">
         <v>13</v>
@@ -9789,16 +9789,16 @@
         </is>
       </c>
       <c r="J131" t="n">
-        <v>4300</v>
+        <v>2200</v>
       </c>
       <c r="K131" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="L131" t="n">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="M131" t="n">
-        <v>550</v>
+        <v>1091</v>
       </c>
       <c r="N131" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         </is>
       </c>
       <c r="P131" t="n">
-        <v>550</v>
+        <v>1091</v>
       </c>
       <c r="Q131" t="n">
         <v>1</v>
@@ -9837,7 +9837,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44390</v>
+        <v>44295</v>
       </c>
       <c r="E132" t="n">
         <v>13</v>
@@ -9861,16 +9861,16 @@
         </is>
       </c>
       <c r="J132" t="n">
-        <v>3400</v>
+        <v>1600</v>
       </c>
       <c r="K132" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="L132" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M132" t="n">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="N132" t="inlineStr">
         <is>
@@ -9879,11 +9879,11 @@
       </c>
       <c r="O132" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P132" t="n">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="Q132" t="n">
         <v>1</v>
@@ -9909,7 +9909,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44390</v>
+        <v>44295</v>
       </c>
       <c r="E133" t="n">
         <v>13</v>
@@ -9929,20 +9929,20 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J133" t="n">
-        <v>1600</v>
+        <v>2500</v>
       </c>
       <c r="K133" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="L133" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="M133" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="N133" t="inlineStr">
         <is>
@@ -9951,11 +9951,11 @@
       </c>
       <c r="O133" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P133" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="Q133" t="n">
         <v>1</v>
@@ -9981,7 +9981,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44390</v>
+        <v>44194</v>
       </c>
       <c r="E134" t="n">
         <v>13</v>
@@ -10001,20 +10001,20 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J134" t="n">
-        <v>970</v>
+        <v>3400</v>
       </c>
       <c r="K134" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="L134" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="M134" t="n">
-        <v>400</v>
+        <v>950</v>
       </c>
       <c r="N134" t="inlineStr">
         <is>
@@ -10023,11 +10023,11 @@
       </c>
       <c r="O134" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P134" t="n">
-        <v>400</v>
+        <v>950</v>
       </c>
       <c r="Q134" t="n">
         <v>1</v>
@@ -10053,7 +10053,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44321</v>
+        <v>44390</v>
       </c>
       <c r="E135" t="n">
         <v>13</v>
@@ -10077,16 +10077,16 @@
         </is>
       </c>
       <c r="J135" t="n">
-        <v>2500</v>
+        <v>4300</v>
       </c>
       <c r="K135" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L135" t="n">
         <v>600</v>
       </c>
       <c r="M135" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="N135" t="inlineStr">
         <is>
@@ -10099,7 +10099,7 @@
         </is>
       </c>
       <c r="P135" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="Q135" t="n">
         <v>1</v>
@@ -10125,7 +10125,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44321</v>
+        <v>44390</v>
       </c>
       <c r="E136" t="n">
         <v>13</v>
@@ -10149,16 +10149,16 @@
         </is>
       </c>
       <c r="J136" t="n">
-        <v>1600</v>
+        <v>3400</v>
       </c>
       <c r="K136" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L136" t="n">
         <v>600</v>
       </c>
       <c r="M136" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="N136" t="inlineStr">
         <is>
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="P136" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="Q136" t="n">
         <v>1</v>
@@ -10197,7 +10197,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44383</v>
+        <v>44390</v>
       </c>
       <c r="E137" t="n">
         <v>13</v>
@@ -10217,20 +10217,20 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J137" t="n">
-        <v>4300</v>
+        <v>1600</v>
       </c>
       <c r="K137" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L137" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M137" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="N137" t="inlineStr">
         <is>
@@ -10243,7 +10243,7 @@
         </is>
       </c>
       <c r="P137" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="Q137" t="n">
         <v>1</v>
@@ -10269,7 +10269,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44383</v>
+        <v>44390</v>
       </c>
       <c r="E138" t="n">
         <v>13</v>
@@ -10289,20 +10289,20 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J138" t="n">
-        <v>3400</v>
+        <v>970</v>
       </c>
       <c r="K138" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L138" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M138" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="N138" t="inlineStr">
         <is>
@@ -10315,7 +10315,7 @@
         </is>
       </c>
       <c r="P138" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="Q138" t="n">
         <v>1</v>
@@ -10341,7 +10341,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44383</v>
+        <v>44321</v>
       </c>
       <c r="E139" t="n">
         <v>13</v>
@@ -10361,20 +10361,20 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J139" t="n">
-        <v>1600</v>
+        <v>2500</v>
       </c>
       <c r="K139" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L139" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M139" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="N139" t="inlineStr">
         <is>
@@ -10387,7 +10387,7 @@
         </is>
       </c>
       <c r="P139" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="Q139" t="n">
         <v>1</v>
@@ -10413,7 +10413,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44383</v>
+        <v>44321</v>
       </c>
       <c r="E140" t="n">
         <v>13</v>
@@ -10433,20 +10433,20 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J140" t="n">
-        <v>970</v>
+        <v>1600</v>
       </c>
       <c r="K140" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L140" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M140" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="N140" t="inlineStr">
         <is>
@@ -10459,7 +10459,7 @@
         </is>
       </c>
       <c r="P140" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="Q140" t="n">
         <v>1</v>
@@ -10485,7 +10485,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44354</v>
+        <v>44383</v>
       </c>
       <c r="E141" t="n">
         <v>13</v>
@@ -10509,7 +10509,7 @@
         </is>
       </c>
       <c r="J141" t="n">
-        <v>2500</v>
+        <v>4300</v>
       </c>
       <c r="K141" t="n">
         <v>500</v>
@@ -10557,7 +10557,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44412</v>
+        <v>44383</v>
       </c>
       <c r="E142" t="n">
         <v>13</v>
@@ -10581,16 +10581,16 @@
         </is>
       </c>
       <c r="J142" t="n">
-        <v>2500</v>
+        <v>3400</v>
       </c>
       <c r="K142" t="n">
+        <v>500</v>
+      </c>
+      <c r="L142" t="n">
         <v>600</v>
       </c>
-      <c r="L142" t="n">
-        <v>700</v>
-      </c>
       <c r="M142" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="N142" t="inlineStr">
         <is>
@@ -10599,11 +10599,11 @@
       </c>
       <c r="O142" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P142" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="Q142" t="n">
         <v>1</v>
@@ -10629,7 +10629,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44412</v>
+        <v>44383</v>
       </c>
       <c r="E143" t="n">
         <v>13</v>
@@ -10649,20 +10649,20 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J143" t="n">
         <v>1600</v>
       </c>
       <c r="K143" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L143" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="M143" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="N143" t="inlineStr">
         <is>
@@ -10671,11 +10671,11 @@
       </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P143" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="Q143" t="n">
         <v>1</v>
@@ -10701,7 +10701,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44412</v>
+        <v>44383</v>
       </c>
       <c r="E144" t="n">
         <v>13</v>
@@ -10728,13 +10728,13 @@
         <v>970</v>
       </c>
       <c r="K144" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L144" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M144" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="N144" t="inlineStr">
         <is>
@@ -10743,11 +10743,11 @@
       </c>
       <c r="O144" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P144" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="Q144" t="n">
         <v>1</v>
@@ -10773,7 +10773,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44412</v>
+        <v>44354</v>
       </c>
       <c r="E145" t="n">
         <v>13</v>
@@ -10793,20 +10793,20 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J145" t="n">
-        <v>790</v>
+        <v>2500</v>
       </c>
       <c r="K145" t="n">
         <v>500</v>
       </c>
       <c r="L145" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M145" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="N145" t="inlineStr">
         <is>
@@ -10815,11 +10815,11 @@
       </c>
       <c r="O145" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P145" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="Q145" t="n">
         <v>1</v>
@@ -10845,7 +10845,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44336</v>
+        <v>44412</v>
       </c>
       <c r="E146" t="n">
         <v>13</v>
@@ -10869,7 +10869,7 @@
         </is>
       </c>
       <c r="J146" t="n">
-        <v>4300</v>
+        <v>2500</v>
       </c>
       <c r="K146" t="n">
         <v>600</v>
@@ -10917,7 +10917,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44336</v>
+        <v>44412</v>
       </c>
       <c r="E147" t="n">
         <v>13</v>
@@ -10941,7 +10941,7 @@
         </is>
       </c>
       <c r="J147" t="n">
-        <v>3400</v>
+        <v>1600</v>
       </c>
       <c r="K147" t="n">
         <v>600</v>
@@ -10989,7 +10989,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44336</v>
+        <v>44412</v>
       </c>
       <c r="E148" t="n">
         <v>13</v>
@@ -11013,16 +11013,16 @@
         </is>
       </c>
       <c r="J148" t="n">
-        <v>1600</v>
+        <v>970</v>
       </c>
       <c r="K148" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L148" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M148" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N148" t="inlineStr">
         <is>
@@ -11035,7 +11035,7 @@
         </is>
       </c>
       <c r="P148" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Q148" t="n">
         <v>1</v>
@@ -11061,7 +11061,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44336</v>
+        <v>44412</v>
       </c>
       <c r="E149" t="n">
         <v>13</v>
@@ -11085,7 +11085,7 @@
         </is>
       </c>
       <c r="J149" t="n">
-        <v>1600</v>
+        <v>790</v>
       </c>
       <c r="K149" t="n">
         <v>500</v>
@@ -11133,7 +11133,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44300</v>
+        <v>44336</v>
       </c>
       <c r="E150" t="n">
         <v>13</v>
@@ -11157,16 +11157,16 @@
         </is>
       </c>
       <c r="J150" t="n">
-        <v>1600</v>
+        <v>4300</v>
       </c>
       <c r="K150" t="n">
+        <v>600</v>
+      </c>
+      <c r="L150" t="n">
         <v>700</v>
       </c>
-      <c r="L150" t="n">
-        <v>800</v>
-      </c>
       <c r="M150" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="N150" t="inlineStr">
         <is>
@@ -11179,7 +11179,7 @@
         </is>
       </c>
       <c r="P150" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="Q150" t="n">
         <v>1</v>
@@ -11205,7 +11205,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44214</v>
+        <v>44336</v>
       </c>
       <c r="E151" t="n">
         <v>13</v>
@@ -11229,16 +11229,16 @@
         </is>
       </c>
       <c r="J151" t="n">
-        <v>1300</v>
+        <v>3400</v>
       </c>
       <c r="K151" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="L151" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="M151" t="n">
-        <v>1000</v>
+        <v>650</v>
       </c>
       <c r="N151" t="inlineStr">
         <is>
@@ -11247,11 +11247,11 @@
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P151" t="n">
-        <v>1000</v>
+        <v>650</v>
       </c>
       <c r="Q151" t="n">
         <v>1</v>
@@ -11277,7 +11277,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44371</v>
+        <v>44336</v>
       </c>
       <c r="E152" t="n">
         <v>13</v>
@@ -11297,20 +11297,20 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J152" t="n">
-        <v>2500</v>
+        <v>1600</v>
       </c>
       <c r="K152" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L152" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M152" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="N152" t="inlineStr">
         <is>
@@ -11323,7 +11323,7 @@
         </is>
       </c>
       <c r="P152" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="Q152" t="n">
         <v>1</v>
@@ -11349,7 +11349,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44371</v>
+        <v>44336</v>
       </c>
       <c r="E153" t="n">
         <v>13</v>
@@ -11369,20 +11369,20 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J153" t="n">
-        <v>3400</v>
+        <v>1600</v>
       </c>
       <c r="K153" t="n">
         <v>500</v>
       </c>
       <c r="L153" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M153" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="N153" t="inlineStr">
         <is>
@@ -11395,7 +11395,7 @@
         </is>
       </c>
       <c r="P153" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="Q153" t="n">
         <v>1</v>
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44371</v>
+        <v>44300</v>
       </c>
       <c r="E154" t="n">
         <v>13</v>
@@ -11441,20 +11441,20 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J154" t="n">
-        <v>970</v>
+        <v>1600</v>
       </c>
       <c r="K154" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="L154" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="M154" t="n">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="N154" t="inlineStr">
         <is>
@@ -11467,7 +11467,7 @@
         </is>
       </c>
       <c r="P154" t="n">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="Q154" t="n">
         <v>1</v>
@@ -11493,7 +11493,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44371</v>
+        <v>44214</v>
       </c>
       <c r="E155" t="n">
         <v>13</v>
@@ -11513,20 +11513,20 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J155" t="n">
-        <v>1600</v>
+        <v>1300</v>
       </c>
       <c r="K155" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="L155" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="M155" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="N155" t="inlineStr">
         <is>
@@ -11535,11 +11535,11 @@
       </c>
       <c r="O155" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P155" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="Q155" t="n">
         <v>1</v>
@@ -11565,7 +11565,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44274</v>
+        <v>44371</v>
       </c>
       <c r="E156" t="n">
         <v>13</v>
@@ -11589,16 +11589,16 @@
         </is>
       </c>
       <c r="J156" t="n">
-        <v>1600</v>
+        <v>2500</v>
       </c>
       <c r="K156" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="L156" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="M156" t="n">
-        <v>1000</v>
+        <v>550</v>
       </c>
       <c r="N156" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         </is>
       </c>
       <c r="P156" t="n">
-        <v>1000</v>
+        <v>550</v>
       </c>
       <c r="Q156" t="n">
         <v>1</v>
@@ -11637,7 +11637,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44320</v>
+        <v>44371</v>
       </c>
       <c r="E157" t="n">
         <v>13</v>
@@ -11661,16 +11661,16 @@
         </is>
       </c>
       <c r="J157" t="n">
-        <v>2500</v>
+        <v>3400</v>
       </c>
       <c r="K157" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L157" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M157" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="N157" t="inlineStr">
         <is>
@@ -11679,11 +11679,11 @@
       </c>
       <c r="O157" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P157" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="Q157" t="n">
         <v>1</v>
@@ -11709,7 +11709,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44320</v>
+        <v>44371</v>
       </c>
       <c r="E158" t="n">
         <v>13</v>
@@ -11733,16 +11733,16 @@
         </is>
       </c>
       <c r="J158" t="n">
-        <v>700</v>
+        <v>970</v>
       </c>
       <c r="K158" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L158" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M158" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="N158" t="inlineStr">
         <is>
@@ -11755,7 +11755,7 @@
         </is>
       </c>
       <c r="P158" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="Q158" t="n">
         <v>1</v>
@@ -11781,7 +11781,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44314</v>
+        <v>44371</v>
       </c>
       <c r="E159" t="n">
         <v>13</v>
@@ -11801,20 +11801,20 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J159" t="n">
-        <v>2500</v>
+        <v>1600</v>
       </c>
       <c r="K159" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L159" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M159" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="N159" t="inlineStr">
         <is>
@@ -11827,7 +11827,7 @@
         </is>
       </c>
       <c r="P159" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="Q159" t="n">
         <v>1</v>
@@ -11853,7 +11853,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44364</v>
+        <v>44274</v>
       </c>
       <c r="E160" t="n">
         <v>13</v>
@@ -11877,16 +11877,16 @@
         </is>
       </c>
       <c r="J160" t="n">
-        <v>3800</v>
+        <v>1600</v>
       </c>
       <c r="K160" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="L160" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="M160" t="n">
-        <v>550</v>
+        <v>1000</v>
       </c>
       <c r="N160" t="inlineStr">
         <is>
@@ -11895,11 +11895,11 @@
       </c>
       <c r="O160" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P160" t="n">
-        <v>550</v>
+        <v>1000</v>
       </c>
       <c r="Q160" t="n">
         <v>1</v>
@@ -11925,7 +11925,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44364</v>
+        <v>44320</v>
       </c>
       <c r="E161" t="n">
         <v>13</v>
@@ -11945,20 +11945,20 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J161" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="K161" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="L161" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="M161" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="N161" t="inlineStr">
         <is>
@@ -11967,11 +11967,11 @@
       </c>
       <c r="O161" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P161" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="Q161" t="n">
         <v>1</v>
@@ -11997,7 +11997,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44405</v>
+        <v>44320</v>
       </c>
       <c r="E162" t="n">
         <v>13</v>
@@ -12017,20 +12017,20 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J162" t="n">
-        <v>1600</v>
+        <v>700</v>
       </c>
       <c r="K162" t="n">
         <v>500</v>
       </c>
       <c r="L162" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M162" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="N162" t="inlineStr">
         <is>
@@ -12039,11 +12039,11 @@
       </c>
       <c r="O162" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P162" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="Q162" t="n">
         <v>1</v>
@@ -12069,7 +12069,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44405</v>
+        <v>44314</v>
       </c>
       <c r="E163" t="n">
         <v>13</v>
@@ -12089,20 +12089,20 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J163" t="n">
-        <v>790</v>
+        <v>2500</v>
       </c>
       <c r="K163" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L163" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M163" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="N163" t="inlineStr">
         <is>
@@ -12115,7 +12115,7 @@
         </is>
       </c>
       <c r="P163" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="Q163" t="n">
         <v>1</v>
@@ -12141,7 +12141,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44327</v>
+        <v>44364</v>
       </c>
       <c r="E164" t="n">
         <v>13</v>
@@ -12165,16 +12165,16 @@
         </is>
       </c>
       <c r="J164" t="n">
-        <v>4300</v>
+        <v>3800</v>
       </c>
       <c r="K164" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L164" t="n">
         <v>600</v>
       </c>
       <c r="M164" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="N164" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         </is>
       </c>
       <c r="P164" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="Q164" t="n">
         <v>1</v>
@@ -12213,7 +12213,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44327</v>
+        <v>44364</v>
       </c>
       <c r="E165" t="n">
         <v>13</v>
@@ -12237,7 +12237,7 @@
         </is>
       </c>
       <c r="J165" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="K165" t="n">
         <v>400</v>
@@ -12285,7 +12285,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44313</v>
+        <v>44405</v>
       </c>
       <c r="E166" t="n">
         <v>13</v>
@@ -12309,16 +12309,16 @@
         </is>
       </c>
       <c r="J166" t="n">
-        <v>1420</v>
+        <v>1600</v>
       </c>
       <c r="K166" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L166" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M166" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="N166" t="inlineStr">
         <is>
@@ -12327,11 +12327,11 @@
       </c>
       <c r="O166" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P166" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="Q166" t="n">
         <v>1</v>
@@ -12357,7 +12357,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44330</v>
+        <v>44405</v>
       </c>
       <c r="E167" t="n">
         <v>13</v>
@@ -12377,20 +12377,20 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J167" t="n">
-        <v>2500</v>
+        <v>790</v>
       </c>
       <c r="K167" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L167" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="M167" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="N167" t="inlineStr">
         <is>
@@ -12399,11 +12399,11 @@
       </c>
       <c r="O167" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P167" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="Q167" t="n">
         <v>1</v>
@@ -12429,7 +12429,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44330</v>
+        <v>44327</v>
       </c>
       <c r="E168" t="n">
         <v>13</v>
@@ -12453,16 +12453,16 @@
         </is>
       </c>
       <c r="J168" t="n">
-        <v>3400</v>
+        <v>4300</v>
       </c>
       <c r="K168" t="n">
         <v>600</v>
       </c>
       <c r="L168" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M168" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="N168" t="inlineStr">
         <is>
@@ -12475,7 +12475,7 @@
         </is>
       </c>
       <c r="P168" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="Q168" t="n">
         <v>1</v>
@@ -12501,7 +12501,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44330</v>
+        <v>44327</v>
       </c>
       <c r="E169" t="n">
         <v>13</v>
@@ -12525,7 +12525,7 @@
         </is>
       </c>
       <c r="J169" t="n">
-        <v>700</v>
+        <v>1600</v>
       </c>
       <c r="K169" t="n">
         <v>400</v>
@@ -12543,7 +12543,7 @@
       </c>
       <c r="O169" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P169" t="n">
@@ -12573,7 +12573,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44330</v>
+        <v>44313</v>
       </c>
       <c r="E170" t="n">
         <v>13</v>
@@ -12593,20 +12593,20 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J170" t="n">
-        <v>1600</v>
+        <v>1420</v>
       </c>
       <c r="K170" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="L170" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="M170" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="N170" t="inlineStr">
         <is>
@@ -12615,11 +12615,11 @@
       </c>
       <c r="O170" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P170" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="Q170" t="n">
         <v>1</v>
@@ -12645,7 +12645,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44391</v>
+        <v>44330</v>
       </c>
       <c r="E171" t="n">
         <v>13</v>
@@ -12669,16 +12669,16 @@
         </is>
       </c>
       <c r="J171" t="n">
-        <v>1600</v>
+        <v>2500</v>
       </c>
       <c r="K171" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L171" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M171" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="N171" t="inlineStr">
         <is>
@@ -12691,7 +12691,7 @@
         </is>
       </c>
       <c r="P171" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="Q171" t="n">
         <v>1</v>
@@ -12717,7 +12717,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44391</v>
+        <v>44330</v>
       </c>
       <c r="E172" t="n">
         <v>13</v>
@@ -12741,16 +12741,16 @@
         </is>
       </c>
       <c r="J172" t="n">
-        <v>2500</v>
+        <v>3400</v>
       </c>
       <c r="K172" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L172" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M172" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="N172" t="inlineStr">
         <is>
@@ -12763,7 +12763,7 @@
         </is>
       </c>
       <c r="P172" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="Q172" t="n">
         <v>1</v>
@@ -12789,7 +12789,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44391</v>
+        <v>44330</v>
       </c>
       <c r="E173" t="n">
         <v>13</v>
@@ -12813,7 +12813,7 @@
         </is>
       </c>
       <c r="J173" t="n">
-        <v>520</v>
+        <v>700</v>
       </c>
       <c r="K173" t="n">
         <v>400</v>
@@ -12861,7 +12861,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44391</v>
+        <v>44330</v>
       </c>
       <c r="E174" t="n">
         <v>13</v>
@@ -12885,7 +12885,7 @@
         </is>
       </c>
       <c r="J174" t="n">
-        <v>970</v>
+        <v>1600</v>
       </c>
       <c r="K174" t="n">
         <v>400</v>
@@ -12933,7 +12933,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44351</v>
+        <v>44391</v>
       </c>
       <c r="E175" t="n">
         <v>13</v>
@@ -12957,7 +12957,7 @@
         </is>
       </c>
       <c r="J175" t="n">
-        <v>3400</v>
+        <v>1600</v>
       </c>
       <c r="K175" t="n">
         <v>500</v>
@@ -13005,7 +13005,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44351</v>
+        <v>44391</v>
       </c>
       <c r="E176" t="n">
         <v>13</v>
@@ -13029,7 +13029,7 @@
         </is>
       </c>
       <c r="J176" t="n">
-        <v>4300</v>
+        <v>2500</v>
       </c>
       <c r="K176" t="n">
         <v>500</v>
@@ -13077,7 +13077,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44351</v>
+        <v>44391</v>
       </c>
       <c r="E177" t="n">
         <v>13</v>
@@ -13101,7 +13101,7 @@
         </is>
       </c>
       <c r="J177" t="n">
-        <v>1600</v>
+        <v>520</v>
       </c>
       <c r="K177" t="n">
         <v>400</v>
@@ -13149,7 +13149,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44351</v>
+        <v>44391</v>
       </c>
       <c r="E178" t="n">
         <v>13</v>
@@ -13173,7 +13173,7 @@
         </is>
       </c>
       <c r="J178" t="n">
-        <v>2500</v>
+        <v>970</v>
       </c>
       <c r="K178" t="n">
         <v>400</v>
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44350</v>
+        <v>44351</v>
       </c>
       <c r="E179" t="n">
         <v>13</v>
@@ -13245,16 +13245,16 @@
         </is>
       </c>
       <c r="J179" t="n">
-        <v>21000</v>
+        <v>3400</v>
       </c>
       <c r="K179" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L179" t="n">
         <v>600</v>
       </c>
       <c r="M179" t="n">
-        <v>467</v>
+        <v>550</v>
       </c>
       <c r="N179" t="inlineStr">
         <is>
@@ -13267,7 +13267,7 @@
         </is>
       </c>
       <c r="P179" t="n">
-        <v>467</v>
+        <v>550</v>
       </c>
       <c r="Q179" t="n">
         <v>1</v>
@@ -13293,7 +13293,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44350</v>
+        <v>44351</v>
       </c>
       <c r="E180" t="n">
         <v>13</v>
@@ -13317,7 +13317,7 @@
         </is>
       </c>
       <c r="J180" t="n">
-        <v>6200</v>
+        <v>4300</v>
       </c>
       <c r="K180" t="n">
         <v>500</v>
@@ -13326,7 +13326,7 @@
         <v>600</v>
       </c>
       <c r="M180" t="n">
-        <v>523</v>
+        <v>550</v>
       </c>
       <c r="N180" t="inlineStr">
         <is>
@@ -13339,7 +13339,7 @@
         </is>
       </c>
       <c r="P180" t="n">
-        <v>523</v>
+        <v>550</v>
       </c>
       <c r="Q180" t="n">
         <v>1</v>
@@ -13365,7 +13365,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44350</v>
+        <v>44351</v>
       </c>
       <c r="E181" t="n">
         <v>13</v>
@@ -13389,16 +13389,16 @@
         </is>
       </c>
       <c r="J181" t="n">
-        <v>7500</v>
+        <v>1600</v>
       </c>
       <c r="K181" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="L181" t="n">
         <v>400</v>
       </c>
       <c r="M181" t="n">
-        <v>299</v>
+        <v>400</v>
       </c>
       <c r="N181" t="inlineStr">
         <is>
@@ -13411,7 +13411,7 @@
         </is>
       </c>
       <c r="P181" t="n">
-        <v>299</v>
+        <v>400</v>
       </c>
       <c r="Q181" t="n">
         <v>1</v>
@@ -13437,7 +13437,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44350</v>
+        <v>44351</v>
       </c>
       <c r="E182" t="n">
         <v>13</v>
@@ -13461,7 +13461,7 @@
         </is>
       </c>
       <c r="J182" t="n">
-        <v>1300</v>
+        <v>2500</v>
       </c>
       <c r="K182" t="n">
         <v>400</v>
@@ -13509,7 +13509,7 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>44196</v>
+        <v>44350</v>
       </c>
       <c r="E183" t="n">
         <v>13</v>
@@ -13533,16 +13533,16 @@
         </is>
       </c>
       <c r="J183" t="n">
-        <v>3400</v>
+        <v>21000</v>
       </c>
       <c r="K183" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="L183" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="M183" t="n">
-        <v>950</v>
+        <v>467</v>
       </c>
       <c r="N183" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         </is>
       </c>
       <c r="P183" t="n">
-        <v>950</v>
+        <v>467</v>
       </c>
       <c r="Q183" t="n">
         <v>1</v>
@@ -13581,7 +13581,7 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>44315</v>
+        <v>44350</v>
       </c>
       <c r="E184" t="n">
         <v>13</v>
@@ -13605,16 +13605,16 @@
         </is>
       </c>
       <c r="J184" t="n">
-        <v>2500</v>
+        <v>6200</v>
       </c>
       <c r="K184" t="n">
+        <v>500</v>
+      </c>
+      <c r="L184" t="n">
         <v>600</v>
       </c>
-      <c r="L184" t="n">
-        <v>700</v>
-      </c>
       <c r="M184" t="n">
-        <v>650</v>
+        <v>523</v>
       </c>
       <c r="N184" t="inlineStr">
         <is>
@@ -13623,11 +13623,11 @@
       </c>
       <c r="O184" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P184" t="n">
-        <v>650</v>
+        <v>523</v>
       </c>
       <c r="Q184" t="n">
         <v>1</v>
@@ -13653,7 +13653,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44315</v>
+        <v>44350</v>
       </c>
       <c r="E185" t="n">
         <v>13</v>
@@ -13673,20 +13673,20 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J185" t="n">
-        <v>1600</v>
+        <v>7500</v>
       </c>
       <c r="K185" t="n">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="L185" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M185" t="n">
-        <v>600</v>
+        <v>299</v>
       </c>
       <c r="N185" t="inlineStr">
         <is>
@@ -13695,11 +13695,11 @@
       </c>
       <c r="O185" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P185" t="n">
-        <v>600</v>
+        <v>299</v>
       </c>
       <c r="Q185" t="n">
         <v>1</v>
@@ -13725,7 +13725,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44278</v>
+        <v>44350</v>
       </c>
       <c r="E186" t="n">
         <v>13</v>
@@ -13745,20 +13745,20 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J186" t="n">
-        <v>1600</v>
+        <v>1300</v>
       </c>
       <c r="K186" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="L186" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="M186" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="N186" t="inlineStr">
         <is>
@@ -13767,11 +13767,11 @@
       </c>
       <c r="O186" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P186" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="Q186" t="n">
         <v>1</v>
@@ -13797,7 +13797,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44358</v>
+        <v>44196</v>
       </c>
       <c r="E187" t="n">
         <v>13</v>
@@ -13821,16 +13821,16 @@
         </is>
       </c>
       <c r="J187" t="n">
-        <v>4300</v>
+        <v>3400</v>
       </c>
       <c r="K187" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="L187" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="M187" t="n">
-        <v>550</v>
+        <v>950</v>
       </c>
       <c r="N187" t="inlineStr">
         <is>
@@ -13843,7 +13843,7 @@
         </is>
       </c>
       <c r="P187" t="n">
-        <v>550</v>
+        <v>950</v>
       </c>
       <c r="Q187" t="n">
         <v>1</v>
@@ -13869,7 +13869,7 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>44358</v>
+        <v>44315</v>
       </c>
       <c r="E188" t="n">
         <v>13</v>
@@ -13893,16 +13893,16 @@
         </is>
       </c>
       <c r="J188" t="n">
-        <v>3400</v>
+        <v>2500</v>
       </c>
       <c r="K188" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L188" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M188" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="N188" t="inlineStr">
         <is>
@@ -13911,11 +13911,11 @@
       </c>
       <c r="O188" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P188" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="Q188" t="n">
         <v>1</v>
@@ -13941,7 +13941,7 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>44358</v>
+        <v>44315</v>
       </c>
       <c r="E189" t="n">
         <v>13</v>
@@ -13961,20 +13961,20 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J189" t="n">
-        <v>2500</v>
+        <v>1600</v>
       </c>
       <c r="K189" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L189" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M189" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="N189" t="inlineStr">
         <is>
@@ -13983,11 +13983,11 @@
       </c>
       <c r="O189" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P189" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="Q189" t="n">
         <v>1</v>
@@ -14013,7 +14013,7 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>44358</v>
+        <v>44278</v>
       </c>
       <c r="E190" t="n">
         <v>13</v>
@@ -14033,20 +14033,20 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J190" t="n">
         <v>1600</v>
       </c>
       <c r="K190" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="L190" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="M190" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="N190" t="inlineStr">
         <is>
@@ -14055,11 +14055,11 @@
       </c>
       <c r="O190" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P190" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="Q190" t="n">
         <v>1</v>
@@ -14085,7 +14085,7 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>44389</v>
+        <v>44358</v>
       </c>
       <c r="E191" t="n">
         <v>13</v>
@@ -14109,7 +14109,7 @@
         </is>
       </c>
       <c r="J191" t="n">
-        <v>1600</v>
+        <v>4300</v>
       </c>
       <c r="K191" t="n">
         <v>500</v>
@@ -14127,7 +14127,7 @@
       </c>
       <c r="O191" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P191" t="n">
@@ -14157,7 +14157,7 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>44389</v>
+        <v>44358</v>
       </c>
       <c r="E192" t="n">
         <v>13</v>
@@ -14177,20 +14177,20 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J192" t="n">
-        <v>520</v>
+        <v>3400</v>
       </c>
       <c r="K192" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L192" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M192" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="N192" t="inlineStr">
         <is>
@@ -14203,7 +14203,7 @@
         </is>
       </c>
       <c r="P192" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="Q192" t="n">
         <v>1</v>
@@ -14229,7 +14229,7 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>44399</v>
+        <v>44358</v>
       </c>
       <c r="E193" t="n">
         <v>13</v>
@@ -14249,20 +14249,20 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J193" t="n">
-        <v>4300</v>
+        <v>2500</v>
       </c>
       <c r="K193" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L193" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M193" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="N193" t="inlineStr">
         <is>
@@ -14275,7 +14275,7 @@
         </is>
       </c>
       <c r="P193" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="Q193" t="n">
         <v>1</v>
@@ -14301,7 +14301,7 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>44399</v>
+        <v>44358</v>
       </c>
       <c r="E194" t="n">
         <v>13</v>
@@ -14321,20 +14321,20 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J194" t="n">
-        <v>3400</v>
+        <v>1600</v>
       </c>
       <c r="K194" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L194" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M194" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="N194" t="inlineStr">
         <is>
@@ -14347,7 +14347,7 @@
         </is>
       </c>
       <c r="P194" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="Q194" t="n">
         <v>1</v>
@@ -14373,7 +14373,7 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>44399</v>
+        <v>44389</v>
       </c>
       <c r="E195" t="n">
         <v>13</v>
@@ -14393,20 +14393,20 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J195" t="n">
         <v>1600</v>
       </c>
       <c r="K195" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L195" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M195" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="N195" t="inlineStr">
         <is>
@@ -14415,11 +14415,11 @@
       </c>
       <c r="O195" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P195" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="Q195" t="n">
         <v>1</v>
@@ -14445,7 +14445,7 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>44399</v>
+        <v>44389</v>
       </c>
       <c r="E196" t="n">
         <v>13</v>
@@ -14469,7 +14469,7 @@
         </is>
       </c>
       <c r="J196" t="n">
-        <v>970</v>
+        <v>520</v>
       </c>
       <c r="K196" t="n">
         <v>400</v>
@@ -14517,7 +14517,7 @@
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>44250</v>
+        <v>44399</v>
       </c>
       <c r="E197" t="n">
         <v>13</v>
@@ -14541,16 +14541,16 @@
         </is>
       </c>
       <c r="J197" t="n">
-        <v>700</v>
+        <v>4300</v>
       </c>
       <c r="K197" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="L197" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="M197" t="n">
-        <v>1000</v>
+        <v>550</v>
       </c>
       <c r="N197" t="inlineStr">
         <is>
@@ -14563,7 +14563,7 @@
         </is>
       </c>
       <c r="P197" t="n">
-        <v>1000</v>
+        <v>550</v>
       </c>
       <c r="Q197" t="n">
         <v>1</v>
@@ -14589,7 +14589,7 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>44292</v>
+        <v>44399</v>
       </c>
       <c r="E198" t="n">
         <v>13</v>
@@ -14613,16 +14613,16 @@
         </is>
       </c>
       <c r="J198" t="n">
-        <v>1600</v>
+        <v>3400</v>
       </c>
       <c r="K198" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="L198" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="M198" t="n">
-        <v>900</v>
+        <v>550</v>
       </c>
       <c r="N198" t="inlineStr">
         <is>
@@ -14631,11 +14631,11 @@
       </c>
       <c r="O198" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P198" t="n">
-        <v>900</v>
+        <v>550</v>
       </c>
       <c r="Q198" t="n">
         <v>1</v>
@@ -14661,7 +14661,7 @@
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>44294</v>
+        <v>44399</v>
       </c>
       <c r="E199" t="n">
         <v>13</v>
@@ -14681,20 +14681,20 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J199" t="n">
         <v>1600</v>
       </c>
       <c r="K199" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="L199" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="M199" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="N199" t="inlineStr">
         <is>
@@ -14707,7 +14707,7 @@
         </is>
       </c>
       <c r="P199" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="Q199" t="n">
         <v>1</v>
@@ -14733,7 +14733,7 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>44294</v>
+        <v>44399</v>
       </c>
       <c r="E200" t="n">
         <v>13</v>
@@ -14753,20 +14753,20 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J200" t="n">
-        <v>1600</v>
+        <v>970</v>
       </c>
       <c r="K200" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="L200" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="M200" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="N200" t="inlineStr">
         <is>
@@ -14779,7 +14779,7 @@
         </is>
       </c>
       <c r="P200" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="Q200" t="n">
         <v>1</v>
@@ -14805,7 +14805,7 @@
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>44245</v>
+        <v>44250</v>
       </c>
       <c r="E201" t="n">
         <v>13</v>
@@ -14829,16 +14829,16 @@
         </is>
       </c>
       <c r="J201" t="n">
-        <v>1600</v>
+        <v>700</v>
       </c>
       <c r="K201" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="L201" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="M201" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="N201" t="inlineStr">
         <is>
@@ -14851,7 +14851,7 @@
         </is>
       </c>
       <c r="P201" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="Q201" t="n">
         <v>1</v>
@@ -14877,7 +14877,7 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>44202</v>
+        <v>44292</v>
       </c>
       <c r="E202" t="n">
         <v>13</v>
@@ -14901,16 +14901,16 @@
         </is>
       </c>
       <c r="J202" t="n">
-        <v>3100</v>
+        <v>1600</v>
       </c>
       <c r="K202" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="L202" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="M202" t="n">
-        <v>748</v>
+        <v>900</v>
       </c>
       <c r="N202" t="inlineStr">
         <is>
@@ -14919,11 +14919,11 @@
       </c>
       <c r="O202" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P202" t="n">
-        <v>748</v>
+        <v>900</v>
       </c>
       <c r="Q202" t="n">
         <v>1</v>
@@ -14949,7 +14949,7 @@
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>44369</v>
+        <v>44294</v>
       </c>
       <c r="E203" t="n">
         <v>13</v>
@@ -14973,16 +14973,16 @@
         </is>
       </c>
       <c r="J203" t="n">
-        <v>3400</v>
+        <v>1600</v>
       </c>
       <c r="K203" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="L203" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M203" t="n">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="N203" t="inlineStr">
         <is>
@@ -14995,7 +14995,7 @@
         </is>
       </c>
       <c r="P203" t="n">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="Q203" t="n">
         <v>1</v>
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>44369</v>
+        <v>44294</v>
       </c>
       <c r="E204" t="n">
         <v>13</v>
@@ -15045,16 +15045,16 @@
         </is>
       </c>
       <c r="J204" t="n">
-        <v>2500</v>
+        <v>1600</v>
       </c>
       <c r="K204" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="L204" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="M204" t="n">
-        <v>550</v>
+        <v>900</v>
       </c>
       <c r="N204" t="inlineStr">
         <is>
@@ -15067,7 +15067,7 @@
         </is>
       </c>
       <c r="P204" t="n">
-        <v>550</v>
+        <v>900</v>
       </c>
       <c r="Q204" t="n">
         <v>1</v>
@@ -15093,7 +15093,7 @@
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>44369</v>
+        <v>44245</v>
       </c>
       <c r="E205" t="n">
         <v>13</v>
@@ -15113,20 +15113,20 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J205" t="n">
         <v>1600</v>
       </c>
       <c r="K205" t="n">
-        <v>400</v>
+        <v>1200</v>
       </c>
       <c r="L205" t="n">
-        <v>400</v>
+        <v>1200</v>
       </c>
       <c r="M205" t="n">
-        <v>400</v>
+        <v>1200</v>
       </c>
       <c r="N205" t="inlineStr">
         <is>
@@ -15139,7 +15139,7 @@
         </is>
       </c>
       <c r="P205" t="n">
-        <v>400</v>
+        <v>1200</v>
       </c>
       <c r="Q205" t="n">
         <v>1</v>
@@ -15165,7 +15165,7 @@
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>44369</v>
+        <v>44202</v>
       </c>
       <c r="E206" t="n">
         <v>13</v>
@@ -15185,20 +15185,20 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J206" t="n">
+        <v>3100</v>
+      </c>
+      <c r="K206" t="n">
         <v>700</v>
       </c>
-      <c r="K206" t="n">
-        <v>400</v>
-      </c>
       <c r="L206" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="M206" t="n">
-        <v>400</v>
+        <v>748</v>
       </c>
       <c r="N206" t="inlineStr">
         <is>
@@ -15207,11 +15207,11 @@
       </c>
       <c r="O206" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P206" t="n">
-        <v>400</v>
+        <v>748</v>
       </c>
       <c r="Q206" t="n">
         <v>1</v>
@@ -15237,7 +15237,7 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>44307</v>
+        <v>44369</v>
       </c>
       <c r="E207" t="n">
         <v>13</v>
@@ -15261,16 +15261,16 @@
         </is>
       </c>
       <c r="J207" t="n">
-        <v>2100</v>
+        <v>3400</v>
       </c>
       <c r="K207" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L207" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M207" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="N207" t="inlineStr">
         <is>
@@ -15283,7 +15283,7 @@
         </is>
       </c>
       <c r="P207" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="Q207" t="n">
         <v>1</v>
@@ -15309,7 +15309,7 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>44161</v>
+        <v>44369</v>
       </c>
       <c r="E208" t="n">
         <v>13</v>
@@ -15333,16 +15333,16 @@
         </is>
       </c>
       <c r="J208" t="n">
-        <v>4500</v>
+        <v>2500</v>
       </c>
       <c r="K208" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L208" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M208" t="n">
-        <v>456</v>
+        <v>550</v>
       </c>
       <c r="N208" t="inlineStr">
         <is>
@@ -15351,11 +15351,11 @@
       </c>
       <c r="O208" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P208" t="n">
-        <v>456</v>
+        <v>550</v>
       </c>
       <c r="Q208" t="n">
         <v>1</v>
@@ -15381,7 +15381,7 @@
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>44195</v>
+        <v>44369</v>
       </c>
       <c r="E209" t="n">
         <v>13</v>
@@ -15401,20 +15401,20 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J209" t="n">
-        <v>4300</v>
+        <v>1600</v>
       </c>
       <c r="K209" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="L209" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="M209" t="n">
-        <v>950</v>
+        <v>400</v>
       </c>
       <c r="N209" t="inlineStr">
         <is>
@@ -15427,7 +15427,7 @@
         </is>
       </c>
       <c r="P209" t="n">
-        <v>950</v>
+        <v>400</v>
       </c>
       <c r="Q209" t="n">
         <v>1</v>
@@ -15453,7 +15453,7 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>44159</v>
+        <v>44369</v>
       </c>
       <c r="E210" t="n">
         <v>13</v>
@@ -15473,20 +15473,20 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J210" t="n">
-        <v>4500</v>
+        <v>700</v>
       </c>
       <c r="K210" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L210" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M210" t="n">
-        <v>544</v>
+        <v>400</v>
       </c>
       <c r="N210" t="inlineStr">
         <is>
@@ -15495,11 +15495,11 @@
       </c>
       <c r="O210" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P210" t="n">
-        <v>544</v>
+        <v>400</v>
       </c>
       <c r="Q210" t="n">
         <v>1</v>
@@ -15525,7 +15525,7 @@
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>44333</v>
+        <v>44307</v>
       </c>
       <c r="E211" t="n">
         <v>13</v>
@@ -15549,16 +15549,16 @@
         </is>
       </c>
       <c r="J211" t="n">
-        <v>1400</v>
+        <v>2100</v>
       </c>
       <c r="K211" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L211" t="n">
         <v>700</v>
       </c>
       <c r="M211" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="N211" t="inlineStr">
         <is>
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="P211" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="Q211" t="n">
         <v>1</v>
@@ -15597,7 +15597,7 @@
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>44201</v>
+        <v>44161</v>
       </c>
       <c r="E212" t="n">
         <v>13</v>
@@ -15621,16 +15621,16 @@
         </is>
       </c>
       <c r="J212" t="n">
-        <v>3600</v>
+        <v>4500</v>
       </c>
       <c r="K212" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L212" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M212" t="n">
-        <v>656</v>
+        <v>456</v>
       </c>
       <c r="N212" t="inlineStr">
         <is>
@@ -15639,11 +15639,11 @@
       </c>
       <c r="O212" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P212" t="n">
-        <v>656</v>
+        <v>456</v>
       </c>
       <c r="Q212" t="n">
         <v>1</v>
@@ -15669,7 +15669,7 @@
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>44309</v>
+        <v>44195</v>
       </c>
       <c r="E213" t="n">
         <v>13</v>
@@ -15693,16 +15693,16 @@
         </is>
       </c>
       <c r="J213" t="n">
-        <v>2500</v>
+        <v>4300</v>
       </c>
       <c r="K213" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="L213" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="M213" t="n">
-        <v>700</v>
+        <v>950</v>
       </c>
       <c r="N213" t="inlineStr">
         <is>
@@ -15715,7 +15715,7 @@
         </is>
       </c>
       <c r="P213" t="n">
-        <v>700</v>
+        <v>950</v>
       </c>
       <c r="Q213" t="n">
         <v>1</v>
@@ -15741,7 +15741,7 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>44309</v>
+        <v>44159</v>
       </c>
       <c r="E214" t="n">
         <v>13</v>
@@ -15761,20 +15761,20 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J214" t="n">
-        <v>700</v>
+        <v>4500</v>
       </c>
       <c r="K214" t="n">
         <v>500</v>
       </c>
       <c r="L214" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M214" t="n">
-        <v>500</v>
+        <v>544</v>
       </c>
       <c r="N214" t="inlineStr">
         <is>
@@ -15783,11 +15783,11 @@
       </c>
       <c r="O214" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P214" t="n">
-        <v>500</v>
+        <v>544</v>
       </c>
       <c r="Q214" t="n">
         <v>1</v>
@@ -15813,7 +15813,7 @@
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>44188</v>
+        <v>44333</v>
       </c>
       <c r="E215" t="n">
         <v>13</v>
@@ -15837,16 +15837,16 @@
         </is>
       </c>
       <c r="J215" t="n">
-        <v>2100</v>
+        <v>1400</v>
       </c>
       <c r="K215" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="L215" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M215" t="n">
-        <v>852</v>
+        <v>650</v>
       </c>
       <c r="N215" t="inlineStr">
         <is>
@@ -15855,11 +15855,11 @@
       </c>
       <c r="O215" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P215" t="n">
-        <v>852</v>
+        <v>650</v>
       </c>
       <c r="Q215" t="n">
         <v>1</v>
@@ -15885,7 +15885,7 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>44344</v>
+        <v>44201</v>
       </c>
       <c r="E216" t="n">
         <v>13</v>
@@ -15909,16 +15909,16 @@
         </is>
       </c>
       <c r="J216" t="n">
-        <v>5200</v>
+        <v>3600</v>
       </c>
       <c r="K216" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L216" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M216" t="n">
-        <v>550</v>
+        <v>656</v>
       </c>
       <c r="N216" t="inlineStr">
         <is>
@@ -15931,7 +15931,7 @@
         </is>
       </c>
       <c r="P216" t="n">
-        <v>550</v>
+        <v>656</v>
       </c>
       <c r="Q216" t="n">
         <v>1</v>
@@ -15957,7 +15957,7 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44344</v>
+        <v>44309</v>
       </c>
       <c r="E217" t="n">
         <v>13</v>
@@ -15981,16 +15981,16 @@
         </is>
       </c>
       <c r="J217" t="n">
-        <v>3900</v>
+        <v>2500</v>
       </c>
       <c r="K217" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L217" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M217" t="n">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="N217" t="inlineStr">
         <is>
@@ -15999,11 +15999,11 @@
       </c>
       <c r="O217" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P217" t="n">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="Q217" t="n">
         <v>1</v>
@@ -16029,7 +16029,7 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>44344</v>
+        <v>44309</v>
       </c>
       <c r="E218" t="n">
         <v>13</v>
@@ -16053,16 +16053,16 @@
         </is>
       </c>
       <c r="J218" t="n">
-        <v>2100</v>
+        <v>700</v>
       </c>
       <c r="K218" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L218" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M218" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N218" t="inlineStr">
         <is>
@@ -16075,7 +16075,7 @@
         </is>
       </c>
       <c r="P218" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Q218" t="n">
         <v>1</v>
@@ -16101,7 +16101,7 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>44344</v>
+        <v>44188</v>
       </c>
       <c r="E219" t="n">
         <v>13</v>
@@ -16121,20 +16121,20 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J219" t="n">
-        <v>1800</v>
+        <v>2100</v>
       </c>
       <c r="K219" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="L219" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="M219" t="n">
-        <v>400</v>
+        <v>852</v>
       </c>
       <c r="N219" t="inlineStr">
         <is>
@@ -16147,7 +16147,7 @@
         </is>
       </c>
       <c r="P219" t="n">
-        <v>400</v>
+        <v>852</v>
       </c>
       <c r="Q219" t="n">
         <v>1</v>
@@ -16173,7 +16173,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44319</v>
+        <v>44344</v>
       </c>
       <c r="E220" t="n">
         <v>13</v>
@@ -16197,16 +16197,16 @@
         </is>
       </c>
       <c r="J220" t="n">
-        <v>1600</v>
+        <v>5200</v>
       </c>
       <c r="K220" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L220" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M220" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="N220" t="inlineStr">
         <is>
@@ -16219,7 +16219,7 @@
         </is>
       </c>
       <c r="P220" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="Q220" t="n">
         <v>1</v>
@@ -16245,7 +16245,7 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44316</v>
+        <v>44344</v>
       </c>
       <c r="E221" t="n">
         <v>13</v>
@@ -16269,16 +16269,16 @@
         </is>
       </c>
       <c r="J221" t="n">
-        <v>3400</v>
+        <v>3900</v>
       </c>
       <c r="K221" t="n">
+        <v>500</v>
+      </c>
+      <c r="L221" t="n">
         <v>600</v>
       </c>
-      <c r="L221" t="n">
-        <v>700</v>
-      </c>
       <c r="M221" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="N221" t="inlineStr">
         <is>
@@ -16287,11 +16287,11 @@
       </c>
       <c r="O221" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P221" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="Q221" t="n">
         <v>1</v>
@@ -16317,7 +16317,7 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>44316</v>
+        <v>44344</v>
       </c>
       <c r="E222" t="n">
         <v>13</v>
@@ -16341,16 +16341,16 @@
         </is>
       </c>
       <c r="J222" t="n">
-        <v>1600</v>
+        <v>2100</v>
       </c>
       <c r="K222" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L222" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M222" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="N222" t="inlineStr">
         <is>
@@ -16363,7 +16363,7 @@
         </is>
       </c>
       <c r="P222" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="Q222" t="n">
         <v>1</v>
@@ -16389,7 +16389,7 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>44160</v>
+        <v>44344</v>
       </c>
       <c r="E223" t="n">
         <v>13</v>
@@ -16409,20 +16409,20 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J223" t="n">
-        <v>3600</v>
+        <v>1800</v>
       </c>
       <c r="K223" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L223" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M223" t="n">
-        <v>556</v>
+        <v>400</v>
       </c>
       <c r="N223" t="inlineStr">
         <is>
@@ -16431,11 +16431,11 @@
       </c>
       <c r="O223" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P223" t="n">
-        <v>556</v>
+        <v>400</v>
       </c>
       <c r="Q223" t="n">
         <v>1</v>
@@ -16461,7 +16461,7 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>44211</v>
+        <v>44319</v>
       </c>
       <c r="E224" t="n">
         <v>13</v>
@@ -16485,16 +16485,16 @@
         </is>
       </c>
       <c r="J224" t="n">
-        <v>2500</v>
+        <v>1600</v>
       </c>
       <c r="K224" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="L224" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="M224" t="n">
-        <v>950</v>
+        <v>700</v>
       </c>
       <c r="N224" t="inlineStr">
         <is>
@@ -16507,7 +16507,7 @@
         </is>
       </c>
       <c r="P224" t="n">
-        <v>950</v>
+        <v>700</v>
       </c>
       <c r="Q224" t="n">
         <v>1</v>
@@ -16533,7 +16533,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44301</v>
+        <v>44316</v>
       </c>
       <c r="E225" t="n">
         <v>13</v>
@@ -16557,16 +16557,16 @@
         </is>
       </c>
       <c r="J225" t="n">
-        <v>1600</v>
+        <v>3400</v>
       </c>
       <c r="K225" t="n">
+        <v>600</v>
+      </c>
+      <c r="L225" t="n">
         <v>700</v>
       </c>
-      <c r="L225" t="n">
-        <v>800</v>
-      </c>
       <c r="M225" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="N225" t="inlineStr">
         <is>
@@ -16579,7 +16579,7 @@
         </is>
       </c>
       <c r="P225" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="Q225" t="n">
         <v>1</v>
@@ -16605,7 +16605,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44370</v>
+        <v>44316</v>
       </c>
       <c r="E226" t="n">
         <v>13</v>
@@ -16625,7 +16625,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J226" t="n">
@@ -16635,10 +16635,10 @@
         <v>500</v>
       </c>
       <c r="L226" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M226" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="N226" t="inlineStr">
         <is>
@@ -16651,7 +16651,7 @@
         </is>
       </c>
       <c r="P226" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="Q226" t="n">
         <v>1</v>
@@ -16677,7 +16677,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44370</v>
+        <v>44160</v>
       </c>
       <c r="E227" t="n">
         <v>13</v>
@@ -16701,7 +16701,7 @@
         </is>
       </c>
       <c r="J227" t="n">
-        <v>2500</v>
+        <v>3600</v>
       </c>
       <c r="K227" t="n">
         <v>500</v>
@@ -16710,7 +16710,7 @@
         <v>600</v>
       </c>
       <c r="M227" t="n">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="N227" t="inlineStr">
         <is>
@@ -16719,11 +16719,11 @@
       </c>
       <c r="O227" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P227" t="n">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="Q227" t="n">
         <v>1</v>
@@ -16749,7 +16749,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44370</v>
+        <v>44211</v>
       </c>
       <c r="E228" t="n">
         <v>13</v>
@@ -16769,20 +16769,20 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J228" t="n">
-        <v>700</v>
+        <v>2500</v>
       </c>
       <c r="K228" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="L228" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="M228" t="n">
-        <v>400</v>
+        <v>950</v>
       </c>
       <c r="N228" t="inlineStr">
         <is>
@@ -16795,7 +16795,7 @@
         </is>
       </c>
       <c r="P228" t="n">
-        <v>400</v>
+        <v>950</v>
       </c>
       <c r="Q228" t="n">
         <v>1</v>
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44370</v>
+        <v>44301</v>
       </c>
       <c r="E229" t="n">
         <v>13</v>
@@ -16841,20 +16841,20 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J229" t="n">
-        <v>970</v>
+        <v>1600</v>
       </c>
       <c r="K229" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="L229" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="M229" t="n">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="N229" t="inlineStr">
         <is>
@@ -16863,11 +16863,11 @@
       </c>
       <c r="O229" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P229" t="n">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="Q229" t="n">
         <v>1</v>
@@ -16893,7 +16893,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44326</v>
+        <v>44370</v>
       </c>
       <c r="E230" t="n">
         <v>13</v>
@@ -16917,16 +16917,16 @@
         </is>
       </c>
       <c r="J230" t="n">
-        <v>700</v>
+        <v>1600</v>
       </c>
       <c r="K230" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L230" t="n">
         <v>600</v>
       </c>
       <c r="M230" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="N230" t="inlineStr">
         <is>
@@ -16939,7 +16939,7 @@
         </is>
       </c>
       <c r="P230" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="Q230" t="n">
         <v>1</v>
@@ -16965,7 +16965,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44230</v>
+        <v>44370</v>
       </c>
       <c r="E231" t="n">
         <v>13</v>
@@ -16989,16 +16989,16 @@
         </is>
       </c>
       <c r="J231" t="n">
-        <v>1900</v>
+        <v>2500</v>
       </c>
       <c r="K231" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="L231" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="M231" t="n">
-        <v>884</v>
+        <v>550</v>
       </c>
       <c r="N231" t="inlineStr">
         <is>
@@ -17007,11 +17007,11 @@
       </c>
       <c r="O231" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P231" t="n">
-        <v>884</v>
+        <v>550</v>
       </c>
       <c r="Q231" t="n">
         <v>1</v>
@@ -17037,7 +17037,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44382</v>
+        <v>44370</v>
       </c>
       <c r="E232" t="n">
         <v>13</v>
@@ -17057,20 +17057,20 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J232" t="n">
-        <v>1600</v>
+        <v>700</v>
       </c>
       <c r="K232" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L232" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M232" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="N232" t="inlineStr">
         <is>
@@ -17083,7 +17083,7 @@
         </is>
       </c>
       <c r="P232" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="Q232" t="n">
         <v>1</v>
@@ -17109,7 +17109,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44382</v>
+        <v>44370</v>
       </c>
       <c r="E233" t="n">
         <v>13</v>
@@ -17133,7 +17133,7 @@
         </is>
       </c>
       <c r="J233" t="n">
-        <v>520</v>
+        <v>970</v>
       </c>
       <c r="K233" t="n">
         <v>400</v>
@@ -17151,7 +17151,7 @@
       </c>
       <c r="O233" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P233" t="n">
@@ -17181,7 +17181,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44232</v>
+        <v>44326</v>
       </c>
       <c r="E234" t="n">
         <v>13</v>
@@ -17205,16 +17205,16 @@
         </is>
       </c>
       <c r="J234" t="n">
-        <v>1800</v>
+        <v>700</v>
       </c>
       <c r="K234" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="L234" t="n">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="M234" t="n">
-        <v>1111</v>
+        <v>600</v>
       </c>
       <c r="N234" t="inlineStr">
         <is>
@@ -17227,7 +17227,7 @@
         </is>
       </c>
       <c r="P234" t="n">
-        <v>1111</v>
+        <v>600</v>
       </c>
       <c r="Q234" t="n">
         <v>1</v>
@@ -17253,7 +17253,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44398</v>
+        <v>44230</v>
       </c>
       <c r="E235" t="n">
         <v>13</v>
@@ -17277,16 +17277,16 @@
         </is>
       </c>
       <c r="J235" t="n">
-        <v>3400</v>
+        <v>1900</v>
       </c>
       <c r="K235" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="L235" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="M235" t="n">
-        <v>550</v>
+        <v>884</v>
       </c>
       <c r="N235" t="inlineStr">
         <is>
@@ -17299,7 +17299,7 @@
         </is>
       </c>
       <c r="P235" t="n">
-        <v>550</v>
+        <v>884</v>
       </c>
       <c r="Q235" t="n">
         <v>1</v>
@@ -17325,7 +17325,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44398</v>
+        <v>44382</v>
       </c>
       <c r="E236" t="n">
         <v>13</v>
@@ -17345,20 +17345,20 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J236" t="n">
-        <v>970</v>
+        <v>1600</v>
       </c>
       <c r="K236" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L236" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M236" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="N236" t="inlineStr">
         <is>
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="P236" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="Q236" t="n">
         <v>1</v>
@@ -17397,7 +17397,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44355</v>
+        <v>44382</v>
       </c>
       <c r="E237" t="n">
         <v>13</v>
@@ -17417,20 +17417,20 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J237" t="n">
-        <v>3400</v>
+        <v>520</v>
       </c>
       <c r="K237" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L237" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M237" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="N237" t="inlineStr">
         <is>
@@ -17443,7 +17443,7 @@
         </is>
       </c>
       <c r="P237" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="Q237" t="n">
         <v>1</v>
@@ -17469,7 +17469,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44355</v>
+        <v>44232</v>
       </c>
       <c r="E238" t="n">
         <v>13</v>
@@ -17493,16 +17493,16 @@
         </is>
       </c>
       <c r="J238" t="n">
-        <v>2500</v>
+        <v>1800</v>
       </c>
       <c r="K238" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="L238" t="n">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="M238" t="n">
-        <v>550</v>
+        <v>1111</v>
       </c>
       <c r="N238" t="inlineStr">
         <is>
@@ -17511,11 +17511,11 @@
       </c>
       <c r="O238" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P238" t="n">
-        <v>550</v>
+        <v>1111</v>
       </c>
       <c r="Q238" t="n">
         <v>1</v>
@@ -17541,7 +17541,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44355</v>
+        <v>44398</v>
       </c>
       <c r="E239" t="n">
         <v>13</v>
@@ -17561,20 +17561,20 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J239" t="n">
-        <v>1600</v>
+        <v>3400</v>
       </c>
       <c r="K239" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L239" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M239" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="N239" t="inlineStr">
         <is>
@@ -17587,7 +17587,7 @@
         </is>
       </c>
       <c r="P239" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="Q239" t="n">
         <v>1</v>
@@ -17613,7 +17613,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44355</v>
+        <v>44398</v>
       </c>
       <c r="E240" t="n">
         <v>13</v>
@@ -17637,7 +17637,7 @@
         </is>
       </c>
       <c r="J240" t="n">
-        <v>1330</v>
+        <v>970</v>
       </c>
       <c r="K240" t="n">
         <v>400</v>
@@ -17655,7 +17655,7 @@
       </c>
       <c r="O240" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P240" t="n">
@@ -17685,7 +17685,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44286</v>
+        <v>44355</v>
       </c>
       <c r="E241" t="n">
         <v>13</v>
@@ -17709,16 +17709,16 @@
         </is>
       </c>
       <c r="J241" t="n">
-        <v>1600</v>
+        <v>3400</v>
       </c>
       <c r="K241" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="L241" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="M241" t="n">
-        <v>900</v>
+        <v>550</v>
       </c>
       <c r="N241" t="inlineStr">
         <is>
@@ -17731,7 +17731,7 @@
         </is>
       </c>
       <c r="P241" t="n">
-        <v>900</v>
+        <v>550</v>
       </c>
       <c r="Q241" t="n">
         <v>1</v>
@@ -17757,7 +17757,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44217</v>
+        <v>44355</v>
       </c>
       <c r="E242" t="n">
         <v>13</v>
@@ -17781,16 +17781,16 @@
         </is>
       </c>
       <c r="J242" t="n">
-        <v>2700</v>
+        <v>2500</v>
       </c>
       <c r="K242" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="L242" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="M242" t="n">
-        <v>956</v>
+        <v>550</v>
       </c>
       <c r="N242" t="inlineStr">
         <is>
@@ -17799,11 +17799,11 @@
       </c>
       <c r="O242" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P242" t="n">
-        <v>956</v>
+        <v>550</v>
       </c>
       <c r="Q242" t="n">
         <v>1</v>
@@ -17829,7 +17829,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44343</v>
+        <v>44355</v>
       </c>
       <c r="E243" t="n">
         <v>13</v>
@@ -17849,20 +17849,20 @@
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J243" t="n">
-        <v>4200</v>
+        <v>1600</v>
       </c>
       <c r="K243" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L243" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="M243" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="N243" t="inlineStr">
         <is>
@@ -17875,7 +17875,7 @@
         </is>
       </c>
       <c r="P243" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="Q243" t="n">
         <v>1</v>
@@ -17901,7 +17901,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44343</v>
+        <v>44355</v>
       </c>
       <c r="E244" t="n">
         <v>13</v>
@@ -17921,20 +17921,20 @@
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J244" t="n">
-        <v>3500</v>
+        <v>1330</v>
       </c>
       <c r="K244" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L244" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="M244" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="N244" t="inlineStr">
         <is>
@@ -17947,7 +17947,7 @@
         </is>
       </c>
       <c r="P244" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="Q244" t="n">
         <v>1</v>
@@ -17973,7 +17973,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44343</v>
+        <v>44286</v>
       </c>
       <c r="E245" t="n">
         <v>13</v>
@@ -17993,20 +17993,20 @@
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J245" t="n">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="K245" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="L245" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="M245" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="N245" t="inlineStr">
         <is>
@@ -18019,7 +18019,7 @@
         </is>
       </c>
       <c r="P245" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="Q245" t="n">
         <v>1</v>
@@ -18045,7 +18045,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44343</v>
+        <v>44217</v>
       </c>
       <c r="E246" t="n">
         <v>13</v>
@@ -18065,20 +18065,20 @@
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J246" t="n">
-        <v>1700</v>
+        <v>2700</v>
       </c>
       <c r="K246" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="L246" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="M246" t="n">
-        <v>400</v>
+        <v>956</v>
       </c>
       <c r="N246" t="inlineStr">
         <is>
@@ -18087,11 +18087,11 @@
       </c>
       <c r="O246" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P246" t="n">
-        <v>400</v>
+        <v>956</v>
       </c>
       <c r="Q246" t="n">
         <v>1</v>
@@ -18117,7 +18117,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44376</v>
+        <v>44343</v>
       </c>
       <c r="E247" t="n">
         <v>13</v>
@@ -18141,16 +18141,16 @@
         </is>
       </c>
       <c r="J247" t="n">
-        <v>3400</v>
+        <v>4200</v>
       </c>
       <c r="K247" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L247" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M247" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="N247" t="inlineStr">
         <is>
@@ -18163,7 +18163,7 @@
         </is>
       </c>
       <c r="P247" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="Q247" t="n">
         <v>1</v>
@@ -18189,7 +18189,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44376</v>
+        <v>44343</v>
       </c>
       <c r="E248" t="n">
         <v>13</v>
@@ -18213,16 +18213,16 @@
         </is>
       </c>
       <c r="J248" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="K248" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L248" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M248" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="N248" t="inlineStr">
         <is>
@@ -18235,7 +18235,7 @@
         </is>
       </c>
       <c r="P248" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="Q248" t="n">
         <v>1</v>
@@ -18261,7 +18261,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44376</v>
+        <v>44343</v>
       </c>
       <c r="E249" t="n">
         <v>13</v>
@@ -18285,7 +18285,7 @@
         </is>
       </c>
       <c r="J249" t="n">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="K249" t="n">
         <v>400</v>
@@ -18333,7 +18333,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44376</v>
+        <v>44343</v>
       </c>
       <c r="E250" t="n">
         <v>13</v>
@@ -18357,7 +18357,7 @@
         </is>
       </c>
       <c r="J250" t="n">
-        <v>970</v>
+        <v>1700</v>
       </c>
       <c r="K250" t="n">
         <v>400</v>
@@ -18405,7 +18405,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44334</v>
+        <v>44376</v>
       </c>
       <c r="E251" t="n">
         <v>13</v>
@@ -18429,16 +18429,16 @@
         </is>
       </c>
       <c r="J251" t="n">
-        <v>4300</v>
+        <v>3400</v>
       </c>
       <c r="K251" t="n">
+        <v>500</v>
+      </c>
+      <c r="L251" t="n">
         <v>600</v>
       </c>
-      <c r="L251" t="n">
-        <v>700</v>
-      </c>
       <c r="M251" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="N251" t="inlineStr">
         <is>
@@ -18451,7 +18451,7 @@
         </is>
       </c>
       <c r="P251" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="Q251" t="n">
         <v>1</v>
@@ -18477,7 +18477,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44334</v>
+        <v>44376</v>
       </c>
       <c r="E252" t="n">
         <v>13</v>
@@ -18501,16 +18501,16 @@
         </is>
       </c>
       <c r="J252" t="n">
-        <v>5200</v>
+        <v>2500</v>
       </c>
       <c r="K252" t="n">
+        <v>500</v>
+      </c>
+      <c r="L252" t="n">
         <v>600</v>
       </c>
-      <c r="L252" t="n">
-        <v>700</v>
-      </c>
       <c r="M252" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="N252" t="inlineStr">
         <is>
@@ -18523,7 +18523,7 @@
         </is>
       </c>
       <c r="P252" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="Q252" t="n">
         <v>1</v>
@@ -18549,7 +18549,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44334</v>
+        <v>44376</v>
       </c>
       <c r="E253" t="n">
         <v>13</v>
@@ -18621,58 +18621,346 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
+        <v>44376</v>
+      </c>
+      <c r="E254" t="n">
+        <v>13</v>
+      </c>
+      <c r="F254" t="n">
+        <v>100112008</v>
+      </c>
+      <c r="G254" t="inlineStr">
+        <is>
+          <t>Coliflor</t>
+        </is>
+      </c>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I254" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J254" t="n">
+        <v>970</v>
+      </c>
+      <c r="K254" t="n">
+        <v>400</v>
+      </c>
+      <c r="L254" t="n">
+        <v>400</v>
+      </c>
+      <c r="M254" t="n">
+        <v>400</v>
+      </c>
+      <c r="N254" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O254" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P254" t="n">
+        <v>400</v>
+      </c>
+      <c r="Q254" t="n">
+        <v>1</v>
+      </c>
+      <c r="R254" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>9</v>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D255" s="2" t="n">
         <v>44334</v>
       </c>
-      <c r="E254" t="n">
-        <v>13</v>
-      </c>
-      <c r="F254" t="n">
-        <v>100112008</v>
-      </c>
-      <c r="G254" t="inlineStr">
-        <is>
-          <t>Coliflor</t>
-        </is>
-      </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="I254" t="inlineStr">
+      <c r="E255" t="n">
+        <v>13</v>
+      </c>
+      <c r="F255" t="n">
+        <v>100112008</v>
+      </c>
+      <c r="G255" t="inlineStr">
+        <is>
+          <t>Coliflor</t>
+        </is>
+      </c>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I255" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J255" t="n">
+        <v>4300</v>
+      </c>
+      <c r="K255" t="n">
+        <v>600</v>
+      </c>
+      <c r="L255" t="n">
+        <v>700</v>
+      </c>
+      <c r="M255" t="n">
+        <v>650</v>
+      </c>
+      <c r="N255" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O255" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P255" t="n">
+        <v>650</v>
+      </c>
+      <c r="Q255" t="n">
+        <v>1</v>
+      </c>
+      <c r="R255" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>9</v>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D256" s="2" t="n">
+        <v>44334</v>
+      </c>
+      <c r="E256" t="n">
+        <v>13</v>
+      </c>
+      <c r="F256" t="n">
+        <v>100112008</v>
+      </c>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>Coliflor</t>
+        </is>
+      </c>
+      <c r="H256" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I256" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J256" t="n">
+        <v>5200</v>
+      </c>
+      <c r="K256" t="n">
+        <v>600</v>
+      </c>
+      <c r="L256" t="n">
+        <v>700</v>
+      </c>
+      <c r="M256" t="n">
+        <v>650</v>
+      </c>
+      <c r="N256" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O256" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P256" t="n">
+        <v>650</v>
+      </c>
+      <c r="Q256" t="n">
+        <v>1</v>
+      </c>
+      <c r="R256" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>9</v>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D257" s="2" t="n">
+        <v>44334</v>
+      </c>
+      <c r="E257" t="n">
+        <v>13</v>
+      </c>
+      <c r="F257" t="n">
+        <v>100112008</v>
+      </c>
+      <c r="G257" t="inlineStr">
+        <is>
+          <t>Coliflor</t>
+        </is>
+      </c>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I257" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J254" t="n">
+      <c r="J257" t="n">
+        <v>1600</v>
+      </c>
+      <c r="K257" t="n">
+        <v>400</v>
+      </c>
+      <c r="L257" t="n">
+        <v>400</v>
+      </c>
+      <c r="M257" t="n">
+        <v>400</v>
+      </c>
+      <c r="N257" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O257" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P257" t="n">
+        <v>400</v>
+      </c>
+      <c r="Q257" t="n">
+        <v>1</v>
+      </c>
+      <c r="R257" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>9</v>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D258" s="2" t="n">
+        <v>44334</v>
+      </c>
+      <c r="E258" t="n">
+        <v>13</v>
+      </c>
+      <c r="F258" t="n">
+        <v>100112008</v>
+      </c>
+      <c r="G258" t="inlineStr">
+        <is>
+          <t>Coliflor</t>
+        </is>
+      </c>
+      <c r="H258" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I258" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J258" t="n">
         <v>2500</v>
       </c>
-      <c r="K254" t="n">
+      <c r="K258" t="n">
         <v>500</v>
       </c>
-      <c r="L254" t="n">
+      <c r="L258" t="n">
         <v>500</v>
       </c>
-      <c r="M254" t="n">
+      <c r="M258" t="n">
         <v>500</v>
       </c>
-      <c r="N254" t="inlineStr">
-        <is>
-          <t>$/unidad</t>
-        </is>
-      </c>
-      <c r="O254" t="inlineStr">
+      <c r="N258" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O258" t="inlineStr">
         <is>
           <t>Región de O'Higgins</t>
         </is>
       </c>
-      <c r="P254" t="n">
+      <c r="P258" t="n">
         <v>500</v>
       </c>
-      <c r="Q254" t="n">
-        <v>1</v>
-      </c>
-      <c r="R254" t="inlineStr">
+      <c r="Q258" t="n">
+        <v>1</v>
+      </c>
+      <c r="R258" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Coliflor.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Coliflor.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R283"/>
+  <dimension ref="A1:R305"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44174</v>
+        <v>44434</v>
       </c>
       <c r="E92" t="n">
         <v>13</v>
@@ -6981,16 +6981,16 @@
         </is>
       </c>
       <c r="J92" t="n">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="K92" t="n">
         <v>600</v>
       </c>
       <c r="L92" t="n">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="M92" t="n">
-        <v>650</v>
+        <v>625</v>
       </c>
       <c r="N92" t="inlineStr">
         <is>
@@ -7003,7 +7003,7 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>650</v>
+        <v>625</v>
       </c>
       <c r="Q92" t="n">
         <v>1</v>
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44271</v>
+        <v>44434</v>
       </c>
       <c r="E93" t="n">
         <v>13</v>
@@ -7053,16 +7053,16 @@
         </is>
       </c>
       <c r="J93" t="n">
-        <v>1600</v>
+        <v>4300</v>
       </c>
       <c r="K93" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="L93" t="n">
-        <v>1000</v>
+        <v>650</v>
       </c>
       <c r="M93" t="n">
-        <v>1000</v>
+        <v>625</v>
       </c>
       <c r="N93" t="inlineStr">
         <is>
@@ -7071,11 +7071,11 @@
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P93" t="n">
-        <v>1000</v>
+        <v>625</v>
       </c>
       <c r="Q93" t="n">
         <v>1</v>
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44280</v>
+        <v>44434</v>
       </c>
       <c r="E94" t="n">
         <v>13</v>
@@ -7121,20 +7121,20 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J94" t="n">
-        <v>1600</v>
+        <v>970</v>
       </c>
       <c r="K94" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="L94" t="n">
-        <v>900</v>
+        <v>550</v>
       </c>
       <c r="M94" t="n">
-        <v>900</v>
+        <v>525</v>
       </c>
       <c r="N94" t="inlineStr">
         <is>
@@ -7147,7 +7147,7 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>900</v>
+        <v>525</v>
       </c>
       <c r="Q94" t="n">
         <v>1</v>
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44299</v>
+        <v>44434</v>
       </c>
       <c r="E95" t="n">
         <v>13</v>
@@ -7193,20 +7193,20 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J95" t="n">
         <v>1600</v>
       </c>
       <c r="K95" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L95" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="M95" t="n">
-        <v>750</v>
+        <v>525</v>
       </c>
       <c r="N95" t="inlineStr">
         <is>
@@ -7215,11 +7215,11 @@
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P95" t="n">
-        <v>750</v>
+        <v>525</v>
       </c>
       <c r="Q95" t="n">
         <v>1</v>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44162</v>
+        <v>44174</v>
       </c>
       <c r="E96" t="n">
         <v>13</v>
@@ -7269,16 +7269,16 @@
         </is>
       </c>
       <c r="J96" t="n">
-        <v>4800</v>
+        <v>3300</v>
       </c>
       <c r="K96" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L96" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M96" t="n">
-        <v>448</v>
+        <v>650</v>
       </c>
       <c r="N96" t="inlineStr">
         <is>
@@ -7287,11 +7287,11 @@
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P96" t="n">
-        <v>448</v>
+        <v>650</v>
       </c>
       <c r="Q96" t="n">
         <v>1</v>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44342</v>
+        <v>44271</v>
       </c>
       <c r="E97" t="n">
         <v>13</v>
@@ -7341,16 +7341,16 @@
         </is>
       </c>
       <c r="J97" t="n">
-        <v>2400</v>
+        <v>1600</v>
       </c>
       <c r="K97" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="L97" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="M97" t="n">
-        <v>550</v>
+        <v>1000</v>
       </c>
       <c r="N97" t="inlineStr">
         <is>
@@ -7363,7 +7363,7 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>550</v>
+        <v>1000</v>
       </c>
       <c r="Q97" t="n">
         <v>1</v>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44342</v>
+        <v>44280</v>
       </c>
       <c r="E98" t="n">
         <v>13</v>
@@ -7413,16 +7413,16 @@
         </is>
       </c>
       <c r="J98" t="n">
-        <v>2800</v>
+        <v>1600</v>
       </c>
       <c r="K98" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="L98" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="M98" t="n">
-        <v>550</v>
+        <v>900</v>
       </c>
       <c r="N98" t="inlineStr">
         <is>
@@ -7431,11 +7431,11 @@
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P98" t="n">
-        <v>550</v>
+        <v>900</v>
       </c>
       <c r="Q98" t="n">
         <v>1</v>
@@ -7461,7 +7461,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44362</v>
+        <v>44299</v>
       </c>
       <c r="E99" t="n">
         <v>13</v>
@@ -7485,16 +7485,16 @@
         </is>
       </c>
       <c r="J99" t="n">
-        <v>2500</v>
+        <v>1600</v>
       </c>
       <c r="K99" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L99" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M99" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="N99" t="inlineStr">
         <is>
@@ -7507,7 +7507,7 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="Q99" t="n">
         <v>1</v>
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44362</v>
+        <v>44428</v>
       </c>
       <c r="E100" t="n">
         <v>13</v>
@@ -7560,13 +7560,13 @@
         <v>3400</v>
       </c>
       <c r="K100" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L100" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M100" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="N100" t="inlineStr">
         <is>
@@ -7575,11 +7575,11 @@
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P100" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="Q100" t="n">
         <v>1</v>
@@ -7605,7 +7605,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44362</v>
+        <v>44428</v>
       </c>
       <c r="E101" t="n">
         <v>13</v>
@@ -7625,20 +7625,20 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J101" t="n">
+        <v>4300</v>
+      </c>
+      <c r="K101" t="n">
+        <v>600</v>
+      </c>
+      <c r="L101" t="n">
         <v>700</v>
       </c>
-      <c r="K101" t="n">
-        <v>400</v>
-      </c>
-      <c r="L101" t="n">
-        <v>400</v>
-      </c>
       <c r="M101" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="N101" t="inlineStr">
         <is>
@@ -7647,11 +7647,11 @@
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P101" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="Q101" t="n">
         <v>1</v>
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44362</v>
+        <v>44428</v>
       </c>
       <c r="E102" t="n">
         <v>13</v>
@@ -7701,16 +7701,16 @@
         </is>
       </c>
       <c r="J102" t="n">
-        <v>1600</v>
+        <v>970</v>
       </c>
       <c r="K102" t="n">
         <v>400</v>
       </c>
       <c r="L102" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M102" t="n">
-        <v>400</v>
+        <v>451</v>
       </c>
       <c r="N102" t="inlineStr">
         <is>
@@ -7719,11 +7719,11 @@
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P102" t="n">
-        <v>400</v>
+        <v>451</v>
       </c>
       <c r="Q102" t="n">
         <v>1</v>
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44175</v>
+        <v>44428</v>
       </c>
       <c r="E103" t="n">
         <v>13</v>
@@ -7769,20 +7769,20 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J103" t="n">
-        <v>5200</v>
+        <v>1060</v>
       </c>
       <c r="K103" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="L103" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="M103" t="n">
-        <v>850</v>
+        <v>450</v>
       </c>
       <c r="N103" t="inlineStr">
         <is>
@@ -7791,11 +7791,11 @@
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P103" t="n">
-        <v>850</v>
+        <v>450</v>
       </c>
       <c r="Q103" t="n">
         <v>1</v>
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44384</v>
+        <v>44162</v>
       </c>
       <c r="E104" t="n">
         <v>13</v>
@@ -7845,16 +7845,16 @@
         </is>
       </c>
       <c r="J104" t="n">
-        <v>2500</v>
+        <v>4800</v>
       </c>
       <c r="K104" t="n">
+        <v>400</v>
+      </c>
+      <c r="L104" t="n">
         <v>500</v>
       </c>
-      <c r="L104" t="n">
-        <v>600</v>
-      </c>
       <c r="M104" t="n">
-        <v>550</v>
+        <v>448</v>
       </c>
       <c r="N104" t="inlineStr">
         <is>
@@ -7863,11 +7863,11 @@
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P104" t="n">
-        <v>550</v>
+        <v>448</v>
       </c>
       <c r="Q104" t="n">
         <v>1</v>
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44384</v>
+        <v>44342</v>
       </c>
       <c r="E105" t="n">
         <v>13</v>
@@ -7913,20 +7913,20 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J105" t="n">
-        <v>970</v>
+        <v>2400</v>
       </c>
       <c r="K105" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L105" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M105" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="N105" t="inlineStr">
         <is>
@@ -7935,11 +7935,11 @@
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P105" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="Q105" t="n">
         <v>1</v>
@@ -7965,7 +7965,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44204</v>
+        <v>44342</v>
       </c>
       <c r="E106" t="n">
         <v>13</v>
@@ -7989,16 +7989,16 @@
         </is>
       </c>
       <c r="J106" t="n">
-        <v>4300</v>
+        <v>2800</v>
       </c>
       <c r="K106" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L106" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M106" t="n">
-        <v>747</v>
+        <v>550</v>
       </c>
       <c r="N106" t="inlineStr">
         <is>
@@ -8007,11 +8007,11 @@
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P106" t="n">
-        <v>747</v>
+        <v>550</v>
       </c>
       <c r="Q106" t="n">
         <v>1</v>
@@ -8037,7 +8037,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44323</v>
+        <v>44362</v>
       </c>
       <c r="E107" t="n">
         <v>13</v>
@@ -8064,13 +8064,13 @@
         <v>2500</v>
       </c>
       <c r="K107" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L107" t="n">
         <v>600</v>
       </c>
       <c r="M107" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="N107" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="Q107" t="n">
         <v>1</v>
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44323</v>
+        <v>44362</v>
       </c>
       <c r="E108" t="n">
         <v>13</v>
@@ -8129,20 +8129,20 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J108" t="n">
-        <v>700</v>
+        <v>3400</v>
       </c>
       <c r="K108" t="n">
         <v>500</v>
       </c>
       <c r="L108" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M108" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="N108" t="inlineStr">
         <is>
@@ -8151,11 +8151,11 @@
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P108" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="Q108" t="n">
         <v>1</v>
@@ -8181,7 +8181,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44363</v>
+        <v>44362</v>
       </c>
       <c r="E109" t="n">
         <v>13</v>
@@ -8201,20 +8201,20 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J109" t="n">
-        <v>2500</v>
+        <v>700</v>
       </c>
       <c r="K109" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L109" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M109" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="N109" t="inlineStr">
         <is>
@@ -8227,7 +8227,7 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="Q109" t="n">
         <v>1</v>
@@ -8253,7 +8253,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44363</v>
+        <v>44362</v>
       </c>
       <c r="E110" t="n">
         <v>13</v>
@@ -8273,20 +8273,20 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J110" t="n">
         <v>1600</v>
       </c>
       <c r="K110" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L110" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M110" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="N110" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         </is>
       </c>
       <c r="P110" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="Q110" t="n">
         <v>1</v>
@@ -8325,7 +8325,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44363</v>
+        <v>44175</v>
       </c>
       <c r="E111" t="n">
         <v>13</v>
@@ -8345,20 +8345,20 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J111" t="n">
-        <v>1600</v>
+        <v>5200</v>
       </c>
       <c r="K111" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="L111" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="M111" t="n">
-        <v>400</v>
+        <v>850</v>
       </c>
       <c r="N111" t="inlineStr">
         <is>
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="P111" t="n">
-        <v>400</v>
+        <v>850</v>
       </c>
       <c r="Q111" t="n">
         <v>1</v>
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44363</v>
+        <v>44384</v>
       </c>
       <c r="E112" t="n">
         <v>13</v>
@@ -8417,20 +8417,20 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J112" t="n">
-        <v>700</v>
+        <v>2500</v>
       </c>
       <c r="K112" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L112" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M112" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="N112" t="inlineStr">
         <is>
@@ -8443,7 +8443,7 @@
         </is>
       </c>
       <c r="P112" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="Q112" t="n">
         <v>1</v>
@@ -8469,7 +8469,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44349</v>
+        <v>44384</v>
       </c>
       <c r="E113" t="n">
         <v>13</v>
@@ -8489,20 +8489,20 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J113" t="n">
-        <v>3300</v>
+        <v>970</v>
       </c>
       <c r="K113" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L113" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M113" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="N113" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         </is>
       </c>
       <c r="P113" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="Q113" t="n">
         <v>1</v>
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44349</v>
+        <v>44204</v>
       </c>
       <c r="E114" t="n">
         <v>13</v>
@@ -8561,20 +8561,20 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J114" t="n">
-        <v>1500</v>
+        <v>4300</v>
       </c>
       <c r="K114" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="L114" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="M114" t="n">
-        <v>400</v>
+        <v>747</v>
       </c>
       <c r="N114" t="inlineStr">
         <is>
@@ -8583,11 +8583,11 @@
       </c>
       <c r="O114" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P114" t="n">
-        <v>400</v>
+        <v>747</v>
       </c>
       <c r="Q114" t="n">
         <v>1</v>
@@ -8613,7 +8613,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44385</v>
+        <v>44323</v>
       </c>
       <c r="E115" t="n">
         <v>13</v>
@@ -8637,16 +8637,16 @@
         </is>
       </c>
       <c r="J115" t="n">
-        <v>3400</v>
+        <v>2500</v>
       </c>
       <c r="K115" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L115" t="n">
         <v>600</v>
       </c>
       <c r="M115" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="N115" t="inlineStr">
         <is>
@@ -8659,7 +8659,7 @@
         </is>
       </c>
       <c r="P115" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="Q115" t="n">
         <v>1</v>
@@ -8685,7 +8685,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44385</v>
+        <v>44323</v>
       </c>
       <c r="E116" t="n">
         <v>13</v>
@@ -8705,20 +8705,20 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J116" t="n">
-        <v>4300</v>
+        <v>700</v>
       </c>
       <c r="K116" t="n">
         <v>500</v>
       </c>
       <c r="L116" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M116" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="N116" t="inlineStr">
         <is>
@@ -8727,11 +8727,11 @@
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P116" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="Q116" t="n">
         <v>1</v>
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44385</v>
+        <v>44363</v>
       </c>
       <c r="E117" t="n">
         <v>13</v>
@@ -8777,20 +8777,20 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J117" t="n">
-        <v>970</v>
+        <v>2500</v>
       </c>
       <c r="K117" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L117" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M117" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="N117" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         </is>
       </c>
       <c r="P117" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="Q117" t="n">
         <v>1</v>
@@ -8829,7 +8829,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44385</v>
+        <v>44363</v>
       </c>
       <c r="E118" t="n">
         <v>13</v>
@@ -8849,20 +8849,20 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J118" t="n">
         <v>1600</v>
       </c>
       <c r="K118" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L118" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M118" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="N118" t="inlineStr">
         <is>
@@ -8875,7 +8875,7 @@
         </is>
       </c>
       <c r="P118" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="Q118" t="n">
         <v>1</v>
@@ -8901,7 +8901,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44427</v>
+        <v>44363</v>
       </c>
       <c r="E119" t="n">
         <v>13</v>
@@ -8921,20 +8921,20 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J119" t="n">
-        <v>4300</v>
+        <v>1600</v>
       </c>
       <c r="K119" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L119" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="M119" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="N119" t="inlineStr">
         <is>
@@ -8947,7 +8947,7 @@
         </is>
       </c>
       <c r="P119" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="Q119" t="n">
         <v>1</v>
@@ -8973,7 +8973,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44427</v>
+        <v>44363</v>
       </c>
       <c r="E120" t="n">
         <v>13</v>
@@ -8997,16 +8997,16 @@
         </is>
       </c>
       <c r="J120" t="n">
-        <v>1600</v>
+        <v>700</v>
       </c>
       <c r="K120" t="n">
         <v>400</v>
       </c>
       <c r="L120" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M120" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="N120" t="inlineStr">
         <is>
@@ -9015,11 +9015,11 @@
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P120" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="Q120" t="n">
         <v>1</v>
@@ -9045,7 +9045,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44413</v>
+        <v>44349</v>
       </c>
       <c r="E121" t="n">
         <v>13</v>
@@ -9069,16 +9069,16 @@
         </is>
       </c>
       <c r="J121" t="n">
-        <v>4300</v>
+        <v>3300</v>
       </c>
       <c r="K121" t="n">
+        <v>500</v>
+      </c>
+      <c r="L121" t="n">
         <v>600</v>
       </c>
-      <c r="L121" t="n">
-        <v>700</v>
-      </c>
       <c r="M121" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="N121" t="inlineStr">
         <is>
@@ -9087,11 +9087,11 @@
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P121" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="Q121" t="n">
         <v>1</v>
@@ -9117,7 +9117,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44413</v>
+        <v>44349</v>
       </c>
       <c r="E122" t="n">
         <v>13</v>
@@ -9137,20 +9137,20 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J122" t="n">
-        <v>5200</v>
+        <v>1500</v>
       </c>
       <c r="K122" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L122" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="M122" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="N122" t="inlineStr">
         <is>
@@ -9163,7 +9163,7 @@
         </is>
       </c>
       <c r="P122" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="Q122" t="n">
         <v>1</v>
@@ -9189,7 +9189,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44413</v>
+        <v>44385</v>
       </c>
       <c r="E123" t="n">
         <v>13</v>
@@ -9209,20 +9209,20 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J123" t="n">
-        <v>2500</v>
+        <v>3400</v>
       </c>
       <c r="K123" t="n">
         <v>500</v>
       </c>
       <c r="L123" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M123" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="N123" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         </is>
       </c>
       <c r="P123" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="Q123" t="n">
         <v>1</v>
@@ -9261,7 +9261,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44413</v>
+        <v>44385</v>
       </c>
       <c r="E124" t="n">
         <v>13</v>
@@ -9281,20 +9281,20 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J124" t="n">
-        <v>3400</v>
+        <v>4300</v>
       </c>
       <c r="K124" t="n">
         <v>500</v>
       </c>
       <c r="L124" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M124" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="N124" t="inlineStr">
         <is>
@@ -9307,7 +9307,7 @@
         </is>
       </c>
       <c r="P124" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="Q124" t="n">
         <v>1</v>
@@ -9333,7 +9333,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44176</v>
+        <v>44385</v>
       </c>
       <c r="E125" t="n">
         <v>13</v>
@@ -9353,20 +9353,20 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J125" t="n">
-        <v>5200</v>
+        <v>970</v>
       </c>
       <c r="K125" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="L125" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="M125" t="n">
-        <v>750</v>
+        <v>400</v>
       </c>
       <c r="N125" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         </is>
       </c>
       <c r="P125" t="n">
-        <v>750</v>
+        <v>400</v>
       </c>
       <c r="Q125" t="n">
         <v>1</v>
@@ -9405,7 +9405,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44421</v>
+        <v>44385</v>
       </c>
       <c r="E126" t="n">
         <v>13</v>
@@ -9425,20 +9425,20 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J126" t="n">
-        <v>3400</v>
+        <v>1600</v>
       </c>
       <c r="K126" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L126" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="M126" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="N126" t="inlineStr">
         <is>
@@ -9447,11 +9447,11 @@
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P126" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="Q126" t="n">
         <v>1</v>
@@ -9477,7 +9477,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44421</v>
+        <v>44427</v>
       </c>
       <c r="E127" t="n">
         <v>13</v>
@@ -9519,7 +9519,7 @@
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P127" t="n">
@@ -9549,7 +9549,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44421</v>
+        <v>44427</v>
       </c>
       <c r="E128" t="n">
         <v>13</v>
@@ -9576,13 +9576,13 @@
         <v>1600</v>
       </c>
       <c r="K128" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L128" t="n">
         <v>500</v>
       </c>
       <c r="M128" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="N128" t="inlineStr">
         <is>
@@ -9595,7 +9595,7 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="Q128" t="n">
         <v>1</v>
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44421</v>
+        <v>44413</v>
       </c>
       <c r="E129" t="n">
         <v>13</v>
@@ -9641,20 +9641,20 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J129" t="n">
-        <v>2500</v>
+        <v>4300</v>
       </c>
       <c r="K129" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L129" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M129" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="N129" t="inlineStr">
         <is>
@@ -9663,11 +9663,11 @@
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P129" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="Q129" t="n">
         <v>1</v>
@@ -9693,7 +9693,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44237</v>
+        <v>44413</v>
       </c>
       <c r="E130" t="n">
         <v>13</v>
@@ -9717,16 +9717,16 @@
         </is>
       </c>
       <c r="J130" t="n">
-        <v>1800</v>
+        <v>5200</v>
       </c>
       <c r="K130" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="L130" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="M130" t="n">
-        <v>1000</v>
+        <v>650</v>
       </c>
       <c r="N130" t="inlineStr">
         <is>
@@ -9735,11 +9735,11 @@
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P130" t="n">
-        <v>1000</v>
+        <v>650</v>
       </c>
       <c r="Q130" t="n">
         <v>1</v>
@@ -9765,7 +9765,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44273</v>
+        <v>44413</v>
       </c>
       <c r="E131" t="n">
         <v>13</v>
@@ -9785,20 +9785,20 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J131" t="n">
-        <v>1600</v>
+        <v>2500</v>
       </c>
       <c r="K131" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="L131" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="M131" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="N131" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         </is>
       </c>
       <c r="P131" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="Q131" t="n">
         <v>1</v>
@@ -9837,7 +9837,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44377</v>
+        <v>44413</v>
       </c>
       <c r="E132" t="n">
         <v>13</v>
@@ -9857,20 +9857,20 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J132" t="n">
-        <v>1600</v>
+        <v>3400</v>
       </c>
       <c r="K132" t="n">
         <v>500</v>
       </c>
       <c r="L132" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M132" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="N132" t="inlineStr">
         <is>
@@ -9879,11 +9879,11 @@
       </c>
       <c r="O132" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P132" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="Q132" t="n">
         <v>1</v>
@@ -9909,7 +9909,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44377</v>
+        <v>44176</v>
       </c>
       <c r="E133" t="n">
         <v>13</v>
@@ -9933,16 +9933,16 @@
         </is>
       </c>
       <c r="J133" t="n">
-        <v>2500</v>
+        <v>5200</v>
       </c>
       <c r="K133" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L133" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M133" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="N133" t="inlineStr">
         <is>
@@ -9951,11 +9951,11 @@
       </c>
       <c r="O133" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P133" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="Q133" t="n">
         <v>1</v>
@@ -9981,7 +9981,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44377</v>
+        <v>44421</v>
       </c>
       <c r="E134" t="n">
         <v>13</v>
@@ -10001,20 +10001,20 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J134" t="n">
-        <v>520</v>
+        <v>3400</v>
       </c>
       <c r="K134" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L134" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="M134" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="N134" t="inlineStr">
         <is>
@@ -10027,7 +10027,7 @@
         </is>
       </c>
       <c r="P134" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="Q134" t="n">
         <v>1</v>
@@ -10053,7 +10053,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44377</v>
+        <v>44421</v>
       </c>
       <c r="E135" t="n">
         <v>13</v>
@@ -10073,20 +10073,20 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J135" t="n">
-        <v>970</v>
+        <v>4300</v>
       </c>
       <c r="K135" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L135" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="M135" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="N135" t="inlineStr">
         <is>
@@ -10099,7 +10099,7 @@
         </is>
       </c>
       <c r="P135" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="Q135" t="n">
         <v>1</v>
@@ -10125,7 +10125,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44257</v>
+        <v>44421</v>
       </c>
       <c r="E136" t="n">
         <v>13</v>
@@ -10145,20 +10145,20 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J136" t="n">
-        <v>700</v>
+        <v>1600</v>
       </c>
       <c r="K136" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="L136" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="M136" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="N136" t="inlineStr">
         <is>
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="P136" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="Q136" t="n">
         <v>1</v>
@@ -10197,7 +10197,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44400</v>
+        <v>44421</v>
       </c>
       <c r="E137" t="n">
         <v>13</v>
@@ -10217,20 +10217,20 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J137" t="n">
-        <v>4300</v>
+        <v>2500</v>
       </c>
       <c r="K137" t="n">
         <v>500</v>
       </c>
       <c r="L137" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M137" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="N137" t="inlineStr">
         <is>
@@ -10239,11 +10239,11 @@
       </c>
       <c r="O137" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P137" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="Q137" t="n">
         <v>1</v>
@@ -10269,7 +10269,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44400</v>
+        <v>44237</v>
       </c>
       <c r="E138" t="n">
         <v>13</v>
@@ -10293,16 +10293,16 @@
         </is>
       </c>
       <c r="J138" t="n">
-        <v>3400</v>
+        <v>1800</v>
       </c>
       <c r="K138" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="L138" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="M138" t="n">
-        <v>550</v>
+        <v>1000</v>
       </c>
       <c r="N138" t="inlineStr">
         <is>
@@ -10311,11 +10311,11 @@
       </c>
       <c r="O138" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P138" t="n">
-        <v>550</v>
+        <v>1000</v>
       </c>
       <c r="Q138" t="n">
         <v>1</v>
@@ -10341,7 +10341,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44400</v>
+        <v>44273</v>
       </c>
       <c r="E139" t="n">
         <v>13</v>
@@ -10361,20 +10361,20 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J139" t="n">
         <v>1600</v>
       </c>
       <c r="K139" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="L139" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="M139" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="N139" t="inlineStr">
         <is>
@@ -10387,7 +10387,7 @@
         </is>
       </c>
       <c r="P139" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="Q139" t="n">
         <v>1</v>
@@ -10413,7 +10413,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44400</v>
+        <v>44377</v>
       </c>
       <c r="E140" t="n">
         <v>13</v>
@@ -10433,20 +10433,20 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J140" t="n">
-        <v>970</v>
+        <v>1600</v>
       </c>
       <c r="K140" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L140" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M140" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="N140" t="inlineStr">
         <is>
@@ -10455,11 +10455,11 @@
       </c>
       <c r="O140" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P140" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="Q140" t="n">
         <v>1</v>
@@ -10485,7 +10485,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44426</v>
+        <v>44377</v>
       </c>
       <c r="E141" t="n">
         <v>13</v>
@@ -10509,16 +10509,16 @@
         </is>
       </c>
       <c r="J141" t="n">
-        <v>3400</v>
+        <v>2500</v>
       </c>
       <c r="K141" t="n">
+        <v>500</v>
+      </c>
+      <c r="L141" t="n">
         <v>600</v>
       </c>
-      <c r="L141" t="n">
-        <v>700</v>
-      </c>
       <c r="M141" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="N141" t="inlineStr">
         <is>
@@ -10527,11 +10527,11 @@
       </c>
       <c r="O141" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P141" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="Q141" t="n">
         <v>1</v>
@@ -10557,7 +10557,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44426</v>
+        <v>44377</v>
       </c>
       <c r="E142" t="n">
         <v>13</v>
@@ -10581,7 +10581,7 @@
         </is>
       </c>
       <c r="J142" t="n">
-        <v>970</v>
+        <v>520</v>
       </c>
       <c r="K142" t="n">
         <v>400</v>
@@ -10629,7 +10629,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44225</v>
+        <v>44377</v>
       </c>
       <c r="E143" t="n">
         <v>13</v>
@@ -10649,20 +10649,20 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J143" t="n">
-        <v>2200</v>
+        <v>970</v>
       </c>
       <c r="K143" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="L143" t="n">
-        <v>1200</v>
+        <v>400</v>
       </c>
       <c r="M143" t="n">
-        <v>1091</v>
+        <v>400</v>
       </c>
       <c r="N143" t="inlineStr">
         <is>
@@ -10671,11 +10671,11 @@
       </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P143" t="n">
-        <v>1091</v>
+        <v>400</v>
       </c>
       <c r="Q143" t="n">
         <v>1</v>
@@ -10701,7 +10701,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44295</v>
+        <v>44257</v>
       </c>
       <c r="E144" t="n">
         <v>13</v>
@@ -10725,16 +10725,16 @@
         </is>
       </c>
       <c r="J144" t="n">
-        <v>1600</v>
+        <v>700</v>
       </c>
       <c r="K144" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="L144" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="M144" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="N144" t="inlineStr">
         <is>
@@ -10747,7 +10747,7 @@
         </is>
       </c>
       <c r="P144" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="Q144" t="n">
         <v>1</v>
@@ -10773,7 +10773,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44295</v>
+        <v>44400</v>
       </c>
       <c r="E145" t="n">
         <v>13</v>
@@ -10797,16 +10797,16 @@
         </is>
       </c>
       <c r="J145" t="n">
-        <v>2500</v>
+        <v>4300</v>
       </c>
       <c r="K145" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="L145" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M145" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="N145" t="inlineStr">
         <is>
@@ -10815,11 +10815,11 @@
       </c>
       <c r="O145" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P145" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="Q145" t="n">
         <v>1</v>
@@ -10845,7 +10845,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44194</v>
+        <v>44400</v>
       </c>
       <c r="E146" t="n">
         <v>13</v>
@@ -10872,13 +10872,13 @@
         <v>3400</v>
       </c>
       <c r="K146" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="L146" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="M146" t="n">
-        <v>950</v>
+        <v>550</v>
       </c>
       <c r="N146" t="inlineStr">
         <is>
@@ -10887,11 +10887,11 @@
       </c>
       <c r="O146" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P146" t="n">
-        <v>950</v>
+        <v>550</v>
       </c>
       <c r="Q146" t="n">
         <v>1</v>
@@ -10917,7 +10917,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44390</v>
+        <v>44400</v>
       </c>
       <c r="E147" t="n">
         <v>13</v>
@@ -10937,20 +10937,20 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J147" t="n">
-        <v>4300</v>
+        <v>1600</v>
       </c>
       <c r="K147" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L147" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M147" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="N147" t="inlineStr">
         <is>
@@ -10963,7 +10963,7 @@
         </is>
       </c>
       <c r="P147" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="Q147" t="n">
         <v>1</v>
@@ -10989,7 +10989,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44390</v>
+        <v>44400</v>
       </c>
       <c r="E148" t="n">
         <v>13</v>
@@ -11009,20 +11009,20 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J148" t="n">
-        <v>3400</v>
+        <v>970</v>
       </c>
       <c r="K148" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L148" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M148" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="N148" t="inlineStr">
         <is>
@@ -11035,7 +11035,7 @@
         </is>
       </c>
       <c r="P148" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="Q148" t="n">
         <v>1</v>
@@ -11061,7 +11061,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44390</v>
+        <v>44426</v>
       </c>
       <c r="E149" t="n">
         <v>13</v>
@@ -11081,20 +11081,20 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J149" t="n">
-        <v>1600</v>
+        <v>3400</v>
       </c>
       <c r="K149" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L149" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="M149" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="N149" t="inlineStr">
         <is>
@@ -11107,7 +11107,7 @@
         </is>
       </c>
       <c r="P149" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="Q149" t="n">
         <v>1</v>
@@ -11133,7 +11133,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44390</v>
+        <v>44426</v>
       </c>
       <c r="E150" t="n">
         <v>13</v>
@@ -11175,7 +11175,7 @@
       </c>
       <c r="O150" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P150" t="n">
@@ -11205,7 +11205,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44321</v>
+        <v>44225</v>
       </c>
       <c r="E151" t="n">
         <v>13</v>
@@ -11229,16 +11229,16 @@
         </is>
       </c>
       <c r="J151" t="n">
-        <v>2500</v>
+        <v>2200</v>
       </c>
       <c r="K151" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="L151" t="n">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="M151" t="n">
-        <v>600</v>
+        <v>1091</v>
       </c>
       <c r="N151" t="inlineStr">
         <is>
@@ -11251,7 +11251,7 @@
         </is>
       </c>
       <c r="P151" t="n">
-        <v>600</v>
+        <v>1091</v>
       </c>
       <c r="Q151" t="n">
         <v>1</v>
@@ -11277,7 +11277,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44321</v>
+        <v>44295</v>
       </c>
       <c r="E152" t="n">
         <v>13</v>
@@ -11304,13 +11304,13 @@
         <v>1600</v>
       </c>
       <c r="K152" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L152" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M152" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="N152" t="inlineStr">
         <is>
@@ -11319,11 +11319,11 @@
       </c>
       <c r="O152" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P152" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="Q152" t="n">
         <v>1</v>
@@ -11349,7 +11349,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44383</v>
+        <v>44295</v>
       </c>
       <c r="E153" t="n">
         <v>13</v>
@@ -11373,16 +11373,16 @@
         </is>
       </c>
       <c r="J153" t="n">
-        <v>4300</v>
+        <v>2500</v>
       </c>
       <c r="K153" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="L153" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M153" t="n">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="N153" t="inlineStr">
         <is>
@@ -11391,11 +11391,11 @@
       </c>
       <c r="O153" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P153" t="n">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="Q153" t="n">
         <v>1</v>
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44383</v>
+        <v>44194</v>
       </c>
       <c r="E154" t="n">
         <v>13</v>
@@ -11448,13 +11448,13 @@
         <v>3400</v>
       </c>
       <c r="K154" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="L154" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="M154" t="n">
-        <v>550</v>
+        <v>950</v>
       </c>
       <c r="N154" t="inlineStr">
         <is>
@@ -11463,11 +11463,11 @@
       </c>
       <c r="O154" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P154" t="n">
-        <v>550</v>
+        <v>950</v>
       </c>
       <c r="Q154" t="n">
         <v>1</v>
@@ -11493,7 +11493,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44383</v>
+        <v>44390</v>
       </c>
       <c r="E155" t="n">
         <v>13</v>
@@ -11513,20 +11513,20 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J155" t="n">
-        <v>1600</v>
+        <v>4300</v>
       </c>
       <c r="K155" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L155" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M155" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="N155" t="inlineStr">
         <is>
@@ -11539,7 +11539,7 @@
         </is>
       </c>
       <c r="P155" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="Q155" t="n">
         <v>1</v>
@@ -11565,7 +11565,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44383</v>
+        <v>44390</v>
       </c>
       <c r="E156" t="n">
         <v>13</v>
@@ -11585,20 +11585,20 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J156" t="n">
-        <v>970</v>
+        <v>3400</v>
       </c>
       <c r="K156" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L156" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M156" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="N156" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         </is>
       </c>
       <c r="P156" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="Q156" t="n">
         <v>1</v>
@@ -11637,7 +11637,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44354</v>
+        <v>44390</v>
       </c>
       <c r="E157" t="n">
         <v>13</v>
@@ -11657,20 +11657,20 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J157" t="n">
-        <v>2500</v>
+        <v>1600</v>
       </c>
       <c r="K157" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L157" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M157" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="N157" t="inlineStr">
         <is>
@@ -11683,7 +11683,7 @@
         </is>
       </c>
       <c r="P157" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="Q157" t="n">
         <v>1</v>
@@ -11709,7 +11709,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44412</v>
+        <v>44390</v>
       </c>
       <c r="E158" t="n">
         <v>13</v>
@@ -11729,20 +11729,20 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J158" t="n">
-        <v>2500</v>
+        <v>970</v>
       </c>
       <c r="K158" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L158" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="M158" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="N158" t="inlineStr">
         <is>
@@ -11751,11 +11751,11 @@
       </c>
       <c r="O158" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P158" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="Q158" t="n">
         <v>1</v>
@@ -11781,7 +11781,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44412</v>
+        <v>44321</v>
       </c>
       <c r="E159" t="n">
         <v>13</v>
@@ -11805,16 +11805,16 @@
         </is>
       </c>
       <c r="J159" t="n">
-        <v>1600</v>
+        <v>2500</v>
       </c>
       <c r="K159" t="n">
         <v>600</v>
       </c>
       <c r="L159" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M159" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="N159" t="inlineStr">
         <is>
@@ -11823,11 +11823,11 @@
       </c>
       <c r="O159" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P159" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="Q159" t="n">
         <v>1</v>
@@ -11853,7 +11853,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44412</v>
+        <v>44321</v>
       </c>
       <c r="E160" t="n">
         <v>13</v>
@@ -11873,20 +11873,20 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J160" t="n">
-        <v>970</v>
+        <v>1600</v>
       </c>
       <c r="K160" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L160" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M160" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N160" t="inlineStr">
         <is>
@@ -11895,11 +11895,11 @@
       </c>
       <c r="O160" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P160" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q160" t="n">
         <v>1</v>
@@ -11925,7 +11925,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44412</v>
+        <v>44383</v>
       </c>
       <c r="E161" t="n">
         <v>13</v>
@@ -11945,20 +11945,20 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J161" t="n">
-        <v>790</v>
+        <v>4300</v>
       </c>
       <c r="K161" t="n">
         <v>500</v>
       </c>
       <c r="L161" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M161" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="N161" t="inlineStr">
         <is>
@@ -11967,11 +11967,11 @@
       </c>
       <c r="O161" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P161" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="Q161" t="n">
         <v>1</v>
@@ -11997,7 +11997,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44336</v>
+        <v>44383</v>
       </c>
       <c r="E162" t="n">
         <v>13</v>
@@ -12021,16 +12021,16 @@
         </is>
       </c>
       <c r="J162" t="n">
-        <v>4300</v>
+        <v>3400</v>
       </c>
       <c r="K162" t="n">
+        <v>500</v>
+      </c>
+      <c r="L162" t="n">
         <v>600</v>
       </c>
-      <c r="L162" t="n">
-        <v>700</v>
-      </c>
       <c r="M162" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="N162" t="inlineStr">
         <is>
@@ -12039,11 +12039,11 @@
       </c>
       <c r="O162" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P162" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="Q162" t="n">
         <v>1</v>
@@ -12069,7 +12069,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44336</v>
+        <v>44383</v>
       </c>
       <c r="E163" t="n">
         <v>13</v>
@@ -12089,20 +12089,20 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J163" t="n">
-        <v>3400</v>
+        <v>1600</v>
       </c>
       <c r="K163" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L163" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="M163" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="N163" t="inlineStr">
         <is>
@@ -12111,11 +12111,11 @@
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P163" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="Q163" t="n">
         <v>1</v>
@@ -12141,7 +12141,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44336</v>
+        <v>44383</v>
       </c>
       <c r="E164" t="n">
         <v>13</v>
@@ -12165,7 +12165,7 @@
         </is>
       </c>
       <c r="J164" t="n">
-        <v>1600</v>
+        <v>970</v>
       </c>
       <c r="K164" t="n">
         <v>400</v>
@@ -12183,7 +12183,7 @@
       </c>
       <c r="O164" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P164" t="n">
@@ -12213,7 +12213,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44336</v>
+        <v>44354</v>
       </c>
       <c r="E165" t="n">
         <v>13</v>
@@ -12233,20 +12233,20 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J165" t="n">
-        <v>1600</v>
+        <v>2500</v>
       </c>
       <c r="K165" t="n">
         <v>500</v>
       </c>
       <c r="L165" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M165" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="N165" t="inlineStr">
         <is>
@@ -12255,11 +12255,11 @@
       </c>
       <c r="O165" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P165" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="Q165" t="n">
         <v>1</v>
@@ -12285,7 +12285,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44300</v>
+        <v>44412</v>
       </c>
       <c r="E166" t="n">
         <v>13</v>
@@ -12309,16 +12309,16 @@
         </is>
       </c>
       <c r="J166" t="n">
-        <v>1600</v>
+        <v>2500</v>
       </c>
       <c r="K166" t="n">
+        <v>600</v>
+      </c>
+      <c r="L166" t="n">
         <v>700</v>
       </c>
-      <c r="L166" t="n">
-        <v>800</v>
-      </c>
       <c r="M166" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="N166" t="inlineStr">
         <is>
@@ -12331,7 +12331,7 @@
         </is>
       </c>
       <c r="P166" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="Q166" t="n">
         <v>1</v>
@@ -12357,7 +12357,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44214</v>
+        <v>44412</v>
       </c>
       <c r="E167" t="n">
         <v>13</v>
@@ -12381,16 +12381,16 @@
         </is>
       </c>
       <c r="J167" t="n">
-        <v>1300</v>
+        <v>1600</v>
       </c>
       <c r="K167" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="L167" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="M167" t="n">
-        <v>1000</v>
+        <v>650</v>
       </c>
       <c r="N167" t="inlineStr">
         <is>
@@ -12399,11 +12399,11 @@
       </c>
       <c r="O167" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P167" t="n">
-        <v>1000</v>
+        <v>650</v>
       </c>
       <c r="Q167" t="n">
         <v>1</v>
@@ -12429,7 +12429,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44371</v>
+        <v>44412</v>
       </c>
       <c r="E168" t="n">
         <v>13</v>
@@ -12449,20 +12449,20 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J168" t="n">
-        <v>2500</v>
+        <v>970</v>
       </c>
       <c r="K168" t="n">
         <v>500</v>
       </c>
       <c r="L168" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M168" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="N168" t="inlineStr">
         <is>
@@ -12475,7 +12475,7 @@
         </is>
       </c>
       <c r="P168" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="Q168" t="n">
         <v>1</v>
@@ -12501,7 +12501,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44371</v>
+        <v>44412</v>
       </c>
       <c r="E169" t="n">
         <v>13</v>
@@ -12521,20 +12521,20 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J169" t="n">
-        <v>3400</v>
+        <v>790</v>
       </c>
       <c r="K169" t="n">
         <v>500</v>
       </c>
       <c r="L169" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M169" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="N169" t="inlineStr">
         <is>
@@ -12547,7 +12547,7 @@
         </is>
       </c>
       <c r="P169" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="Q169" t="n">
         <v>1</v>
@@ -12573,7 +12573,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44371</v>
+        <v>44336</v>
       </c>
       <c r="E170" t="n">
         <v>13</v>
@@ -12593,20 +12593,20 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J170" t="n">
-        <v>970</v>
+        <v>4300</v>
       </c>
       <c r="K170" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L170" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="M170" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="N170" t="inlineStr">
         <is>
@@ -12619,7 +12619,7 @@
         </is>
       </c>
       <c r="P170" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="Q170" t="n">
         <v>1</v>
@@ -12645,7 +12645,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44371</v>
+        <v>44336</v>
       </c>
       <c r="E171" t="n">
         <v>13</v>
@@ -12665,20 +12665,20 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J171" t="n">
-        <v>1600</v>
+        <v>3400</v>
       </c>
       <c r="K171" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L171" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="M171" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="N171" t="inlineStr">
         <is>
@@ -12691,7 +12691,7 @@
         </is>
       </c>
       <c r="P171" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="Q171" t="n">
         <v>1</v>
@@ -12717,7 +12717,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44274</v>
+        <v>44336</v>
       </c>
       <c r="E172" t="n">
         <v>13</v>
@@ -12737,20 +12737,20 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J172" t="n">
         <v>1600</v>
       </c>
       <c r="K172" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="L172" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="M172" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="N172" t="inlineStr">
         <is>
@@ -12763,7 +12763,7 @@
         </is>
       </c>
       <c r="P172" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="Q172" t="n">
         <v>1</v>
@@ -12789,7 +12789,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44320</v>
+        <v>44336</v>
       </c>
       <c r="E173" t="n">
         <v>13</v>
@@ -12809,20 +12809,20 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J173" t="n">
-        <v>2500</v>
+        <v>1600</v>
       </c>
       <c r="K173" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L173" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M173" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="N173" t="inlineStr">
         <is>
@@ -12831,11 +12831,11 @@
       </c>
       <c r="O173" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P173" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="Q173" t="n">
         <v>1</v>
@@ -12861,7 +12861,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44320</v>
+        <v>44300</v>
       </c>
       <c r="E174" t="n">
         <v>13</v>
@@ -12881,20 +12881,20 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J174" t="n">
+        <v>1600</v>
+      </c>
+      <c r="K174" t="n">
         <v>700</v>
       </c>
-      <c r="K174" t="n">
-        <v>500</v>
-      </c>
       <c r="L174" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M174" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="N174" t="inlineStr">
         <is>
@@ -12907,7 +12907,7 @@
         </is>
       </c>
       <c r="P174" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="Q174" t="n">
         <v>1</v>
@@ -12933,7 +12933,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44314</v>
+        <v>44214</v>
       </c>
       <c r="E175" t="n">
         <v>13</v>
@@ -12957,16 +12957,16 @@
         </is>
       </c>
       <c r="J175" t="n">
-        <v>2500</v>
+        <v>1300</v>
       </c>
       <c r="K175" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="L175" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="M175" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="N175" t="inlineStr">
         <is>
@@ -12975,11 +12975,11 @@
       </c>
       <c r="O175" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P175" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="Q175" t="n">
         <v>1</v>
@@ -13005,7 +13005,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44364</v>
+        <v>44371</v>
       </c>
       <c r="E176" t="n">
         <v>13</v>
@@ -13029,7 +13029,7 @@
         </is>
       </c>
       <c r="J176" t="n">
-        <v>3800</v>
+        <v>2500</v>
       </c>
       <c r="K176" t="n">
         <v>500</v>
@@ -13047,7 +13047,7 @@
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P176" t="n">
@@ -13077,7 +13077,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44364</v>
+        <v>44371</v>
       </c>
       <c r="E177" t="n">
         <v>13</v>
@@ -13097,20 +13097,20 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J177" t="n">
-        <v>2000</v>
+        <v>3400</v>
       </c>
       <c r="K177" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L177" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M177" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="N177" t="inlineStr">
         <is>
@@ -13123,7 +13123,7 @@
         </is>
       </c>
       <c r="P177" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="Q177" t="n">
         <v>1</v>
@@ -13149,7 +13149,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44405</v>
+        <v>44371</v>
       </c>
       <c r="E178" t="n">
         <v>13</v>
@@ -13169,20 +13169,20 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J178" t="n">
-        <v>1600</v>
+        <v>970</v>
       </c>
       <c r="K178" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L178" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M178" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="N178" t="inlineStr">
         <is>
@@ -13191,11 +13191,11 @@
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P178" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="Q178" t="n">
         <v>1</v>
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44405</v>
+        <v>44371</v>
       </c>
       <c r="E179" t="n">
         <v>13</v>
@@ -13245,7 +13245,7 @@
         </is>
       </c>
       <c r="J179" t="n">
-        <v>790</v>
+        <v>1600</v>
       </c>
       <c r="K179" t="n">
         <v>400</v>
@@ -13293,7 +13293,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44327</v>
+        <v>44274</v>
       </c>
       <c r="E180" t="n">
         <v>13</v>
@@ -13317,16 +13317,16 @@
         </is>
       </c>
       <c r="J180" t="n">
-        <v>4300</v>
+        <v>1600</v>
       </c>
       <c r="K180" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="L180" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="M180" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="N180" t="inlineStr">
         <is>
@@ -13335,11 +13335,11 @@
       </c>
       <c r="O180" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P180" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="Q180" t="n">
         <v>1</v>
@@ -13365,7 +13365,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44327</v>
+        <v>44320</v>
       </c>
       <c r="E181" t="n">
         <v>13</v>
@@ -13385,20 +13385,20 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J181" t="n">
-        <v>1600</v>
+        <v>2500</v>
       </c>
       <c r="K181" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="L181" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="M181" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="N181" t="inlineStr">
         <is>
@@ -13407,11 +13407,11 @@
       </c>
       <c r="O181" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P181" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="Q181" t="n">
         <v>1</v>
@@ -13437,7 +13437,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44313</v>
+        <v>44320</v>
       </c>
       <c r="E182" t="n">
         <v>13</v>
@@ -13457,20 +13457,20 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J182" t="n">
-        <v>1420</v>
+        <v>700</v>
       </c>
       <c r="K182" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L182" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M182" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="N182" t="inlineStr">
         <is>
@@ -13483,7 +13483,7 @@
         </is>
       </c>
       <c r="P182" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="Q182" t="n">
         <v>1</v>
@@ -13509,7 +13509,7 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>44330</v>
+        <v>44314</v>
       </c>
       <c r="E183" t="n">
         <v>13</v>
@@ -13539,10 +13539,10 @@
         <v>600</v>
       </c>
       <c r="L183" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M183" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="N183" t="inlineStr">
         <is>
@@ -13551,11 +13551,11 @@
       </c>
       <c r="O183" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P183" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="Q183" t="n">
         <v>1</v>
@@ -13581,7 +13581,7 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>44330</v>
+        <v>44364</v>
       </c>
       <c r="E184" t="n">
         <v>13</v>
@@ -13605,16 +13605,16 @@
         </is>
       </c>
       <c r="J184" t="n">
-        <v>3400</v>
+        <v>3800</v>
       </c>
       <c r="K184" t="n">
+        <v>500</v>
+      </c>
+      <c r="L184" t="n">
         <v>600</v>
       </c>
-      <c r="L184" t="n">
-        <v>700</v>
-      </c>
       <c r="M184" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="N184" t="inlineStr">
         <is>
@@ -13627,7 +13627,7 @@
         </is>
       </c>
       <c r="P184" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="Q184" t="n">
         <v>1</v>
@@ -13653,7 +13653,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44330</v>
+        <v>44364</v>
       </c>
       <c r="E185" t="n">
         <v>13</v>
@@ -13677,7 +13677,7 @@
         </is>
       </c>
       <c r="J185" t="n">
-        <v>700</v>
+        <v>2000</v>
       </c>
       <c r="K185" t="n">
         <v>400</v>
@@ -13695,7 +13695,7 @@
       </c>
       <c r="O185" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P185" t="n">
@@ -13725,7 +13725,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44330</v>
+        <v>44435</v>
       </c>
       <c r="E186" t="n">
         <v>13</v>
@@ -13745,20 +13745,20 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J186" t="n">
-        <v>1600</v>
+        <v>18800</v>
       </c>
       <c r="K186" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L186" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="M186" t="n">
-        <v>400</v>
+        <v>636</v>
       </c>
       <c r="N186" t="inlineStr">
         <is>
@@ -13767,11 +13767,11 @@
       </c>
       <c r="O186" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P186" t="n">
-        <v>400</v>
+        <v>636</v>
       </c>
       <c r="Q186" t="n">
         <v>1</v>
@@ -13797,7 +13797,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44391</v>
+        <v>44435</v>
       </c>
       <c r="E187" t="n">
         <v>13</v>
@@ -13821,16 +13821,16 @@
         </is>
       </c>
       <c r="J187" t="n">
-        <v>1600</v>
+        <v>13600</v>
       </c>
       <c r="K187" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L187" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M187" t="n">
-        <v>550</v>
+        <v>638</v>
       </c>
       <c r="N187" t="inlineStr">
         <is>
@@ -13839,11 +13839,11 @@
       </c>
       <c r="O187" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P187" t="n">
-        <v>550</v>
+        <v>638</v>
       </c>
       <c r="Q187" t="n">
         <v>1</v>
@@ -13869,7 +13869,7 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>44391</v>
+        <v>44435</v>
       </c>
       <c r="E188" t="n">
         <v>13</v>
@@ -13889,20 +13889,20 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J188" t="n">
-        <v>2500</v>
+        <v>7550</v>
       </c>
       <c r="K188" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L188" t="n">
         <v>600</v>
       </c>
       <c r="M188" t="n">
-        <v>550</v>
+        <v>530</v>
       </c>
       <c r="N188" t="inlineStr">
         <is>
@@ -13911,11 +13911,11 @@
       </c>
       <c r="O188" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P188" t="n">
-        <v>550</v>
+        <v>530</v>
       </c>
       <c r="Q188" t="n">
         <v>1</v>
@@ -13941,7 +13941,7 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>44391</v>
+        <v>44435</v>
       </c>
       <c r="E189" t="n">
         <v>13</v>
@@ -13965,16 +13965,16 @@
         </is>
       </c>
       <c r="J189" t="n">
-        <v>520</v>
+        <v>5680</v>
       </c>
       <c r="K189" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L189" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M189" t="n">
-        <v>400</v>
+        <v>534</v>
       </c>
       <c r="N189" t="inlineStr">
         <is>
@@ -13983,11 +13983,11 @@
       </c>
       <c r="O189" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P189" t="n">
-        <v>400</v>
+        <v>534</v>
       </c>
       <c r="Q189" t="n">
         <v>1</v>
@@ -14013,7 +14013,7 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>44391</v>
+        <v>44431</v>
       </c>
       <c r="E190" t="n">
         <v>13</v>
@@ -14033,20 +14033,20 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J190" t="n">
-        <v>970</v>
+        <v>2500</v>
       </c>
       <c r="K190" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L190" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="M190" t="n">
-        <v>400</v>
+        <v>625</v>
       </c>
       <c r="N190" t="inlineStr">
         <is>
@@ -14055,11 +14055,11 @@
       </c>
       <c r="O190" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P190" t="n">
-        <v>400</v>
+        <v>625</v>
       </c>
       <c r="Q190" t="n">
         <v>1</v>
@@ -14085,7 +14085,7 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>44351</v>
+        <v>44431</v>
       </c>
       <c r="E191" t="n">
         <v>13</v>
@@ -14105,20 +14105,20 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J191" t="n">
-        <v>3400</v>
+        <v>610</v>
       </c>
       <c r="K191" t="n">
+        <v>400</v>
+      </c>
+      <c r="L191" t="n">
         <v>500</v>
       </c>
-      <c r="L191" t="n">
-        <v>600</v>
-      </c>
       <c r="M191" t="n">
-        <v>550</v>
+        <v>450</v>
       </c>
       <c r="N191" t="inlineStr">
         <is>
@@ -14131,7 +14131,7 @@
         </is>
       </c>
       <c r="P191" t="n">
-        <v>550</v>
+        <v>450</v>
       </c>
       <c r="Q191" t="n">
         <v>1</v>
@@ -14157,7 +14157,7 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>44351</v>
+        <v>44405</v>
       </c>
       <c r="E192" t="n">
         <v>13</v>
@@ -14181,7 +14181,7 @@
         </is>
       </c>
       <c r="J192" t="n">
-        <v>4300</v>
+        <v>1600</v>
       </c>
       <c r="K192" t="n">
         <v>500</v>
@@ -14229,7 +14229,7 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>44351</v>
+        <v>44405</v>
       </c>
       <c r="E193" t="n">
         <v>13</v>
@@ -14253,7 +14253,7 @@
         </is>
       </c>
       <c r="J193" t="n">
-        <v>1600</v>
+        <v>790</v>
       </c>
       <c r="K193" t="n">
         <v>400</v>
@@ -14271,7 +14271,7 @@
       </c>
       <c r="O193" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P193" t="n">
@@ -14301,7 +14301,7 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>44351</v>
+        <v>44327</v>
       </c>
       <c r="E194" t="n">
         <v>13</v>
@@ -14321,20 +14321,20 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J194" t="n">
-        <v>2500</v>
+        <v>4300</v>
       </c>
       <c r="K194" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L194" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M194" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="N194" t="inlineStr">
         <is>
@@ -14347,7 +14347,7 @@
         </is>
       </c>
       <c r="P194" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="Q194" t="n">
         <v>1</v>
@@ -14373,7 +14373,7 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>44350</v>
+        <v>44327</v>
       </c>
       <c r="E195" t="n">
         <v>13</v>
@@ -14393,20 +14393,20 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J195" t="n">
-        <v>21000</v>
+        <v>1600</v>
       </c>
       <c r="K195" t="n">
         <v>400</v>
       </c>
       <c r="L195" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M195" t="n">
-        <v>467</v>
+        <v>400</v>
       </c>
       <c r="N195" t="inlineStr">
         <is>
@@ -14415,11 +14415,11 @@
       </c>
       <c r="O195" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P195" t="n">
-        <v>467</v>
+        <v>400</v>
       </c>
       <c r="Q195" t="n">
         <v>1</v>
@@ -14445,7 +14445,7 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>44350</v>
+        <v>44313</v>
       </c>
       <c r="E196" t="n">
         <v>13</v>
@@ -14469,16 +14469,16 @@
         </is>
       </c>
       <c r="J196" t="n">
-        <v>6200</v>
+        <v>1420</v>
       </c>
       <c r="K196" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L196" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M196" t="n">
-        <v>523</v>
+        <v>700</v>
       </c>
       <c r="N196" t="inlineStr">
         <is>
@@ -14487,11 +14487,11 @@
       </c>
       <c r="O196" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P196" t="n">
-        <v>523</v>
+        <v>700</v>
       </c>
       <c r="Q196" t="n">
         <v>1</v>
@@ -14517,7 +14517,7 @@
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>44350</v>
+        <v>44330</v>
       </c>
       <c r="E197" t="n">
         <v>13</v>
@@ -14537,20 +14537,20 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J197" t="n">
-        <v>7500</v>
+        <v>2500</v>
       </c>
       <c r="K197" t="n">
-        <v>250</v>
+        <v>600</v>
       </c>
       <c r="L197" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="M197" t="n">
-        <v>299</v>
+        <v>650</v>
       </c>
       <c r="N197" t="inlineStr">
         <is>
@@ -14563,7 +14563,7 @@
         </is>
       </c>
       <c r="P197" t="n">
-        <v>299</v>
+        <v>650</v>
       </c>
       <c r="Q197" t="n">
         <v>1</v>
@@ -14589,7 +14589,7 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>44350</v>
+        <v>44330</v>
       </c>
       <c r="E198" t="n">
         <v>13</v>
@@ -14609,20 +14609,20 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J198" t="n">
-        <v>1300</v>
+        <v>3400</v>
       </c>
       <c r="K198" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L198" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="M198" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="N198" t="inlineStr">
         <is>
@@ -14635,7 +14635,7 @@
         </is>
       </c>
       <c r="P198" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="Q198" t="n">
         <v>1</v>
@@ -14661,7 +14661,7 @@
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>44196</v>
+        <v>44330</v>
       </c>
       <c r="E199" t="n">
         <v>13</v>
@@ -14681,20 +14681,20 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J199" t="n">
-        <v>3400</v>
+        <v>700</v>
       </c>
       <c r="K199" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="L199" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="M199" t="n">
-        <v>950</v>
+        <v>400</v>
       </c>
       <c r="N199" t="inlineStr">
         <is>
@@ -14707,7 +14707,7 @@
         </is>
       </c>
       <c r="P199" t="n">
-        <v>950</v>
+        <v>400</v>
       </c>
       <c r="Q199" t="n">
         <v>1</v>
@@ -14733,7 +14733,7 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>44315</v>
+        <v>44330</v>
       </c>
       <c r="E200" t="n">
         <v>13</v>
@@ -14753,20 +14753,20 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J200" t="n">
-        <v>2500</v>
+        <v>1600</v>
       </c>
       <c r="K200" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L200" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="M200" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="N200" t="inlineStr">
         <is>
@@ -14775,11 +14775,11 @@
       </c>
       <c r="O200" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P200" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="Q200" t="n">
         <v>1</v>
@@ -14805,7 +14805,7 @@
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>44315</v>
+        <v>44391</v>
       </c>
       <c r="E201" t="n">
         <v>13</v>
@@ -14832,13 +14832,13 @@
         <v>1600</v>
       </c>
       <c r="K201" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L201" t="n">
         <v>600</v>
       </c>
       <c r="M201" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="N201" t="inlineStr">
         <is>
@@ -14847,11 +14847,11 @@
       </c>
       <c r="O201" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P201" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="Q201" t="n">
         <v>1</v>
@@ -14877,7 +14877,7 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>44278</v>
+        <v>44391</v>
       </c>
       <c r="E202" t="n">
         <v>13</v>
@@ -14901,16 +14901,16 @@
         </is>
       </c>
       <c r="J202" t="n">
-        <v>1600</v>
+        <v>2500</v>
       </c>
       <c r="K202" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="L202" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="M202" t="n">
-        <v>900</v>
+        <v>550</v>
       </c>
       <c r="N202" t="inlineStr">
         <is>
@@ -14919,11 +14919,11 @@
       </c>
       <c r="O202" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P202" t="n">
-        <v>900</v>
+        <v>550</v>
       </c>
       <c r="Q202" t="n">
         <v>1</v>
@@ -14949,7 +14949,7 @@
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>44358</v>
+        <v>44391</v>
       </c>
       <c r="E203" t="n">
         <v>13</v>
@@ -14969,20 +14969,20 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J203" t="n">
-        <v>4300</v>
+        <v>520</v>
       </c>
       <c r="K203" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L203" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M203" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="N203" t="inlineStr">
         <is>
@@ -14995,7 +14995,7 @@
         </is>
       </c>
       <c r="P203" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="Q203" t="n">
         <v>1</v>
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>44358</v>
+        <v>44391</v>
       </c>
       <c r="E204" t="n">
         <v>13</v>
@@ -15041,20 +15041,20 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J204" t="n">
-        <v>3400</v>
+        <v>970</v>
       </c>
       <c r="K204" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L204" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M204" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="N204" t="inlineStr">
         <is>
@@ -15067,7 +15067,7 @@
         </is>
       </c>
       <c r="P204" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="Q204" t="n">
         <v>1</v>
@@ -15093,7 +15093,7 @@
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>44358</v>
+        <v>44351</v>
       </c>
       <c r="E205" t="n">
         <v>13</v>
@@ -15113,20 +15113,20 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J205" t="n">
-        <v>2500</v>
+        <v>3400</v>
       </c>
       <c r="K205" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L205" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M205" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="N205" t="inlineStr">
         <is>
@@ -15139,7 +15139,7 @@
         </is>
       </c>
       <c r="P205" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="Q205" t="n">
         <v>1</v>
@@ -15165,7 +15165,7 @@
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>44358</v>
+        <v>44351</v>
       </c>
       <c r="E206" t="n">
         <v>13</v>
@@ -15185,20 +15185,20 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J206" t="n">
-        <v>1600</v>
+        <v>4300</v>
       </c>
       <c r="K206" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L206" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M206" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="N206" t="inlineStr">
         <is>
@@ -15211,7 +15211,7 @@
         </is>
       </c>
       <c r="P206" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="Q206" t="n">
         <v>1</v>
@@ -15237,7 +15237,7 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>44389</v>
+        <v>44351</v>
       </c>
       <c r="E207" t="n">
         <v>13</v>
@@ -15257,20 +15257,20 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J207" t="n">
         <v>1600</v>
       </c>
       <c r="K207" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L207" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M207" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="N207" t="inlineStr">
         <is>
@@ -15279,11 +15279,11 @@
       </c>
       <c r="O207" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P207" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="Q207" t="n">
         <v>1</v>
@@ -15309,7 +15309,7 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>44389</v>
+        <v>44351</v>
       </c>
       <c r="E208" t="n">
         <v>13</v>
@@ -15333,7 +15333,7 @@
         </is>
       </c>
       <c r="J208" t="n">
-        <v>520</v>
+        <v>2500</v>
       </c>
       <c r="K208" t="n">
         <v>400</v>
@@ -15381,7 +15381,7 @@
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>44399</v>
+        <v>44350</v>
       </c>
       <c r="E209" t="n">
         <v>13</v>
@@ -15405,16 +15405,16 @@
         </is>
       </c>
       <c r="J209" t="n">
-        <v>4300</v>
+        <v>21000</v>
       </c>
       <c r="K209" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L209" t="n">
         <v>600</v>
       </c>
       <c r="M209" t="n">
-        <v>550</v>
+        <v>467</v>
       </c>
       <c r="N209" t="inlineStr">
         <is>
@@ -15427,7 +15427,7 @@
         </is>
       </c>
       <c r="P209" t="n">
-        <v>550</v>
+        <v>467</v>
       </c>
       <c r="Q209" t="n">
         <v>1</v>
@@ -15453,7 +15453,7 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>44399</v>
+        <v>44350</v>
       </c>
       <c r="E210" t="n">
         <v>13</v>
@@ -15477,7 +15477,7 @@
         </is>
       </c>
       <c r="J210" t="n">
-        <v>3400</v>
+        <v>6200</v>
       </c>
       <c r="K210" t="n">
         <v>500</v>
@@ -15486,7 +15486,7 @@
         <v>600</v>
       </c>
       <c r="M210" t="n">
-        <v>550</v>
+        <v>523</v>
       </c>
       <c r="N210" t="inlineStr">
         <is>
@@ -15499,7 +15499,7 @@
         </is>
       </c>
       <c r="P210" t="n">
-        <v>550</v>
+        <v>523</v>
       </c>
       <c r="Q210" t="n">
         <v>1</v>
@@ -15525,7 +15525,7 @@
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>44399</v>
+        <v>44350</v>
       </c>
       <c r="E211" t="n">
         <v>13</v>
@@ -15549,16 +15549,16 @@
         </is>
       </c>
       <c r="J211" t="n">
-        <v>1600</v>
+        <v>7500</v>
       </c>
       <c r="K211" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="L211" t="n">
         <v>400</v>
       </c>
       <c r="M211" t="n">
-        <v>400</v>
+        <v>299</v>
       </c>
       <c r="N211" t="inlineStr">
         <is>
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="P211" t="n">
-        <v>400</v>
+        <v>299</v>
       </c>
       <c r="Q211" t="n">
         <v>1</v>
@@ -15597,7 +15597,7 @@
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>44399</v>
+        <v>44350</v>
       </c>
       <c r="E212" t="n">
         <v>13</v>
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="J212" t="n">
-        <v>970</v>
+        <v>1300</v>
       </c>
       <c r="K212" t="n">
         <v>400</v>
@@ -15669,7 +15669,7 @@
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>44250</v>
+        <v>44196</v>
       </c>
       <c r="E213" t="n">
         <v>13</v>
@@ -15693,16 +15693,16 @@
         </is>
       </c>
       <c r="J213" t="n">
-        <v>700</v>
+        <v>3400</v>
       </c>
       <c r="K213" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="L213" t="n">
         <v>1000</v>
       </c>
       <c r="M213" t="n">
-        <v>1000</v>
+        <v>950</v>
       </c>
       <c r="N213" t="inlineStr">
         <is>
@@ -15715,7 +15715,7 @@
         </is>
       </c>
       <c r="P213" t="n">
-        <v>1000</v>
+        <v>950</v>
       </c>
       <c r="Q213" t="n">
         <v>1</v>
@@ -15741,7 +15741,7 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>44292</v>
+        <v>44315</v>
       </c>
       <c r="E214" t="n">
         <v>13</v>
@@ -15765,16 +15765,16 @@
         </is>
       </c>
       <c r="J214" t="n">
-        <v>1600</v>
+        <v>2500</v>
       </c>
       <c r="K214" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="L214" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M214" t="n">
-        <v>900</v>
+        <v>650</v>
       </c>
       <c r="N214" t="inlineStr">
         <is>
@@ -15787,7 +15787,7 @@
         </is>
       </c>
       <c r="P214" t="n">
-        <v>900</v>
+        <v>650</v>
       </c>
       <c r="Q214" t="n">
         <v>1</v>
@@ -15813,7 +15813,7 @@
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>44294</v>
+        <v>44315</v>
       </c>
       <c r="E215" t="n">
         <v>13</v>
@@ -15840,13 +15840,13 @@
         <v>1600</v>
       </c>
       <c r="K215" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="L215" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M215" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="N215" t="inlineStr">
         <is>
@@ -15855,11 +15855,11 @@
       </c>
       <c r="O215" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P215" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="Q215" t="n">
         <v>1</v>
@@ -15885,7 +15885,7 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>44294</v>
+        <v>44278</v>
       </c>
       <c r="E216" t="n">
         <v>13</v>
@@ -15927,7 +15927,7 @@
       </c>
       <c r="O216" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P216" t="n">
@@ -15957,7 +15957,7 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44417</v>
+        <v>44358</v>
       </c>
       <c r="E217" t="n">
         <v>13</v>
@@ -15981,16 +15981,16 @@
         </is>
       </c>
       <c r="J217" t="n">
-        <v>1600</v>
+        <v>4300</v>
       </c>
       <c r="K217" t="n">
+        <v>500</v>
+      </c>
+      <c r="L217" t="n">
         <v>600</v>
       </c>
-      <c r="L217" t="n">
-        <v>700</v>
-      </c>
       <c r="M217" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="N217" t="inlineStr">
         <is>
@@ -16003,7 +16003,7 @@
         </is>
       </c>
       <c r="P217" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="Q217" t="n">
         <v>1</v>
@@ -16029,7 +16029,7 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>44419</v>
+        <v>44358</v>
       </c>
       <c r="E218" t="n">
         <v>13</v>
@@ -16056,13 +16056,13 @@
         <v>3400</v>
       </c>
       <c r="K218" t="n">
+        <v>500</v>
+      </c>
+      <c r="L218" t="n">
         <v>600</v>
       </c>
-      <c r="L218" t="n">
-        <v>700</v>
-      </c>
       <c r="M218" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="N218" t="inlineStr">
         <is>
@@ -16071,11 +16071,11 @@
       </c>
       <c r="O218" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P218" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="Q218" t="n">
         <v>1</v>
@@ -16101,7 +16101,7 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>44419</v>
+        <v>44358</v>
       </c>
       <c r="E219" t="n">
         <v>13</v>
@@ -16121,20 +16121,20 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J219" t="n">
         <v>2500</v>
       </c>
       <c r="K219" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L219" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="M219" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="N219" t="inlineStr">
         <is>
@@ -16143,11 +16143,11 @@
       </c>
       <c r="O219" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P219" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="Q219" t="n">
         <v>1</v>
@@ -16173,7 +16173,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44419</v>
+        <v>44358</v>
       </c>
       <c r="E220" t="n">
         <v>13</v>
@@ -16197,16 +16197,16 @@
         </is>
       </c>
       <c r="J220" t="n">
-        <v>970</v>
+        <v>1600</v>
       </c>
       <c r="K220" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L220" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M220" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="N220" t="inlineStr">
         <is>
@@ -16215,11 +16215,11 @@
       </c>
       <c r="O220" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P220" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="Q220" t="n">
         <v>1</v>
@@ -16245,7 +16245,7 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44419</v>
+        <v>44389</v>
       </c>
       <c r="E221" t="n">
         <v>13</v>
@@ -16265,20 +16265,20 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J221" t="n">
-        <v>790</v>
+        <v>1600</v>
       </c>
       <c r="K221" t="n">
         <v>500</v>
       </c>
       <c r="L221" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M221" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="N221" t="inlineStr">
         <is>
@@ -16291,7 +16291,7 @@
         </is>
       </c>
       <c r="P221" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="Q221" t="n">
         <v>1</v>
@@ -16317,7 +16317,7 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>44420</v>
+        <v>44389</v>
       </c>
       <c r="E222" t="n">
         <v>13</v>
@@ -16337,20 +16337,20 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J222" t="n">
-        <v>4300</v>
+        <v>520</v>
       </c>
       <c r="K222" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L222" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="M222" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="N222" t="inlineStr">
         <is>
@@ -16359,11 +16359,11 @@
       </c>
       <c r="O222" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P222" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="Q222" t="n">
         <v>1</v>
@@ -16389,7 +16389,7 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>44420</v>
+        <v>44399</v>
       </c>
       <c r="E223" t="n">
         <v>13</v>
@@ -16413,16 +16413,16 @@
         </is>
       </c>
       <c r="J223" t="n">
-        <v>3400</v>
+        <v>4300</v>
       </c>
       <c r="K223" t="n">
+        <v>500</v>
+      </c>
+      <c r="L223" t="n">
         <v>600</v>
       </c>
-      <c r="L223" t="n">
-        <v>700</v>
-      </c>
       <c r="M223" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="N223" t="inlineStr">
         <is>
@@ -16431,11 +16431,11 @@
       </c>
       <c r="O223" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P223" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="Q223" t="n">
         <v>1</v>
@@ -16461,7 +16461,7 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>44420</v>
+        <v>44399</v>
       </c>
       <c r="E224" t="n">
         <v>13</v>
@@ -16481,20 +16481,20 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J224" t="n">
-        <v>1600</v>
+        <v>3400</v>
       </c>
       <c r="K224" t="n">
         <v>500</v>
       </c>
       <c r="L224" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M224" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="N224" t="inlineStr">
         <is>
@@ -16503,11 +16503,11 @@
       </c>
       <c r="O224" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P224" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="Q224" t="n">
         <v>1</v>
@@ -16533,7 +16533,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44420</v>
+        <v>44399</v>
       </c>
       <c r="E225" t="n">
         <v>13</v>
@@ -16557,16 +16557,16 @@
         </is>
       </c>
       <c r="J225" t="n">
-        <v>970</v>
+        <v>1600</v>
       </c>
       <c r="K225" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L225" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M225" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="N225" t="inlineStr">
         <is>
@@ -16575,11 +16575,11 @@
       </c>
       <c r="O225" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P225" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="Q225" t="n">
         <v>1</v>
@@ -16605,7 +16605,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44245</v>
+        <v>44399</v>
       </c>
       <c r="E226" t="n">
         <v>13</v>
@@ -16625,20 +16625,20 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J226" t="n">
-        <v>1600</v>
+        <v>970</v>
       </c>
       <c r="K226" t="n">
-        <v>1200</v>
+        <v>400</v>
       </c>
       <c r="L226" t="n">
-        <v>1200</v>
+        <v>400</v>
       </c>
       <c r="M226" t="n">
-        <v>1200</v>
+        <v>400</v>
       </c>
       <c r="N226" t="inlineStr">
         <is>
@@ -16647,11 +16647,11 @@
       </c>
       <c r="O226" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P226" t="n">
-        <v>1200</v>
+        <v>400</v>
       </c>
       <c r="Q226" t="n">
         <v>1</v>
@@ -16677,7 +16677,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44202</v>
+        <v>44250</v>
       </c>
       <c r="E227" t="n">
         <v>13</v>
@@ -16701,16 +16701,16 @@
         </is>
       </c>
       <c r="J227" t="n">
-        <v>3100</v>
+        <v>700</v>
       </c>
       <c r="K227" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="L227" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M227" t="n">
-        <v>748</v>
+        <v>1000</v>
       </c>
       <c r="N227" t="inlineStr">
         <is>
@@ -16719,11 +16719,11 @@
       </c>
       <c r="O227" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P227" t="n">
-        <v>748</v>
+        <v>1000</v>
       </c>
       <c r="Q227" t="n">
         <v>1</v>
@@ -16749,7 +16749,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44369</v>
+        <v>44292</v>
       </c>
       <c r="E228" t="n">
         <v>13</v>
@@ -16773,16 +16773,16 @@
         </is>
       </c>
       <c r="J228" t="n">
-        <v>3400</v>
+        <v>1600</v>
       </c>
       <c r="K228" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="L228" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="M228" t="n">
-        <v>550</v>
+        <v>900</v>
       </c>
       <c r="N228" t="inlineStr">
         <is>
@@ -16795,7 +16795,7 @@
         </is>
       </c>
       <c r="P228" t="n">
-        <v>550</v>
+        <v>900</v>
       </c>
       <c r="Q228" t="n">
         <v>1</v>
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44369</v>
+        <v>44294</v>
       </c>
       <c r="E229" t="n">
         <v>13</v>
@@ -16845,16 +16845,16 @@
         </is>
       </c>
       <c r="J229" t="n">
-        <v>2500</v>
+        <v>1600</v>
       </c>
       <c r="K229" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="L229" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M229" t="n">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="N229" t="inlineStr">
         <is>
@@ -16863,11 +16863,11 @@
       </c>
       <c r="O229" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P229" t="n">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="Q229" t="n">
         <v>1</v>
@@ -16893,7 +16893,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44369</v>
+        <v>44294</v>
       </c>
       <c r="E230" t="n">
         <v>13</v>
@@ -16913,20 +16913,20 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J230" t="n">
         <v>1600</v>
       </c>
       <c r="K230" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="L230" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="M230" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="N230" t="inlineStr">
         <is>
@@ -16935,11 +16935,11 @@
       </c>
       <c r="O230" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P230" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="Q230" t="n">
         <v>1</v>
@@ -16965,7 +16965,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44369</v>
+        <v>44417</v>
       </c>
       <c r="E231" t="n">
         <v>13</v>
@@ -16985,20 +16985,20 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J231" t="n">
+        <v>1600</v>
+      </c>
+      <c r="K231" t="n">
+        <v>600</v>
+      </c>
+      <c r="L231" t="n">
         <v>700</v>
       </c>
-      <c r="K231" t="n">
-        <v>400</v>
-      </c>
-      <c r="L231" t="n">
-        <v>400</v>
-      </c>
       <c r="M231" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="N231" t="inlineStr">
         <is>
@@ -17007,11 +17007,11 @@
       </c>
       <c r="O231" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P231" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="Q231" t="n">
         <v>1</v>
@@ -17037,7 +17037,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44307</v>
+        <v>44419</v>
       </c>
       <c r="E232" t="n">
         <v>13</v>
@@ -17061,16 +17061,16 @@
         </is>
       </c>
       <c r="J232" t="n">
-        <v>2100</v>
+        <v>3400</v>
       </c>
       <c r="K232" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="L232" t="n">
         <v>700</v>
       </c>
       <c r="M232" t="n">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="N232" t="inlineStr">
         <is>
@@ -17083,7 +17083,7 @@
         </is>
       </c>
       <c r="P232" t="n">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="Q232" t="n">
         <v>1</v>
@@ -17109,7 +17109,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44161</v>
+        <v>44419</v>
       </c>
       <c r="E233" t="n">
         <v>13</v>
@@ -17133,16 +17133,16 @@
         </is>
       </c>
       <c r="J233" t="n">
-        <v>4500</v>
+        <v>2500</v>
       </c>
       <c r="K233" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L233" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M233" t="n">
-        <v>456</v>
+        <v>650</v>
       </c>
       <c r="N233" t="inlineStr">
         <is>
@@ -17151,11 +17151,11 @@
       </c>
       <c r="O233" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P233" t="n">
-        <v>456</v>
+        <v>650</v>
       </c>
       <c r="Q233" t="n">
         <v>1</v>
@@ -17181,7 +17181,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44195</v>
+        <v>44419</v>
       </c>
       <c r="E234" t="n">
         <v>13</v>
@@ -17201,20 +17201,20 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J234" t="n">
-        <v>4300</v>
+        <v>970</v>
       </c>
       <c r="K234" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="L234" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="M234" t="n">
-        <v>950</v>
+        <v>500</v>
       </c>
       <c r="N234" t="inlineStr">
         <is>
@@ -17227,7 +17227,7 @@
         </is>
       </c>
       <c r="P234" t="n">
-        <v>950</v>
+        <v>500</v>
       </c>
       <c r="Q234" t="n">
         <v>1</v>
@@ -17253,7 +17253,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44159</v>
+        <v>44419</v>
       </c>
       <c r="E235" t="n">
         <v>13</v>
@@ -17273,20 +17273,20 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J235" t="n">
-        <v>4500</v>
+        <v>790</v>
       </c>
       <c r="K235" t="n">
         <v>500</v>
       </c>
       <c r="L235" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M235" t="n">
-        <v>544</v>
+        <v>500</v>
       </c>
       <c r="N235" t="inlineStr">
         <is>
@@ -17295,11 +17295,11 @@
       </c>
       <c r="O235" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P235" t="n">
-        <v>544</v>
+        <v>500</v>
       </c>
       <c r="Q235" t="n">
         <v>1</v>
@@ -17325,7 +17325,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44333</v>
+        <v>44420</v>
       </c>
       <c r="E236" t="n">
         <v>13</v>
@@ -17349,7 +17349,7 @@
         </is>
       </c>
       <c r="J236" t="n">
-        <v>1400</v>
+        <v>4300</v>
       </c>
       <c r="K236" t="n">
         <v>600</v>
@@ -17397,7 +17397,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44201</v>
+        <v>44420</v>
       </c>
       <c r="E237" t="n">
         <v>13</v>
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="J237" t="n">
-        <v>3600</v>
+        <v>3400</v>
       </c>
       <c r="K237" t="n">
         <v>600</v>
@@ -17430,7 +17430,7 @@
         <v>700</v>
       </c>
       <c r="M237" t="n">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="N237" t="inlineStr">
         <is>
@@ -17439,11 +17439,11 @@
       </c>
       <c r="O237" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P237" t="n">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="Q237" t="n">
         <v>1</v>
@@ -17469,7 +17469,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44309</v>
+        <v>44420</v>
       </c>
       <c r="E238" t="n">
         <v>13</v>
@@ -17489,20 +17489,20 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J238" t="n">
-        <v>2500</v>
+        <v>1600</v>
       </c>
       <c r="K238" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L238" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M238" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="N238" t="inlineStr">
         <is>
@@ -17515,7 +17515,7 @@
         </is>
       </c>
       <c r="P238" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="Q238" t="n">
         <v>1</v>
@@ -17541,7 +17541,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44309</v>
+        <v>44420</v>
       </c>
       <c r="E239" t="n">
         <v>13</v>
@@ -17565,7 +17565,7 @@
         </is>
       </c>
       <c r="J239" t="n">
-        <v>700</v>
+        <v>970</v>
       </c>
       <c r="K239" t="n">
         <v>500</v>
@@ -17583,7 +17583,7 @@
       </c>
       <c r="O239" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P239" t="n">
@@ -17613,7 +17613,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44188</v>
+        <v>44245</v>
       </c>
       <c r="E240" t="n">
         <v>13</v>
@@ -17637,16 +17637,16 @@
         </is>
       </c>
       <c r="J240" t="n">
-        <v>2100</v>
+        <v>1600</v>
       </c>
       <c r="K240" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="L240" t="n">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="M240" t="n">
-        <v>852</v>
+        <v>1200</v>
       </c>
       <c r="N240" t="inlineStr">
         <is>
@@ -17655,11 +17655,11 @@
       </c>
       <c r="O240" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P240" t="n">
-        <v>852</v>
+        <v>1200</v>
       </c>
       <c r="Q240" t="n">
         <v>1</v>
@@ -17685,7 +17685,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44344</v>
+        <v>44202</v>
       </c>
       <c r="E241" t="n">
         <v>13</v>
@@ -17709,16 +17709,16 @@
         </is>
       </c>
       <c r="J241" t="n">
-        <v>5200</v>
+        <v>3100</v>
       </c>
       <c r="K241" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L241" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M241" t="n">
-        <v>550</v>
+        <v>748</v>
       </c>
       <c r="N241" t="inlineStr">
         <is>
@@ -17727,11 +17727,11 @@
       </c>
       <c r="O241" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P241" t="n">
-        <v>550</v>
+        <v>748</v>
       </c>
       <c r="Q241" t="n">
         <v>1</v>
@@ -17757,7 +17757,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44344</v>
+        <v>44369</v>
       </c>
       <c r="E242" t="n">
         <v>13</v>
@@ -17781,7 +17781,7 @@
         </is>
       </c>
       <c r="J242" t="n">
-        <v>3900</v>
+        <v>3400</v>
       </c>
       <c r="K242" t="n">
         <v>500</v>
@@ -17799,7 +17799,7 @@
       </c>
       <c r="O242" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P242" t="n">
@@ -17829,7 +17829,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44344</v>
+        <v>44369</v>
       </c>
       <c r="E243" t="n">
         <v>13</v>
@@ -17849,20 +17849,20 @@
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J243" t="n">
-        <v>2100</v>
+        <v>2500</v>
       </c>
       <c r="K243" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L243" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M243" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="N243" t="inlineStr">
         <is>
@@ -17871,11 +17871,11 @@
       </c>
       <c r="O243" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P243" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="Q243" t="n">
         <v>1</v>
@@ -17901,7 +17901,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44344</v>
+        <v>44369</v>
       </c>
       <c r="E244" t="n">
         <v>13</v>
@@ -17925,7 +17925,7 @@
         </is>
       </c>
       <c r="J244" t="n">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="K244" t="n">
         <v>400</v>
@@ -17943,7 +17943,7 @@
       </c>
       <c r="O244" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P244" t="n">
@@ -17973,7 +17973,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44319</v>
+        <v>44369</v>
       </c>
       <c r="E245" t="n">
         <v>13</v>
@@ -17993,20 +17993,20 @@
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J245" t="n">
-        <v>1600</v>
+        <v>700</v>
       </c>
       <c r="K245" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="L245" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="M245" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="N245" t="inlineStr">
         <is>
@@ -18015,11 +18015,11 @@
       </c>
       <c r="O245" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P245" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="Q245" t="n">
         <v>1</v>
@@ -18045,7 +18045,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44316</v>
+        <v>44307</v>
       </c>
       <c r="E246" t="n">
         <v>13</v>
@@ -18069,16 +18069,16 @@
         </is>
       </c>
       <c r="J246" t="n">
-        <v>3400</v>
+        <v>2100</v>
       </c>
       <c r="K246" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L246" t="n">
         <v>700</v>
       </c>
       <c r="M246" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="N246" t="inlineStr">
         <is>
@@ -18091,7 +18091,7 @@
         </is>
       </c>
       <c r="P246" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="Q246" t="n">
         <v>1</v>
@@ -18117,7 +18117,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44316</v>
+        <v>44161</v>
       </c>
       <c r="E247" t="n">
         <v>13</v>
@@ -18137,20 +18137,20 @@
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J247" t="n">
-        <v>1600</v>
+        <v>4500</v>
       </c>
       <c r="K247" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L247" t="n">
         <v>500</v>
       </c>
       <c r="M247" t="n">
-        <v>500</v>
+        <v>456</v>
       </c>
       <c r="N247" t="inlineStr">
         <is>
@@ -18159,11 +18159,11 @@
       </c>
       <c r="O247" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P247" t="n">
-        <v>500</v>
+        <v>456</v>
       </c>
       <c r="Q247" t="n">
         <v>1</v>
@@ -18189,7 +18189,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44160</v>
+        <v>44195</v>
       </c>
       <c r="E248" t="n">
         <v>13</v>
@@ -18213,16 +18213,16 @@
         </is>
       </c>
       <c r="J248" t="n">
-        <v>3600</v>
+        <v>4300</v>
       </c>
       <c r="K248" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="L248" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="M248" t="n">
-        <v>556</v>
+        <v>950</v>
       </c>
       <c r="N248" t="inlineStr">
         <is>
@@ -18231,11 +18231,11 @@
       </c>
       <c r="O248" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P248" t="n">
-        <v>556</v>
+        <v>950</v>
       </c>
       <c r="Q248" t="n">
         <v>1</v>
@@ -18261,7 +18261,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44211</v>
+        <v>44159</v>
       </c>
       <c r="E249" t="n">
         <v>13</v>
@@ -18285,16 +18285,16 @@
         </is>
       </c>
       <c r="J249" t="n">
-        <v>2500</v>
+        <v>4500</v>
       </c>
       <c r="K249" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="L249" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="M249" t="n">
-        <v>950</v>
+        <v>544</v>
       </c>
       <c r="N249" t="inlineStr">
         <is>
@@ -18303,11 +18303,11 @@
       </c>
       <c r="O249" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P249" t="n">
-        <v>950</v>
+        <v>544</v>
       </c>
       <c r="Q249" t="n">
         <v>1</v>
@@ -18333,7 +18333,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44301</v>
+        <v>44333</v>
       </c>
       <c r="E250" t="n">
         <v>13</v>
@@ -18357,16 +18357,16 @@
         </is>
       </c>
       <c r="J250" t="n">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="K250" t="n">
+        <v>600</v>
+      </c>
+      <c r="L250" t="n">
         <v>700</v>
       </c>
-      <c r="L250" t="n">
-        <v>800</v>
-      </c>
       <c r="M250" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="N250" t="inlineStr">
         <is>
@@ -18379,7 +18379,7 @@
         </is>
       </c>
       <c r="P250" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="Q250" t="n">
         <v>1</v>
@@ -18405,7 +18405,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44370</v>
+        <v>44201</v>
       </c>
       <c r="E251" t="n">
         <v>13</v>
@@ -18429,16 +18429,16 @@
         </is>
       </c>
       <c r="J251" t="n">
-        <v>1600</v>
+        <v>3600</v>
       </c>
       <c r="K251" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L251" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M251" t="n">
-        <v>550</v>
+        <v>656</v>
       </c>
       <c r="N251" t="inlineStr">
         <is>
@@ -18451,7 +18451,7 @@
         </is>
       </c>
       <c r="P251" t="n">
-        <v>550</v>
+        <v>656</v>
       </c>
       <c r="Q251" t="n">
         <v>1</v>
@@ -18477,7 +18477,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44370</v>
+        <v>44433</v>
       </c>
       <c r="E252" t="n">
         <v>13</v>
@@ -18501,16 +18501,16 @@
         </is>
       </c>
       <c r="J252" t="n">
-        <v>2500</v>
+        <v>3400</v>
       </c>
       <c r="K252" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L252" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="M252" t="n">
-        <v>550</v>
+        <v>625</v>
       </c>
       <c r="N252" t="inlineStr">
         <is>
@@ -18519,11 +18519,11 @@
       </c>
       <c r="O252" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P252" t="n">
-        <v>550</v>
+        <v>625</v>
       </c>
       <c r="Q252" t="n">
         <v>1</v>
@@ -18549,7 +18549,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44370</v>
+        <v>44433</v>
       </c>
       <c r="E253" t="n">
         <v>13</v>
@@ -18569,20 +18569,20 @@
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J253" t="n">
-        <v>700</v>
+        <v>1600</v>
       </c>
       <c r="K253" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L253" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="M253" t="n">
-        <v>400</v>
+        <v>625</v>
       </c>
       <c r="N253" t="inlineStr">
         <is>
@@ -18591,11 +18591,11 @@
       </c>
       <c r="O253" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P253" t="n">
-        <v>400</v>
+        <v>625</v>
       </c>
       <c r="Q253" t="n">
         <v>1</v>
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44370</v>
+        <v>44433</v>
       </c>
       <c r="E254" t="n">
         <v>13</v>
@@ -18648,13 +18648,13 @@
         <v>970</v>
       </c>
       <c r="K254" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L254" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="M254" t="n">
-        <v>400</v>
+        <v>525</v>
       </c>
       <c r="N254" t="inlineStr">
         <is>
@@ -18663,11 +18663,11 @@
       </c>
       <c r="O254" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P254" t="n">
-        <v>400</v>
+        <v>525</v>
       </c>
       <c r="Q254" t="n">
         <v>1</v>
@@ -18693,7 +18693,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44326</v>
+        <v>44433</v>
       </c>
       <c r="E255" t="n">
         <v>13</v>
@@ -18713,20 +18713,20 @@
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J255" t="n">
-        <v>700</v>
+        <v>610</v>
       </c>
       <c r="K255" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L255" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="M255" t="n">
-        <v>600</v>
+        <v>525</v>
       </c>
       <c r="N255" t="inlineStr">
         <is>
@@ -18735,11 +18735,11 @@
       </c>
       <c r="O255" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P255" t="n">
-        <v>600</v>
+        <v>525</v>
       </c>
       <c r="Q255" t="n">
         <v>1</v>
@@ -18765,7 +18765,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44230</v>
+        <v>44309</v>
       </c>
       <c r="E256" t="n">
         <v>13</v>
@@ -18789,16 +18789,16 @@
         </is>
       </c>
       <c r="J256" t="n">
-        <v>1900</v>
+        <v>2500</v>
       </c>
       <c r="K256" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="L256" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="M256" t="n">
-        <v>884</v>
+        <v>700</v>
       </c>
       <c r="N256" t="inlineStr">
         <is>
@@ -18811,7 +18811,7 @@
         </is>
       </c>
       <c r="P256" t="n">
-        <v>884</v>
+        <v>700</v>
       </c>
       <c r="Q256" t="n">
         <v>1</v>
@@ -18837,7 +18837,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44382</v>
+        <v>44309</v>
       </c>
       <c r="E257" t="n">
         <v>13</v>
@@ -18857,20 +18857,20 @@
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J257" t="n">
-        <v>1600</v>
+        <v>700</v>
       </c>
       <c r="K257" t="n">
         <v>500</v>
       </c>
       <c r="L257" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M257" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="N257" t="inlineStr">
         <is>
@@ -18883,7 +18883,7 @@
         </is>
       </c>
       <c r="P257" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="Q257" t="n">
         <v>1</v>
@@ -18909,7 +18909,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44382</v>
+        <v>44188</v>
       </c>
       <c r="E258" t="n">
         <v>13</v>
@@ -18929,20 +18929,20 @@
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J258" t="n">
-        <v>520</v>
+        <v>2100</v>
       </c>
       <c r="K258" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="L258" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="M258" t="n">
-        <v>400</v>
+        <v>852</v>
       </c>
       <c r="N258" t="inlineStr">
         <is>
@@ -18951,11 +18951,11 @@
       </c>
       <c r="O258" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P258" t="n">
-        <v>400</v>
+        <v>852</v>
       </c>
       <c r="Q258" t="n">
         <v>1</v>
@@ -18981,7 +18981,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44232</v>
+        <v>44344</v>
       </c>
       <c r="E259" t="n">
         <v>13</v>
@@ -19005,16 +19005,16 @@
         </is>
       </c>
       <c r="J259" t="n">
-        <v>1800</v>
+        <v>5200</v>
       </c>
       <c r="K259" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="L259" t="n">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="M259" t="n">
-        <v>1111</v>
+        <v>550</v>
       </c>
       <c r="N259" t="inlineStr">
         <is>
@@ -19027,7 +19027,7 @@
         </is>
       </c>
       <c r="P259" t="n">
-        <v>1111</v>
+        <v>550</v>
       </c>
       <c r="Q259" t="n">
         <v>1</v>
@@ -19053,7 +19053,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44398</v>
+        <v>44344</v>
       </c>
       <c r="E260" t="n">
         <v>13</v>
@@ -19077,7 +19077,7 @@
         </is>
       </c>
       <c r="J260" t="n">
-        <v>3400</v>
+        <v>3900</v>
       </c>
       <c r="K260" t="n">
         <v>500</v>
@@ -19095,7 +19095,7 @@
       </c>
       <c r="O260" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P260" t="n">
@@ -19125,7 +19125,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44398</v>
+        <v>44344</v>
       </c>
       <c r="E261" t="n">
         <v>13</v>
@@ -19149,7 +19149,7 @@
         </is>
       </c>
       <c r="J261" t="n">
-        <v>970</v>
+        <v>2100</v>
       </c>
       <c r="K261" t="n">
         <v>400</v>
@@ -19197,7 +19197,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44355</v>
+        <v>44344</v>
       </c>
       <c r="E262" t="n">
         <v>13</v>
@@ -19217,20 +19217,20 @@
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J262" t="n">
-        <v>3400</v>
+        <v>1800</v>
       </c>
       <c r="K262" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L262" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M262" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="N262" t="inlineStr">
         <is>
@@ -19239,11 +19239,11 @@
       </c>
       <c r="O262" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P262" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="Q262" t="n">
         <v>1</v>
@@ -19269,7 +19269,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44355</v>
+        <v>44319</v>
       </c>
       <c r="E263" t="n">
         <v>13</v>
@@ -19293,16 +19293,16 @@
         </is>
       </c>
       <c r="J263" t="n">
-        <v>2500</v>
+        <v>1600</v>
       </c>
       <c r="K263" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L263" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M263" t="n">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="N263" t="inlineStr">
         <is>
@@ -19311,11 +19311,11 @@
       </c>
       <c r="O263" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P263" t="n">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="Q263" t="n">
         <v>1</v>
@@ -19341,7 +19341,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44355</v>
+        <v>44316</v>
       </c>
       <c r="E264" t="n">
         <v>13</v>
@@ -19361,20 +19361,20 @@
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J264" t="n">
-        <v>1600</v>
+        <v>3400</v>
       </c>
       <c r="K264" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L264" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="M264" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="N264" t="inlineStr">
         <is>
@@ -19387,7 +19387,7 @@
         </is>
       </c>
       <c r="P264" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="Q264" t="n">
         <v>1</v>
@@ -19413,7 +19413,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44355</v>
+        <v>44316</v>
       </c>
       <c r="E265" t="n">
         <v>13</v>
@@ -19437,16 +19437,16 @@
         </is>
       </c>
       <c r="J265" t="n">
-        <v>1330</v>
+        <v>1600</v>
       </c>
       <c r="K265" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L265" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M265" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N265" t="inlineStr">
         <is>
@@ -19455,11 +19455,11 @@
       </c>
       <c r="O265" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P265" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Q265" t="n">
         <v>1</v>
@@ -19485,7 +19485,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44286</v>
+        <v>44160</v>
       </c>
       <c r="E266" t="n">
         <v>13</v>
@@ -19509,16 +19509,16 @@
         </is>
       </c>
       <c r="J266" t="n">
-        <v>1600</v>
+        <v>3600</v>
       </c>
       <c r="K266" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="L266" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="M266" t="n">
-        <v>900</v>
+        <v>556</v>
       </c>
       <c r="N266" t="inlineStr">
         <is>
@@ -19527,11 +19527,11 @@
       </c>
       <c r="O266" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P266" t="n">
-        <v>900</v>
+        <v>556</v>
       </c>
       <c r="Q266" t="n">
         <v>1</v>
@@ -19557,7 +19557,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44217</v>
+        <v>44211</v>
       </c>
       <c r="E267" t="n">
         <v>13</v>
@@ -19581,7 +19581,7 @@
         </is>
       </c>
       <c r="J267" t="n">
-        <v>2700</v>
+        <v>2500</v>
       </c>
       <c r="K267" t="n">
         <v>900</v>
@@ -19590,7 +19590,7 @@
         <v>1000</v>
       </c>
       <c r="M267" t="n">
-        <v>956</v>
+        <v>950</v>
       </c>
       <c r="N267" t="inlineStr">
         <is>
@@ -19603,7 +19603,7 @@
         </is>
       </c>
       <c r="P267" t="n">
-        <v>956</v>
+        <v>950</v>
       </c>
       <c r="Q267" t="n">
         <v>1</v>
@@ -19629,7 +19629,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44343</v>
+        <v>44301</v>
       </c>
       <c r="E268" t="n">
         <v>13</v>
@@ -19653,16 +19653,16 @@
         </is>
       </c>
       <c r="J268" t="n">
-        <v>4200</v>
+        <v>1600</v>
       </c>
       <c r="K268" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L268" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M268" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="N268" t="inlineStr">
         <is>
@@ -19675,7 +19675,7 @@
         </is>
       </c>
       <c r="P268" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q268" t="n">
         <v>1</v>
@@ -19701,7 +19701,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44343</v>
+        <v>44370</v>
       </c>
       <c r="E269" t="n">
         <v>13</v>
@@ -19725,16 +19725,16 @@
         </is>
       </c>
       <c r="J269" t="n">
-        <v>3500</v>
+        <v>1600</v>
       </c>
       <c r="K269" t="n">
+        <v>500</v>
+      </c>
+      <c r="L269" t="n">
         <v>600</v>
       </c>
-      <c r="L269" t="n">
-        <v>700</v>
-      </c>
       <c r="M269" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="N269" t="inlineStr">
         <is>
@@ -19743,11 +19743,11 @@
       </c>
       <c r="O269" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P269" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="Q269" t="n">
         <v>1</v>
@@ -19773,7 +19773,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44343</v>
+        <v>44370</v>
       </c>
       <c r="E270" t="n">
         <v>13</v>
@@ -19793,20 +19793,20 @@
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J270" t="n">
-        <v>1800</v>
+        <v>2500</v>
       </c>
       <c r="K270" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L270" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M270" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="N270" t="inlineStr">
         <is>
@@ -19815,11 +19815,11 @@
       </c>
       <c r="O270" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P270" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="Q270" t="n">
         <v>1</v>
@@ -19845,7 +19845,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44343</v>
+        <v>44370</v>
       </c>
       <c r="E271" t="n">
         <v>13</v>
@@ -19869,7 +19869,7 @@
         </is>
       </c>
       <c r="J271" t="n">
-        <v>1700</v>
+        <v>700</v>
       </c>
       <c r="K271" t="n">
         <v>400</v>
@@ -19887,7 +19887,7 @@
       </c>
       <c r="O271" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P271" t="n">
@@ -19917,7 +19917,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44376</v>
+        <v>44370</v>
       </c>
       <c r="E272" t="n">
         <v>13</v>
@@ -19937,20 +19937,20 @@
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J272" t="n">
-        <v>3400</v>
+        <v>970</v>
       </c>
       <c r="K272" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L272" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M272" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="N272" t="inlineStr">
         <is>
@@ -19959,11 +19959,11 @@
       </c>
       <c r="O272" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P272" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="Q272" t="n">
         <v>1</v>
@@ -19989,7 +19989,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44376</v>
+        <v>44326</v>
       </c>
       <c r="E273" t="n">
         <v>13</v>
@@ -20013,16 +20013,16 @@
         </is>
       </c>
       <c r="J273" t="n">
-        <v>2500</v>
+        <v>700</v>
       </c>
       <c r="K273" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L273" t="n">
         <v>600</v>
       </c>
       <c r="M273" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="N273" t="inlineStr">
         <is>
@@ -20031,11 +20031,11 @@
       </c>
       <c r="O273" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P273" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="Q273" t="n">
         <v>1</v>
@@ -20061,7 +20061,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44376</v>
+        <v>44230</v>
       </c>
       <c r="E274" t="n">
         <v>13</v>
@@ -20081,20 +20081,20 @@
       </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J274" t="n">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="K274" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="L274" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="M274" t="n">
-        <v>400</v>
+        <v>884</v>
       </c>
       <c r="N274" t="inlineStr">
         <is>
@@ -20107,7 +20107,7 @@
         </is>
       </c>
       <c r="P274" t="n">
-        <v>400</v>
+        <v>884</v>
       </c>
       <c r="Q274" t="n">
         <v>1</v>
@@ -20133,7 +20133,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44376</v>
+        <v>44382</v>
       </c>
       <c r="E275" t="n">
         <v>13</v>
@@ -20153,20 +20153,20 @@
       </c>
       <c r="I275" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J275" t="n">
-        <v>970</v>
+        <v>1600</v>
       </c>
       <c r="K275" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L275" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M275" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="N275" t="inlineStr">
         <is>
@@ -20175,11 +20175,11 @@
       </c>
       <c r="O275" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P275" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="Q275" t="n">
         <v>1</v>
@@ -20205,7 +20205,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44334</v>
+        <v>44382</v>
       </c>
       <c r="E276" t="n">
         <v>13</v>
@@ -20225,20 +20225,20 @@
       </c>
       <c r="I276" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J276" t="n">
-        <v>4300</v>
+        <v>520</v>
       </c>
       <c r="K276" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L276" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="M276" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="N276" t="inlineStr">
         <is>
@@ -20251,7 +20251,7 @@
         </is>
       </c>
       <c r="P276" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="Q276" t="n">
         <v>1</v>
@@ -20277,7 +20277,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44334</v>
+        <v>44232</v>
       </c>
       <c r="E277" t="n">
         <v>13</v>
@@ -20301,16 +20301,16 @@
         </is>
       </c>
       <c r="J277" t="n">
-        <v>5200</v>
+        <v>1800</v>
       </c>
       <c r="K277" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="L277" t="n">
-        <v>700</v>
+        <v>1200</v>
       </c>
       <c r="M277" t="n">
-        <v>650</v>
+        <v>1111</v>
       </c>
       <c r="N277" t="inlineStr">
         <is>
@@ -20319,11 +20319,11 @@
       </c>
       <c r="O277" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P277" t="n">
-        <v>650</v>
+        <v>1111</v>
       </c>
       <c r="Q277" t="n">
         <v>1</v>
@@ -20349,7 +20349,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44334</v>
+        <v>44398</v>
       </c>
       <c r="E278" t="n">
         <v>13</v>
@@ -20369,20 +20369,20 @@
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J278" t="n">
-        <v>1600</v>
+        <v>3400</v>
       </c>
       <c r="K278" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L278" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M278" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="N278" t="inlineStr">
         <is>
@@ -20395,7 +20395,7 @@
         </is>
       </c>
       <c r="P278" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="Q278" t="n">
         <v>1</v>
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44334</v>
+        <v>44398</v>
       </c>
       <c r="E279" t="n">
         <v>13</v>
@@ -20445,16 +20445,16 @@
         </is>
       </c>
       <c r="J279" t="n">
-        <v>2500</v>
+        <v>970</v>
       </c>
       <c r="K279" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L279" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M279" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="N279" t="inlineStr">
         <is>
@@ -20463,11 +20463,11 @@
       </c>
       <c r="O279" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P279" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="Q279" t="n">
         <v>1</v>
@@ -20493,7 +20493,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44418</v>
+        <v>44355</v>
       </c>
       <c r="E280" t="n">
         <v>13</v>
@@ -20520,13 +20520,13 @@
         <v>3400</v>
       </c>
       <c r="K280" t="n">
+        <v>500</v>
+      </c>
+      <c r="L280" t="n">
         <v>600</v>
       </c>
-      <c r="L280" t="n">
-        <v>700</v>
-      </c>
       <c r="M280" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="N280" t="inlineStr">
         <is>
@@ -20539,7 +20539,7 @@
         </is>
       </c>
       <c r="P280" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="Q280" t="n">
         <v>1</v>
@@ -20565,7 +20565,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44418</v>
+        <v>44355</v>
       </c>
       <c r="E281" t="n">
         <v>13</v>
@@ -20589,16 +20589,16 @@
         </is>
       </c>
       <c r="J281" t="n">
-        <v>4300</v>
+        <v>2500</v>
       </c>
       <c r="K281" t="n">
+        <v>500</v>
+      </c>
+      <c r="L281" t="n">
         <v>600</v>
       </c>
-      <c r="L281" t="n">
-        <v>700</v>
-      </c>
       <c r="M281" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="N281" t="inlineStr">
         <is>
@@ -20611,7 +20611,7 @@
         </is>
       </c>
       <c r="P281" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="Q281" t="n">
         <v>1</v>
@@ -20637,7 +20637,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44418</v>
+        <v>44355</v>
       </c>
       <c r="E282" t="n">
         <v>13</v>
@@ -20661,16 +20661,16 @@
         </is>
       </c>
       <c r="J282" t="n">
-        <v>970</v>
+        <v>1600</v>
       </c>
       <c r="K282" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L282" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M282" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="N282" t="inlineStr">
         <is>
@@ -20683,7 +20683,7 @@
         </is>
       </c>
       <c r="P282" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="Q282" t="n">
         <v>1</v>
@@ -20709,58 +20709,1642 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
+        <v>44355</v>
+      </c>
+      <c r="E283" t="n">
+        <v>13</v>
+      </c>
+      <c r="F283" t="n">
+        <v>100112008</v>
+      </c>
+      <c r="G283" t="inlineStr">
+        <is>
+          <t>Coliflor</t>
+        </is>
+      </c>
+      <c r="H283" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I283" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J283" t="n">
+        <v>1330</v>
+      </c>
+      <c r="K283" t="n">
+        <v>400</v>
+      </c>
+      <c r="L283" t="n">
+        <v>400</v>
+      </c>
+      <c r="M283" t="n">
+        <v>400</v>
+      </c>
+      <c r="N283" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O283" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P283" t="n">
+        <v>400</v>
+      </c>
+      <c r="Q283" t="n">
+        <v>1</v>
+      </c>
+      <c r="R283" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="n">
+        <v>9</v>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D284" s="2" t="n">
+        <v>44286</v>
+      </c>
+      <c r="E284" t="n">
+        <v>13</v>
+      </c>
+      <c r="F284" t="n">
+        <v>100112008</v>
+      </c>
+      <c r="G284" t="inlineStr">
+        <is>
+          <t>Coliflor</t>
+        </is>
+      </c>
+      <c r="H284" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I284" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J284" t="n">
+        <v>1600</v>
+      </c>
+      <c r="K284" t="n">
+        <v>900</v>
+      </c>
+      <c r="L284" t="n">
+        <v>900</v>
+      </c>
+      <c r="M284" t="n">
+        <v>900</v>
+      </c>
+      <c r="N284" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O284" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P284" t="n">
+        <v>900</v>
+      </c>
+      <c r="Q284" t="n">
+        <v>1</v>
+      </c>
+      <c r="R284" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="n">
+        <v>9</v>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D285" s="2" t="n">
+        <v>44217</v>
+      </c>
+      <c r="E285" t="n">
+        <v>13</v>
+      </c>
+      <c r="F285" t="n">
+        <v>100112008</v>
+      </c>
+      <c r="G285" t="inlineStr">
+        <is>
+          <t>Coliflor</t>
+        </is>
+      </c>
+      <c r="H285" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I285" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J285" t="n">
+        <v>2700</v>
+      </c>
+      <c r="K285" t="n">
+        <v>900</v>
+      </c>
+      <c r="L285" t="n">
+        <v>1000</v>
+      </c>
+      <c r="M285" t="n">
+        <v>956</v>
+      </c>
+      <c r="N285" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O285" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P285" t="n">
+        <v>956</v>
+      </c>
+      <c r="Q285" t="n">
+        <v>1</v>
+      </c>
+      <c r="R285" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="n">
+        <v>9</v>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D286" s="2" t="n">
+        <v>44343</v>
+      </c>
+      <c r="E286" t="n">
+        <v>13</v>
+      </c>
+      <c r="F286" t="n">
+        <v>100112008</v>
+      </c>
+      <c r="G286" t="inlineStr">
+        <is>
+          <t>Coliflor</t>
+        </is>
+      </c>
+      <c r="H286" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I286" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J286" t="n">
+        <v>4200</v>
+      </c>
+      <c r="K286" t="n">
+        <v>600</v>
+      </c>
+      <c r="L286" t="n">
+        <v>700</v>
+      </c>
+      <c r="M286" t="n">
+        <v>650</v>
+      </c>
+      <c r="N286" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O286" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P286" t="n">
+        <v>650</v>
+      </c>
+      <c r="Q286" t="n">
+        <v>1</v>
+      </c>
+      <c r="R286" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="n">
+        <v>9</v>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D287" s="2" t="n">
+        <v>44343</v>
+      </c>
+      <c r="E287" t="n">
+        <v>13</v>
+      </c>
+      <c r="F287" t="n">
+        <v>100112008</v>
+      </c>
+      <c r="G287" t="inlineStr">
+        <is>
+          <t>Coliflor</t>
+        </is>
+      </c>
+      <c r="H287" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I287" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J287" t="n">
+        <v>3500</v>
+      </c>
+      <c r="K287" t="n">
+        <v>600</v>
+      </c>
+      <c r="L287" t="n">
+        <v>700</v>
+      </c>
+      <c r="M287" t="n">
+        <v>650</v>
+      </c>
+      <c r="N287" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O287" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P287" t="n">
+        <v>650</v>
+      </c>
+      <c r="Q287" t="n">
+        <v>1</v>
+      </c>
+      <c r="R287" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="n">
+        <v>9</v>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D288" s="2" t="n">
+        <v>44343</v>
+      </c>
+      <c r="E288" t="n">
+        <v>13</v>
+      </c>
+      <c r="F288" t="n">
+        <v>100112008</v>
+      </c>
+      <c r="G288" t="inlineStr">
+        <is>
+          <t>Coliflor</t>
+        </is>
+      </c>
+      <c r="H288" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I288" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J288" t="n">
+        <v>1800</v>
+      </c>
+      <c r="K288" t="n">
+        <v>400</v>
+      </c>
+      <c r="L288" t="n">
+        <v>400</v>
+      </c>
+      <c r="M288" t="n">
+        <v>400</v>
+      </c>
+      <c r="N288" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O288" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P288" t="n">
+        <v>400</v>
+      </c>
+      <c r="Q288" t="n">
+        <v>1</v>
+      </c>
+      <c r="R288" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="n">
+        <v>9</v>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D289" s="2" t="n">
+        <v>44343</v>
+      </c>
+      <c r="E289" t="n">
+        <v>13</v>
+      </c>
+      <c r="F289" t="n">
+        <v>100112008</v>
+      </c>
+      <c r="G289" t="inlineStr">
+        <is>
+          <t>Coliflor</t>
+        </is>
+      </c>
+      <c r="H289" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I289" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J289" t="n">
+        <v>1700</v>
+      </c>
+      <c r="K289" t="n">
+        <v>400</v>
+      </c>
+      <c r="L289" t="n">
+        <v>400</v>
+      </c>
+      <c r="M289" t="n">
+        <v>400</v>
+      </c>
+      <c r="N289" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O289" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P289" t="n">
+        <v>400</v>
+      </c>
+      <c r="Q289" t="n">
+        <v>1</v>
+      </c>
+      <c r="R289" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="n">
+        <v>9</v>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D290" s="2" t="n">
+        <v>44376</v>
+      </c>
+      <c r="E290" t="n">
+        <v>13</v>
+      </c>
+      <c r="F290" t="n">
+        <v>100112008</v>
+      </c>
+      <c r="G290" t="inlineStr">
+        <is>
+          <t>Coliflor</t>
+        </is>
+      </c>
+      <c r="H290" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I290" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J290" t="n">
+        <v>3400</v>
+      </c>
+      <c r="K290" t="n">
+        <v>500</v>
+      </c>
+      <c r="L290" t="n">
+        <v>600</v>
+      </c>
+      <c r="M290" t="n">
+        <v>550</v>
+      </c>
+      <c r="N290" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O290" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P290" t="n">
+        <v>550</v>
+      </c>
+      <c r="Q290" t="n">
+        <v>1</v>
+      </c>
+      <c r="R290" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="n">
+        <v>9</v>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D291" s="2" t="n">
+        <v>44376</v>
+      </c>
+      <c r="E291" t="n">
+        <v>13</v>
+      </c>
+      <c r="F291" t="n">
+        <v>100112008</v>
+      </c>
+      <c r="G291" t="inlineStr">
+        <is>
+          <t>Coliflor</t>
+        </is>
+      </c>
+      <c r="H291" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I291" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J291" t="n">
+        <v>2500</v>
+      </c>
+      <c r="K291" t="n">
+        <v>500</v>
+      </c>
+      <c r="L291" t="n">
+        <v>600</v>
+      </c>
+      <c r="M291" t="n">
+        <v>550</v>
+      </c>
+      <c r="N291" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O291" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P291" t="n">
+        <v>550</v>
+      </c>
+      <c r="Q291" t="n">
+        <v>1</v>
+      </c>
+      <c r="R291" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="n">
+        <v>9</v>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D292" s="2" t="n">
+        <v>44376</v>
+      </c>
+      <c r="E292" t="n">
+        <v>13</v>
+      </c>
+      <c r="F292" t="n">
+        <v>100112008</v>
+      </c>
+      <c r="G292" t="inlineStr">
+        <is>
+          <t>Coliflor</t>
+        </is>
+      </c>
+      <c r="H292" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I292" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J292" t="n">
+        <v>1600</v>
+      </c>
+      <c r="K292" t="n">
+        <v>400</v>
+      </c>
+      <c r="L292" t="n">
+        <v>400</v>
+      </c>
+      <c r="M292" t="n">
+        <v>400</v>
+      </c>
+      <c r="N292" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O292" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P292" t="n">
+        <v>400</v>
+      </c>
+      <c r="Q292" t="n">
+        <v>1</v>
+      </c>
+      <c r="R292" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="n">
+        <v>9</v>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D293" s="2" t="n">
+        <v>44376</v>
+      </c>
+      <c r="E293" t="n">
+        <v>13</v>
+      </c>
+      <c r="F293" t="n">
+        <v>100112008</v>
+      </c>
+      <c r="G293" t="inlineStr">
+        <is>
+          <t>Coliflor</t>
+        </is>
+      </c>
+      <c r="H293" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I293" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J293" t="n">
+        <v>970</v>
+      </c>
+      <c r="K293" t="n">
+        <v>400</v>
+      </c>
+      <c r="L293" t="n">
+        <v>400</v>
+      </c>
+      <c r="M293" t="n">
+        <v>400</v>
+      </c>
+      <c r="N293" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O293" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P293" t="n">
+        <v>400</v>
+      </c>
+      <c r="Q293" t="n">
+        <v>1</v>
+      </c>
+      <c r="R293" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="n">
+        <v>9</v>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D294" s="2" t="n">
+        <v>44334</v>
+      </c>
+      <c r="E294" t="n">
+        <v>13</v>
+      </c>
+      <c r="F294" t="n">
+        <v>100112008</v>
+      </c>
+      <c r="G294" t="inlineStr">
+        <is>
+          <t>Coliflor</t>
+        </is>
+      </c>
+      <c r="H294" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I294" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J294" t="n">
+        <v>4300</v>
+      </c>
+      <c r="K294" t="n">
+        <v>600</v>
+      </c>
+      <c r="L294" t="n">
+        <v>700</v>
+      </c>
+      <c r="M294" t="n">
+        <v>650</v>
+      </c>
+      <c r="N294" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O294" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P294" t="n">
+        <v>650</v>
+      </c>
+      <c r="Q294" t="n">
+        <v>1</v>
+      </c>
+      <c r="R294" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="n">
+        <v>9</v>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D295" s="2" t="n">
+        <v>44334</v>
+      </c>
+      <c r="E295" t="n">
+        <v>13</v>
+      </c>
+      <c r="F295" t="n">
+        <v>100112008</v>
+      </c>
+      <c r="G295" t="inlineStr">
+        <is>
+          <t>Coliflor</t>
+        </is>
+      </c>
+      <c r="H295" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I295" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J295" t="n">
+        <v>5200</v>
+      </c>
+      <c r="K295" t="n">
+        <v>600</v>
+      </c>
+      <c r="L295" t="n">
+        <v>700</v>
+      </c>
+      <c r="M295" t="n">
+        <v>650</v>
+      </c>
+      <c r="N295" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O295" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P295" t="n">
+        <v>650</v>
+      </c>
+      <c r="Q295" t="n">
+        <v>1</v>
+      </c>
+      <c r="R295" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="n">
+        <v>9</v>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D296" s="2" t="n">
+        <v>44334</v>
+      </c>
+      <c r="E296" t="n">
+        <v>13</v>
+      </c>
+      <c r="F296" t="n">
+        <v>100112008</v>
+      </c>
+      <c r="G296" t="inlineStr">
+        <is>
+          <t>Coliflor</t>
+        </is>
+      </c>
+      <c r="H296" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I296" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J296" t="n">
+        <v>1600</v>
+      </c>
+      <c r="K296" t="n">
+        <v>400</v>
+      </c>
+      <c r="L296" t="n">
+        <v>400</v>
+      </c>
+      <c r="M296" t="n">
+        <v>400</v>
+      </c>
+      <c r="N296" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O296" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P296" t="n">
+        <v>400</v>
+      </c>
+      <c r="Q296" t="n">
+        <v>1</v>
+      </c>
+      <c r="R296" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="n">
+        <v>9</v>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D297" s="2" t="n">
+        <v>44334</v>
+      </c>
+      <c r="E297" t="n">
+        <v>13</v>
+      </c>
+      <c r="F297" t="n">
+        <v>100112008</v>
+      </c>
+      <c r="G297" t="inlineStr">
+        <is>
+          <t>Coliflor</t>
+        </is>
+      </c>
+      <c r="H297" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I297" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J297" t="n">
+        <v>2500</v>
+      </c>
+      <c r="K297" t="n">
+        <v>500</v>
+      </c>
+      <c r="L297" t="n">
+        <v>500</v>
+      </c>
+      <c r="M297" t="n">
+        <v>500</v>
+      </c>
+      <c r="N297" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O297" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P297" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q297" t="n">
+        <v>1</v>
+      </c>
+      <c r="R297" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="n">
+        <v>9</v>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D298" s="2" t="n">
         <v>44418</v>
       </c>
-      <c r="E283" t="n">
-        <v>13</v>
-      </c>
-      <c r="F283" t="n">
-        <v>100112008</v>
-      </c>
-      <c r="G283" t="inlineStr">
-        <is>
-          <t>Coliflor</t>
-        </is>
-      </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="I283" t="inlineStr">
+      <c r="E298" t="n">
+        <v>13</v>
+      </c>
+      <c r="F298" t="n">
+        <v>100112008</v>
+      </c>
+      <c r="G298" t="inlineStr">
+        <is>
+          <t>Coliflor</t>
+        </is>
+      </c>
+      <c r="H298" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I298" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J298" t="n">
+        <v>3400</v>
+      </c>
+      <c r="K298" t="n">
+        <v>600</v>
+      </c>
+      <c r="L298" t="n">
+        <v>700</v>
+      </c>
+      <c r="M298" t="n">
+        <v>650</v>
+      </c>
+      <c r="N298" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O298" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P298" t="n">
+        <v>650</v>
+      </c>
+      <c r="Q298" t="n">
+        <v>1</v>
+      </c>
+      <c r="R298" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="n">
+        <v>9</v>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D299" s="2" t="n">
+        <v>44418</v>
+      </c>
+      <c r="E299" t="n">
+        <v>13</v>
+      </c>
+      <c r="F299" t="n">
+        <v>100112008</v>
+      </c>
+      <c r="G299" t="inlineStr">
+        <is>
+          <t>Coliflor</t>
+        </is>
+      </c>
+      <c r="H299" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I299" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J299" t="n">
+        <v>4300</v>
+      </c>
+      <c r="K299" t="n">
+        <v>600</v>
+      </c>
+      <c r="L299" t="n">
+        <v>700</v>
+      </c>
+      <c r="M299" t="n">
+        <v>650</v>
+      </c>
+      <c r="N299" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O299" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P299" t="n">
+        <v>650</v>
+      </c>
+      <c r="Q299" t="n">
+        <v>1</v>
+      </c>
+      <c r="R299" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="n">
+        <v>9</v>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D300" s="2" t="n">
+        <v>44418</v>
+      </c>
+      <c r="E300" t="n">
+        <v>13</v>
+      </c>
+      <c r="F300" t="n">
+        <v>100112008</v>
+      </c>
+      <c r="G300" t="inlineStr">
+        <is>
+          <t>Coliflor</t>
+        </is>
+      </c>
+      <c r="H300" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I300" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J283" t="n">
+      <c r="J300" t="n">
+        <v>970</v>
+      </c>
+      <c r="K300" t="n">
+        <v>500</v>
+      </c>
+      <c r="L300" t="n">
+        <v>500</v>
+      </c>
+      <c r="M300" t="n">
+        <v>500</v>
+      </c>
+      <c r="N300" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O300" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P300" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q300" t="n">
+        <v>1</v>
+      </c>
+      <c r="R300" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="n">
+        <v>9</v>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D301" s="2" t="n">
+        <v>44418</v>
+      </c>
+      <c r="E301" t="n">
+        <v>13</v>
+      </c>
+      <c r="F301" t="n">
+        <v>100112008</v>
+      </c>
+      <c r="G301" t="inlineStr">
+        <is>
+          <t>Coliflor</t>
+        </is>
+      </c>
+      <c r="H301" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I301" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J301" t="n">
         <v>1600</v>
       </c>
-      <c r="K283" t="n">
+      <c r="K301" t="n">
         <v>500</v>
       </c>
-      <c r="L283" t="n">
+      <c r="L301" t="n">
         <v>500</v>
       </c>
-      <c r="M283" t="n">
+      <c r="M301" t="n">
         <v>500</v>
       </c>
-      <c r="N283" t="inlineStr">
-        <is>
-          <t>$/unidad</t>
-        </is>
-      </c>
-      <c r="O283" t="inlineStr">
+      <c r="N301" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O301" t="inlineStr">
         <is>
           <t>Región de O'Higgins</t>
         </is>
       </c>
-      <c r="P283" t="n">
+      <c r="P301" t="n">
         <v>500</v>
       </c>
-      <c r="Q283" t="n">
-        <v>1</v>
-      </c>
-      <c r="R283" t="inlineStr">
+      <c r="Q301" t="n">
+        <v>1</v>
+      </c>
+      <c r="R301" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="n">
+        <v>9</v>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D302" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E302" t="n">
+        <v>13</v>
+      </c>
+      <c r="F302" t="n">
+        <v>100112008</v>
+      </c>
+      <c r="G302" t="inlineStr">
+        <is>
+          <t>Coliflor</t>
+        </is>
+      </c>
+      <c r="H302" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I302" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J302" t="n">
+        <v>4300</v>
+      </c>
+      <c r="K302" t="n">
+        <v>650</v>
+      </c>
+      <c r="L302" t="n">
+        <v>700</v>
+      </c>
+      <c r="M302" t="n">
+        <v>675</v>
+      </c>
+      <c r="N302" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O302" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P302" t="n">
+        <v>675</v>
+      </c>
+      <c r="Q302" t="n">
+        <v>1</v>
+      </c>
+      <c r="R302" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="n">
+        <v>9</v>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D303" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E303" t="n">
+        <v>13</v>
+      </c>
+      <c r="F303" t="n">
+        <v>100112008</v>
+      </c>
+      <c r="G303" t="inlineStr">
+        <is>
+          <t>Coliflor</t>
+        </is>
+      </c>
+      <c r="H303" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I303" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J303" t="n">
+        <v>3400</v>
+      </c>
+      <c r="K303" t="n">
+        <v>650</v>
+      </c>
+      <c r="L303" t="n">
+        <v>700</v>
+      </c>
+      <c r="M303" t="n">
+        <v>675</v>
+      </c>
+      <c r="N303" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O303" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P303" t="n">
+        <v>675</v>
+      </c>
+      <c r="Q303" t="n">
+        <v>1</v>
+      </c>
+      <c r="R303" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="n">
+        <v>9</v>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D304" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E304" t="n">
+        <v>13</v>
+      </c>
+      <c r="F304" t="n">
+        <v>100112008</v>
+      </c>
+      <c r="G304" t="inlineStr">
+        <is>
+          <t>Coliflor</t>
+        </is>
+      </c>
+      <c r="H304" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I304" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J304" t="n">
+        <v>1600</v>
+      </c>
+      <c r="K304" t="n">
+        <v>550</v>
+      </c>
+      <c r="L304" t="n">
+        <v>600</v>
+      </c>
+      <c r="M304" t="n">
+        <v>575</v>
+      </c>
+      <c r="N304" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O304" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P304" t="n">
+        <v>575</v>
+      </c>
+      <c r="Q304" t="n">
+        <v>1</v>
+      </c>
+      <c r="R304" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="n">
+        <v>9</v>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D305" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E305" t="n">
+        <v>13</v>
+      </c>
+      <c r="F305" t="n">
+        <v>100112008</v>
+      </c>
+      <c r="G305" t="inlineStr">
+        <is>
+          <t>Coliflor</t>
+        </is>
+      </c>
+      <c r="H305" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I305" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J305" t="n">
+        <v>970</v>
+      </c>
+      <c r="K305" t="n">
+        <v>550</v>
+      </c>
+      <c r="L305" t="n">
+        <v>600</v>
+      </c>
+      <c r="M305" t="n">
+        <v>575</v>
+      </c>
+      <c r="N305" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O305" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P305" t="n">
+        <v>575</v>
+      </c>
+      <c r="Q305" t="n">
+        <v>1</v>
+      </c>
+      <c r="R305" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Coliflor.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Coliflor.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R305"/>
+  <dimension ref="A1:R307"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14301,7 +14301,7 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>44327</v>
+        <v>44438</v>
       </c>
       <c r="E194" t="n">
         <v>13</v>
@@ -14325,16 +14325,16 @@
         </is>
       </c>
       <c r="J194" t="n">
-        <v>4300</v>
+        <v>1600</v>
       </c>
       <c r="K194" t="n">
         <v>600</v>
       </c>
       <c r="L194" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="M194" t="n">
-        <v>600</v>
+        <v>625</v>
       </c>
       <c r="N194" t="inlineStr">
         <is>
@@ -14343,11 +14343,11 @@
       </c>
       <c r="O194" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P194" t="n">
-        <v>600</v>
+        <v>625</v>
       </c>
       <c r="Q194" t="n">
         <v>1</v>
@@ -14373,7 +14373,7 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>44327</v>
+        <v>44438</v>
       </c>
       <c r="E195" t="n">
         <v>13</v>
@@ -14397,16 +14397,16 @@
         </is>
       </c>
       <c r="J195" t="n">
-        <v>1600</v>
+        <v>610</v>
       </c>
       <c r="K195" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L195" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="M195" t="n">
-        <v>400</v>
+        <v>525</v>
       </c>
       <c r="N195" t="inlineStr">
         <is>
@@ -14415,11 +14415,11 @@
       </c>
       <c r="O195" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P195" t="n">
-        <v>400</v>
+        <v>525</v>
       </c>
       <c r="Q195" t="n">
         <v>1</v>
@@ -14445,7 +14445,7 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>44313</v>
+        <v>44327</v>
       </c>
       <c r="E196" t="n">
         <v>13</v>
@@ -14469,16 +14469,16 @@
         </is>
       </c>
       <c r="J196" t="n">
-        <v>1420</v>
+        <v>4300</v>
       </c>
       <c r="K196" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="L196" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M196" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="N196" t="inlineStr">
         <is>
@@ -14487,11 +14487,11 @@
       </c>
       <c r="O196" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P196" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="Q196" t="n">
         <v>1</v>
@@ -14517,7 +14517,7 @@
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>44330</v>
+        <v>44327</v>
       </c>
       <c r="E197" t="n">
         <v>13</v>
@@ -14537,20 +14537,20 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J197" t="n">
-        <v>2500</v>
+        <v>1600</v>
       </c>
       <c r="K197" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L197" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="M197" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="N197" t="inlineStr">
         <is>
@@ -14559,11 +14559,11 @@
       </c>
       <c r="O197" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P197" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="Q197" t="n">
         <v>1</v>
@@ -14589,7 +14589,7 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>44330</v>
+        <v>44313</v>
       </c>
       <c r="E198" t="n">
         <v>13</v>
@@ -14613,16 +14613,16 @@
         </is>
       </c>
       <c r="J198" t="n">
-        <v>3400</v>
+        <v>1420</v>
       </c>
       <c r="K198" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L198" t="n">
         <v>700</v>
       </c>
       <c r="M198" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="N198" t="inlineStr">
         <is>
@@ -14631,11 +14631,11 @@
       </c>
       <c r="O198" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P198" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="Q198" t="n">
         <v>1</v>
@@ -14681,20 +14681,20 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J199" t="n">
+        <v>2500</v>
+      </c>
+      <c r="K199" t="n">
+        <v>600</v>
+      </c>
+      <c r="L199" t="n">
         <v>700</v>
       </c>
-      <c r="K199" t="n">
-        <v>400</v>
-      </c>
-      <c r="L199" t="n">
-        <v>400</v>
-      </c>
       <c r="M199" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="N199" t="inlineStr">
         <is>
@@ -14707,7 +14707,7 @@
         </is>
       </c>
       <c r="P199" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="Q199" t="n">
         <v>1</v>
@@ -14753,20 +14753,20 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J200" t="n">
-        <v>1600</v>
+        <v>3400</v>
       </c>
       <c r="K200" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L200" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="M200" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="N200" t="inlineStr">
         <is>
@@ -14779,7 +14779,7 @@
         </is>
       </c>
       <c r="P200" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="Q200" t="n">
         <v>1</v>
@@ -14805,7 +14805,7 @@
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>44391</v>
+        <v>44330</v>
       </c>
       <c r="E201" t="n">
         <v>13</v>
@@ -14825,20 +14825,20 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J201" t="n">
-        <v>1600</v>
+        <v>700</v>
       </c>
       <c r="K201" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L201" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M201" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="N201" t="inlineStr">
         <is>
@@ -14851,7 +14851,7 @@
         </is>
       </c>
       <c r="P201" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="Q201" t="n">
         <v>1</v>
@@ -14877,7 +14877,7 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>44391</v>
+        <v>44330</v>
       </c>
       <c r="E202" t="n">
         <v>13</v>
@@ -14897,20 +14897,20 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J202" t="n">
-        <v>2500</v>
+        <v>1600</v>
       </c>
       <c r="K202" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L202" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M202" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="N202" t="inlineStr">
         <is>
@@ -14923,7 +14923,7 @@
         </is>
       </c>
       <c r="P202" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="Q202" t="n">
         <v>1</v>
@@ -14969,20 +14969,20 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J203" t="n">
-        <v>520</v>
+        <v>1600</v>
       </c>
       <c r="K203" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L203" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M203" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="N203" t="inlineStr">
         <is>
@@ -14995,7 +14995,7 @@
         </is>
       </c>
       <c r="P203" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="Q203" t="n">
         <v>1</v>
@@ -15041,20 +15041,20 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J204" t="n">
-        <v>970</v>
+        <v>2500</v>
       </c>
       <c r="K204" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L204" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M204" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="N204" t="inlineStr">
         <is>
@@ -15067,7 +15067,7 @@
         </is>
       </c>
       <c r="P204" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="Q204" t="n">
         <v>1</v>
@@ -15093,7 +15093,7 @@
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>44351</v>
+        <v>44391</v>
       </c>
       <c r="E205" t="n">
         <v>13</v>
@@ -15113,20 +15113,20 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J205" t="n">
-        <v>3400</v>
+        <v>520</v>
       </c>
       <c r="K205" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L205" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M205" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="N205" t="inlineStr">
         <is>
@@ -15139,7 +15139,7 @@
         </is>
       </c>
       <c r="P205" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="Q205" t="n">
         <v>1</v>
@@ -15165,7 +15165,7 @@
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>44351</v>
+        <v>44391</v>
       </c>
       <c r="E206" t="n">
         <v>13</v>
@@ -15185,20 +15185,20 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J206" t="n">
-        <v>4300</v>
+        <v>970</v>
       </c>
       <c r="K206" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L206" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M206" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="N206" t="inlineStr">
         <is>
@@ -15211,7 +15211,7 @@
         </is>
       </c>
       <c r="P206" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="Q206" t="n">
         <v>1</v>
@@ -15257,20 +15257,20 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J207" t="n">
-        <v>1600</v>
+        <v>3400</v>
       </c>
       <c r="K207" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L207" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M207" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="N207" t="inlineStr">
         <is>
@@ -15283,7 +15283,7 @@
         </is>
       </c>
       <c r="P207" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="Q207" t="n">
         <v>1</v>
@@ -15329,20 +15329,20 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J208" t="n">
-        <v>2500</v>
+        <v>4300</v>
       </c>
       <c r="K208" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L208" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M208" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="N208" t="inlineStr">
         <is>
@@ -15355,7 +15355,7 @@
         </is>
       </c>
       <c r="P208" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="Q208" t="n">
         <v>1</v>
@@ -15381,7 +15381,7 @@
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>44350</v>
+        <v>44351</v>
       </c>
       <c r="E209" t="n">
         <v>13</v>
@@ -15401,20 +15401,20 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J209" t="n">
-        <v>21000</v>
+        <v>1600</v>
       </c>
       <c r="K209" t="n">
         <v>400</v>
       </c>
       <c r="L209" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M209" t="n">
-        <v>467</v>
+        <v>400</v>
       </c>
       <c r="N209" t="inlineStr">
         <is>
@@ -15427,7 +15427,7 @@
         </is>
       </c>
       <c r="P209" t="n">
-        <v>467</v>
+        <v>400</v>
       </c>
       <c r="Q209" t="n">
         <v>1</v>
@@ -15453,7 +15453,7 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>44350</v>
+        <v>44351</v>
       </c>
       <c r="E210" t="n">
         <v>13</v>
@@ -15473,20 +15473,20 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J210" t="n">
-        <v>6200</v>
+        <v>2500</v>
       </c>
       <c r="K210" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L210" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M210" t="n">
-        <v>523</v>
+        <v>400</v>
       </c>
       <c r="N210" t="inlineStr">
         <is>
@@ -15499,7 +15499,7 @@
         </is>
       </c>
       <c r="P210" t="n">
-        <v>523</v>
+        <v>400</v>
       </c>
       <c r="Q210" t="n">
         <v>1</v>
@@ -15545,20 +15545,20 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J211" t="n">
-        <v>7500</v>
+        <v>21000</v>
       </c>
       <c r="K211" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="L211" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M211" t="n">
-        <v>299</v>
+        <v>467</v>
       </c>
       <c r="N211" t="inlineStr">
         <is>
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="P211" t="n">
-        <v>299</v>
+        <v>467</v>
       </c>
       <c r="Q211" t="n">
         <v>1</v>
@@ -15617,20 +15617,20 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J212" t="n">
-        <v>1300</v>
+        <v>6200</v>
       </c>
       <c r="K212" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L212" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M212" t="n">
-        <v>400</v>
+        <v>523</v>
       </c>
       <c r="N212" t="inlineStr">
         <is>
@@ -15643,7 +15643,7 @@
         </is>
       </c>
       <c r="P212" t="n">
-        <v>400</v>
+        <v>523</v>
       </c>
       <c r="Q212" t="n">
         <v>1</v>
@@ -15669,7 +15669,7 @@
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>44196</v>
+        <v>44350</v>
       </c>
       <c r="E213" t="n">
         <v>13</v>
@@ -15689,20 +15689,20 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J213" t="n">
-        <v>3400</v>
+        <v>7500</v>
       </c>
       <c r="K213" t="n">
-        <v>900</v>
+        <v>250</v>
       </c>
       <c r="L213" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="M213" t="n">
-        <v>950</v>
+        <v>299</v>
       </c>
       <c r="N213" t="inlineStr">
         <is>
@@ -15715,7 +15715,7 @@
         </is>
       </c>
       <c r="P213" t="n">
-        <v>950</v>
+        <v>299</v>
       </c>
       <c r="Q213" t="n">
         <v>1</v>
@@ -15741,7 +15741,7 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>44315</v>
+        <v>44350</v>
       </c>
       <c r="E214" t="n">
         <v>13</v>
@@ -15761,20 +15761,20 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J214" t="n">
-        <v>2500</v>
+        <v>1300</v>
       </c>
       <c r="K214" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L214" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="M214" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="N214" t="inlineStr">
         <is>
@@ -15783,11 +15783,11 @@
       </c>
       <c r="O214" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P214" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="Q214" t="n">
         <v>1</v>
@@ -15813,7 +15813,7 @@
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>44315</v>
+        <v>44196</v>
       </c>
       <c r="E215" t="n">
         <v>13</v>
@@ -15837,16 +15837,16 @@
         </is>
       </c>
       <c r="J215" t="n">
-        <v>1600</v>
+        <v>3400</v>
       </c>
       <c r="K215" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="L215" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="M215" t="n">
-        <v>600</v>
+        <v>950</v>
       </c>
       <c r="N215" t="inlineStr">
         <is>
@@ -15855,11 +15855,11 @@
       </c>
       <c r="O215" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P215" t="n">
-        <v>600</v>
+        <v>950</v>
       </c>
       <c r="Q215" t="n">
         <v>1</v>
@@ -15885,7 +15885,7 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>44278</v>
+        <v>44315</v>
       </c>
       <c r="E216" t="n">
         <v>13</v>
@@ -15909,16 +15909,16 @@
         </is>
       </c>
       <c r="J216" t="n">
-        <v>1600</v>
+        <v>2500</v>
       </c>
       <c r="K216" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="L216" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M216" t="n">
-        <v>900</v>
+        <v>650</v>
       </c>
       <c r="N216" t="inlineStr">
         <is>
@@ -15931,7 +15931,7 @@
         </is>
       </c>
       <c r="P216" t="n">
-        <v>900</v>
+        <v>650</v>
       </c>
       <c r="Q216" t="n">
         <v>1</v>
@@ -15957,7 +15957,7 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44358</v>
+        <v>44315</v>
       </c>
       <c r="E217" t="n">
         <v>13</v>
@@ -15981,16 +15981,16 @@
         </is>
       </c>
       <c r="J217" t="n">
-        <v>4300</v>
+        <v>1600</v>
       </c>
       <c r="K217" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L217" t="n">
         <v>600</v>
       </c>
       <c r="M217" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="N217" t="inlineStr">
         <is>
@@ -15999,11 +15999,11 @@
       </c>
       <c r="O217" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P217" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="Q217" t="n">
         <v>1</v>
@@ -16029,7 +16029,7 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>44358</v>
+        <v>44278</v>
       </c>
       <c r="E218" t="n">
         <v>13</v>
@@ -16053,16 +16053,16 @@
         </is>
       </c>
       <c r="J218" t="n">
-        <v>3400</v>
+        <v>1600</v>
       </c>
       <c r="K218" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="L218" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="M218" t="n">
-        <v>550</v>
+        <v>900</v>
       </c>
       <c r="N218" t="inlineStr">
         <is>
@@ -16071,11 +16071,11 @@
       </c>
       <c r="O218" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P218" t="n">
-        <v>550</v>
+        <v>900</v>
       </c>
       <c r="Q218" t="n">
         <v>1</v>
@@ -16121,20 +16121,20 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J219" t="n">
-        <v>2500</v>
+        <v>4300</v>
       </c>
       <c r="K219" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L219" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M219" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="N219" t="inlineStr">
         <is>
@@ -16147,7 +16147,7 @@
         </is>
       </c>
       <c r="P219" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="Q219" t="n">
         <v>1</v>
@@ -16193,20 +16193,20 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J220" t="n">
-        <v>1600</v>
+        <v>3400</v>
       </c>
       <c r="K220" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L220" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M220" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="N220" t="inlineStr">
         <is>
@@ -16219,7 +16219,7 @@
         </is>
       </c>
       <c r="P220" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="Q220" t="n">
         <v>1</v>
@@ -16245,7 +16245,7 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44389</v>
+        <v>44358</v>
       </c>
       <c r="E221" t="n">
         <v>13</v>
@@ -16265,20 +16265,20 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J221" t="n">
-        <v>1600</v>
+        <v>2500</v>
       </c>
       <c r="K221" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L221" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M221" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="N221" t="inlineStr">
         <is>
@@ -16287,11 +16287,11 @@
       </c>
       <c r="O221" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P221" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="Q221" t="n">
         <v>1</v>
@@ -16317,7 +16317,7 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>44389</v>
+        <v>44358</v>
       </c>
       <c r="E222" t="n">
         <v>13</v>
@@ -16341,7 +16341,7 @@
         </is>
       </c>
       <c r="J222" t="n">
-        <v>520</v>
+        <v>1600</v>
       </c>
       <c r="K222" t="n">
         <v>400</v>
@@ -16389,7 +16389,7 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>44399</v>
+        <v>44389</v>
       </c>
       <c r="E223" t="n">
         <v>13</v>
@@ -16413,7 +16413,7 @@
         </is>
       </c>
       <c r="J223" t="n">
-        <v>4300</v>
+        <v>1600</v>
       </c>
       <c r="K223" t="n">
         <v>500</v>
@@ -16431,7 +16431,7 @@
       </c>
       <c r="O223" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P223" t="n">
@@ -16461,7 +16461,7 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>44399</v>
+        <v>44389</v>
       </c>
       <c r="E224" t="n">
         <v>13</v>
@@ -16481,20 +16481,20 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J224" t="n">
-        <v>3400</v>
+        <v>520</v>
       </c>
       <c r="K224" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L224" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M224" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="N224" t="inlineStr">
         <is>
@@ -16507,7 +16507,7 @@
         </is>
       </c>
       <c r="P224" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="Q224" t="n">
         <v>1</v>
@@ -16553,20 +16553,20 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J225" t="n">
-        <v>1600</v>
+        <v>4300</v>
       </c>
       <c r="K225" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L225" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M225" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="N225" t="inlineStr">
         <is>
@@ -16579,7 +16579,7 @@
         </is>
       </c>
       <c r="P225" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="Q225" t="n">
         <v>1</v>
@@ -16625,20 +16625,20 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J226" t="n">
-        <v>970</v>
+        <v>3400</v>
       </c>
       <c r="K226" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L226" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M226" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="N226" t="inlineStr">
         <is>
@@ -16651,7 +16651,7 @@
         </is>
       </c>
       <c r="P226" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="Q226" t="n">
         <v>1</v>
@@ -16677,7 +16677,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44250</v>
+        <v>44399</v>
       </c>
       <c r="E227" t="n">
         <v>13</v>
@@ -16697,20 +16697,20 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J227" t="n">
-        <v>700</v>
+        <v>1600</v>
       </c>
       <c r="K227" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="L227" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="M227" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="N227" t="inlineStr">
         <is>
@@ -16723,7 +16723,7 @@
         </is>
       </c>
       <c r="P227" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="Q227" t="n">
         <v>1</v>
@@ -16749,7 +16749,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44292</v>
+        <v>44399</v>
       </c>
       <c r="E228" t="n">
         <v>13</v>
@@ -16769,20 +16769,20 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J228" t="n">
-        <v>1600</v>
+        <v>970</v>
       </c>
       <c r="K228" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="L228" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="M228" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="N228" t="inlineStr">
         <is>
@@ -16791,11 +16791,11 @@
       </c>
       <c r="O228" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P228" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="Q228" t="n">
         <v>1</v>
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44294</v>
+        <v>44250</v>
       </c>
       <c r="E229" t="n">
         <v>13</v>
@@ -16845,16 +16845,16 @@
         </is>
       </c>
       <c r="J229" t="n">
-        <v>1600</v>
+        <v>700</v>
       </c>
       <c r="K229" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="L229" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M229" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="N229" t="inlineStr">
         <is>
@@ -16867,7 +16867,7 @@
         </is>
       </c>
       <c r="P229" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="Q229" t="n">
         <v>1</v>
@@ -16893,7 +16893,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44294</v>
+        <v>44292</v>
       </c>
       <c r="E230" t="n">
         <v>13</v>
@@ -16935,7 +16935,7 @@
       </c>
       <c r="O230" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P230" t="n">
@@ -16965,7 +16965,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44417</v>
+        <v>44294</v>
       </c>
       <c r="E231" t="n">
         <v>13</v>
@@ -16992,13 +16992,13 @@
         <v>1600</v>
       </c>
       <c r="K231" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L231" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M231" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="N231" t="inlineStr">
         <is>
@@ -17011,7 +17011,7 @@
         </is>
       </c>
       <c r="P231" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="Q231" t="n">
         <v>1</v>
@@ -17037,7 +17037,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44419</v>
+        <v>44294</v>
       </c>
       <c r="E232" t="n">
         <v>13</v>
@@ -17061,16 +17061,16 @@
         </is>
       </c>
       <c r="J232" t="n">
-        <v>3400</v>
+        <v>1600</v>
       </c>
       <c r="K232" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="L232" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M232" t="n">
-        <v>650</v>
+        <v>900</v>
       </c>
       <c r="N232" t="inlineStr">
         <is>
@@ -17079,11 +17079,11 @@
       </c>
       <c r="O232" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P232" t="n">
-        <v>650</v>
+        <v>900</v>
       </c>
       <c r="Q232" t="n">
         <v>1</v>
@@ -17109,7 +17109,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44419</v>
+        <v>44417</v>
       </c>
       <c r="E233" t="n">
         <v>13</v>
@@ -17133,7 +17133,7 @@
         </is>
       </c>
       <c r="J233" t="n">
-        <v>2500</v>
+        <v>1600</v>
       </c>
       <c r="K233" t="n">
         <v>600</v>
@@ -17151,7 +17151,7 @@
       </c>
       <c r="O233" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P233" t="n">
@@ -17201,20 +17201,20 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J234" t="n">
-        <v>970</v>
+        <v>3400</v>
       </c>
       <c r="K234" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L234" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M234" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="N234" t="inlineStr">
         <is>
@@ -17227,7 +17227,7 @@
         </is>
       </c>
       <c r="P234" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="Q234" t="n">
         <v>1</v>
@@ -17273,20 +17273,20 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J235" t="n">
-        <v>790</v>
+        <v>2500</v>
       </c>
       <c r="K235" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L235" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M235" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="N235" t="inlineStr">
         <is>
@@ -17299,7 +17299,7 @@
         </is>
       </c>
       <c r="P235" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="Q235" t="n">
         <v>1</v>
@@ -17325,7 +17325,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44420</v>
+        <v>44419</v>
       </c>
       <c r="E236" t="n">
         <v>13</v>
@@ -17345,20 +17345,20 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J236" t="n">
-        <v>4300</v>
+        <v>970</v>
       </c>
       <c r="K236" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L236" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M236" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="N236" t="inlineStr">
         <is>
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="P236" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="Q236" t="n">
         <v>1</v>
@@ -17397,7 +17397,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44420</v>
+        <v>44419</v>
       </c>
       <c r="E237" t="n">
         <v>13</v>
@@ -17417,20 +17417,20 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J237" t="n">
-        <v>3400</v>
+        <v>790</v>
       </c>
       <c r="K237" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L237" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M237" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="N237" t="inlineStr">
         <is>
@@ -17443,7 +17443,7 @@
         </is>
       </c>
       <c r="P237" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="Q237" t="n">
         <v>1</v>
@@ -17489,20 +17489,20 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J238" t="n">
-        <v>1600</v>
+        <v>4300</v>
       </c>
       <c r="K238" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L238" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M238" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="N238" t="inlineStr">
         <is>
@@ -17515,7 +17515,7 @@
         </is>
       </c>
       <c r="P238" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="Q238" t="n">
         <v>1</v>
@@ -17561,20 +17561,20 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J239" t="n">
-        <v>970</v>
+        <v>3400</v>
       </c>
       <c r="K239" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L239" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M239" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="N239" t="inlineStr">
         <is>
@@ -17587,7 +17587,7 @@
         </is>
       </c>
       <c r="P239" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="Q239" t="n">
         <v>1</v>
@@ -17613,7 +17613,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44245</v>
+        <v>44420</v>
       </c>
       <c r="E240" t="n">
         <v>13</v>
@@ -17633,20 +17633,20 @@
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J240" t="n">
         <v>1600</v>
       </c>
       <c r="K240" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="L240" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="M240" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="N240" t="inlineStr">
         <is>
@@ -17659,7 +17659,7 @@
         </is>
       </c>
       <c r="P240" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="Q240" t="n">
         <v>1</v>
@@ -17685,7 +17685,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44202</v>
+        <v>44420</v>
       </c>
       <c r="E241" t="n">
         <v>13</v>
@@ -17705,20 +17705,20 @@
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J241" t="n">
-        <v>3100</v>
+        <v>970</v>
       </c>
       <c r="K241" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L241" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M241" t="n">
-        <v>748</v>
+        <v>500</v>
       </c>
       <c r="N241" t="inlineStr">
         <is>
@@ -17727,11 +17727,11 @@
       </c>
       <c r="O241" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P241" t="n">
-        <v>748</v>
+        <v>500</v>
       </c>
       <c r="Q241" t="n">
         <v>1</v>
@@ -17757,7 +17757,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44369</v>
+        <v>44245</v>
       </c>
       <c r="E242" t="n">
         <v>13</v>
@@ -17781,16 +17781,16 @@
         </is>
       </c>
       <c r="J242" t="n">
-        <v>3400</v>
+        <v>1600</v>
       </c>
       <c r="K242" t="n">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="L242" t="n">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="M242" t="n">
-        <v>550</v>
+        <v>1200</v>
       </c>
       <c r="N242" t="inlineStr">
         <is>
@@ -17803,7 +17803,7 @@
         </is>
       </c>
       <c r="P242" t="n">
-        <v>550</v>
+        <v>1200</v>
       </c>
       <c r="Q242" t="n">
         <v>1</v>
@@ -17829,7 +17829,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44369</v>
+        <v>44202</v>
       </c>
       <c r="E243" t="n">
         <v>13</v>
@@ -17853,16 +17853,16 @@
         </is>
       </c>
       <c r="J243" t="n">
-        <v>2500</v>
+        <v>3100</v>
       </c>
       <c r="K243" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L243" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M243" t="n">
-        <v>550</v>
+        <v>748</v>
       </c>
       <c r="N243" t="inlineStr">
         <is>
@@ -17871,11 +17871,11 @@
       </c>
       <c r="O243" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P243" t="n">
-        <v>550</v>
+        <v>748</v>
       </c>
       <c r="Q243" t="n">
         <v>1</v>
@@ -17921,20 +17921,20 @@
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J244" t="n">
-        <v>1600</v>
+        <v>3400</v>
       </c>
       <c r="K244" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L244" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M244" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="N244" t="inlineStr">
         <is>
@@ -17947,7 +17947,7 @@
         </is>
       </c>
       <c r="P244" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="Q244" t="n">
         <v>1</v>
@@ -17993,20 +17993,20 @@
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J245" t="n">
-        <v>700</v>
+        <v>2500</v>
       </c>
       <c r="K245" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L245" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M245" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="N245" t="inlineStr">
         <is>
@@ -18019,7 +18019,7 @@
         </is>
       </c>
       <c r="P245" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="Q245" t="n">
         <v>1</v>
@@ -18045,7 +18045,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44307</v>
+        <v>44369</v>
       </c>
       <c r="E246" t="n">
         <v>13</v>
@@ -18065,20 +18065,20 @@
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J246" t="n">
-        <v>2100</v>
+        <v>1600</v>
       </c>
       <c r="K246" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="L246" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="M246" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="N246" t="inlineStr">
         <is>
@@ -18091,7 +18091,7 @@
         </is>
       </c>
       <c r="P246" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="Q246" t="n">
         <v>1</v>
@@ -18117,7 +18117,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44161</v>
+        <v>44369</v>
       </c>
       <c r="E247" t="n">
         <v>13</v>
@@ -18137,20 +18137,20 @@
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J247" t="n">
-        <v>4500</v>
+        <v>700</v>
       </c>
       <c r="K247" t="n">
         <v>400</v>
       </c>
       <c r="L247" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M247" t="n">
-        <v>456</v>
+        <v>400</v>
       </c>
       <c r="N247" t="inlineStr">
         <is>
@@ -18159,11 +18159,11 @@
       </c>
       <c r="O247" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P247" t="n">
-        <v>456</v>
+        <v>400</v>
       </c>
       <c r="Q247" t="n">
         <v>1</v>
@@ -18189,7 +18189,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44195</v>
+        <v>44307</v>
       </c>
       <c r="E248" t="n">
         <v>13</v>
@@ -18213,16 +18213,16 @@
         </is>
       </c>
       <c r="J248" t="n">
-        <v>4300</v>
+        <v>2100</v>
       </c>
       <c r="K248" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="L248" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="M248" t="n">
-        <v>950</v>
+        <v>700</v>
       </c>
       <c r="N248" t="inlineStr">
         <is>
@@ -18235,7 +18235,7 @@
         </is>
       </c>
       <c r="P248" t="n">
-        <v>950</v>
+        <v>700</v>
       </c>
       <c r="Q248" t="n">
         <v>1</v>
@@ -18261,7 +18261,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44159</v>
+        <v>44161</v>
       </c>
       <c r="E249" t="n">
         <v>13</v>
@@ -18288,13 +18288,13 @@
         <v>4500</v>
       </c>
       <c r="K249" t="n">
+        <v>400</v>
+      </c>
+      <c r="L249" t="n">
         <v>500</v>
       </c>
-      <c r="L249" t="n">
-        <v>600</v>
-      </c>
       <c r="M249" t="n">
-        <v>544</v>
+        <v>456</v>
       </c>
       <c r="N249" t="inlineStr">
         <is>
@@ -18307,7 +18307,7 @@
         </is>
       </c>
       <c r="P249" t="n">
-        <v>544</v>
+        <v>456</v>
       </c>
       <c r="Q249" t="n">
         <v>1</v>
@@ -18333,7 +18333,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44333</v>
+        <v>44195</v>
       </c>
       <c r="E250" t="n">
         <v>13</v>
@@ -18357,16 +18357,16 @@
         </is>
       </c>
       <c r="J250" t="n">
-        <v>1400</v>
+        <v>4300</v>
       </c>
       <c r="K250" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="L250" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="M250" t="n">
-        <v>650</v>
+        <v>950</v>
       </c>
       <c r="N250" t="inlineStr">
         <is>
@@ -18379,7 +18379,7 @@
         </is>
       </c>
       <c r="P250" t="n">
-        <v>650</v>
+        <v>950</v>
       </c>
       <c r="Q250" t="n">
         <v>1</v>
@@ -18405,7 +18405,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44201</v>
+        <v>44159</v>
       </c>
       <c r="E251" t="n">
         <v>13</v>
@@ -18429,16 +18429,16 @@
         </is>
       </c>
       <c r="J251" t="n">
-        <v>3600</v>
+        <v>4500</v>
       </c>
       <c r="K251" t="n">
+        <v>500</v>
+      </c>
+      <c r="L251" t="n">
         <v>600</v>
       </c>
-      <c r="L251" t="n">
-        <v>700</v>
-      </c>
       <c r="M251" t="n">
-        <v>656</v>
+        <v>544</v>
       </c>
       <c r="N251" t="inlineStr">
         <is>
@@ -18447,11 +18447,11 @@
       </c>
       <c r="O251" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P251" t="n">
-        <v>656</v>
+        <v>544</v>
       </c>
       <c r="Q251" t="n">
         <v>1</v>
@@ -18477,7 +18477,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44433</v>
+        <v>44333</v>
       </c>
       <c r="E252" t="n">
         <v>13</v>
@@ -18501,17 +18501,17 @@
         </is>
       </c>
       <c r="J252" t="n">
-        <v>3400</v>
+        <v>1400</v>
       </c>
       <c r="K252" t="n">
         <v>600</v>
       </c>
       <c r="L252" t="n">
+        <v>700</v>
+      </c>
+      <c r="M252" t="n">
         <v>650</v>
       </c>
-      <c r="M252" t="n">
-        <v>625</v>
-      </c>
       <c r="N252" t="inlineStr">
         <is>
           <t>$/unidad</t>
@@ -18523,7 +18523,7 @@
         </is>
       </c>
       <c r="P252" t="n">
-        <v>625</v>
+        <v>650</v>
       </c>
       <c r="Q252" t="n">
         <v>1</v>
@@ -18549,7 +18549,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44433</v>
+        <v>44201</v>
       </c>
       <c r="E253" t="n">
         <v>13</v>
@@ -18573,16 +18573,16 @@
         </is>
       </c>
       <c r="J253" t="n">
-        <v>1600</v>
+        <v>3600</v>
       </c>
       <c r="K253" t="n">
         <v>600</v>
       </c>
       <c r="L253" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="M253" t="n">
-        <v>625</v>
+        <v>656</v>
       </c>
       <c r="N253" t="inlineStr">
         <is>
@@ -18591,11 +18591,11 @@
       </c>
       <c r="O253" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P253" t="n">
-        <v>625</v>
+        <v>656</v>
       </c>
       <c r="Q253" t="n">
         <v>1</v>
@@ -18641,20 +18641,20 @@
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J254" t="n">
-        <v>970</v>
+        <v>3400</v>
       </c>
       <c r="K254" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L254" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="M254" t="n">
-        <v>525</v>
+        <v>625</v>
       </c>
       <c r="N254" t="inlineStr">
         <is>
@@ -18667,7 +18667,7 @@
         </is>
       </c>
       <c r="P254" t="n">
-        <v>525</v>
+        <v>625</v>
       </c>
       <c r="Q254" t="n">
         <v>1</v>
@@ -18713,20 +18713,20 @@
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J255" t="n">
-        <v>610</v>
+        <v>1600</v>
       </c>
       <c r="K255" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L255" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="M255" t="n">
-        <v>525</v>
+        <v>625</v>
       </c>
       <c r="N255" t="inlineStr">
         <is>
@@ -18739,7 +18739,7 @@
         </is>
       </c>
       <c r="P255" t="n">
-        <v>525</v>
+        <v>625</v>
       </c>
       <c r="Q255" t="n">
         <v>1</v>
@@ -18765,7 +18765,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44309</v>
+        <v>44433</v>
       </c>
       <c r="E256" t="n">
         <v>13</v>
@@ -18785,20 +18785,20 @@
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J256" t="n">
-        <v>2500</v>
+        <v>970</v>
       </c>
       <c r="K256" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L256" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="M256" t="n">
-        <v>700</v>
+        <v>525</v>
       </c>
       <c r="N256" t="inlineStr">
         <is>
@@ -18811,7 +18811,7 @@
         </is>
       </c>
       <c r="P256" t="n">
-        <v>700</v>
+        <v>525</v>
       </c>
       <c r="Q256" t="n">
         <v>1</v>
@@ -18837,7 +18837,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44309</v>
+        <v>44433</v>
       </c>
       <c r="E257" t="n">
         <v>13</v>
@@ -18861,16 +18861,16 @@
         </is>
       </c>
       <c r="J257" t="n">
-        <v>700</v>
+        <v>610</v>
       </c>
       <c r="K257" t="n">
         <v>500</v>
       </c>
       <c r="L257" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="M257" t="n">
-        <v>500</v>
+        <v>525</v>
       </c>
       <c r="N257" t="inlineStr">
         <is>
@@ -18879,11 +18879,11 @@
       </c>
       <c r="O257" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P257" t="n">
-        <v>500</v>
+        <v>525</v>
       </c>
       <c r="Q257" t="n">
         <v>1</v>
@@ -18909,7 +18909,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44188</v>
+        <v>44309</v>
       </c>
       <c r="E258" t="n">
         <v>13</v>
@@ -18933,16 +18933,16 @@
         </is>
       </c>
       <c r="J258" t="n">
-        <v>2100</v>
+        <v>2500</v>
       </c>
       <c r="K258" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="L258" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M258" t="n">
-        <v>852</v>
+        <v>700</v>
       </c>
       <c r="N258" t="inlineStr">
         <is>
@@ -18951,11 +18951,11 @@
       </c>
       <c r="O258" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P258" t="n">
-        <v>852</v>
+        <v>700</v>
       </c>
       <c r="Q258" t="n">
         <v>1</v>
@@ -18981,7 +18981,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44344</v>
+        <v>44309</v>
       </c>
       <c r="E259" t="n">
         <v>13</v>
@@ -19001,20 +19001,20 @@
       </c>
       <c r="I259" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J259" t="n">
-        <v>5200</v>
+        <v>700</v>
       </c>
       <c r="K259" t="n">
         <v>500</v>
       </c>
       <c r="L259" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M259" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="N259" t="inlineStr">
         <is>
@@ -19027,7 +19027,7 @@
         </is>
       </c>
       <c r="P259" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="Q259" t="n">
         <v>1</v>
@@ -19053,7 +19053,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44344</v>
+        <v>44188</v>
       </c>
       <c r="E260" t="n">
         <v>13</v>
@@ -19077,16 +19077,16 @@
         </is>
       </c>
       <c r="J260" t="n">
-        <v>3900</v>
+        <v>2100</v>
       </c>
       <c r="K260" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="L260" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="M260" t="n">
-        <v>550</v>
+        <v>852</v>
       </c>
       <c r="N260" t="inlineStr">
         <is>
@@ -19099,7 +19099,7 @@
         </is>
       </c>
       <c r="P260" t="n">
-        <v>550</v>
+        <v>852</v>
       </c>
       <c r="Q260" t="n">
         <v>1</v>
@@ -19145,20 +19145,20 @@
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J261" t="n">
-        <v>2100</v>
+        <v>5200</v>
       </c>
       <c r="K261" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L261" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M261" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="N261" t="inlineStr">
         <is>
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="P261" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="Q261" t="n">
         <v>1</v>
@@ -19217,20 +19217,20 @@
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J262" t="n">
-        <v>1800</v>
+        <v>3900</v>
       </c>
       <c r="K262" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L262" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M262" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="N262" t="inlineStr">
         <is>
@@ -19243,7 +19243,7 @@
         </is>
       </c>
       <c r="P262" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="Q262" t="n">
         <v>1</v>
@@ -19269,7 +19269,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44319</v>
+        <v>44344</v>
       </c>
       <c r="E263" t="n">
         <v>13</v>
@@ -19289,20 +19289,20 @@
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J263" t="n">
-        <v>1600</v>
+        <v>2100</v>
       </c>
       <c r="K263" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="L263" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="M263" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="N263" t="inlineStr">
         <is>
@@ -19315,7 +19315,7 @@
         </is>
       </c>
       <c r="P263" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="Q263" t="n">
         <v>1</v>
@@ -19341,7 +19341,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44316</v>
+        <v>44344</v>
       </c>
       <c r="E264" t="n">
         <v>13</v>
@@ -19361,20 +19361,20 @@
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J264" t="n">
-        <v>3400</v>
+        <v>1800</v>
       </c>
       <c r="K264" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L264" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="M264" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="N264" t="inlineStr">
         <is>
@@ -19383,11 +19383,11 @@
       </c>
       <c r="O264" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P264" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="Q264" t="n">
         <v>1</v>
@@ -19413,7 +19413,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44316</v>
+        <v>44319</v>
       </c>
       <c r="E265" t="n">
         <v>13</v>
@@ -19433,20 +19433,20 @@
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J265" t="n">
         <v>1600</v>
       </c>
       <c r="K265" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L265" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M265" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="N265" t="inlineStr">
         <is>
@@ -19459,7 +19459,7 @@
         </is>
       </c>
       <c r="P265" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="Q265" t="n">
         <v>1</v>
@@ -19485,7 +19485,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44160</v>
+        <v>44316</v>
       </c>
       <c r="E266" t="n">
         <v>13</v>
@@ -19509,16 +19509,16 @@
         </is>
       </c>
       <c r="J266" t="n">
-        <v>3600</v>
+        <v>3400</v>
       </c>
       <c r="K266" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L266" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M266" t="n">
-        <v>556</v>
+        <v>650</v>
       </c>
       <c r="N266" t="inlineStr">
         <is>
@@ -19527,11 +19527,11 @@
       </c>
       <c r="O266" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P266" t="n">
-        <v>556</v>
+        <v>650</v>
       </c>
       <c r="Q266" t="n">
         <v>1</v>
@@ -19557,7 +19557,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44211</v>
+        <v>44316</v>
       </c>
       <c r="E267" t="n">
         <v>13</v>
@@ -19577,20 +19577,20 @@
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J267" t="n">
-        <v>2500</v>
+        <v>1600</v>
       </c>
       <c r="K267" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="L267" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="M267" t="n">
-        <v>950</v>
+        <v>500</v>
       </c>
       <c r="N267" t="inlineStr">
         <is>
@@ -19603,7 +19603,7 @@
         </is>
       </c>
       <c r="P267" t="n">
-        <v>950</v>
+        <v>500</v>
       </c>
       <c r="Q267" t="n">
         <v>1</v>
@@ -19629,7 +19629,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44301</v>
+        <v>44160</v>
       </c>
       <c r="E268" t="n">
         <v>13</v>
@@ -19653,16 +19653,16 @@
         </is>
       </c>
       <c r="J268" t="n">
-        <v>1600</v>
+        <v>3600</v>
       </c>
       <c r="K268" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L268" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M268" t="n">
-        <v>750</v>
+        <v>556</v>
       </c>
       <c r="N268" t="inlineStr">
         <is>
@@ -19671,11 +19671,11 @@
       </c>
       <c r="O268" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P268" t="n">
-        <v>750</v>
+        <v>556</v>
       </c>
       <c r="Q268" t="n">
         <v>1</v>
@@ -19701,7 +19701,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44370</v>
+        <v>44211</v>
       </c>
       <c r="E269" t="n">
         <v>13</v>
@@ -19725,16 +19725,16 @@
         </is>
       </c>
       <c r="J269" t="n">
-        <v>1600</v>
+        <v>2500</v>
       </c>
       <c r="K269" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="L269" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="M269" t="n">
-        <v>550</v>
+        <v>950</v>
       </c>
       <c r="N269" t="inlineStr">
         <is>
@@ -19747,7 +19747,7 @@
         </is>
       </c>
       <c r="P269" t="n">
-        <v>550</v>
+        <v>950</v>
       </c>
       <c r="Q269" t="n">
         <v>1</v>
@@ -19773,7 +19773,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44370</v>
+        <v>44301</v>
       </c>
       <c r="E270" t="n">
         <v>13</v>
@@ -19797,16 +19797,16 @@
         </is>
       </c>
       <c r="J270" t="n">
-        <v>2500</v>
+        <v>1600</v>
       </c>
       <c r="K270" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L270" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M270" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="N270" t="inlineStr">
         <is>
@@ -19815,11 +19815,11 @@
       </c>
       <c r="O270" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P270" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="Q270" t="n">
         <v>1</v>
@@ -19865,20 +19865,20 @@
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J271" t="n">
-        <v>700</v>
+        <v>1600</v>
       </c>
       <c r="K271" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L271" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M271" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="N271" t="inlineStr">
         <is>
@@ -19891,7 +19891,7 @@
         </is>
       </c>
       <c r="P271" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="Q271" t="n">
         <v>1</v>
@@ -19937,20 +19937,20 @@
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J272" t="n">
-        <v>970</v>
+        <v>2500</v>
       </c>
       <c r="K272" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L272" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M272" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="N272" t="inlineStr">
         <is>
@@ -19963,7 +19963,7 @@
         </is>
       </c>
       <c r="P272" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="Q272" t="n">
         <v>1</v>
@@ -19989,7 +19989,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44326</v>
+        <v>44370</v>
       </c>
       <c r="E273" t="n">
         <v>13</v>
@@ -20009,20 +20009,20 @@
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J273" t="n">
         <v>700</v>
       </c>
       <c r="K273" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L273" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M273" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="N273" t="inlineStr">
         <is>
@@ -20035,7 +20035,7 @@
         </is>
       </c>
       <c r="P273" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="Q273" t="n">
         <v>1</v>
@@ -20061,7 +20061,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44230</v>
+        <v>44370</v>
       </c>
       <c r="E274" t="n">
         <v>13</v>
@@ -20081,20 +20081,20 @@
       </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J274" t="n">
-        <v>1900</v>
+        <v>970</v>
       </c>
       <c r="K274" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="L274" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="M274" t="n">
-        <v>884</v>
+        <v>400</v>
       </c>
       <c r="N274" t="inlineStr">
         <is>
@@ -20103,11 +20103,11 @@
       </c>
       <c r="O274" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P274" t="n">
-        <v>884</v>
+        <v>400</v>
       </c>
       <c r="Q274" t="n">
         <v>1</v>
@@ -20133,7 +20133,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44382</v>
+        <v>44326</v>
       </c>
       <c r="E275" t="n">
         <v>13</v>
@@ -20157,16 +20157,16 @@
         </is>
       </c>
       <c r="J275" t="n">
-        <v>1600</v>
+        <v>700</v>
       </c>
       <c r="K275" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L275" t="n">
         <v>600</v>
       </c>
       <c r="M275" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="N275" t="inlineStr">
         <is>
@@ -20179,7 +20179,7 @@
         </is>
       </c>
       <c r="P275" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="Q275" t="n">
         <v>1</v>
@@ -20205,7 +20205,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44382</v>
+        <v>44230</v>
       </c>
       <c r="E276" t="n">
         <v>13</v>
@@ -20225,20 +20225,20 @@
       </c>
       <c r="I276" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J276" t="n">
-        <v>520</v>
+        <v>1900</v>
       </c>
       <c r="K276" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="L276" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="M276" t="n">
-        <v>400</v>
+        <v>884</v>
       </c>
       <c r="N276" t="inlineStr">
         <is>
@@ -20251,7 +20251,7 @@
         </is>
       </c>
       <c r="P276" t="n">
-        <v>400</v>
+        <v>884</v>
       </c>
       <c r="Q276" t="n">
         <v>1</v>
@@ -20277,7 +20277,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44232</v>
+        <v>44382</v>
       </c>
       <c r="E277" t="n">
         <v>13</v>
@@ -20301,16 +20301,16 @@
         </is>
       </c>
       <c r="J277" t="n">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="K277" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="L277" t="n">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="M277" t="n">
-        <v>1111</v>
+        <v>550</v>
       </c>
       <c r="N277" t="inlineStr">
         <is>
@@ -20323,7 +20323,7 @@
         </is>
       </c>
       <c r="P277" t="n">
-        <v>1111</v>
+        <v>550</v>
       </c>
       <c r="Q277" t="n">
         <v>1</v>
@@ -20349,7 +20349,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44398</v>
+        <v>44382</v>
       </c>
       <c r="E278" t="n">
         <v>13</v>
@@ -20369,20 +20369,20 @@
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J278" t="n">
-        <v>3400</v>
+        <v>520</v>
       </c>
       <c r="K278" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L278" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M278" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="N278" t="inlineStr">
         <is>
@@ -20395,7 +20395,7 @@
         </is>
       </c>
       <c r="P278" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="Q278" t="n">
         <v>1</v>
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44398</v>
+        <v>44232</v>
       </c>
       <c r="E279" t="n">
         <v>13</v>
@@ -20441,20 +20441,20 @@
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J279" t="n">
-        <v>970</v>
+        <v>1800</v>
       </c>
       <c r="K279" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="L279" t="n">
-        <v>400</v>
+        <v>1200</v>
       </c>
       <c r="M279" t="n">
-        <v>400</v>
+        <v>1111</v>
       </c>
       <c r="N279" t="inlineStr">
         <is>
@@ -20467,7 +20467,7 @@
         </is>
       </c>
       <c r="P279" t="n">
-        <v>400</v>
+        <v>1111</v>
       </c>
       <c r="Q279" t="n">
         <v>1</v>
@@ -20493,7 +20493,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44355</v>
+        <v>44398</v>
       </c>
       <c r="E280" t="n">
         <v>13</v>
@@ -20565,7 +20565,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44355</v>
+        <v>44398</v>
       </c>
       <c r="E281" t="n">
         <v>13</v>
@@ -20585,20 +20585,20 @@
       </c>
       <c r="I281" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J281" t="n">
-        <v>2500</v>
+        <v>970</v>
       </c>
       <c r="K281" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L281" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M281" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="N281" t="inlineStr">
         <is>
@@ -20607,11 +20607,11 @@
       </c>
       <c r="O281" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P281" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="Q281" t="n">
         <v>1</v>
@@ -20657,20 +20657,20 @@
       </c>
       <c r="I282" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J282" t="n">
-        <v>1600</v>
+        <v>3400</v>
       </c>
       <c r="K282" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L282" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M282" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="N282" t="inlineStr">
         <is>
@@ -20683,7 +20683,7 @@
         </is>
       </c>
       <c r="P282" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="Q282" t="n">
         <v>1</v>
@@ -20729,20 +20729,20 @@
       </c>
       <c r="I283" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J283" t="n">
-        <v>1330</v>
+        <v>2500</v>
       </c>
       <c r="K283" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L283" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M283" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="N283" t="inlineStr">
         <is>
@@ -20755,7 +20755,7 @@
         </is>
       </c>
       <c r="P283" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="Q283" t="n">
         <v>1</v>
@@ -20781,7 +20781,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44286</v>
+        <v>44355</v>
       </c>
       <c r="E284" t="n">
         <v>13</v>
@@ -20801,20 +20801,20 @@
       </c>
       <c r="I284" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J284" t="n">
         <v>1600</v>
       </c>
       <c r="K284" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="L284" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="M284" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="N284" t="inlineStr">
         <is>
@@ -20827,7 +20827,7 @@
         </is>
       </c>
       <c r="P284" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="Q284" t="n">
         <v>1</v>
@@ -20853,7 +20853,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44217</v>
+        <v>44355</v>
       </c>
       <c r="E285" t="n">
         <v>13</v>
@@ -20873,20 +20873,20 @@
       </c>
       <c r="I285" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J285" t="n">
-        <v>2700</v>
+        <v>1330</v>
       </c>
       <c r="K285" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="L285" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="M285" t="n">
-        <v>956</v>
+        <v>400</v>
       </c>
       <c r="N285" t="inlineStr">
         <is>
@@ -20895,11 +20895,11 @@
       </c>
       <c r="O285" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P285" t="n">
-        <v>956</v>
+        <v>400</v>
       </c>
       <c r="Q285" t="n">
         <v>1</v>
@@ -20925,7 +20925,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44343</v>
+        <v>44286</v>
       </c>
       <c r="E286" t="n">
         <v>13</v>
@@ -20949,16 +20949,16 @@
         </is>
       </c>
       <c r="J286" t="n">
-        <v>4200</v>
+        <v>1600</v>
       </c>
       <c r="K286" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="L286" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M286" t="n">
-        <v>650</v>
+        <v>900</v>
       </c>
       <c r="N286" t="inlineStr">
         <is>
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="P286" t="n">
-        <v>650</v>
+        <v>900</v>
       </c>
       <c r="Q286" t="n">
         <v>1</v>
@@ -20997,7 +20997,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44343</v>
+        <v>44217</v>
       </c>
       <c r="E287" t="n">
         <v>13</v>
@@ -21021,16 +21021,16 @@
         </is>
       </c>
       <c r="J287" t="n">
-        <v>3500</v>
+        <v>2700</v>
       </c>
       <c r="K287" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="L287" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="M287" t="n">
-        <v>650</v>
+        <v>956</v>
       </c>
       <c r="N287" t="inlineStr">
         <is>
@@ -21039,11 +21039,11 @@
       </c>
       <c r="O287" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P287" t="n">
-        <v>650</v>
+        <v>956</v>
       </c>
       <c r="Q287" t="n">
         <v>1</v>
@@ -21089,20 +21089,20 @@
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J288" t="n">
-        <v>1800</v>
+        <v>4200</v>
       </c>
       <c r="K288" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L288" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="M288" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="N288" t="inlineStr">
         <is>
@@ -21115,7 +21115,7 @@
         </is>
       </c>
       <c r="P288" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="Q288" t="n">
         <v>1</v>
@@ -21161,20 +21161,20 @@
       </c>
       <c r="I289" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J289" t="n">
-        <v>1700</v>
+        <v>3500</v>
       </c>
       <c r="K289" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L289" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="M289" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="N289" t="inlineStr">
         <is>
@@ -21187,7 +21187,7 @@
         </is>
       </c>
       <c r="P289" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="Q289" t="n">
         <v>1</v>
@@ -21213,7 +21213,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44376</v>
+        <v>44343</v>
       </c>
       <c r="E290" t="n">
         <v>13</v>
@@ -21233,20 +21233,20 @@
       </c>
       <c r="I290" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J290" t="n">
-        <v>3400</v>
+        <v>1800</v>
       </c>
       <c r="K290" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L290" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M290" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="N290" t="inlineStr">
         <is>
@@ -21259,7 +21259,7 @@
         </is>
       </c>
       <c r="P290" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="Q290" t="n">
         <v>1</v>
@@ -21285,7 +21285,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44376</v>
+        <v>44343</v>
       </c>
       <c r="E291" t="n">
         <v>13</v>
@@ -21305,20 +21305,20 @@
       </c>
       <c r="I291" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J291" t="n">
-        <v>2500</v>
+        <v>1700</v>
       </c>
       <c r="K291" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L291" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M291" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="N291" t="inlineStr">
         <is>
@@ -21331,7 +21331,7 @@
         </is>
       </c>
       <c r="P291" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="Q291" t="n">
         <v>1</v>
@@ -21377,20 +21377,20 @@
       </c>
       <c r="I292" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J292" t="n">
-        <v>1600</v>
+        <v>3400</v>
       </c>
       <c r="K292" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L292" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M292" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="N292" t="inlineStr">
         <is>
@@ -21403,7 +21403,7 @@
         </is>
       </c>
       <c r="P292" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="Q292" t="n">
         <v>1</v>
@@ -21449,20 +21449,20 @@
       </c>
       <c r="I293" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J293" t="n">
-        <v>970</v>
+        <v>2500</v>
       </c>
       <c r="K293" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L293" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M293" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="N293" t="inlineStr">
         <is>
@@ -21475,7 +21475,7 @@
         </is>
       </c>
       <c r="P293" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="Q293" t="n">
         <v>1</v>
@@ -21501,7 +21501,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44334</v>
+        <v>44376</v>
       </c>
       <c r="E294" t="n">
         <v>13</v>
@@ -21521,20 +21521,20 @@
       </c>
       <c r="I294" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J294" t="n">
-        <v>4300</v>
+        <v>1600</v>
       </c>
       <c r="K294" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L294" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="M294" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="N294" t="inlineStr">
         <is>
@@ -21547,7 +21547,7 @@
         </is>
       </c>
       <c r="P294" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="Q294" t="n">
         <v>1</v>
@@ -21573,7 +21573,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44334</v>
+        <v>44376</v>
       </c>
       <c r="E295" t="n">
         <v>13</v>
@@ -21593,20 +21593,20 @@
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J295" t="n">
-        <v>5200</v>
+        <v>970</v>
       </c>
       <c r="K295" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L295" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="M295" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="N295" t="inlineStr">
         <is>
@@ -21619,7 +21619,7 @@
         </is>
       </c>
       <c r="P295" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="Q295" t="n">
         <v>1</v>
@@ -21665,20 +21665,20 @@
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J296" t="n">
-        <v>1600</v>
+        <v>4300</v>
       </c>
       <c r="K296" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L296" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="M296" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="N296" t="inlineStr">
         <is>
@@ -21691,7 +21691,7 @@
         </is>
       </c>
       <c r="P296" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="Q296" t="n">
         <v>1</v>
@@ -21737,20 +21737,20 @@
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J297" t="n">
-        <v>2500</v>
+        <v>5200</v>
       </c>
       <c r="K297" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L297" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M297" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="N297" t="inlineStr">
         <is>
@@ -21763,7 +21763,7 @@
         </is>
       </c>
       <c r="P297" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="Q297" t="n">
         <v>1</v>
@@ -21789,7 +21789,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44418</v>
+        <v>44334</v>
       </c>
       <c r="E298" t="n">
         <v>13</v>
@@ -21809,20 +21809,20 @@
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J298" t="n">
-        <v>3400</v>
+        <v>1600</v>
       </c>
       <c r="K298" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L298" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="M298" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="N298" t="inlineStr">
         <is>
@@ -21835,7 +21835,7 @@
         </is>
       </c>
       <c r="P298" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="Q298" t="n">
         <v>1</v>
@@ -21861,7 +21861,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44418</v>
+        <v>44334</v>
       </c>
       <c r="E299" t="n">
         <v>13</v>
@@ -21881,20 +21881,20 @@
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J299" t="n">
-        <v>4300</v>
+        <v>2500</v>
       </c>
       <c r="K299" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L299" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M299" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="N299" t="inlineStr">
         <is>
@@ -21907,7 +21907,7 @@
         </is>
       </c>
       <c r="P299" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="Q299" t="n">
         <v>1</v>
@@ -21953,20 +21953,20 @@
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J300" t="n">
-        <v>970</v>
+        <v>3400</v>
       </c>
       <c r="K300" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L300" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M300" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="N300" t="inlineStr">
         <is>
@@ -21979,7 +21979,7 @@
         </is>
       </c>
       <c r="P300" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="Q300" t="n">
         <v>1</v>
@@ -22025,20 +22025,20 @@
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J301" t="n">
-        <v>1600</v>
+        <v>4300</v>
       </c>
       <c r="K301" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L301" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M301" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="N301" t="inlineStr">
         <is>
@@ -22051,7 +22051,7 @@
         </is>
       </c>
       <c r="P301" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="Q301" t="n">
         <v>1</v>
@@ -22077,7 +22077,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44432</v>
+        <v>44418</v>
       </c>
       <c r="E302" t="n">
         <v>13</v>
@@ -22097,20 +22097,20 @@
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J302" t="n">
-        <v>4300</v>
+        <v>970</v>
       </c>
       <c r="K302" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="L302" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M302" t="n">
-        <v>675</v>
+        <v>500</v>
       </c>
       <c r="N302" t="inlineStr">
         <is>
@@ -22123,7 +22123,7 @@
         </is>
       </c>
       <c r="P302" t="n">
-        <v>675</v>
+        <v>500</v>
       </c>
       <c r="Q302" t="n">
         <v>1</v>
@@ -22149,7 +22149,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44432</v>
+        <v>44418</v>
       </c>
       <c r="E303" t="n">
         <v>13</v>
@@ -22169,20 +22169,20 @@
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J303" t="n">
-        <v>3400</v>
+        <v>1600</v>
       </c>
       <c r="K303" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="L303" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M303" t="n">
-        <v>675</v>
+        <v>500</v>
       </c>
       <c r="N303" t="inlineStr">
         <is>
@@ -22195,7 +22195,7 @@
         </is>
       </c>
       <c r="P303" t="n">
-        <v>675</v>
+        <v>500</v>
       </c>
       <c r="Q303" t="n">
         <v>1</v>
@@ -22241,20 +22241,20 @@
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J304" t="n">
-        <v>1600</v>
+        <v>4300</v>
       </c>
       <c r="K304" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="L304" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M304" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="N304" t="inlineStr">
         <is>
@@ -22267,7 +22267,7 @@
         </is>
       </c>
       <c r="P304" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="Q304" t="n">
         <v>1</v>
@@ -22313,38 +22313,182 @@
       </c>
       <c r="I305" t="inlineStr">
         <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J305" t="n">
+        <v>3400</v>
+      </c>
+      <c r="K305" t="n">
+        <v>650</v>
+      </c>
+      <c r="L305" t="n">
+        <v>700</v>
+      </c>
+      <c r="M305" t="n">
+        <v>675</v>
+      </c>
+      <c r="N305" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O305" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P305" t="n">
+        <v>675</v>
+      </c>
+      <c r="Q305" t="n">
+        <v>1</v>
+      </c>
+      <c r="R305" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="n">
+        <v>9</v>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D306" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E306" t="n">
+        <v>13</v>
+      </c>
+      <c r="F306" t="n">
+        <v>100112008</v>
+      </c>
+      <c r="G306" t="inlineStr">
+        <is>
+          <t>Coliflor</t>
+        </is>
+      </c>
+      <c r="H306" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I306" t="inlineStr">
+        <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J305" t="n">
+      <c r="J306" t="n">
+        <v>1600</v>
+      </c>
+      <c r="K306" t="n">
+        <v>550</v>
+      </c>
+      <c r="L306" t="n">
+        <v>600</v>
+      </c>
+      <c r="M306" t="n">
+        <v>575</v>
+      </c>
+      <c r="N306" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O306" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P306" t="n">
+        <v>575</v>
+      </c>
+      <c r="Q306" t="n">
+        <v>1</v>
+      </c>
+      <c r="R306" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="n">
+        <v>9</v>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D307" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E307" t="n">
+        <v>13</v>
+      </c>
+      <c r="F307" t="n">
+        <v>100112008</v>
+      </c>
+      <c r="G307" t="inlineStr">
+        <is>
+          <t>Coliflor</t>
+        </is>
+      </c>
+      <c r="H307" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I307" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J307" t="n">
         <v>970</v>
       </c>
-      <c r="K305" t="n">
+      <c r="K307" t="n">
         <v>550</v>
       </c>
-      <c r="L305" t="n">
+      <c r="L307" t="n">
         <v>600</v>
       </c>
-      <c r="M305" t="n">
+      <c r="M307" t="n">
         <v>575</v>
       </c>
-      <c r="N305" t="inlineStr">
-        <is>
-          <t>$/unidad</t>
-        </is>
-      </c>
-      <c r="O305" t="inlineStr">
+      <c r="N307" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O307" t="inlineStr">
         <is>
           <t>Región de O'Higgins</t>
         </is>
       </c>
-      <c r="P305" t="n">
+      <c r="P307" t="n">
         <v>575</v>
       </c>
-      <c r="Q305" t="n">
-        <v>1</v>
-      </c>
-      <c r="R305" t="inlineStr">
+      <c r="Q307" t="n">
+        <v>1</v>
+      </c>
+      <c r="R307" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Coliflor.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Coliflor.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R321"/>
+  <dimension ref="A1:R323"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11637,7 +11637,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44267</v>
+        <v>44447</v>
       </c>
       <c r="E157" t="n">
         <v>13</v>
@@ -11661,16 +11661,16 @@
         </is>
       </c>
       <c r="J157" t="n">
-        <v>1200</v>
+        <v>2500</v>
       </c>
       <c r="K157" t="n">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="L157" t="n">
-        <v>1100</v>
+        <v>650</v>
       </c>
       <c r="M157" t="n">
-        <v>1100</v>
+        <v>625</v>
       </c>
       <c r="N157" t="inlineStr">
         <is>
@@ -11683,7 +11683,7 @@
         </is>
       </c>
       <c r="P157" t="n">
-        <v>1100</v>
+        <v>625</v>
       </c>
       <c r="Q157" t="n">
         <v>1</v>
@@ -11709,7 +11709,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44292</v>
+        <v>44447</v>
       </c>
       <c r="E158" t="n">
         <v>13</v>
@@ -11729,20 +11729,20 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J158" t="n">
-        <v>1600</v>
+        <v>970</v>
       </c>
       <c r="K158" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="L158" t="n">
-        <v>900</v>
+        <v>450</v>
       </c>
       <c r="M158" t="n">
-        <v>900</v>
+        <v>425</v>
       </c>
       <c r="N158" t="inlineStr">
         <is>
@@ -11755,7 +11755,7 @@
         </is>
       </c>
       <c r="P158" t="n">
-        <v>900</v>
+        <v>425</v>
       </c>
       <c r="Q158" t="n">
         <v>1</v>
@@ -11781,7 +11781,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44259</v>
+        <v>44267</v>
       </c>
       <c r="E159" t="n">
         <v>13</v>
@@ -11805,16 +11805,16 @@
         </is>
       </c>
       <c r="J159" t="n">
-        <v>700</v>
+        <v>1200</v>
       </c>
       <c r="K159" t="n">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="L159" t="n">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="M159" t="n">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="N159" t="inlineStr">
         <is>
@@ -11827,7 +11827,7 @@
         </is>
       </c>
       <c r="P159" t="n">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="Q159" t="n">
         <v>1</v>
@@ -11853,7 +11853,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44300</v>
+        <v>44292</v>
       </c>
       <c r="E160" t="n">
         <v>13</v>
@@ -11880,13 +11880,13 @@
         <v>1600</v>
       </c>
       <c r="K160" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="L160" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="M160" t="n">
-        <v>750</v>
+        <v>900</v>
       </c>
       <c r="N160" t="inlineStr">
         <is>
@@ -11899,7 +11899,7 @@
         </is>
       </c>
       <c r="P160" t="n">
-        <v>750</v>
+        <v>900</v>
       </c>
       <c r="Q160" t="n">
         <v>1</v>
@@ -11925,7 +11925,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44392</v>
+        <v>44259</v>
       </c>
       <c r="E161" t="n">
         <v>13</v>
@@ -11949,16 +11949,16 @@
         </is>
       </c>
       <c r="J161" t="n">
-        <v>3400</v>
+        <v>700</v>
       </c>
       <c r="K161" t="n">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="L161" t="n">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="M161" t="n">
-        <v>550</v>
+        <v>1200</v>
       </c>
       <c r="N161" t="inlineStr">
         <is>
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="P161" t="n">
-        <v>550</v>
+        <v>1200</v>
       </c>
       <c r="Q161" t="n">
         <v>1</v>
@@ -11997,7 +11997,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44392</v>
+        <v>44300</v>
       </c>
       <c r="E162" t="n">
         <v>13</v>
@@ -12021,16 +12021,16 @@
         </is>
       </c>
       <c r="J162" t="n">
-        <v>4300</v>
+        <v>1600</v>
       </c>
       <c r="K162" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L162" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M162" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="N162" t="inlineStr">
         <is>
@@ -12039,11 +12039,11 @@
       </c>
       <c r="O162" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P162" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="Q162" t="n">
         <v>1</v>
@@ -12089,20 +12089,20 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J163" t="n">
-        <v>970</v>
+        <v>3400</v>
       </c>
       <c r="K163" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L163" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M163" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="N163" t="inlineStr">
         <is>
@@ -12115,7 +12115,7 @@
         </is>
       </c>
       <c r="P163" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="Q163" t="n">
         <v>1</v>
@@ -12161,20 +12161,20 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J164" t="n">
-        <v>1600</v>
+        <v>4300</v>
       </c>
       <c r="K164" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L164" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M164" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="N164" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         </is>
       </c>
       <c r="P164" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="Q164" t="n">
         <v>1</v>
@@ -12213,7 +12213,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44217</v>
+        <v>44392</v>
       </c>
       <c r="E165" t="n">
         <v>13</v>
@@ -12233,20 +12233,20 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J165" t="n">
-        <v>2700</v>
+        <v>970</v>
       </c>
       <c r="K165" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="L165" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="M165" t="n">
-        <v>956</v>
+        <v>400</v>
       </c>
       <c r="N165" t="inlineStr">
         <is>
@@ -12259,7 +12259,7 @@
         </is>
       </c>
       <c r="P165" t="n">
-        <v>956</v>
+        <v>400</v>
       </c>
       <c r="Q165" t="n">
         <v>1</v>
@@ -12285,7 +12285,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44295</v>
+        <v>44392</v>
       </c>
       <c r="E166" t="n">
         <v>13</v>
@@ -12305,20 +12305,20 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J166" t="n">
         <v>1600</v>
       </c>
       <c r="K166" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="L166" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="M166" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="N166" t="inlineStr">
         <is>
@@ -12327,11 +12327,11 @@
       </c>
       <c r="O166" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P166" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="Q166" t="n">
         <v>1</v>
@@ -12357,7 +12357,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44295</v>
+        <v>44217</v>
       </c>
       <c r="E167" t="n">
         <v>13</v>
@@ -12381,16 +12381,16 @@
         </is>
       </c>
       <c r="J167" t="n">
-        <v>2500</v>
+        <v>2700</v>
       </c>
       <c r="K167" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="L167" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M167" t="n">
-        <v>800</v>
+        <v>956</v>
       </c>
       <c r="N167" t="inlineStr">
         <is>
@@ -12399,11 +12399,11 @@
       </c>
       <c r="O167" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P167" t="n">
-        <v>800</v>
+        <v>956</v>
       </c>
       <c r="Q167" t="n">
         <v>1</v>
@@ -12429,7 +12429,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44362</v>
+        <v>44295</v>
       </c>
       <c r="E168" t="n">
         <v>13</v>
@@ -12453,16 +12453,16 @@
         </is>
       </c>
       <c r="J168" t="n">
-        <v>2500</v>
+        <v>1600</v>
       </c>
       <c r="K168" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="L168" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M168" t="n">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="N168" t="inlineStr">
         <is>
@@ -12475,7 +12475,7 @@
         </is>
       </c>
       <c r="P168" t="n">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="Q168" t="n">
         <v>1</v>
@@ -12501,7 +12501,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44362</v>
+        <v>44295</v>
       </c>
       <c r="E169" t="n">
         <v>13</v>
@@ -12525,16 +12525,16 @@
         </is>
       </c>
       <c r="J169" t="n">
-        <v>3400</v>
+        <v>2500</v>
       </c>
       <c r="K169" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="L169" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M169" t="n">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="N169" t="inlineStr">
         <is>
@@ -12547,7 +12547,7 @@
         </is>
       </c>
       <c r="P169" t="n">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="Q169" t="n">
         <v>1</v>
@@ -12593,20 +12593,20 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J170" t="n">
-        <v>700</v>
+        <v>2500</v>
       </c>
       <c r="K170" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L170" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M170" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="N170" t="inlineStr">
         <is>
@@ -12619,7 +12619,7 @@
         </is>
       </c>
       <c r="P170" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="Q170" t="n">
         <v>1</v>
@@ -12665,20 +12665,20 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J171" t="n">
-        <v>1600</v>
+        <v>3400</v>
       </c>
       <c r="K171" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L171" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M171" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="N171" t="inlineStr">
         <is>
@@ -12691,7 +12691,7 @@
         </is>
       </c>
       <c r="P171" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="Q171" t="n">
         <v>1</v>
@@ -12717,7 +12717,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44249</v>
+        <v>44362</v>
       </c>
       <c r="E172" t="n">
         <v>13</v>
@@ -12737,20 +12737,20 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J172" t="n">
         <v>700</v>
       </c>
       <c r="K172" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="L172" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="M172" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="N172" t="inlineStr">
         <is>
@@ -12763,7 +12763,7 @@
         </is>
       </c>
       <c r="P172" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="Q172" t="n">
         <v>1</v>
@@ -12789,7 +12789,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44309</v>
+        <v>44362</v>
       </c>
       <c r="E173" t="n">
         <v>13</v>
@@ -12809,20 +12809,20 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J173" t="n">
-        <v>2500</v>
+        <v>1600</v>
       </c>
       <c r="K173" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="L173" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="M173" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="N173" t="inlineStr">
         <is>
@@ -12831,11 +12831,11 @@
       </c>
       <c r="O173" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P173" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="Q173" t="n">
         <v>1</v>
@@ -12861,7 +12861,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44309</v>
+        <v>44249</v>
       </c>
       <c r="E174" t="n">
         <v>13</v>
@@ -12881,20 +12881,20 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J174" t="n">
         <v>700</v>
       </c>
       <c r="K174" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="L174" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="M174" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="N174" t="inlineStr">
         <is>
@@ -12907,7 +12907,7 @@
         </is>
       </c>
       <c r="P174" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="Q174" t="n">
         <v>1</v>
@@ -12933,7 +12933,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44384</v>
+        <v>44309</v>
       </c>
       <c r="E175" t="n">
         <v>13</v>
@@ -12960,13 +12960,13 @@
         <v>2500</v>
       </c>
       <c r="K175" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L175" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M175" t="n">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="N175" t="inlineStr">
         <is>
@@ -12975,11 +12975,11 @@
       </c>
       <c r="O175" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P175" t="n">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="Q175" t="n">
         <v>1</v>
@@ -13005,7 +13005,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44384</v>
+        <v>44309</v>
       </c>
       <c r="E176" t="n">
         <v>13</v>
@@ -13029,16 +13029,16 @@
         </is>
       </c>
       <c r="J176" t="n">
-        <v>970</v>
+        <v>700</v>
       </c>
       <c r="K176" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L176" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M176" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N176" t="inlineStr">
         <is>
@@ -13047,11 +13047,11 @@
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P176" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Q176" t="n">
         <v>1</v>
@@ -13077,7 +13077,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44322</v>
+        <v>44384</v>
       </c>
       <c r="E177" t="n">
         <v>13</v>
@@ -13101,16 +13101,16 @@
         </is>
       </c>
       <c r="J177" t="n">
-        <v>1600</v>
+        <v>2500</v>
       </c>
       <c r="K177" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L177" t="n">
         <v>600</v>
       </c>
       <c r="M177" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="N177" t="inlineStr">
         <is>
@@ -13119,11 +13119,11 @@
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P177" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="Q177" t="n">
         <v>1</v>
@@ -13149,7 +13149,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44322</v>
+        <v>44384</v>
       </c>
       <c r="E178" t="n">
         <v>13</v>
@@ -13169,20 +13169,20 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J178" t="n">
-        <v>3400</v>
+        <v>970</v>
       </c>
       <c r="K178" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L178" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M178" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="N178" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         </is>
       </c>
       <c r="P178" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="Q178" t="n">
         <v>1</v>
@@ -13241,20 +13241,20 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J179" t="n">
         <v>1600</v>
       </c>
       <c r="K179" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L179" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M179" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="N179" t="inlineStr">
         <is>
@@ -13263,11 +13263,11 @@
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P179" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="Q179" t="n">
         <v>1</v>
@@ -13293,7 +13293,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44196</v>
+        <v>44322</v>
       </c>
       <c r="E180" t="n">
         <v>13</v>
@@ -13320,13 +13320,13 @@
         <v>3400</v>
       </c>
       <c r="K180" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="L180" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="M180" t="n">
-        <v>950</v>
+        <v>600</v>
       </c>
       <c r="N180" t="inlineStr">
         <is>
@@ -13335,11 +13335,11 @@
       </c>
       <c r="O180" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P180" t="n">
-        <v>950</v>
+        <v>600</v>
       </c>
       <c r="Q180" t="n">
         <v>1</v>
@@ -13365,7 +13365,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44365</v>
+        <v>44322</v>
       </c>
       <c r="E181" t="n">
         <v>13</v>
@@ -13385,20 +13385,20 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J181" t="n">
-        <v>3400</v>
+        <v>1600</v>
       </c>
       <c r="K181" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L181" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M181" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="N181" t="inlineStr">
         <is>
@@ -13407,11 +13407,11 @@
       </c>
       <c r="O181" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P181" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="Q181" t="n">
         <v>1</v>
@@ -13437,7 +13437,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44365</v>
+        <v>44196</v>
       </c>
       <c r="E182" t="n">
         <v>13</v>
@@ -13461,16 +13461,16 @@
         </is>
       </c>
       <c r="J182" t="n">
-        <v>2500</v>
+        <v>3400</v>
       </c>
       <c r="K182" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="L182" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="M182" t="n">
-        <v>550</v>
+        <v>950</v>
       </c>
       <c r="N182" t="inlineStr">
         <is>
@@ -13479,11 +13479,11 @@
       </c>
       <c r="O182" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P182" t="n">
-        <v>550</v>
+        <v>950</v>
       </c>
       <c r="Q182" t="n">
         <v>1</v>
@@ -13529,20 +13529,20 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J183" t="n">
-        <v>1600</v>
+        <v>3400</v>
       </c>
       <c r="K183" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L183" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M183" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="N183" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         </is>
       </c>
       <c r="P183" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="Q183" t="n">
         <v>1</v>
@@ -13601,20 +13601,20 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J184" t="n">
-        <v>970</v>
+        <v>2500</v>
       </c>
       <c r="K184" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L184" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M184" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="N184" t="inlineStr">
         <is>
@@ -13627,7 +13627,7 @@
         </is>
       </c>
       <c r="P184" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="Q184" t="n">
         <v>1</v>
@@ -13653,7 +13653,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44235</v>
+        <v>44365</v>
       </c>
       <c r="E185" t="n">
         <v>13</v>
@@ -13673,20 +13673,20 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J185" t="n">
-        <v>800</v>
+        <v>1600</v>
       </c>
       <c r="K185" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="L185" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="M185" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="N185" t="inlineStr">
         <is>
@@ -13699,7 +13699,7 @@
         </is>
       </c>
       <c r="P185" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="Q185" t="n">
         <v>1</v>
@@ -13725,7 +13725,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44358</v>
+        <v>44365</v>
       </c>
       <c r="E186" t="n">
         <v>13</v>
@@ -13745,20 +13745,20 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J186" t="n">
-        <v>4300</v>
+        <v>970</v>
       </c>
       <c r="K186" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L186" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M186" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="N186" t="inlineStr">
         <is>
@@ -13767,11 +13767,11 @@
       </c>
       <c r="O186" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P186" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="Q186" t="n">
         <v>1</v>
@@ -13797,7 +13797,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44358</v>
+        <v>44235</v>
       </c>
       <c r="E187" t="n">
         <v>13</v>
@@ -13821,16 +13821,16 @@
         </is>
       </c>
       <c r="J187" t="n">
-        <v>3400</v>
+        <v>800</v>
       </c>
       <c r="K187" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="L187" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="M187" t="n">
-        <v>550</v>
+        <v>1000</v>
       </c>
       <c r="N187" t="inlineStr">
         <is>
@@ -13839,11 +13839,11 @@
       </c>
       <c r="O187" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P187" t="n">
-        <v>550</v>
+        <v>1000</v>
       </c>
       <c r="Q187" t="n">
         <v>1</v>
@@ -13889,20 +13889,20 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J188" t="n">
-        <v>2500</v>
+        <v>4300</v>
       </c>
       <c r="K188" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L188" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M188" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="N188" t="inlineStr">
         <is>
@@ -13915,7 +13915,7 @@
         </is>
       </c>
       <c r="P188" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="Q188" t="n">
         <v>1</v>
@@ -13961,20 +13961,20 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J189" t="n">
-        <v>1600</v>
+        <v>3400</v>
       </c>
       <c r="K189" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L189" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M189" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="N189" t="inlineStr">
         <is>
@@ -13987,7 +13987,7 @@
         </is>
       </c>
       <c r="P189" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="Q189" t="n">
         <v>1</v>
@@ -14013,7 +14013,7 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>44218</v>
+        <v>44358</v>
       </c>
       <c r="E190" t="n">
         <v>13</v>
@@ -14033,20 +14033,20 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J190" t="n">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="K190" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="L190" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="M190" t="n">
-        <v>955</v>
+        <v>400</v>
       </c>
       <c r="N190" t="inlineStr">
         <is>
@@ -14059,7 +14059,7 @@
         </is>
       </c>
       <c r="P190" t="n">
-        <v>955</v>
+        <v>400</v>
       </c>
       <c r="Q190" t="n">
         <v>1</v>
@@ -14085,7 +14085,7 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>44433</v>
+        <v>44358</v>
       </c>
       <c r="E191" t="n">
         <v>13</v>
@@ -14105,20 +14105,20 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J191" t="n">
-        <v>3400</v>
+        <v>1600</v>
       </c>
       <c r="K191" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L191" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="M191" t="n">
-        <v>625</v>
+        <v>400</v>
       </c>
       <c r="N191" t="inlineStr">
         <is>
@@ -14127,11 +14127,11 @@
       </c>
       <c r="O191" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P191" t="n">
-        <v>625</v>
+        <v>400</v>
       </c>
       <c r="Q191" t="n">
         <v>1</v>
@@ -14157,7 +14157,7 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>44433</v>
+        <v>44218</v>
       </c>
       <c r="E192" t="n">
         <v>13</v>
@@ -14181,16 +14181,16 @@
         </is>
       </c>
       <c r="J192" t="n">
-        <v>1600</v>
+        <v>2200</v>
       </c>
       <c r="K192" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="L192" t="n">
-        <v>650</v>
+        <v>1000</v>
       </c>
       <c r="M192" t="n">
-        <v>625</v>
+        <v>955</v>
       </c>
       <c r="N192" t="inlineStr">
         <is>
@@ -14199,11 +14199,11 @@
       </c>
       <c r="O192" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P192" t="n">
-        <v>625</v>
+        <v>955</v>
       </c>
       <c r="Q192" t="n">
         <v>1</v>
@@ -14249,20 +14249,20 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J193" t="n">
-        <v>970</v>
+        <v>3400</v>
       </c>
       <c r="K193" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L193" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="M193" t="n">
-        <v>525</v>
+        <v>625</v>
       </c>
       <c r="N193" t="inlineStr">
         <is>
@@ -14275,7 +14275,7 @@
         </is>
       </c>
       <c r="P193" t="n">
-        <v>525</v>
+        <v>625</v>
       </c>
       <c r="Q193" t="n">
         <v>1</v>
@@ -14321,20 +14321,20 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J194" t="n">
-        <v>610</v>
+        <v>1600</v>
       </c>
       <c r="K194" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L194" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="M194" t="n">
-        <v>525</v>
+        <v>625</v>
       </c>
       <c r="N194" t="inlineStr">
         <is>
@@ -14347,7 +14347,7 @@
         </is>
       </c>
       <c r="P194" t="n">
-        <v>525</v>
+        <v>625</v>
       </c>
       <c r="Q194" t="n">
         <v>1</v>
@@ -14373,7 +14373,7 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>44397</v>
+        <v>44433</v>
       </c>
       <c r="E195" t="n">
         <v>13</v>
@@ -14393,20 +14393,20 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J195" t="n">
-        <v>4300</v>
+        <v>970</v>
       </c>
       <c r="K195" t="n">
         <v>500</v>
       </c>
       <c r="L195" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="M195" t="n">
-        <v>550</v>
+        <v>525</v>
       </c>
       <c r="N195" t="inlineStr">
         <is>
@@ -14419,7 +14419,7 @@
         </is>
       </c>
       <c r="P195" t="n">
-        <v>550</v>
+        <v>525</v>
       </c>
       <c r="Q195" t="n">
         <v>1</v>
@@ -14445,7 +14445,7 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>44397</v>
+        <v>44433</v>
       </c>
       <c r="E196" t="n">
         <v>13</v>
@@ -14465,20 +14465,20 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J196" t="n">
-        <v>3400</v>
+        <v>610</v>
       </c>
       <c r="K196" t="n">
         <v>500</v>
       </c>
       <c r="L196" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="M196" t="n">
-        <v>550</v>
+        <v>525</v>
       </c>
       <c r="N196" t="inlineStr">
         <is>
@@ -14491,7 +14491,7 @@
         </is>
       </c>
       <c r="P196" t="n">
-        <v>550</v>
+        <v>525</v>
       </c>
       <c r="Q196" t="n">
         <v>1</v>
@@ -14537,20 +14537,20 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J197" t="n">
-        <v>1600</v>
+        <v>4300</v>
       </c>
       <c r="K197" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L197" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M197" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="N197" t="inlineStr">
         <is>
@@ -14563,7 +14563,7 @@
         </is>
       </c>
       <c r="P197" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="Q197" t="n">
         <v>1</v>
@@ -14609,20 +14609,20 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J198" t="n">
-        <v>970</v>
+        <v>3400</v>
       </c>
       <c r="K198" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L198" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M198" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="N198" t="inlineStr">
         <is>
@@ -14635,7 +14635,7 @@
         </is>
       </c>
       <c r="P198" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="Q198" t="n">
         <v>1</v>
@@ -14661,7 +14661,7 @@
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>44274</v>
+        <v>44397</v>
       </c>
       <c r="E199" t="n">
         <v>13</v>
@@ -14681,20 +14681,20 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J199" t="n">
         <v>1600</v>
       </c>
       <c r="K199" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="L199" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="M199" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="N199" t="inlineStr">
         <is>
@@ -14707,7 +14707,7 @@
         </is>
       </c>
       <c r="P199" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="Q199" t="n">
         <v>1</v>
@@ -14733,7 +14733,7 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>44321</v>
+        <v>44397</v>
       </c>
       <c r="E200" t="n">
         <v>13</v>
@@ -14753,20 +14753,20 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J200" t="n">
-        <v>2500</v>
+        <v>970</v>
       </c>
       <c r="K200" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L200" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M200" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="N200" t="inlineStr">
         <is>
@@ -14775,11 +14775,11 @@
       </c>
       <c r="O200" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P200" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="Q200" t="n">
         <v>1</v>
@@ -14805,7 +14805,7 @@
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>44321</v>
+        <v>44274</v>
       </c>
       <c r="E201" t="n">
         <v>13</v>
@@ -14832,13 +14832,13 @@
         <v>1600</v>
       </c>
       <c r="K201" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="L201" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="M201" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="N201" t="inlineStr">
         <is>
@@ -14847,11 +14847,11 @@
       </c>
       <c r="O201" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P201" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="Q201" t="n">
         <v>1</v>
@@ -14877,7 +14877,7 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>44335</v>
+        <v>44321</v>
       </c>
       <c r="E202" t="n">
         <v>13</v>
@@ -14901,16 +14901,16 @@
         </is>
       </c>
       <c r="J202" t="n">
-        <v>3400</v>
+        <v>2500</v>
       </c>
       <c r="K202" t="n">
         <v>600</v>
       </c>
       <c r="L202" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M202" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="N202" t="inlineStr">
         <is>
@@ -14923,7 +14923,7 @@
         </is>
       </c>
       <c r="P202" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="Q202" t="n">
         <v>1</v>
@@ -14949,7 +14949,7 @@
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>44335</v>
+        <v>44321</v>
       </c>
       <c r="E203" t="n">
         <v>13</v>
@@ -14973,16 +14973,16 @@
         </is>
       </c>
       <c r="J203" t="n">
-        <v>2500</v>
+        <v>1600</v>
       </c>
       <c r="K203" t="n">
         <v>600</v>
       </c>
       <c r="L203" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M203" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="N203" t="inlineStr">
         <is>
@@ -14995,7 +14995,7 @@
         </is>
       </c>
       <c r="P203" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="Q203" t="n">
         <v>1</v>
@@ -15041,20 +15041,20 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J204" t="n">
-        <v>1600</v>
+        <v>3400</v>
       </c>
       <c r="K204" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L204" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M204" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="N204" t="inlineStr">
         <is>
@@ -15067,7 +15067,7 @@
         </is>
       </c>
       <c r="P204" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="Q204" t="n">
         <v>1</v>
@@ -15113,20 +15113,20 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J205" t="n">
+        <v>2500</v>
+      </c>
+      <c r="K205" t="n">
+        <v>600</v>
+      </c>
+      <c r="L205" t="n">
         <v>700</v>
       </c>
-      <c r="K205" t="n">
-        <v>500</v>
-      </c>
-      <c r="L205" t="n">
-        <v>500</v>
-      </c>
       <c r="M205" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="N205" t="inlineStr">
         <is>
@@ -15139,7 +15139,7 @@
         </is>
       </c>
       <c r="P205" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="Q205" t="n">
         <v>1</v>
@@ -15165,7 +15165,7 @@
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>44426</v>
+        <v>44335</v>
       </c>
       <c r="E206" t="n">
         <v>13</v>
@@ -15185,20 +15185,20 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J206" t="n">
-        <v>3400</v>
+        <v>1600</v>
       </c>
       <c r="K206" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L206" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M206" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="N206" t="inlineStr">
         <is>
@@ -15211,7 +15211,7 @@
         </is>
       </c>
       <c r="P206" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="Q206" t="n">
         <v>1</v>
@@ -15237,7 +15237,7 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>44426</v>
+        <v>44335</v>
       </c>
       <c r="E207" t="n">
         <v>13</v>
@@ -15261,16 +15261,16 @@
         </is>
       </c>
       <c r="J207" t="n">
-        <v>970</v>
+        <v>700</v>
       </c>
       <c r="K207" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L207" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M207" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N207" t="inlineStr">
         <is>
@@ -15279,11 +15279,11 @@
       </c>
       <c r="O207" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P207" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Q207" t="n">
         <v>1</v>
@@ -15309,7 +15309,7 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>44421</v>
+        <v>44426</v>
       </c>
       <c r="E208" t="n">
         <v>13</v>
@@ -15381,7 +15381,7 @@
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>44421</v>
+        <v>44426</v>
       </c>
       <c r="E209" t="n">
         <v>13</v>
@@ -15401,20 +15401,20 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J209" t="n">
-        <v>4300</v>
+        <v>970</v>
       </c>
       <c r="K209" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L209" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="M209" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="N209" t="inlineStr">
         <is>
@@ -15423,11 +15423,11 @@
       </c>
       <c r="O209" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P209" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="Q209" t="n">
         <v>1</v>
@@ -15473,20 +15473,20 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J210" t="n">
-        <v>1600</v>
+        <v>3400</v>
       </c>
       <c r="K210" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L210" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M210" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="N210" t="inlineStr">
         <is>
@@ -15499,7 +15499,7 @@
         </is>
       </c>
       <c r="P210" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="Q210" t="n">
         <v>1</v>
@@ -15545,20 +15545,20 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J211" t="n">
-        <v>2500</v>
+        <v>4300</v>
       </c>
       <c r="K211" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L211" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M211" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="N211" t="inlineStr">
         <is>
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="P211" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="Q211" t="n">
         <v>1</v>
@@ -15597,7 +15597,7 @@
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>44434</v>
+        <v>44421</v>
       </c>
       <c r="E212" t="n">
         <v>13</v>
@@ -15617,20 +15617,20 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J212" t="n">
-        <v>3400</v>
+        <v>1600</v>
       </c>
       <c r="K212" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L212" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="M212" t="n">
-        <v>625</v>
+        <v>500</v>
       </c>
       <c r="N212" t="inlineStr">
         <is>
@@ -15643,7 +15643,7 @@
         </is>
       </c>
       <c r="P212" t="n">
-        <v>625</v>
+        <v>500</v>
       </c>
       <c r="Q212" t="n">
         <v>1</v>
@@ -15669,7 +15669,7 @@
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>44434</v>
+        <v>44421</v>
       </c>
       <c r="E213" t="n">
         <v>13</v>
@@ -15689,20 +15689,20 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J213" t="n">
-        <v>4300</v>
+        <v>2500</v>
       </c>
       <c r="K213" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L213" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="M213" t="n">
-        <v>625</v>
+        <v>500</v>
       </c>
       <c r="N213" t="inlineStr">
         <is>
@@ -15715,7 +15715,7 @@
         </is>
       </c>
       <c r="P213" t="n">
-        <v>625</v>
+        <v>500</v>
       </c>
       <c r="Q213" t="n">
         <v>1</v>
@@ -15761,20 +15761,20 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J214" t="n">
-        <v>970</v>
+        <v>3400</v>
       </c>
       <c r="K214" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L214" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="M214" t="n">
-        <v>525</v>
+        <v>625</v>
       </c>
       <c r="N214" t="inlineStr">
         <is>
@@ -15787,7 +15787,7 @@
         </is>
       </c>
       <c r="P214" t="n">
-        <v>525</v>
+        <v>625</v>
       </c>
       <c r="Q214" t="n">
         <v>1</v>
@@ -15833,20 +15833,20 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J215" t="n">
-        <v>1600</v>
+        <v>4300</v>
       </c>
       <c r="K215" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L215" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="M215" t="n">
-        <v>525</v>
+        <v>625</v>
       </c>
       <c r="N215" t="inlineStr">
         <is>
@@ -15859,7 +15859,7 @@
         </is>
       </c>
       <c r="P215" t="n">
-        <v>525</v>
+        <v>625</v>
       </c>
       <c r="Q215" t="n">
         <v>1</v>
@@ -15885,7 +15885,7 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>44215</v>
+        <v>44434</v>
       </c>
       <c r="E216" t="n">
         <v>13</v>
@@ -15905,20 +15905,20 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J216" t="n">
-        <v>2000</v>
+        <v>970</v>
       </c>
       <c r="K216" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="L216" t="n">
-        <v>1000</v>
+        <v>550</v>
       </c>
       <c r="M216" t="n">
-        <v>950</v>
+        <v>525</v>
       </c>
       <c r="N216" t="inlineStr">
         <is>
@@ -15927,11 +15927,11 @@
       </c>
       <c r="O216" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P216" t="n">
-        <v>950</v>
+        <v>525</v>
       </c>
       <c r="Q216" t="n">
         <v>1</v>
@@ -15957,7 +15957,7 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44194</v>
+        <v>44434</v>
       </c>
       <c r="E217" t="n">
         <v>13</v>
@@ -15977,20 +15977,20 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J217" t="n">
-        <v>3400</v>
+        <v>1600</v>
       </c>
       <c r="K217" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="L217" t="n">
-        <v>1000</v>
+        <v>550</v>
       </c>
       <c r="M217" t="n">
-        <v>950</v>
+        <v>525</v>
       </c>
       <c r="N217" t="inlineStr">
         <is>
@@ -15999,11 +15999,11 @@
       </c>
       <c r="O217" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P217" t="n">
-        <v>950</v>
+        <v>525</v>
       </c>
       <c r="Q217" t="n">
         <v>1</v>
@@ -16029,7 +16029,7 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>44398</v>
+        <v>44215</v>
       </c>
       <c r="E218" t="n">
         <v>13</v>
@@ -16053,16 +16053,16 @@
         </is>
       </c>
       <c r="J218" t="n">
-        <v>3400</v>
+        <v>2000</v>
       </c>
       <c r="K218" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="L218" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="M218" t="n">
-        <v>550</v>
+        <v>950</v>
       </c>
       <c r="N218" t="inlineStr">
         <is>
@@ -16071,11 +16071,11 @@
       </c>
       <c r="O218" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P218" t="n">
-        <v>550</v>
+        <v>950</v>
       </c>
       <c r="Q218" t="n">
         <v>1</v>
@@ -16101,7 +16101,7 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>44398</v>
+        <v>44194</v>
       </c>
       <c r="E219" t="n">
         <v>13</v>
@@ -16121,20 +16121,20 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J219" t="n">
-        <v>970</v>
+        <v>3400</v>
       </c>
       <c r="K219" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="L219" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="M219" t="n">
-        <v>400</v>
+        <v>950</v>
       </c>
       <c r="N219" t="inlineStr">
         <is>
@@ -16147,7 +16147,7 @@
         </is>
       </c>
       <c r="P219" t="n">
-        <v>400</v>
+        <v>950</v>
       </c>
       <c r="Q219" t="n">
         <v>1</v>
@@ -16173,7 +16173,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44420</v>
+        <v>44398</v>
       </c>
       <c r="E220" t="n">
         <v>13</v>
@@ -16197,16 +16197,16 @@
         </is>
       </c>
       <c r="J220" t="n">
-        <v>4300</v>
+        <v>3400</v>
       </c>
       <c r="K220" t="n">
+        <v>500</v>
+      </c>
+      <c r="L220" t="n">
         <v>600</v>
       </c>
-      <c r="L220" t="n">
-        <v>700</v>
-      </c>
       <c r="M220" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="N220" t="inlineStr">
         <is>
@@ -16219,7 +16219,7 @@
         </is>
       </c>
       <c r="P220" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="Q220" t="n">
         <v>1</v>
@@ -16245,7 +16245,7 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44420</v>
+        <v>44398</v>
       </c>
       <c r="E221" t="n">
         <v>13</v>
@@ -16265,20 +16265,20 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J221" t="n">
-        <v>3400</v>
+        <v>970</v>
       </c>
       <c r="K221" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L221" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="M221" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="N221" t="inlineStr">
         <is>
@@ -16287,11 +16287,11 @@
       </c>
       <c r="O221" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P221" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="Q221" t="n">
         <v>1</v>
@@ -16337,20 +16337,20 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J222" t="n">
-        <v>1600</v>
+        <v>4300</v>
       </c>
       <c r="K222" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L222" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M222" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="N222" t="inlineStr">
         <is>
@@ -16363,7 +16363,7 @@
         </is>
       </c>
       <c r="P222" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="Q222" t="n">
         <v>1</v>
@@ -16409,20 +16409,20 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J223" t="n">
-        <v>970</v>
+        <v>3400</v>
       </c>
       <c r="K223" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L223" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M223" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="N223" t="inlineStr">
         <is>
@@ -16435,7 +16435,7 @@
         </is>
       </c>
       <c r="P223" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="Q223" t="n">
         <v>1</v>
@@ -16461,7 +16461,7 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>44264</v>
+        <v>44420</v>
       </c>
       <c r="E224" t="n">
         <v>13</v>
@@ -16481,20 +16481,20 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J224" t="n">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="K224" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="L224" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="M224" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="N224" t="inlineStr">
         <is>
@@ -16507,7 +16507,7 @@
         </is>
       </c>
       <c r="P224" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="Q224" t="n">
         <v>1</v>
@@ -16533,7 +16533,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44348</v>
+        <v>44420</v>
       </c>
       <c r="E225" t="n">
         <v>13</v>
@@ -16553,20 +16553,20 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J225" t="n">
-        <v>3500</v>
+        <v>970</v>
       </c>
       <c r="K225" t="n">
         <v>500</v>
       </c>
       <c r="L225" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M225" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="N225" t="inlineStr">
         <is>
@@ -16575,11 +16575,11 @@
       </c>
       <c r="O225" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P225" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="Q225" t="n">
         <v>1</v>
@@ -16605,7 +16605,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44348</v>
+        <v>44264</v>
       </c>
       <c r="E226" t="n">
         <v>13</v>
@@ -16629,16 +16629,16 @@
         </is>
       </c>
       <c r="J226" t="n">
-        <v>2800</v>
+        <v>1000</v>
       </c>
       <c r="K226" t="n">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="L226" t="n">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="M226" t="n">
-        <v>550</v>
+        <v>1200</v>
       </c>
       <c r="N226" t="inlineStr">
         <is>
@@ -16647,11 +16647,11 @@
       </c>
       <c r="O226" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P226" t="n">
-        <v>550</v>
+        <v>1200</v>
       </c>
       <c r="Q226" t="n">
         <v>1</v>
@@ -16697,20 +16697,20 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J227" t="n">
-        <v>1300</v>
+        <v>3500</v>
       </c>
       <c r="K227" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L227" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M227" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="N227" t="inlineStr">
         <is>
@@ -16723,7 +16723,7 @@
         </is>
       </c>
       <c r="P227" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="Q227" t="n">
         <v>1</v>
@@ -16769,20 +16769,20 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J228" t="n">
-        <v>1200</v>
+        <v>2800</v>
       </c>
       <c r="K228" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L228" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M228" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="N228" t="inlineStr">
         <is>
@@ -16795,7 +16795,7 @@
         </is>
       </c>
       <c r="P228" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="Q228" t="n">
         <v>1</v>
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44316</v>
+        <v>44348</v>
       </c>
       <c r="E229" t="n">
         <v>13</v>
@@ -16841,20 +16841,20 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J229" t="n">
-        <v>3400</v>
+        <v>1300</v>
       </c>
       <c r="K229" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L229" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="M229" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="N229" t="inlineStr">
         <is>
@@ -16867,7 +16867,7 @@
         </is>
       </c>
       <c r="P229" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="Q229" t="n">
         <v>1</v>
@@ -16893,7 +16893,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44316</v>
+        <v>44348</v>
       </c>
       <c r="E230" t="n">
         <v>13</v>
@@ -16917,16 +16917,16 @@
         </is>
       </c>
       <c r="J230" t="n">
-        <v>1600</v>
+        <v>1200</v>
       </c>
       <c r="K230" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L230" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M230" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="N230" t="inlineStr">
         <is>
@@ -16935,11 +16935,11 @@
       </c>
       <c r="O230" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P230" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="Q230" t="n">
         <v>1</v>
@@ -16965,7 +16965,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44427</v>
+        <v>44316</v>
       </c>
       <c r="E231" t="n">
         <v>13</v>
@@ -16989,7 +16989,7 @@
         </is>
       </c>
       <c r="J231" t="n">
-        <v>4300</v>
+        <v>3400</v>
       </c>
       <c r="K231" t="n">
         <v>600</v>
@@ -17037,7 +17037,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44427</v>
+        <v>44316</v>
       </c>
       <c r="E232" t="n">
         <v>13</v>
@@ -17064,13 +17064,13 @@
         <v>1600</v>
       </c>
       <c r="K232" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L232" t="n">
         <v>500</v>
       </c>
       <c r="M232" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="N232" t="inlineStr">
         <is>
@@ -17083,7 +17083,7 @@
         </is>
       </c>
       <c r="P232" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="Q232" t="n">
         <v>1</v>
@@ -17109,7 +17109,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44341</v>
+        <v>44427</v>
       </c>
       <c r="E233" t="n">
         <v>13</v>
@@ -17133,16 +17133,16 @@
         </is>
       </c>
       <c r="J233" t="n">
-        <v>7600</v>
+        <v>4300</v>
       </c>
       <c r="K233" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L233" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M233" t="n">
-        <v>551</v>
+        <v>650</v>
       </c>
       <c r="N233" t="inlineStr">
         <is>
@@ -17155,7 +17155,7 @@
         </is>
       </c>
       <c r="P233" t="n">
-        <v>551</v>
+        <v>650</v>
       </c>
       <c r="Q233" t="n">
         <v>1</v>
@@ -17181,7 +17181,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44341</v>
+        <v>44427</v>
       </c>
       <c r="E234" t="n">
         <v>13</v>
@@ -17201,20 +17201,20 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J234" t="n">
-        <v>3500</v>
+        <v>1600</v>
       </c>
       <c r="K234" t="n">
+        <v>400</v>
+      </c>
+      <c r="L234" t="n">
         <v>500</v>
       </c>
-      <c r="L234" t="n">
-        <v>600</v>
-      </c>
       <c r="M234" t="n">
-        <v>551</v>
+        <v>450</v>
       </c>
       <c r="N234" t="inlineStr">
         <is>
@@ -17223,11 +17223,11 @@
       </c>
       <c r="O234" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P234" t="n">
-        <v>551</v>
+        <v>450</v>
       </c>
       <c r="Q234" t="n">
         <v>1</v>
@@ -17253,7 +17253,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44414</v>
+        <v>44341</v>
       </c>
       <c r="E235" t="n">
         <v>13</v>
@@ -17277,16 +17277,16 @@
         </is>
       </c>
       <c r="J235" t="n">
-        <v>4300</v>
+        <v>7600</v>
       </c>
       <c r="K235" t="n">
+        <v>500</v>
+      </c>
+      <c r="L235" t="n">
         <v>600</v>
       </c>
-      <c r="L235" t="n">
-        <v>700</v>
-      </c>
       <c r="M235" t="n">
-        <v>650</v>
+        <v>551</v>
       </c>
       <c r="N235" t="inlineStr">
         <is>
@@ -17299,7 +17299,7 @@
         </is>
       </c>
       <c r="P235" t="n">
-        <v>650</v>
+        <v>551</v>
       </c>
       <c r="Q235" t="n">
         <v>1</v>
@@ -17325,7 +17325,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44414</v>
+        <v>44341</v>
       </c>
       <c r="E236" t="n">
         <v>13</v>
@@ -17349,16 +17349,16 @@
         </is>
       </c>
       <c r="J236" t="n">
-        <v>5200</v>
+        <v>3500</v>
       </c>
       <c r="K236" t="n">
+        <v>500</v>
+      </c>
+      <c r="L236" t="n">
         <v>600</v>
       </c>
-      <c r="L236" t="n">
-        <v>700</v>
-      </c>
       <c r="M236" t="n">
-        <v>650</v>
+        <v>551</v>
       </c>
       <c r="N236" t="inlineStr">
         <is>
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="P236" t="n">
-        <v>650</v>
+        <v>551</v>
       </c>
       <c r="Q236" t="n">
         <v>1</v>
@@ -17417,20 +17417,20 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J237" t="n">
-        <v>1600</v>
+        <v>4300</v>
       </c>
       <c r="K237" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L237" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M237" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="N237" t="inlineStr">
         <is>
@@ -17443,7 +17443,7 @@
         </is>
       </c>
       <c r="P237" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="Q237" t="n">
         <v>1</v>
@@ -17489,20 +17489,20 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J238" t="n">
-        <v>2500</v>
+        <v>5200</v>
       </c>
       <c r="K238" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L238" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M238" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="N238" t="inlineStr">
         <is>
@@ -17515,7 +17515,7 @@
         </is>
       </c>
       <c r="P238" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="Q238" t="n">
         <v>1</v>
@@ -17541,7 +17541,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44301</v>
+        <v>44414</v>
       </c>
       <c r="E239" t="n">
         <v>13</v>
@@ -17561,20 +17561,20 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J239" t="n">
         <v>1600</v>
       </c>
       <c r="K239" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L239" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M239" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="N239" t="inlineStr">
         <is>
@@ -17587,7 +17587,7 @@
         </is>
       </c>
       <c r="P239" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="Q239" t="n">
         <v>1</v>
@@ -17613,7 +17613,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44176</v>
+        <v>44414</v>
       </c>
       <c r="E240" t="n">
         <v>13</v>
@@ -17633,20 +17633,20 @@
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J240" t="n">
-        <v>5200</v>
+        <v>2500</v>
       </c>
       <c r="K240" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L240" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M240" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="N240" t="inlineStr">
         <is>
@@ -17655,11 +17655,11 @@
       </c>
       <c r="O240" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P240" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="Q240" t="n">
         <v>1</v>
@@ -17685,7 +17685,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44417</v>
+        <v>44301</v>
       </c>
       <c r="E241" t="n">
         <v>13</v>
@@ -17712,13 +17712,13 @@
         <v>1600</v>
       </c>
       <c r="K241" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L241" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M241" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="N241" t="inlineStr">
         <is>
@@ -17731,7 +17731,7 @@
         </is>
       </c>
       <c r="P241" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q241" t="n">
         <v>1</v>
@@ -17757,7 +17757,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44441</v>
+        <v>44176</v>
       </c>
       <c r="E242" t="n">
         <v>13</v>
@@ -17781,16 +17781,16 @@
         </is>
       </c>
       <c r="J242" t="n">
-        <v>3400</v>
+        <v>5200</v>
       </c>
       <c r="K242" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L242" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="M242" t="n">
-        <v>625</v>
+        <v>750</v>
       </c>
       <c r="N242" t="inlineStr">
         <is>
@@ -17803,7 +17803,7 @@
         </is>
       </c>
       <c r="P242" t="n">
-        <v>625</v>
+        <v>750</v>
       </c>
       <c r="Q242" t="n">
         <v>1</v>
@@ -17829,7 +17829,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44441</v>
+        <v>44417</v>
       </c>
       <c r="E243" t="n">
         <v>13</v>
@@ -17853,17 +17853,17 @@
         </is>
       </c>
       <c r="J243" t="n">
-        <v>2500</v>
+        <v>1600</v>
       </c>
       <c r="K243" t="n">
         <v>600</v>
       </c>
       <c r="L243" t="n">
+        <v>700</v>
+      </c>
+      <c r="M243" t="n">
         <v>650</v>
       </c>
-      <c r="M243" t="n">
-        <v>625</v>
-      </c>
       <c r="N243" t="inlineStr">
         <is>
           <t>$/unidad</t>
@@ -17871,11 +17871,11 @@
       </c>
       <c r="O243" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P243" t="n">
-        <v>625</v>
+        <v>650</v>
       </c>
       <c r="Q243" t="n">
         <v>1</v>
@@ -17921,20 +17921,20 @@
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J244" t="n">
-        <v>970</v>
+        <v>3400</v>
       </c>
       <c r="K244" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L244" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="M244" t="n">
-        <v>525</v>
+        <v>625</v>
       </c>
       <c r="N244" t="inlineStr">
         <is>
@@ -17947,7 +17947,7 @@
         </is>
       </c>
       <c r="P244" t="n">
-        <v>525</v>
+        <v>625</v>
       </c>
       <c r="Q244" t="n">
         <v>1</v>
@@ -17993,20 +17993,20 @@
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J245" t="n">
-        <v>790</v>
+        <v>2500</v>
       </c>
       <c r="K245" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L245" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="M245" t="n">
-        <v>525</v>
+        <v>625</v>
       </c>
       <c r="N245" t="inlineStr">
         <is>
@@ -18019,7 +18019,7 @@
         </is>
       </c>
       <c r="P245" t="n">
-        <v>525</v>
+        <v>625</v>
       </c>
       <c r="Q245" t="n">
         <v>1</v>
@@ -18045,7 +18045,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44237</v>
+        <v>44441</v>
       </c>
       <c r="E246" t="n">
         <v>13</v>
@@ -18065,20 +18065,20 @@
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J246" t="n">
-        <v>1800</v>
+        <v>970</v>
       </c>
       <c r="K246" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="L246" t="n">
-        <v>1000</v>
+        <v>550</v>
       </c>
       <c r="M246" t="n">
-        <v>1000</v>
+        <v>525</v>
       </c>
       <c r="N246" t="inlineStr">
         <is>
@@ -18091,7 +18091,7 @@
         </is>
       </c>
       <c r="P246" t="n">
-        <v>1000</v>
+        <v>525</v>
       </c>
       <c r="Q246" t="n">
         <v>1</v>
@@ -18117,7 +18117,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44432</v>
+        <v>44441</v>
       </c>
       <c r="E247" t="n">
         <v>13</v>
@@ -18137,20 +18137,20 @@
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J247" t="n">
-        <v>4300</v>
+        <v>790</v>
       </c>
       <c r="K247" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="L247" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="M247" t="n">
-        <v>675</v>
+        <v>525</v>
       </c>
       <c r="N247" t="inlineStr">
         <is>
@@ -18159,11 +18159,11 @@
       </c>
       <c r="O247" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P247" t="n">
-        <v>675</v>
+        <v>525</v>
       </c>
       <c r="Q247" t="n">
         <v>1</v>
@@ -18189,7 +18189,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44432</v>
+        <v>44237</v>
       </c>
       <c r="E248" t="n">
         <v>13</v>
@@ -18213,16 +18213,16 @@
         </is>
       </c>
       <c r="J248" t="n">
-        <v>3400</v>
+        <v>1800</v>
       </c>
       <c r="K248" t="n">
-        <v>650</v>
+        <v>1000</v>
       </c>
       <c r="L248" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="M248" t="n">
-        <v>675</v>
+        <v>1000</v>
       </c>
       <c r="N248" t="inlineStr">
         <is>
@@ -18231,11 +18231,11 @@
       </c>
       <c r="O248" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P248" t="n">
-        <v>675</v>
+        <v>1000</v>
       </c>
       <c r="Q248" t="n">
         <v>1</v>
@@ -18281,20 +18281,20 @@
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J249" t="n">
-        <v>1600</v>
+        <v>4300</v>
       </c>
       <c r="K249" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="L249" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M249" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="N249" t="inlineStr">
         <is>
@@ -18307,7 +18307,7 @@
         </is>
       </c>
       <c r="P249" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="Q249" t="n">
         <v>1</v>
@@ -18353,20 +18353,20 @@
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J250" t="n">
-        <v>970</v>
+        <v>3400</v>
       </c>
       <c r="K250" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="L250" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M250" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="N250" t="inlineStr">
         <is>
@@ -18379,7 +18379,7 @@
         </is>
       </c>
       <c r="P250" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="Q250" t="n">
         <v>1</v>
@@ -18405,7 +18405,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44351</v>
+        <v>44432</v>
       </c>
       <c r="E251" t="n">
         <v>13</v>
@@ -18425,20 +18425,20 @@
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J251" t="n">
-        <v>3400</v>
+        <v>1600</v>
       </c>
       <c r="K251" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L251" t="n">
         <v>600</v>
       </c>
       <c r="M251" t="n">
-        <v>550</v>
+        <v>575</v>
       </c>
       <c r="N251" t="inlineStr">
         <is>
@@ -18451,7 +18451,7 @@
         </is>
       </c>
       <c r="P251" t="n">
-        <v>550</v>
+        <v>575</v>
       </c>
       <c r="Q251" t="n">
         <v>1</v>
@@ -18477,7 +18477,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44351</v>
+        <v>44432</v>
       </c>
       <c r="E252" t="n">
         <v>13</v>
@@ -18497,20 +18497,20 @@
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J252" t="n">
-        <v>4300</v>
+        <v>970</v>
       </c>
       <c r="K252" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L252" t="n">
         <v>600</v>
       </c>
       <c r="M252" t="n">
-        <v>550</v>
+        <v>575</v>
       </c>
       <c r="N252" t="inlineStr">
         <is>
@@ -18523,7 +18523,7 @@
         </is>
       </c>
       <c r="P252" t="n">
-        <v>550</v>
+        <v>575</v>
       </c>
       <c r="Q252" t="n">
         <v>1</v>
@@ -18569,20 +18569,20 @@
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J253" t="n">
-        <v>1600</v>
+        <v>3400</v>
       </c>
       <c r="K253" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L253" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M253" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="N253" t="inlineStr">
         <is>
@@ -18595,7 +18595,7 @@
         </is>
       </c>
       <c r="P253" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="Q253" t="n">
         <v>1</v>
@@ -18641,20 +18641,20 @@
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J254" t="n">
-        <v>2500</v>
+        <v>4300</v>
       </c>
       <c r="K254" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L254" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M254" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="N254" t="inlineStr">
         <is>
@@ -18667,7 +18667,7 @@
         </is>
       </c>
       <c r="P254" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="Q254" t="n">
         <v>1</v>
@@ -18693,7 +18693,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44369</v>
+        <v>44351</v>
       </c>
       <c r="E255" t="n">
         <v>13</v>
@@ -18713,20 +18713,20 @@
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J255" t="n">
-        <v>3400</v>
+        <v>1600</v>
       </c>
       <c r="K255" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L255" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M255" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="N255" t="inlineStr">
         <is>
@@ -18739,7 +18739,7 @@
         </is>
       </c>
       <c r="P255" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="Q255" t="n">
         <v>1</v>
@@ -18765,7 +18765,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44369</v>
+        <v>44351</v>
       </c>
       <c r="E256" t="n">
         <v>13</v>
@@ -18785,20 +18785,20 @@
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J256" t="n">
         <v>2500</v>
       </c>
       <c r="K256" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L256" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M256" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="N256" t="inlineStr">
         <is>
@@ -18811,7 +18811,7 @@
         </is>
       </c>
       <c r="P256" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="Q256" t="n">
         <v>1</v>
@@ -18857,20 +18857,20 @@
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J257" t="n">
-        <v>1600</v>
+        <v>3400</v>
       </c>
       <c r="K257" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L257" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M257" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="N257" t="inlineStr">
         <is>
@@ -18883,7 +18883,7 @@
         </is>
       </c>
       <c r="P257" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="Q257" t="n">
         <v>1</v>
@@ -18929,20 +18929,20 @@
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J258" t="n">
-        <v>700</v>
+        <v>2500</v>
       </c>
       <c r="K258" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L258" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M258" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="N258" t="inlineStr">
         <is>
@@ -18955,7 +18955,7 @@
         </is>
       </c>
       <c r="P258" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="Q258" t="n">
         <v>1</v>
@@ -18981,7 +18981,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44257</v>
+        <v>44369</v>
       </c>
       <c r="E259" t="n">
         <v>13</v>
@@ -19001,20 +19001,20 @@
       </c>
       <c r="I259" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J259" t="n">
-        <v>700</v>
+        <v>1600</v>
       </c>
       <c r="K259" t="n">
-        <v>1200</v>
+        <v>400</v>
       </c>
       <c r="L259" t="n">
-        <v>1200</v>
+        <v>400</v>
       </c>
       <c r="M259" t="n">
-        <v>1200</v>
+        <v>400</v>
       </c>
       <c r="N259" t="inlineStr">
         <is>
@@ -19027,7 +19027,7 @@
         </is>
       </c>
       <c r="P259" t="n">
-        <v>1200</v>
+        <v>400</v>
       </c>
       <c r="Q259" t="n">
         <v>1</v>
@@ -19053,7 +19053,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44273</v>
+        <v>44369</v>
       </c>
       <c r="E260" t="n">
         <v>13</v>
@@ -19073,20 +19073,20 @@
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J260" t="n">
-        <v>1600</v>
+        <v>700</v>
       </c>
       <c r="K260" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="L260" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="M260" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="N260" t="inlineStr">
         <is>
@@ -19095,11 +19095,11 @@
       </c>
       <c r="O260" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P260" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="Q260" t="n">
         <v>1</v>
@@ -19125,7 +19125,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44342</v>
+        <v>44257</v>
       </c>
       <c r="E261" t="n">
         <v>13</v>
@@ -19149,16 +19149,16 @@
         </is>
       </c>
       <c r="J261" t="n">
-        <v>2400</v>
+        <v>700</v>
       </c>
       <c r="K261" t="n">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="L261" t="n">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="M261" t="n">
-        <v>550</v>
+        <v>1200</v>
       </c>
       <c r="N261" t="inlineStr">
         <is>
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="P261" t="n">
-        <v>550</v>
+        <v>1200</v>
       </c>
       <c r="Q261" t="n">
         <v>1</v>
@@ -19197,7 +19197,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44342</v>
+        <v>44273</v>
       </c>
       <c r="E262" t="n">
         <v>13</v>
@@ -19221,16 +19221,16 @@
         </is>
       </c>
       <c r="J262" t="n">
-        <v>2800</v>
+        <v>1600</v>
       </c>
       <c r="K262" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="L262" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="M262" t="n">
-        <v>550</v>
+        <v>1000</v>
       </c>
       <c r="N262" t="inlineStr">
         <is>
@@ -19239,11 +19239,11 @@
       </c>
       <c r="O262" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P262" t="n">
-        <v>550</v>
+        <v>1000</v>
       </c>
       <c r="Q262" t="n">
         <v>1</v>
@@ -19269,7 +19269,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44294</v>
+        <v>44342</v>
       </c>
       <c r="E263" t="n">
         <v>13</v>
@@ -19293,16 +19293,16 @@
         </is>
       </c>
       <c r="J263" t="n">
-        <v>1600</v>
+        <v>2400</v>
       </c>
       <c r="K263" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="L263" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M263" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="N263" t="inlineStr">
         <is>
@@ -19315,7 +19315,7 @@
         </is>
       </c>
       <c r="P263" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="Q263" t="n">
         <v>1</v>
@@ -19341,7 +19341,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44294</v>
+        <v>44342</v>
       </c>
       <c r="E264" t="n">
         <v>13</v>
@@ -19365,16 +19365,16 @@
         </is>
       </c>
       <c r="J264" t="n">
-        <v>1600</v>
+        <v>2800</v>
       </c>
       <c r="K264" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="L264" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="M264" t="n">
-        <v>900</v>
+        <v>550</v>
       </c>
       <c r="N264" t="inlineStr">
         <is>
@@ -19387,7 +19387,7 @@
         </is>
       </c>
       <c r="P264" t="n">
-        <v>900</v>
+        <v>550</v>
       </c>
       <c r="Q264" t="n">
         <v>1</v>
@@ -19413,7 +19413,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44379</v>
+        <v>44294</v>
       </c>
       <c r="E265" t="n">
         <v>13</v>
@@ -19437,16 +19437,16 @@
         </is>
       </c>
       <c r="J265" t="n">
-        <v>2500</v>
+        <v>1600</v>
       </c>
       <c r="K265" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="L265" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M265" t="n">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="N265" t="inlineStr">
         <is>
@@ -19455,11 +19455,11 @@
       </c>
       <c r="O265" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P265" t="n">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="Q265" t="n">
         <v>1</v>
@@ -19485,7 +19485,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44379</v>
+        <v>44294</v>
       </c>
       <c r="E266" t="n">
         <v>13</v>
@@ -19505,20 +19505,20 @@
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J266" t="n">
-        <v>970</v>
+        <v>1600</v>
       </c>
       <c r="K266" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="L266" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="M266" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="N266" t="inlineStr">
         <is>
@@ -19531,7 +19531,7 @@
         </is>
       </c>
       <c r="P266" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="Q266" t="n">
         <v>1</v>
@@ -19557,7 +19557,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44302</v>
+        <v>44379</v>
       </c>
       <c r="E267" t="n">
         <v>13</v>
@@ -19581,16 +19581,16 @@
         </is>
       </c>
       <c r="J267" t="n">
-        <v>1600</v>
+        <v>2500</v>
       </c>
       <c r="K267" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L267" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M267" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="N267" t="inlineStr">
         <is>
@@ -19599,11 +19599,11 @@
       </c>
       <c r="O267" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P267" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="Q267" t="n">
         <v>1</v>
@@ -19629,7 +19629,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44315</v>
+        <v>44379</v>
       </c>
       <c r="E268" t="n">
         <v>13</v>
@@ -19649,20 +19649,20 @@
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J268" t="n">
-        <v>2500</v>
+        <v>970</v>
       </c>
       <c r="K268" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L268" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="M268" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="N268" t="inlineStr">
         <is>
@@ -19671,11 +19671,11 @@
       </c>
       <c r="O268" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P268" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="Q268" t="n">
         <v>1</v>
@@ -19701,7 +19701,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44315</v>
+        <v>44302</v>
       </c>
       <c r="E269" t="n">
         <v>13</v>
@@ -19728,13 +19728,13 @@
         <v>1600</v>
       </c>
       <c r="K269" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L269" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M269" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="N269" t="inlineStr">
         <is>
@@ -19743,11 +19743,11 @@
       </c>
       <c r="O269" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P269" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="Q269" t="n">
         <v>1</v>
@@ -19773,7 +19773,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44391</v>
+        <v>44315</v>
       </c>
       <c r="E270" t="n">
         <v>13</v>
@@ -19797,16 +19797,16 @@
         </is>
       </c>
       <c r="J270" t="n">
-        <v>1600</v>
+        <v>2500</v>
       </c>
       <c r="K270" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L270" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M270" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="N270" t="inlineStr">
         <is>
@@ -19819,7 +19819,7 @@
         </is>
       </c>
       <c r="P270" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="Q270" t="n">
         <v>1</v>
@@ -19845,7 +19845,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44391</v>
+        <v>44315</v>
       </c>
       <c r="E271" t="n">
         <v>13</v>
@@ -19869,16 +19869,16 @@
         </is>
       </c>
       <c r="J271" t="n">
-        <v>2500</v>
+        <v>1600</v>
       </c>
       <c r="K271" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L271" t="n">
         <v>600</v>
       </c>
       <c r="M271" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="N271" t="inlineStr">
         <is>
@@ -19891,7 +19891,7 @@
         </is>
       </c>
       <c r="P271" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="Q271" t="n">
         <v>1</v>
@@ -19937,20 +19937,20 @@
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J272" t="n">
-        <v>520</v>
+        <v>1600</v>
       </c>
       <c r="K272" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L272" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M272" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="N272" t="inlineStr">
         <is>
@@ -19963,7 +19963,7 @@
         </is>
       </c>
       <c r="P272" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="Q272" t="n">
         <v>1</v>
@@ -20009,20 +20009,20 @@
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J273" t="n">
-        <v>970</v>
+        <v>2500</v>
       </c>
       <c r="K273" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L273" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M273" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="N273" t="inlineStr">
         <is>
@@ -20035,7 +20035,7 @@
         </is>
       </c>
       <c r="P273" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="Q273" t="n">
         <v>1</v>
@@ -20061,7 +20061,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44446</v>
+        <v>44391</v>
       </c>
       <c r="E274" t="n">
         <v>13</v>
@@ -20081,20 +20081,20 @@
       </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J274" t="n">
-        <v>3400</v>
+        <v>520</v>
       </c>
       <c r="K274" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L274" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="M274" t="n">
-        <v>625</v>
+        <v>400</v>
       </c>
       <c r="N274" t="inlineStr">
         <is>
@@ -20107,7 +20107,7 @@
         </is>
       </c>
       <c r="P274" t="n">
-        <v>625</v>
+        <v>400</v>
       </c>
       <c r="Q274" t="n">
         <v>1</v>
@@ -20133,7 +20133,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44446</v>
+        <v>44391</v>
       </c>
       <c r="E275" t="n">
         <v>13</v>
@@ -20153,20 +20153,20 @@
       </c>
       <c r="I275" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J275" t="n">
-        <v>4300</v>
+        <v>970</v>
       </c>
       <c r="K275" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L275" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="M275" t="n">
-        <v>625</v>
+        <v>400</v>
       </c>
       <c r="N275" t="inlineStr">
         <is>
@@ -20179,7 +20179,7 @@
         </is>
       </c>
       <c r="P275" t="n">
-        <v>625</v>
+        <v>400</v>
       </c>
       <c r="Q275" t="n">
         <v>1</v>
@@ -20225,20 +20225,20 @@
       </c>
       <c r="I276" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J276" t="n">
-        <v>1060</v>
+        <v>3400</v>
       </c>
       <c r="K276" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="L276" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="M276" t="n">
-        <v>475</v>
+        <v>625</v>
       </c>
       <c r="N276" t="inlineStr">
         <is>
@@ -20251,7 +20251,7 @@
         </is>
       </c>
       <c r="P276" t="n">
-        <v>475</v>
+        <v>625</v>
       </c>
       <c r="Q276" t="n">
         <v>1</v>
@@ -20297,20 +20297,20 @@
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J277" t="n">
-        <v>1960</v>
+        <v>4300</v>
       </c>
       <c r="K277" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="L277" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="M277" t="n">
-        <v>475</v>
+        <v>625</v>
       </c>
       <c r="N277" t="inlineStr">
         <is>
@@ -20323,7 +20323,7 @@
         </is>
       </c>
       <c r="P277" t="n">
-        <v>475</v>
+        <v>625</v>
       </c>
       <c r="Q277" t="n">
         <v>1</v>
@@ -20349,7 +20349,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44411</v>
+        <v>44446</v>
       </c>
       <c r="E278" t="n">
         <v>13</v>
@@ -20369,20 +20369,20 @@
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J278" t="n">
-        <v>3400</v>
+        <v>1060</v>
       </c>
       <c r="K278" t="n">
+        <v>450</v>
+      </c>
+      <c r="L278" t="n">
         <v>500</v>
       </c>
-      <c r="L278" t="n">
-        <v>600</v>
-      </c>
       <c r="M278" t="n">
-        <v>550</v>
+        <v>475</v>
       </c>
       <c r="N278" t="inlineStr">
         <is>
@@ -20395,7 +20395,7 @@
         </is>
       </c>
       <c r="P278" t="n">
-        <v>550</v>
+        <v>475</v>
       </c>
       <c r="Q278" t="n">
         <v>1</v>
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44411</v>
+        <v>44446</v>
       </c>
       <c r="E279" t="n">
         <v>13</v>
@@ -20441,20 +20441,20 @@
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J279" t="n">
-        <v>2500</v>
+        <v>1960</v>
       </c>
       <c r="K279" t="n">
+        <v>450</v>
+      </c>
+      <c r="L279" t="n">
         <v>500</v>
       </c>
-      <c r="L279" t="n">
-        <v>600</v>
-      </c>
       <c r="M279" t="n">
-        <v>550</v>
+        <v>475</v>
       </c>
       <c r="N279" t="inlineStr">
         <is>
@@ -20467,7 +20467,7 @@
         </is>
       </c>
       <c r="P279" t="n">
-        <v>550</v>
+        <v>475</v>
       </c>
       <c r="Q279" t="n">
         <v>1</v>
@@ -20513,20 +20513,20 @@
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J280" t="n">
-        <v>970</v>
+        <v>3400</v>
       </c>
       <c r="K280" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L280" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M280" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="N280" t="inlineStr">
         <is>
@@ -20539,7 +20539,7 @@
         </is>
       </c>
       <c r="P280" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="Q280" t="n">
         <v>1</v>
@@ -20585,20 +20585,20 @@
       </c>
       <c r="I281" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J281" t="n">
-        <v>790</v>
+        <v>2500</v>
       </c>
       <c r="K281" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L281" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M281" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="N281" t="inlineStr">
         <is>
@@ -20611,7 +20611,7 @@
         </is>
       </c>
       <c r="P281" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="Q281" t="n">
         <v>1</v>
@@ -20637,7 +20637,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44313</v>
+        <v>44411</v>
       </c>
       <c r="E282" t="n">
         <v>13</v>
@@ -20657,20 +20657,20 @@
       </c>
       <c r="I282" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J282" t="n">
-        <v>1420</v>
+        <v>970</v>
       </c>
       <c r="K282" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="L282" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="M282" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="N282" t="inlineStr">
         <is>
@@ -20683,7 +20683,7 @@
         </is>
       </c>
       <c r="P282" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="Q282" t="n">
         <v>1</v>
@@ -20709,7 +20709,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44329</v>
+        <v>44411</v>
       </c>
       <c r="E283" t="n">
         <v>13</v>
@@ -20729,20 +20729,20 @@
       </c>
       <c r="I283" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J283" t="n">
-        <v>2500</v>
+        <v>790</v>
       </c>
       <c r="K283" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="L283" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="M283" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="N283" t="inlineStr">
         <is>
@@ -20751,11 +20751,11 @@
       </c>
       <c r="O283" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P283" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="Q283" t="n">
         <v>1</v>
@@ -20781,7 +20781,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44329</v>
+        <v>44313</v>
       </c>
       <c r="E284" t="n">
         <v>13</v>
@@ -20805,7 +20805,7 @@
         </is>
       </c>
       <c r="J284" t="n">
-        <v>3400</v>
+        <v>1420</v>
       </c>
       <c r="K284" t="n">
         <v>700</v>
@@ -20823,7 +20823,7 @@
       </c>
       <c r="O284" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P284" t="n">
@@ -20873,20 +20873,20 @@
       </c>
       <c r="I285" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J285" t="n">
+        <v>2500</v>
+      </c>
+      <c r="K285" t="n">
         <v>700</v>
       </c>
-      <c r="K285" t="n">
-        <v>500</v>
-      </c>
       <c r="L285" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M285" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="N285" t="inlineStr">
         <is>
@@ -20899,7 +20899,7 @@
         </is>
       </c>
       <c r="P285" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="Q285" t="n">
         <v>1</v>
@@ -20945,20 +20945,20 @@
       </c>
       <c r="I286" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J286" t="n">
+        <v>3400</v>
+      </c>
+      <c r="K286" t="n">
         <v>700</v>
       </c>
-      <c r="K286" t="n">
-        <v>500</v>
-      </c>
       <c r="L286" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M286" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="N286" t="inlineStr">
         <is>
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="P286" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="Q286" t="n">
         <v>1</v>
@@ -20997,7 +20997,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44161</v>
+        <v>44329</v>
       </c>
       <c r="E287" t="n">
         <v>13</v>
@@ -21017,20 +21017,20 @@
       </c>
       <c r="I287" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J287" t="n">
-        <v>4500</v>
+        <v>700</v>
       </c>
       <c r="K287" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L287" t="n">
         <v>500</v>
       </c>
       <c r="M287" t="n">
-        <v>456</v>
+        <v>500</v>
       </c>
       <c r="N287" t="inlineStr">
         <is>
@@ -21039,11 +21039,11 @@
       </c>
       <c r="O287" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P287" t="n">
-        <v>456</v>
+        <v>500</v>
       </c>
       <c r="Q287" t="n">
         <v>1</v>
@@ -21069,7 +21069,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44438</v>
+        <v>44329</v>
       </c>
       <c r="E288" t="n">
         <v>13</v>
@@ -21089,20 +21089,20 @@
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J288" t="n">
-        <v>1600</v>
+        <v>700</v>
       </c>
       <c r="K288" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L288" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="M288" t="n">
-        <v>625</v>
+        <v>500</v>
       </c>
       <c r="N288" t="inlineStr">
         <is>
@@ -21111,11 +21111,11 @@
       </c>
       <c r="O288" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P288" t="n">
-        <v>625</v>
+        <v>500</v>
       </c>
       <c r="Q288" t="n">
         <v>1</v>
@@ -21141,7 +21141,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E289" t="n">
         <v>13</v>
@@ -21161,20 +21161,20 @@
       </c>
       <c r="I289" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J289" t="n">
-        <v>610</v>
+        <v>4500</v>
       </c>
       <c r="K289" t="n">
+        <v>400</v>
+      </c>
+      <c r="L289" t="n">
         <v>500</v>
       </c>
-      <c r="L289" t="n">
-        <v>550</v>
-      </c>
       <c r="M289" t="n">
-        <v>525</v>
+        <v>456</v>
       </c>
       <c r="N289" t="inlineStr">
         <is>
@@ -21183,11 +21183,11 @@
       </c>
       <c r="O289" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P289" t="n">
-        <v>525</v>
+        <v>456</v>
       </c>
       <c r="Q289" t="n">
         <v>1</v>
@@ -21213,7 +21213,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44428</v>
+        <v>44438</v>
       </c>
       <c r="E290" t="n">
         <v>13</v>
@@ -21237,16 +21237,16 @@
         </is>
       </c>
       <c r="J290" t="n">
-        <v>3400</v>
+        <v>1600</v>
       </c>
       <c r="K290" t="n">
         <v>600</v>
       </c>
       <c r="L290" t="n">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="M290" t="n">
-        <v>650</v>
+        <v>625</v>
       </c>
       <c r="N290" t="inlineStr">
         <is>
@@ -21259,7 +21259,7 @@
         </is>
       </c>
       <c r="P290" t="n">
-        <v>650</v>
+        <v>625</v>
       </c>
       <c r="Q290" t="n">
         <v>1</v>
@@ -21285,7 +21285,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44428</v>
+        <v>44438</v>
       </c>
       <c r="E291" t="n">
         <v>13</v>
@@ -21305,20 +21305,20 @@
       </c>
       <c r="I291" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J291" t="n">
-        <v>4300</v>
+        <v>610</v>
       </c>
       <c r="K291" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L291" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="M291" t="n">
-        <v>650</v>
+        <v>525</v>
       </c>
       <c r="N291" t="inlineStr">
         <is>
@@ -21327,11 +21327,11 @@
       </c>
       <c r="O291" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P291" t="n">
-        <v>650</v>
+        <v>525</v>
       </c>
       <c r="Q291" t="n">
         <v>1</v>
@@ -21377,20 +21377,20 @@
       </c>
       <c r="I292" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J292" t="n">
-        <v>970</v>
+        <v>3400</v>
       </c>
       <c r="K292" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L292" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M292" t="n">
-        <v>451</v>
+        <v>650</v>
       </c>
       <c r="N292" t="inlineStr">
         <is>
@@ -21403,7 +21403,7 @@
         </is>
       </c>
       <c r="P292" t="n">
-        <v>451</v>
+        <v>650</v>
       </c>
       <c r="Q292" t="n">
         <v>1</v>
@@ -21449,20 +21449,20 @@
       </c>
       <c r="I293" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J293" t="n">
-        <v>1060</v>
+        <v>4300</v>
       </c>
       <c r="K293" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L293" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M293" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="N293" t="inlineStr">
         <is>
@@ -21475,7 +21475,7 @@
         </is>
       </c>
       <c r="P293" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="Q293" t="n">
         <v>1</v>
@@ -21501,7 +21501,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E294" t="n">
         <v>13</v>
@@ -21521,20 +21521,20 @@
       </c>
       <c r="I294" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J294" t="n">
-        <v>3400</v>
+        <v>970</v>
       </c>
       <c r="K294" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="L294" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M294" t="n">
-        <v>575</v>
+        <v>451</v>
       </c>
       <c r="N294" t="inlineStr">
         <is>
@@ -21547,7 +21547,7 @@
         </is>
       </c>
       <c r="P294" t="n">
-        <v>575</v>
+        <v>451</v>
       </c>
       <c r="Q294" t="n">
         <v>1</v>
@@ -21573,7 +21573,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E295" t="n">
         <v>13</v>
@@ -21593,20 +21593,20 @@
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J295" t="n">
-        <v>4300</v>
+        <v>1060</v>
       </c>
       <c r="K295" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="L295" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M295" t="n">
-        <v>575</v>
+        <v>450</v>
       </c>
       <c r="N295" t="inlineStr">
         <is>
@@ -21619,7 +21619,7 @@
         </is>
       </c>
       <c r="P295" t="n">
-        <v>575</v>
+        <v>450</v>
       </c>
       <c r="Q295" t="n">
         <v>1</v>
@@ -21665,20 +21665,20 @@
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J296" t="n">
-        <v>1330</v>
+        <v>3400</v>
       </c>
       <c r="K296" t="n">
-        <v>450</v>
+        <v>550</v>
       </c>
       <c r="L296" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M296" t="n">
-        <v>475</v>
+        <v>575</v>
       </c>
       <c r="N296" t="inlineStr">
         <is>
@@ -21691,7 +21691,7 @@
         </is>
       </c>
       <c r="P296" t="n">
-        <v>475</v>
+        <v>575</v>
       </c>
       <c r="Q296" t="n">
         <v>1</v>
@@ -21737,20 +21737,20 @@
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J297" t="n">
-        <v>1500</v>
+        <v>4300</v>
       </c>
       <c r="K297" t="n">
-        <v>450</v>
+        <v>550</v>
       </c>
       <c r="L297" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M297" t="n">
-        <v>475</v>
+        <v>575</v>
       </c>
       <c r="N297" t="inlineStr">
         <is>
@@ -21763,7 +21763,7 @@
         </is>
       </c>
       <c r="P297" t="n">
-        <v>475</v>
+        <v>575</v>
       </c>
       <c r="Q297" t="n">
         <v>1</v>
@@ -21789,7 +21789,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E298" t="n">
         <v>13</v>
@@ -21809,20 +21809,20 @@
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J298" t="n">
-        <v>18800</v>
+        <v>1330</v>
       </c>
       <c r="K298" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="L298" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M298" t="n">
-        <v>636</v>
+        <v>475</v>
       </c>
       <c r="N298" t="inlineStr">
         <is>
@@ -21835,7 +21835,7 @@
         </is>
       </c>
       <c r="P298" t="n">
-        <v>636</v>
+        <v>475</v>
       </c>
       <c r="Q298" t="n">
         <v>1</v>
@@ -21861,7 +21861,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E299" t="n">
         <v>13</v>
@@ -21881,20 +21881,20 @@
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J299" t="n">
-        <v>13600</v>
+        <v>1500</v>
       </c>
       <c r="K299" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="L299" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M299" t="n">
-        <v>638</v>
+        <v>475</v>
       </c>
       <c r="N299" t="inlineStr">
         <is>
@@ -21907,7 +21907,7 @@
         </is>
       </c>
       <c r="P299" t="n">
-        <v>638</v>
+        <v>475</v>
       </c>
       <c r="Q299" t="n">
         <v>1</v>
@@ -21953,20 +21953,20 @@
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J300" t="n">
-        <v>7550</v>
+        <v>18800</v>
       </c>
       <c r="K300" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L300" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M300" t="n">
-        <v>530</v>
+        <v>636</v>
       </c>
       <c r="N300" t="inlineStr">
         <is>
@@ -21979,7 +21979,7 @@
         </is>
       </c>
       <c r="P300" t="n">
-        <v>530</v>
+        <v>636</v>
       </c>
       <c r="Q300" t="n">
         <v>1</v>
@@ -22025,20 +22025,20 @@
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J301" t="n">
-        <v>5680</v>
+        <v>13600</v>
       </c>
       <c r="K301" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L301" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M301" t="n">
-        <v>534</v>
+        <v>638</v>
       </c>
       <c r="N301" t="inlineStr">
         <is>
@@ -22051,7 +22051,7 @@
         </is>
       </c>
       <c r="P301" t="n">
-        <v>534</v>
+        <v>638</v>
       </c>
       <c r="Q301" t="n">
         <v>1</v>
@@ -22077,7 +22077,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E302" t="n">
         <v>13</v>
@@ -22097,20 +22097,20 @@
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J302" t="n">
-        <v>1600</v>
+        <v>7550</v>
       </c>
       <c r="K302" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="L302" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M302" t="n">
-        <v>700</v>
+        <v>530</v>
       </c>
       <c r="N302" t="inlineStr">
         <is>
@@ -22123,7 +22123,7 @@
         </is>
       </c>
       <c r="P302" t="n">
-        <v>700</v>
+        <v>530</v>
       </c>
       <c r="Q302" t="n">
         <v>1</v>
@@ -22149,7 +22149,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44175</v>
+        <v>44435</v>
       </c>
       <c r="E303" t="n">
         <v>13</v>
@@ -22169,20 +22169,20 @@
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J303" t="n">
-        <v>5200</v>
+        <v>5680</v>
       </c>
       <c r="K303" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="L303" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="M303" t="n">
-        <v>850</v>
+        <v>534</v>
       </c>
       <c r="N303" t="inlineStr">
         <is>
@@ -22191,11 +22191,11 @@
       </c>
       <c r="O303" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P303" t="n">
-        <v>850</v>
+        <v>534</v>
       </c>
       <c r="Q303" t="n">
         <v>1</v>
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44376</v>
+        <v>44319</v>
       </c>
       <c r="E304" t="n">
         <v>13</v>
@@ -22245,16 +22245,16 @@
         </is>
       </c>
       <c r="J304" t="n">
-        <v>3400</v>
+        <v>1600</v>
       </c>
       <c r="K304" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L304" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M304" t="n">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="N304" t="inlineStr">
         <is>
@@ -22267,7 +22267,7 @@
         </is>
       </c>
       <c r="P304" t="n">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="Q304" t="n">
         <v>1</v>
@@ -22293,7 +22293,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44376</v>
+        <v>44175</v>
       </c>
       <c r="E305" t="n">
         <v>13</v>
@@ -22317,16 +22317,16 @@
         </is>
       </c>
       <c r="J305" t="n">
-        <v>2500</v>
+        <v>5200</v>
       </c>
       <c r="K305" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="L305" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="M305" t="n">
-        <v>550</v>
+        <v>850</v>
       </c>
       <c r="N305" t="inlineStr">
         <is>
@@ -22335,11 +22335,11 @@
       </c>
       <c r="O305" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P305" t="n">
-        <v>550</v>
+        <v>850</v>
       </c>
       <c r="Q305" t="n">
         <v>1</v>
@@ -22385,20 +22385,20 @@
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J306" t="n">
-        <v>1600</v>
+        <v>3400</v>
       </c>
       <c r="K306" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L306" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M306" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="N306" t="inlineStr">
         <is>
@@ -22411,7 +22411,7 @@
         </is>
       </c>
       <c r="P306" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="Q306" t="n">
         <v>1</v>
@@ -22457,20 +22457,20 @@
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J307" t="n">
-        <v>970</v>
+        <v>2500</v>
       </c>
       <c r="K307" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L307" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M307" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="N307" t="inlineStr">
         <is>
@@ -22483,7 +22483,7 @@
         </is>
       </c>
       <c r="P307" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="Q307" t="n">
         <v>1</v>
@@ -22509,7 +22509,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44412</v>
+        <v>44376</v>
       </c>
       <c r="E308" t="n">
         <v>13</v>
@@ -22529,20 +22529,20 @@
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J308" t="n">
-        <v>2500</v>
+        <v>1600</v>
       </c>
       <c r="K308" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L308" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="M308" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="N308" t="inlineStr">
         <is>
@@ -22555,7 +22555,7 @@
         </is>
       </c>
       <c r="P308" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="Q308" t="n">
         <v>1</v>
@@ -22581,7 +22581,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44412</v>
+        <v>44376</v>
       </c>
       <c r="E309" t="n">
         <v>13</v>
@@ -22601,20 +22601,20 @@
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J309" t="n">
-        <v>1600</v>
+        <v>970</v>
       </c>
       <c r="K309" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L309" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="M309" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="N309" t="inlineStr">
         <is>
@@ -22627,7 +22627,7 @@
         </is>
       </c>
       <c r="P309" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="Q309" t="n">
         <v>1</v>
@@ -22673,20 +22673,20 @@
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J310" t="n">
-        <v>970</v>
+        <v>2500</v>
       </c>
       <c r="K310" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L310" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M310" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="N310" t="inlineStr">
         <is>
@@ -22699,7 +22699,7 @@
         </is>
       </c>
       <c r="P310" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="Q310" t="n">
         <v>1</v>
@@ -22745,20 +22745,20 @@
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J311" t="n">
-        <v>790</v>
+        <v>1600</v>
       </c>
       <c r="K311" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L311" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M311" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="N311" t="inlineStr">
         <is>
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="P311" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="Q311" t="n">
         <v>1</v>
@@ -22797,7 +22797,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44314</v>
+        <v>44412</v>
       </c>
       <c r="E312" t="n">
         <v>13</v>
@@ -22817,20 +22817,20 @@
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J312" t="n">
-        <v>2500</v>
+        <v>970</v>
       </c>
       <c r="K312" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L312" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M312" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N312" t="inlineStr">
         <is>
@@ -22839,11 +22839,11 @@
       </c>
       <c r="O312" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P312" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q312" t="n">
         <v>1</v>
@@ -22869,7 +22869,7 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>44167</v>
+        <v>44412</v>
       </c>
       <c r="E313" t="n">
         <v>13</v>
@@ -22889,20 +22889,20 @@
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J313" t="n">
-        <v>3500</v>
+        <v>790</v>
       </c>
       <c r="K313" t="n">
         <v>500</v>
       </c>
       <c r="L313" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M313" t="n">
-        <v>543</v>
+        <v>500</v>
       </c>
       <c r="N313" t="inlineStr">
         <is>
@@ -22911,11 +22911,11 @@
       </c>
       <c r="O313" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P313" t="n">
-        <v>543</v>
+        <v>500</v>
       </c>
       <c r="Q313" t="n">
         <v>1</v>
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>44399</v>
+        <v>44314</v>
       </c>
       <c r="E314" t="n">
         <v>13</v>
@@ -22965,16 +22965,16 @@
         </is>
       </c>
       <c r="J314" t="n">
-        <v>4300</v>
+        <v>2500</v>
       </c>
       <c r="K314" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L314" t="n">
         <v>600</v>
       </c>
       <c r="M314" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="N314" t="inlineStr">
         <is>
@@ -22983,11 +22983,11 @@
       </c>
       <c r="O314" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P314" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="Q314" t="n">
         <v>1</v>
@@ -23013,7 +23013,7 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>44399</v>
+        <v>44167</v>
       </c>
       <c r="E315" t="n">
         <v>13</v>
@@ -23037,7 +23037,7 @@
         </is>
       </c>
       <c r="J315" t="n">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="K315" t="n">
         <v>500</v>
@@ -23046,7 +23046,7 @@
         <v>600</v>
       </c>
       <c r="M315" t="n">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="N315" t="inlineStr">
         <is>
@@ -23055,11 +23055,11 @@
       </c>
       <c r="O315" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P315" t="n">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="Q315" t="n">
         <v>1</v>
@@ -23105,20 +23105,20 @@
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J316" t="n">
-        <v>1600</v>
+        <v>4300</v>
       </c>
       <c r="K316" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L316" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M316" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="N316" t="inlineStr">
         <is>
@@ -23131,7 +23131,7 @@
         </is>
       </c>
       <c r="P316" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="Q316" t="n">
         <v>1</v>
@@ -23177,20 +23177,20 @@
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J317" t="n">
-        <v>970</v>
+        <v>3400</v>
       </c>
       <c r="K317" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L317" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M317" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="N317" t="inlineStr">
         <is>
@@ -23203,7 +23203,7 @@
         </is>
       </c>
       <c r="P317" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="Q317" t="n">
         <v>1</v>
@@ -23229,7 +23229,7 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E318" t="n">
         <v>13</v>
@@ -23249,20 +23249,20 @@
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J318" t="n">
-        <v>4300</v>
+        <v>1600</v>
       </c>
       <c r="K318" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L318" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M318" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="N318" t="inlineStr">
         <is>
@@ -23275,7 +23275,7 @@
         </is>
       </c>
       <c r="P318" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="Q318" t="n">
         <v>1</v>
@@ -23301,7 +23301,7 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E319" t="n">
         <v>13</v>
@@ -23321,20 +23321,20 @@
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J319" t="n">
-        <v>3400</v>
+        <v>970</v>
       </c>
       <c r="K319" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L319" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M319" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="N319" t="inlineStr">
         <is>
@@ -23347,7 +23347,7 @@
         </is>
       </c>
       <c r="P319" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="Q319" t="n">
         <v>1</v>
@@ -23393,20 +23393,20 @@
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J320" t="n">
-        <v>1600</v>
+        <v>4300</v>
       </c>
       <c r="K320" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L320" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M320" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="N320" t="inlineStr">
         <is>
@@ -23419,7 +23419,7 @@
         </is>
       </c>
       <c r="P320" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="Q320" t="n">
         <v>1</v>
@@ -23465,38 +23465,182 @@
       </c>
       <c r="I321" t="inlineStr">
         <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J321" t="n">
+        <v>3400</v>
+      </c>
+      <c r="K321" t="n">
+        <v>500</v>
+      </c>
+      <c r="L321" t="n">
+        <v>600</v>
+      </c>
+      <c r="M321" t="n">
+        <v>550</v>
+      </c>
+      <c r="N321" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O321" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P321" t="n">
+        <v>550</v>
+      </c>
+      <c r="Q321" t="n">
+        <v>1</v>
+      </c>
+      <c r="R321" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="n">
+        <v>9</v>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D322" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E322" t="n">
+        <v>13</v>
+      </c>
+      <c r="F322" t="n">
+        <v>100112008</v>
+      </c>
+      <c r="G322" t="inlineStr">
+        <is>
+          <t>Coliflor</t>
+        </is>
+      </c>
+      <c r="H322" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I322" t="inlineStr">
+        <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J321" t="n">
+      <c r="J322" t="n">
+        <v>1600</v>
+      </c>
+      <c r="K322" t="n">
+        <v>400</v>
+      </c>
+      <c r="L322" t="n">
+        <v>400</v>
+      </c>
+      <c r="M322" t="n">
+        <v>400</v>
+      </c>
+      <c r="N322" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O322" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P322" t="n">
+        <v>400</v>
+      </c>
+      <c r="Q322" t="n">
+        <v>1</v>
+      </c>
+      <c r="R322" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="n">
+        <v>9</v>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D323" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E323" t="n">
+        <v>13</v>
+      </c>
+      <c r="F323" t="n">
+        <v>100112008</v>
+      </c>
+      <c r="G323" t="inlineStr">
+        <is>
+          <t>Coliflor</t>
+        </is>
+      </c>
+      <c r="H323" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I323" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J323" t="n">
         <v>970</v>
       </c>
-      <c r="K321" t="n">
-        <v>400</v>
-      </c>
-      <c r="L321" t="n">
-        <v>400</v>
-      </c>
-      <c r="M321" t="n">
-        <v>400</v>
-      </c>
-      <c r="N321" t="inlineStr">
-        <is>
-          <t>$/unidad</t>
-        </is>
-      </c>
-      <c r="O321" t="inlineStr">
+      <c r="K323" t="n">
+        <v>400</v>
+      </c>
+      <c r="L323" t="n">
+        <v>400</v>
+      </c>
+      <c r="M323" t="n">
+        <v>400</v>
+      </c>
+      <c r="N323" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O323" t="inlineStr">
         <is>
           <t>Región de O'Higgins</t>
         </is>
       </c>
-      <c r="P321" t="n">
-        <v>400</v>
-      </c>
-      <c r="Q321" t="n">
-        <v>1</v>
-      </c>
-      <c r="R321" t="inlineStr">
+      <c r="P323" t="n">
+        <v>400</v>
+      </c>
+      <c r="Q323" t="n">
+        <v>1</v>
+      </c>
+      <c r="R323" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Coliflor.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Coliflor.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R323"/>
+  <dimension ref="A1:R327"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23013,7 +23013,7 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E315" t="n">
         <v>13</v>
@@ -23037,16 +23037,16 @@
         </is>
       </c>
       <c r="J315" t="n">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="K315" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L315" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="M315" t="n">
-        <v>543</v>
+        <v>625</v>
       </c>
       <c r="N315" t="inlineStr">
         <is>
@@ -23059,7 +23059,7 @@
         </is>
       </c>
       <c r="P315" t="n">
-        <v>543</v>
+        <v>625</v>
       </c>
       <c r="Q315" t="n">
         <v>1</v>
@@ -23085,7 +23085,7 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>44399</v>
+        <v>44448</v>
       </c>
       <c r="E316" t="n">
         <v>13</v>
@@ -23112,13 +23112,13 @@
         <v>4300</v>
       </c>
       <c r="K316" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L316" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="M316" t="n">
-        <v>550</v>
+        <v>625</v>
       </c>
       <c r="N316" t="inlineStr">
         <is>
@@ -23127,11 +23127,11 @@
       </c>
       <c r="O316" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P316" t="n">
-        <v>550</v>
+        <v>625</v>
       </c>
       <c r="Q316" t="n">
         <v>1</v>
@@ -23157,7 +23157,7 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>44399</v>
+        <v>44448</v>
       </c>
       <c r="E317" t="n">
         <v>13</v>
@@ -23177,20 +23177,20 @@
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J317" t="n">
-        <v>3400</v>
+        <v>970</v>
       </c>
       <c r="K317" t="n">
+        <v>450</v>
+      </c>
+      <c r="L317" t="n">
         <v>500</v>
       </c>
-      <c r="L317" t="n">
-        <v>600</v>
-      </c>
       <c r="M317" t="n">
-        <v>550</v>
+        <v>475</v>
       </c>
       <c r="N317" t="inlineStr">
         <is>
@@ -23199,11 +23199,11 @@
       </c>
       <c r="O317" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P317" t="n">
-        <v>550</v>
+        <v>475</v>
       </c>
       <c r="Q317" t="n">
         <v>1</v>
@@ -23229,7 +23229,7 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>44399</v>
+        <v>44448</v>
       </c>
       <c r="E318" t="n">
         <v>13</v>
@@ -23256,13 +23256,13 @@
         <v>1600</v>
       </c>
       <c r="K318" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="L318" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M318" t="n">
-        <v>400</v>
+        <v>475</v>
       </c>
       <c r="N318" t="inlineStr">
         <is>
@@ -23271,11 +23271,11 @@
       </c>
       <c r="O318" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P318" t="n">
-        <v>400</v>
+        <v>475</v>
       </c>
       <c r="Q318" t="n">
         <v>1</v>
@@ -23301,7 +23301,7 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>44399</v>
+        <v>44167</v>
       </c>
       <c r="E319" t="n">
         <v>13</v>
@@ -23321,20 +23321,20 @@
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J319" t="n">
-        <v>970</v>
+        <v>3500</v>
       </c>
       <c r="K319" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L319" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M319" t="n">
-        <v>400</v>
+        <v>543</v>
       </c>
       <c r="N319" t="inlineStr">
         <is>
@@ -23343,11 +23343,11 @@
       </c>
       <c r="O319" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P319" t="n">
-        <v>400</v>
+        <v>543</v>
       </c>
       <c r="Q319" t="n">
         <v>1</v>
@@ -23373,7 +23373,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E320" t="n">
         <v>13</v>
@@ -23445,7 +23445,7 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E321" t="n">
         <v>13</v>
@@ -23517,7 +23517,7 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E322" t="n">
         <v>13</v>
@@ -23589,7 +23589,7 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E323" t="n">
         <v>13</v>
@@ -23641,6 +23641,294 @@
         <v>1</v>
       </c>
       <c r="R323" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="n">
+        <v>9</v>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D324" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E324" t="n">
+        <v>13</v>
+      </c>
+      <c r="F324" t="n">
+        <v>100112008</v>
+      </c>
+      <c r="G324" t="inlineStr">
+        <is>
+          <t>Coliflor</t>
+        </is>
+      </c>
+      <c r="H324" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I324" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J324" t="n">
+        <v>4300</v>
+      </c>
+      <c r="K324" t="n">
+        <v>500</v>
+      </c>
+      <c r="L324" t="n">
+        <v>600</v>
+      </c>
+      <c r="M324" t="n">
+        <v>550</v>
+      </c>
+      <c r="N324" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O324" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P324" t="n">
+        <v>550</v>
+      </c>
+      <c r="Q324" t="n">
+        <v>1</v>
+      </c>
+      <c r="R324" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="n">
+        <v>9</v>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D325" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E325" t="n">
+        <v>13</v>
+      </c>
+      <c r="F325" t="n">
+        <v>100112008</v>
+      </c>
+      <c r="G325" t="inlineStr">
+        <is>
+          <t>Coliflor</t>
+        </is>
+      </c>
+      <c r="H325" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I325" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J325" t="n">
+        <v>3400</v>
+      </c>
+      <c r="K325" t="n">
+        <v>500</v>
+      </c>
+      <c r="L325" t="n">
+        <v>600</v>
+      </c>
+      <c r="M325" t="n">
+        <v>550</v>
+      </c>
+      <c r="N325" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O325" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P325" t="n">
+        <v>550</v>
+      </c>
+      <c r="Q325" t="n">
+        <v>1</v>
+      </c>
+      <c r="R325" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="n">
+        <v>9</v>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D326" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E326" t="n">
+        <v>13</v>
+      </c>
+      <c r="F326" t="n">
+        <v>100112008</v>
+      </c>
+      <c r="G326" t="inlineStr">
+        <is>
+          <t>Coliflor</t>
+        </is>
+      </c>
+      <c r="H326" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I326" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J326" t="n">
+        <v>1600</v>
+      </c>
+      <c r="K326" t="n">
+        <v>400</v>
+      </c>
+      <c r="L326" t="n">
+        <v>400</v>
+      </c>
+      <c r="M326" t="n">
+        <v>400</v>
+      </c>
+      <c r="N326" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O326" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P326" t="n">
+        <v>400</v>
+      </c>
+      <c r="Q326" t="n">
+        <v>1</v>
+      </c>
+      <c r="R326" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="n">
+        <v>9</v>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D327" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E327" t="n">
+        <v>13</v>
+      </c>
+      <c r="F327" t="n">
+        <v>100112008</v>
+      </c>
+      <c r="G327" t="inlineStr">
+        <is>
+          <t>Coliflor</t>
+        </is>
+      </c>
+      <c r="H327" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I327" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J327" t="n">
+        <v>970</v>
+      </c>
+      <c r="K327" t="n">
+        <v>400</v>
+      </c>
+      <c r="L327" t="n">
+        <v>400</v>
+      </c>
+      <c r="M327" t="n">
+        <v>400</v>
+      </c>
+      <c r="N327" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O327" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P327" t="n">
+        <v>400</v>
+      </c>
+      <c r="Q327" t="n">
+        <v>1</v>
+      </c>
+      <c r="R327" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Coliflor.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Coliflor.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R327"/>
+  <dimension ref="A1:R331"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21141,7 +21141,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E289" t="n">
         <v>13</v>
@@ -21165,16 +21165,16 @@
         </is>
       </c>
       <c r="J289" t="n">
-        <v>4500</v>
+        <v>2500</v>
       </c>
       <c r="K289" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L289" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="M289" t="n">
-        <v>456</v>
+        <v>625</v>
       </c>
       <c r="N289" t="inlineStr">
         <is>
@@ -21183,11 +21183,11 @@
       </c>
       <c r="O289" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P289" t="n">
-        <v>456</v>
+        <v>625</v>
       </c>
       <c r="Q289" t="n">
         <v>1</v>
@@ -21213,7 +21213,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44438</v>
+        <v>44449</v>
       </c>
       <c r="E290" t="n">
         <v>13</v>
@@ -21237,7 +21237,7 @@
         </is>
       </c>
       <c r="J290" t="n">
-        <v>1600</v>
+        <v>3400</v>
       </c>
       <c r="K290" t="n">
         <v>600</v>
@@ -21255,7 +21255,7 @@
       </c>
       <c r="O290" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P290" t="n">
@@ -21285,7 +21285,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44438</v>
+        <v>44449</v>
       </c>
       <c r="E291" t="n">
         <v>13</v>
@@ -21309,16 +21309,16 @@
         </is>
       </c>
       <c r="J291" t="n">
-        <v>610</v>
+        <v>970</v>
       </c>
       <c r="K291" t="n">
+        <v>450</v>
+      </c>
+      <c r="L291" t="n">
         <v>500</v>
       </c>
-      <c r="L291" t="n">
-        <v>550</v>
-      </c>
       <c r="M291" t="n">
-        <v>525</v>
+        <v>475</v>
       </c>
       <c r="N291" t="inlineStr">
         <is>
@@ -21331,7 +21331,7 @@
         </is>
       </c>
       <c r="P291" t="n">
-        <v>525</v>
+        <v>475</v>
       </c>
       <c r="Q291" t="n">
         <v>1</v>
@@ -21357,7 +21357,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44428</v>
+        <v>44449</v>
       </c>
       <c r="E292" t="n">
         <v>13</v>
@@ -21377,20 +21377,20 @@
       </c>
       <c r="I292" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J292" t="n">
-        <v>3400</v>
+        <v>1330</v>
       </c>
       <c r="K292" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="L292" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M292" t="n">
-        <v>650</v>
+        <v>475</v>
       </c>
       <c r="N292" t="inlineStr">
         <is>
@@ -21399,11 +21399,11 @@
       </c>
       <c r="O292" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P292" t="n">
-        <v>650</v>
+        <v>475</v>
       </c>
       <c r="Q292" t="n">
         <v>1</v>
@@ -21429,7 +21429,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44428</v>
+        <v>44161</v>
       </c>
       <c r="E293" t="n">
         <v>13</v>
@@ -21453,16 +21453,16 @@
         </is>
       </c>
       <c r="J293" t="n">
-        <v>4300</v>
+        <v>4500</v>
       </c>
       <c r="K293" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L293" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M293" t="n">
-        <v>650</v>
+        <v>456</v>
       </c>
       <c r="N293" t="inlineStr">
         <is>
@@ -21471,11 +21471,11 @@
       </c>
       <c r="O293" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P293" t="n">
-        <v>650</v>
+        <v>456</v>
       </c>
       <c r="Q293" t="n">
         <v>1</v>
@@ -21501,7 +21501,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44428</v>
+        <v>44438</v>
       </c>
       <c r="E294" t="n">
         <v>13</v>
@@ -21521,20 +21521,20 @@
       </c>
       <c r="I294" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J294" t="n">
-        <v>970</v>
+        <v>1600</v>
       </c>
       <c r="K294" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L294" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="M294" t="n">
-        <v>451</v>
+        <v>625</v>
       </c>
       <c r="N294" t="inlineStr">
         <is>
@@ -21547,7 +21547,7 @@
         </is>
       </c>
       <c r="P294" t="n">
-        <v>451</v>
+        <v>625</v>
       </c>
       <c r="Q294" t="n">
         <v>1</v>
@@ -21573,7 +21573,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44428</v>
+        <v>44438</v>
       </c>
       <c r="E295" t="n">
         <v>13</v>
@@ -21597,16 +21597,16 @@
         </is>
       </c>
       <c r="J295" t="n">
-        <v>1060</v>
+        <v>610</v>
       </c>
       <c r="K295" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L295" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="M295" t="n">
-        <v>450</v>
+        <v>525</v>
       </c>
       <c r="N295" t="inlineStr">
         <is>
@@ -21615,11 +21615,11 @@
       </c>
       <c r="O295" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P295" t="n">
-        <v>450</v>
+        <v>525</v>
       </c>
       <c r="Q295" t="n">
         <v>1</v>
@@ -21645,7 +21645,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E296" t="n">
         <v>13</v>
@@ -21672,13 +21672,13 @@
         <v>3400</v>
       </c>
       <c r="K296" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="L296" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M296" t="n">
-        <v>575</v>
+        <v>650</v>
       </c>
       <c r="N296" t="inlineStr">
         <is>
@@ -21691,7 +21691,7 @@
         </is>
       </c>
       <c r="P296" t="n">
-        <v>575</v>
+        <v>650</v>
       </c>
       <c r="Q296" t="n">
         <v>1</v>
@@ -21717,7 +21717,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E297" t="n">
         <v>13</v>
@@ -21744,13 +21744,13 @@
         <v>4300</v>
       </c>
       <c r="K297" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="L297" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M297" t="n">
-        <v>575</v>
+        <v>650</v>
       </c>
       <c r="N297" t="inlineStr">
         <is>
@@ -21763,7 +21763,7 @@
         </is>
       </c>
       <c r="P297" t="n">
-        <v>575</v>
+        <v>650</v>
       </c>
       <c r="Q297" t="n">
         <v>1</v>
@@ -21789,7 +21789,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E298" t="n">
         <v>13</v>
@@ -21813,16 +21813,16 @@
         </is>
       </c>
       <c r="J298" t="n">
-        <v>1330</v>
+        <v>970</v>
       </c>
       <c r="K298" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="L298" t="n">
         <v>500</v>
       </c>
       <c r="M298" t="n">
-        <v>475</v>
+        <v>451</v>
       </c>
       <c r="N298" t="inlineStr">
         <is>
@@ -21835,7 +21835,7 @@
         </is>
       </c>
       <c r="P298" t="n">
-        <v>475</v>
+        <v>451</v>
       </c>
       <c r="Q298" t="n">
         <v>1</v>
@@ -21861,7 +21861,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E299" t="n">
         <v>13</v>
@@ -21885,16 +21885,16 @@
         </is>
       </c>
       <c r="J299" t="n">
-        <v>1500</v>
+        <v>1060</v>
       </c>
       <c r="K299" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="L299" t="n">
         <v>500</v>
       </c>
       <c r="M299" t="n">
-        <v>475</v>
+        <v>450</v>
       </c>
       <c r="N299" t="inlineStr">
         <is>
@@ -21907,7 +21907,7 @@
         </is>
       </c>
       <c r="P299" t="n">
-        <v>475</v>
+        <v>450</v>
       </c>
       <c r="Q299" t="n">
         <v>1</v>
@@ -21933,7 +21933,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E300" t="n">
         <v>13</v>
@@ -21957,16 +21957,16 @@
         </is>
       </c>
       <c r="J300" t="n">
-        <v>18800</v>
+        <v>3400</v>
       </c>
       <c r="K300" t="n">
+        <v>550</v>
+      </c>
+      <c r="L300" t="n">
         <v>600</v>
       </c>
-      <c r="L300" t="n">
-        <v>700</v>
-      </c>
       <c r="M300" t="n">
-        <v>636</v>
+        <v>575</v>
       </c>
       <c r="N300" t="inlineStr">
         <is>
@@ -21979,7 +21979,7 @@
         </is>
       </c>
       <c r="P300" t="n">
-        <v>636</v>
+        <v>575</v>
       </c>
       <c r="Q300" t="n">
         <v>1</v>
@@ -22005,7 +22005,7 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E301" t="n">
         <v>13</v>
@@ -22029,16 +22029,16 @@
         </is>
       </c>
       <c r="J301" t="n">
-        <v>13600</v>
+        <v>4300</v>
       </c>
       <c r="K301" t="n">
+        <v>550</v>
+      </c>
+      <c r="L301" t="n">
         <v>600</v>
       </c>
-      <c r="L301" t="n">
-        <v>700</v>
-      </c>
       <c r="M301" t="n">
-        <v>638</v>
+        <v>575</v>
       </c>
       <c r="N301" t="inlineStr">
         <is>
@@ -22051,7 +22051,7 @@
         </is>
       </c>
       <c r="P301" t="n">
-        <v>638</v>
+        <v>575</v>
       </c>
       <c r="Q301" t="n">
         <v>1</v>
@@ -22077,7 +22077,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E302" t="n">
         <v>13</v>
@@ -22101,16 +22101,16 @@
         </is>
       </c>
       <c r="J302" t="n">
-        <v>7550</v>
+        <v>1330</v>
       </c>
       <c r="K302" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="L302" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M302" t="n">
-        <v>530</v>
+        <v>475</v>
       </c>
       <c r="N302" t="inlineStr">
         <is>
@@ -22123,7 +22123,7 @@
         </is>
       </c>
       <c r="P302" t="n">
-        <v>530</v>
+        <v>475</v>
       </c>
       <c r="Q302" t="n">
         <v>1</v>
@@ -22149,7 +22149,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E303" t="n">
         <v>13</v>
@@ -22173,16 +22173,16 @@
         </is>
       </c>
       <c r="J303" t="n">
-        <v>5680</v>
+        <v>1500</v>
       </c>
       <c r="K303" t="n">
+        <v>450</v>
+      </c>
+      <c r="L303" t="n">
         <v>500</v>
       </c>
-      <c r="L303" t="n">
-        <v>600</v>
-      </c>
       <c r="M303" t="n">
-        <v>534</v>
+        <v>475</v>
       </c>
       <c r="N303" t="inlineStr">
         <is>
@@ -22195,7 +22195,7 @@
         </is>
       </c>
       <c r="P303" t="n">
-        <v>534</v>
+        <v>475</v>
       </c>
       <c r="Q303" t="n">
         <v>1</v>
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E304" t="n">
         <v>13</v>
@@ -22245,16 +22245,16 @@
         </is>
       </c>
       <c r="J304" t="n">
-        <v>1600</v>
+        <v>18800</v>
       </c>
       <c r="K304" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="L304" t="n">
         <v>700</v>
       </c>
       <c r="M304" t="n">
-        <v>700</v>
+        <v>636</v>
       </c>
       <c r="N304" t="inlineStr">
         <is>
@@ -22267,7 +22267,7 @@
         </is>
       </c>
       <c r="P304" t="n">
-        <v>700</v>
+        <v>636</v>
       </c>
       <c r="Q304" t="n">
         <v>1</v>
@@ -22293,7 +22293,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44175</v>
+        <v>44435</v>
       </c>
       <c r="E305" t="n">
         <v>13</v>
@@ -22317,16 +22317,16 @@
         </is>
       </c>
       <c r="J305" t="n">
-        <v>5200</v>
+        <v>13600</v>
       </c>
       <c r="K305" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="L305" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M305" t="n">
-        <v>850</v>
+        <v>638</v>
       </c>
       <c r="N305" t="inlineStr">
         <is>
@@ -22335,11 +22335,11 @@
       </c>
       <c r="O305" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P305" t="n">
-        <v>850</v>
+        <v>638</v>
       </c>
       <c r="Q305" t="n">
         <v>1</v>
@@ -22365,7 +22365,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44376</v>
+        <v>44435</v>
       </c>
       <c r="E306" t="n">
         <v>13</v>
@@ -22385,20 +22385,20 @@
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J306" t="n">
-        <v>3400</v>
+        <v>7550</v>
       </c>
       <c r="K306" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L306" t="n">
         <v>600</v>
       </c>
       <c r="M306" t="n">
-        <v>550</v>
+        <v>530</v>
       </c>
       <c r="N306" t="inlineStr">
         <is>
@@ -22411,7 +22411,7 @@
         </is>
       </c>
       <c r="P306" t="n">
-        <v>550</v>
+        <v>530</v>
       </c>
       <c r="Q306" t="n">
         <v>1</v>
@@ -22437,7 +22437,7 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>44376</v>
+        <v>44435</v>
       </c>
       <c r="E307" t="n">
         <v>13</v>
@@ -22457,11 +22457,11 @@
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J307" t="n">
-        <v>2500</v>
+        <v>5680</v>
       </c>
       <c r="K307" t="n">
         <v>500</v>
@@ -22470,7 +22470,7 @@
         <v>600</v>
       </c>
       <c r="M307" t="n">
-        <v>550</v>
+        <v>534</v>
       </c>
       <c r="N307" t="inlineStr">
         <is>
@@ -22483,7 +22483,7 @@
         </is>
       </c>
       <c r="P307" t="n">
-        <v>550</v>
+        <v>534</v>
       </c>
       <c r="Q307" t="n">
         <v>1</v>
@@ -22509,7 +22509,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44376</v>
+        <v>44319</v>
       </c>
       <c r="E308" t="n">
         <v>13</v>
@@ -22529,20 +22529,20 @@
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J308" t="n">
         <v>1600</v>
       </c>
       <c r="K308" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="L308" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="M308" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="N308" t="inlineStr">
         <is>
@@ -22555,7 +22555,7 @@
         </is>
       </c>
       <c r="P308" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="Q308" t="n">
         <v>1</v>
@@ -22581,7 +22581,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44376</v>
+        <v>44175</v>
       </c>
       <c r="E309" t="n">
         <v>13</v>
@@ -22601,20 +22601,20 @@
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J309" t="n">
-        <v>970</v>
+        <v>5200</v>
       </c>
       <c r="K309" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="L309" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="M309" t="n">
-        <v>400</v>
+        <v>850</v>
       </c>
       <c r="N309" t="inlineStr">
         <is>
@@ -22623,11 +22623,11 @@
       </c>
       <c r="O309" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P309" t="n">
-        <v>400</v>
+        <v>850</v>
       </c>
       <c r="Q309" t="n">
         <v>1</v>
@@ -22653,7 +22653,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44412</v>
+        <v>44376</v>
       </c>
       <c r="E310" t="n">
         <v>13</v>
@@ -22677,16 +22677,16 @@
         </is>
       </c>
       <c r="J310" t="n">
-        <v>2500</v>
+        <v>3400</v>
       </c>
       <c r="K310" t="n">
+        <v>500</v>
+      </c>
+      <c r="L310" t="n">
         <v>600</v>
       </c>
-      <c r="L310" t="n">
-        <v>700</v>
-      </c>
       <c r="M310" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="N310" t="inlineStr">
         <is>
@@ -22699,7 +22699,7 @@
         </is>
       </c>
       <c r="P310" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="Q310" t="n">
         <v>1</v>
@@ -22725,7 +22725,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44412</v>
+        <v>44376</v>
       </c>
       <c r="E311" t="n">
         <v>13</v>
@@ -22749,16 +22749,16 @@
         </is>
       </c>
       <c r="J311" t="n">
-        <v>1600</v>
+        <v>2500</v>
       </c>
       <c r="K311" t="n">
+        <v>500</v>
+      </c>
+      <c r="L311" t="n">
         <v>600</v>
       </c>
-      <c r="L311" t="n">
-        <v>700</v>
-      </c>
       <c r="M311" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="N311" t="inlineStr">
         <is>
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="P311" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="Q311" t="n">
         <v>1</v>
@@ -22797,7 +22797,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44412</v>
+        <v>44376</v>
       </c>
       <c r="E312" t="n">
         <v>13</v>
@@ -22821,16 +22821,16 @@
         </is>
       </c>
       <c r="J312" t="n">
-        <v>970</v>
+        <v>1600</v>
       </c>
       <c r="K312" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L312" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M312" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="N312" t="inlineStr">
         <is>
@@ -22843,7 +22843,7 @@
         </is>
       </c>
       <c r="P312" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="Q312" t="n">
         <v>1</v>
@@ -22869,7 +22869,7 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>44412</v>
+        <v>44376</v>
       </c>
       <c r="E313" t="n">
         <v>13</v>
@@ -22893,16 +22893,16 @@
         </is>
       </c>
       <c r="J313" t="n">
-        <v>790</v>
+        <v>970</v>
       </c>
       <c r="K313" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L313" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M313" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="N313" t="inlineStr">
         <is>
@@ -22915,7 +22915,7 @@
         </is>
       </c>
       <c r="P313" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="Q313" t="n">
         <v>1</v>
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>44314</v>
+        <v>44412</v>
       </c>
       <c r="E314" t="n">
         <v>13</v>
@@ -22971,10 +22971,10 @@
         <v>600</v>
       </c>
       <c r="L314" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M314" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="N314" t="inlineStr">
         <is>
@@ -22983,11 +22983,11 @@
       </c>
       <c r="O314" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P314" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="Q314" t="n">
         <v>1</v>
@@ -23013,7 +23013,7 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>44448</v>
+        <v>44412</v>
       </c>
       <c r="E315" t="n">
         <v>13</v>
@@ -23037,17 +23037,17 @@
         </is>
       </c>
       <c r="J315" t="n">
-        <v>3400</v>
+        <v>1600</v>
       </c>
       <c r="K315" t="n">
         <v>600</v>
       </c>
       <c r="L315" t="n">
+        <v>700</v>
+      </c>
+      <c r="M315" t="n">
         <v>650</v>
       </c>
-      <c r="M315" t="n">
-        <v>625</v>
-      </c>
       <c r="N315" t="inlineStr">
         <is>
           <t>$/unidad</t>
@@ -23055,11 +23055,11 @@
       </c>
       <c r="O315" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P315" t="n">
-        <v>625</v>
+        <v>650</v>
       </c>
       <c r="Q315" t="n">
         <v>1</v>
@@ -23085,7 +23085,7 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>44448</v>
+        <v>44412</v>
       </c>
       <c r="E316" t="n">
         <v>13</v>
@@ -23105,20 +23105,20 @@
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J316" t="n">
-        <v>4300</v>
+        <v>970</v>
       </c>
       <c r="K316" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L316" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="M316" t="n">
-        <v>625</v>
+        <v>500</v>
       </c>
       <c r="N316" t="inlineStr">
         <is>
@@ -23127,11 +23127,11 @@
       </c>
       <c r="O316" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P316" t="n">
-        <v>625</v>
+        <v>500</v>
       </c>
       <c r="Q316" t="n">
         <v>1</v>
@@ -23157,7 +23157,7 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>44448</v>
+        <v>44412</v>
       </c>
       <c r="E317" t="n">
         <v>13</v>
@@ -23181,16 +23181,16 @@
         </is>
       </c>
       <c r="J317" t="n">
-        <v>970</v>
+        <v>790</v>
       </c>
       <c r="K317" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="L317" t="n">
         <v>500</v>
       </c>
       <c r="M317" t="n">
-        <v>475</v>
+        <v>500</v>
       </c>
       <c r="N317" t="inlineStr">
         <is>
@@ -23199,11 +23199,11 @@
       </c>
       <c r="O317" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P317" t="n">
-        <v>475</v>
+        <v>500</v>
       </c>
       <c r="Q317" t="n">
         <v>1</v>
@@ -23229,7 +23229,7 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E318" t="n">
         <v>13</v>
@@ -23249,20 +23249,20 @@
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J318" t="n">
-        <v>1600</v>
+        <v>2500</v>
       </c>
       <c r="K318" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="L318" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M318" t="n">
-        <v>475</v>
+        <v>600</v>
       </c>
       <c r="N318" t="inlineStr">
         <is>
@@ -23275,7 +23275,7 @@
         </is>
       </c>
       <c r="P318" t="n">
-        <v>475</v>
+        <v>600</v>
       </c>
       <c r="Q318" t="n">
         <v>1</v>
@@ -23301,7 +23301,7 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E319" t="n">
         <v>13</v>
@@ -23325,16 +23325,16 @@
         </is>
       </c>
       <c r="J319" t="n">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="K319" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L319" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="M319" t="n">
-        <v>543</v>
+        <v>625</v>
       </c>
       <c r="N319" t="inlineStr">
         <is>
@@ -23347,7 +23347,7 @@
         </is>
       </c>
       <c r="P319" t="n">
-        <v>543</v>
+        <v>625</v>
       </c>
       <c r="Q319" t="n">
         <v>1</v>
@@ -23373,7 +23373,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44399</v>
+        <v>44448</v>
       </c>
       <c r="E320" t="n">
         <v>13</v>
@@ -23400,13 +23400,13 @@
         <v>4300</v>
       </c>
       <c r="K320" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L320" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="M320" t="n">
-        <v>550</v>
+        <v>625</v>
       </c>
       <c r="N320" t="inlineStr">
         <is>
@@ -23415,11 +23415,11 @@
       </c>
       <c r="O320" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P320" t="n">
-        <v>550</v>
+        <v>625</v>
       </c>
       <c r="Q320" t="n">
         <v>1</v>
@@ -23445,7 +23445,7 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>44399</v>
+        <v>44448</v>
       </c>
       <c r="E321" t="n">
         <v>13</v>
@@ -23465,20 +23465,20 @@
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J321" t="n">
-        <v>3400</v>
+        <v>970</v>
       </c>
       <c r="K321" t="n">
+        <v>450</v>
+      </c>
+      <c r="L321" t="n">
         <v>500</v>
       </c>
-      <c r="L321" t="n">
-        <v>600</v>
-      </c>
       <c r="M321" t="n">
-        <v>550</v>
+        <v>475</v>
       </c>
       <c r="N321" t="inlineStr">
         <is>
@@ -23487,11 +23487,11 @@
       </c>
       <c r="O321" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P321" t="n">
-        <v>550</v>
+        <v>475</v>
       </c>
       <c r="Q321" t="n">
         <v>1</v>
@@ -23517,7 +23517,7 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>44399</v>
+        <v>44448</v>
       </c>
       <c r="E322" t="n">
         <v>13</v>
@@ -23544,13 +23544,13 @@
         <v>1600</v>
       </c>
       <c r="K322" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="L322" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M322" t="n">
-        <v>400</v>
+        <v>475</v>
       </c>
       <c r="N322" t="inlineStr">
         <is>
@@ -23559,11 +23559,11 @@
       </c>
       <c r="O322" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P322" t="n">
-        <v>400</v>
+        <v>475</v>
       </c>
       <c r="Q322" t="n">
         <v>1</v>
@@ -23589,7 +23589,7 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>44399</v>
+        <v>44167</v>
       </c>
       <c r="E323" t="n">
         <v>13</v>
@@ -23609,20 +23609,20 @@
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J323" t="n">
-        <v>970</v>
+        <v>3500</v>
       </c>
       <c r="K323" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L323" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M323" t="n">
-        <v>400</v>
+        <v>543</v>
       </c>
       <c r="N323" t="inlineStr">
         <is>
@@ -23631,11 +23631,11 @@
       </c>
       <c r="O323" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P323" t="n">
-        <v>400</v>
+        <v>543</v>
       </c>
       <c r="Q323" t="n">
         <v>1</v>
@@ -23661,7 +23661,7 @@
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E324" t="n">
         <v>13</v>
@@ -23733,7 +23733,7 @@
         </is>
       </c>
       <c r="D325" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E325" t="n">
         <v>13</v>
@@ -23805,7 +23805,7 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E326" t="n">
         <v>13</v>
@@ -23877,7 +23877,7 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E327" t="n">
         <v>13</v>
@@ -23929,6 +23929,294 @@
         <v>1</v>
       </c>
       <c r="R327" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="n">
+        <v>9</v>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D328" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E328" t="n">
+        <v>13</v>
+      </c>
+      <c r="F328" t="n">
+        <v>100112008</v>
+      </c>
+      <c r="G328" t="inlineStr">
+        <is>
+          <t>Coliflor</t>
+        </is>
+      </c>
+      <c r="H328" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I328" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J328" t="n">
+        <v>4300</v>
+      </c>
+      <c r="K328" t="n">
+        <v>500</v>
+      </c>
+      <c r="L328" t="n">
+        <v>600</v>
+      </c>
+      <c r="M328" t="n">
+        <v>550</v>
+      </c>
+      <c r="N328" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O328" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P328" t="n">
+        <v>550</v>
+      </c>
+      <c r="Q328" t="n">
+        <v>1</v>
+      </c>
+      <c r="R328" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="n">
+        <v>9</v>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D329" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E329" t="n">
+        <v>13</v>
+      </c>
+      <c r="F329" t="n">
+        <v>100112008</v>
+      </c>
+      <c r="G329" t="inlineStr">
+        <is>
+          <t>Coliflor</t>
+        </is>
+      </c>
+      <c r="H329" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I329" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J329" t="n">
+        <v>3400</v>
+      </c>
+      <c r="K329" t="n">
+        <v>500</v>
+      </c>
+      <c r="L329" t="n">
+        <v>600</v>
+      </c>
+      <c r="M329" t="n">
+        <v>550</v>
+      </c>
+      <c r="N329" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O329" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P329" t="n">
+        <v>550</v>
+      </c>
+      <c r="Q329" t="n">
+        <v>1</v>
+      </c>
+      <c r="R329" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="n">
+        <v>9</v>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D330" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E330" t="n">
+        <v>13</v>
+      </c>
+      <c r="F330" t="n">
+        <v>100112008</v>
+      </c>
+      <c r="G330" t="inlineStr">
+        <is>
+          <t>Coliflor</t>
+        </is>
+      </c>
+      <c r="H330" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I330" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J330" t="n">
+        <v>1600</v>
+      </c>
+      <c r="K330" t="n">
+        <v>400</v>
+      </c>
+      <c r="L330" t="n">
+        <v>400</v>
+      </c>
+      <c r="M330" t="n">
+        <v>400</v>
+      </c>
+      <c r="N330" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O330" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P330" t="n">
+        <v>400</v>
+      </c>
+      <c r="Q330" t="n">
+        <v>1</v>
+      </c>
+      <c r="R330" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="n">
+        <v>9</v>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D331" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E331" t="n">
+        <v>13</v>
+      </c>
+      <c r="F331" t="n">
+        <v>100112008</v>
+      </c>
+      <c r="G331" t="inlineStr">
+        <is>
+          <t>Coliflor</t>
+        </is>
+      </c>
+      <c r="H331" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I331" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J331" t="n">
+        <v>970</v>
+      </c>
+      <c r="K331" t="n">
+        <v>400</v>
+      </c>
+      <c r="L331" t="n">
+        <v>400</v>
+      </c>
+      <c r="M331" t="n">
+        <v>400</v>
+      </c>
+      <c r="N331" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O331" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P331" t="n">
+        <v>400</v>
+      </c>
+      <c r="Q331" t="n">
+        <v>1</v>
+      </c>
+      <c r="R331" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Coliflor.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Coliflor.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R337"/>
+  <dimension ref="A1:R341"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16749,7 +16749,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44418</v>
+        <v>44455</v>
       </c>
       <c r="E228" t="n">
         <v>13</v>
@@ -16779,10 +16779,10 @@
         <v>600</v>
       </c>
       <c r="L228" t="n">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="M228" t="n">
-        <v>650</v>
+        <v>625</v>
       </c>
       <c r="N228" t="inlineStr">
         <is>
@@ -16795,7 +16795,7 @@
         </is>
       </c>
       <c r="P228" t="n">
-        <v>650</v>
+        <v>625</v>
       </c>
       <c r="Q228" t="n">
         <v>1</v>
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44418</v>
+        <v>44455</v>
       </c>
       <c r="E229" t="n">
         <v>13</v>
@@ -16845,16 +16845,16 @@
         </is>
       </c>
       <c r="J229" t="n">
-        <v>4300</v>
+        <v>2500</v>
       </c>
       <c r="K229" t="n">
         <v>600</v>
       </c>
       <c r="L229" t="n">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="M229" t="n">
-        <v>650</v>
+        <v>625</v>
       </c>
       <c r="N229" t="inlineStr">
         <is>
@@ -16867,7 +16867,7 @@
         </is>
       </c>
       <c r="P229" t="n">
-        <v>650</v>
+        <v>625</v>
       </c>
       <c r="Q229" t="n">
         <v>1</v>
@@ -16893,7 +16893,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44418</v>
+        <v>44455</v>
       </c>
       <c r="E230" t="n">
         <v>13</v>
@@ -16920,13 +16920,13 @@
         <v>970</v>
       </c>
       <c r="K230" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="L230" t="n">
         <v>500</v>
       </c>
       <c r="M230" t="n">
-        <v>500</v>
+        <v>475</v>
       </c>
       <c r="N230" t="inlineStr">
         <is>
@@ -16939,7 +16939,7 @@
         </is>
       </c>
       <c r="P230" t="n">
-        <v>500</v>
+        <v>475</v>
       </c>
       <c r="Q230" t="n">
         <v>1</v>
@@ -16965,7 +16965,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44418</v>
+        <v>44455</v>
       </c>
       <c r="E231" t="n">
         <v>13</v>
@@ -16989,16 +16989,16 @@
         </is>
       </c>
       <c r="J231" t="n">
-        <v>1600</v>
+        <v>790</v>
       </c>
       <c r="K231" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="L231" t="n">
         <v>500</v>
       </c>
       <c r="M231" t="n">
-        <v>500</v>
+        <v>475</v>
       </c>
       <c r="N231" t="inlineStr">
         <is>
@@ -17011,7 +17011,7 @@
         </is>
       </c>
       <c r="P231" t="n">
-        <v>500</v>
+        <v>475</v>
       </c>
       <c r="Q231" t="n">
         <v>1</v>
@@ -17037,7 +17037,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44414</v>
+        <v>44418</v>
       </c>
       <c r="E232" t="n">
         <v>13</v>
@@ -17061,7 +17061,7 @@
         </is>
       </c>
       <c r="J232" t="n">
-        <v>4300</v>
+        <v>3400</v>
       </c>
       <c r="K232" t="n">
         <v>600</v>
@@ -17109,7 +17109,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44414</v>
+        <v>44418</v>
       </c>
       <c r="E233" t="n">
         <v>13</v>
@@ -17133,7 +17133,7 @@
         </is>
       </c>
       <c r="J233" t="n">
-        <v>5200</v>
+        <v>4300</v>
       </c>
       <c r="K233" t="n">
         <v>600</v>
@@ -17181,7 +17181,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44414</v>
+        <v>44418</v>
       </c>
       <c r="E234" t="n">
         <v>13</v>
@@ -17205,7 +17205,7 @@
         </is>
       </c>
       <c r="J234" t="n">
-        <v>1600</v>
+        <v>970</v>
       </c>
       <c r="K234" t="n">
         <v>500</v>
@@ -17253,7 +17253,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44414</v>
+        <v>44418</v>
       </c>
       <c r="E235" t="n">
         <v>13</v>
@@ -17277,7 +17277,7 @@
         </is>
       </c>
       <c r="J235" t="n">
-        <v>2500</v>
+        <v>1600</v>
       </c>
       <c r="K235" t="n">
         <v>500</v>
@@ -17325,7 +17325,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44427</v>
+        <v>44414</v>
       </c>
       <c r="E236" t="n">
         <v>13</v>
@@ -17397,7 +17397,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44427</v>
+        <v>44414</v>
       </c>
       <c r="E237" t="n">
         <v>13</v>
@@ -17417,20 +17417,20 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J237" t="n">
-        <v>1600</v>
+        <v>5200</v>
       </c>
       <c r="K237" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L237" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M237" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="N237" t="inlineStr">
         <is>
@@ -17439,11 +17439,11 @@
       </c>
       <c r="O237" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P237" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="Q237" t="n">
         <v>1</v>
@@ -17469,7 +17469,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44389</v>
+        <v>44414</v>
       </c>
       <c r="E238" t="n">
         <v>13</v>
@@ -17489,7 +17489,7 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J238" t="n">
@@ -17499,10 +17499,10 @@
         <v>500</v>
       </c>
       <c r="L238" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M238" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="N238" t="inlineStr">
         <is>
@@ -17511,11 +17511,11 @@
       </c>
       <c r="O238" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P238" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="Q238" t="n">
         <v>1</v>
@@ -17541,7 +17541,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44389</v>
+        <v>44414</v>
       </c>
       <c r="E239" t="n">
         <v>13</v>
@@ -17565,16 +17565,16 @@
         </is>
       </c>
       <c r="J239" t="n">
-        <v>520</v>
+        <v>2500</v>
       </c>
       <c r="K239" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L239" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M239" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N239" t="inlineStr">
         <is>
@@ -17587,7 +17587,7 @@
         </is>
       </c>
       <c r="P239" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Q239" t="n">
         <v>1</v>
@@ -17613,7 +17613,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44249</v>
+        <v>44427</v>
       </c>
       <c r="E240" t="n">
         <v>13</v>
@@ -17637,16 +17637,16 @@
         </is>
       </c>
       <c r="J240" t="n">
+        <v>4300</v>
+      </c>
+      <c r="K240" t="n">
+        <v>600</v>
+      </c>
+      <c r="L240" t="n">
         <v>700</v>
       </c>
-      <c r="K240" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L240" t="n">
-        <v>1000</v>
-      </c>
       <c r="M240" t="n">
-        <v>1000</v>
+        <v>650</v>
       </c>
       <c r="N240" t="inlineStr">
         <is>
@@ -17659,7 +17659,7 @@
         </is>
       </c>
       <c r="P240" t="n">
-        <v>1000</v>
+        <v>650</v>
       </c>
       <c r="Q240" t="n">
         <v>1</v>
@@ -17685,7 +17685,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44343</v>
+        <v>44427</v>
       </c>
       <c r="E241" t="n">
         <v>13</v>
@@ -17705,20 +17705,20 @@
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J241" t="n">
-        <v>4200</v>
+        <v>1600</v>
       </c>
       <c r="K241" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L241" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M241" t="n">
-        <v>650</v>
+        <v>450</v>
       </c>
       <c r="N241" t="inlineStr">
         <is>
@@ -17731,7 +17731,7 @@
         </is>
       </c>
       <c r="P241" t="n">
-        <v>650</v>
+        <v>450</v>
       </c>
       <c r="Q241" t="n">
         <v>1</v>
@@ -17757,7 +17757,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44343</v>
+        <v>44389</v>
       </c>
       <c r="E242" t="n">
         <v>13</v>
@@ -17781,16 +17781,16 @@
         </is>
       </c>
       <c r="J242" t="n">
-        <v>3500</v>
+        <v>1600</v>
       </c>
       <c r="K242" t="n">
+        <v>500</v>
+      </c>
+      <c r="L242" t="n">
         <v>600</v>
       </c>
-      <c r="L242" t="n">
-        <v>700</v>
-      </c>
       <c r="M242" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="N242" t="inlineStr">
         <is>
@@ -17803,7 +17803,7 @@
         </is>
       </c>
       <c r="P242" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="Q242" t="n">
         <v>1</v>
@@ -17829,7 +17829,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44343</v>
+        <v>44389</v>
       </c>
       <c r="E243" t="n">
         <v>13</v>
@@ -17853,7 +17853,7 @@
         </is>
       </c>
       <c r="J243" t="n">
-        <v>1800</v>
+        <v>520</v>
       </c>
       <c r="K243" t="n">
         <v>400</v>
@@ -17871,7 +17871,7 @@
       </c>
       <c r="O243" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P243" t="n">
@@ -17901,7 +17901,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44343</v>
+        <v>44249</v>
       </c>
       <c r="E244" t="n">
         <v>13</v>
@@ -17921,20 +17921,20 @@
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J244" t="n">
-        <v>1700</v>
+        <v>700</v>
       </c>
       <c r="K244" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="L244" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="M244" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="N244" t="inlineStr">
         <is>
@@ -17943,11 +17943,11 @@
       </c>
       <c r="O244" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P244" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="Q244" t="n">
         <v>1</v>
@@ -17973,7 +17973,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44201</v>
+        <v>44343</v>
       </c>
       <c r="E245" t="n">
         <v>13</v>
@@ -17997,7 +17997,7 @@
         </is>
       </c>
       <c r="J245" t="n">
-        <v>3600</v>
+        <v>4200</v>
       </c>
       <c r="K245" t="n">
         <v>600</v>
@@ -18006,7 +18006,7 @@
         <v>700</v>
       </c>
       <c r="M245" t="n">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="N245" t="inlineStr">
         <is>
@@ -18019,7 +18019,7 @@
         </is>
       </c>
       <c r="P245" t="n">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="Q245" t="n">
         <v>1</v>
@@ -18045,7 +18045,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44280</v>
+        <v>44343</v>
       </c>
       <c r="E246" t="n">
         <v>13</v>
@@ -18069,16 +18069,16 @@
         </is>
       </c>
       <c r="J246" t="n">
-        <v>1600</v>
+        <v>3500</v>
       </c>
       <c r="K246" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="L246" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M246" t="n">
-        <v>900</v>
+        <v>650</v>
       </c>
       <c r="N246" t="inlineStr">
         <is>
@@ -18087,11 +18087,11 @@
       </c>
       <c r="O246" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P246" t="n">
-        <v>900</v>
+        <v>650</v>
       </c>
       <c r="Q246" t="n">
         <v>1</v>
@@ -18117,7 +18117,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44447</v>
+        <v>44343</v>
       </c>
       <c r="E247" t="n">
         <v>13</v>
@@ -18137,20 +18137,20 @@
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J247" t="n">
-        <v>2500</v>
+        <v>1800</v>
       </c>
       <c r="K247" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L247" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="M247" t="n">
-        <v>625</v>
+        <v>400</v>
       </c>
       <c r="N247" t="inlineStr">
         <is>
@@ -18163,7 +18163,7 @@
         </is>
       </c>
       <c r="P247" t="n">
-        <v>625</v>
+        <v>400</v>
       </c>
       <c r="Q247" t="n">
         <v>1</v>
@@ -18189,7 +18189,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44447</v>
+        <v>44343</v>
       </c>
       <c r="E248" t="n">
         <v>13</v>
@@ -18213,16 +18213,16 @@
         </is>
       </c>
       <c r="J248" t="n">
-        <v>970</v>
+        <v>1700</v>
       </c>
       <c r="K248" t="n">
         <v>400</v>
       </c>
       <c r="L248" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="M248" t="n">
-        <v>425</v>
+        <v>400</v>
       </c>
       <c r="N248" t="inlineStr">
         <is>
@@ -18231,11 +18231,11 @@
       </c>
       <c r="O248" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P248" t="n">
-        <v>425</v>
+        <v>400</v>
       </c>
       <c r="Q248" t="n">
         <v>1</v>
@@ -18261,7 +18261,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44267</v>
+        <v>44201</v>
       </c>
       <c r="E249" t="n">
         <v>13</v>
@@ -18285,16 +18285,16 @@
         </is>
       </c>
       <c r="J249" t="n">
-        <v>1200</v>
+        <v>3600</v>
       </c>
       <c r="K249" t="n">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="L249" t="n">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="M249" t="n">
-        <v>1100</v>
+        <v>656</v>
       </c>
       <c r="N249" t="inlineStr">
         <is>
@@ -18307,7 +18307,7 @@
         </is>
       </c>
       <c r="P249" t="n">
-        <v>1100</v>
+        <v>656</v>
       </c>
       <c r="Q249" t="n">
         <v>1</v>
@@ -18333,7 +18333,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44187</v>
+        <v>44280</v>
       </c>
       <c r="E250" t="n">
         <v>13</v>
@@ -18357,16 +18357,16 @@
         </is>
       </c>
       <c r="J250" t="n">
-        <v>4900</v>
+        <v>1600</v>
       </c>
       <c r="K250" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="L250" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="M250" t="n">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="N250" t="inlineStr">
         <is>
@@ -18375,11 +18375,11 @@
       </c>
       <c r="O250" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P250" t="n">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="Q250" t="n">
         <v>1</v>
@@ -18405,7 +18405,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44390</v>
+        <v>44447</v>
       </c>
       <c r="E251" t="n">
         <v>13</v>
@@ -18429,16 +18429,16 @@
         </is>
       </c>
       <c r="J251" t="n">
-        <v>4300</v>
+        <v>2500</v>
       </c>
       <c r="K251" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L251" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="M251" t="n">
-        <v>550</v>
+        <v>625</v>
       </c>
       <c r="N251" t="inlineStr">
         <is>
@@ -18451,7 +18451,7 @@
         </is>
       </c>
       <c r="P251" t="n">
-        <v>550</v>
+        <v>625</v>
       </c>
       <c r="Q251" t="n">
         <v>1</v>
@@ -18477,7 +18477,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44390</v>
+        <v>44447</v>
       </c>
       <c r="E252" t="n">
         <v>13</v>
@@ -18497,20 +18497,20 @@
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J252" t="n">
-        <v>3400</v>
+        <v>970</v>
       </c>
       <c r="K252" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L252" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="M252" t="n">
-        <v>550</v>
+        <v>425</v>
       </c>
       <c r="N252" t="inlineStr">
         <is>
@@ -18519,11 +18519,11 @@
       </c>
       <c r="O252" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P252" t="n">
-        <v>550</v>
+        <v>425</v>
       </c>
       <c r="Q252" t="n">
         <v>1</v>
@@ -18549,7 +18549,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44390</v>
+        <v>44267</v>
       </c>
       <c r="E253" t="n">
         <v>13</v>
@@ -18569,20 +18569,20 @@
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J253" t="n">
-        <v>1600</v>
+        <v>1200</v>
       </c>
       <c r="K253" t="n">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="L253" t="n">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="M253" t="n">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="N253" t="inlineStr">
         <is>
@@ -18595,7 +18595,7 @@
         </is>
       </c>
       <c r="P253" t="n">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="Q253" t="n">
         <v>1</v>
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44390</v>
+        <v>44187</v>
       </c>
       <c r="E254" t="n">
         <v>13</v>
@@ -18641,20 +18641,20 @@
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J254" t="n">
-        <v>970</v>
+        <v>4900</v>
       </c>
       <c r="K254" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="L254" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="M254" t="n">
-        <v>400</v>
+        <v>902</v>
       </c>
       <c r="N254" t="inlineStr">
         <is>
@@ -18663,11 +18663,11 @@
       </c>
       <c r="O254" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P254" t="n">
-        <v>400</v>
+        <v>902</v>
       </c>
       <c r="Q254" t="n">
         <v>1</v>
@@ -18693,7 +18693,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E255" t="n">
         <v>13</v>
@@ -18765,7 +18765,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E256" t="n">
         <v>13</v>
@@ -18837,7 +18837,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E257" t="n">
         <v>13</v>
@@ -18909,7 +18909,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E258" t="n">
         <v>13</v>
@@ -18981,7 +18981,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E259" t="n">
         <v>13</v>
@@ -19005,16 +19005,16 @@
         </is>
       </c>
       <c r="J259" t="n">
-        <v>1600</v>
+        <v>4300</v>
       </c>
       <c r="K259" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L259" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M259" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="N259" t="inlineStr">
         <is>
@@ -19027,7 +19027,7 @@
         </is>
       </c>
       <c r="P259" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="Q259" t="n">
         <v>1</v>
@@ -19053,7 +19053,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44264</v>
+        <v>44386</v>
       </c>
       <c r="E260" t="n">
         <v>13</v>
@@ -19077,16 +19077,16 @@
         </is>
       </c>
       <c r="J260" t="n">
-        <v>1000</v>
+        <v>3400</v>
       </c>
       <c r="K260" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="L260" t="n">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="M260" t="n">
-        <v>1200</v>
+        <v>550</v>
       </c>
       <c r="N260" t="inlineStr">
         <is>
@@ -19095,11 +19095,11 @@
       </c>
       <c r="O260" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P260" t="n">
-        <v>1200</v>
+        <v>550</v>
       </c>
       <c r="Q260" t="n">
         <v>1</v>
@@ -19125,7 +19125,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44196</v>
+        <v>44386</v>
       </c>
       <c r="E261" t="n">
         <v>13</v>
@@ -19145,20 +19145,20 @@
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J261" t="n">
-        <v>3400</v>
+        <v>1600</v>
       </c>
       <c r="K261" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="L261" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="M261" t="n">
-        <v>950</v>
+        <v>400</v>
       </c>
       <c r="N261" t="inlineStr">
         <is>
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="P261" t="n">
-        <v>950</v>
+        <v>400</v>
       </c>
       <c r="Q261" t="n">
         <v>1</v>
@@ -19197,7 +19197,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44301</v>
+        <v>44386</v>
       </c>
       <c r="E262" t="n">
         <v>13</v>
@@ -19217,20 +19217,20 @@
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J262" t="n">
-        <v>1600</v>
+        <v>970</v>
       </c>
       <c r="K262" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="L262" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="M262" t="n">
-        <v>750</v>
+        <v>400</v>
       </c>
       <c r="N262" t="inlineStr">
         <is>
@@ -19239,11 +19239,11 @@
       </c>
       <c r="O262" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P262" t="n">
-        <v>750</v>
+        <v>400</v>
       </c>
       <c r="Q262" t="n">
         <v>1</v>
@@ -19269,7 +19269,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44252</v>
+        <v>44308</v>
       </c>
       <c r="E263" t="n">
         <v>13</v>
@@ -19293,16 +19293,16 @@
         </is>
       </c>
       <c r="J263" t="n">
-        <v>1200</v>
+        <v>1600</v>
       </c>
       <c r="K263" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="L263" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="M263" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="N263" t="inlineStr">
         <is>
@@ -19311,11 +19311,11 @@
       </c>
       <c r="O263" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P263" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="Q263" t="n">
         <v>1</v>
@@ -19341,7 +19341,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44252</v>
+        <v>44264</v>
       </c>
       <c r="E264" t="n">
         <v>13</v>
@@ -19361,20 +19361,20 @@
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J264" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="K264" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="L264" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="M264" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="N264" t="inlineStr">
         <is>
@@ -19383,11 +19383,11 @@
       </c>
       <c r="O264" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P264" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="Q264" t="n">
         <v>1</v>
@@ -19413,7 +19413,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44166</v>
+        <v>44196</v>
       </c>
       <c r="E265" t="n">
         <v>13</v>
@@ -19437,16 +19437,16 @@
         </is>
       </c>
       <c r="J265" t="n">
-        <v>3200</v>
+        <v>3400</v>
       </c>
       <c r="K265" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="L265" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="M265" t="n">
-        <v>500</v>
+        <v>950</v>
       </c>
       <c r="N265" t="inlineStr">
         <is>
@@ -19455,11 +19455,11 @@
       </c>
       <c r="O265" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P265" t="n">
-        <v>500</v>
+        <v>950</v>
       </c>
       <c r="Q265" t="n">
         <v>1</v>
@@ -19485,7 +19485,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44369</v>
+        <v>44301</v>
       </c>
       <c r="E266" t="n">
         <v>13</v>
@@ -19509,16 +19509,16 @@
         </is>
       </c>
       <c r="J266" t="n">
-        <v>3400</v>
+        <v>1600</v>
       </c>
       <c r="K266" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L266" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M266" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="N266" t="inlineStr">
         <is>
@@ -19531,7 +19531,7 @@
         </is>
       </c>
       <c r="P266" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="Q266" t="n">
         <v>1</v>
@@ -19557,7 +19557,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44369</v>
+        <v>44252</v>
       </c>
       <c r="E267" t="n">
         <v>13</v>
@@ -19581,16 +19581,16 @@
         </is>
       </c>
       <c r="J267" t="n">
-        <v>2500</v>
+        <v>1200</v>
       </c>
       <c r="K267" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="L267" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="M267" t="n">
-        <v>550</v>
+        <v>1000</v>
       </c>
       <c r="N267" t="inlineStr">
         <is>
@@ -19599,11 +19599,11 @@
       </c>
       <c r="O267" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P267" t="n">
-        <v>550</v>
+        <v>1000</v>
       </c>
       <c r="Q267" t="n">
         <v>1</v>
@@ -19629,7 +19629,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44369</v>
+        <v>44252</v>
       </c>
       <c r="E268" t="n">
         <v>13</v>
@@ -19653,16 +19653,16 @@
         </is>
       </c>
       <c r="J268" t="n">
-        <v>1600</v>
+        <v>300</v>
       </c>
       <c r="K268" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="L268" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="M268" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="N268" t="inlineStr">
         <is>
@@ -19671,11 +19671,11 @@
       </c>
       <c r="O268" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P268" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="Q268" t="n">
         <v>1</v>
@@ -19701,7 +19701,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44369</v>
+        <v>44166</v>
       </c>
       <c r="E269" t="n">
         <v>13</v>
@@ -19721,20 +19721,20 @@
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J269" t="n">
-        <v>700</v>
+        <v>3200</v>
       </c>
       <c r="K269" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L269" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M269" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N269" t="inlineStr">
         <is>
@@ -19743,11 +19743,11 @@
       </c>
       <c r="O269" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P269" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Q269" t="n">
         <v>1</v>
@@ -19773,7 +19773,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E270" t="n">
         <v>13</v>
@@ -19800,13 +19800,13 @@
         <v>3400</v>
       </c>
       <c r="K270" t="n">
+        <v>500</v>
+      </c>
+      <c r="L270" t="n">
         <v>600</v>
       </c>
-      <c r="L270" t="n">
-        <v>650</v>
-      </c>
       <c r="M270" t="n">
-        <v>625</v>
+        <v>550</v>
       </c>
       <c r="N270" t="inlineStr">
         <is>
@@ -19819,7 +19819,7 @@
         </is>
       </c>
       <c r="P270" t="n">
-        <v>625</v>
+        <v>550</v>
       </c>
       <c r="Q270" t="n">
         <v>1</v>
@@ -19845,7 +19845,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E271" t="n">
         <v>13</v>
@@ -19869,16 +19869,16 @@
         </is>
       </c>
       <c r="J271" t="n">
-        <v>1600</v>
+        <v>2500</v>
       </c>
       <c r="K271" t="n">
+        <v>500</v>
+      </c>
+      <c r="L271" t="n">
         <v>600</v>
       </c>
-      <c r="L271" t="n">
-        <v>650</v>
-      </c>
       <c r="M271" t="n">
-        <v>625</v>
+        <v>550</v>
       </c>
       <c r="N271" t="inlineStr">
         <is>
@@ -19891,7 +19891,7 @@
         </is>
       </c>
       <c r="P271" t="n">
-        <v>625</v>
+        <v>550</v>
       </c>
       <c r="Q271" t="n">
         <v>1</v>
@@ -19917,7 +19917,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E272" t="n">
         <v>13</v>
@@ -19941,16 +19941,16 @@
         </is>
       </c>
       <c r="J272" t="n">
-        <v>970</v>
+        <v>1600</v>
       </c>
       <c r="K272" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L272" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="M272" t="n">
-        <v>525</v>
+        <v>400</v>
       </c>
       <c r="N272" t="inlineStr">
         <is>
@@ -19963,7 +19963,7 @@
         </is>
       </c>
       <c r="P272" t="n">
-        <v>525</v>
+        <v>400</v>
       </c>
       <c r="Q272" t="n">
         <v>1</v>
@@ -19989,7 +19989,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E273" t="n">
         <v>13</v>
@@ -20013,16 +20013,16 @@
         </is>
       </c>
       <c r="J273" t="n">
-        <v>610</v>
+        <v>700</v>
       </c>
       <c r="K273" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L273" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="M273" t="n">
-        <v>525</v>
+        <v>400</v>
       </c>
       <c r="N273" t="inlineStr">
         <is>
@@ -20035,7 +20035,7 @@
         </is>
       </c>
       <c r="P273" t="n">
-        <v>525</v>
+        <v>400</v>
       </c>
       <c r="Q273" t="n">
         <v>1</v>
@@ -20061,7 +20061,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E274" t="n">
         <v>13</v>
@@ -20085,16 +20085,16 @@
         </is>
       </c>
       <c r="J274" t="n">
-        <v>2500</v>
+        <v>3400</v>
       </c>
       <c r="K274" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L274" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="M274" t="n">
-        <v>550</v>
+        <v>625</v>
       </c>
       <c r="N274" t="inlineStr">
         <is>
@@ -20107,7 +20107,7 @@
         </is>
       </c>
       <c r="P274" t="n">
-        <v>550</v>
+        <v>625</v>
       </c>
       <c r="Q274" t="n">
         <v>1</v>
@@ -20133,7 +20133,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E275" t="n">
         <v>13</v>
@@ -20157,16 +20157,16 @@
         </is>
       </c>
       <c r="J275" t="n">
-        <v>3400</v>
+        <v>1600</v>
       </c>
       <c r="K275" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L275" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="M275" t="n">
-        <v>550</v>
+        <v>625</v>
       </c>
       <c r="N275" t="inlineStr">
         <is>
@@ -20179,7 +20179,7 @@
         </is>
       </c>
       <c r="P275" t="n">
-        <v>550</v>
+        <v>625</v>
       </c>
       <c r="Q275" t="n">
         <v>1</v>
@@ -20205,7 +20205,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E276" t="n">
         <v>13</v>
@@ -20232,13 +20232,13 @@
         <v>970</v>
       </c>
       <c r="K276" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L276" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="M276" t="n">
-        <v>400</v>
+        <v>525</v>
       </c>
       <c r="N276" t="inlineStr">
         <is>
@@ -20251,7 +20251,7 @@
         </is>
       </c>
       <c r="P276" t="n">
-        <v>400</v>
+        <v>525</v>
       </c>
       <c r="Q276" t="n">
         <v>1</v>
@@ -20277,7 +20277,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E277" t="n">
         <v>13</v>
@@ -20301,16 +20301,16 @@
         </is>
       </c>
       <c r="J277" t="n">
-        <v>1600</v>
+        <v>610</v>
       </c>
       <c r="K277" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L277" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="M277" t="n">
-        <v>400</v>
+        <v>525</v>
       </c>
       <c r="N277" t="inlineStr">
         <is>
@@ -20323,7 +20323,7 @@
         </is>
       </c>
       <c r="P277" t="n">
-        <v>400</v>
+        <v>525</v>
       </c>
       <c r="Q277" t="n">
         <v>1</v>
@@ -20349,7 +20349,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E278" t="n">
         <v>13</v>
@@ -20373,16 +20373,16 @@
         </is>
       </c>
       <c r="J278" t="n">
-        <v>3400</v>
+        <v>2500</v>
       </c>
       <c r="K278" t="n">
+        <v>500</v>
+      </c>
+      <c r="L278" t="n">
         <v>600</v>
       </c>
-      <c r="L278" t="n">
-        <v>700</v>
-      </c>
       <c r="M278" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="N278" t="inlineStr">
         <is>
@@ -20395,7 +20395,7 @@
         </is>
       </c>
       <c r="P278" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="Q278" t="n">
         <v>1</v>
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E279" t="n">
         <v>13</v>
@@ -20441,20 +20441,20 @@
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J279" t="n">
-        <v>1600</v>
+        <v>3400</v>
       </c>
       <c r="K279" t="n">
         <v>500</v>
       </c>
       <c r="L279" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M279" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="N279" t="inlineStr">
         <is>
@@ -20463,11 +20463,11 @@
       </c>
       <c r="O279" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P279" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="Q279" t="n">
         <v>1</v>
@@ -20493,7 +20493,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44397</v>
+        <v>44371</v>
       </c>
       <c r="E280" t="n">
         <v>13</v>
@@ -20513,20 +20513,20 @@
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J280" t="n">
-        <v>4300</v>
+        <v>970</v>
       </c>
       <c r="K280" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L280" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M280" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="N280" t="inlineStr">
         <is>
@@ -20539,7 +20539,7 @@
         </is>
       </c>
       <c r="P280" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="Q280" t="n">
         <v>1</v>
@@ -20565,7 +20565,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44397</v>
+        <v>44371</v>
       </c>
       <c r="E281" t="n">
         <v>13</v>
@@ -20585,20 +20585,20 @@
       </c>
       <c r="I281" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J281" t="n">
-        <v>3400</v>
+        <v>1600</v>
       </c>
       <c r="K281" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L281" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M281" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="N281" t="inlineStr">
         <is>
@@ -20611,7 +20611,7 @@
         </is>
       </c>
       <c r="P281" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="Q281" t="n">
         <v>1</v>
@@ -20637,7 +20637,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44397</v>
+        <v>44316</v>
       </c>
       <c r="E282" t="n">
         <v>13</v>
@@ -20657,20 +20657,20 @@
       </c>
       <c r="I282" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J282" t="n">
-        <v>1600</v>
+        <v>3400</v>
       </c>
       <c r="K282" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L282" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="M282" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="N282" t="inlineStr">
         <is>
@@ -20683,7 +20683,7 @@
         </is>
       </c>
       <c r="P282" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="Q282" t="n">
         <v>1</v>
@@ -20709,7 +20709,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44397</v>
+        <v>44316</v>
       </c>
       <c r="E283" t="n">
         <v>13</v>
@@ -20733,16 +20733,16 @@
         </is>
       </c>
       <c r="J283" t="n">
-        <v>970</v>
+        <v>1600</v>
       </c>
       <c r="K283" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L283" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M283" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N283" t="inlineStr">
         <is>
@@ -20751,11 +20751,11 @@
       </c>
       <c r="O283" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P283" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Q283" t="n">
         <v>1</v>
@@ -20781,7 +20781,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E284" t="n">
         <v>13</v>
@@ -20805,7 +20805,7 @@
         </is>
       </c>
       <c r="J284" t="n">
-        <v>2500</v>
+        <v>4300</v>
       </c>
       <c r="K284" t="n">
         <v>500</v>
@@ -20853,7 +20853,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E285" t="n">
         <v>13</v>
@@ -20877,7 +20877,7 @@
         </is>
       </c>
       <c r="J285" t="n">
-        <v>1600</v>
+        <v>3400</v>
       </c>
       <c r="K285" t="n">
         <v>500</v>
@@ -20925,7 +20925,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E286" t="n">
         <v>13</v>
@@ -20997,7 +20997,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E287" t="n">
         <v>13</v>
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="J287" t="n">
-        <v>700</v>
+        <v>970</v>
       </c>
       <c r="K287" t="n">
         <v>400</v>
@@ -21069,7 +21069,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44273</v>
+        <v>44363</v>
       </c>
       <c r="E288" t="n">
         <v>13</v>
@@ -21093,16 +21093,16 @@
         </is>
       </c>
       <c r="J288" t="n">
-        <v>1600</v>
+        <v>2500</v>
       </c>
       <c r="K288" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="L288" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="M288" t="n">
-        <v>1000</v>
+        <v>550</v>
       </c>
       <c r="N288" t="inlineStr">
         <is>
@@ -21115,7 +21115,7 @@
         </is>
       </c>
       <c r="P288" t="n">
-        <v>1000</v>
+        <v>550</v>
       </c>
       <c r="Q288" t="n">
         <v>1</v>
@@ -21141,7 +21141,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44438</v>
+        <v>44363</v>
       </c>
       <c r="E289" t="n">
         <v>13</v>
@@ -21168,13 +21168,13 @@
         <v>1600</v>
       </c>
       <c r="K289" t="n">
+        <v>500</v>
+      </c>
+      <c r="L289" t="n">
         <v>600</v>
       </c>
-      <c r="L289" t="n">
-        <v>650</v>
-      </c>
       <c r="M289" t="n">
-        <v>625</v>
+        <v>550</v>
       </c>
       <c r="N289" t="inlineStr">
         <is>
@@ -21183,11 +21183,11 @@
       </c>
       <c r="O289" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P289" t="n">
-        <v>625</v>
+        <v>550</v>
       </c>
       <c r="Q289" t="n">
         <v>1</v>
@@ -21213,7 +21213,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44438</v>
+        <v>44363</v>
       </c>
       <c r="E290" t="n">
         <v>13</v>
@@ -21237,16 +21237,16 @@
         </is>
       </c>
       <c r="J290" t="n">
-        <v>610</v>
+        <v>1600</v>
       </c>
       <c r="K290" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L290" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="M290" t="n">
-        <v>525</v>
+        <v>400</v>
       </c>
       <c r="N290" t="inlineStr">
         <is>
@@ -21259,7 +21259,7 @@
         </is>
       </c>
       <c r="P290" t="n">
-        <v>525</v>
+        <v>400</v>
       </c>
       <c r="Q290" t="n">
         <v>1</v>
@@ -21285,7 +21285,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44372</v>
+        <v>44363</v>
       </c>
       <c r="E291" t="n">
         <v>13</v>
@@ -21305,20 +21305,20 @@
       </c>
       <c r="I291" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J291" t="n">
-        <v>3400</v>
+        <v>700</v>
       </c>
       <c r="K291" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L291" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M291" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="N291" t="inlineStr">
         <is>
@@ -21327,11 +21327,11 @@
       </c>
       <c r="O291" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P291" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="Q291" t="n">
         <v>1</v>
@@ -21357,7 +21357,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44372</v>
+        <v>44273</v>
       </c>
       <c r="E292" t="n">
         <v>13</v>
@@ -21377,20 +21377,20 @@
       </c>
       <c r="I292" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J292" t="n">
-        <v>970</v>
+        <v>1600</v>
       </c>
       <c r="K292" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="L292" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="M292" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="N292" t="inlineStr">
         <is>
@@ -21403,7 +21403,7 @@
         </is>
       </c>
       <c r="P292" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="Q292" t="n">
         <v>1</v>
@@ -21429,7 +21429,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44286</v>
+        <v>44438</v>
       </c>
       <c r="E293" t="n">
         <v>13</v>
@@ -21456,13 +21456,13 @@
         <v>1600</v>
       </c>
       <c r="K293" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="L293" t="n">
-        <v>900</v>
+        <v>650</v>
       </c>
       <c r="M293" t="n">
-        <v>900</v>
+        <v>625</v>
       </c>
       <c r="N293" t="inlineStr">
         <is>
@@ -21475,7 +21475,7 @@
         </is>
       </c>
       <c r="P293" t="n">
-        <v>900</v>
+        <v>625</v>
       </c>
       <c r="Q293" t="n">
         <v>1</v>
@@ -21501,7 +21501,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44356</v>
+        <v>44438</v>
       </c>
       <c r="E294" t="n">
         <v>13</v>
@@ -21521,20 +21521,20 @@
       </c>
       <c r="I294" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J294" t="n">
-        <v>2500</v>
+        <v>610</v>
       </c>
       <c r="K294" t="n">
         <v>500</v>
       </c>
       <c r="L294" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="M294" t="n">
-        <v>550</v>
+        <v>525</v>
       </c>
       <c r="N294" t="inlineStr">
         <is>
@@ -21543,11 +21543,11 @@
       </c>
       <c r="O294" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P294" t="n">
-        <v>550</v>
+        <v>525</v>
       </c>
       <c r="Q294" t="n">
         <v>1</v>
@@ -21573,7 +21573,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44356</v>
+        <v>44372</v>
       </c>
       <c r="E295" t="n">
         <v>13</v>
@@ -21593,20 +21593,20 @@
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J295" t="n">
-        <v>700</v>
+        <v>3400</v>
       </c>
       <c r="K295" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L295" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M295" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="N295" t="inlineStr">
         <is>
@@ -21615,11 +21615,11 @@
       </c>
       <c r="O295" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P295" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="Q295" t="n">
         <v>1</v>
@@ -21645,7 +21645,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44160</v>
+        <v>44372</v>
       </c>
       <c r="E296" t="n">
         <v>13</v>
@@ -21665,20 +21665,20 @@
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J296" t="n">
-        <v>3600</v>
+        <v>970</v>
       </c>
       <c r="K296" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L296" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M296" t="n">
-        <v>556</v>
+        <v>400</v>
       </c>
       <c r="N296" t="inlineStr">
         <is>
@@ -21687,11 +21687,11 @@
       </c>
       <c r="O296" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P296" t="n">
-        <v>556</v>
+        <v>400</v>
       </c>
       <c r="Q296" t="n">
         <v>1</v>
@@ -21717,7 +21717,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44351</v>
+        <v>44286</v>
       </c>
       <c r="E297" t="n">
         <v>13</v>
@@ -21741,16 +21741,16 @@
         </is>
       </c>
       <c r="J297" t="n">
-        <v>3400</v>
+        <v>1600</v>
       </c>
       <c r="K297" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="L297" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="M297" t="n">
-        <v>550</v>
+        <v>900</v>
       </c>
       <c r="N297" t="inlineStr">
         <is>
@@ -21763,7 +21763,7 @@
         </is>
       </c>
       <c r="P297" t="n">
-        <v>550</v>
+        <v>900</v>
       </c>
       <c r="Q297" t="n">
         <v>1</v>
@@ -21789,7 +21789,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E298" t="n">
         <v>13</v>
@@ -21813,7 +21813,7 @@
         </is>
       </c>
       <c r="J298" t="n">
-        <v>4300</v>
+        <v>2500</v>
       </c>
       <c r="K298" t="n">
         <v>500</v>
@@ -21861,7 +21861,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E299" t="n">
         <v>13</v>
@@ -21885,7 +21885,7 @@
         </is>
       </c>
       <c r="J299" t="n">
-        <v>1600</v>
+        <v>700</v>
       </c>
       <c r="K299" t="n">
         <v>400</v>
@@ -21903,7 +21903,7 @@
       </c>
       <c r="O299" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P299" t="n">
@@ -21933,7 +21933,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E300" t="n">
         <v>13</v>
@@ -21953,20 +21953,20 @@
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J300" t="n">
-        <v>2500</v>
+        <v>3600</v>
       </c>
       <c r="K300" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L300" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M300" t="n">
-        <v>400</v>
+        <v>556</v>
       </c>
       <c r="N300" t="inlineStr">
         <is>
@@ -21975,11 +21975,11 @@
       </c>
       <c r="O300" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P300" t="n">
-        <v>400</v>
+        <v>556</v>
       </c>
       <c r="Q300" t="n">
         <v>1</v>
@@ -22005,7 +22005,7 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E301" t="n">
         <v>13</v>
@@ -22077,7 +22077,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E302" t="n">
         <v>13</v>
@@ -22101,7 +22101,7 @@
         </is>
       </c>
       <c r="J302" t="n">
-        <v>2500</v>
+        <v>4300</v>
       </c>
       <c r="K302" t="n">
         <v>500</v>
@@ -22149,7 +22149,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E303" t="n">
         <v>13</v>
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E304" t="n">
         <v>13</v>
@@ -22245,7 +22245,7 @@
         </is>
       </c>
       <c r="J304" t="n">
-        <v>970</v>
+        <v>2500</v>
       </c>
       <c r="K304" t="n">
         <v>400</v>
@@ -22293,7 +22293,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E305" t="n">
         <v>13</v>
@@ -22317,16 +22317,16 @@
         </is>
       </c>
       <c r="J305" t="n">
-        <v>1600</v>
+        <v>3400</v>
       </c>
       <c r="K305" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L305" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M305" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="N305" t="inlineStr">
         <is>
@@ -22335,11 +22335,11 @@
       </c>
       <c r="O305" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P305" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="Q305" t="n">
         <v>1</v>
@@ -22365,7 +22365,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44215</v>
+        <v>44365</v>
       </c>
       <c r="E306" t="n">
         <v>13</v>
@@ -22389,16 +22389,16 @@
         </is>
       </c>
       <c r="J306" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="K306" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="L306" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="M306" t="n">
-        <v>950</v>
+        <v>550</v>
       </c>
       <c r="N306" t="inlineStr">
         <is>
@@ -22411,7 +22411,7 @@
         </is>
       </c>
       <c r="P306" t="n">
-        <v>950</v>
+        <v>550</v>
       </c>
       <c r="Q306" t="n">
         <v>1</v>
@@ -22437,7 +22437,7 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>44175</v>
+        <v>44365</v>
       </c>
       <c r="E307" t="n">
         <v>13</v>
@@ -22457,20 +22457,20 @@
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J307" t="n">
-        <v>5200</v>
+        <v>1600</v>
       </c>
       <c r="K307" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="L307" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="M307" t="n">
-        <v>850</v>
+        <v>400</v>
       </c>
       <c r="N307" t="inlineStr">
         <is>
@@ -22483,7 +22483,7 @@
         </is>
       </c>
       <c r="P307" t="n">
-        <v>850</v>
+        <v>400</v>
       </c>
       <c r="Q307" t="n">
         <v>1</v>
@@ -22509,7 +22509,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44357</v>
+        <v>44365</v>
       </c>
       <c r="E308" t="n">
         <v>13</v>
@@ -22529,20 +22529,20 @@
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J308" t="n">
-        <v>3400</v>
+        <v>970</v>
       </c>
       <c r="K308" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L308" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M308" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="N308" t="inlineStr">
         <is>
@@ -22551,11 +22551,11 @@
       </c>
       <c r="O308" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P308" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="Q308" t="n">
         <v>1</v>
@@ -22581,7 +22581,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44357</v>
+        <v>44306</v>
       </c>
       <c r="E309" t="n">
         <v>13</v>
@@ -22605,16 +22605,16 @@
         </is>
       </c>
       <c r="J309" t="n">
-        <v>4300</v>
+        <v>1600</v>
       </c>
       <c r="K309" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L309" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M309" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="N309" t="inlineStr">
         <is>
@@ -22623,11 +22623,11 @@
       </c>
       <c r="O309" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P309" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="Q309" t="n">
         <v>1</v>
@@ -22653,7 +22653,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44357</v>
+        <v>44215</v>
       </c>
       <c r="E310" t="n">
         <v>13</v>
@@ -22673,20 +22673,20 @@
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J310" t="n">
-        <v>1300</v>
+        <v>2000</v>
       </c>
       <c r="K310" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="L310" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="M310" t="n">
-        <v>400</v>
+        <v>950</v>
       </c>
       <c r="N310" t="inlineStr">
         <is>
@@ -22695,11 +22695,11 @@
       </c>
       <c r="O310" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P310" t="n">
-        <v>400</v>
+        <v>950</v>
       </c>
       <c r="Q310" t="n">
         <v>1</v>
@@ -22725,7 +22725,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E311" t="n">
         <v>13</v>
@@ -22745,20 +22745,20 @@
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J311" t="n">
-        <v>1600</v>
+        <v>5200</v>
       </c>
       <c r="K311" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="L311" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="M311" t="n">
-        <v>400</v>
+        <v>850</v>
       </c>
       <c r="N311" t="inlineStr">
         <is>
@@ -22767,11 +22767,11 @@
       </c>
       <c r="O311" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P311" t="n">
-        <v>400</v>
+        <v>850</v>
       </c>
       <c r="Q311" t="n">
         <v>1</v>
@@ -22797,7 +22797,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E312" t="n">
         <v>13</v>
@@ -22821,16 +22821,16 @@
         </is>
       </c>
       <c r="J312" t="n">
-        <v>4500</v>
+        <v>3400</v>
       </c>
       <c r="K312" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L312" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M312" t="n">
-        <v>756</v>
+        <v>550</v>
       </c>
       <c r="N312" t="inlineStr">
         <is>
@@ -22839,11 +22839,11 @@
       </c>
       <c r="O312" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P312" t="n">
-        <v>756</v>
+        <v>550</v>
       </c>
       <c r="Q312" t="n">
         <v>1</v>
@@ -22869,7 +22869,7 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E313" t="n">
         <v>13</v>
@@ -22889,20 +22889,20 @@
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J313" t="n">
-        <v>2000</v>
+        <v>4300</v>
       </c>
       <c r="K313" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L313" t="n">
         <v>600</v>
       </c>
       <c r="M313" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="N313" t="inlineStr">
         <is>
@@ -22911,11 +22911,11 @@
       </c>
       <c r="O313" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P313" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="Q313" t="n">
         <v>1</v>
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>44162</v>
+        <v>44357</v>
       </c>
       <c r="E314" t="n">
         <v>13</v>
@@ -22961,20 +22961,20 @@
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J314" t="n">
-        <v>4800</v>
+        <v>1300</v>
       </c>
       <c r="K314" t="n">
         <v>400</v>
       </c>
       <c r="L314" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M314" t="n">
-        <v>448</v>
+        <v>400</v>
       </c>
       <c r="N314" t="inlineStr">
         <is>
@@ -22983,11 +22983,11 @@
       </c>
       <c r="O314" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P314" t="n">
-        <v>448</v>
+        <v>400</v>
       </c>
       <c r="Q314" t="n">
         <v>1</v>
@@ -23013,7 +23013,7 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>44411</v>
+        <v>44357</v>
       </c>
       <c r="E315" t="n">
         <v>13</v>
@@ -23033,20 +23033,20 @@
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J315" t="n">
-        <v>3400</v>
+        <v>1600</v>
       </c>
       <c r="K315" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L315" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M315" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="N315" t="inlineStr">
         <is>
@@ -23055,11 +23055,11 @@
       </c>
       <c r="O315" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P315" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="Q315" t="n">
         <v>1</v>
@@ -23085,7 +23085,7 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>44411</v>
+        <v>44203</v>
       </c>
       <c r="E316" t="n">
         <v>13</v>
@@ -23109,16 +23109,16 @@
         </is>
       </c>
       <c r="J316" t="n">
-        <v>2500</v>
+        <v>4500</v>
       </c>
       <c r="K316" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L316" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M316" t="n">
-        <v>550</v>
+        <v>756</v>
       </c>
       <c r="N316" t="inlineStr">
         <is>
@@ -23127,11 +23127,11 @@
       </c>
       <c r="O316" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P316" t="n">
-        <v>550</v>
+        <v>756</v>
       </c>
       <c r="Q316" t="n">
         <v>1</v>
@@ -23157,7 +23157,7 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>44411</v>
+        <v>44203</v>
       </c>
       <c r="E317" t="n">
         <v>13</v>
@@ -23181,16 +23181,16 @@
         </is>
       </c>
       <c r="J317" t="n">
-        <v>970</v>
+        <v>2000</v>
       </c>
       <c r="K317" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L317" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M317" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="N317" t="inlineStr">
         <is>
@@ -23199,11 +23199,11 @@
       </c>
       <c r="O317" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P317" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="Q317" t="n">
         <v>1</v>
@@ -23229,7 +23229,7 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>44411</v>
+        <v>44162</v>
       </c>
       <c r="E318" t="n">
         <v>13</v>
@@ -23249,20 +23249,20 @@
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J318" t="n">
-        <v>790</v>
+        <v>4800</v>
       </c>
       <c r="K318" t="n">
         <v>400</v>
       </c>
       <c r="L318" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M318" t="n">
-        <v>400</v>
+        <v>448</v>
       </c>
       <c r="N318" t="inlineStr">
         <is>
@@ -23271,11 +23271,11 @@
       </c>
       <c r="O318" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P318" t="n">
-        <v>400</v>
+        <v>448</v>
       </c>
       <c r="Q318" t="n">
         <v>1</v>
@@ -23301,7 +23301,7 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E319" t="n">
         <v>13</v>
@@ -23325,16 +23325,16 @@
         </is>
       </c>
       <c r="J319" t="n">
-        <v>700</v>
+        <v>3400</v>
       </c>
       <c r="K319" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="L319" t="n">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="M319" t="n">
-        <v>1200</v>
+        <v>550</v>
       </c>
       <c r="N319" t="inlineStr">
         <is>
@@ -23347,7 +23347,7 @@
         </is>
       </c>
       <c r="P319" t="n">
-        <v>1200</v>
+        <v>550</v>
       </c>
       <c r="Q319" t="n">
         <v>1</v>
@@ -23373,7 +23373,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44176</v>
+        <v>44411</v>
       </c>
       <c r="E320" t="n">
         <v>13</v>
@@ -23397,16 +23397,16 @@
         </is>
       </c>
       <c r="J320" t="n">
-        <v>5200</v>
+        <v>2500</v>
       </c>
       <c r="K320" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L320" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M320" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="N320" t="inlineStr">
         <is>
@@ -23415,11 +23415,11 @@
       </c>
       <c r="O320" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P320" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="Q320" t="n">
         <v>1</v>
@@ -23445,7 +23445,7 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>44239</v>
+        <v>44411</v>
       </c>
       <c r="E321" t="n">
         <v>13</v>
@@ -23465,20 +23465,20 @@
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J321" t="n">
-        <v>1600</v>
+        <v>970</v>
       </c>
       <c r="K321" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="L321" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="M321" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="N321" t="inlineStr">
         <is>
@@ -23491,7 +23491,7 @@
         </is>
       </c>
       <c r="P321" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="Q321" t="n">
         <v>1</v>
@@ -23517,7 +23517,7 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>44376</v>
+        <v>44411</v>
       </c>
       <c r="E322" t="n">
         <v>13</v>
@@ -23537,20 +23537,20 @@
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J322" t="n">
-        <v>3400</v>
+        <v>790</v>
       </c>
       <c r="K322" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L322" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M322" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="N322" t="inlineStr">
         <is>
@@ -23559,11 +23559,11 @@
       </c>
       <c r="O322" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P322" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="Q322" t="n">
         <v>1</v>
@@ -23589,7 +23589,7 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>44376</v>
+        <v>44257</v>
       </c>
       <c r="E323" t="n">
         <v>13</v>
@@ -23613,16 +23613,16 @@
         </is>
       </c>
       <c r="J323" t="n">
-        <v>2500</v>
+        <v>700</v>
       </c>
       <c r="K323" t="n">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="L323" t="n">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="M323" t="n">
-        <v>550</v>
+        <v>1200</v>
       </c>
       <c r="N323" t="inlineStr">
         <is>
@@ -23631,11 +23631,11 @@
       </c>
       <c r="O323" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P323" t="n">
-        <v>550</v>
+        <v>1200</v>
       </c>
       <c r="Q323" t="n">
         <v>1</v>
@@ -23661,7 +23661,7 @@
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>44376</v>
+        <v>44176</v>
       </c>
       <c r="E324" t="n">
         <v>13</v>
@@ -23681,20 +23681,20 @@
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J324" t="n">
-        <v>1600</v>
+        <v>5200</v>
       </c>
       <c r="K324" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="L324" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="M324" t="n">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="N324" t="inlineStr">
         <is>
@@ -23707,7 +23707,7 @@
         </is>
       </c>
       <c r="P324" t="n">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="Q324" t="n">
         <v>1</v>
@@ -23733,7 +23733,7 @@
         </is>
       </c>
       <c r="D325" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E325" t="n">
         <v>13</v>
@@ -23753,20 +23753,20 @@
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J325" t="n">
-        <v>970</v>
+        <v>1600</v>
       </c>
       <c r="K325" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="L325" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="M325" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="N325" t="inlineStr">
         <is>
@@ -23775,11 +23775,11 @@
       </c>
       <c r="O325" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P325" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="Q325" t="n">
         <v>1</v>
@@ -23805,7 +23805,7 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E326" t="n">
         <v>13</v>
@@ -23829,16 +23829,16 @@
         </is>
       </c>
       <c r="J326" t="n">
-        <v>1600</v>
+        <v>3400</v>
       </c>
       <c r="K326" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="L326" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="M326" t="n">
-        <v>900</v>
+        <v>550</v>
       </c>
       <c r="N326" t="inlineStr">
         <is>
@@ -23851,7 +23851,7 @@
         </is>
       </c>
       <c r="P326" t="n">
-        <v>900</v>
+        <v>550</v>
       </c>
       <c r="Q326" t="n">
         <v>1</v>
@@ -23877,7 +23877,7 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E327" t="n">
         <v>13</v>
@@ -23901,7 +23901,7 @@
         </is>
       </c>
       <c r="J327" t="n">
-        <v>4300</v>
+        <v>2500</v>
       </c>
       <c r="K327" t="n">
         <v>500</v>
@@ -23919,7 +23919,7 @@
       </c>
       <c r="O327" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P327" t="n">
@@ -23949,7 +23949,7 @@
         </is>
       </c>
       <c r="D328" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E328" t="n">
         <v>13</v>
@@ -23969,20 +23969,20 @@
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J328" t="n">
-        <v>3400</v>
+        <v>1600</v>
       </c>
       <c r="K328" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L328" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M328" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="N328" t="inlineStr">
         <is>
@@ -23991,11 +23991,11 @@
       </c>
       <c r="O328" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P328" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="Q328" t="n">
         <v>1</v>
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E329" t="n">
         <v>13</v>
@@ -24045,7 +24045,7 @@
         </is>
       </c>
       <c r="J329" t="n">
-        <v>2500</v>
+        <v>970</v>
       </c>
       <c r="K329" t="n">
         <v>400</v>
@@ -24063,7 +24063,7 @@
       </c>
       <c r="O329" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P329" t="n">
@@ -24093,7 +24093,7 @@
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E330" t="n">
         <v>13</v>
@@ -24113,20 +24113,20 @@
       </c>
       <c r="I330" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J330" t="n">
         <v>1600</v>
       </c>
       <c r="K330" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="L330" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="M330" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="N330" t="inlineStr">
         <is>
@@ -24135,11 +24135,11 @@
       </c>
       <c r="O330" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P330" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="Q330" t="n">
         <v>1</v>
@@ -24165,7 +24165,7 @@
         </is>
       </c>
       <c r="D331" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E331" t="n">
         <v>13</v>
@@ -24189,16 +24189,16 @@
         </is>
       </c>
       <c r="J331" t="n">
-        <v>2500</v>
+        <v>4300</v>
       </c>
       <c r="K331" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="L331" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="M331" t="n">
-        <v>950</v>
+        <v>550</v>
       </c>
       <c r="N331" t="inlineStr">
         <is>
@@ -24211,7 +24211,7 @@
         </is>
       </c>
       <c r="P331" t="n">
-        <v>950</v>
+        <v>550</v>
       </c>
       <c r="Q331" t="n">
         <v>1</v>
@@ -24237,7 +24237,7 @@
         </is>
       </c>
       <c r="D332" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E332" t="n">
         <v>13</v>
@@ -24261,16 +24261,16 @@
         </is>
       </c>
       <c r="J332" t="n">
-        <v>4300</v>
+        <v>3400</v>
       </c>
       <c r="K332" t="n">
+        <v>500</v>
+      </c>
+      <c r="L332" t="n">
         <v>600</v>
       </c>
-      <c r="L332" t="n">
-        <v>700</v>
-      </c>
       <c r="M332" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="N332" t="inlineStr">
         <is>
@@ -24279,11 +24279,11 @@
       </c>
       <c r="O332" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P332" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="Q332" t="n">
         <v>1</v>
@@ -24309,7 +24309,7 @@
         </is>
       </c>
       <c r="D333" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E333" t="n">
         <v>13</v>
@@ -24329,20 +24329,20 @@
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J333" t="n">
-        <v>3400</v>
+        <v>2500</v>
       </c>
       <c r="K333" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L333" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="M333" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="N333" t="inlineStr">
         <is>
@@ -24351,11 +24351,11 @@
       </c>
       <c r="O333" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P333" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="Q333" t="n">
         <v>1</v>
@@ -24381,7 +24381,7 @@
         </is>
       </c>
       <c r="D334" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E334" t="n">
         <v>13</v>
@@ -24411,10 +24411,10 @@
         <v>400</v>
       </c>
       <c r="L334" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M334" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="N334" t="inlineStr">
         <is>
@@ -24423,11 +24423,11 @@
       </c>
       <c r="O334" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P334" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="Q334" t="n">
         <v>1</v>
@@ -24453,7 +24453,7 @@
         </is>
       </c>
       <c r="D335" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E335" t="n">
         <v>13</v>
@@ -24473,20 +24473,20 @@
       </c>
       <c r="I335" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J335" t="n">
-        <v>1300</v>
+        <v>2500</v>
       </c>
       <c r="K335" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="L335" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="M335" t="n">
-        <v>450</v>
+        <v>950</v>
       </c>
       <c r="N335" t="inlineStr">
         <is>
@@ -24495,11 +24495,11 @@
       </c>
       <c r="O335" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P335" t="n">
-        <v>450</v>
+        <v>950</v>
       </c>
       <c r="Q335" t="n">
         <v>1</v>
@@ -24525,7 +24525,7 @@
         </is>
       </c>
       <c r="D336" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E336" t="n">
         <v>13</v>
@@ -24549,16 +24549,16 @@
         </is>
       </c>
       <c r="J336" t="n">
-        <v>2500</v>
+        <v>4300</v>
       </c>
       <c r="K336" t="n">
         <v>600</v>
       </c>
       <c r="L336" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M336" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="N336" t="inlineStr">
         <is>
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="P336" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="Q336" t="n">
         <v>1</v>
@@ -24597,58 +24597,346 @@
         </is>
       </c>
       <c r="D337" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E337" t="n">
+        <v>13</v>
+      </c>
+      <c r="F337" t="n">
+        <v>100112008</v>
+      </c>
+      <c r="G337" t="inlineStr">
+        <is>
+          <t>Coliflor</t>
+        </is>
+      </c>
+      <c r="H337" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I337" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J337" t="n">
+        <v>3400</v>
+      </c>
+      <c r="K337" t="n">
+        <v>600</v>
+      </c>
+      <c r="L337" t="n">
+        <v>700</v>
+      </c>
+      <c r="M337" t="n">
+        <v>650</v>
+      </c>
+      <c r="N337" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O337" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P337" t="n">
+        <v>650</v>
+      </c>
+      <c r="Q337" t="n">
+        <v>1</v>
+      </c>
+      <c r="R337" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="n">
+        <v>9</v>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D338" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E338" t="n">
+        <v>13</v>
+      </c>
+      <c r="F338" t="n">
+        <v>100112008</v>
+      </c>
+      <c r="G338" t="inlineStr">
+        <is>
+          <t>Coliflor</t>
+        </is>
+      </c>
+      <c r="H338" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I338" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J338" t="n">
+        <v>1600</v>
+      </c>
+      <c r="K338" t="n">
+        <v>400</v>
+      </c>
+      <c r="L338" t="n">
+        <v>500</v>
+      </c>
+      <c r="M338" t="n">
+        <v>450</v>
+      </c>
+      <c r="N338" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O338" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P338" t="n">
+        <v>450</v>
+      </c>
+      <c r="Q338" t="n">
+        <v>1</v>
+      </c>
+      <c r="R338" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="n">
+        <v>9</v>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D339" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E339" t="n">
+        <v>13</v>
+      </c>
+      <c r="F339" t="n">
+        <v>100112008</v>
+      </c>
+      <c r="G339" t="inlineStr">
+        <is>
+          <t>Coliflor</t>
+        </is>
+      </c>
+      <c r="H339" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I339" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J339" t="n">
+        <v>1300</v>
+      </c>
+      <c r="K339" t="n">
+        <v>400</v>
+      </c>
+      <c r="L339" t="n">
+        <v>500</v>
+      </c>
+      <c r="M339" t="n">
+        <v>450</v>
+      </c>
+      <c r="N339" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O339" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P339" t="n">
+        <v>450</v>
+      </c>
+      <c r="Q339" t="n">
+        <v>1</v>
+      </c>
+      <c r="R339" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="n">
+        <v>9</v>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D340" s="2" t="n">
         <v>44323</v>
       </c>
-      <c r="E337" t="n">
-        <v>13</v>
-      </c>
-      <c r="F337" t="n">
-        <v>100112008</v>
-      </c>
-      <c r="G337" t="inlineStr">
-        <is>
-          <t>Coliflor</t>
-        </is>
-      </c>
-      <c r="H337" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="I337" t="inlineStr">
+      <c r="E340" t="n">
+        <v>13</v>
+      </c>
+      <c r="F340" t="n">
+        <v>100112008</v>
+      </c>
+      <c r="G340" t="inlineStr">
+        <is>
+          <t>Coliflor</t>
+        </is>
+      </c>
+      <c r="H340" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I340" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J340" t="n">
+        <v>2500</v>
+      </c>
+      <c r="K340" t="n">
+        <v>600</v>
+      </c>
+      <c r="L340" t="n">
+        <v>600</v>
+      </c>
+      <c r="M340" t="n">
+        <v>600</v>
+      </c>
+      <c r="N340" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O340" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P340" t="n">
+        <v>600</v>
+      </c>
+      <c r="Q340" t="n">
+        <v>1</v>
+      </c>
+      <c r="R340" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="n">
+        <v>9</v>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D341" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E341" t="n">
+        <v>13</v>
+      </c>
+      <c r="F341" t="n">
+        <v>100112008</v>
+      </c>
+      <c r="G341" t="inlineStr">
+        <is>
+          <t>Coliflor</t>
+        </is>
+      </c>
+      <c r="H341" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I341" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J337" t="n">
+      <c r="J341" t="n">
         <v>700</v>
       </c>
-      <c r="K337" t="n">
+      <c r="K341" t="n">
         <v>500</v>
       </c>
-      <c r="L337" t="n">
+      <c r="L341" t="n">
         <v>500</v>
       </c>
-      <c r="M337" t="n">
+      <c r="M341" t="n">
         <v>500</v>
       </c>
-      <c r="N337" t="inlineStr">
-        <is>
-          <t>$/unidad</t>
-        </is>
-      </c>
-      <c r="O337" t="inlineStr">
+      <c r="N341" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O341" t="inlineStr">
         <is>
           <t>Región Metropolitana</t>
         </is>
       </c>
-      <c r="P337" t="n">
+      <c r="P341" t="n">
         <v>500</v>
       </c>
-      <c r="Q337" t="n">
-        <v>1</v>
-      </c>
-      <c r="R337" t="inlineStr">
+      <c r="Q341" t="n">
+        <v>1</v>
+      </c>
+      <c r="R341" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Coliflor.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Coliflor.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R341"/>
+  <dimension ref="A1:R345"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17325,7 +17325,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44414</v>
+        <v>44460</v>
       </c>
       <c r="E236" t="n">
         <v>13</v>
@@ -17349,16 +17349,16 @@
         </is>
       </c>
       <c r="J236" t="n">
-        <v>4300</v>
+        <v>3400</v>
       </c>
       <c r="K236" t="n">
         <v>600</v>
       </c>
       <c r="L236" t="n">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="M236" t="n">
-        <v>650</v>
+        <v>625</v>
       </c>
       <c r="N236" t="inlineStr">
         <is>
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="P236" t="n">
-        <v>650</v>
+        <v>625</v>
       </c>
       <c r="Q236" t="n">
         <v>1</v>
@@ -17397,7 +17397,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44414</v>
+        <v>44460</v>
       </c>
       <c r="E237" t="n">
         <v>13</v>
@@ -17421,16 +17421,16 @@
         </is>
       </c>
       <c r="J237" t="n">
-        <v>5200</v>
+        <v>2500</v>
       </c>
       <c r="K237" t="n">
         <v>600</v>
       </c>
       <c r="L237" t="n">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="M237" t="n">
-        <v>650</v>
+        <v>625</v>
       </c>
       <c r="N237" t="inlineStr">
         <is>
@@ -17443,7 +17443,7 @@
         </is>
       </c>
       <c r="P237" t="n">
-        <v>650</v>
+        <v>625</v>
       </c>
       <c r="Q237" t="n">
         <v>1</v>
@@ -17469,7 +17469,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44414</v>
+        <v>44460</v>
       </c>
       <c r="E238" t="n">
         <v>13</v>
@@ -17493,16 +17493,16 @@
         </is>
       </c>
       <c r="J238" t="n">
-        <v>1600</v>
+        <v>1330</v>
       </c>
       <c r="K238" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="L238" t="n">
         <v>500</v>
       </c>
       <c r="M238" t="n">
-        <v>500</v>
+        <v>475</v>
       </c>
       <c r="N238" t="inlineStr">
         <is>
@@ -17515,7 +17515,7 @@
         </is>
       </c>
       <c r="P238" t="n">
-        <v>500</v>
+        <v>475</v>
       </c>
       <c r="Q238" t="n">
         <v>1</v>
@@ -17541,7 +17541,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44414</v>
+        <v>44460</v>
       </c>
       <c r="E239" t="n">
         <v>13</v>
@@ -17565,16 +17565,16 @@
         </is>
       </c>
       <c r="J239" t="n">
-        <v>2500</v>
+        <v>970</v>
       </c>
       <c r="K239" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="L239" t="n">
         <v>500</v>
       </c>
       <c r="M239" t="n">
-        <v>500</v>
+        <v>475</v>
       </c>
       <c r="N239" t="inlineStr">
         <is>
@@ -17587,7 +17587,7 @@
         </is>
       </c>
       <c r="P239" t="n">
-        <v>500</v>
+        <v>475</v>
       </c>
       <c r="Q239" t="n">
         <v>1</v>
@@ -17613,7 +17613,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44427</v>
+        <v>44414</v>
       </c>
       <c r="E240" t="n">
         <v>13</v>
@@ -17685,7 +17685,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44427</v>
+        <v>44414</v>
       </c>
       <c r="E241" t="n">
         <v>13</v>
@@ -17705,20 +17705,20 @@
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J241" t="n">
-        <v>1600</v>
+        <v>5200</v>
       </c>
       <c r="K241" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L241" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M241" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="N241" t="inlineStr">
         <is>
@@ -17727,11 +17727,11 @@
       </c>
       <c r="O241" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P241" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="Q241" t="n">
         <v>1</v>
@@ -17757,7 +17757,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44389</v>
+        <v>44414</v>
       </c>
       <c r="E242" t="n">
         <v>13</v>
@@ -17777,7 +17777,7 @@
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J242" t="n">
@@ -17787,10 +17787,10 @@
         <v>500</v>
       </c>
       <c r="L242" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M242" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="N242" t="inlineStr">
         <is>
@@ -17799,11 +17799,11 @@
       </c>
       <c r="O242" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P242" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="Q242" t="n">
         <v>1</v>
@@ -17829,7 +17829,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44389</v>
+        <v>44414</v>
       </c>
       <c r="E243" t="n">
         <v>13</v>
@@ -17853,16 +17853,16 @@
         </is>
       </c>
       <c r="J243" t="n">
-        <v>520</v>
+        <v>2500</v>
       </c>
       <c r="K243" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L243" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M243" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N243" t="inlineStr">
         <is>
@@ -17875,7 +17875,7 @@
         </is>
       </c>
       <c r="P243" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Q243" t="n">
         <v>1</v>
@@ -17901,7 +17901,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44249</v>
+        <v>44427</v>
       </c>
       <c r="E244" t="n">
         <v>13</v>
@@ -17925,16 +17925,16 @@
         </is>
       </c>
       <c r="J244" t="n">
+        <v>4300</v>
+      </c>
+      <c r="K244" t="n">
+        <v>600</v>
+      </c>
+      <c r="L244" t="n">
         <v>700</v>
       </c>
-      <c r="K244" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L244" t="n">
-        <v>1000</v>
-      </c>
       <c r="M244" t="n">
-        <v>1000</v>
+        <v>650</v>
       </c>
       <c r="N244" t="inlineStr">
         <is>
@@ -17947,7 +17947,7 @@
         </is>
       </c>
       <c r="P244" t="n">
-        <v>1000</v>
+        <v>650</v>
       </c>
       <c r="Q244" t="n">
         <v>1</v>
@@ -17973,7 +17973,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44343</v>
+        <v>44427</v>
       </c>
       <c r="E245" t="n">
         <v>13</v>
@@ -17993,20 +17993,20 @@
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J245" t="n">
-        <v>4200</v>
+        <v>1600</v>
       </c>
       <c r="K245" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L245" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M245" t="n">
-        <v>650</v>
+        <v>450</v>
       </c>
       <c r="N245" t="inlineStr">
         <is>
@@ -18019,7 +18019,7 @@
         </is>
       </c>
       <c r="P245" t="n">
-        <v>650</v>
+        <v>450</v>
       </c>
       <c r="Q245" t="n">
         <v>1</v>
@@ -18045,7 +18045,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44343</v>
+        <v>44389</v>
       </c>
       <c r="E246" t="n">
         <v>13</v>
@@ -18069,16 +18069,16 @@
         </is>
       </c>
       <c r="J246" t="n">
-        <v>3500</v>
+        <v>1600</v>
       </c>
       <c r="K246" t="n">
+        <v>500</v>
+      </c>
+      <c r="L246" t="n">
         <v>600</v>
       </c>
-      <c r="L246" t="n">
-        <v>700</v>
-      </c>
       <c r="M246" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="N246" t="inlineStr">
         <is>
@@ -18091,7 +18091,7 @@
         </is>
       </c>
       <c r="P246" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="Q246" t="n">
         <v>1</v>
@@ -18117,7 +18117,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44343</v>
+        <v>44389</v>
       </c>
       <c r="E247" t="n">
         <v>13</v>
@@ -18141,7 +18141,7 @@
         </is>
       </c>
       <c r="J247" t="n">
-        <v>1800</v>
+        <v>520</v>
       </c>
       <c r="K247" t="n">
         <v>400</v>
@@ -18159,7 +18159,7 @@
       </c>
       <c r="O247" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P247" t="n">
@@ -18189,7 +18189,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44343</v>
+        <v>44249</v>
       </c>
       <c r="E248" t="n">
         <v>13</v>
@@ -18209,20 +18209,20 @@
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J248" t="n">
-        <v>1700</v>
+        <v>700</v>
       </c>
       <c r="K248" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="L248" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="M248" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="N248" t="inlineStr">
         <is>
@@ -18231,11 +18231,11 @@
       </c>
       <c r="O248" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P248" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="Q248" t="n">
         <v>1</v>
@@ -18261,7 +18261,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44201</v>
+        <v>44343</v>
       </c>
       <c r="E249" t="n">
         <v>13</v>
@@ -18285,7 +18285,7 @@
         </is>
       </c>
       <c r="J249" t="n">
-        <v>3600</v>
+        <v>4200</v>
       </c>
       <c r="K249" t="n">
         <v>600</v>
@@ -18294,7 +18294,7 @@
         <v>700</v>
       </c>
       <c r="M249" t="n">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="N249" t="inlineStr">
         <is>
@@ -18307,7 +18307,7 @@
         </is>
       </c>
       <c r="P249" t="n">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="Q249" t="n">
         <v>1</v>
@@ -18333,7 +18333,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44280</v>
+        <v>44343</v>
       </c>
       <c r="E250" t="n">
         <v>13</v>
@@ -18357,16 +18357,16 @@
         </is>
       </c>
       <c r="J250" t="n">
-        <v>1600</v>
+        <v>3500</v>
       </c>
       <c r="K250" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="L250" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M250" t="n">
-        <v>900</v>
+        <v>650</v>
       </c>
       <c r="N250" t="inlineStr">
         <is>
@@ -18375,11 +18375,11 @@
       </c>
       <c r="O250" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P250" t="n">
-        <v>900</v>
+        <v>650</v>
       </c>
       <c r="Q250" t="n">
         <v>1</v>
@@ -18405,7 +18405,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44447</v>
+        <v>44343</v>
       </c>
       <c r="E251" t="n">
         <v>13</v>
@@ -18425,20 +18425,20 @@
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J251" t="n">
-        <v>2500</v>
+        <v>1800</v>
       </c>
       <c r="K251" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L251" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="M251" t="n">
-        <v>625</v>
+        <v>400</v>
       </c>
       <c r="N251" t="inlineStr">
         <is>
@@ -18451,7 +18451,7 @@
         </is>
       </c>
       <c r="P251" t="n">
-        <v>625</v>
+        <v>400</v>
       </c>
       <c r="Q251" t="n">
         <v>1</v>
@@ -18477,7 +18477,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44447</v>
+        <v>44343</v>
       </c>
       <c r="E252" t="n">
         <v>13</v>
@@ -18501,16 +18501,16 @@
         </is>
       </c>
       <c r="J252" t="n">
-        <v>970</v>
+        <v>1700</v>
       </c>
       <c r="K252" t="n">
         <v>400</v>
       </c>
       <c r="L252" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="M252" t="n">
-        <v>425</v>
+        <v>400</v>
       </c>
       <c r="N252" t="inlineStr">
         <is>
@@ -18519,11 +18519,11 @@
       </c>
       <c r="O252" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P252" t="n">
-        <v>425</v>
+        <v>400</v>
       </c>
       <c r="Q252" t="n">
         <v>1</v>
@@ -18549,7 +18549,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44267</v>
+        <v>44201</v>
       </c>
       <c r="E253" t="n">
         <v>13</v>
@@ -18573,16 +18573,16 @@
         </is>
       </c>
       <c r="J253" t="n">
-        <v>1200</v>
+        <v>3600</v>
       </c>
       <c r="K253" t="n">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="L253" t="n">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="M253" t="n">
-        <v>1100</v>
+        <v>656</v>
       </c>
       <c r="N253" t="inlineStr">
         <is>
@@ -18595,7 +18595,7 @@
         </is>
       </c>
       <c r="P253" t="n">
-        <v>1100</v>
+        <v>656</v>
       </c>
       <c r="Q253" t="n">
         <v>1</v>
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44187</v>
+        <v>44280</v>
       </c>
       <c r="E254" t="n">
         <v>13</v>
@@ -18645,16 +18645,16 @@
         </is>
       </c>
       <c r="J254" t="n">
-        <v>4900</v>
+        <v>1600</v>
       </c>
       <c r="K254" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="L254" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="M254" t="n">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="N254" t="inlineStr">
         <is>
@@ -18663,11 +18663,11 @@
       </c>
       <c r="O254" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P254" t="n">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="Q254" t="n">
         <v>1</v>
@@ -18693,7 +18693,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44390</v>
+        <v>44447</v>
       </c>
       <c r="E255" t="n">
         <v>13</v>
@@ -18717,16 +18717,16 @@
         </is>
       </c>
       <c r="J255" t="n">
-        <v>4300</v>
+        <v>2500</v>
       </c>
       <c r="K255" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L255" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="M255" t="n">
-        <v>550</v>
+        <v>625</v>
       </c>
       <c r="N255" t="inlineStr">
         <is>
@@ -18739,7 +18739,7 @@
         </is>
       </c>
       <c r="P255" t="n">
-        <v>550</v>
+        <v>625</v>
       </c>
       <c r="Q255" t="n">
         <v>1</v>
@@ -18765,7 +18765,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44390</v>
+        <v>44447</v>
       </c>
       <c r="E256" t="n">
         <v>13</v>
@@ -18785,20 +18785,20 @@
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J256" t="n">
-        <v>3400</v>
+        <v>970</v>
       </c>
       <c r="K256" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L256" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="M256" t="n">
-        <v>550</v>
+        <v>425</v>
       </c>
       <c r="N256" t="inlineStr">
         <is>
@@ -18807,11 +18807,11 @@
       </c>
       <c r="O256" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P256" t="n">
-        <v>550</v>
+        <v>425</v>
       </c>
       <c r="Q256" t="n">
         <v>1</v>
@@ -18837,7 +18837,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44390</v>
+        <v>44267</v>
       </c>
       <c r="E257" t="n">
         <v>13</v>
@@ -18857,20 +18857,20 @@
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J257" t="n">
-        <v>1600</v>
+        <v>1200</v>
       </c>
       <c r="K257" t="n">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="L257" t="n">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="M257" t="n">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="N257" t="inlineStr">
         <is>
@@ -18883,7 +18883,7 @@
         </is>
       </c>
       <c r="P257" t="n">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="Q257" t="n">
         <v>1</v>
@@ -18909,7 +18909,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44390</v>
+        <v>44187</v>
       </c>
       <c r="E258" t="n">
         <v>13</v>
@@ -18929,20 +18929,20 @@
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J258" t="n">
-        <v>970</v>
+        <v>4900</v>
       </c>
       <c r="K258" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="L258" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="M258" t="n">
-        <v>400</v>
+        <v>902</v>
       </c>
       <c r="N258" t="inlineStr">
         <is>
@@ -18951,11 +18951,11 @@
       </c>
       <c r="O258" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P258" t="n">
-        <v>400</v>
+        <v>902</v>
       </c>
       <c r="Q258" t="n">
         <v>1</v>
@@ -18981,7 +18981,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E259" t="n">
         <v>13</v>
@@ -19053,7 +19053,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E260" t="n">
         <v>13</v>
@@ -19125,7 +19125,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E261" t="n">
         <v>13</v>
@@ -19197,7 +19197,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E262" t="n">
         <v>13</v>
@@ -19269,7 +19269,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E263" t="n">
         <v>13</v>
@@ -19293,16 +19293,16 @@
         </is>
       </c>
       <c r="J263" t="n">
-        <v>1600</v>
+        <v>4300</v>
       </c>
       <c r="K263" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L263" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M263" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="N263" t="inlineStr">
         <is>
@@ -19315,7 +19315,7 @@
         </is>
       </c>
       <c r="P263" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="Q263" t="n">
         <v>1</v>
@@ -19341,7 +19341,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44264</v>
+        <v>44386</v>
       </c>
       <c r="E264" t="n">
         <v>13</v>
@@ -19365,16 +19365,16 @@
         </is>
       </c>
       <c r="J264" t="n">
-        <v>1000</v>
+        <v>3400</v>
       </c>
       <c r="K264" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="L264" t="n">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="M264" t="n">
-        <v>1200</v>
+        <v>550</v>
       </c>
       <c r="N264" t="inlineStr">
         <is>
@@ -19383,11 +19383,11 @@
       </c>
       <c r="O264" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P264" t="n">
-        <v>1200</v>
+        <v>550</v>
       </c>
       <c r="Q264" t="n">
         <v>1</v>
@@ -19413,7 +19413,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44196</v>
+        <v>44386</v>
       </c>
       <c r="E265" t="n">
         <v>13</v>
@@ -19433,20 +19433,20 @@
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J265" t="n">
-        <v>3400</v>
+        <v>1600</v>
       </c>
       <c r="K265" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="L265" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="M265" t="n">
-        <v>950</v>
+        <v>400</v>
       </c>
       <c r="N265" t="inlineStr">
         <is>
@@ -19459,7 +19459,7 @@
         </is>
       </c>
       <c r="P265" t="n">
-        <v>950</v>
+        <v>400</v>
       </c>
       <c r="Q265" t="n">
         <v>1</v>
@@ -19485,7 +19485,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44301</v>
+        <v>44386</v>
       </c>
       <c r="E266" t="n">
         <v>13</v>
@@ -19505,20 +19505,20 @@
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J266" t="n">
-        <v>1600</v>
+        <v>970</v>
       </c>
       <c r="K266" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="L266" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="M266" t="n">
-        <v>750</v>
+        <v>400</v>
       </c>
       <c r="N266" t="inlineStr">
         <is>
@@ -19527,11 +19527,11 @@
       </c>
       <c r="O266" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P266" t="n">
-        <v>750</v>
+        <v>400</v>
       </c>
       <c r="Q266" t="n">
         <v>1</v>
@@ -19557,7 +19557,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44252</v>
+        <v>44308</v>
       </c>
       <c r="E267" t="n">
         <v>13</v>
@@ -19581,16 +19581,16 @@
         </is>
       </c>
       <c r="J267" t="n">
-        <v>1200</v>
+        <v>1600</v>
       </c>
       <c r="K267" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="L267" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="M267" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="N267" t="inlineStr">
         <is>
@@ -19599,11 +19599,11 @@
       </c>
       <c r="O267" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P267" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="Q267" t="n">
         <v>1</v>
@@ -19629,7 +19629,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44252</v>
+        <v>44264</v>
       </c>
       <c r="E268" t="n">
         <v>13</v>
@@ -19649,20 +19649,20 @@
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J268" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="K268" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="L268" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="M268" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="N268" t="inlineStr">
         <is>
@@ -19671,11 +19671,11 @@
       </c>
       <c r="O268" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P268" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="Q268" t="n">
         <v>1</v>
@@ -19701,7 +19701,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44166</v>
+        <v>44196</v>
       </c>
       <c r="E269" t="n">
         <v>13</v>
@@ -19725,16 +19725,16 @@
         </is>
       </c>
       <c r="J269" t="n">
-        <v>3200</v>
+        <v>3400</v>
       </c>
       <c r="K269" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="L269" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="M269" t="n">
-        <v>500</v>
+        <v>950</v>
       </c>
       <c r="N269" t="inlineStr">
         <is>
@@ -19743,11 +19743,11 @@
       </c>
       <c r="O269" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P269" t="n">
-        <v>500</v>
+        <v>950</v>
       </c>
       <c r="Q269" t="n">
         <v>1</v>
@@ -19773,7 +19773,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44369</v>
+        <v>44301</v>
       </c>
       <c r="E270" t="n">
         <v>13</v>
@@ -19797,16 +19797,16 @@
         </is>
       </c>
       <c r="J270" t="n">
-        <v>3400</v>
+        <v>1600</v>
       </c>
       <c r="K270" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L270" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M270" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="N270" t="inlineStr">
         <is>
@@ -19819,7 +19819,7 @@
         </is>
       </c>
       <c r="P270" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="Q270" t="n">
         <v>1</v>
@@ -19845,7 +19845,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44369</v>
+        <v>44252</v>
       </c>
       <c r="E271" t="n">
         <v>13</v>
@@ -19869,16 +19869,16 @@
         </is>
       </c>
       <c r="J271" t="n">
-        <v>2500</v>
+        <v>1200</v>
       </c>
       <c r="K271" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="L271" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="M271" t="n">
-        <v>550</v>
+        <v>1000</v>
       </c>
       <c r="N271" t="inlineStr">
         <is>
@@ -19887,11 +19887,11 @@
       </c>
       <c r="O271" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P271" t="n">
-        <v>550</v>
+        <v>1000</v>
       </c>
       <c r="Q271" t="n">
         <v>1</v>
@@ -19917,7 +19917,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44369</v>
+        <v>44252</v>
       </c>
       <c r="E272" t="n">
         <v>13</v>
@@ -19941,16 +19941,16 @@
         </is>
       </c>
       <c r="J272" t="n">
-        <v>1600</v>
+        <v>300</v>
       </c>
       <c r="K272" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="L272" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="M272" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="N272" t="inlineStr">
         <is>
@@ -19959,11 +19959,11 @@
       </c>
       <c r="O272" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P272" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="Q272" t="n">
         <v>1</v>
@@ -19989,7 +19989,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44369</v>
+        <v>44166</v>
       </c>
       <c r="E273" t="n">
         <v>13</v>
@@ -20009,20 +20009,20 @@
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J273" t="n">
-        <v>700</v>
+        <v>3200</v>
       </c>
       <c r="K273" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L273" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M273" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N273" t="inlineStr">
         <is>
@@ -20031,11 +20031,11 @@
       </c>
       <c r="O273" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P273" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Q273" t="n">
         <v>1</v>
@@ -20061,7 +20061,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E274" t="n">
         <v>13</v>
@@ -20088,13 +20088,13 @@
         <v>3400</v>
       </c>
       <c r="K274" t="n">
+        <v>500</v>
+      </c>
+      <c r="L274" t="n">
         <v>600</v>
       </c>
-      <c r="L274" t="n">
-        <v>650</v>
-      </c>
       <c r="M274" t="n">
-        <v>625</v>
+        <v>550</v>
       </c>
       <c r="N274" t="inlineStr">
         <is>
@@ -20107,7 +20107,7 @@
         </is>
       </c>
       <c r="P274" t="n">
-        <v>625</v>
+        <v>550</v>
       </c>
       <c r="Q274" t="n">
         <v>1</v>
@@ -20133,7 +20133,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E275" t="n">
         <v>13</v>
@@ -20157,16 +20157,16 @@
         </is>
       </c>
       <c r="J275" t="n">
-        <v>1600</v>
+        <v>2500</v>
       </c>
       <c r="K275" t="n">
+        <v>500</v>
+      </c>
+      <c r="L275" t="n">
         <v>600</v>
       </c>
-      <c r="L275" t="n">
-        <v>650</v>
-      </c>
       <c r="M275" t="n">
-        <v>625</v>
+        <v>550</v>
       </c>
       <c r="N275" t="inlineStr">
         <is>
@@ -20179,7 +20179,7 @@
         </is>
       </c>
       <c r="P275" t="n">
-        <v>625</v>
+        <v>550</v>
       </c>
       <c r="Q275" t="n">
         <v>1</v>
@@ -20205,7 +20205,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E276" t="n">
         <v>13</v>
@@ -20229,16 +20229,16 @@
         </is>
       </c>
       <c r="J276" t="n">
-        <v>970</v>
+        <v>1600</v>
       </c>
       <c r="K276" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L276" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="M276" t="n">
-        <v>525</v>
+        <v>400</v>
       </c>
       <c r="N276" t="inlineStr">
         <is>
@@ -20251,7 +20251,7 @@
         </is>
       </c>
       <c r="P276" t="n">
-        <v>525</v>
+        <v>400</v>
       </c>
       <c r="Q276" t="n">
         <v>1</v>
@@ -20277,7 +20277,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E277" t="n">
         <v>13</v>
@@ -20301,16 +20301,16 @@
         </is>
       </c>
       <c r="J277" t="n">
-        <v>610</v>
+        <v>700</v>
       </c>
       <c r="K277" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L277" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="M277" t="n">
-        <v>525</v>
+        <v>400</v>
       </c>
       <c r="N277" t="inlineStr">
         <is>
@@ -20323,7 +20323,7 @@
         </is>
       </c>
       <c r="P277" t="n">
-        <v>525</v>
+        <v>400</v>
       </c>
       <c r="Q277" t="n">
         <v>1</v>
@@ -20349,7 +20349,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E278" t="n">
         <v>13</v>
@@ -20373,16 +20373,16 @@
         </is>
       </c>
       <c r="J278" t="n">
-        <v>2500</v>
+        <v>3400</v>
       </c>
       <c r="K278" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L278" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="M278" t="n">
-        <v>550</v>
+        <v>625</v>
       </c>
       <c r="N278" t="inlineStr">
         <is>
@@ -20395,7 +20395,7 @@
         </is>
       </c>
       <c r="P278" t="n">
-        <v>550</v>
+        <v>625</v>
       </c>
       <c r="Q278" t="n">
         <v>1</v>
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E279" t="n">
         <v>13</v>
@@ -20445,16 +20445,16 @@
         </is>
       </c>
       <c r="J279" t="n">
-        <v>3400</v>
+        <v>1600</v>
       </c>
       <c r="K279" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L279" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="M279" t="n">
-        <v>550</v>
+        <v>625</v>
       </c>
       <c r="N279" t="inlineStr">
         <is>
@@ -20467,7 +20467,7 @@
         </is>
       </c>
       <c r="P279" t="n">
-        <v>550</v>
+        <v>625</v>
       </c>
       <c r="Q279" t="n">
         <v>1</v>
@@ -20493,7 +20493,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E280" t="n">
         <v>13</v>
@@ -20520,13 +20520,13 @@
         <v>970</v>
       </c>
       <c r="K280" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L280" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="M280" t="n">
-        <v>400</v>
+        <v>525</v>
       </c>
       <c r="N280" t="inlineStr">
         <is>
@@ -20539,7 +20539,7 @@
         </is>
       </c>
       <c r="P280" t="n">
-        <v>400</v>
+        <v>525</v>
       </c>
       <c r="Q280" t="n">
         <v>1</v>
@@ -20565,7 +20565,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E281" t="n">
         <v>13</v>
@@ -20589,16 +20589,16 @@
         </is>
       </c>
       <c r="J281" t="n">
-        <v>1600</v>
+        <v>610</v>
       </c>
       <c r="K281" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L281" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="M281" t="n">
-        <v>400</v>
+        <v>525</v>
       </c>
       <c r="N281" t="inlineStr">
         <is>
@@ -20611,7 +20611,7 @@
         </is>
       </c>
       <c r="P281" t="n">
-        <v>400</v>
+        <v>525</v>
       </c>
       <c r="Q281" t="n">
         <v>1</v>
@@ -20637,7 +20637,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E282" t="n">
         <v>13</v>
@@ -20661,16 +20661,16 @@
         </is>
       </c>
       <c r="J282" t="n">
-        <v>3400</v>
+        <v>2500</v>
       </c>
       <c r="K282" t="n">
+        <v>500</v>
+      </c>
+      <c r="L282" t="n">
         <v>600</v>
       </c>
-      <c r="L282" t="n">
-        <v>700</v>
-      </c>
       <c r="M282" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="N282" t="inlineStr">
         <is>
@@ -20683,7 +20683,7 @@
         </is>
       </c>
       <c r="P282" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="Q282" t="n">
         <v>1</v>
@@ -20709,7 +20709,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E283" t="n">
         <v>13</v>
@@ -20729,20 +20729,20 @@
       </c>
       <c r="I283" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J283" t="n">
-        <v>1600</v>
+        <v>3400</v>
       </c>
       <c r="K283" t="n">
         <v>500</v>
       </c>
       <c r="L283" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M283" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="N283" t="inlineStr">
         <is>
@@ -20751,11 +20751,11 @@
       </c>
       <c r="O283" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P283" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="Q283" t="n">
         <v>1</v>
@@ -20781,7 +20781,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44397</v>
+        <v>44371</v>
       </c>
       <c r="E284" t="n">
         <v>13</v>
@@ -20801,20 +20801,20 @@
       </c>
       <c r="I284" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J284" t="n">
-        <v>4300</v>
+        <v>970</v>
       </c>
       <c r="K284" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L284" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M284" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="N284" t="inlineStr">
         <is>
@@ -20827,7 +20827,7 @@
         </is>
       </c>
       <c r="P284" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="Q284" t="n">
         <v>1</v>
@@ -20853,7 +20853,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44397</v>
+        <v>44371</v>
       </c>
       <c r="E285" t="n">
         <v>13</v>
@@ -20873,20 +20873,20 @@
       </c>
       <c r="I285" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J285" t="n">
-        <v>3400</v>
+        <v>1600</v>
       </c>
       <c r="K285" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L285" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M285" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="N285" t="inlineStr">
         <is>
@@ -20899,7 +20899,7 @@
         </is>
       </c>
       <c r="P285" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="Q285" t="n">
         <v>1</v>
@@ -20925,7 +20925,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44397</v>
+        <v>44316</v>
       </c>
       <c r="E286" t="n">
         <v>13</v>
@@ -20945,20 +20945,20 @@
       </c>
       <c r="I286" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J286" t="n">
-        <v>1600</v>
+        <v>3400</v>
       </c>
       <c r="K286" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L286" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="M286" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="N286" t="inlineStr">
         <is>
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="P286" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="Q286" t="n">
         <v>1</v>
@@ -20997,7 +20997,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44397</v>
+        <v>44316</v>
       </c>
       <c r="E287" t="n">
         <v>13</v>
@@ -21021,16 +21021,16 @@
         </is>
       </c>
       <c r="J287" t="n">
-        <v>970</v>
+        <v>1600</v>
       </c>
       <c r="K287" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L287" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M287" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N287" t="inlineStr">
         <is>
@@ -21039,11 +21039,11 @@
       </c>
       <c r="O287" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P287" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Q287" t="n">
         <v>1</v>
@@ -21069,7 +21069,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E288" t="n">
         <v>13</v>
@@ -21093,7 +21093,7 @@
         </is>
       </c>
       <c r="J288" t="n">
-        <v>2500</v>
+        <v>4300</v>
       </c>
       <c r="K288" t="n">
         <v>500</v>
@@ -21141,7 +21141,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E289" t="n">
         <v>13</v>
@@ -21165,7 +21165,7 @@
         </is>
       </c>
       <c r="J289" t="n">
-        <v>1600</v>
+        <v>3400</v>
       </c>
       <c r="K289" t="n">
         <v>500</v>
@@ -21213,7 +21213,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E290" t="n">
         <v>13</v>
@@ -21285,7 +21285,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E291" t="n">
         <v>13</v>
@@ -21309,7 +21309,7 @@
         </is>
       </c>
       <c r="J291" t="n">
-        <v>700</v>
+        <v>970</v>
       </c>
       <c r="K291" t="n">
         <v>400</v>
@@ -21357,7 +21357,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44273</v>
+        <v>44363</v>
       </c>
       <c r="E292" t="n">
         <v>13</v>
@@ -21381,16 +21381,16 @@
         </is>
       </c>
       <c r="J292" t="n">
-        <v>1600</v>
+        <v>2500</v>
       </c>
       <c r="K292" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="L292" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="M292" t="n">
-        <v>1000</v>
+        <v>550</v>
       </c>
       <c r="N292" t="inlineStr">
         <is>
@@ -21403,7 +21403,7 @@
         </is>
       </c>
       <c r="P292" t="n">
-        <v>1000</v>
+        <v>550</v>
       </c>
       <c r="Q292" t="n">
         <v>1</v>
@@ -21429,7 +21429,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44438</v>
+        <v>44363</v>
       </c>
       <c r="E293" t="n">
         <v>13</v>
@@ -21456,13 +21456,13 @@
         <v>1600</v>
       </c>
       <c r="K293" t="n">
+        <v>500</v>
+      </c>
+      <c r="L293" t="n">
         <v>600</v>
       </c>
-      <c r="L293" t="n">
-        <v>650</v>
-      </c>
       <c r="M293" t="n">
-        <v>625</v>
+        <v>550</v>
       </c>
       <c r="N293" t="inlineStr">
         <is>
@@ -21471,11 +21471,11 @@
       </c>
       <c r="O293" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P293" t="n">
-        <v>625</v>
+        <v>550</v>
       </c>
       <c r="Q293" t="n">
         <v>1</v>
@@ -21501,7 +21501,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44438</v>
+        <v>44363</v>
       </c>
       <c r="E294" t="n">
         <v>13</v>
@@ -21525,16 +21525,16 @@
         </is>
       </c>
       <c r="J294" t="n">
-        <v>610</v>
+        <v>1600</v>
       </c>
       <c r="K294" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L294" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="M294" t="n">
-        <v>525</v>
+        <v>400</v>
       </c>
       <c r="N294" t="inlineStr">
         <is>
@@ -21547,7 +21547,7 @@
         </is>
       </c>
       <c r="P294" t="n">
-        <v>525</v>
+        <v>400</v>
       </c>
       <c r="Q294" t="n">
         <v>1</v>
@@ -21573,7 +21573,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44372</v>
+        <v>44363</v>
       </c>
       <c r="E295" t="n">
         <v>13</v>
@@ -21593,20 +21593,20 @@
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J295" t="n">
-        <v>3400</v>
+        <v>700</v>
       </c>
       <c r="K295" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L295" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M295" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="N295" t="inlineStr">
         <is>
@@ -21615,11 +21615,11 @@
       </c>
       <c r="O295" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P295" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="Q295" t="n">
         <v>1</v>
@@ -21645,7 +21645,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44372</v>
+        <v>44273</v>
       </c>
       <c r="E296" t="n">
         <v>13</v>
@@ -21665,20 +21665,20 @@
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J296" t="n">
-        <v>970</v>
+        <v>1600</v>
       </c>
       <c r="K296" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="L296" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="M296" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="N296" t="inlineStr">
         <is>
@@ -21691,7 +21691,7 @@
         </is>
       </c>
       <c r="P296" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="Q296" t="n">
         <v>1</v>
@@ -21717,7 +21717,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44286</v>
+        <v>44438</v>
       </c>
       <c r="E297" t="n">
         <v>13</v>
@@ -21744,13 +21744,13 @@
         <v>1600</v>
       </c>
       <c r="K297" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="L297" t="n">
-        <v>900</v>
+        <v>650</v>
       </c>
       <c r="M297" t="n">
-        <v>900</v>
+        <v>625</v>
       </c>
       <c r="N297" t="inlineStr">
         <is>
@@ -21763,7 +21763,7 @@
         </is>
       </c>
       <c r="P297" t="n">
-        <v>900</v>
+        <v>625</v>
       </c>
       <c r="Q297" t="n">
         <v>1</v>
@@ -21789,7 +21789,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44356</v>
+        <v>44438</v>
       </c>
       <c r="E298" t="n">
         <v>13</v>
@@ -21809,20 +21809,20 @@
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J298" t="n">
-        <v>2500</v>
+        <v>610</v>
       </c>
       <c r="K298" t="n">
         <v>500</v>
       </c>
       <c r="L298" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="M298" t="n">
-        <v>550</v>
+        <v>525</v>
       </c>
       <c r="N298" t="inlineStr">
         <is>
@@ -21831,11 +21831,11 @@
       </c>
       <c r="O298" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P298" t="n">
-        <v>550</v>
+        <v>525</v>
       </c>
       <c r="Q298" t="n">
         <v>1</v>
@@ -21861,7 +21861,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44356</v>
+        <v>44372</v>
       </c>
       <c r="E299" t="n">
         <v>13</v>
@@ -21881,20 +21881,20 @@
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J299" t="n">
-        <v>700</v>
+        <v>3400</v>
       </c>
       <c r="K299" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L299" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M299" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="N299" t="inlineStr">
         <is>
@@ -21903,11 +21903,11 @@
       </c>
       <c r="O299" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P299" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="Q299" t="n">
         <v>1</v>
@@ -21933,7 +21933,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44160</v>
+        <v>44372</v>
       </c>
       <c r="E300" t="n">
         <v>13</v>
@@ -21953,20 +21953,20 @@
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J300" t="n">
-        <v>3600</v>
+        <v>970</v>
       </c>
       <c r="K300" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L300" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M300" t="n">
-        <v>556</v>
+        <v>400</v>
       </c>
       <c r="N300" t="inlineStr">
         <is>
@@ -21975,11 +21975,11 @@
       </c>
       <c r="O300" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P300" t="n">
-        <v>556</v>
+        <v>400</v>
       </c>
       <c r="Q300" t="n">
         <v>1</v>
@@ -22005,7 +22005,7 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>44351</v>
+        <v>44286</v>
       </c>
       <c r="E301" t="n">
         <v>13</v>
@@ -22029,16 +22029,16 @@
         </is>
       </c>
       <c r="J301" t="n">
-        <v>3400</v>
+        <v>1600</v>
       </c>
       <c r="K301" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="L301" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="M301" t="n">
-        <v>550</v>
+        <v>900</v>
       </c>
       <c r="N301" t="inlineStr">
         <is>
@@ -22051,7 +22051,7 @@
         </is>
       </c>
       <c r="P301" t="n">
-        <v>550</v>
+        <v>900</v>
       </c>
       <c r="Q301" t="n">
         <v>1</v>
@@ -22077,7 +22077,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E302" t="n">
         <v>13</v>
@@ -22101,7 +22101,7 @@
         </is>
       </c>
       <c r="J302" t="n">
-        <v>4300</v>
+        <v>2500</v>
       </c>
       <c r="K302" t="n">
         <v>500</v>
@@ -22149,7 +22149,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E303" t="n">
         <v>13</v>
@@ -22173,7 +22173,7 @@
         </is>
       </c>
       <c r="J303" t="n">
-        <v>1600</v>
+        <v>700</v>
       </c>
       <c r="K303" t="n">
         <v>400</v>
@@ -22191,7 +22191,7 @@
       </c>
       <c r="O303" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P303" t="n">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E304" t="n">
         <v>13</v>
@@ -22241,20 +22241,20 @@
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J304" t="n">
-        <v>2500</v>
+        <v>3600</v>
       </c>
       <c r="K304" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L304" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M304" t="n">
-        <v>400</v>
+        <v>556</v>
       </c>
       <c r="N304" t="inlineStr">
         <is>
@@ -22263,11 +22263,11 @@
       </c>
       <c r="O304" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P304" t="n">
-        <v>400</v>
+        <v>556</v>
       </c>
       <c r="Q304" t="n">
         <v>1</v>
@@ -22293,7 +22293,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E305" t="n">
         <v>13</v>
@@ -22365,7 +22365,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E306" t="n">
         <v>13</v>
@@ -22389,7 +22389,7 @@
         </is>
       </c>
       <c r="J306" t="n">
-        <v>2500</v>
+        <v>4300</v>
       </c>
       <c r="K306" t="n">
         <v>500</v>
@@ -22437,7 +22437,7 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E307" t="n">
         <v>13</v>
@@ -22509,7 +22509,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E308" t="n">
         <v>13</v>
@@ -22533,7 +22533,7 @@
         </is>
       </c>
       <c r="J308" t="n">
-        <v>970</v>
+        <v>2500</v>
       </c>
       <c r="K308" t="n">
         <v>400</v>
@@ -22581,7 +22581,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E309" t="n">
         <v>13</v>
@@ -22605,16 +22605,16 @@
         </is>
       </c>
       <c r="J309" t="n">
-        <v>1600</v>
+        <v>3400</v>
       </c>
       <c r="K309" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L309" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M309" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="N309" t="inlineStr">
         <is>
@@ -22623,11 +22623,11 @@
       </c>
       <c r="O309" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P309" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="Q309" t="n">
         <v>1</v>
@@ -22653,7 +22653,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44215</v>
+        <v>44365</v>
       </c>
       <c r="E310" t="n">
         <v>13</v>
@@ -22677,16 +22677,16 @@
         </is>
       </c>
       <c r="J310" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="K310" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="L310" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="M310" t="n">
-        <v>950</v>
+        <v>550</v>
       </c>
       <c r="N310" t="inlineStr">
         <is>
@@ -22699,7 +22699,7 @@
         </is>
       </c>
       <c r="P310" t="n">
-        <v>950</v>
+        <v>550</v>
       </c>
       <c r="Q310" t="n">
         <v>1</v>
@@ -22725,7 +22725,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44175</v>
+        <v>44365</v>
       </c>
       <c r="E311" t="n">
         <v>13</v>
@@ -22745,20 +22745,20 @@
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J311" t="n">
-        <v>5200</v>
+        <v>1600</v>
       </c>
       <c r="K311" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="L311" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="M311" t="n">
-        <v>850</v>
+        <v>400</v>
       </c>
       <c r="N311" t="inlineStr">
         <is>
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="P311" t="n">
-        <v>850</v>
+        <v>400</v>
       </c>
       <c r="Q311" t="n">
         <v>1</v>
@@ -22797,7 +22797,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44357</v>
+        <v>44365</v>
       </c>
       <c r="E312" t="n">
         <v>13</v>
@@ -22817,20 +22817,20 @@
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J312" t="n">
-        <v>3400</v>
+        <v>970</v>
       </c>
       <c r="K312" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L312" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M312" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="N312" t="inlineStr">
         <is>
@@ -22839,11 +22839,11 @@
       </c>
       <c r="O312" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P312" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="Q312" t="n">
         <v>1</v>
@@ -22869,7 +22869,7 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>44357</v>
+        <v>44306</v>
       </c>
       <c r="E313" t="n">
         <v>13</v>
@@ -22893,16 +22893,16 @@
         </is>
       </c>
       <c r="J313" t="n">
-        <v>4300</v>
+        <v>1600</v>
       </c>
       <c r="K313" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L313" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M313" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="N313" t="inlineStr">
         <is>
@@ -22911,11 +22911,11 @@
       </c>
       <c r="O313" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P313" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="Q313" t="n">
         <v>1</v>
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>44357</v>
+        <v>44215</v>
       </c>
       <c r="E314" t="n">
         <v>13</v>
@@ -22961,20 +22961,20 @@
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J314" t="n">
-        <v>1300</v>
+        <v>2000</v>
       </c>
       <c r="K314" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="L314" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="M314" t="n">
-        <v>400</v>
+        <v>950</v>
       </c>
       <c r="N314" t="inlineStr">
         <is>
@@ -22983,11 +22983,11 @@
       </c>
       <c r="O314" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P314" t="n">
-        <v>400</v>
+        <v>950</v>
       </c>
       <c r="Q314" t="n">
         <v>1</v>
@@ -23013,7 +23013,7 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E315" t="n">
         <v>13</v>
@@ -23033,20 +23033,20 @@
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J315" t="n">
-        <v>1600</v>
+        <v>5200</v>
       </c>
       <c r="K315" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="L315" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="M315" t="n">
-        <v>400</v>
+        <v>850</v>
       </c>
       <c r="N315" t="inlineStr">
         <is>
@@ -23055,11 +23055,11 @@
       </c>
       <c r="O315" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P315" t="n">
-        <v>400</v>
+        <v>850</v>
       </c>
       <c r="Q315" t="n">
         <v>1</v>
@@ -23085,7 +23085,7 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E316" t="n">
         <v>13</v>
@@ -23109,16 +23109,16 @@
         </is>
       </c>
       <c r="J316" t="n">
-        <v>4500</v>
+        <v>3400</v>
       </c>
       <c r="K316" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L316" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M316" t="n">
-        <v>756</v>
+        <v>550</v>
       </c>
       <c r="N316" t="inlineStr">
         <is>
@@ -23127,11 +23127,11 @@
       </c>
       <c r="O316" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P316" t="n">
-        <v>756</v>
+        <v>550</v>
       </c>
       <c r="Q316" t="n">
         <v>1</v>
@@ -23157,7 +23157,7 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E317" t="n">
         <v>13</v>
@@ -23177,20 +23177,20 @@
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J317" t="n">
-        <v>2000</v>
+        <v>4300</v>
       </c>
       <c r="K317" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L317" t="n">
         <v>600</v>
       </c>
       <c r="M317" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="N317" t="inlineStr">
         <is>
@@ -23199,11 +23199,11 @@
       </c>
       <c r="O317" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P317" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="Q317" t="n">
         <v>1</v>
@@ -23229,7 +23229,7 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>44162</v>
+        <v>44357</v>
       </c>
       <c r="E318" t="n">
         <v>13</v>
@@ -23249,20 +23249,20 @@
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J318" t="n">
-        <v>4800</v>
+        <v>1300</v>
       </c>
       <c r="K318" t="n">
         <v>400</v>
       </c>
       <c r="L318" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M318" t="n">
-        <v>448</v>
+        <v>400</v>
       </c>
       <c r="N318" t="inlineStr">
         <is>
@@ -23271,11 +23271,11 @@
       </c>
       <c r="O318" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P318" t="n">
-        <v>448</v>
+        <v>400</v>
       </c>
       <c r="Q318" t="n">
         <v>1</v>
@@ -23301,7 +23301,7 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>44411</v>
+        <v>44357</v>
       </c>
       <c r="E319" t="n">
         <v>13</v>
@@ -23321,20 +23321,20 @@
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J319" t="n">
-        <v>3400</v>
+        <v>1600</v>
       </c>
       <c r="K319" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L319" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M319" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="N319" t="inlineStr">
         <is>
@@ -23343,11 +23343,11 @@
       </c>
       <c r="O319" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P319" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="Q319" t="n">
         <v>1</v>
@@ -23373,7 +23373,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44411</v>
+        <v>44203</v>
       </c>
       <c r="E320" t="n">
         <v>13</v>
@@ -23397,16 +23397,16 @@
         </is>
       </c>
       <c r="J320" t="n">
-        <v>2500</v>
+        <v>4500</v>
       </c>
       <c r="K320" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L320" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M320" t="n">
-        <v>550</v>
+        <v>756</v>
       </c>
       <c r="N320" t="inlineStr">
         <is>
@@ -23415,11 +23415,11 @@
       </c>
       <c r="O320" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P320" t="n">
-        <v>550</v>
+        <v>756</v>
       </c>
       <c r="Q320" t="n">
         <v>1</v>
@@ -23445,7 +23445,7 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>44411</v>
+        <v>44203</v>
       </c>
       <c r="E321" t="n">
         <v>13</v>
@@ -23469,16 +23469,16 @@
         </is>
       </c>
       <c r="J321" t="n">
-        <v>970</v>
+        <v>2000</v>
       </c>
       <c r="K321" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L321" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M321" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="N321" t="inlineStr">
         <is>
@@ -23487,11 +23487,11 @@
       </c>
       <c r="O321" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P321" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="Q321" t="n">
         <v>1</v>
@@ -23517,7 +23517,7 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>44411</v>
+        <v>44162</v>
       </c>
       <c r="E322" t="n">
         <v>13</v>
@@ -23537,20 +23537,20 @@
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J322" t="n">
-        <v>790</v>
+        <v>4800</v>
       </c>
       <c r="K322" t="n">
         <v>400</v>
       </c>
       <c r="L322" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M322" t="n">
-        <v>400</v>
+        <v>448</v>
       </c>
       <c r="N322" t="inlineStr">
         <is>
@@ -23559,11 +23559,11 @@
       </c>
       <c r="O322" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P322" t="n">
-        <v>400</v>
+        <v>448</v>
       </c>
       <c r="Q322" t="n">
         <v>1</v>
@@ -23589,7 +23589,7 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E323" t="n">
         <v>13</v>
@@ -23613,16 +23613,16 @@
         </is>
       </c>
       <c r="J323" t="n">
-        <v>700</v>
+        <v>3400</v>
       </c>
       <c r="K323" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="L323" t="n">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="M323" t="n">
-        <v>1200</v>
+        <v>550</v>
       </c>
       <c r="N323" t="inlineStr">
         <is>
@@ -23635,7 +23635,7 @@
         </is>
       </c>
       <c r="P323" t="n">
-        <v>1200</v>
+        <v>550</v>
       </c>
       <c r="Q323" t="n">
         <v>1</v>
@@ -23661,7 +23661,7 @@
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>44176</v>
+        <v>44411</v>
       </c>
       <c r="E324" t="n">
         <v>13</v>
@@ -23685,16 +23685,16 @@
         </is>
       </c>
       <c r="J324" t="n">
-        <v>5200</v>
+        <v>2500</v>
       </c>
       <c r="K324" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L324" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M324" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="N324" t="inlineStr">
         <is>
@@ -23703,11 +23703,11 @@
       </c>
       <c r="O324" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P324" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="Q324" t="n">
         <v>1</v>
@@ -23733,7 +23733,7 @@
         </is>
       </c>
       <c r="D325" s="2" t="n">
-        <v>44239</v>
+        <v>44411</v>
       </c>
       <c r="E325" t="n">
         <v>13</v>
@@ -23753,20 +23753,20 @@
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J325" t="n">
-        <v>1600</v>
+        <v>970</v>
       </c>
       <c r="K325" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="L325" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="M325" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="N325" t="inlineStr">
         <is>
@@ -23779,7 +23779,7 @@
         </is>
       </c>
       <c r="P325" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="Q325" t="n">
         <v>1</v>
@@ -23805,7 +23805,7 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>44376</v>
+        <v>44411</v>
       </c>
       <c r="E326" t="n">
         <v>13</v>
@@ -23825,20 +23825,20 @@
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J326" t="n">
-        <v>3400</v>
+        <v>790</v>
       </c>
       <c r="K326" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L326" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M326" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="N326" t="inlineStr">
         <is>
@@ -23847,11 +23847,11 @@
       </c>
       <c r="O326" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P326" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="Q326" t="n">
         <v>1</v>
@@ -23877,7 +23877,7 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>44376</v>
+        <v>44257</v>
       </c>
       <c r="E327" t="n">
         <v>13</v>
@@ -23901,16 +23901,16 @@
         </is>
       </c>
       <c r="J327" t="n">
-        <v>2500</v>
+        <v>700</v>
       </c>
       <c r="K327" t="n">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="L327" t="n">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="M327" t="n">
-        <v>550</v>
+        <v>1200</v>
       </c>
       <c r="N327" t="inlineStr">
         <is>
@@ -23919,11 +23919,11 @@
       </c>
       <c r="O327" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P327" t="n">
-        <v>550</v>
+        <v>1200</v>
       </c>
       <c r="Q327" t="n">
         <v>1</v>
@@ -23949,7 +23949,7 @@
         </is>
       </c>
       <c r="D328" s="2" t="n">
-        <v>44376</v>
+        <v>44176</v>
       </c>
       <c r="E328" t="n">
         <v>13</v>
@@ -23969,20 +23969,20 @@
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J328" t="n">
-        <v>1600</v>
+        <v>5200</v>
       </c>
       <c r="K328" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="L328" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="M328" t="n">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="N328" t="inlineStr">
         <is>
@@ -23995,7 +23995,7 @@
         </is>
       </c>
       <c r="P328" t="n">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="Q328" t="n">
         <v>1</v>
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E329" t="n">
         <v>13</v>
@@ -24041,20 +24041,20 @@
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J329" t="n">
-        <v>970</v>
+        <v>1600</v>
       </c>
       <c r="K329" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="L329" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="M329" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="N329" t="inlineStr">
         <is>
@@ -24063,11 +24063,11 @@
       </c>
       <c r="O329" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P329" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="Q329" t="n">
         <v>1</v>
@@ -24093,7 +24093,7 @@
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E330" t="n">
         <v>13</v>
@@ -24117,16 +24117,16 @@
         </is>
       </c>
       <c r="J330" t="n">
-        <v>1600</v>
+        <v>3400</v>
       </c>
       <c r="K330" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="L330" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="M330" t="n">
-        <v>900</v>
+        <v>550</v>
       </c>
       <c r="N330" t="inlineStr">
         <is>
@@ -24139,7 +24139,7 @@
         </is>
       </c>
       <c r="P330" t="n">
-        <v>900</v>
+        <v>550</v>
       </c>
       <c r="Q330" t="n">
         <v>1</v>
@@ -24165,7 +24165,7 @@
         </is>
       </c>
       <c r="D331" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E331" t="n">
         <v>13</v>
@@ -24189,7 +24189,7 @@
         </is>
       </c>
       <c r="J331" t="n">
-        <v>4300</v>
+        <v>2500</v>
       </c>
       <c r="K331" t="n">
         <v>500</v>
@@ -24207,7 +24207,7 @@
       </c>
       <c r="O331" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P331" t="n">
@@ -24237,7 +24237,7 @@
         </is>
       </c>
       <c r="D332" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E332" t="n">
         <v>13</v>
@@ -24257,20 +24257,20 @@
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J332" t="n">
-        <v>3400</v>
+        <v>1600</v>
       </c>
       <c r="K332" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L332" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M332" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="N332" t="inlineStr">
         <is>
@@ -24279,11 +24279,11 @@
       </c>
       <c r="O332" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P332" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="Q332" t="n">
         <v>1</v>
@@ -24309,7 +24309,7 @@
         </is>
       </c>
       <c r="D333" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E333" t="n">
         <v>13</v>
@@ -24333,7 +24333,7 @@
         </is>
       </c>
       <c r="J333" t="n">
-        <v>2500</v>
+        <v>970</v>
       </c>
       <c r="K333" t="n">
         <v>400</v>
@@ -24351,7 +24351,7 @@
       </c>
       <c r="O333" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P333" t="n">
@@ -24381,7 +24381,7 @@
         </is>
       </c>
       <c r="D334" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E334" t="n">
         <v>13</v>
@@ -24401,20 +24401,20 @@
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J334" t="n">
         <v>1600</v>
       </c>
       <c r="K334" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="L334" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="M334" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="N334" t="inlineStr">
         <is>
@@ -24423,11 +24423,11 @@
       </c>
       <c r="O334" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P334" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="Q334" t="n">
         <v>1</v>
@@ -24453,7 +24453,7 @@
         </is>
       </c>
       <c r="D335" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E335" t="n">
         <v>13</v>
@@ -24477,16 +24477,16 @@
         </is>
       </c>
       <c r="J335" t="n">
-        <v>2500</v>
+        <v>4300</v>
       </c>
       <c r="K335" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="L335" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="M335" t="n">
-        <v>950</v>
+        <v>550</v>
       </c>
       <c r="N335" t="inlineStr">
         <is>
@@ -24499,7 +24499,7 @@
         </is>
       </c>
       <c r="P335" t="n">
-        <v>950</v>
+        <v>550</v>
       </c>
       <c r="Q335" t="n">
         <v>1</v>
@@ -24525,7 +24525,7 @@
         </is>
       </c>
       <c r="D336" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E336" t="n">
         <v>13</v>
@@ -24549,16 +24549,16 @@
         </is>
       </c>
       <c r="J336" t="n">
-        <v>4300</v>
+        <v>3400</v>
       </c>
       <c r="K336" t="n">
+        <v>500</v>
+      </c>
+      <c r="L336" t="n">
         <v>600</v>
       </c>
-      <c r="L336" t="n">
-        <v>700</v>
-      </c>
       <c r="M336" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="N336" t="inlineStr">
         <is>
@@ -24567,11 +24567,11 @@
       </c>
       <c r="O336" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P336" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="Q336" t="n">
         <v>1</v>
@@ -24597,7 +24597,7 @@
         </is>
       </c>
       <c r="D337" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E337" t="n">
         <v>13</v>
@@ -24617,20 +24617,20 @@
       </c>
       <c r="I337" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J337" t="n">
-        <v>3400</v>
+        <v>2500</v>
       </c>
       <c r="K337" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L337" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="M337" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="N337" t="inlineStr">
         <is>
@@ -24639,11 +24639,11 @@
       </c>
       <c r="O337" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P337" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="Q337" t="n">
         <v>1</v>
@@ -24669,7 +24669,7 @@
         </is>
       </c>
       <c r="D338" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E338" t="n">
         <v>13</v>
@@ -24699,10 +24699,10 @@
         <v>400</v>
       </c>
       <c r="L338" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M338" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="N338" t="inlineStr">
         <is>
@@ -24711,11 +24711,11 @@
       </c>
       <c r="O338" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P338" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="Q338" t="n">
         <v>1</v>
@@ -24741,7 +24741,7 @@
         </is>
       </c>
       <c r="D339" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E339" t="n">
         <v>13</v>
@@ -24761,20 +24761,20 @@
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J339" t="n">
-        <v>1300</v>
+        <v>2500</v>
       </c>
       <c r="K339" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="L339" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="M339" t="n">
-        <v>450</v>
+        <v>950</v>
       </c>
       <c r="N339" t="inlineStr">
         <is>
@@ -24783,11 +24783,11 @@
       </c>
       <c r="O339" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P339" t="n">
-        <v>450</v>
+        <v>950</v>
       </c>
       <c r="Q339" t="n">
         <v>1</v>
@@ -24813,7 +24813,7 @@
         </is>
       </c>
       <c r="D340" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E340" t="n">
         <v>13</v>
@@ -24837,16 +24837,16 @@
         </is>
       </c>
       <c r="J340" t="n">
-        <v>2500</v>
+        <v>4300</v>
       </c>
       <c r="K340" t="n">
         <v>600</v>
       </c>
       <c r="L340" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M340" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="N340" t="inlineStr">
         <is>
@@ -24859,7 +24859,7 @@
         </is>
       </c>
       <c r="P340" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="Q340" t="n">
         <v>1</v>
@@ -24885,58 +24885,346 @@
         </is>
       </c>
       <c r="D341" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E341" t="n">
+        <v>13</v>
+      </c>
+      <c r="F341" t="n">
+        <v>100112008</v>
+      </c>
+      <c r="G341" t="inlineStr">
+        <is>
+          <t>Coliflor</t>
+        </is>
+      </c>
+      <c r="H341" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I341" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J341" t="n">
+        <v>3400</v>
+      </c>
+      <c r="K341" t="n">
+        <v>600</v>
+      </c>
+      <c r="L341" t="n">
+        <v>700</v>
+      </c>
+      <c r="M341" t="n">
+        <v>650</v>
+      </c>
+      <c r="N341" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O341" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P341" t="n">
+        <v>650</v>
+      </c>
+      <c r="Q341" t="n">
+        <v>1</v>
+      </c>
+      <c r="R341" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="n">
+        <v>9</v>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D342" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E342" t="n">
+        <v>13</v>
+      </c>
+      <c r="F342" t="n">
+        <v>100112008</v>
+      </c>
+      <c r="G342" t="inlineStr">
+        <is>
+          <t>Coliflor</t>
+        </is>
+      </c>
+      <c r="H342" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I342" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J342" t="n">
+        <v>1600</v>
+      </c>
+      <c r="K342" t="n">
+        <v>400</v>
+      </c>
+      <c r="L342" t="n">
+        <v>500</v>
+      </c>
+      <c r="M342" t="n">
+        <v>450</v>
+      </c>
+      <c r="N342" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O342" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P342" t="n">
+        <v>450</v>
+      </c>
+      <c r="Q342" t="n">
+        <v>1</v>
+      </c>
+      <c r="R342" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="n">
+        <v>9</v>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D343" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E343" t="n">
+        <v>13</v>
+      </c>
+      <c r="F343" t="n">
+        <v>100112008</v>
+      </c>
+      <c r="G343" t="inlineStr">
+        <is>
+          <t>Coliflor</t>
+        </is>
+      </c>
+      <c r="H343" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I343" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J343" t="n">
+        <v>1300</v>
+      </c>
+      <c r="K343" t="n">
+        <v>400</v>
+      </c>
+      <c r="L343" t="n">
+        <v>500</v>
+      </c>
+      <c r="M343" t="n">
+        <v>450</v>
+      </c>
+      <c r="N343" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O343" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P343" t="n">
+        <v>450</v>
+      </c>
+      <c r="Q343" t="n">
+        <v>1</v>
+      </c>
+      <c r="R343" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="n">
+        <v>9</v>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D344" s="2" t="n">
         <v>44323</v>
       </c>
-      <c r="E341" t="n">
-        <v>13</v>
-      </c>
-      <c r="F341" t="n">
-        <v>100112008</v>
-      </c>
-      <c r="G341" t="inlineStr">
-        <is>
-          <t>Coliflor</t>
-        </is>
-      </c>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="I341" t="inlineStr">
+      <c r="E344" t="n">
+        <v>13</v>
+      </c>
+      <c r="F344" t="n">
+        <v>100112008</v>
+      </c>
+      <c r="G344" t="inlineStr">
+        <is>
+          <t>Coliflor</t>
+        </is>
+      </c>
+      <c r="H344" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I344" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J344" t="n">
+        <v>2500</v>
+      </c>
+      <c r="K344" t="n">
+        <v>600</v>
+      </c>
+      <c r="L344" t="n">
+        <v>600</v>
+      </c>
+      <c r="M344" t="n">
+        <v>600</v>
+      </c>
+      <c r="N344" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O344" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P344" t="n">
+        <v>600</v>
+      </c>
+      <c r="Q344" t="n">
+        <v>1</v>
+      </c>
+      <c r="R344" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="n">
+        <v>9</v>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D345" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E345" t="n">
+        <v>13</v>
+      </c>
+      <c r="F345" t="n">
+        <v>100112008</v>
+      </c>
+      <c r="G345" t="inlineStr">
+        <is>
+          <t>Coliflor</t>
+        </is>
+      </c>
+      <c r="H345" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I345" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J341" t="n">
+      <c r="J345" t="n">
         <v>700</v>
       </c>
-      <c r="K341" t="n">
+      <c r="K345" t="n">
         <v>500</v>
       </c>
-      <c r="L341" t="n">
+      <c r="L345" t="n">
         <v>500</v>
       </c>
-      <c r="M341" t="n">
+      <c r="M345" t="n">
         <v>500</v>
       </c>
-      <c r="N341" t="inlineStr">
-        <is>
-          <t>$/unidad</t>
-        </is>
-      </c>
-      <c r="O341" t="inlineStr">
+      <c r="N345" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O345" t="inlineStr">
         <is>
           <t>Región Metropolitana</t>
         </is>
       </c>
-      <c r="P341" t="n">
+      <c r="P345" t="n">
         <v>500</v>
       </c>
-      <c r="Q341" t="n">
-        <v>1</v>
-      </c>
-      <c r="R341" t="inlineStr">
+      <c r="Q345" t="n">
+        <v>1</v>
+      </c>
+      <c r="R345" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Coliflor.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Coliflor.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R345"/>
+  <dimension ref="A1:R347"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23085,7 +23085,7 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E316" t="n">
         <v>13</v>
@@ -23109,16 +23109,16 @@
         </is>
       </c>
       <c r="J316" t="n">
-        <v>3400</v>
+        <v>1960</v>
       </c>
       <c r="K316" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L316" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="M316" t="n">
-        <v>550</v>
+        <v>625</v>
       </c>
       <c r="N316" t="inlineStr">
         <is>
@@ -23131,7 +23131,7 @@
         </is>
       </c>
       <c r="P316" t="n">
-        <v>550</v>
+        <v>625</v>
       </c>
       <c r="Q316" t="n">
         <v>1</v>
@@ -23157,7 +23157,7 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E317" t="n">
         <v>13</v>
@@ -23177,20 +23177,20 @@
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J317" t="n">
-        <v>4300</v>
+        <v>520</v>
       </c>
       <c r="K317" t="n">
+        <v>450</v>
+      </c>
+      <c r="L317" t="n">
         <v>500</v>
       </c>
-      <c r="L317" t="n">
-        <v>600</v>
-      </c>
       <c r="M317" t="n">
-        <v>550</v>
+        <v>475</v>
       </c>
       <c r="N317" t="inlineStr">
         <is>
@@ -23199,11 +23199,11 @@
       </c>
       <c r="O317" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P317" t="n">
-        <v>550</v>
+        <v>475</v>
       </c>
       <c r="Q317" t="n">
         <v>1</v>
@@ -23249,20 +23249,20 @@
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J318" t="n">
-        <v>1300</v>
+        <v>3400</v>
       </c>
       <c r="K318" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L318" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M318" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="N318" t="inlineStr">
         <is>
@@ -23275,7 +23275,7 @@
         </is>
       </c>
       <c r="P318" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="Q318" t="n">
         <v>1</v>
@@ -23321,20 +23321,20 @@
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J319" t="n">
-        <v>1600</v>
+        <v>4300</v>
       </c>
       <c r="K319" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L319" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M319" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="N319" t="inlineStr">
         <is>
@@ -23347,7 +23347,7 @@
         </is>
       </c>
       <c r="P319" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="Q319" t="n">
         <v>1</v>
@@ -23373,7 +23373,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E320" t="n">
         <v>13</v>
@@ -23393,20 +23393,20 @@
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J320" t="n">
-        <v>4500</v>
+        <v>1300</v>
       </c>
       <c r="K320" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="L320" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="M320" t="n">
-        <v>756</v>
+        <v>400</v>
       </c>
       <c r="N320" t="inlineStr">
         <is>
@@ -23415,11 +23415,11 @@
       </c>
       <c r="O320" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P320" t="n">
-        <v>756</v>
+        <v>400</v>
       </c>
       <c r="Q320" t="n">
         <v>1</v>
@@ -23445,7 +23445,7 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E321" t="n">
         <v>13</v>
@@ -23469,16 +23469,16 @@
         </is>
       </c>
       <c r="J321" t="n">
-        <v>2000</v>
+        <v>1600</v>
       </c>
       <c r="K321" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L321" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M321" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="N321" t="inlineStr">
         <is>
@@ -23487,11 +23487,11 @@
       </c>
       <c r="O321" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P321" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="Q321" t="n">
         <v>1</v>
@@ -23517,7 +23517,7 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E322" t="n">
         <v>13</v>
@@ -23541,16 +23541,16 @@
         </is>
       </c>
       <c r="J322" t="n">
-        <v>4800</v>
+        <v>4500</v>
       </c>
       <c r="K322" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="L322" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M322" t="n">
-        <v>448</v>
+        <v>756</v>
       </c>
       <c r="N322" t="inlineStr">
         <is>
@@ -23563,7 +23563,7 @@
         </is>
       </c>
       <c r="P322" t="n">
-        <v>448</v>
+        <v>756</v>
       </c>
       <c r="Q322" t="n">
         <v>1</v>
@@ -23589,7 +23589,7 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>44411</v>
+        <v>44203</v>
       </c>
       <c r="E323" t="n">
         <v>13</v>
@@ -23609,20 +23609,20 @@
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J323" t="n">
-        <v>3400</v>
+        <v>2000</v>
       </c>
       <c r="K323" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L323" t="n">
         <v>600</v>
       </c>
       <c r="M323" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="N323" t="inlineStr">
         <is>
@@ -23631,11 +23631,11 @@
       </c>
       <c r="O323" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P323" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="Q323" t="n">
         <v>1</v>
@@ -23661,7 +23661,7 @@
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>44411</v>
+        <v>44162</v>
       </c>
       <c r="E324" t="n">
         <v>13</v>
@@ -23685,16 +23685,16 @@
         </is>
       </c>
       <c r="J324" t="n">
-        <v>2500</v>
+        <v>4800</v>
       </c>
       <c r="K324" t="n">
+        <v>400</v>
+      </c>
+      <c r="L324" t="n">
         <v>500</v>
       </c>
-      <c r="L324" t="n">
-        <v>600</v>
-      </c>
       <c r="M324" t="n">
-        <v>550</v>
+        <v>448</v>
       </c>
       <c r="N324" t="inlineStr">
         <is>
@@ -23703,11 +23703,11 @@
       </c>
       <c r="O324" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P324" t="n">
-        <v>550</v>
+        <v>448</v>
       </c>
       <c r="Q324" t="n">
         <v>1</v>
@@ -23753,20 +23753,20 @@
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J325" t="n">
-        <v>970</v>
+        <v>3400</v>
       </c>
       <c r="K325" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L325" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M325" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="N325" t="inlineStr">
         <is>
@@ -23779,7 +23779,7 @@
         </is>
       </c>
       <c r="P325" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="Q325" t="n">
         <v>1</v>
@@ -23825,20 +23825,20 @@
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J326" t="n">
-        <v>790</v>
+        <v>2500</v>
       </c>
       <c r="K326" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L326" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M326" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="N326" t="inlineStr">
         <is>
@@ -23851,7 +23851,7 @@
         </is>
       </c>
       <c r="P326" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="Q326" t="n">
         <v>1</v>
@@ -23877,7 +23877,7 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E327" t="n">
         <v>13</v>
@@ -23897,20 +23897,20 @@
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J327" t="n">
-        <v>700</v>
+        <v>970</v>
       </c>
       <c r="K327" t="n">
-        <v>1200</v>
+        <v>400</v>
       </c>
       <c r="L327" t="n">
-        <v>1200</v>
+        <v>400</v>
       </c>
       <c r="M327" t="n">
-        <v>1200</v>
+        <v>400</v>
       </c>
       <c r="N327" t="inlineStr">
         <is>
@@ -23923,7 +23923,7 @@
         </is>
       </c>
       <c r="P327" t="n">
-        <v>1200</v>
+        <v>400</v>
       </c>
       <c r="Q327" t="n">
         <v>1</v>
@@ -23949,7 +23949,7 @@
         </is>
       </c>
       <c r="D328" s="2" t="n">
-        <v>44176</v>
+        <v>44411</v>
       </c>
       <c r="E328" t="n">
         <v>13</v>
@@ -23969,20 +23969,20 @@
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J328" t="n">
-        <v>5200</v>
+        <v>790</v>
       </c>
       <c r="K328" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="L328" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="M328" t="n">
-        <v>750</v>
+        <v>400</v>
       </c>
       <c r="N328" t="inlineStr">
         <is>
@@ -23991,11 +23991,11 @@
       </c>
       <c r="O328" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P328" t="n">
-        <v>750</v>
+        <v>400</v>
       </c>
       <c r="Q328" t="n">
         <v>1</v>
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>44239</v>
+        <v>44257</v>
       </c>
       <c r="E329" t="n">
         <v>13</v>
@@ -24045,16 +24045,16 @@
         </is>
       </c>
       <c r="J329" t="n">
-        <v>1600</v>
+        <v>700</v>
       </c>
       <c r="K329" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="L329" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="M329" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="N329" t="inlineStr">
         <is>
@@ -24067,7 +24067,7 @@
         </is>
       </c>
       <c r="P329" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="Q329" t="n">
         <v>1</v>
@@ -24093,7 +24093,7 @@
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>44376</v>
+        <v>44176</v>
       </c>
       <c r="E330" t="n">
         <v>13</v>
@@ -24117,16 +24117,16 @@
         </is>
       </c>
       <c r="J330" t="n">
-        <v>3400</v>
+        <v>5200</v>
       </c>
       <c r="K330" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L330" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M330" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="N330" t="inlineStr">
         <is>
@@ -24139,7 +24139,7 @@
         </is>
       </c>
       <c r="P330" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="Q330" t="n">
         <v>1</v>
@@ -24165,7 +24165,7 @@
         </is>
       </c>
       <c r="D331" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E331" t="n">
         <v>13</v>
@@ -24189,16 +24189,16 @@
         </is>
       </c>
       <c r="J331" t="n">
-        <v>2500</v>
+        <v>1600</v>
       </c>
       <c r="K331" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="L331" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="M331" t="n">
-        <v>550</v>
+        <v>1000</v>
       </c>
       <c r="N331" t="inlineStr">
         <is>
@@ -24207,11 +24207,11 @@
       </c>
       <c r="O331" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P331" t="n">
-        <v>550</v>
+        <v>1000</v>
       </c>
       <c r="Q331" t="n">
         <v>1</v>
@@ -24257,20 +24257,20 @@
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J332" t="n">
-        <v>1600</v>
+        <v>3400</v>
       </c>
       <c r="K332" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L332" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M332" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="N332" t="inlineStr">
         <is>
@@ -24283,7 +24283,7 @@
         </is>
       </c>
       <c r="P332" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="Q332" t="n">
         <v>1</v>
@@ -24329,20 +24329,20 @@
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J333" t="n">
-        <v>970</v>
+        <v>2500</v>
       </c>
       <c r="K333" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L333" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M333" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="N333" t="inlineStr">
         <is>
@@ -24355,7 +24355,7 @@
         </is>
       </c>
       <c r="P333" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="Q333" t="n">
         <v>1</v>
@@ -24381,7 +24381,7 @@
         </is>
       </c>
       <c r="D334" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E334" t="n">
         <v>13</v>
@@ -24401,20 +24401,20 @@
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J334" t="n">
         <v>1600</v>
       </c>
       <c r="K334" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="L334" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="M334" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="N334" t="inlineStr">
         <is>
@@ -24427,7 +24427,7 @@
         </is>
       </c>
       <c r="P334" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="Q334" t="n">
         <v>1</v>
@@ -24453,7 +24453,7 @@
         </is>
       </c>
       <c r="D335" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E335" t="n">
         <v>13</v>
@@ -24473,20 +24473,20 @@
       </c>
       <c r="I335" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J335" t="n">
-        <v>4300</v>
+        <v>970</v>
       </c>
       <c r="K335" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L335" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M335" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="N335" t="inlineStr">
         <is>
@@ -24495,11 +24495,11 @@
       </c>
       <c r="O335" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P335" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="Q335" t="n">
         <v>1</v>
@@ -24525,7 +24525,7 @@
         </is>
       </c>
       <c r="D336" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E336" t="n">
         <v>13</v>
@@ -24549,16 +24549,16 @@
         </is>
       </c>
       <c r="J336" t="n">
-        <v>3400</v>
+        <v>1600</v>
       </c>
       <c r="K336" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="L336" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="M336" t="n">
-        <v>550</v>
+        <v>900</v>
       </c>
       <c r="N336" t="inlineStr">
         <is>
@@ -24567,11 +24567,11 @@
       </c>
       <c r="O336" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P336" t="n">
-        <v>550</v>
+        <v>900</v>
       </c>
       <c r="Q336" t="n">
         <v>1</v>
@@ -24617,20 +24617,20 @@
       </c>
       <c r="I337" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J337" t="n">
-        <v>2500</v>
+        <v>4300</v>
       </c>
       <c r="K337" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L337" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M337" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="N337" t="inlineStr">
         <is>
@@ -24643,7 +24643,7 @@
         </is>
       </c>
       <c r="P337" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="Q337" t="n">
         <v>1</v>
@@ -24689,20 +24689,20 @@
       </c>
       <c r="I338" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J338" t="n">
-        <v>1600</v>
+        <v>3400</v>
       </c>
       <c r="K338" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L338" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M338" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="N338" t="inlineStr">
         <is>
@@ -24715,7 +24715,7 @@
         </is>
       </c>
       <c r="P338" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="Q338" t="n">
         <v>1</v>
@@ -24741,7 +24741,7 @@
         </is>
       </c>
       <c r="D339" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E339" t="n">
         <v>13</v>
@@ -24761,20 +24761,20 @@
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J339" t="n">
         <v>2500</v>
       </c>
       <c r="K339" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="L339" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="M339" t="n">
-        <v>950</v>
+        <v>400</v>
       </c>
       <c r="N339" t="inlineStr">
         <is>
@@ -24787,7 +24787,7 @@
         </is>
       </c>
       <c r="P339" t="n">
-        <v>950</v>
+        <v>400</v>
       </c>
       <c r="Q339" t="n">
         <v>1</v>
@@ -24813,7 +24813,7 @@
         </is>
       </c>
       <c r="D340" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E340" t="n">
         <v>13</v>
@@ -24833,20 +24833,20 @@
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J340" t="n">
-        <v>4300</v>
+        <v>1600</v>
       </c>
       <c r="K340" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L340" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="M340" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="N340" t="inlineStr">
         <is>
@@ -24855,11 +24855,11 @@
       </c>
       <c r="O340" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P340" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="Q340" t="n">
         <v>1</v>
@@ -24885,7 +24885,7 @@
         </is>
       </c>
       <c r="D341" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E341" t="n">
         <v>13</v>
@@ -24909,16 +24909,16 @@
         </is>
       </c>
       <c r="J341" t="n">
-        <v>3400</v>
+        <v>2500</v>
       </c>
       <c r="K341" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="L341" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="M341" t="n">
-        <v>650</v>
+        <v>950</v>
       </c>
       <c r="N341" t="inlineStr">
         <is>
@@ -24927,11 +24927,11 @@
       </c>
       <c r="O341" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P341" t="n">
-        <v>650</v>
+        <v>950</v>
       </c>
       <c r="Q341" t="n">
         <v>1</v>
@@ -24977,20 +24977,20 @@
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J342" t="n">
-        <v>1600</v>
+        <v>4300</v>
       </c>
       <c r="K342" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L342" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M342" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="N342" t="inlineStr">
         <is>
@@ -25003,7 +25003,7 @@
         </is>
       </c>
       <c r="P342" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="Q342" t="n">
         <v>1</v>
@@ -25049,20 +25049,20 @@
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J343" t="n">
-        <v>1300</v>
+        <v>3400</v>
       </c>
       <c r="K343" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L343" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M343" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="N343" t="inlineStr">
         <is>
@@ -25075,7 +25075,7 @@
         </is>
       </c>
       <c r="P343" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="Q343" t="n">
         <v>1</v>
@@ -25101,7 +25101,7 @@
         </is>
       </c>
       <c r="D344" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E344" t="n">
         <v>13</v>
@@ -25121,20 +25121,20 @@
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J344" t="n">
-        <v>2500</v>
+        <v>1600</v>
       </c>
       <c r="K344" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L344" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M344" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="N344" t="inlineStr">
         <is>
@@ -25147,7 +25147,7 @@
         </is>
       </c>
       <c r="P344" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="Q344" t="n">
         <v>1</v>
@@ -25173,7 +25173,7 @@
         </is>
       </c>
       <c r="D345" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E345" t="n">
         <v>13</v>
@@ -25197,34 +25197,178 @@
         </is>
       </c>
       <c r="J345" t="n">
-        <v>700</v>
+        <v>1300</v>
       </c>
       <c r="K345" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L345" t="n">
         <v>500</v>
       </c>
       <c r="M345" t="n">
+        <v>450</v>
+      </c>
+      <c r="N345" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O345" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P345" t="n">
+        <v>450</v>
+      </c>
+      <c r="Q345" t="n">
+        <v>1</v>
+      </c>
+      <c r="R345" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="n">
+        <v>9</v>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D346" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E346" t="n">
+        <v>13</v>
+      </c>
+      <c r="F346" t="n">
+        <v>100112008</v>
+      </c>
+      <c r="G346" t="inlineStr">
+        <is>
+          <t>Coliflor</t>
+        </is>
+      </c>
+      <c r="H346" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I346" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J346" t="n">
+        <v>2500</v>
+      </c>
+      <c r="K346" t="n">
+        <v>600</v>
+      </c>
+      <c r="L346" t="n">
+        <v>600</v>
+      </c>
+      <c r="M346" t="n">
+        <v>600</v>
+      </c>
+      <c r="N346" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O346" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P346" t="n">
+        <v>600</v>
+      </c>
+      <c r="Q346" t="n">
+        <v>1</v>
+      </c>
+      <c r="R346" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="n">
+        <v>9</v>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D347" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E347" t="n">
+        <v>13</v>
+      </c>
+      <c r="F347" t="n">
+        <v>100112008</v>
+      </c>
+      <c r="G347" t="inlineStr">
+        <is>
+          <t>Coliflor</t>
+        </is>
+      </c>
+      <c r="H347" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I347" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J347" t="n">
+        <v>700</v>
+      </c>
+      <c r="K347" t="n">
         <v>500</v>
       </c>
-      <c r="N345" t="inlineStr">
-        <is>
-          <t>$/unidad</t>
-        </is>
-      </c>
-      <c r="O345" t="inlineStr">
+      <c r="L347" t="n">
+        <v>500</v>
+      </c>
+      <c r="M347" t="n">
+        <v>500</v>
+      </c>
+      <c r="N347" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O347" t="inlineStr">
         <is>
           <t>Región Metropolitana</t>
         </is>
       </c>
-      <c r="P345" t="n">
+      <c r="P347" t="n">
         <v>500</v>
       </c>
-      <c r="Q345" t="n">
-        <v>1</v>
-      </c>
-      <c r="R345" t="inlineStr">
+      <c r="Q347" t="n">
+        <v>1</v>
+      </c>
+      <c r="R347" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Coliflor.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Coliflor.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R351"/>
+  <dimension ref="A1:R355"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19989,7 +19989,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E273" t="n">
         <v>13</v>
@@ -20013,16 +20013,16 @@
         </is>
       </c>
       <c r="J273" t="n">
-        <v>3400</v>
+        <v>4300</v>
       </c>
       <c r="K273" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="L273" t="n">
-        <v>1000</v>
+        <v>650</v>
       </c>
       <c r="M273" t="n">
-        <v>950</v>
+        <v>625</v>
       </c>
       <c r="N273" t="inlineStr">
         <is>
@@ -20035,7 +20035,7 @@
         </is>
       </c>
       <c r="P273" t="n">
-        <v>950</v>
+        <v>625</v>
       </c>
       <c r="Q273" t="n">
         <v>1</v>
@@ -20061,7 +20061,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44301</v>
+        <v>44463</v>
       </c>
       <c r="E274" t="n">
         <v>13</v>
@@ -20085,16 +20085,16 @@
         </is>
       </c>
       <c r="J274" t="n">
-        <v>1600</v>
+        <v>3400</v>
       </c>
       <c r="K274" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="L274" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="M274" t="n">
-        <v>750</v>
+        <v>625</v>
       </c>
       <c r="N274" t="inlineStr">
         <is>
@@ -20103,11 +20103,11 @@
       </c>
       <c r="O274" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P274" t="n">
-        <v>750</v>
+        <v>625</v>
       </c>
       <c r="Q274" t="n">
         <v>1</v>
@@ -20133,7 +20133,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44252</v>
+        <v>44463</v>
       </c>
       <c r="E275" t="n">
         <v>13</v>
@@ -20153,20 +20153,20 @@
       </c>
       <c r="I275" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J275" t="n">
-        <v>1200</v>
+        <v>1240</v>
       </c>
       <c r="K275" t="n">
-        <v>1000</v>
+        <v>450</v>
       </c>
       <c r="L275" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="M275" t="n">
-        <v>1000</v>
+        <v>475</v>
       </c>
       <c r="N275" t="inlineStr">
         <is>
@@ -20175,11 +20175,11 @@
       </c>
       <c r="O275" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P275" t="n">
-        <v>1000</v>
+        <v>475</v>
       </c>
       <c r="Q275" t="n">
         <v>1</v>
@@ -20205,7 +20205,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44252</v>
+        <v>44463</v>
       </c>
       <c r="E276" t="n">
         <v>13</v>
@@ -20229,16 +20229,16 @@
         </is>
       </c>
       <c r="J276" t="n">
-        <v>300</v>
+        <v>970</v>
       </c>
       <c r="K276" t="n">
-        <v>800</v>
+        <v>450</v>
       </c>
       <c r="L276" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M276" t="n">
-        <v>800</v>
+        <v>475</v>
       </c>
       <c r="N276" t="inlineStr">
         <is>
@@ -20247,11 +20247,11 @@
       </c>
       <c r="O276" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P276" t="n">
-        <v>800</v>
+        <v>475</v>
       </c>
       <c r="Q276" t="n">
         <v>1</v>
@@ -20277,7 +20277,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44166</v>
+        <v>44196</v>
       </c>
       <c r="E277" t="n">
         <v>13</v>
@@ -20301,16 +20301,16 @@
         </is>
       </c>
       <c r="J277" t="n">
-        <v>3200</v>
+        <v>3400</v>
       </c>
       <c r="K277" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="L277" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="M277" t="n">
-        <v>500</v>
+        <v>950</v>
       </c>
       <c r="N277" t="inlineStr">
         <is>
@@ -20319,11 +20319,11 @@
       </c>
       <c r="O277" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P277" t="n">
-        <v>500</v>
+        <v>950</v>
       </c>
       <c r="Q277" t="n">
         <v>1</v>
@@ -20349,7 +20349,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44369</v>
+        <v>44301</v>
       </c>
       <c r="E278" t="n">
         <v>13</v>
@@ -20373,16 +20373,16 @@
         </is>
       </c>
       <c r="J278" t="n">
-        <v>3400</v>
+        <v>1600</v>
       </c>
       <c r="K278" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L278" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M278" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="N278" t="inlineStr">
         <is>
@@ -20395,7 +20395,7 @@
         </is>
       </c>
       <c r="P278" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="Q278" t="n">
         <v>1</v>
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44369</v>
+        <v>44252</v>
       </c>
       <c r="E279" t="n">
         <v>13</v>
@@ -20445,16 +20445,16 @@
         </is>
       </c>
       <c r="J279" t="n">
-        <v>2500</v>
+        <v>1200</v>
       </c>
       <c r="K279" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="L279" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="M279" t="n">
-        <v>550</v>
+        <v>1000</v>
       </c>
       <c r="N279" t="inlineStr">
         <is>
@@ -20463,11 +20463,11 @@
       </c>
       <c r="O279" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P279" t="n">
-        <v>550</v>
+        <v>1000</v>
       </c>
       <c r="Q279" t="n">
         <v>1</v>
@@ -20493,7 +20493,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44369</v>
+        <v>44252</v>
       </c>
       <c r="E280" t="n">
         <v>13</v>
@@ -20517,16 +20517,16 @@
         </is>
       </c>
       <c r="J280" t="n">
-        <v>1600</v>
+        <v>300</v>
       </c>
       <c r="K280" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="L280" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="M280" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="N280" t="inlineStr">
         <is>
@@ -20535,11 +20535,11 @@
       </c>
       <c r="O280" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P280" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="Q280" t="n">
         <v>1</v>
@@ -20565,7 +20565,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44369</v>
+        <v>44166</v>
       </c>
       <c r="E281" t="n">
         <v>13</v>
@@ -20585,20 +20585,20 @@
       </c>
       <c r="I281" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J281" t="n">
-        <v>700</v>
+        <v>3200</v>
       </c>
       <c r="K281" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L281" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M281" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N281" t="inlineStr">
         <is>
@@ -20607,11 +20607,11 @@
       </c>
       <c r="O281" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P281" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Q281" t="n">
         <v>1</v>
@@ -20637,7 +20637,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E282" t="n">
         <v>13</v>
@@ -20664,13 +20664,13 @@
         <v>3400</v>
       </c>
       <c r="K282" t="n">
+        <v>500</v>
+      </c>
+      <c r="L282" t="n">
         <v>600</v>
       </c>
-      <c r="L282" t="n">
-        <v>650</v>
-      </c>
       <c r="M282" t="n">
-        <v>625</v>
+        <v>550</v>
       </c>
       <c r="N282" t="inlineStr">
         <is>
@@ -20683,7 +20683,7 @@
         </is>
       </c>
       <c r="P282" t="n">
-        <v>625</v>
+        <v>550</v>
       </c>
       <c r="Q282" t="n">
         <v>1</v>
@@ -20709,7 +20709,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E283" t="n">
         <v>13</v>
@@ -20733,16 +20733,16 @@
         </is>
       </c>
       <c r="J283" t="n">
-        <v>1600</v>
+        <v>2500</v>
       </c>
       <c r="K283" t="n">
+        <v>500</v>
+      </c>
+      <c r="L283" t="n">
         <v>600</v>
       </c>
-      <c r="L283" t="n">
-        <v>650</v>
-      </c>
       <c r="M283" t="n">
-        <v>625</v>
+        <v>550</v>
       </c>
       <c r="N283" t="inlineStr">
         <is>
@@ -20755,7 +20755,7 @@
         </is>
       </c>
       <c r="P283" t="n">
-        <v>625</v>
+        <v>550</v>
       </c>
       <c r="Q283" t="n">
         <v>1</v>
@@ -20781,7 +20781,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E284" t="n">
         <v>13</v>
@@ -20805,16 +20805,16 @@
         </is>
       </c>
       <c r="J284" t="n">
-        <v>970</v>
+        <v>1600</v>
       </c>
       <c r="K284" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L284" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="M284" t="n">
-        <v>525</v>
+        <v>400</v>
       </c>
       <c r="N284" t="inlineStr">
         <is>
@@ -20827,7 +20827,7 @@
         </is>
       </c>
       <c r="P284" t="n">
-        <v>525</v>
+        <v>400</v>
       </c>
       <c r="Q284" t="n">
         <v>1</v>
@@ -20853,7 +20853,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E285" t="n">
         <v>13</v>
@@ -20877,16 +20877,16 @@
         </is>
       </c>
       <c r="J285" t="n">
-        <v>610</v>
+        <v>700</v>
       </c>
       <c r="K285" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L285" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="M285" t="n">
-        <v>525</v>
+        <v>400</v>
       </c>
       <c r="N285" t="inlineStr">
         <is>
@@ -20899,7 +20899,7 @@
         </is>
       </c>
       <c r="P285" t="n">
-        <v>525</v>
+        <v>400</v>
       </c>
       <c r="Q285" t="n">
         <v>1</v>
@@ -20925,7 +20925,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E286" t="n">
         <v>13</v>
@@ -20949,16 +20949,16 @@
         </is>
       </c>
       <c r="J286" t="n">
-        <v>2500</v>
+        <v>3400</v>
       </c>
       <c r="K286" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L286" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="M286" t="n">
-        <v>550</v>
+        <v>625</v>
       </c>
       <c r="N286" t="inlineStr">
         <is>
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="P286" t="n">
-        <v>550</v>
+        <v>625</v>
       </c>
       <c r="Q286" t="n">
         <v>1</v>
@@ -20997,7 +20997,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E287" t="n">
         <v>13</v>
@@ -21021,16 +21021,16 @@
         </is>
       </c>
       <c r="J287" t="n">
-        <v>3400</v>
+        <v>1600</v>
       </c>
       <c r="K287" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L287" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="M287" t="n">
-        <v>550</v>
+        <v>625</v>
       </c>
       <c r="N287" t="inlineStr">
         <is>
@@ -21043,7 +21043,7 @@
         </is>
       </c>
       <c r="P287" t="n">
-        <v>550</v>
+        <v>625</v>
       </c>
       <c r="Q287" t="n">
         <v>1</v>
@@ -21069,7 +21069,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E288" t="n">
         <v>13</v>
@@ -21096,13 +21096,13 @@
         <v>970</v>
       </c>
       <c r="K288" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L288" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="M288" t="n">
-        <v>400</v>
+        <v>525</v>
       </c>
       <c r="N288" t="inlineStr">
         <is>
@@ -21115,7 +21115,7 @@
         </is>
       </c>
       <c r="P288" t="n">
-        <v>400</v>
+        <v>525</v>
       </c>
       <c r="Q288" t="n">
         <v>1</v>
@@ -21141,7 +21141,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E289" t="n">
         <v>13</v>
@@ -21165,16 +21165,16 @@
         </is>
       </c>
       <c r="J289" t="n">
-        <v>1600</v>
+        <v>610</v>
       </c>
       <c r="K289" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L289" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="M289" t="n">
-        <v>400</v>
+        <v>525</v>
       </c>
       <c r="N289" t="inlineStr">
         <is>
@@ -21187,7 +21187,7 @@
         </is>
       </c>
       <c r="P289" t="n">
-        <v>400</v>
+        <v>525</v>
       </c>
       <c r="Q289" t="n">
         <v>1</v>
@@ -21213,7 +21213,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E290" t="n">
         <v>13</v>
@@ -21237,16 +21237,16 @@
         </is>
       </c>
       <c r="J290" t="n">
-        <v>3400</v>
+        <v>2500</v>
       </c>
       <c r="K290" t="n">
+        <v>500</v>
+      </c>
+      <c r="L290" t="n">
         <v>600</v>
       </c>
-      <c r="L290" t="n">
-        <v>700</v>
-      </c>
       <c r="M290" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="N290" t="inlineStr">
         <is>
@@ -21259,7 +21259,7 @@
         </is>
       </c>
       <c r="P290" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="Q290" t="n">
         <v>1</v>
@@ -21285,7 +21285,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E291" t="n">
         <v>13</v>
@@ -21305,20 +21305,20 @@
       </c>
       <c r="I291" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J291" t="n">
-        <v>1600</v>
+        <v>3400</v>
       </c>
       <c r="K291" t="n">
         <v>500</v>
       </c>
       <c r="L291" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M291" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="N291" t="inlineStr">
         <is>
@@ -21327,11 +21327,11 @@
       </c>
       <c r="O291" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P291" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="Q291" t="n">
         <v>1</v>
@@ -21357,7 +21357,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44397</v>
+        <v>44371</v>
       </c>
       <c r="E292" t="n">
         <v>13</v>
@@ -21377,20 +21377,20 @@
       </c>
       <c r="I292" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J292" t="n">
-        <v>4300</v>
+        <v>970</v>
       </c>
       <c r="K292" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L292" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M292" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="N292" t="inlineStr">
         <is>
@@ -21403,7 +21403,7 @@
         </is>
       </c>
       <c r="P292" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="Q292" t="n">
         <v>1</v>
@@ -21429,7 +21429,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44397</v>
+        <v>44371</v>
       </c>
       <c r="E293" t="n">
         <v>13</v>
@@ -21449,20 +21449,20 @@
       </c>
       <c r="I293" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J293" t="n">
-        <v>3400</v>
+        <v>1600</v>
       </c>
       <c r="K293" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L293" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M293" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="N293" t="inlineStr">
         <is>
@@ -21475,7 +21475,7 @@
         </is>
       </c>
       <c r="P293" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="Q293" t="n">
         <v>1</v>
@@ -21501,7 +21501,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44397</v>
+        <v>44316</v>
       </c>
       <c r="E294" t="n">
         <v>13</v>
@@ -21521,20 +21521,20 @@
       </c>
       <c r="I294" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J294" t="n">
-        <v>1600</v>
+        <v>3400</v>
       </c>
       <c r="K294" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L294" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="M294" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="N294" t="inlineStr">
         <is>
@@ -21547,7 +21547,7 @@
         </is>
       </c>
       <c r="P294" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="Q294" t="n">
         <v>1</v>
@@ -21573,7 +21573,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44397</v>
+        <v>44316</v>
       </c>
       <c r="E295" t="n">
         <v>13</v>
@@ -21597,16 +21597,16 @@
         </is>
       </c>
       <c r="J295" t="n">
-        <v>970</v>
+        <v>1600</v>
       </c>
       <c r="K295" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L295" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M295" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N295" t="inlineStr">
         <is>
@@ -21615,11 +21615,11 @@
       </c>
       <c r="O295" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P295" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Q295" t="n">
         <v>1</v>
@@ -21645,7 +21645,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E296" t="n">
         <v>13</v>
@@ -21669,7 +21669,7 @@
         </is>
       </c>
       <c r="J296" t="n">
-        <v>2500</v>
+        <v>4300</v>
       </c>
       <c r="K296" t="n">
         <v>500</v>
@@ -21717,7 +21717,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E297" t="n">
         <v>13</v>
@@ -21741,7 +21741,7 @@
         </is>
       </c>
       <c r="J297" t="n">
-        <v>1600</v>
+        <v>3400</v>
       </c>
       <c r="K297" t="n">
         <v>500</v>
@@ -21789,7 +21789,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E298" t="n">
         <v>13</v>
@@ -21861,7 +21861,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E299" t="n">
         <v>13</v>
@@ -21885,7 +21885,7 @@
         </is>
       </c>
       <c r="J299" t="n">
-        <v>700</v>
+        <v>970</v>
       </c>
       <c r="K299" t="n">
         <v>400</v>
@@ -21933,7 +21933,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44273</v>
+        <v>44363</v>
       </c>
       <c r="E300" t="n">
         <v>13</v>
@@ -21957,16 +21957,16 @@
         </is>
       </c>
       <c r="J300" t="n">
-        <v>1600</v>
+        <v>2500</v>
       </c>
       <c r="K300" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="L300" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="M300" t="n">
-        <v>1000</v>
+        <v>550</v>
       </c>
       <c r="N300" t="inlineStr">
         <is>
@@ -21979,7 +21979,7 @@
         </is>
       </c>
       <c r="P300" t="n">
-        <v>1000</v>
+        <v>550</v>
       </c>
       <c r="Q300" t="n">
         <v>1</v>
@@ -22005,7 +22005,7 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>44438</v>
+        <v>44363</v>
       </c>
       <c r="E301" t="n">
         <v>13</v>
@@ -22032,13 +22032,13 @@
         <v>1600</v>
       </c>
       <c r="K301" t="n">
+        <v>500</v>
+      </c>
+      <c r="L301" t="n">
         <v>600</v>
       </c>
-      <c r="L301" t="n">
-        <v>650</v>
-      </c>
       <c r="M301" t="n">
-        <v>625</v>
+        <v>550</v>
       </c>
       <c r="N301" t="inlineStr">
         <is>
@@ -22047,11 +22047,11 @@
       </c>
       <c r="O301" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P301" t="n">
-        <v>625</v>
+        <v>550</v>
       </c>
       <c r="Q301" t="n">
         <v>1</v>
@@ -22077,7 +22077,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44438</v>
+        <v>44363</v>
       </c>
       <c r="E302" t="n">
         <v>13</v>
@@ -22101,16 +22101,16 @@
         </is>
       </c>
       <c r="J302" t="n">
-        <v>610</v>
+        <v>1600</v>
       </c>
       <c r="K302" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L302" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="M302" t="n">
-        <v>525</v>
+        <v>400</v>
       </c>
       <c r="N302" t="inlineStr">
         <is>
@@ -22123,7 +22123,7 @@
         </is>
       </c>
       <c r="P302" t="n">
-        <v>525</v>
+        <v>400</v>
       </c>
       <c r="Q302" t="n">
         <v>1</v>
@@ -22149,7 +22149,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44372</v>
+        <v>44363</v>
       </c>
       <c r="E303" t="n">
         <v>13</v>
@@ -22169,20 +22169,20 @@
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J303" t="n">
-        <v>3400</v>
+        <v>700</v>
       </c>
       <c r="K303" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L303" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M303" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="N303" t="inlineStr">
         <is>
@@ -22191,11 +22191,11 @@
       </c>
       <c r="O303" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P303" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="Q303" t="n">
         <v>1</v>
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44372</v>
+        <v>44273</v>
       </c>
       <c r="E304" t="n">
         <v>13</v>
@@ -22241,20 +22241,20 @@
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J304" t="n">
-        <v>970</v>
+        <v>1600</v>
       </c>
       <c r="K304" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="L304" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="M304" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="N304" t="inlineStr">
         <is>
@@ -22267,7 +22267,7 @@
         </is>
       </c>
       <c r="P304" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="Q304" t="n">
         <v>1</v>
@@ -22293,7 +22293,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44286</v>
+        <v>44438</v>
       </c>
       <c r="E305" t="n">
         <v>13</v>
@@ -22320,13 +22320,13 @@
         <v>1600</v>
       </c>
       <c r="K305" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="L305" t="n">
-        <v>900</v>
+        <v>650</v>
       </c>
       <c r="M305" t="n">
-        <v>900</v>
+        <v>625</v>
       </c>
       <c r="N305" t="inlineStr">
         <is>
@@ -22339,7 +22339,7 @@
         </is>
       </c>
       <c r="P305" t="n">
-        <v>900</v>
+        <v>625</v>
       </c>
       <c r="Q305" t="n">
         <v>1</v>
@@ -22365,7 +22365,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44356</v>
+        <v>44438</v>
       </c>
       <c r="E306" t="n">
         <v>13</v>
@@ -22385,20 +22385,20 @@
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J306" t="n">
-        <v>2500</v>
+        <v>610</v>
       </c>
       <c r="K306" t="n">
         <v>500</v>
       </c>
       <c r="L306" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="M306" t="n">
-        <v>550</v>
+        <v>525</v>
       </c>
       <c r="N306" t="inlineStr">
         <is>
@@ -22407,11 +22407,11 @@
       </c>
       <c r="O306" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P306" t="n">
-        <v>550</v>
+        <v>525</v>
       </c>
       <c r="Q306" t="n">
         <v>1</v>
@@ -22437,7 +22437,7 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>44356</v>
+        <v>44372</v>
       </c>
       <c r="E307" t="n">
         <v>13</v>
@@ -22457,20 +22457,20 @@
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J307" t="n">
-        <v>700</v>
+        <v>3400</v>
       </c>
       <c r="K307" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L307" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M307" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="N307" t="inlineStr">
         <is>
@@ -22479,11 +22479,11 @@
       </c>
       <c r="O307" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P307" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="Q307" t="n">
         <v>1</v>
@@ -22509,7 +22509,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44160</v>
+        <v>44372</v>
       </c>
       <c r="E308" t="n">
         <v>13</v>
@@ -22529,20 +22529,20 @@
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J308" t="n">
-        <v>3600</v>
+        <v>970</v>
       </c>
       <c r="K308" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L308" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M308" t="n">
-        <v>556</v>
+        <v>400</v>
       </c>
       <c r="N308" t="inlineStr">
         <is>
@@ -22551,11 +22551,11 @@
       </c>
       <c r="O308" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P308" t="n">
-        <v>556</v>
+        <v>400</v>
       </c>
       <c r="Q308" t="n">
         <v>1</v>
@@ -22581,7 +22581,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44351</v>
+        <v>44286</v>
       </c>
       <c r="E309" t="n">
         <v>13</v>
@@ -22605,16 +22605,16 @@
         </is>
       </c>
       <c r="J309" t="n">
-        <v>3400</v>
+        <v>1600</v>
       </c>
       <c r="K309" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="L309" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="M309" t="n">
-        <v>550</v>
+        <v>900</v>
       </c>
       <c r="N309" t="inlineStr">
         <is>
@@ -22627,7 +22627,7 @@
         </is>
       </c>
       <c r="P309" t="n">
-        <v>550</v>
+        <v>900</v>
       </c>
       <c r="Q309" t="n">
         <v>1</v>
@@ -22653,7 +22653,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E310" t="n">
         <v>13</v>
@@ -22677,7 +22677,7 @@
         </is>
       </c>
       <c r="J310" t="n">
-        <v>4300</v>
+        <v>2500</v>
       </c>
       <c r="K310" t="n">
         <v>500</v>
@@ -22725,7 +22725,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E311" t="n">
         <v>13</v>
@@ -22749,7 +22749,7 @@
         </is>
       </c>
       <c r="J311" t="n">
-        <v>1600</v>
+        <v>700</v>
       </c>
       <c r="K311" t="n">
         <v>400</v>
@@ -22767,7 +22767,7 @@
       </c>
       <c r="O311" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P311" t="n">
@@ -22797,7 +22797,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E312" t="n">
         <v>13</v>
@@ -22817,20 +22817,20 @@
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J312" t="n">
-        <v>2500</v>
+        <v>3600</v>
       </c>
       <c r="K312" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L312" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M312" t="n">
-        <v>400</v>
+        <v>556</v>
       </c>
       <c r="N312" t="inlineStr">
         <is>
@@ -22839,11 +22839,11 @@
       </c>
       <c r="O312" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P312" t="n">
-        <v>400</v>
+        <v>556</v>
       </c>
       <c r="Q312" t="n">
         <v>1</v>
@@ -22869,7 +22869,7 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E313" t="n">
         <v>13</v>
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E314" t="n">
         <v>13</v>
@@ -22965,7 +22965,7 @@
         </is>
       </c>
       <c r="J314" t="n">
-        <v>2500</v>
+        <v>4300</v>
       </c>
       <c r="K314" t="n">
         <v>500</v>
@@ -23013,7 +23013,7 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E315" t="n">
         <v>13</v>
@@ -23085,7 +23085,7 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E316" t="n">
         <v>13</v>
@@ -23109,7 +23109,7 @@
         </is>
       </c>
       <c r="J316" t="n">
-        <v>970</v>
+        <v>2500</v>
       </c>
       <c r="K316" t="n">
         <v>400</v>
@@ -23157,7 +23157,7 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E317" t="n">
         <v>13</v>
@@ -23181,16 +23181,16 @@
         </is>
       </c>
       <c r="J317" t="n">
-        <v>1600</v>
+        <v>3400</v>
       </c>
       <c r="K317" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L317" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M317" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="N317" t="inlineStr">
         <is>
@@ -23199,11 +23199,11 @@
       </c>
       <c r="O317" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P317" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="Q317" t="n">
         <v>1</v>
@@ -23229,7 +23229,7 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>44215</v>
+        <v>44365</v>
       </c>
       <c r="E318" t="n">
         <v>13</v>
@@ -23253,16 +23253,16 @@
         </is>
       </c>
       <c r="J318" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="K318" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="L318" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="M318" t="n">
-        <v>950</v>
+        <v>550</v>
       </c>
       <c r="N318" t="inlineStr">
         <is>
@@ -23275,7 +23275,7 @@
         </is>
       </c>
       <c r="P318" t="n">
-        <v>950</v>
+        <v>550</v>
       </c>
       <c r="Q318" t="n">
         <v>1</v>
@@ -23301,7 +23301,7 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>44175</v>
+        <v>44365</v>
       </c>
       <c r="E319" t="n">
         <v>13</v>
@@ -23321,20 +23321,20 @@
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J319" t="n">
-        <v>5200</v>
+        <v>1600</v>
       </c>
       <c r="K319" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="L319" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="M319" t="n">
-        <v>850</v>
+        <v>400</v>
       </c>
       <c r="N319" t="inlineStr">
         <is>
@@ -23347,7 +23347,7 @@
         </is>
       </c>
       <c r="P319" t="n">
-        <v>850</v>
+        <v>400</v>
       </c>
       <c r="Q319" t="n">
         <v>1</v>
@@ -23373,7 +23373,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44461</v>
+        <v>44365</v>
       </c>
       <c r="E320" t="n">
         <v>13</v>
@@ -23393,20 +23393,20 @@
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J320" t="n">
-        <v>1960</v>
+        <v>970</v>
       </c>
       <c r="K320" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L320" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="M320" t="n">
-        <v>625</v>
+        <v>400</v>
       </c>
       <c r="N320" t="inlineStr">
         <is>
@@ -23415,11 +23415,11 @@
       </c>
       <c r="O320" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P320" t="n">
-        <v>625</v>
+        <v>400</v>
       </c>
       <c r="Q320" t="n">
         <v>1</v>
@@ -23445,7 +23445,7 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>44461</v>
+        <v>44306</v>
       </c>
       <c r="E321" t="n">
         <v>13</v>
@@ -23465,20 +23465,20 @@
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J321" t="n">
-        <v>520</v>
+        <v>1600</v>
       </c>
       <c r="K321" t="n">
-        <v>450</v>
+        <v>700</v>
       </c>
       <c r="L321" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M321" t="n">
-        <v>475</v>
+        <v>750</v>
       </c>
       <c r="N321" t="inlineStr">
         <is>
@@ -23487,11 +23487,11 @@
       </c>
       <c r="O321" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P321" t="n">
-        <v>475</v>
+        <v>750</v>
       </c>
       <c r="Q321" t="n">
         <v>1</v>
@@ -23517,7 +23517,7 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>44357</v>
+        <v>44215</v>
       </c>
       <c r="E322" t="n">
         <v>13</v>
@@ -23541,16 +23541,16 @@
         </is>
       </c>
       <c r="J322" t="n">
-        <v>3400</v>
+        <v>2000</v>
       </c>
       <c r="K322" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="L322" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="M322" t="n">
-        <v>550</v>
+        <v>950</v>
       </c>
       <c r="N322" t="inlineStr">
         <is>
@@ -23559,11 +23559,11 @@
       </c>
       <c r="O322" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P322" t="n">
-        <v>550</v>
+        <v>950</v>
       </c>
       <c r="Q322" t="n">
         <v>1</v>
@@ -23589,7 +23589,7 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E323" t="n">
         <v>13</v>
@@ -23613,16 +23613,16 @@
         </is>
       </c>
       <c r="J323" t="n">
-        <v>4300</v>
+        <v>5200</v>
       </c>
       <c r="K323" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="L323" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="M323" t="n">
-        <v>550</v>
+        <v>850</v>
       </c>
       <c r="N323" t="inlineStr">
         <is>
@@ -23631,11 +23631,11 @@
       </c>
       <c r="O323" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P323" t="n">
-        <v>550</v>
+        <v>850</v>
       </c>
       <c r="Q323" t="n">
         <v>1</v>
@@ -23661,7 +23661,7 @@
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E324" t="n">
         <v>13</v>
@@ -23681,20 +23681,20 @@
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J324" t="n">
-        <v>1300</v>
+        <v>1960</v>
       </c>
       <c r="K324" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L324" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="M324" t="n">
-        <v>400</v>
+        <v>625</v>
       </c>
       <c r="N324" t="inlineStr">
         <is>
@@ -23707,7 +23707,7 @@
         </is>
       </c>
       <c r="P324" t="n">
-        <v>400</v>
+        <v>625</v>
       </c>
       <c r="Q324" t="n">
         <v>1</v>
@@ -23733,7 +23733,7 @@
         </is>
       </c>
       <c r="D325" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E325" t="n">
         <v>13</v>
@@ -23757,16 +23757,16 @@
         </is>
       </c>
       <c r="J325" t="n">
-        <v>1600</v>
+        <v>520</v>
       </c>
       <c r="K325" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="L325" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M325" t="n">
-        <v>400</v>
+        <v>475</v>
       </c>
       <c r="N325" t="inlineStr">
         <is>
@@ -23775,11 +23775,11 @@
       </c>
       <c r="O325" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P325" t="n">
-        <v>400</v>
+        <v>475</v>
       </c>
       <c r="Q325" t="n">
         <v>1</v>
@@ -23805,7 +23805,7 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E326" t="n">
         <v>13</v>
@@ -23829,16 +23829,16 @@
         </is>
       </c>
       <c r="J326" t="n">
-        <v>4500</v>
+        <v>3400</v>
       </c>
       <c r="K326" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L326" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M326" t="n">
-        <v>756</v>
+        <v>550</v>
       </c>
       <c r="N326" t="inlineStr">
         <is>
@@ -23847,11 +23847,11 @@
       </c>
       <c r="O326" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P326" t="n">
-        <v>756</v>
+        <v>550</v>
       </c>
       <c r="Q326" t="n">
         <v>1</v>
@@ -23877,7 +23877,7 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E327" t="n">
         <v>13</v>
@@ -23897,20 +23897,20 @@
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J327" t="n">
-        <v>2000</v>
+        <v>4300</v>
       </c>
       <c r="K327" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L327" t="n">
         <v>600</v>
       </c>
       <c r="M327" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="N327" t="inlineStr">
         <is>
@@ -23919,11 +23919,11 @@
       </c>
       <c r="O327" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P327" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="Q327" t="n">
         <v>1</v>
@@ -23949,7 +23949,7 @@
         </is>
       </c>
       <c r="D328" s="2" t="n">
-        <v>44162</v>
+        <v>44357</v>
       </c>
       <c r="E328" t="n">
         <v>13</v>
@@ -23969,20 +23969,20 @@
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J328" t="n">
-        <v>4800</v>
+        <v>1300</v>
       </c>
       <c r="K328" t="n">
         <v>400</v>
       </c>
       <c r="L328" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M328" t="n">
-        <v>448</v>
+        <v>400</v>
       </c>
       <c r="N328" t="inlineStr">
         <is>
@@ -23991,11 +23991,11 @@
       </c>
       <c r="O328" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P328" t="n">
-        <v>448</v>
+        <v>400</v>
       </c>
       <c r="Q328" t="n">
         <v>1</v>
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>44411</v>
+        <v>44357</v>
       </c>
       <c r="E329" t="n">
         <v>13</v>
@@ -24041,20 +24041,20 @@
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J329" t="n">
-        <v>3400</v>
+        <v>1600</v>
       </c>
       <c r="K329" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L329" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M329" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="N329" t="inlineStr">
         <is>
@@ -24063,11 +24063,11 @@
       </c>
       <c r="O329" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P329" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="Q329" t="n">
         <v>1</v>
@@ -24093,7 +24093,7 @@
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>44411</v>
+        <v>44203</v>
       </c>
       <c r="E330" t="n">
         <v>13</v>
@@ -24117,16 +24117,16 @@
         </is>
       </c>
       <c r="J330" t="n">
-        <v>2500</v>
+        <v>4500</v>
       </c>
       <c r="K330" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L330" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M330" t="n">
-        <v>550</v>
+        <v>756</v>
       </c>
       <c r="N330" t="inlineStr">
         <is>
@@ -24135,11 +24135,11 @@
       </c>
       <c r="O330" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P330" t="n">
-        <v>550</v>
+        <v>756</v>
       </c>
       <c r="Q330" t="n">
         <v>1</v>
@@ -24165,7 +24165,7 @@
         </is>
       </c>
       <c r="D331" s="2" t="n">
-        <v>44411</v>
+        <v>44203</v>
       </c>
       <c r="E331" t="n">
         <v>13</v>
@@ -24189,16 +24189,16 @@
         </is>
       </c>
       <c r="J331" t="n">
-        <v>970</v>
+        <v>2000</v>
       </c>
       <c r="K331" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L331" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M331" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="N331" t="inlineStr">
         <is>
@@ -24207,11 +24207,11 @@
       </c>
       <c r="O331" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P331" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="Q331" t="n">
         <v>1</v>
@@ -24237,7 +24237,7 @@
         </is>
       </c>
       <c r="D332" s="2" t="n">
-        <v>44411</v>
+        <v>44162</v>
       </c>
       <c r="E332" t="n">
         <v>13</v>
@@ -24257,20 +24257,20 @@
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J332" t="n">
-        <v>790</v>
+        <v>4800</v>
       </c>
       <c r="K332" t="n">
         <v>400</v>
       </c>
       <c r="L332" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M332" t="n">
-        <v>400</v>
+        <v>448</v>
       </c>
       <c r="N332" t="inlineStr">
         <is>
@@ -24279,11 +24279,11 @@
       </c>
       <c r="O332" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P332" t="n">
-        <v>400</v>
+        <v>448</v>
       </c>
       <c r="Q332" t="n">
         <v>1</v>
@@ -24309,7 +24309,7 @@
         </is>
       </c>
       <c r="D333" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E333" t="n">
         <v>13</v>
@@ -24333,16 +24333,16 @@
         </is>
       </c>
       <c r="J333" t="n">
-        <v>700</v>
+        <v>3400</v>
       </c>
       <c r="K333" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="L333" t="n">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="M333" t="n">
-        <v>1200</v>
+        <v>550</v>
       </c>
       <c r="N333" t="inlineStr">
         <is>
@@ -24355,7 +24355,7 @@
         </is>
       </c>
       <c r="P333" t="n">
-        <v>1200</v>
+        <v>550</v>
       </c>
       <c r="Q333" t="n">
         <v>1</v>
@@ -24381,7 +24381,7 @@
         </is>
       </c>
       <c r="D334" s="2" t="n">
-        <v>44176</v>
+        <v>44411</v>
       </c>
       <c r="E334" t="n">
         <v>13</v>
@@ -24405,16 +24405,16 @@
         </is>
       </c>
       <c r="J334" t="n">
-        <v>5200</v>
+        <v>2500</v>
       </c>
       <c r="K334" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L334" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M334" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="N334" t="inlineStr">
         <is>
@@ -24423,11 +24423,11 @@
       </c>
       <c r="O334" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P334" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="Q334" t="n">
         <v>1</v>
@@ -24453,7 +24453,7 @@
         </is>
       </c>
       <c r="D335" s="2" t="n">
-        <v>44239</v>
+        <v>44411</v>
       </c>
       <c r="E335" t="n">
         <v>13</v>
@@ -24473,20 +24473,20 @@
       </c>
       <c r="I335" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J335" t="n">
-        <v>1600</v>
+        <v>970</v>
       </c>
       <c r="K335" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="L335" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="M335" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="N335" t="inlineStr">
         <is>
@@ -24499,7 +24499,7 @@
         </is>
       </c>
       <c r="P335" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="Q335" t="n">
         <v>1</v>
@@ -24525,7 +24525,7 @@
         </is>
       </c>
       <c r="D336" s="2" t="n">
-        <v>44376</v>
+        <v>44411</v>
       </c>
       <c r="E336" t="n">
         <v>13</v>
@@ -24545,20 +24545,20 @@
       </c>
       <c r="I336" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J336" t="n">
-        <v>3400</v>
+        <v>790</v>
       </c>
       <c r="K336" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L336" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M336" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="N336" t="inlineStr">
         <is>
@@ -24567,11 +24567,11 @@
       </c>
       <c r="O336" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P336" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="Q336" t="n">
         <v>1</v>
@@ -24597,7 +24597,7 @@
         </is>
       </c>
       <c r="D337" s="2" t="n">
-        <v>44376</v>
+        <v>44257</v>
       </c>
       <c r="E337" t="n">
         <v>13</v>
@@ -24621,16 +24621,16 @@
         </is>
       </c>
       <c r="J337" t="n">
-        <v>2500</v>
+        <v>700</v>
       </c>
       <c r="K337" t="n">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="L337" t="n">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="M337" t="n">
-        <v>550</v>
+        <v>1200</v>
       </c>
       <c r="N337" t="inlineStr">
         <is>
@@ -24639,11 +24639,11 @@
       </c>
       <c r="O337" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P337" t="n">
-        <v>550</v>
+        <v>1200</v>
       </c>
       <c r="Q337" t="n">
         <v>1</v>
@@ -24669,7 +24669,7 @@
         </is>
       </c>
       <c r="D338" s="2" t="n">
-        <v>44376</v>
+        <v>44176</v>
       </c>
       <c r="E338" t="n">
         <v>13</v>
@@ -24689,20 +24689,20 @@
       </c>
       <c r="I338" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J338" t="n">
-        <v>1600</v>
+        <v>5200</v>
       </c>
       <c r="K338" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="L338" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="M338" t="n">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="N338" t="inlineStr">
         <is>
@@ -24715,7 +24715,7 @@
         </is>
       </c>
       <c r="P338" t="n">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="Q338" t="n">
         <v>1</v>
@@ -24741,7 +24741,7 @@
         </is>
       </c>
       <c r="D339" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E339" t="n">
         <v>13</v>
@@ -24761,20 +24761,20 @@
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J339" t="n">
-        <v>970</v>
+        <v>1600</v>
       </c>
       <c r="K339" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="L339" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="M339" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="N339" t="inlineStr">
         <is>
@@ -24783,11 +24783,11 @@
       </c>
       <c r="O339" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P339" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="Q339" t="n">
         <v>1</v>
@@ -24813,7 +24813,7 @@
         </is>
       </c>
       <c r="D340" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E340" t="n">
         <v>13</v>
@@ -24837,16 +24837,16 @@
         </is>
       </c>
       <c r="J340" t="n">
-        <v>1600</v>
+        <v>3400</v>
       </c>
       <c r="K340" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="L340" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="M340" t="n">
-        <v>900</v>
+        <v>550</v>
       </c>
       <c r="N340" t="inlineStr">
         <is>
@@ -24859,7 +24859,7 @@
         </is>
       </c>
       <c r="P340" t="n">
-        <v>900</v>
+        <v>550</v>
       </c>
       <c r="Q340" t="n">
         <v>1</v>
@@ -24885,7 +24885,7 @@
         </is>
       </c>
       <c r="D341" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E341" t="n">
         <v>13</v>
@@ -24909,7 +24909,7 @@
         </is>
       </c>
       <c r="J341" t="n">
-        <v>4300</v>
+        <v>2500</v>
       </c>
       <c r="K341" t="n">
         <v>500</v>
@@ -24927,7 +24927,7 @@
       </c>
       <c r="O341" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P341" t="n">
@@ -24957,7 +24957,7 @@
         </is>
       </c>
       <c r="D342" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E342" t="n">
         <v>13</v>
@@ -24977,20 +24977,20 @@
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J342" t="n">
-        <v>3400</v>
+        <v>1600</v>
       </c>
       <c r="K342" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L342" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M342" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="N342" t="inlineStr">
         <is>
@@ -24999,11 +24999,11 @@
       </c>
       <c r="O342" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P342" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="Q342" t="n">
         <v>1</v>
@@ -25029,7 +25029,7 @@
         </is>
       </c>
       <c r="D343" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E343" t="n">
         <v>13</v>
@@ -25053,7 +25053,7 @@
         </is>
       </c>
       <c r="J343" t="n">
-        <v>2500</v>
+        <v>970</v>
       </c>
       <c r="K343" t="n">
         <v>400</v>
@@ -25071,7 +25071,7 @@
       </c>
       <c r="O343" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P343" t="n">
@@ -25101,7 +25101,7 @@
         </is>
       </c>
       <c r="D344" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E344" t="n">
         <v>13</v>
@@ -25121,20 +25121,20 @@
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J344" t="n">
         <v>1600</v>
       </c>
       <c r="K344" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="L344" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="M344" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="N344" t="inlineStr">
         <is>
@@ -25143,11 +25143,11 @@
       </c>
       <c r="O344" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P344" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="Q344" t="n">
         <v>1</v>
@@ -25173,7 +25173,7 @@
         </is>
       </c>
       <c r="D345" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E345" t="n">
         <v>13</v>
@@ -25197,16 +25197,16 @@
         </is>
       </c>
       <c r="J345" t="n">
-        <v>2500</v>
+        <v>4300</v>
       </c>
       <c r="K345" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="L345" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="M345" t="n">
-        <v>950</v>
+        <v>550</v>
       </c>
       <c r="N345" t="inlineStr">
         <is>
@@ -25219,7 +25219,7 @@
         </is>
       </c>
       <c r="P345" t="n">
-        <v>950</v>
+        <v>550</v>
       </c>
       <c r="Q345" t="n">
         <v>1</v>
@@ -25245,7 +25245,7 @@
         </is>
       </c>
       <c r="D346" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E346" t="n">
         <v>13</v>
@@ -25269,16 +25269,16 @@
         </is>
       </c>
       <c r="J346" t="n">
-        <v>4300</v>
+        <v>3400</v>
       </c>
       <c r="K346" t="n">
+        <v>500</v>
+      </c>
+      <c r="L346" t="n">
         <v>600</v>
       </c>
-      <c r="L346" t="n">
-        <v>700</v>
-      </c>
       <c r="M346" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="N346" t="inlineStr">
         <is>
@@ -25287,11 +25287,11 @@
       </c>
       <c r="O346" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P346" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="Q346" t="n">
         <v>1</v>
@@ -25317,7 +25317,7 @@
         </is>
       </c>
       <c r="D347" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E347" t="n">
         <v>13</v>
@@ -25337,20 +25337,20 @@
       </c>
       <c r="I347" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J347" t="n">
-        <v>3400</v>
+        <v>2500</v>
       </c>
       <c r="K347" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L347" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="M347" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="N347" t="inlineStr">
         <is>
@@ -25359,11 +25359,11 @@
       </c>
       <c r="O347" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P347" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="Q347" t="n">
         <v>1</v>
@@ -25389,7 +25389,7 @@
         </is>
       </c>
       <c r="D348" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E348" t="n">
         <v>13</v>
@@ -25419,10 +25419,10 @@
         <v>400</v>
       </c>
       <c r="L348" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M348" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="N348" t="inlineStr">
         <is>
@@ -25431,11 +25431,11 @@
       </c>
       <c r="O348" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P348" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="Q348" t="n">
         <v>1</v>
@@ -25461,7 +25461,7 @@
         </is>
       </c>
       <c r="D349" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E349" t="n">
         <v>13</v>
@@ -25481,20 +25481,20 @@
       </c>
       <c r="I349" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J349" t="n">
-        <v>1300</v>
+        <v>2500</v>
       </c>
       <c r="K349" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="L349" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="M349" t="n">
-        <v>450</v>
+        <v>950</v>
       </c>
       <c r="N349" t="inlineStr">
         <is>
@@ -25503,11 +25503,11 @@
       </c>
       <c r="O349" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P349" t="n">
-        <v>450</v>
+        <v>950</v>
       </c>
       <c r="Q349" t="n">
         <v>1</v>
@@ -25533,7 +25533,7 @@
         </is>
       </c>
       <c r="D350" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E350" t="n">
         <v>13</v>
@@ -25557,16 +25557,16 @@
         </is>
       </c>
       <c r="J350" t="n">
-        <v>2500</v>
+        <v>4300</v>
       </c>
       <c r="K350" t="n">
         <v>600</v>
       </c>
       <c r="L350" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M350" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="N350" t="inlineStr">
         <is>
@@ -25579,7 +25579,7 @@
         </is>
       </c>
       <c r="P350" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="Q350" t="n">
         <v>1</v>
@@ -25605,58 +25605,346 @@
         </is>
       </c>
       <c r="D351" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E351" t="n">
+        <v>13</v>
+      </c>
+      <c r="F351" t="n">
+        <v>100112008</v>
+      </c>
+      <c r="G351" t="inlineStr">
+        <is>
+          <t>Coliflor</t>
+        </is>
+      </c>
+      <c r="H351" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I351" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J351" t="n">
+        <v>3400</v>
+      </c>
+      <c r="K351" t="n">
+        <v>600</v>
+      </c>
+      <c r="L351" t="n">
+        <v>700</v>
+      </c>
+      <c r="M351" t="n">
+        <v>650</v>
+      </c>
+      <c r="N351" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O351" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P351" t="n">
+        <v>650</v>
+      </c>
+      <c r="Q351" t="n">
+        <v>1</v>
+      </c>
+      <c r="R351" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="n">
+        <v>9</v>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D352" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E352" t="n">
+        <v>13</v>
+      </c>
+      <c r="F352" t="n">
+        <v>100112008</v>
+      </c>
+      <c r="G352" t="inlineStr">
+        <is>
+          <t>Coliflor</t>
+        </is>
+      </c>
+      <c r="H352" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I352" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J352" t="n">
+        <v>1600</v>
+      </c>
+      <c r="K352" t="n">
+        <v>400</v>
+      </c>
+      <c r="L352" t="n">
+        <v>500</v>
+      </c>
+      <c r="M352" t="n">
+        <v>450</v>
+      </c>
+      <c r="N352" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O352" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P352" t="n">
+        <v>450</v>
+      </c>
+      <c r="Q352" t="n">
+        <v>1</v>
+      </c>
+      <c r="R352" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="n">
+        <v>9</v>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D353" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E353" t="n">
+        <v>13</v>
+      </c>
+      <c r="F353" t="n">
+        <v>100112008</v>
+      </c>
+      <c r="G353" t="inlineStr">
+        <is>
+          <t>Coliflor</t>
+        </is>
+      </c>
+      <c r="H353" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I353" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J353" t="n">
+        <v>1300</v>
+      </c>
+      <c r="K353" t="n">
+        <v>400</v>
+      </c>
+      <c r="L353" t="n">
+        <v>500</v>
+      </c>
+      <c r="M353" t="n">
+        <v>450</v>
+      </c>
+      <c r="N353" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O353" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P353" t="n">
+        <v>450</v>
+      </c>
+      <c r="Q353" t="n">
+        <v>1</v>
+      </c>
+      <c r="R353" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="n">
+        <v>9</v>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D354" s="2" t="n">
         <v>44323</v>
       </c>
-      <c r="E351" t="n">
-        <v>13</v>
-      </c>
-      <c r="F351" t="n">
-        <v>100112008</v>
-      </c>
-      <c r="G351" t="inlineStr">
-        <is>
-          <t>Coliflor</t>
-        </is>
-      </c>
-      <c r="H351" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="I351" t="inlineStr">
+      <c r="E354" t="n">
+        <v>13</v>
+      </c>
+      <c r="F354" t="n">
+        <v>100112008</v>
+      </c>
+      <c r="G354" t="inlineStr">
+        <is>
+          <t>Coliflor</t>
+        </is>
+      </c>
+      <c r="H354" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I354" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J354" t="n">
+        <v>2500</v>
+      </c>
+      <c r="K354" t="n">
+        <v>600</v>
+      </c>
+      <c r="L354" t="n">
+        <v>600</v>
+      </c>
+      <c r="M354" t="n">
+        <v>600</v>
+      </c>
+      <c r="N354" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O354" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P354" t="n">
+        <v>600</v>
+      </c>
+      <c r="Q354" t="n">
+        <v>1</v>
+      </c>
+      <c r="R354" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="n">
+        <v>9</v>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D355" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E355" t="n">
+        <v>13</v>
+      </c>
+      <c r="F355" t="n">
+        <v>100112008</v>
+      </c>
+      <c r="G355" t="inlineStr">
+        <is>
+          <t>Coliflor</t>
+        </is>
+      </c>
+      <c r="H355" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I355" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J351" t="n">
+      <c r="J355" t="n">
         <v>700</v>
       </c>
-      <c r="K351" t="n">
+      <c r="K355" t="n">
         <v>500</v>
       </c>
-      <c r="L351" t="n">
+      <c r="L355" t="n">
         <v>500</v>
       </c>
-      <c r="M351" t="n">
+      <c r="M355" t="n">
         <v>500</v>
       </c>
-      <c r="N351" t="inlineStr">
-        <is>
-          <t>$/unidad</t>
-        </is>
-      </c>
-      <c r="O351" t="inlineStr">
+      <c r="N355" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O355" t="inlineStr">
         <is>
           <t>Región Metropolitana</t>
         </is>
       </c>
-      <c r="P351" t="n">
+      <c r="P355" t="n">
         <v>500</v>
       </c>
-      <c r="Q351" t="n">
-        <v>1</v>
-      </c>
-      <c r="R351" t="inlineStr">
+      <c r="Q355" t="n">
+        <v>1</v>
+      </c>
+      <c r="R355" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Coliflor.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Coliflor.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R355"/>
+  <dimension ref="A1:R359"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10557,7 +10557,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44342</v>
+        <v>44467</v>
       </c>
       <c r="E142" t="n">
         <v>13</v>
@@ -10581,16 +10581,16 @@
         </is>
       </c>
       <c r="J142" t="n">
-        <v>2400</v>
+        <v>3400</v>
       </c>
       <c r="K142" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L142" t="n">
         <v>600</v>
       </c>
       <c r="M142" t="n">
-        <v>550</v>
+        <v>575</v>
       </c>
       <c r="N142" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
         </is>
       </c>
       <c r="P142" t="n">
-        <v>550</v>
+        <v>575</v>
       </c>
       <c r="Q142" t="n">
         <v>1</v>
@@ -10629,7 +10629,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44342</v>
+        <v>44467</v>
       </c>
       <c r="E143" t="n">
         <v>13</v>
@@ -10653,16 +10653,16 @@
         </is>
       </c>
       <c r="J143" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="K143" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L143" t="n">
         <v>600</v>
       </c>
       <c r="M143" t="n">
-        <v>550</v>
+        <v>575</v>
       </c>
       <c r="N143" t="inlineStr">
         <is>
@@ -10675,7 +10675,7 @@
         </is>
       </c>
       <c r="P143" t="n">
-        <v>550</v>
+        <v>575</v>
       </c>
       <c r="Q143" t="n">
         <v>1</v>
@@ -10701,7 +10701,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44225</v>
+        <v>44467</v>
       </c>
       <c r="E144" t="n">
         <v>13</v>
@@ -10721,20 +10721,20 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J144" t="n">
-        <v>2200</v>
+        <v>1330</v>
       </c>
       <c r="K144" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="L144" t="n">
-        <v>1200</v>
+        <v>450</v>
       </c>
       <c r="M144" t="n">
-        <v>1091</v>
+        <v>425</v>
       </c>
       <c r="N144" t="inlineStr">
         <is>
@@ -10747,7 +10747,7 @@
         </is>
       </c>
       <c r="P144" t="n">
-        <v>1091</v>
+        <v>425</v>
       </c>
       <c r="Q144" t="n">
         <v>1</v>
@@ -10773,7 +10773,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44434</v>
+        <v>44467</v>
       </c>
       <c r="E145" t="n">
         <v>13</v>
@@ -10793,20 +10793,20 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J145" t="n">
-        <v>3400</v>
+        <v>970</v>
       </c>
       <c r="K145" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L145" t="n">
-        <v>650</v>
+        <v>450</v>
       </c>
       <c r="M145" t="n">
-        <v>625</v>
+        <v>425</v>
       </c>
       <c r="N145" t="inlineStr">
         <is>
@@ -10815,11 +10815,11 @@
       </c>
       <c r="O145" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P145" t="n">
-        <v>625</v>
+        <v>425</v>
       </c>
       <c r="Q145" t="n">
         <v>1</v>
@@ -10845,7 +10845,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44434</v>
+        <v>44342</v>
       </c>
       <c r="E146" t="n">
         <v>13</v>
@@ -10869,16 +10869,16 @@
         </is>
       </c>
       <c r="J146" t="n">
-        <v>4300</v>
+        <v>2400</v>
       </c>
       <c r="K146" t="n">
+        <v>500</v>
+      </c>
+      <c r="L146" t="n">
         <v>600</v>
       </c>
-      <c r="L146" t="n">
-        <v>650</v>
-      </c>
       <c r="M146" t="n">
-        <v>625</v>
+        <v>550</v>
       </c>
       <c r="N146" t="inlineStr">
         <is>
@@ -10887,11 +10887,11 @@
       </c>
       <c r="O146" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P146" t="n">
-        <v>625</v>
+        <v>550</v>
       </c>
       <c r="Q146" t="n">
         <v>1</v>
@@ -10917,7 +10917,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44434</v>
+        <v>44342</v>
       </c>
       <c r="E147" t="n">
         <v>13</v>
@@ -10937,21 +10937,21 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J147" t="n">
-        <v>970</v>
+        <v>2800</v>
       </c>
       <c r="K147" t="n">
         <v>500</v>
       </c>
       <c r="L147" t="n">
+        <v>600</v>
+      </c>
+      <c r="M147" t="n">
         <v>550</v>
       </c>
-      <c r="M147" t="n">
-        <v>525</v>
-      </c>
       <c r="N147" t="inlineStr">
         <is>
           <t>$/unidad</t>
@@ -10959,11 +10959,11 @@
       </c>
       <c r="O147" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P147" t="n">
-        <v>525</v>
+        <v>550</v>
       </c>
       <c r="Q147" t="n">
         <v>1</v>
@@ -10989,7 +10989,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44434</v>
+        <v>44225</v>
       </c>
       <c r="E148" t="n">
         <v>13</v>
@@ -11009,20 +11009,20 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J148" t="n">
-        <v>1600</v>
+        <v>2200</v>
       </c>
       <c r="K148" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="L148" t="n">
-        <v>550</v>
+        <v>1200</v>
       </c>
       <c r="M148" t="n">
-        <v>525</v>
+        <v>1091</v>
       </c>
       <c r="N148" t="inlineStr">
         <is>
@@ -11031,11 +11031,11 @@
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P148" t="n">
-        <v>525</v>
+        <v>1091</v>
       </c>
       <c r="Q148" t="n">
         <v>1</v>
@@ -11061,7 +11061,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44327</v>
+        <v>44434</v>
       </c>
       <c r="E149" t="n">
         <v>13</v>
@@ -11085,16 +11085,16 @@
         </is>
       </c>
       <c r="J149" t="n">
-        <v>4300</v>
+        <v>3400</v>
       </c>
       <c r="K149" t="n">
         <v>600</v>
       </c>
       <c r="L149" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="M149" t="n">
-        <v>600</v>
+        <v>625</v>
       </c>
       <c r="N149" t="inlineStr">
         <is>
@@ -11103,11 +11103,11 @@
       </c>
       <c r="O149" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P149" t="n">
-        <v>600</v>
+        <v>625</v>
       </c>
       <c r="Q149" t="n">
         <v>1</v>
@@ -11133,7 +11133,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44327</v>
+        <v>44434</v>
       </c>
       <c r="E150" t="n">
         <v>13</v>
@@ -11153,20 +11153,20 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J150" t="n">
-        <v>1600</v>
+        <v>4300</v>
       </c>
       <c r="K150" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L150" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="M150" t="n">
-        <v>400</v>
+        <v>625</v>
       </c>
       <c r="N150" t="inlineStr">
         <is>
@@ -11179,7 +11179,7 @@
         </is>
       </c>
       <c r="P150" t="n">
-        <v>400</v>
+        <v>625</v>
       </c>
       <c r="Q150" t="n">
         <v>1</v>
@@ -11205,7 +11205,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44321</v>
+        <v>44434</v>
       </c>
       <c r="E151" t="n">
         <v>13</v>
@@ -11225,20 +11225,20 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J151" t="n">
-        <v>2500</v>
+        <v>970</v>
       </c>
       <c r="K151" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L151" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="M151" t="n">
-        <v>600</v>
+        <v>525</v>
       </c>
       <c r="N151" t="inlineStr">
         <is>
@@ -11251,7 +11251,7 @@
         </is>
       </c>
       <c r="P151" t="n">
-        <v>600</v>
+        <v>525</v>
       </c>
       <c r="Q151" t="n">
         <v>1</v>
@@ -11277,7 +11277,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44321</v>
+        <v>44434</v>
       </c>
       <c r="E152" t="n">
         <v>13</v>
@@ -11297,20 +11297,20 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J152" t="n">
         <v>1600</v>
       </c>
       <c r="K152" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L152" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="M152" t="n">
-        <v>600</v>
+        <v>525</v>
       </c>
       <c r="N152" t="inlineStr">
         <is>
@@ -11323,7 +11323,7 @@
         </is>
       </c>
       <c r="P152" t="n">
-        <v>600</v>
+        <v>525</v>
       </c>
       <c r="Q152" t="n">
         <v>1</v>
@@ -11349,7 +11349,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44300</v>
+        <v>44327</v>
       </c>
       <c r="E153" t="n">
         <v>13</v>
@@ -11373,16 +11373,16 @@
         </is>
       </c>
       <c r="J153" t="n">
-        <v>1600</v>
+        <v>4300</v>
       </c>
       <c r="K153" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="L153" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M153" t="n">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="N153" t="inlineStr">
         <is>
@@ -11391,11 +11391,11 @@
       </c>
       <c r="O153" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P153" t="n">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="Q153" t="n">
         <v>1</v>
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44399</v>
+        <v>44327</v>
       </c>
       <c r="E154" t="n">
         <v>13</v>
@@ -11441,20 +11441,20 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J154" t="n">
-        <v>4300</v>
+        <v>1600</v>
       </c>
       <c r="K154" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L154" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M154" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="N154" t="inlineStr">
         <is>
@@ -11463,11 +11463,11 @@
       </c>
       <c r="O154" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P154" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="Q154" t="n">
         <v>1</v>
@@ -11493,7 +11493,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44399</v>
+        <v>44321</v>
       </c>
       <c r="E155" t="n">
         <v>13</v>
@@ -11517,16 +11517,16 @@
         </is>
       </c>
       <c r="J155" t="n">
-        <v>3400</v>
+        <v>2500</v>
       </c>
       <c r="K155" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L155" t="n">
         <v>600</v>
       </c>
       <c r="M155" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="N155" t="inlineStr">
         <is>
@@ -11535,11 +11535,11 @@
       </c>
       <c r="O155" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P155" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="Q155" t="n">
         <v>1</v>
@@ -11565,7 +11565,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44399</v>
+        <v>44321</v>
       </c>
       <c r="E156" t="n">
         <v>13</v>
@@ -11585,20 +11585,20 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J156" t="n">
         <v>1600</v>
       </c>
       <c r="K156" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L156" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M156" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="N156" t="inlineStr">
         <is>
@@ -11607,11 +11607,11 @@
       </c>
       <c r="O156" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P156" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="Q156" t="n">
         <v>1</v>
@@ -11637,7 +11637,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44399</v>
+        <v>44300</v>
       </c>
       <c r="E157" t="n">
         <v>13</v>
@@ -11657,20 +11657,20 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J157" t="n">
-        <v>970</v>
+        <v>1600</v>
       </c>
       <c r="K157" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="L157" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="M157" t="n">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="N157" t="inlineStr">
         <is>
@@ -11679,11 +11679,11 @@
       </c>
       <c r="O157" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P157" t="n">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="Q157" t="n">
         <v>1</v>
@@ -11709,7 +11709,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44218</v>
+        <v>44399</v>
       </c>
       <c r="E158" t="n">
         <v>13</v>
@@ -11733,16 +11733,16 @@
         </is>
       </c>
       <c r="J158" t="n">
-        <v>2200</v>
+        <v>4300</v>
       </c>
       <c r="K158" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="L158" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="M158" t="n">
-        <v>955</v>
+        <v>550</v>
       </c>
       <c r="N158" t="inlineStr">
         <is>
@@ -11755,7 +11755,7 @@
         </is>
       </c>
       <c r="P158" t="n">
-        <v>955</v>
+        <v>550</v>
       </c>
       <c r="Q158" t="n">
         <v>1</v>
@@ -11781,7 +11781,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44383</v>
+        <v>44399</v>
       </c>
       <c r="E159" t="n">
         <v>13</v>
@@ -11805,7 +11805,7 @@
         </is>
       </c>
       <c r="J159" t="n">
-        <v>4300</v>
+        <v>3400</v>
       </c>
       <c r="K159" t="n">
         <v>500</v>
@@ -11823,7 +11823,7 @@
       </c>
       <c r="O159" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P159" t="n">
@@ -11853,7 +11853,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44383</v>
+        <v>44399</v>
       </c>
       <c r="E160" t="n">
         <v>13</v>
@@ -11873,20 +11873,20 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J160" t="n">
-        <v>3400</v>
+        <v>1600</v>
       </c>
       <c r="K160" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L160" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M160" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="N160" t="inlineStr">
         <is>
@@ -11895,11 +11895,11 @@
       </c>
       <c r="O160" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P160" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="Q160" t="n">
         <v>1</v>
@@ -11925,7 +11925,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44383</v>
+        <v>44399</v>
       </c>
       <c r="E161" t="n">
         <v>13</v>
@@ -11949,7 +11949,7 @@
         </is>
       </c>
       <c r="J161" t="n">
-        <v>1600</v>
+        <v>970</v>
       </c>
       <c r="K161" t="n">
         <v>400</v>
@@ -11967,7 +11967,7 @@
       </c>
       <c r="O161" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P161" t="n">
@@ -11997,7 +11997,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44383</v>
+        <v>44218</v>
       </c>
       <c r="E162" t="n">
         <v>13</v>
@@ -12017,20 +12017,20 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J162" t="n">
-        <v>970</v>
+        <v>2200</v>
       </c>
       <c r="K162" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="L162" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="M162" t="n">
-        <v>400</v>
+        <v>955</v>
       </c>
       <c r="N162" t="inlineStr">
         <is>
@@ -12039,11 +12039,11 @@
       </c>
       <c r="O162" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P162" t="n">
-        <v>400</v>
+        <v>955</v>
       </c>
       <c r="Q162" t="n">
         <v>1</v>
@@ -12069,7 +12069,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44441</v>
+        <v>44383</v>
       </c>
       <c r="E163" t="n">
         <v>13</v>
@@ -12093,16 +12093,16 @@
         </is>
       </c>
       <c r="J163" t="n">
-        <v>3400</v>
+        <v>4300</v>
       </c>
       <c r="K163" t="n">
+        <v>500</v>
+      </c>
+      <c r="L163" t="n">
         <v>600</v>
       </c>
-      <c r="L163" t="n">
-        <v>650</v>
-      </c>
       <c r="M163" t="n">
-        <v>625</v>
+        <v>550</v>
       </c>
       <c r="N163" t="inlineStr">
         <is>
@@ -12115,7 +12115,7 @@
         </is>
       </c>
       <c r="P163" t="n">
-        <v>625</v>
+        <v>550</v>
       </c>
       <c r="Q163" t="n">
         <v>1</v>
@@ -12141,7 +12141,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44441</v>
+        <v>44383</v>
       </c>
       <c r="E164" t="n">
         <v>13</v>
@@ -12165,16 +12165,16 @@
         </is>
       </c>
       <c r="J164" t="n">
-        <v>2500</v>
+        <v>3400</v>
       </c>
       <c r="K164" t="n">
+        <v>500</v>
+      </c>
+      <c r="L164" t="n">
         <v>600</v>
       </c>
-      <c r="L164" t="n">
-        <v>650</v>
-      </c>
       <c r="M164" t="n">
-        <v>625</v>
+        <v>550</v>
       </c>
       <c r="N164" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         </is>
       </c>
       <c r="P164" t="n">
-        <v>625</v>
+        <v>550</v>
       </c>
       <c r="Q164" t="n">
         <v>1</v>
@@ -12213,7 +12213,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44441</v>
+        <v>44383</v>
       </c>
       <c r="E165" t="n">
         <v>13</v>
@@ -12237,16 +12237,16 @@
         </is>
       </c>
       <c r="J165" t="n">
-        <v>970</v>
+        <v>1600</v>
       </c>
       <c r="K165" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L165" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="M165" t="n">
-        <v>525</v>
+        <v>400</v>
       </c>
       <c r="N165" t="inlineStr">
         <is>
@@ -12259,7 +12259,7 @@
         </is>
       </c>
       <c r="P165" t="n">
-        <v>525</v>
+        <v>400</v>
       </c>
       <c r="Q165" t="n">
         <v>1</v>
@@ -12285,7 +12285,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44441</v>
+        <v>44383</v>
       </c>
       <c r="E166" t="n">
         <v>13</v>
@@ -12309,16 +12309,16 @@
         </is>
       </c>
       <c r="J166" t="n">
-        <v>790</v>
+        <v>970</v>
       </c>
       <c r="K166" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L166" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="M166" t="n">
-        <v>525</v>
+        <v>400</v>
       </c>
       <c r="N166" t="inlineStr">
         <is>
@@ -12331,7 +12331,7 @@
         </is>
       </c>
       <c r="P166" t="n">
-        <v>525</v>
+        <v>400</v>
       </c>
       <c r="Q166" t="n">
         <v>1</v>
@@ -12357,7 +12357,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44405</v>
+        <v>44441</v>
       </c>
       <c r="E167" t="n">
         <v>13</v>
@@ -12381,16 +12381,16 @@
         </is>
       </c>
       <c r="J167" t="n">
-        <v>1600</v>
+        <v>3400</v>
       </c>
       <c r="K167" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L167" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="M167" t="n">
-        <v>550</v>
+        <v>625</v>
       </c>
       <c r="N167" t="inlineStr">
         <is>
@@ -12399,11 +12399,11 @@
       </c>
       <c r="O167" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P167" t="n">
-        <v>550</v>
+        <v>625</v>
       </c>
       <c r="Q167" t="n">
         <v>1</v>
@@ -12429,7 +12429,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44405</v>
+        <v>44441</v>
       </c>
       <c r="E168" t="n">
         <v>13</v>
@@ -12449,20 +12449,20 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J168" t="n">
-        <v>790</v>
+        <v>2500</v>
       </c>
       <c r="K168" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L168" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="M168" t="n">
-        <v>400</v>
+        <v>625</v>
       </c>
       <c r="N168" t="inlineStr">
         <is>
@@ -12475,7 +12475,7 @@
         </is>
       </c>
       <c r="P168" t="n">
-        <v>400</v>
+        <v>625</v>
       </c>
       <c r="Q168" t="n">
         <v>1</v>
@@ -12501,7 +12501,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44246</v>
+        <v>44441</v>
       </c>
       <c r="E169" t="n">
         <v>13</v>
@@ -12521,20 +12521,20 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J169" t="n">
-        <v>1600</v>
+        <v>970</v>
       </c>
       <c r="K169" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="L169" t="n">
-        <v>1200</v>
+        <v>550</v>
       </c>
       <c r="M169" t="n">
-        <v>1200</v>
+        <v>525</v>
       </c>
       <c r="N169" t="inlineStr">
         <is>
@@ -12547,7 +12547,7 @@
         </is>
       </c>
       <c r="P169" t="n">
-        <v>1200</v>
+        <v>525</v>
       </c>
       <c r="Q169" t="n">
         <v>1</v>
@@ -12573,7 +12573,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44161</v>
+        <v>44441</v>
       </c>
       <c r="E170" t="n">
         <v>13</v>
@@ -12593,20 +12593,20 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J170" t="n">
-        <v>4500</v>
+        <v>790</v>
       </c>
       <c r="K170" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L170" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="M170" t="n">
-        <v>456</v>
+        <v>525</v>
       </c>
       <c r="N170" t="inlineStr">
         <is>
@@ -12615,11 +12615,11 @@
       </c>
       <c r="O170" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P170" t="n">
-        <v>456</v>
+        <v>525</v>
       </c>
       <c r="Q170" t="n">
         <v>1</v>
@@ -12645,7 +12645,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44407</v>
+        <v>44405</v>
       </c>
       <c r="E171" t="n">
         <v>13</v>
@@ -12669,7 +12669,7 @@
         </is>
       </c>
       <c r="J171" t="n">
-        <v>2500</v>
+        <v>1600</v>
       </c>
       <c r="K171" t="n">
         <v>500</v>
@@ -12687,7 +12687,7 @@
       </c>
       <c r="O171" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P171" t="n">
@@ -12717,7 +12717,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44407</v>
+        <v>44405</v>
       </c>
       <c r="E172" t="n">
         <v>13</v>
@@ -12737,20 +12737,20 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J172" t="n">
-        <v>3400</v>
+        <v>790</v>
       </c>
       <c r="K172" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L172" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M172" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="N172" t="inlineStr">
         <is>
@@ -12763,7 +12763,7 @@
         </is>
       </c>
       <c r="P172" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="Q172" t="n">
         <v>1</v>
@@ -12789,7 +12789,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44407</v>
+        <v>44246</v>
       </c>
       <c r="E173" t="n">
         <v>13</v>
@@ -12809,20 +12809,20 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J173" t="n">
-        <v>790</v>
+        <v>1600</v>
       </c>
       <c r="K173" t="n">
-        <v>400</v>
+        <v>1200</v>
       </c>
       <c r="L173" t="n">
-        <v>400</v>
+        <v>1200</v>
       </c>
       <c r="M173" t="n">
-        <v>400</v>
+        <v>1200</v>
       </c>
       <c r="N173" t="inlineStr">
         <is>
@@ -12835,7 +12835,7 @@
         </is>
       </c>
       <c r="P173" t="n">
-        <v>400</v>
+        <v>1200</v>
       </c>
       <c r="Q173" t="n">
         <v>1</v>
@@ -12861,7 +12861,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44407</v>
+        <v>44161</v>
       </c>
       <c r="E174" t="n">
         <v>13</v>
@@ -12881,20 +12881,20 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J174" t="n">
-        <v>970</v>
+        <v>4500</v>
       </c>
       <c r="K174" t="n">
         <v>400</v>
       </c>
       <c r="L174" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M174" t="n">
-        <v>400</v>
+        <v>456</v>
       </c>
       <c r="N174" t="inlineStr">
         <is>
@@ -12903,11 +12903,11 @@
       </c>
       <c r="O174" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P174" t="n">
-        <v>400</v>
+        <v>456</v>
       </c>
       <c r="Q174" t="n">
         <v>1</v>
@@ -12933,7 +12933,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44307</v>
+        <v>44407</v>
       </c>
       <c r="E175" t="n">
         <v>13</v>
@@ -12957,16 +12957,16 @@
         </is>
       </c>
       <c r="J175" t="n">
-        <v>2100</v>
+        <v>2500</v>
       </c>
       <c r="K175" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L175" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M175" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="N175" t="inlineStr">
         <is>
@@ -12979,7 +12979,7 @@
         </is>
       </c>
       <c r="P175" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="Q175" t="n">
         <v>1</v>
@@ -13005,7 +13005,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44336</v>
+        <v>44407</v>
       </c>
       <c r="E176" t="n">
         <v>13</v>
@@ -13029,16 +13029,16 @@
         </is>
       </c>
       <c r="J176" t="n">
-        <v>4300</v>
+        <v>3400</v>
       </c>
       <c r="K176" t="n">
+        <v>500</v>
+      </c>
+      <c r="L176" t="n">
         <v>600</v>
       </c>
-      <c r="L176" t="n">
-        <v>700</v>
-      </c>
       <c r="M176" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="N176" t="inlineStr">
         <is>
@@ -13047,11 +13047,11 @@
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P176" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="Q176" t="n">
         <v>1</v>
@@ -13077,7 +13077,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44336</v>
+        <v>44407</v>
       </c>
       <c r="E177" t="n">
         <v>13</v>
@@ -13097,20 +13097,20 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J177" t="n">
-        <v>3400</v>
+        <v>790</v>
       </c>
       <c r="K177" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L177" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="M177" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="N177" t="inlineStr">
         <is>
@@ -13119,11 +13119,11 @@
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P177" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="Q177" t="n">
         <v>1</v>
@@ -13149,7 +13149,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44336</v>
+        <v>44407</v>
       </c>
       <c r="E178" t="n">
         <v>13</v>
@@ -13173,7 +13173,7 @@
         </is>
       </c>
       <c r="J178" t="n">
-        <v>1600</v>
+        <v>970</v>
       </c>
       <c r="K178" t="n">
         <v>400</v>
@@ -13191,7 +13191,7 @@
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P178" t="n">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44336</v>
+        <v>44307</v>
       </c>
       <c r="E179" t="n">
         <v>13</v>
@@ -13241,20 +13241,20 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J179" t="n">
-        <v>1600</v>
+        <v>2100</v>
       </c>
       <c r="K179" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L179" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M179" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="N179" t="inlineStr">
         <is>
@@ -13263,11 +13263,11 @@
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P179" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="Q179" t="n">
         <v>1</v>
@@ -13293,7 +13293,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44341</v>
+        <v>44336</v>
       </c>
       <c r="E180" t="n">
         <v>13</v>
@@ -13317,16 +13317,16 @@
         </is>
       </c>
       <c r="J180" t="n">
-        <v>7600</v>
+        <v>4300</v>
       </c>
       <c r="K180" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L180" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M180" t="n">
-        <v>551</v>
+        <v>650</v>
       </c>
       <c r="N180" t="inlineStr">
         <is>
@@ -13339,7 +13339,7 @@
         </is>
       </c>
       <c r="P180" t="n">
-        <v>551</v>
+        <v>650</v>
       </c>
       <c r="Q180" t="n">
         <v>1</v>
@@ -13365,7 +13365,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44341</v>
+        <v>44336</v>
       </c>
       <c r="E181" t="n">
         <v>13</v>
@@ -13389,16 +13389,16 @@
         </is>
       </c>
       <c r="J181" t="n">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="K181" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L181" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M181" t="n">
-        <v>551</v>
+        <v>650</v>
       </c>
       <c r="N181" t="inlineStr">
         <is>
@@ -13411,7 +13411,7 @@
         </is>
       </c>
       <c r="P181" t="n">
-        <v>551</v>
+        <v>650</v>
       </c>
       <c r="Q181" t="n">
         <v>1</v>
@@ -13437,7 +13437,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44274</v>
+        <v>44336</v>
       </c>
       <c r="E182" t="n">
         <v>13</v>
@@ -13457,20 +13457,20 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J182" t="n">
         <v>1600</v>
       </c>
       <c r="K182" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="L182" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="M182" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="N182" t="inlineStr">
         <is>
@@ -13483,7 +13483,7 @@
         </is>
       </c>
       <c r="P182" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="Q182" t="n">
         <v>1</v>
@@ -13509,7 +13509,7 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>44426</v>
+        <v>44336</v>
       </c>
       <c r="E183" t="n">
         <v>13</v>
@@ -13529,20 +13529,20 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J183" t="n">
-        <v>3400</v>
+        <v>1600</v>
       </c>
       <c r="K183" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L183" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M183" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="N183" t="inlineStr">
         <is>
@@ -13551,11 +13551,11 @@
       </c>
       <c r="O183" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P183" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="Q183" t="n">
         <v>1</v>
@@ -13581,7 +13581,7 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>44426</v>
+        <v>44341</v>
       </c>
       <c r="E184" t="n">
         <v>13</v>
@@ -13601,20 +13601,20 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J184" t="n">
-        <v>970</v>
+        <v>7600</v>
       </c>
       <c r="K184" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L184" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M184" t="n">
-        <v>400</v>
+        <v>551</v>
       </c>
       <c r="N184" t="inlineStr">
         <is>
@@ -13627,7 +13627,7 @@
         </is>
       </c>
       <c r="P184" t="n">
-        <v>400</v>
+        <v>551</v>
       </c>
       <c r="Q184" t="n">
         <v>1</v>
@@ -13653,7 +13653,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44328</v>
+        <v>44341</v>
       </c>
       <c r="E185" t="n">
         <v>13</v>
@@ -13677,16 +13677,16 @@
         </is>
       </c>
       <c r="J185" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="K185" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L185" t="n">
         <v>600</v>
       </c>
       <c r="M185" t="n">
-        <v>600</v>
+        <v>551</v>
       </c>
       <c r="N185" t="inlineStr">
         <is>
@@ -13695,11 +13695,11 @@
       </c>
       <c r="O185" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P185" t="n">
-        <v>600</v>
+        <v>551</v>
       </c>
       <c r="Q185" t="n">
         <v>1</v>
@@ -13725,7 +13725,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44328</v>
+        <v>44274</v>
       </c>
       <c r="E186" t="n">
         <v>13</v>
@@ -13745,20 +13745,20 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J186" t="n">
-        <v>700</v>
+        <v>1600</v>
       </c>
       <c r="K186" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="L186" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="M186" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="N186" t="inlineStr">
         <is>
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="P186" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="Q186" t="n">
         <v>1</v>
@@ -13797,7 +13797,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44400</v>
+        <v>44426</v>
       </c>
       <c r="E187" t="n">
         <v>13</v>
@@ -13821,16 +13821,16 @@
         </is>
       </c>
       <c r="J187" t="n">
-        <v>4300</v>
+        <v>3400</v>
       </c>
       <c r="K187" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L187" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M187" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="N187" t="inlineStr">
         <is>
@@ -13843,7 +13843,7 @@
         </is>
       </c>
       <c r="P187" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="Q187" t="n">
         <v>1</v>
@@ -13869,7 +13869,7 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>44400</v>
+        <v>44426</v>
       </c>
       <c r="E188" t="n">
         <v>13</v>
@@ -13889,20 +13889,20 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J188" t="n">
-        <v>3400</v>
+        <v>970</v>
       </c>
       <c r="K188" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L188" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M188" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="N188" t="inlineStr">
         <is>
@@ -13911,11 +13911,11 @@
       </c>
       <c r="O188" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P188" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="Q188" t="n">
         <v>1</v>
@@ -13941,7 +13941,7 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>44400</v>
+        <v>44328</v>
       </c>
       <c r="E189" t="n">
         <v>13</v>
@@ -13961,20 +13961,20 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J189" t="n">
-        <v>1600</v>
+        <v>2500</v>
       </c>
       <c r="K189" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L189" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M189" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="N189" t="inlineStr">
         <is>
@@ -13987,7 +13987,7 @@
         </is>
       </c>
       <c r="P189" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="Q189" t="n">
         <v>1</v>
@@ -14013,7 +14013,7 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>44400</v>
+        <v>44328</v>
       </c>
       <c r="E190" t="n">
         <v>13</v>
@@ -14037,7 +14037,7 @@
         </is>
       </c>
       <c r="J190" t="n">
-        <v>970</v>
+        <v>700</v>
       </c>
       <c r="K190" t="n">
         <v>400</v>
@@ -14055,7 +14055,7 @@
       </c>
       <c r="O190" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P190" t="n">
@@ -14085,7 +14085,7 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>44392</v>
+        <v>44400</v>
       </c>
       <c r="E191" t="n">
         <v>13</v>
@@ -14109,7 +14109,7 @@
         </is>
       </c>
       <c r="J191" t="n">
-        <v>3400</v>
+        <v>4300</v>
       </c>
       <c r="K191" t="n">
         <v>500</v>
@@ -14157,7 +14157,7 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>44392</v>
+        <v>44400</v>
       </c>
       <c r="E192" t="n">
         <v>13</v>
@@ -14181,7 +14181,7 @@
         </is>
       </c>
       <c r="J192" t="n">
-        <v>4300</v>
+        <v>3400</v>
       </c>
       <c r="K192" t="n">
         <v>500</v>
@@ -14229,7 +14229,7 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>44392</v>
+        <v>44400</v>
       </c>
       <c r="E193" t="n">
         <v>13</v>
@@ -14253,7 +14253,7 @@
         </is>
       </c>
       <c r="J193" t="n">
-        <v>970</v>
+        <v>1600</v>
       </c>
       <c r="K193" t="n">
         <v>400</v>
@@ -14301,7 +14301,7 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>44392</v>
+        <v>44400</v>
       </c>
       <c r="E194" t="n">
         <v>13</v>
@@ -14325,7 +14325,7 @@
         </is>
       </c>
       <c r="J194" t="n">
-        <v>1600</v>
+        <v>970</v>
       </c>
       <c r="K194" t="n">
         <v>400</v>
@@ -14373,7 +14373,7 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>44442</v>
+        <v>44392</v>
       </c>
       <c r="E195" t="n">
         <v>13</v>
@@ -14400,13 +14400,13 @@
         <v>3400</v>
       </c>
       <c r="K195" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="L195" t="n">
         <v>600</v>
       </c>
       <c r="M195" t="n">
-        <v>575</v>
+        <v>550</v>
       </c>
       <c r="N195" t="inlineStr">
         <is>
@@ -14419,7 +14419,7 @@
         </is>
       </c>
       <c r="P195" t="n">
-        <v>575</v>
+        <v>550</v>
       </c>
       <c r="Q195" t="n">
         <v>1</v>
@@ -14445,7 +14445,7 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>44442</v>
+        <v>44392</v>
       </c>
       <c r="E196" t="n">
         <v>13</v>
@@ -14472,13 +14472,13 @@
         <v>4300</v>
       </c>
       <c r="K196" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="L196" t="n">
         <v>600</v>
       </c>
       <c r="M196" t="n">
-        <v>575</v>
+        <v>550</v>
       </c>
       <c r="N196" t="inlineStr">
         <is>
@@ -14491,7 +14491,7 @@
         </is>
       </c>
       <c r="P196" t="n">
-        <v>575</v>
+        <v>550</v>
       </c>
       <c r="Q196" t="n">
         <v>1</v>
@@ -14517,7 +14517,7 @@
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>44442</v>
+        <v>44392</v>
       </c>
       <c r="E197" t="n">
         <v>13</v>
@@ -14541,16 +14541,16 @@
         </is>
       </c>
       <c r="J197" t="n">
-        <v>1330</v>
+        <v>970</v>
       </c>
       <c r="K197" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="L197" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M197" t="n">
-        <v>475</v>
+        <v>400</v>
       </c>
       <c r="N197" t="inlineStr">
         <is>
@@ -14563,7 +14563,7 @@
         </is>
       </c>
       <c r="P197" t="n">
-        <v>475</v>
+        <v>400</v>
       </c>
       <c r="Q197" t="n">
         <v>1</v>
@@ -14589,7 +14589,7 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>44442</v>
+        <v>44392</v>
       </c>
       <c r="E198" t="n">
         <v>13</v>
@@ -14613,16 +14613,16 @@
         </is>
       </c>
       <c r="J198" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="K198" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="L198" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M198" t="n">
-        <v>475</v>
+        <v>400</v>
       </c>
       <c r="N198" t="inlineStr">
         <is>
@@ -14635,7 +14635,7 @@
         </is>
       </c>
       <c r="P198" t="n">
-        <v>475</v>
+        <v>400</v>
       </c>
       <c r="Q198" t="n">
         <v>1</v>
@@ -14661,7 +14661,7 @@
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>44453</v>
+        <v>44442</v>
       </c>
       <c r="E199" t="n">
         <v>13</v>
@@ -14685,16 +14685,16 @@
         </is>
       </c>
       <c r="J199" t="n">
-        <v>4300</v>
+        <v>3400</v>
       </c>
       <c r="K199" t="n">
+        <v>550</v>
+      </c>
+      <c r="L199" t="n">
         <v>600</v>
       </c>
-      <c r="L199" t="n">
-        <v>650</v>
-      </c>
       <c r="M199" t="n">
-        <v>625</v>
+        <v>575</v>
       </c>
       <c r="N199" t="inlineStr">
         <is>
@@ -14707,7 +14707,7 @@
         </is>
       </c>
       <c r="P199" t="n">
-        <v>625</v>
+        <v>575</v>
       </c>
       <c r="Q199" t="n">
         <v>1</v>
@@ -14733,7 +14733,7 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>44453</v>
+        <v>44442</v>
       </c>
       <c r="E200" t="n">
         <v>13</v>
@@ -14757,16 +14757,16 @@
         </is>
       </c>
       <c r="J200" t="n">
-        <v>3400</v>
+        <v>4300</v>
       </c>
       <c r="K200" t="n">
+        <v>550</v>
+      </c>
+      <c r="L200" t="n">
         <v>600</v>
       </c>
-      <c r="L200" t="n">
-        <v>650</v>
-      </c>
       <c r="M200" t="n">
-        <v>625</v>
+        <v>575</v>
       </c>
       <c r="N200" t="inlineStr">
         <is>
@@ -14779,7 +14779,7 @@
         </is>
       </c>
       <c r="P200" t="n">
-        <v>625</v>
+        <v>575</v>
       </c>
       <c r="Q200" t="n">
         <v>1</v>
@@ -14805,7 +14805,7 @@
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>44453</v>
+        <v>44442</v>
       </c>
       <c r="E201" t="n">
         <v>13</v>
@@ -14877,7 +14877,7 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>44453</v>
+        <v>44442</v>
       </c>
       <c r="E202" t="n">
         <v>13</v>
@@ -14901,7 +14901,7 @@
         </is>
       </c>
       <c r="J202" t="n">
-        <v>970</v>
+        <v>1500</v>
       </c>
       <c r="K202" t="n">
         <v>450</v>
@@ -14949,7 +14949,7 @@
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>44309</v>
+        <v>44453</v>
       </c>
       <c r="E203" t="n">
         <v>13</v>
@@ -14973,16 +14973,16 @@
         </is>
       </c>
       <c r="J203" t="n">
-        <v>2500</v>
+        <v>4300</v>
       </c>
       <c r="K203" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="L203" t="n">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="M203" t="n">
-        <v>700</v>
+        <v>625</v>
       </c>
       <c r="N203" t="inlineStr">
         <is>
@@ -14995,7 +14995,7 @@
         </is>
       </c>
       <c r="P203" t="n">
-        <v>700</v>
+        <v>625</v>
       </c>
       <c r="Q203" t="n">
         <v>1</v>
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>44309</v>
+        <v>44453</v>
       </c>
       <c r="E204" t="n">
         <v>13</v>
@@ -15041,20 +15041,20 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J204" t="n">
-        <v>700</v>
+        <v>3400</v>
       </c>
       <c r="K204" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L204" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="M204" t="n">
-        <v>500</v>
+        <v>625</v>
       </c>
       <c r="N204" t="inlineStr">
         <is>
@@ -15063,11 +15063,11 @@
       </c>
       <c r="O204" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P204" t="n">
-        <v>500</v>
+        <v>625</v>
       </c>
       <c r="Q204" t="n">
         <v>1</v>
@@ -15093,7 +15093,7 @@
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>44448</v>
+        <v>44453</v>
       </c>
       <c r="E205" t="n">
         <v>13</v>
@@ -15113,20 +15113,20 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J205" t="n">
-        <v>3400</v>
+        <v>1330</v>
       </c>
       <c r="K205" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="L205" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="M205" t="n">
-        <v>625</v>
+        <v>475</v>
       </c>
       <c r="N205" t="inlineStr">
         <is>
@@ -15139,7 +15139,7 @@
         </is>
       </c>
       <c r="P205" t="n">
-        <v>625</v>
+        <v>475</v>
       </c>
       <c r="Q205" t="n">
         <v>1</v>
@@ -15165,7 +15165,7 @@
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>44448</v>
+        <v>44453</v>
       </c>
       <c r="E206" t="n">
         <v>13</v>
@@ -15185,20 +15185,20 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J206" t="n">
-        <v>4300</v>
+        <v>970</v>
       </c>
       <c r="K206" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="L206" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="M206" t="n">
-        <v>625</v>
+        <v>475</v>
       </c>
       <c r="N206" t="inlineStr">
         <is>
@@ -15211,7 +15211,7 @@
         </is>
       </c>
       <c r="P206" t="n">
-        <v>625</v>
+        <v>475</v>
       </c>
       <c r="Q206" t="n">
         <v>1</v>
@@ -15237,7 +15237,7 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>44448</v>
+        <v>44309</v>
       </c>
       <c r="E207" t="n">
         <v>13</v>
@@ -15257,20 +15257,20 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J207" t="n">
-        <v>970</v>
+        <v>2500</v>
       </c>
       <c r="K207" t="n">
-        <v>450</v>
+        <v>700</v>
       </c>
       <c r="L207" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M207" t="n">
-        <v>475</v>
+        <v>700</v>
       </c>
       <c r="N207" t="inlineStr">
         <is>
@@ -15283,7 +15283,7 @@
         </is>
       </c>
       <c r="P207" t="n">
-        <v>475</v>
+        <v>700</v>
       </c>
       <c r="Q207" t="n">
         <v>1</v>
@@ -15309,7 +15309,7 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>44448</v>
+        <v>44309</v>
       </c>
       <c r="E208" t="n">
         <v>13</v>
@@ -15333,16 +15333,16 @@
         </is>
       </c>
       <c r="J208" t="n">
-        <v>1600</v>
+        <v>700</v>
       </c>
       <c r="K208" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="L208" t="n">
         <v>500</v>
       </c>
       <c r="M208" t="n">
-        <v>475</v>
+        <v>500</v>
       </c>
       <c r="N208" t="inlineStr">
         <is>
@@ -15351,11 +15351,11 @@
       </c>
       <c r="O208" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P208" t="n">
-        <v>475</v>
+        <v>500</v>
       </c>
       <c r="Q208" t="n">
         <v>1</v>
@@ -15381,7 +15381,7 @@
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>44214</v>
+        <v>44448</v>
       </c>
       <c r="E209" t="n">
         <v>13</v>
@@ -15405,16 +15405,16 @@
         </is>
       </c>
       <c r="J209" t="n">
-        <v>1300</v>
+        <v>3400</v>
       </c>
       <c r="K209" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="L209" t="n">
-        <v>1000</v>
+        <v>650</v>
       </c>
       <c r="M209" t="n">
-        <v>1000</v>
+        <v>625</v>
       </c>
       <c r="N209" t="inlineStr">
         <is>
@@ -15427,7 +15427,7 @@
         </is>
       </c>
       <c r="P209" t="n">
-        <v>1000</v>
+        <v>625</v>
       </c>
       <c r="Q209" t="n">
         <v>1</v>
@@ -15453,7 +15453,7 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>44354</v>
+        <v>44448</v>
       </c>
       <c r="E210" t="n">
         <v>13</v>
@@ -15477,16 +15477,16 @@
         </is>
       </c>
       <c r="J210" t="n">
-        <v>2500</v>
+        <v>4300</v>
       </c>
       <c r="K210" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L210" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="M210" t="n">
-        <v>550</v>
+        <v>625</v>
       </c>
       <c r="N210" t="inlineStr">
         <is>
@@ -15495,11 +15495,11 @@
       </c>
       <c r="O210" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P210" t="n">
-        <v>550</v>
+        <v>625</v>
       </c>
       <c r="Q210" t="n">
         <v>1</v>
@@ -15525,7 +15525,7 @@
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>44420</v>
+        <v>44448</v>
       </c>
       <c r="E211" t="n">
         <v>13</v>
@@ -15545,20 +15545,20 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J211" t="n">
-        <v>4300</v>
+        <v>970</v>
       </c>
       <c r="K211" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="L211" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M211" t="n">
-        <v>650</v>
+        <v>475</v>
       </c>
       <c r="N211" t="inlineStr">
         <is>
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="P211" t="n">
-        <v>650</v>
+        <v>475</v>
       </c>
       <c r="Q211" t="n">
         <v>1</v>
@@ -15597,7 +15597,7 @@
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>44420</v>
+        <v>44448</v>
       </c>
       <c r="E212" t="n">
         <v>13</v>
@@ -15617,20 +15617,20 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J212" t="n">
-        <v>3400</v>
+        <v>1600</v>
       </c>
       <c r="K212" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="L212" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M212" t="n">
-        <v>650</v>
+        <v>475</v>
       </c>
       <c r="N212" t="inlineStr">
         <is>
@@ -15643,7 +15643,7 @@
         </is>
       </c>
       <c r="P212" t="n">
-        <v>650</v>
+        <v>475</v>
       </c>
       <c r="Q212" t="n">
         <v>1</v>
@@ -15669,7 +15669,7 @@
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>44420</v>
+        <v>44214</v>
       </c>
       <c r="E213" t="n">
         <v>13</v>
@@ -15689,20 +15689,20 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J213" t="n">
-        <v>1600</v>
+        <v>1300</v>
       </c>
       <c r="K213" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="L213" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="M213" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="N213" t="inlineStr">
         <is>
@@ -15715,7 +15715,7 @@
         </is>
       </c>
       <c r="P213" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="Q213" t="n">
         <v>1</v>
@@ -15741,7 +15741,7 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>44420</v>
+        <v>44354</v>
       </c>
       <c r="E214" t="n">
         <v>13</v>
@@ -15761,20 +15761,20 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J214" t="n">
-        <v>970</v>
+        <v>2500</v>
       </c>
       <c r="K214" t="n">
         <v>500</v>
       </c>
       <c r="L214" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M214" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="N214" t="inlineStr">
         <is>
@@ -15783,11 +15783,11 @@
       </c>
       <c r="O214" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P214" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="Q214" t="n">
         <v>1</v>
@@ -15813,7 +15813,7 @@
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>44370</v>
+        <v>44420</v>
       </c>
       <c r="E215" t="n">
         <v>13</v>
@@ -15837,16 +15837,16 @@
         </is>
       </c>
       <c r="J215" t="n">
-        <v>1600</v>
+        <v>4300</v>
       </c>
       <c r="K215" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L215" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M215" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="N215" t="inlineStr">
         <is>
@@ -15859,7 +15859,7 @@
         </is>
       </c>
       <c r="P215" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="Q215" t="n">
         <v>1</v>
@@ -15885,7 +15885,7 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>44370</v>
+        <v>44420</v>
       </c>
       <c r="E216" t="n">
         <v>13</v>
@@ -15909,16 +15909,16 @@
         </is>
       </c>
       <c r="J216" t="n">
-        <v>2500</v>
+        <v>3400</v>
       </c>
       <c r="K216" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L216" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M216" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="N216" t="inlineStr">
         <is>
@@ -15931,7 +15931,7 @@
         </is>
       </c>
       <c r="P216" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="Q216" t="n">
         <v>1</v>
@@ -15957,7 +15957,7 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44370</v>
+        <v>44420</v>
       </c>
       <c r="E217" t="n">
         <v>13</v>
@@ -15981,16 +15981,16 @@
         </is>
       </c>
       <c r="J217" t="n">
-        <v>700</v>
+        <v>1600</v>
       </c>
       <c r="K217" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L217" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M217" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N217" t="inlineStr">
         <is>
@@ -16003,7 +16003,7 @@
         </is>
       </c>
       <c r="P217" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Q217" t="n">
         <v>1</v>
@@ -16029,7 +16029,7 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>44370</v>
+        <v>44420</v>
       </c>
       <c r="E218" t="n">
         <v>13</v>
@@ -16056,13 +16056,13 @@
         <v>970</v>
       </c>
       <c r="K218" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L218" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M218" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N218" t="inlineStr">
         <is>
@@ -16075,7 +16075,7 @@
         </is>
       </c>
       <c r="P218" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Q218" t="n">
         <v>1</v>
@@ -16101,7 +16101,7 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>44237</v>
+        <v>44370</v>
       </c>
       <c r="E219" t="n">
         <v>13</v>
@@ -16125,16 +16125,16 @@
         </is>
       </c>
       <c r="J219" t="n">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="K219" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="L219" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="M219" t="n">
-        <v>1000</v>
+        <v>550</v>
       </c>
       <c r="N219" t="inlineStr">
         <is>
@@ -16147,7 +16147,7 @@
         </is>
       </c>
       <c r="P219" t="n">
-        <v>1000</v>
+        <v>550</v>
       </c>
       <c r="Q219" t="n">
         <v>1</v>
@@ -16173,7 +16173,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44285</v>
+        <v>44370</v>
       </c>
       <c r="E220" t="n">
         <v>13</v>
@@ -16197,16 +16197,16 @@
         </is>
       </c>
       <c r="J220" t="n">
-        <v>1600</v>
+        <v>2500</v>
       </c>
       <c r="K220" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="L220" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="M220" t="n">
-        <v>900</v>
+        <v>550</v>
       </c>
       <c r="N220" t="inlineStr">
         <is>
@@ -16215,11 +16215,11 @@
       </c>
       <c r="O220" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P220" t="n">
-        <v>900</v>
+        <v>550</v>
       </c>
       <c r="Q220" t="n">
         <v>1</v>
@@ -16245,7 +16245,7 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44167</v>
+        <v>44370</v>
       </c>
       <c r="E221" t="n">
         <v>13</v>
@@ -16265,20 +16265,20 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J221" t="n">
-        <v>3500</v>
+        <v>700</v>
       </c>
       <c r="K221" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L221" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M221" t="n">
-        <v>543</v>
+        <v>400</v>
       </c>
       <c r="N221" t="inlineStr">
         <is>
@@ -16291,7 +16291,7 @@
         </is>
       </c>
       <c r="P221" t="n">
-        <v>543</v>
+        <v>400</v>
       </c>
       <c r="Q221" t="n">
         <v>1</v>
@@ -16317,7 +16317,7 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>44344</v>
+        <v>44370</v>
       </c>
       <c r="E222" t="n">
         <v>13</v>
@@ -16337,20 +16337,20 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J222" t="n">
-        <v>5200</v>
+        <v>970</v>
       </c>
       <c r="K222" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L222" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M222" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="N222" t="inlineStr">
         <is>
@@ -16359,11 +16359,11 @@
       </c>
       <c r="O222" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P222" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="Q222" t="n">
         <v>1</v>
@@ -16389,7 +16389,7 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>44344</v>
+        <v>44237</v>
       </c>
       <c r="E223" t="n">
         <v>13</v>
@@ -16413,16 +16413,16 @@
         </is>
       </c>
       <c r="J223" t="n">
-        <v>3900</v>
+        <v>1800</v>
       </c>
       <c r="K223" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="L223" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="M223" t="n">
-        <v>550</v>
+        <v>1000</v>
       </c>
       <c r="N223" t="inlineStr">
         <is>
@@ -16431,11 +16431,11 @@
       </c>
       <c r="O223" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P223" t="n">
-        <v>550</v>
+        <v>1000</v>
       </c>
       <c r="Q223" t="n">
         <v>1</v>
@@ -16461,7 +16461,7 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>44344</v>
+        <v>44285</v>
       </c>
       <c r="E224" t="n">
         <v>13</v>
@@ -16481,20 +16481,20 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J224" t="n">
-        <v>2100</v>
+        <v>1600</v>
       </c>
       <c r="K224" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="L224" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="M224" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="N224" t="inlineStr">
         <is>
@@ -16507,7 +16507,7 @@
         </is>
       </c>
       <c r="P224" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="Q224" t="n">
         <v>1</v>
@@ -16533,7 +16533,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44344</v>
+        <v>44167</v>
       </c>
       <c r="E225" t="n">
         <v>13</v>
@@ -16553,20 +16553,20 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J225" t="n">
-        <v>1800</v>
+        <v>3500</v>
       </c>
       <c r="K225" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L225" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M225" t="n">
-        <v>400</v>
+        <v>543</v>
       </c>
       <c r="N225" t="inlineStr">
         <is>
@@ -16575,11 +16575,11 @@
       </c>
       <c r="O225" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P225" t="n">
-        <v>400</v>
+        <v>543</v>
       </c>
       <c r="Q225" t="n">
         <v>1</v>
@@ -16605,7 +16605,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44217</v>
+        <v>44344</v>
       </c>
       <c r="E226" t="n">
         <v>13</v>
@@ -16629,16 +16629,16 @@
         </is>
       </c>
       <c r="J226" t="n">
-        <v>2700</v>
+        <v>5200</v>
       </c>
       <c r="K226" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="L226" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="M226" t="n">
-        <v>956</v>
+        <v>550</v>
       </c>
       <c r="N226" t="inlineStr">
         <is>
@@ -16651,7 +16651,7 @@
         </is>
       </c>
       <c r="P226" t="n">
-        <v>956</v>
+        <v>550</v>
       </c>
       <c r="Q226" t="n">
         <v>1</v>
@@ -16677,7 +16677,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44266</v>
+        <v>44344</v>
       </c>
       <c r="E227" t="n">
         <v>13</v>
@@ -16701,16 +16701,16 @@
         </is>
       </c>
       <c r="J227" t="n">
-        <v>800</v>
+        <v>3900</v>
       </c>
       <c r="K227" t="n">
-        <v>1100</v>
+        <v>500</v>
       </c>
       <c r="L227" t="n">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="M227" t="n">
-        <v>1100</v>
+        <v>550</v>
       </c>
       <c r="N227" t="inlineStr">
         <is>
@@ -16723,7 +16723,7 @@
         </is>
       </c>
       <c r="P227" t="n">
-        <v>1100</v>
+        <v>550</v>
       </c>
       <c r="Q227" t="n">
         <v>1</v>
@@ -16749,7 +16749,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44350</v>
+        <v>44344</v>
       </c>
       <c r="E228" t="n">
         <v>13</v>
@@ -16769,20 +16769,20 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J228" t="n">
-        <v>21000</v>
+        <v>2100</v>
       </c>
       <c r="K228" t="n">
         <v>400</v>
       </c>
       <c r="L228" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M228" t="n">
-        <v>467</v>
+        <v>400</v>
       </c>
       <c r="N228" t="inlineStr">
         <is>
@@ -16795,7 +16795,7 @@
         </is>
       </c>
       <c r="P228" t="n">
-        <v>467</v>
+        <v>400</v>
       </c>
       <c r="Q228" t="n">
         <v>1</v>
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44350</v>
+        <v>44344</v>
       </c>
       <c r="E229" t="n">
         <v>13</v>
@@ -16841,20 +16841,20 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J229" t="n">
-        <v>6200</v>
+        <v>1800</v>
       </c>
       <c r="K229" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L229" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M229" t="n">
-        <v>523</v>
+        <v>400</v>
       </c>
       <c r="N229" t="inlineStr">
         <is>
@@ -16867,7 +16867,7 @@
         </is>
       </c>
       <c r="P229" t="n">
-        <v>523</v>
+        <v>400</v>
       </c>
       <c r="Q229" t="n">
         <v>1</v>
@@ -16893,7 +16893,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44350</v>
+        <v>44217</v>
       </c>
       <c r="E230" t="n">
         <v>13</v>
@@ -16913,20 +16913,20 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J230" t="n">
-        <v>7500</v>
+        <v>2700</v>
       </c>
       <c r="K230" t="n">
-        <v>250</v>
+        <v>900</v>
       </c>
       <c r="L230" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="M230" t="n">
-        <v>299</v>
+        <v>956</v>
       </c>
       <c r="N230" t="inlineStr">
         <is>
@@ -16939,7 +16939,7 @@
         </is>
       </c>
       <c r="P230" t="n">
-        <v>299</v>
+        <v>956</v>
       </c>
       <c r="Q230" t="n">
         <v>1</v>
@@ -16965,7 +16965,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44350</v>
+        <v>44266</v>
       </c>
       <c r="E231" t="n">
         <v>13</v>
@@ -16985,20 +16985,20 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J231" t="n">
-        <v>1300</v>
+        <v>800</v>
       </c>
       <c r="K231" t="n">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="L231" t="n">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="M231" t="n">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="N231" t="inlineStr">
         <is>
@@ -17011,7 +17011,7 @@
         </is>
       </c>
       <c r="P231" t="n">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="Q231" t="n">
         <v>1</v>
@@ -17037,7 +17037,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44455</v>
+        <v>44350</v>
       </c>
       <c r="E232" t="n">
         <v>13</v>
@@ -17061,16 +17061,16 @@
         </is>
       </c>
       <c r="J232" t="n">
-        <v>3400</v>
+        <v>21000</v>
       </c>
       <c r="K232" t="n">
+        <v>400</v>
+      </c>
+      <c r="L232" t="n">
         <v>600</v>
       </c>
-      <c r="L232" t="n">
-        <v>650</v>
-      </c>
       <c r="M232" t="n">
-        <v>625</v>
+        <v>467</v>
       </c>
       <c r="N232" t="inlineStr">
         <is>
@@ -17083,7 +17083,7 @@
         </is>
       </c>
       <c r="P232" t="n">
-        <v>625</v>
+        <v>467</v>
       </c>
       <c r="Q232" t="n">
         <v>1</v>
@@ -17109,7 +17109,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44455</v>
+        <v>44350</v>
       </c>
       <c r="E233" t="n">
         <v>13</v>
@@ -17133,16 +17133,16 @@
         </is>
       </c>
       <c r="J233" t="n">
-        <v>2500</v>
+        <v>6200</v>
       </c>
       <c r="K233" t="n">
+        <v>500</v>
+      </c>
+      <c r="L233" t="n">
         <v>600</v>
       </c>
-      <c r="L233" t="n">
-        <v>650</v>
-      </c>
       <c r="M233" t="n">
-        <v>625</v>
+        <v>523</v>
       </c>
       <c r="N233" t="inlineStr">
         <is>
@@ -17155,7 +17155,7 @@
         </is>
       </c>
       <c r="P233" t="n">
-        <v>625</v>
+        <v>523</v>
       </c>
       <c r="Q233" t="n">
         <v>1</v>
@@ -17181,7 +17181,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44455</v>
+        <v>44350</v>
       </c>
       <c r="E234" t="n">
         <v>13</v>
@@ -17205,16 +17205,16 @@
         </is>
       </c>
       <c r="J234" t="n">
-        <v>970</v>
+        <v>7500</v>
       </c>
       <c r="K234" t="n">
-        <v>450</v>
+        <v>250</v>
       </c>
       <c r="L234" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M234" t="n">
-        <v>475</v>
+        <v>299</v>
       </c>
       <c r="N234" t="inlineStr">
         <is>
@@ -17227,7 +17227,7 @@
         </is>
       </c>
       <c r="P234" t="n">
-        <v>475</v>
+        <v>299</v>
       </c>
       <c r="Q234" t="n">
         <v>1</v>
@@ -17253,7 +17253,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44455</v>
+        <v>44350</v>
       </c>
       <c r="E235" t="n">
         <v>13</v>
@@ -17277,16 +17277,16 @@
         </is>
       </c>
       <c r="J235" t="n">
-        <v>790</v>
+        <v>1300</v>
       </c>
       <c r="K235" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="L235" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M235" t="n">
-        <v>475</v>
+        <v>400</v>
       </c>
       <c r="N235" t="inlineStr">
         <is>
@@ -17299,7 +17299,7 @@
         </is>
       </c>
       <c r="P235" t="n">
-        <v>475</v>
+        <v>400</v>
       </c>
       <c r="Q235" t="n">
         <v>1</v>
@@ -17325,7 +17325,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44418</v>
+        <v>44455</v>
       </c>
       <c r="E236" t="n">
         <v>13</v>
@@ -17355,10 +17355,10 @@
         <v>600</v>
       </c>
       <c r="L236" t="n">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="M236" t="n">
-        <v>650</v>
+        <v>625</v>
       </c>
       <c r="N236" t="inlineStr">
         <is>
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="P236" t="n">
-        <v>650</v>
+        <v>625</v>
       </c>
       <c r="Q236" t="n">
         <v>1</v>
@@ -17397,7 +17397,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44418</v>
+        <v>44455</v>
       </c>
       <c r="E237" t="n">
         <v>13</v>
@@ -17421,16 +17421,16 @@
         </is>
       </c>
       <c r="J237" t="n">
-        <v>4300</v>
+        <v>2500</v>
       </c>
       <c r="K237" t="n">
         <v>600</v>
       </c>
       <c r="L237" t="n">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="M237" t="n">
-        <v>650</v>
+        <v>625</v>
       </c>
       <c r="N237" t="inlineStr">
         <is>
@@ -17443,7 +17443,7 @@
         </is>
       </c>
       <c r="P237" t="n">
-        <v>650</v>
+        <v>625</v>
       </c>
       <c r="Q237" t="n">
         <v>1</v>
@@ -17469,7 +17469,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44418</v>
+        <v>44455</v>
       </c>
       <c r="E238" t="n">
         <v>13</v>
@@ -17496,13 +17496,13 @@
         <v>970</v>
       </c>
       <c r="K238" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="L238" t="n">
         <v>500</v>
       </c>
       <c r="M238" t="n">
-        <v>500</v>
+        <v>475</v>
       </c>
       <c r="N238" t="inlineStr">
         <is>
@@ -17515,7 +17515,7 @@
         </is>
       </c>
       <c r="P238" t="n">
-        <v>500</v>
+        <v>475</v>
       </c>
       <c r="Q238" t="n">
         <v>1</v>
@@ -17541,7 +17541,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44418</v>
+        <v>44455</v>
       </c>
       <c r="E239" t="n">
         <v>13</v>
@@ -17565,16 +17565,16 @@
         </is>
       </c>
       <c r="J239" t="n">
-        <v>1600</v>
+        <v>790</v>
       </c>
       <c r="K239" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="L239" t="n">
         <v>500</v>
       </c>
       <c r="M239" t="n">
-        <v>500</v>
+        <v>475</v>
       </c>
       <c r="N239" t="inlineStr">
         <is>
@@ -17587,7 +17587,7 @@
         </is>
       </c>
       <c r="P239" t="n">
-        <v>500</v>
+        <v>475</v>
       </c>
       <c r="Q239" t="n">
         <v>1</v>
@@ -17613,7 +17613,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44460</v>
+        <v>44418</v>
       </c>
       <c r="E240" t="n">
         <v>13</v>
@@ -17643,11 +17643,11 @@
         <v>600</v>
       </c>
       <c r="L240" t="n">
+        <v>700</v>
+      </c>
+      <c r="M240" t="n">
         <v>650</v>
       </c>
-      <c r="M240" t="n">
-        <v>625</v>
-      </c>
       <c r="N240" t="inlineStr">
         <is>
           <t>$/unidad</t>
@@ -17659,7 +17659,7 @@
         </is>
       </c>
       <c r="P240" t="n">
-        <v>625</v>
+        <v>650</v>
       </c>
       <c r="Q240" t="n">
         <v>1</v>
@@ -17685,7 +17685,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44460</v>
+        <v>44418</v>
       </c>
       <c r="E241" t="n">
         <v>13</v>
@@ -17709,17 +17709,17 @@
         </is>
       </c>
       <c r="J241" t="n">
-        <v>2500</v>
+        <v>4300</v>
       </c>
       <c r="K241" t="n">
         <v>600</v>
       </c>
       <c r="L241" t="n">
+        <v>700</v>
+      </c>
+      <c r="M241" t="n">
         <v>650</v>
       </c>
-      <c r="M241" t="n">
-        <v>625</v>
-      </c>
       <c r="N241" t="inlineStr">
         <is>
           <t>$/unidad</t>
@@ -17731,7 +17731,7 @@
         </is>
       </c>
       <c r="P241" t="n">
-        <v>625</v>
+        <v>650</v>
       </c>
       <c r="Q241" t="n">
         <v>1</v>
@@ -17757,7 +17757,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44460</v>
+        <v>44418</v>
       </c>
       <c r="E242" t="n">
         <v>13</v>
@@ -17781,16 +17781,16 @@
         </is>
       </c>
       <c r="J242" t="n">
-        <v>1330</v>
+        <v>970</v>
       </c>
       <c r="K242" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="L242" t="n">
         <v>500</v>
       </c>
       <c r="M242" t="n">
-        <v>475</v>
+        <v>500</v>
       </c>
       <c r="N242" t="inlineStr">
         <is>
@@ -17803,7 +17803,7 @@
         </is>
       </c>
       <c r="P242" t="n">
-        <v>475</v>
+        <v>500</v>
       </c>
       <c r="Q242" t="n">
         <v>1</v>
@@ -17829,7 +17829,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44460</v>
+        <v>44418</v>
       </c>
       <c r="E243" t="n">
         <v>13</v>
@@ -17853,16 +17853,16 @@
         </is>
       </c>
       <c r="J243" t="n">
-        <v>970</v>
+        <v>1600</v>
       </c>
       <c r="K243" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="L243" t="n">
         <v>500</v>
       </c>
       <c r="M243" t="n">
-        <v>475</v>
+        <v>500</v>
       </c>
       <c r="N243" t="inlineStr">
         <is>
@@ -17875,7 +17875,7 @@
         </is>
       </c>
       <c r="P243" t="n">
-        <v>475</v>
+        <v>500</v>
       </c>
       <c r="Q243" t="n">
         <v>1</v>
@@ -17901,7 +17901,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44414</v>
+        <v>44460</v>
       </c>
       <c r="E244" t="n">
         <v>13</v>
@@ -17925,16 +17925,16 @@
         </is>
       </c>
       <c r="J244" t="n">
-        <v>4300</v>
+        <v>3400</v>
       </c>
       <c r="K244" t="n">
         <v>600</v>
       </c>
       <c r="L244" t="n">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="M244" t="n">
-        <v>650</v>
+        <v>625</v>
       </c>
       <c r="N244" t="inlineStr">
         <is>
@@ -17947,7 +17947,7 @@
         </is>
       </c>
       <c r="P244" t="n">
-        <v>650</v>
+        <v>625</v>
       </c>
       <c r="Q244" t="n">
         <v>1</v>
@@ -17973,7 +17973,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44414</v>
+        <v>44460</v>
       </c>
       <c r="E245" t="n">
         <v>13</v>
@@ -17997,16 +17997,16 @@
         </is>
       </c>
       <c r="J245" t="n">
-        <v>5200</v>
+        <v>2500</v>
       </c>
       <c r="K245" t="n">
         <v>600</v>
       </c>
       <c r="L245" t="n">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="M245" t="n">
-        <v>650</v>
+        <v>625</v>
       </c>
       <c r="N245" t="inlineStr">
         <is>
@@ -18019,7 +18019,7 @@
         </is>
       </c>
       <c r="P245" t="n">
-        <v>650</v>
+        <v>625</v>
       </c>
       <c r="Q245" t="n">
         <v>1</v>
@@ -18045,7 +18045,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44414</v>
+        <v>44460</v>
       </c>
       <c r="E246" t="n">
         <v>13</v>
@@ -18069,16 +18069,16 @@
         </is>
       </c>
       <c r="J246" t="n">
-        <v>1600</v>
+        <v>1330</v>
       </c>
       <c r="K246" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="L246" t="n">
         <v>500</v>
       </c>
       <c r="M246" t="n">
-        <v>500</v>
+        <v>475</v>
       </c>
       <c r="N246" t="inlineStr">
         <is>
@@ -18091,7 +18091,7 @@
         </is>
       </c>
       <c r="P246" t="n">
-        <v>500</v>
+        <v>475</v>
       </c>
       <c r="Q246" t="n">
         <v>1</v>
@@ -18117,7 +18117,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44414</v>
+        <v>44460</v>
       </c>
       <c r="E247" t="n">
         <v>13</v>
@@ -18141,16 +18141,16 @@
         </is>
       </c>
       <c r="J247" t="n">
-        <v>2500</v>
+        <v>970</v>
       </c>
       <c r="K247" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="L247" t="n">
         <v>500</v>
       </c>
       <c r="M247" t="n">
-        <v>500</v>
+        <v>475</v>
       </c>
       <c r="N247" t="inlineStr">
         <is>
@@ -18163,7 +18163,7 @@
         </is>
       </c>
       <c r="P247" t="n">
-        <v>500</v>
+        <v>475</v>
       </c>
       <c r="Q247" t="n">
         <v>1</v>
@@ -18189,7 +18189,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44427</v>
+        <v>44414</v>
       </c>
       <c r="E248" t="n">
         <v>13</v>
@@ -18261,7 +18261,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44427</v>
+        <v>44414</v>
       </c>
       <c r="E249" t="n">
         <v>13</v>
@@ -18281,20 +18281,20 @@
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J249" t="n">
-        <v>1600</v>
+        <v>5200</v>
       </c>
       <c r="K249" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L249" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M249" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="N249" t="inlineStr">
         <is>
@@ -18303,11 +18303,11 @@
       </c>
       <c r="O249" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P249" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="Q249" t="n">
         <v>1</v>
@@ -18333,7 +18333,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44389</v>
+        <v>44414</v>
       </c>
       <c r="E250" t="n">
         <v>13</v>
@@ -18353,7 +18353,7 @@
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J250" t="n">
@@ -18363,10 +18363,10 @@
         <v>500</v>
       </c>
       <c r="L250" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M250" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="N250" t="inlineStr">
         <is>
@@ -18375,11 +18375,11 @@
       </c>
       <c r="O250" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P250" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="Q250" t="n">
         <v>1</v>
@@ -18405,7 +18405,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44389</v>
+        <v>44414</v>
       </c>
       <c r="E251" t="n">
         <v>13</v>
@@ -18429,16 +18429,16 @@
         </is>
       </c>
       <c r="J251" t="n">
-        <v>520</v>
+        <v>2500</v>
       </c>
       <c r="K251" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L251" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M251" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N251" t="inlineStr">
         <is>
@@ -18451,7 +18451,7 @@
         </is>
       </c>
       <c r="P251" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Q251" t="n">
         <v>1</v>
@@ -18477,7 +18477,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44249</v>
+        <v>44427</v>
       </c>
       <c r="E252" t="n">
         <v>13</v>
@@ -18501,16 +18501,16 @@
         </is>
       </c>
       <c r="J252" t="n">
+        <v>4300</v>
+      </c>
+      <c r="K252" t="n">
+        <v>600</v>
+      </c>
+      <c r="L252" t="n">
         <v>700</v>
       </c>
-      <c r="K252" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L252" t="n">
-        <v>1000</v>
-      </c>
       <c r="M252" t="n">
-        <v>1000</v>
+        <v>650</v>
       </c>
       <c r="N252" t="inlineStr">
         <is>
@@ -18523,7 +18523,7 @@
         </is>
       </c>
       <c r="P252" t="n">
-        <v>1000</v>
+        <v>650</v>
       </c>
       <c r="Q252" t="n">
         <v>1</v>
@@ -18549,7 +18549,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44343</v>
+        <v>44427</v>
       </c>
       <c r="E253" t="n">
         <v>13</v>
@@ -18569,20 +18569,20 @@
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J253" t="n">
-        <v>4200</v>
+        <v>1600</v>
       </c>
       <c r="K253" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L253" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M253" t="n">
-        <v>650</v>
+        <v>450</v>
       </c>
       <c r="N253" t="inlineStr">
         <is>
@@ -18595,7 +18595,7 @@
         </is>
       </c>
       <c r="P253" t="n">
-        <v>650</v>
+        <v>450</v>
       </c>
       <c r="Q253" t="n">
         <v>1</v>
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44343</v>
+        <v>44389</v>
       </c>
       <c r="E254" t="n">
         <v>13</v>
@@ -18645,16 +18645,16 @@
         </is>
       </c>
       <c r="J254" t="n">
-        <v>3500</v>
+        <v>1600</v>
       </c>
       <c r="K254" t="n">
+        <v>500</v>
+      </c>
+      <c r="L254" t="n">
         <v>600</v>
       </c>
-      <c r="L254" t="n">
-        <v>700</v>
-      </c>
       <c r="M254" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="N254" t="inlineStr">
         <is>
@@ -18667,7 +18667,7 @@
         </is>
       </c>
       <c r="P254" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="Q254" t="n">
         <v>1</v>
@@ -18693,7 +18693,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44343</v>
+        <v>44389</v>
       </c>
       <c r="E255" t="n">
         <v>13</v>
@@ -18717,7 +18717,7 @@
         </is>
       </c>
       <c r="J255" t="n">
-        <v>1800</v>
+        <v>520</v>
       </c>
       <c r="K255" t="n">
         <v>400</v>
@@ -18735,7 +18735,7 @@
       </c>
       <c r="O255" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P255" t="n">
@@ -18765,7 +18765,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44343</v>
+        <v>44249</v>
       </c>
       <c r="E256" t="n">
         <v>13</v>
@@ -18785,20 +18785,20 @@
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J256" t="n">
-        <v>1700</v>
+        <v>700</v>
       </c>
       <c r="K256" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="L256" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="M256" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="N256" t="inlineStr">
         <is>
@@ -18807,11 +18807,11 @@
       </c>
       <c r="O256" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P256" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="Q256" t="n">
         <v>1</v>
@@ -18837,7 +18837,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44201</v>
+        <v>44343</v>
       </c>
       <c r="E257" t="n">
         <v>13</v>
@@ -18861,7 +18861,7 @@
         </is>
       </c>
       <c r="J257" t="n">
-        <v>3600</v>
+        <v>4200</v>
       </c>
       <c r="K257" t="n">
         <v>600</v>
@@ -18870,7 +18870,7 @@
         <v>700</v>
       </c>
       <c r="M257" t="n">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="N257" t="inlineStr">
         <is>
@@ -18883,7 +18883,7 @@
         </is>
       </c>
       <c r="P257" t="n">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="Q257" t="n">
         <v>1</v>
@@ -18909,7 +18909,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44280</v>
+        <v>44343</v>
       </c>
       <c r="E258" t="n">
         <v>13</v>
@@ -18933,16 +18933,16 @@
         </is>
       </c>
       <c r="J258" t="n">
-        <v>1600</v>
+        <v>3500</v>
       </c>
       <c r="K258" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="L258" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M258" t="n">
-        <v>900</v>
+        <v>650</v>
       </c>
       <c r="N258" t="inlineStr">
         <is>
@@ -18951,11 +18951,11 @@
       </c>
       <c r="O258" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P258" t="n">
-        <v>900</v>
+        <v>650</v>
       </c>
       <c r="Q258" t="n">
         <v>1</v>
@@ -18981,7 +18981,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44447</v>
+        <v>44343</v>
       </c>
       <c r="E259" t="n">
         <v>13</v>
@@ -19001,20 +19001,20 @@
       </c>
       <c r="I259" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J259" t="n">
-        <v>2500</v>
+        <v>1800</v>
       </c>
       <c r="K259" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L259" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="M259" t="n">
-        <v>625</v>
+        <v>400</v>
       </c>
       <c r="N259" t="inlineStr">
         <is>
@@ -19027,7 +19027,7 @@
         </is>
       </c>
       <c r="P259" t="n">
-        <v>625</v>
+        <v>400</v>
       </c>
       <c r="Q259" t="n">
         <v>1</v>
@@ -19053,7 +19053,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44447</v>
+        <v>44343</v>
       </c>
       <c r="E260" t="n">
         <v>13</v>
@@ -19077,16 +19077,16 @@
         </is>
       </c>
       <c r="J260" t="n">
-        <v>970</v>
+        <v>1700</v>
       </c>
       <c r="K260" t="n">
         <v>400</v>
       </c>
       <c r="L260" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="M260" t="n">
-        <v>425</v>
+        <v>400</v>
       </c>
       <c r="N260" t="inlineStr">
         <is>
@@ -19095,11 +19095,11 @@
       </c>
       <c r="O260" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P260" t="n">
-        <v>425</v>
+        <v>400</v>
       </c>
       <c r="Q260" t="n">
         <v>1</v>
@@ -19125,7 +19125,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44267</v>
+        <v>44201</v>
       </c>
       <c r="E261" t="n">
         <v>13</v>
@@ -19149,16 +19149,16 @@
         </is>
       </c>
       <c r="J261" t="n">
-        <v>1200</v>
+        <v>3600</v>
       </c>
       <c r="K261" t="n">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="L261" t="n">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="M261" t="n">
-        <v>1100</v>
+        <v>656</v>
       </c>
       <c r="N261" t="inlineStr">
         <is>
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="P261" t="n">
-        <v>1100</v>
+        <v>656</v>
       </c>
       <c r="Q261" t="n">
         <v>1</v>
@@ -19197,7 +19197,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44187</v>
+        <v>44280</v>
       </c>
       <c r="E262" t="n">
         <v>13</v>
@@ -19221,16 +19221,16 @@
         </is>
       </c>
       <c r="J262" t="n">
-        <v>4900</v>
+        <v>1600</v>
       </c>
       <c r="K262" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="L262" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="M262" t="n">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="N262" t="inlineStr">
         <is>
@@ -19239,11 +19239,11 @@
       </c>
       <c r="O262" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P262" t="n">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="Q262" t="n">
         <v>1</v>
@@ -19269,7 +19269,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44390</v>
+        <v>44447</v>
       </c>
       <c r="E263" t="n">
         <v>13</v>
@@ -19293,16 +19293,16 @@
         </is>
       </c>
       <c r="J263" t="n">
-        <v>4300</v>
+        <v>2500</v>
       </c>
       <c r="K263" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L263" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="M263" t="n">
-        <v>550</v>
+        <v>625</v>
       </c>
       <c r="N263" t="inlineStr">
         <is>
@@ -19315,7 +19315,7 @@
         </is>
       </c>
       <c r="P263" t="n">
-        <v>550</v>
+        <v>625</v>
       </c>
       <c r="Q263" t="n">
         <v>1</v>
@@ -19341,7 +19341,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44390</v>
+        <v>44447</v>
       </c>
       <c r="E264" t="n">
         <v>13</v>
@@ -19361,20 +19361,20 @@
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J264" t="n">
-        <v>3400</v>
+        <v>970</v>
       </c>
       <c r="K264" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L264" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="M264" t="n">
-        <v>550</v>
+        <v>425</v>
       </c>
       <c r="N264" t="inlineStr">
         <is>
@@ -19383,11 +19383,11 @@
       </c>
       <c r="O264" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P264" t="n">
-        <v>550</v>
+        <v>425</v>
       </c>
       <c r="Q264" t="n">
         <v>1</v>
@@ -19413,7 +19413,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44390</v>
+        <v>44267</v>
       </c>
       <c r="E265" t="n">
         <v>13</v>
@@ -19433,20 +19433,20 @@
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J265" t="n">
-        <v>1600</v>
+        <v>1200</v>
       </c>
       <c r="K265" t="n">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="L265" t="n">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="M265" t="n">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="N265" t="inlineStr">
         <is>
@@ -19459,7 +19459,7 @@
         </is>
       </c>
       <c r="P265" t="n">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="Q265" t="n">
         <v>1</v>
@@ -19485,7 +19485,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44390</v>
+        <v>44187</v>
       </c>
       <c r="E266" t="n">
         <v>13</v>
@@ -19505,20 +19505,20 @@
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J266" t="n">
-        <v>970</v>
+        <v>4900</v>
       </c>
       <c r="K266" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="L266" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="M266" t="n">
-        <v>400</v>
+        <v>902</v>
       </c>
       <c r="N266" t="inlineStr">
         <is>
@@ -19527,11 +19527,11 @@
       </c>
       <c r="O266" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P266" t="n">
-        <v>400</v>
+        <v>902</v>
       </c>
       <c r="Q266" t="n">
         <v>1</v>
@@ -19557,7 +19557,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E267" t="n">
         <v>13</v>
@@ -19629,7 +19629,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E268" t="n">
         <v>13</v>
@@ -19701,7 +19701,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E269" t="n">
         <v>13</v>
@@ -19773,7 +19773,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E270" t="n">
         <v>13</v>
@@ -19845,7 +19845,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E271" t="n">
         <v>13</v>
@@ -19869,16 +19869,16 @@
         </is>
       </c>
       <c r="J271" t="n">
-        <v>1600</v>
+        <v>4300</v>
       </c>
       <c r="K271" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L271" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M271" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="N271" t="inlineStr">
         <is>
@@ -19891,7 +19891,7 @@
         </is>
       </c>
       <c r="P271" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="Q271" t="n">
         <v>1</v>
@@ -19917,7 +19917,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44264</v>
+        <v>44386</v>
       </c>
       <c r="E272" t="n">
         <v>13</v>
@@ -19941,16 +19941,16 @@
         </is>
       </c>
       <c r="J272" t="n">
-        <v>1000</v>
+        <v>3400</v>
       </c>
       <c r="K272" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="L272" t="n">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="M272" t="n">
-        <v>1200</v>
+        <v>550</v>
       </c>
       <c r="N272" t="inlineStr">
         <is>
@@ -19959,11 +19959,11 @@
       </c>
       <c r="O272" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P272" t="n">
-        <v>1200</v>
+        <v>550</v>
       </c>
       <c r="Q272" t="n">
         <v>1</v>
@@ -19989,7 +19989,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44463</v>
+        <v>44386</v>
       </c>
       <c r="E273" t="n">
         <v>13</v>
@@ -20009,20 +20009,20 @@
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J273" t="n">
-        <v>4300</v>
+        <v>1600</v>
       </c>
       <c r="K273" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L273" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="M273" t="n">
-        <v>625</v>
+        <v>400</v>
       </c>
       <c r="N273" t="inlineStr">
         <is>
@@ -20035,7 +20035,7 @@
         </is>
       </c>
       <c r="P273" t="n">
-        <v>625</v>
+        <v>400</v>
       </c>
       <c r="Q273" t="n">
         <v>1</v>
@@ -20061,7 +20061,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44463</v>
+        <v>44386</v>
       </c>
       <c r="E274" t="n">
         <v>13</v>
@@ -20081,20 +20081,20 @@
       </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J274" t="n">
-        <v>3400</v>
+        <v>970</v>
       </c>
       <c r="K274" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L274" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="M274" t="n">
-        <v>625</v>
+        <v>400</v>
       </c>
       <c r="N274" t="inlineStr">
         <is>
@@ -20107,7 +20107,7 @@
         </is>
       </c>
       <c r="P274" t="n">
-        <v>625</v>
+        <v>400</v>
       </c>
       <c r="Q274" t="n">
         <v>1</v>
@@ -20133,7 +20133,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44463</v>
+        <v>44308</v>
       </c>
       <c r="E275" t="n">
         <v>13</v>
@@ -20153,20 +20153,20 @@
       </c>
       <c r="I275" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J275" t="n">
-        <v>1240</v>
+        <v>1600</v>
       </c>
       <c r="K275" t="n">
-        <v>450</v>
+        <v>700</v>
       </c>
       <c r="L275" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M275" t="n">
-        <v>475</v>
+        <v>700</v>
       </c>
       <c r="N275" t="inlineStr">
         <is>
@@ -20179,7 +20179,7 @@
         </is>
       </c>
       <c r="P275" t="n">
-        <v>475</v>
+        <v>700</v>
       </c>
       <c r="Q275" t="n">
         <v>1</v>
@@ -20205,7 +20205,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44463</v>
+        <v>44264</v>
       </c>
       <c r="E276" t="n">
         <v>13</v>
@@ -20225,20 +20225,20 @@
       </c>
       <c r="I276" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J276" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="K276" t="n">
-        <v>450</v>
+        <v>1200</v>
       </c>
       <c r="L276" t="n">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="M276" t="n">
-        <v>475</v>
+        <v>1200</v>
       </c>
       <c r="N276" t="inlineStr">
         <is>
@@ -20247,11 +20247,11 @@
       </c>
       <c r="O276" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P276" t="n">
-        <v>475</v>
+        <v>1200</v>
       </c>
       <c r="Q276" t="n">
         <v>1</v>
@@ -20277,7 +20277,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E277" t="n">
         <v>13</v>
@@ -20301,16 +20301,16 @@
         </is>
       </c>
       <c r="J277" t="n">
-        <v>3400</v>
+        <v>4300</v>
       </c>
       <c r="K277" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="L277" t="n">
-        <v>1000</v>
+        <v>650</v>
       </c>
       <c r="M277" t="n">
-        <v>950</v>
+        <v>625</v>
       </c>
       <c r="N277" t="inlineStr">
         <is>
@@ -20323,7 +20323,7 @@
         </is>
       </c>
       <c r="P277" t="n">
-        <v>950</v>
+        <v>625</v>
       </c>
       <c r="Q277" t="n">
         <v>1</v>
@@ -20349,7 +20349,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44301</v>
+        <v>44463</v>
       </c>
       <c r="E278" t="n">
         <v>13</v>
@@ -20373,16 +20373,16 @@
         </is>
       </c>
       <c r="J278" t="n">
-        <v>1600</v>
+        <v>3400</v>
       </c>
       <c r="K278" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="L278" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="M278" t="n">
-        <v>750</v>
+        <v>625</v>
       </c>
       <c r="N278" t="inlineStr">
         <is>
@@ -20391,11 +20391,11 @@
       </c>
       <c r="O278" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P278" t="n">
-        <v>750</v>
+        <v>625</v>
       </c>
       <c r="Q278" t="n">
         <v>1</v>
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44252</v>
+        <v>44463</v>
       </c>
       <c r="E279" t="n">
         <v>13</v>
@@ -20441,20 +20441,20 @@
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J279" t="n">
-        <v>1200</v>
+        <v>1240</v>
       </c>
       <c r="K279" t="n">
-        <v>1000</v>
+        <v>450</v>
       </c>
       <c r="L279" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="M279" t="n">
-        <v>1000</v>
+        <v>475</v>
       </c>
       <c r="N279" t="inlineStr">
         <is>
@@ -20463,11 +20463,11 @@
       </c>
       <c r="O279" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P279" t="n">
-        <v>1000</v>
+        <v>475</v>
       </c>
       <c r="Q279" t="n">
         <v>1</v>
@@ -20493,7 +20493,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44252</v>
+        <v>44463</v>
       </c>
       <c r="E280" t="n">
         <v>13</v>
@@ -20517,16 +20517,16 @@
         </is>
       </c>
       <c r="J280" t="n">
-        <v>300</v>
+        <v>970</v>
       </c>
       <c r="K280" t="n">
-        <v>800</v>
+        <v>450</v>
       </c>
       <c r="L280" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M280" t="n">
-        <v>800</v>
+        <v>475</v>
       </c>
       <c r="N280" t="inlineStr">
         <is>
@@ -20535,11 +20535,11 @@
       </c>
       <c r="O280" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P280" t="n">
-        <v>800</v>
+        <v>475</v>
       </c>
       <c r="Q280" t="n">
         <v>1</v>
@@ -20565,7 +20565,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44166</v>
+        <v>44196</v>
       </c>
       <c r="E281" t="n">
         <v>13</v>
@@ -20589,16 +20589,16 @@
         </is>
       </c>
       <c r="J281" t="n">
-        <v>3200</v>
+        <v>3400</v>
       </c>
       <c r="K281" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="L281" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="M281" t="n">
-        <v>500</v>
+        <v>950</v>
       </c>
       <c r="N281" t="inlineStr">
         <is>
@@ -20607,11 +20607,11 @@
       </c>
       <c r="O281" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P281" t="n">
-        <v>500</v>
+        <v>950</v>
       </c>
       <c r="Q281" t="n">
         <v>1</v>
@@ -20637,7 +20637,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44369</v>
+        <v>44301</v>
       </c>
       <c r="E282" t="n">
         <v>13</v>
@@ -20661,16 +20661,16 @@
         </is>
       </c>
       <c r="J282" t="n">
-        <v>3400</v>
+        <v>1600</v>
       </c>
       <c r="K282" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L282" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M282" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="N282" t="inlineStr">
         <is>
@@ -20683,7 +20683,7 @@
         </is>
       </c>
       <c r="P282" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="Q282" t="n">
         <v>1</v>
@@ -20709,7 +20709,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44369</v>
+        <v>44252</v>
       </c>
       <c r="E283" t="n">
         <v>13</v>
@@ -20733,16 +20733,16 @@
         </is>
       </c>
       <c r="J283" t="n">
-        <v>2500</v>
+        <v>1200</v>
       </c>
       <c r="K283" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="L283" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="M283" t="n">
-        <v>550</v>
+        <v>1000</v>
       </c>
       <c r="N283" t="inlineStr">
         <is>
@@ -20751,11 +20751,11 @@
       </c>
       <c r="O283" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P283" t="n">
-        <v>550</v>
+        <v>1000</v>
       </c>
       <c r="Q283" t="n">
         <v>1</v>
@@ -20781,7 +20781,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44369</v>
+        <v>44252</v>
       </c>
       <c r="E284" t="n">
         <v>13</v>
@@ -20805,16 +20805,16 @@
         </is>
       </c>
       <c r="J284" t="n">
-        <v>1600</v>
+        <v>300</v>
       </c>
       <c r="K284" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="L284" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="M284" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="N284" t="inlineStr">
         <is>
@@ -20823,11 +20823,11 @@
       </c>
       <c r="O284" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P284" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="Q284" t="n">
         <v>1</v>
@@ -20853,7 +20853,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44369</v>
+        <v>44166</v>
       </c>
       <c r="E285" t="n">
         <v>13</v>
@@ -20873,20 +20873,20 @@
       </c>
       <c r="I285" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J285" t="n">
-        <v>700</v>
+        <v>3200</v>
       </c>
       <c r="K285" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L285" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M285" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N285" t="inlineStr">
         <is>
@@ -20895,11 +20895,11 @@
       </c>
       <c r="O285" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P285" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Q285" t="n">
         <v>1</v>
@@ -20925,7 +20925,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E286" t="n">
         <v>13</v>
@@ -20952,13 +20952,13 @@
         <v>3400</v>
       </c>
       <c r="K286" t="n">
+        <v>500</v>
+      </c>
+      <c r="L286" t="n">
         <v>600</v>
       </c>
-      <c r="L286" t="n">
-        <v>650</v>
-      </c>
       <c r="M286" t="n">
-        <v>625</v>
+        <v>550</v>
       </c>
       <c r="N286" t="inlineStr">
         <is>
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="P286" t="n">
-        <v>625</v>
+        <v>550</v>
       </c>
       <c r="Q286" t="n">
         <v>1</v>
@@ -20997,7 +20997,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E287" t="n">
         <v>13</v>
@@ -21021,16 +21021,16 @@
         </is>
       </c>
       <c r="J287" t="n">
-        <v>1600</v>
+        <v>2500</v>
       </c>
       <c r="K287" t="n">
+        <v>500</v>
+      </c>
+      <c r="L287" t="n">
         <v>600</v>
       </c>
-      <c r="L287" t="n">
-        <v>650</v>
-      </c>
       <c r="M287" t="n">
-        <v>625</v>
+        <v>550</v>
       </c>
       <c r="N287" t="inlineStr">
         <is>
@@ -21043,7 +21043,7 @@
         </is>
       </c>
       <c r="P287" t="n">
-        <v>625</v>
+        <v>550</v>
       </c>
       <c r="Q287" t="n">
         <v>1</v>
@@ -21069,7 +21069,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E288" t="n">
         <v>13</v>
@@ -21093,16 +21093,16 @@
         </is>
       </c>
       <c r="J288" t="n">
-        <v>970</v>
+        <v>1600</v>
       </c>
       <c r="K288" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L288" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="M288" t="n">
-        <v>525</v>
+        <v>400</v>
       </c>
       <c r="N288" t="inlineStr">
         <is>
@@ -21115,7 +21115,7 @@
         </is>
       </c>
       <c r="P288" t="n">
-        <v>525</v>
+        <v>400</v>
       </c>
       <c r="Q288" t="n">
         <v>1</v>
@@ -21141,7 +21141,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E289" t="n">
         <v>13</v>
@@ -21165,16 +21165,16 @@
         </is>
       </c>
       <c r="J289" t="n">
-        <v>610</v>
+        <v>700</v>
       </c>
       <c r="K289" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L289" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="M289" t="n">
-        <v>525</v>
+        <v>400</v>
       </c>
       <c r="N289" t="inlineStr">
         <is>
@@ -21187,7 +21187,7 @@
         </is>
       </c>
       <c r="P289" t="n">
-        <v>525</v>
+        <v>400</v>
       </c>
       <c r="Q289" t="n">
         <v>1</v>
@@ -21213,7 +21213,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E290" t="n">
         <v>13</v>
@@ -21237,16 +21237,16 @@
         </is>
       </c>
       <c r="J290" t="n">
-        <v>2500</v>
+        <v>3400</v>
       </c>
       <c r="K290" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L290" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="M290" t="n">
-        <v>550</v>
+        <v>625</v>
       </c>
       <c r="N290" t="inlineStr">
         <is>
@@ -21259,7 +21259,7 @@
         </is>
       </c>
       <c r="P290" t="n">
-        <v>550</v>
+        <v>625</v>
       </c>
       <c r="Q290" t="n">
         <v>1</v>
@@ -21285,7 +21285,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E291" t="n">
         <v>13</v>
@@ -21309,16 +21309,16 @@
         </is>
       </c>
       <c r="J291" t="n">
-        <v>3400</v>
+        <v>1600</v>
       </c>
       <c r="K291" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L291" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="M291" t="n">
-        <v>550</v>
+        <v>625</v>
       </c>
       <c r="N291" t="inlineStr">
         <is>
@@ -21331,7 +21331,7 @@
         </is>
       </c>
       <c r="P291" t="n">
-        <v>550</v>
+        <v>625</v>
       </c>
       <c r="Q291" t="n">
         <v>1</v>
@@ -21357,7 +21357,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E292" t="n">
         <v>13</v>
@@ -21384,13 +21384,13 @@
         <v>970</v>
       </c>
       <c r="K292" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L292" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="M292" t="n">
-        <v>400</v>
+        <v>525</v>
       </c>
       <c r="N292" t="inlineStr">
         <is>
@@ -21403,7 +21403,7 @@
         </is>
       </c>
       <c r="P292" t="n">
-        <v>400</v>
+        <v>525</v>
       </c>
       <c r="Q292" t="n">
         <v>1</v>
@@ -21429,7 +21429,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E293" t="n">
         <v>13</v>
@@ -21453,16 +21453,16 @@
         </is>
       </c>
       <c r="J293" t="n">
-        <v>1600</v>
+        <v>610</v>
       </c>
       <c r="K293" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L293" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="M293" t="n">
-        <v>400</v>
+        <v>525</v>
       </c>
       <c r="N293" t="inlineStr">
         <is>
@@ -21475,7 +21475,7 @@
         </is>
       </c>
       <c r="P293" t="n">
-        <v>400</v>
+        <v>525</v>
       </c>
       <c r="Q293" t="n">
         <v>1</v>
@@ -21501,7 +21501,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E294" t="n">
         <v>13</v>
@@ -21525,16 +21525,16 @@
         </is>
       </c>
       <c r="J294" t="n">
-        <v>3400</v>
+        <v>2500</v>
       </c>
       <c r="K294" t="n">
+        <v>500</v>
+      </c>
+      <c r="L294" t="n">
         <v>600</v>
       </c>
-      <c r="L294" t="n">
-        <v>700</v>
-      </c>
       <c r="M294" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="N294" t="inlineStr">
         <is>
@@ -21547,7 +21547,7 @@
         </is>
       </c>
       <c r="P294" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="Q294" t="n">
         <v>1</v>
@@ -21573,7 +21573,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E295" t="n">
         <v>13</v>
@@ -21593,20 +21593,20 @@
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J295" t="n">
-        <v>1600</v>
+        <v>3400</v>
       </c>
       <c r="K295" t="n">
         <v>500</v>
       </c>
       <c r="L295" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M295" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="N295" t="inlineStr">
         <is>
@@ -21615,11 +21615,11 @@
       </c>
       <c r="O295" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P295" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="Q295" t="n">
         <v>1</v>
@@ -21645,7 +21645,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44397</v>
+        <v>44371</v>
       </c>
       <c r="E296" t="n">
         <v>13</v>
@@ -21665,20 +21665,20 @@
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J296" t="n">
-        <v>4300</v>
+        <v>970</v>
       </c>
       <c r="K296" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L296" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M296" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="N296" t="inlineStr">
         <is>
@@ -21691,7 +21691,7 @@
         </is>
       </c>
       <c r="P296" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="Q296" t="n">
         <v>1</v>
@@ -21717,7 +21717,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44397</v>
+        <v>44371</v>
       </c>
       <c r="E297" t="n">
         <v>13</v>
@@ -21737,20 +21737,20 @@
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J297" t="n">
-        <v>3400</v>
+        <v>1600</v>
       </c>
       <c r="K297" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L297" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M297" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="N297" t="inlineStr">
         <is>
@@ -21763,7 +21763,7 @@
         </is>
       </c>
       <c r="P297" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="Q297" t="n">
         <v>1</v>
@@ -21789,7 +21789,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44397</v>
+        <v>44316</v>
       </c>
       <c r="E298" t="n">
         <v>13</v>
@@ -21809,20 +21809,20 @@
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J298" t="n">
-        <v>1600</v>
+        <v>3400</v>
       </c>
       <c r="K298" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L298" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="M298" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="N298" t="inlineStr">
         <is>
@@ -21835,7 +21835,7 @@
         </is>
       </c>
       <c r="P298" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="Q298" t="n">
         <v>1</v>
@@ -21861,7 +21861,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44397</v>
+        <v>44316</v>
       </c>
       <c r="E299" t="n">
         <v>13</v>
@@ -21885,16 +21885,16 @@
         </is>
       </c>
       <c r="J299" t="n">
-        <v>970</v>
+        <v>1600</v>
       </c>
       <c r="K299" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L299" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M299" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N299" t="inlineStr">
         <is>
@@ -21903,11 +21903,11 @@
       </c>
       <c r="O299" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P299" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Q299" t="n">
         <v>1</v>
@@ -21933,7 +21933,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E300" t="n">
         <v>13</v>
@@ -21957,7 +21957,7 @@
         </is>
       </c>
       <c r="J300" t="n">
-        <v>2500</v>
+        <v>4300</v>
       </c>
       <c r="K300" t="n">
         <v>500</v>
@@ -22005,7 +22005,7 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E301" t="n">
         <v>13</v>
@@ -22029,7 +22029,7 @@
         </is>
       </c>
       <c r="J301" t="n">
-        <v>1600</v>
+        <v>3400</v>
       </c>
       <c r="K301" t="n">
         <v>500</v>
@@ -22077,7 +22077,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E302" t="n">
         <v>13</v>
@@ -22149,7 +22149,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E303" t="n">
         <v>13</v>
@@ -22173,7 +22173,7 @@
         </is>
       </c>
       <c r="J303" t="n">
-        <v>700</v>
+        <v>970</v>
       </c>
       <c r="K303" t="n">
         <v>400</v>
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44273</v>
+        <v>44363</v>
       </c>
       <c r="E304" t="n">
         <v>13</v>
@@ -22245,16 +22245,16 @@
         </is>
       </c>
       <c r="J304" t="n">
-        <v>1600</v>
+        <v>2500</v>
       </c>
       <c r="K304" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="L304" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="M304" t="n">
-        <v>1000</v>
+        <v>550</v>
       </c>
       <c r="N304" t="inlineStr">
         <is>
@@ -22267,7 +22267,7 @@
         </is>
       </c>
       <c r="P304" t="n">
-        <v>1000</v>
+        <v>550</v>
       </c>
       <c r="Q304" t="n">
         <v>1</v>
@@ -22293,7 +22293,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44438</v>
+        <v>44363</v>
       </c>
       <c r="E305" t="n">
         <v>13</v>
@@ -22320,13 +22320,13 @@
         <v>1600</v>
       </c>
       <c r="K305" t="n">
+        <v>500</v>
+      </c>
+      <c r="L305" t="n">
         <v>600</v>
       </c>
-      <c r="L305" t="n">
-        <v>650</v>
-      </c>
       <c r="M305" t="n">
-        <v>625</v>
+        <v>550</v>
       </c>
       <c r="N305" t="inlineStr">
         <is>
@@ -22335,11 +22335,11 @@
       </c>
       <c r="O305" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P305" t="n">
-        <v>625</v>
+        <v>550</v>
       </c>
       <c r="Q305" t="n">
         <v>1</v>
@@ -22365,7 +22365,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44438</v>
+        <v>44363</v>
       </c>
       <c r="E306" t="n">
         <v>13</v>
@@ -22389,16 +22389,16 @@
         </is>
       </c>
       <c r="J306" t="n">
-        <v>610</v>
+        <v>1600</v>
       </c>
       <c r="K306" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L306" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="M306" t="n">
-        <v>525</v>
+        <v>400</v>
       </c>
       <c r="N306" t="inlineStr">
         <is>
@@ -22411,7 +22411,7 @@
         </is>
       </c>
       <c r="P306" t="n">
-        <v>525</v>
+        <v>400</v>
       </c>
       <c r="Q306" t="n">
         <v>1</v>
@@ -22437,7 +22437,7 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>44372</v>
+        <v>44363</v>
       </c>
       <c r="E307" t="n">
         <v>13</v>
@@ -22457,20 +22457,20 @@
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J307" t="n">
-        <v>3400</v>
+        <v>700</v>
       </c>
       <c r="K307" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L307" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M307" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="N307" t="inlineStr">
         <is>
@@ -22479,11 +22479,11 @@
       </c>
       <c r="O307" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P307" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="Q307" t="n">
         <v>1</v>
@@ -22509,7 +22509,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44372</v>
+        <v>44273</v>
       </c>
       <c r="E308" t="n">
         <v>13</v>
@@ -22529,20 +22529,20 @@
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J308" t="n">
-        <v>970</v>
+        <v>1600</v>
       </c>
       <c r="K308" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="L308" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="M308" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="N308" t="inlineStr">
         <is>
@@ -22555,7 +22555,7 @@
         </is>
       </c>
       <c r="P308" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="Q308" t="n">
         <v>1</v>
@@ -22581,7 +22581,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44286</v>
+        <v>44438</v>
       </c>
       <c r="E309" t="n">
         <v>13</v>
@@ -22608,13 +22608,13 @@
         <v>1600</v>
       </c>
       <c r="K309" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="L309" t="n">
-        <v>900</v>
+        <v>650</v>
       </c>
       <c r="M309" t="n">
-        <v>900</v>
+        <v>625</v>
       </c>
       <c r="N309" t="inlineStr">
         <is>
@@ -22627,7 +22627,7 @@
         </is>
       </c>
       <c r="P309" t="n">
-        <v>900</v>
+        <v>625</v>
       </c>
       <c r="Q309" t="n">
         <v>1</v>
@@ -22653,7 +22653,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44356</v>
+        <v>44438</v>
       </c>
       <c r="E310" t="n">
         <v>13</v>
@@ -22673,20 +22673,20 @@
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J310" t="n">
-        <v>2500</v>
+        <v>610</v>
       </c>
       <c r="K310" t="n">
         <v>500</v>
       </c>
       <c r="L310" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="M310" t="n">
-        <v>550</v>
+        <v>525</v>
       </c>
       <c r="N310" t="inlineStr">
         <is>
@@ -22695,11 +22695,11 @@
       </c>
       <c r="O310" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P310" t="n">
-        <v>550</v>
+        <v>525</v>
       </c>
       <c r="Q310" t="n">
         <v>1</v>
@@ -22725,7 +22725,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44356</v>
+        <v>44372</v>
       </c>
       <c r="E311" t="n">
         <v>13</v>
@@ -22745,20 +22745,20 @@
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J311" t="n">
-        <v>700</v>
+        <v>3400</v>
       </c>
       <c r="K311" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L311" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M311" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="N311" t="inlineStr">
         <is>
@@ -22767,11 +22767,11 @@
       </c>
       <c r="O311" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P311" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="Q311" t="n">
         <v>1</v>
@@ -22797,7 +22797,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44160</v>
+        <v>44372</v>
       </c>
       <c r="E312" t="n">
         <v>13</v>
@@ -22817,20 +22817,20 @@
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J312" t="n">
-        <v>3600</v>
+        <v>970</v>
       </c>
       <c r="K312" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L312" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M312" t="n">
-        <v>556</v>
+        <v>400</v>
       </c>
       <c r="N312" t="inlineStr">
         <is>
@@ -22839,11 +22839,11 @@
       </c>
       <c r="O312" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P312" t="n">
-        <v>556</v>
+        <v>400</v>
       </c>
       <c r="Q312" t="n">
         <v>1</v>
@@ -22869,7 +22869,7 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>44351</v>
+        <v>44286</v>
       </c>
       <c r="E313" t="n">
         <v>13</v>
@@ -22893,16 +22893,16 @@
         </is>
       </c>
       <c r="J313" t="n">
-        <v>3400</v>
+        <v>1600</v>
       </c>
       <c r="K313" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="L313" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="M313" t="n">
-        <v>550</v>
+        <v>900</v>
       </c>
       <c r="N313" t="inlineStr">
         <is>
@@ -22915,7 +22915,7 @@
         </is>
       </c>
       <c r="P313" t="n">
-        <v>550</v>
+        <v>900</v>
       </c>
       <c r="Q313" t="n">
         <v>1</v>
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E314" t="n">
         <v>13</v>
@@ -22965,7 +22965,7 @@
         </is>
       </c>
       <c r="J314" t="n">
-        <v>4300</v>
+        <v>2500</v>
       </c>
       <c r="K314" t="n">
         <v>500</v>
@@ -23013,7 +23013,7 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E315" t="n">
         <v>13</v>
@@ -23037,7 +23037,7 @@
         </is>
       </c>
       <c r="J315" t="n">
-        <v>1600</v>
+        <v>700</v>
       </c>
       <c r="K315" t="n">
         <v>400</v>
@@ -23055,7 +23055,7 @@
       </c>
       <c r="O315" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P315" t="n">
@@ -23085,7 +23085,7 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E316" t="n">
         <v>13</v>
@@ -23105,20 +23105,20 @@
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J316" t="n">
-        <v>2500</v>
+        <v>3600</v>
       </c>
       <c r="K316" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L316" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M316" t="n">
-        <v>400</v>
+        <v>556</v>
       </c>
       <c r="N316" t="inlineStr">
         <is>
@@ -23127,11 +23127,11 @@
       </c>
       <c r="O316" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P316" t="n">
-        <v>400</v>
+        <v>556</v>
       </c>
       <c r="Q316" t="n">
         <v>1</v>
@@ -23157,7 +23157,7 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E317" t="n">
         <v>13</v>
@@ -23229,7 +23229,7 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E318" t="n">
         <v>13</v>
@@ -23253,7 +23253,7 @@
         </is>
       </c>
       <c r="J318" t="n">
-        <v>2500</v>
+        <v>4300</v>
       </c>
       <c r="K318" t="n">
         <v>500</v>
@@ -23301,7 +23301,7 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E319" t="n">
         <v>13</v>
@@ -23373,7 +23373,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E320" t="n">
         <v>13</v>
@@ -23397,7 +23397,7 @@
         </is>
       </c>
       <c r="J320" t="n">
-        <v>970</v>
+        <v>2500</v>
       </c>
       <c r="K320" t="n">
         <v>400</v>
@@ -23445,7 +23445,7 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E321" t="n">
         <v>13</v>
@@ -23469,16 +23469,16 @@
         </is>
       </c>
       <c r="J321" t="n">
-        <v>1600</v>
+        <v>3400</v>
       </c>
       <c r="K321" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L321" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M321" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="N321" t="inlineStr">
         <is>
@@ -23487,11 +23487,11 @@
       </c>
       <c r="O321" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P321" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="Q321" t="n">
         <v>1</v>
@@ -23517,7 +23517,7 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>44215</v>
+        <v>44365</v>
       </c>
       <c r="E322" t="n">
         <v>13</v>
@@ -23541,16 +23541,16 @@
         </is>
       </c>
       <c r="J322" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="K322" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="L322" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="M322" t="n">
-        <v>950</v>
+        <v>550</v>
       </c>
       <c r="N322" t="inlineStr">
         <is>
@@ -23563,7 +23563,7 @@
         </is>
       </c>
       <c r="P322" t="n">
-        <v>950</v>
+        <v>550</v>
       </c>
       <c r="Q322" t="n">
         <v>1</v>
@@ -23589,7 +23589,7 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>44175</v>
+        <v>44365</v>
       </c>
       <c r="E323" t="n">
         <v>13</v>
@@ -23609,20 +23609,20 @@
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J323" t="n">
-        <v>5200</v>
+        <v>1600</v>
       </c>
       <c r="K323" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="L323" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="M323" t="n">
-        <v>850</v>
+        <v>400</v>
       </c>
       <c r="N323" t="inlineStr">
         <is>
@@ -23635,7 +23635,7 @@
         </is>
       </c>
       <c r="P323" t="n">
-        <v>850</v>
+        <v>400</v>
       </c>
       <c r="Q323" t="n">
         <v>1</v>
@@ -23661,7 +23661,7 @@
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>44461</v>
+        <v>44365</v>
       </c>
       <c r="E324" t="n">
         <v>13</v>
@@ -23681,20 +23681,20 @@
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J324" t="n">
-        <v>1960</v>
+        <v>970</v>
       </c>
       <c r="K324" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L324" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="M324" t="n">
-        <v>625</v>
+        <v>400</v>
       </c>
       <c r="N324" t="inlineStr">
         <is>
@@ -23703,11 +23703,11 @@
       </c>
       <c r="O324" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P324" t="n">
-        <v>625</v>
+        <v>400</v>
       </c>
       <c r="Q324" t="n">
         <v>1</v>
@@ -23733,7 +23733,7 @@
         </is>
       </c>
       <c r="D325" s="2" t="n">
-        <v>44461</v>
+        <v>44306</v>
       </c>
       <c r="E325" t="n">
         <v>13</v>
@@ -23753,20 +23753,20 @@
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J325" t="n">
-        <v>520</v>
+        <v>1600</v>
       </c>
       <c r="K325" t="n">
-        <v>450</v>
+        <v>700</v>
       </c>
       <c r="L325" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M325" t="n">
-        <v>475</v>
+        <v>750</v>
       </c>
       <c r="N325" t="inlineStr">
         <is>
@@ -23775,11 +23775,11 @@
       </c>
       <c r="O325" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P325" t="n">
-        <v>475</v>
+        <v>750</v>
       </c>
       <c r="Q325" t="n">
         <v>1</v>
@@ -23805,7 +23805,7 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>44357</v>
+        <v>44215</v>
       </c>
       <c r="E326" t="n">
         <v>13</v>
@@ -23829,16 +23829,16 @@
         </is>
       </c>
       <c r="J326" t="n">
-        <v>3400</v>
+        <v>2000</v>
       </c>
       <c r="K326" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="L326" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="M326" t="n">
-        <v>550</v>
+        <v>950</v>
       </c>
       <c r="N326" t="inlineStr">
         <is>
@@ -23847,11 +23847,11 @@
       </c>
       <c r="O326" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P326" t="n">
-        <v>550</v>
+        <v>950</v>
       </c>
       <c r="Q326" t="n">
         <v>1</v>
@@ -23877,7 +23877,7 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E327" t="n">
         <v>13</v>
@@ -23901,16 +23901,16 @@
         </is>
       </c>
       <c r="J327" t="n">
-        <v>4300</v>
+        <v>5200</v>
       </c>
       <c r="K327" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="L327" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="M327" t="n">
-        <v>550</v>
+        <v>850</v>
       </c>
       <c r="N327" t="inlineStr">
         <is>
@@ -23919,11 +23919,11 @@
       </c>
       <c r="O327" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P327" t="n">
-        <v>550</v>
+        <v>850</v>
       </c>
       <c r="Q327" t="n">
         <v>1</v>
@@ -23949,7 +23949,7 @@
         </is>
       </c>
       <c r="D328" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E328" t="n">
         <v>13</v>
@@ -23969,20 +23969,20 @@
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J328" t="n">
-        <v>1300</v>
+        <v>1960</v>
       </c>
       <c r="K328" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L328" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="M328" t="n">
-        <v>400</v>
+        <v>625</v>
       </c>
       <c r="N328" t="inlineStr">
         <is>
@@ -23995,7 +23995,7 @@
         </is>
       </c>
       <c r="P328" t="n">
-        <v>400</v>
+        <v>625</v>
       </c>
       <c r="Q328" t="n">
         <v>1</v>
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E329" t="n">
         <v>13</v>
@@ -24045,16 +24045,16 @@
         </is>
       </c>
       <c r="J329" t="n">
-        <v>1600</v>
+        <v>520</v>
       </c>
       <c r="K329" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="L329" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M329" t="n">
-        <v>400</v>
+        <v>475</v>
       </c>
       <c r="N329" t="inlineStr">
         <is>
@@ -24063,11 +24063,11 @@
       </c>
       <c r="O329" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P329" t="n">
-        <v>400</v>
+        <v>475</v>
       </c>
       <c r="Q329" t="n">
         <v>1</v>
@@ -24093,7 +24093,7 @@
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E330" t="n">
         <v>13</v>
@@ -24117,16 +24117,16 @@
         </is>
       </c>
       <c r="J330" t="n">
-        <v>4500</v>
+        <v>3400</v>
       </c>
       <c r="K330" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L330" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M330" t="n">
-        <v>756</v>
+        <v>550</v>
       </c>
       <c r="N330" t="inlineStr">
         <is>
@@ -24135,11 +24135,11 @@
       </c>
       <c r="O330" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P330" t="n">
-        <v>756</v>
+        <v>550</v>
       </c>
       <c r="Q330" t="n">
         <v>1</v>
@@ -24165,7 +24165,7 @@
         </is>
       </c>
       <c r="D331" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E331" t="n">
         <v>13</v>
@@ -24185,20 +24185,20 @@
       </c>
       <c r="I331" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J331" t="n">
-        <v>2000</v>
+        <v>4300</v>
       </c>
       <c r="K331" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L331" t="n">
         <v>600</v>
       </c>
       <c r="M331" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="N331" t="inlineStr">
         <is>
@@ -24207,11 +24207,11 @@
       </c>
       <c r="O331" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P331" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="Q331" t="n">
         <v>1</v>
@@ -24237,7 +24237,7 @@
         </is>
       </c>
       <c r="D332" s="2" t="n">
-        <v>44162</v>
+        <v>44357</v>
       </c>
       <c r="E332" t="n">
         <v>13</v>
@@ -24257,20 +24257,20 @@
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J332" t="n">
-        <v>4800</v>
+        <v>1300</v>
       </c>
       <c r="K332" t="n">
         <v>400</v>
       </c>
       <c r="L332" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M332" t="n">
-        <v>448</v>
+        <v>400</v>
       </c>
       <c r="N332" t="inlineStr">
         <is>
@@ -24279,11 +24279,11 @@
       </c>
       <c r="O332" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P332" t="n">
-        <v>448</v>
+        <v>400</v>
       </c>
       <c r="Q332" t="n">
         <v>1</v>
@@ -24309,7 +24309,7 @@
         </is>
       </c>
       <c r="D333" s="2" t="n">
-        <v>44411</v>
+        <v>44357</v>
       </c>
       <c r="E333" t="n">
         <v>13</v>
@@ -24329,20 +24329,20 @@
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J333" t="n">
-        <v>3400</v>
+        <v>1600</v>
       </c>
       <c r="K333" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L333" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M333" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="N333" t="inlineStr">
         <is>
@@ -24351,11 +24351,11 @@
       </c>
       <c r="O333" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P333" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="Q333" t="n">
         <v>1</v>
@@ -24381,7 +24381,7 @@
         </is>
       </c>
       <c r="D334" s="2" t="n">
-        <v>44411</v>
+        <v>44203</v>
       </c>
       <c r="E334" t="n">
         <v>13</v>
@@ -24405,16 +24405,16 @@
         </is>
       </c>
       <c r="J334" t="n">
-        <v>2500</v>
+        <v>4500</v>
       </c>
       <c r="K334" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L334" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M334" t="n">
-        <v>550</v>
+        <v>756</v>
       </c>
       <c r="N334" t="inlineStr">
         <is>
@@ -24423,11 +24423,11 @@
       </c>
       <c r="O334" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P334" t="n">
-        <v>550</v>
+        <v>756</v>
       </c>
       <c r="Q334" t="n">
         <v>1</v>
@@ -24453,7 +24453,7 @@
         </is>
       </c>
       <c r="D335" s="2" t="n">
-        <v>44411</v>
+        <v>44203</v>
       </c>
       <c r="E335" t="n">
         <v>13</v>
@@ -24477,16 +24477,16 @@
         </is>
       </c>
       <c r="J335" t="n">
-        <v>970</v>
+        <v>2000</v>
       </c>
       <c r="K335" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L335" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M335" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="N335" t="inlineStr">
         <is>
@@ -24495,11 +24495,11 @@
       </c>
       <c r="O335" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P335" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="Q335" t="n">
         <v>1</v>
@@ -24525,7 +24525,7 @@
         </is>
       </c>
       <c r="D336" s="2" t="n">
-        <v>44411</v>
+        <v>44162</v>
       </c>
       <c r="E336" t="n">
         <v>13</v>
@@ -24545,20 +24545,20 @@
       </c>
       <c r="I336" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J336" t="n">
-        <v>790</v>
+        <v>4800</v>
       </c>
       <c r="K336" t="n">
         <v>400</v>
       </c>
       <c r="L336" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M336" t="n">
-        <v>400</v>
+        <v>448</v>
       </c>
       <c r="N336" t="inlineStr">
         <is>
@@ -24567,11 +24567,11 @@
       </c>
       <c r="O336" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P336" t="n">
-        <v>400</v>
+        <v>448</v>
       </c>
       <c r="Q336" t="n">
         <v>1</v>
@@ -24597,7 +24597,7 @@
         </is>
       </c>
       <c r="D337" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E337" t="n">
         <v>13</v>
@@ -24621,16 +24621,16 @@
         </is>
       </c>
       <c r="J337" t="n">
-        <v>700</v>
+        <v>3400</v>
       </c>
       <c r="K337" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="L337" t="n">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="M337" t="n">
-        <v>1200</v>
+        <v>550</v>
       </c>
       <c r="N337" t="inlineStr">
         <is>
@@ -24643,7 +24643,7 @@
         </is>
       </c>
       <c r="P337" t="n">
-        <v>1200</v>
+        <v>550</v>
       </c>
       <c r="Q337" t="n">
         <v>1</v>
@@ -24669,7 +24669,7 @@
         </is>
       </c>
       <c r="D338" s="2" t="n">
-        <v>44176</v>
+        <v>44411</v>
       </c>
       <c r="E338" t="n">
         <v>13</v>
@@ -24693,16 +24693,16 @@
         </is>
       </c>
       <c r="J338" t="n">
-        <v>5200</v>
+        <v>2500</v>
       </c>
       <c r="K338" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L338" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M338" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="N338" t="inlineStr">
         <is>
@@ -24711,11 +24711,11 @@
       </c>
       <c r="O338" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P338" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="Q338" t="n">
         <v>1</v>
@@ -24741,7 +24741,7 @@
         </is>
       </c>
       <c r="D339" s="2" t="n">
-        <v>44239</v>
+        <v>44411</v>
       </c>
       <c r="E339" t="n">
         <v>13</v>
@@ -24761,20 +24761,20 @@
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J339" t="n">
-        <v>1600</v>
+        <v>970</v>
       </c>
       <c r="K339" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="L339" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="M339" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="N339" t="inlineStr">
         <is>
@@ -24787,7 +24787,7 @@
         </is>
       </c>
       <c r="P339" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="Q339" t="n">
         <v>1</v>
@@ -24813,7 +24813,7 @@
         </is>
       </c>
       <c r="D340" s="2" t="n">
-        <v>44376</v>
+        <v>44411</v>
       </c>
       <c r="E340" t="n">
         <v>13</v>
@@ -24833,20 +24833,20 @@
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J340" t="n">
-        <v>3400</v>
+        <v>790</v>
       </c>
       <c r="K340" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L340" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M340" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="N340" t="inlineStr">
         <is>
@@ -24855,11 +24855,11 @@
       </c>
       <c r="O340" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P340" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="Q340" t="n">
         <v>1</v>
@@ -24885,7 +24885,7 @@
         </is>
       </c>
       <c r="D341" s="2" t="n">
-        <v>44376</v>
+        <v>44257</v>
       </c>
       <c r="E341" t="n">
         <v>13</v>
@@ -24909,16 +24909,16 @@
         </is>
       </c>
       <c r="J341" t="n">
-        <v>2500</v>
+        <v>700</v>
       </c>
       <c r="K341" t="n">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="L341" t="n">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="M341" t="n">
-        <v>550</v>
+        <v>1200</v>
       </c>
       <c r="N341" t="inlineStr">
         <is>
@@ -24927,11 +24927,11 @@
       </c>
       <c r="O341" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P341" t="n">
-        <v>550</v>
+        <v>1200</v>
       </c>
       <c r="Q341" t="n">
         <v>1</v>
@@ -24957,7 +24957,7 @@
         </is>
       </c>
       <c r="D342" s="2" t="n">
-        <v>44376</v>
+        <v>44176</v>
       </c>
       <c r="E342" t="n">
         <v>13</v>
@@ -24977,20 +24977,20 @@
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J342" t="n">
-        <v>1600</v>
+        <v>5200</v>
       </c>
       <c r="K342" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="L342" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="M342" t="n">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="N342" t="inlineStr">
         <is>
@@ -25003,7 +25003,7 @@
         </is>
       </c>
       <c r="P342" t="n">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="Q342" t="n">
         <v>1</v>
@@ -25029,7 +25029,7 @@
         </is>
       </c>
       <c r="D343" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E343" t="n">
         <v>13</v>
@@ -25049,20 +25049,20 @@
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J343" t="n">
-        <v>970</v>
+        <v>1600</v>
       </c>
       <c r="K343" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="L343" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="M343" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="N343" t="inlineStr">
         <is>
@@ -25071,11 +25071,11 @@
       </c>
       <c r="O343" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P343" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="Q343" t="n">
         <v>1</v>
@@ -25101,7 +25101,7 @@
         </is>
       </c>
       <c r="D344" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E344" t="n">
         <v>13</v>
@@ -25125,16 +25125,16 @@
         </is>
       </c>
       <c r="J344" t="n">
-        <v>1600</v>
+        <v>3400</v>
       </c>
       <c r="K344" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="L344" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="M344" t="n">
-        <v>900</v>
+        <v>550</v>
       </c>
       <c r="N344" t="inlineStr">
         <is>
@@ -25147,7 +25147,7 @@
         </is>
       </c>
       <c r="P344" t="n">
-        <v>900</v>
+        <v>550</v>
       </c>
       <c r="Q344" t="n">
         <v>1</v>
@@ -25173,7 +25173,7 @@
         </is>
       </c>
       <c r="D345" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E345" t="n">
         <v>13</v>
@@ -25197,7 +25197,7 @@
         </is>
       </c>
       <c r="J345" t="n">
-        <v>4300</v>
+        <v>2500</v>
       </c>
       <c r="K345" t="n">
         <v>500</v>
@@ -25215,7 +25215,7 @@
       </c>
       <c r="O345" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P345" t="n">
@@ -25245,7 +25245,7 @@
         </is>
       </c>
       <c r="D346" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E346" t="n">
         <v>13</v>
@@ -25265,20 +25265,20 @@
       </c>
       <c r="I346" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J346" t="n">
-        <v>3400</v>
+        <v>1600</v>
       </c>
       <c r="K346" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L346" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M346" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="N346" t="inlineStr">
         <is>
@@ -25287,11 +25287,11 @@
       </c>
       <c r="O346" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P346" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="Q346" t="n">
         <v>1</v>
@@ -25317,7 +25317,7 @@
         </is>
       </c>
       <c r="D347" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E347" t="n">
         <v>13</v>
@@ -25341,7 +25341,7 @@
         </is>
       </c>
       <c r="J347" t="n">
-        <v>2500</v>
+        <v>970</v>
       </c>
       <c r="K347" t="n">
         <v>400</v>
@@ -25359,7 +25359,7 @@
       </c>
       <c r="O347" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P347" t="n">
@@ -25389,7 +25389,7 @@
         </is>
       </c>
       <c r="D348" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E348" t="n">
         <v>13</v>
@@ -25409,20 +25409,20 @@
       </c>
       <c r="I348" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J348" t="n">
         <v>1600</v>
       </c>
       <c r="K348" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="L348" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="M348" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="N348" t="inlineStr">
         <is>
@@ -25431,11 +25431,11 @@
       </c>
       <c r="O348" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P348" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="Q348" t="n">
         <v>1</v>
@@ -25461,7 +25461,7 @@
         </is>
       </c>
       <c r="D349" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E349" t="n">
         <v>13</v>
@@ -25485,16 +25485,16 @@
         </is>
       </c>
       <c r="J349" t="n">
-        <v>2500</v>
+        <v>4300</v>
       </c>
       <c r="K349" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="L349" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="M349" t="n">
-        <v>950</v>
+        <v>550</v>
       </c>
       <c r="N349" t="inlineStr">
         <is>
@@ -25507,7 +25507,7 @@
         </is>
       </c>
       <c r="P349" t="n">
-        <v>950</v>
+        <v>550</v>
       </c>
       <c r="Q349" t="n">
         <v>1</v>
@@ -25533,7 +25533,7 @@
         </is>
       </c>
       <c r="D350" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E350" t="n">
         <v>13</v>
@@ -25557,16 +25557,16 @@
         </is>
       </c>
       <c r="J350" t="n">
-        <v>4300</v>
+        <v>3400</v>
       </c>
       <c r="K350" t="n">
+        <v>500</v>
+      </c>
+      <c r="L350" t="n">
         <v>600</v>
       </c>
-      <c r="L350" t="n">
-        <v>700</v>
-      </c>
       <c r="M350" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="N350" t="inlineStr">
         <is>
@@ -25575,11 +25575,11 @@
       </c>
       <c r="O350" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P350" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="Q350" t="n">
         <v>1</v>
@@ -25605,7 +25605,7 @@
         </is>
       </c>
       <c r="D351" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E351" t="n">
         <v>13</v>
@@ -25625,20 +25625,20 @@
       </c>
       <c r="I351" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J351" t="n">
-        <v>3400</v>
+        <v>2500</v>
       </c>
       <c r="K351" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L351" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="M351" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="N351" t="inlineStr">
         <is>
@@ -25647,11 +25647,11 @@
       </c>
       <c r="O351" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P351" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="Q351" t="n">
         <v>1</v>
@@ -25677,7 +25677,7 @@
         </is>
       </c>
       <c r="D352" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E352" t="n">
         <v>13</v>
@@ -25707,10 +25707,10 @@
         <v>400</v>
       </c>
       <c r="L352" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M352" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="N352" t="inlineStr">
         <is>
@@ -25719,11 +25719,11 @@
       </c>
       <c r="O352" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P352" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="Q352" t="n">
         <v>1</v>
@@ -25749,7 +25749,7 @@
         </is>
       </c>
       <c r="D353" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E353" t="n">
         <v>13</v>
@@ -25769,20 +25769,20 @@
       </c>
       <c r="I353" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J353" t="n">
-        <v>1300</v>
+        <v>2500</v>
       </c>
       <c r="K353" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="L353" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="M353" t="n">
-        <v>450</v>
+        <v>950</v>
       </c>
       <c r="N353" t="inlineStr">
         <is>
@@ -25791,11 +25791,11 @@
       </c>
       <c r="O353" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P353" t="n">
-        <v>450</v>
+        <v>950</v>
       </c>
       <c r="Q353" t="n">
         <v>1</v>
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="D354" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E354" t="n">
         <v>13</v>
@@ -25845,16 +25845,16 @@
         </is>
       </c>
       <c r="J354" t="n">
-        <v>2500</v>
+        <v>4300</v>
       </c>
       <c r="K354" t="n">
         <v>600</v>
       </c>
       <c r="L354" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M354" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="N354" t="inlineStr">
         <is>
@@ -25867,7 +25867,7 @@
         </is>
       </c>
       <c r="P354" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="Q354" t="n">
         <v>1</v>
@@ -25893,58 +25893,346 @@
         </is>
       </c>
       <c r="D355" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E355" t="n">
+        <v>13</v>
+      </c>
+      <c r="F355" t="n">
+        <v>100112008</v>
+      </c>
+      <c r="G355" t="inlineStr">
+        <is>
+          <t>Coliflor</t>
+        </is>
+      </c>
+      <c r="H355" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I355" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J355" t="n">
+        <v>3400</v>
+      </c>
+      <c r="K355" t="n">
+        <v>600</v>
+      </c>
+      <c r="L355" t="n">
+        <v>700</v>
+      </c>
+      <c r="M355" t="n">
+        <v>650</v>
+      </c>
+      <c r="N355" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O355" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P355" t="n">
+        <v>650</v>
+      </c>
+      <c r="Q355" t="n">
+        <v>1</v>
+      </c>
+      <c r="R355" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="n">
+        <v>9</v>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D356" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E356" t="n">
+        <v>13</v>
+      </c>
+      <c r="F356" t="n">
+        <v>100112008</v>
+      </c>
+      <c r="G356" t="inlineStr">
+        <is>
+          <t>Coliflor</t>
+        </is>
+      </c>
+      <c r="H356" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I356" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J356" t="n">
+        <v>1600</v>
+      </c>
+      <c r="K356" t="n">
+        <v>400</v>
+      </c>
+      <c r="L356" t="n">
+        <v>500</v>
+      </c>
+      <c r="M356" t="n">
+        <v>450</v>
+      </c>
+      <c r="N356" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O356" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P356" t="n">
+        <v>450</v>
+      </c>
+      <c r="Q356" t="n">
+        <v>1</v>
+      </c>
+      <c r="R356" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="n">
+        <v>9</v>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D357" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E357" t="n">
+        <v>13</v>
+      </c>
+      <c r="F357" t="n">
+        <v>100112008</v>
+      </c>
+      <c r="G357" t="inlineStr">
+        <is>
+          <t>Coliflor</t>
+        </is>
+      </c>
+      <c r="H357" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I357" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J357" t="n">
+        <v>1300</v>
+      </c>
+      <c r="K357" t="n">
+        <v>400</v>
+      </c>
+      <c r="L357" t="n">
+        <v>500</v>
+      </c>
+      <c r="M357" t="n">
+        <v>450</v>
+      </c>
+      <c r="N357" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O357" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P357" t="n">
+        <v>450</v>
+      </c>
+      <c r="Q357" t="n">
+        <v>1</v>
+      </c>
+      <c r="R357" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="n">
+        <v>9</v>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D358" s="2" t="n">
         <v>44323</v>
       </c>
-      <c r="E355" t="n">
-        <v>13</v>
-      </c>
-      <c r="F355" t="n">
-        <v>100112008</v>
-      </c>
-      <c r="G355" t="inlineStr">
-        <is>
-          <t>Coliflor</t>
-        </is>
-      </c>
-      <c r="H355" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="I355" t="inlineStr">
+      <c r="E358" t="n">
+        <v>13</v>
+      </c>
+      <c r="F358" t="n">
+        <v>100112008</v>
+      </c>
+      <c r="G358" t="inlineStr">
+        <is>
+          <t>Coliflor</t>
+        </is>
+      </c>
+      <c r="H358" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I358" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J358" t="n">
+        <v>2500</v>
+      </c>
+      <c r="K358" t="n">
+        <v>600</v>
+      </c>
+      <c r="L358" t="n">
+        <v>600</v>
+      </c>
+      <c r="M358" t="n">
+        <v>600</v>
+      </c>
+      <c r="N358" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O358" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P358" t="n">
+        <v>600</v>
+      </c>
+      <c r="Q358" t="n">
+        <v>1</v>
+      </c>
+      <c r="R358" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="n">
+        <v>9</v>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D359" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E359" t="n">
+        <v>13</v>
+      </c>
+      <c r="F359" t="n">
+        <v>100112008</v>
+      </c>
+      <c r="G359" t="inlineStr">
+        <is>
+          <t>Coliflor</t>
+        </is>
+      </c>
+      <c r="H359" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I359" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J355" t="n">
+      <c r="J359" t="n">
         <v>700</v>
       </c>
-      <c r="K355" t="n">
+      <c r="K359" t="n">
         <v>500</v>
       </c>
-      <c r="L355" t="n">
+      <c r="L359" t="n">
         <v>500</v>
       </c>
-      <c r="M355" t="n">
+      <c r="M359" t="n">
         <v>500</v>
       </c>
-      <c r="N355" t="inlineStr">
-        <is>
-          <t>$/unidad</t>
-        </is>
-      </c>
-      <c r="O355" t="inlineStr">
+      <c r="N359" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O359" t="inlineStr">
         <is>
           <t>Región Metropolitana</t>
         </is>
       </c>
-      <c r="P355" t="n">
+      <c r="P359" t="n">
         <v>500</v>
       </c>
-      <c r="Q355" t="n">
-        <v>1</v>
-      </c>
-      <c r="R355" t="inlineStr">
+      <c r="Q359" t="n">
+        <v>1</v>
+      </c>
+      <c r="R359" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Coliflor.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Coliflor.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R359"/>
+  <dimension ref="A1:R361"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19485,7 +19485,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44187</v>
+        <v>44468</v>
       </c>
       <c r="E266" t="n">
         <v>13</v>
@@ -19509,16 +19509,16 @@
         </is>
       </c>
       <c r="J266" t="n">
-        <v>4900</v>
+        <v>2500</v>
       </c>
       <c r="K266" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="L266" t="n">
-        <v>1000</v>
+        <v>650</v>
       </c>
       <c r="M266" t="n">
-        <v>902</v>
+        <v>625</v>
       </c>
       <c r="N266" t="inlineStr">
         <is>
@@ -19527,11 +19527,11 @@
       </c>
       <c r="O266" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P266" t="n">
-        <v>902</v>
+        <v>625</v>
       </c>
       <c r="Q266" t="n">
         <v>1</v>
@@ -19557,7 +19557,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44390</v>
+        <v>44468</v>
       </c>
       <c r="E267" t="n">
         <v>13</v>
@@ -19577,20 +19577,20 @@
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J267" t="n">
-        <v>4300</v>
+        <v>1300</v>
       </c>
       <c r="K267" t="n">
+        <v>450</v>
+      </c>
+      <c r="L267" t="n">
         <v>500</v>
       </c>
-      <c r="L267" t="n">
-        <v>600</v>
-      </c>
       <c r="M267" t="n">
-        <v>550</v>
+        <v>475</v>
       </c>
       <c r="N267" t="inlineStr">
         <is>
@@ -19603,7 +19603,7 @@
         </is>
       </c>
       <c r="P267" t="n">
-        <v>550</v>
+        <v>475</v>
       </c>
       <c r="Q267" t="n">
         <v>1</v>
@@ -19629,7 +19629,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44390</v>
+        <v>44187</v>
       </c>
       <c r="E268" t="n">
         <v>13</v>
@@ -19653,16 +19653,16 @@
         </is>
       </c>
       <c r="J268" t="n">
-        <v>3400</v>
+        <v>4900</v>
       </c>
       <c r="K268" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="L268" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="M268" t="n">
-        <v>550</v>
+        <v>902</v>
       </c>
       <c r="N268" t="inlineStr">
         <is>
@@ -19671,11 +19671,11 @@
       </c>
       <c r="O268" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P268" t="n">
-        <v>550</v>
+        <v>902</v>
       </c>
       <c r="Q268" t="n">
         <v>1</v>
@@ -19721,20 +19721,20 @@
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J269" t="n">
-        <v>1600</v>
+        <v>4300</v>
       </c>
       <c r="K269" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L269" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M269" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="N269" t="inlineStr">
         <is>
@@ -19747,7 +19747,7 @@
         </is>
       </c>
       <c r="P269" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="Q269" t="n">
         <v>1</v>
@@ -19793,20 +19793,20 @@
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J270" t="n">
-        <v>970</v>
+        <v>3400</v>
       </c>
       <c r="K270" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L270" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M270" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="N270" t="inlineStr">
         <is>
@@ -19819,7 +19819,7 @@
         </is>
       </c>
       <c r="P270" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="Q270" t="n">
         <v>1</v>
@@ -19845,7 +19845,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E271" t="n">
         <v>13</v>
@@ -19865,20 +19865,20 @@
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J271" t="n">
-        <v>4300</v>
+        <v>1600</v>
       </c>
       <c r="K271" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L271" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M271" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="N271" t="inlineStr">
         <is>
@@ -19891,7 +19891,7 @@
         </is>
       </c>
       <c r="P271" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="Q271" t="n">
         <v>1</v>
@@ -19917,7 +19917,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E272" t="n">
         <v>13</v>
@@ -19937,20 +19937,20 @@
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J272" t="n">
-        <v>3400</v>
+        <v>970</v>
       </c>
       <c r="K272" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L272" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M272" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="N272" t="inlineStr">
         <is>
@@ -19963,7 +19963,7 @@
         </is>
       </c>
       <c r="P272" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="Q272" t="n">
         <v>1</v>
@@ -20009,20 +20009,20 @@
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J273" t="n">
-        <v>1600</v>
+        <v>4300</v>
       </c>
       <c r="K273" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L273" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M273" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="N273" t="inlineStr">
         <is>
@@ -20035,7 +20035,7 @@
         </is>
       </c>
       <c r="P273" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="Q273" t="n">
         <v>1</v>
@@ -20081,20 +20081,20 @@
       </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J274" t="n">
-        <v>970</v>
+        <v>3400</v>
       </c>
       <c r="K274" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L274" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M274" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="N274" t="inlineStr">
         <is>
@@ -20107,7 +20107,7 @@
         </is>
       </c>
       <c r="P274" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="Q274" t="n">
         <v>1</v>
@@ -20133,7 +20133,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E275" t="n">
         <v>13</v>
@@ -20153,20 +20153,20 @@
       </c>
       <c r="I275" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J275" t="n">
         <v>1600</v>
       </c>
       <c r="K275" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="L275" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="M275" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="N275" t="inlineStr">
         <is>
@@ -20179,7 +20179,7 @@
         </is>
       </c>
       <c r="P275" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="Q275" t="n">
         <v>1</v>
@@ -20205,7 +20205,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44264</v>
+        <v>44386</v>
       </c>
       <c r="E276" t="n">
         <v>13</v>
@@ -20225,20 +20225,20 @@
       </c>
       <c r="I276" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J276" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="K276" t="n">
-        <v>1200</v>
+        <v>400</v>
       </c>
       <c r="L276" t="n">
-        <v>1200</v>
+        <v>400</v>
       </c>
       <c r="M276" t="n">
-        <v>1200</v>
+        <v>400</v>
       </c>
       <c r="N276" t="inlineStr">
         <is>
@@ -20247,11 +20247,11 @@
       </c>
       <c r="O276" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P276" t="n">
-        <v>1200</v>
+        <v>400</v>
       </c>
       <c r="Q276" t="n">
         <v>1</v>
@@ -20277,7 +20277,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44463</v>
+        <v>44308</v>
       </c>
       <c r="E277" t="n">
         <v>13</v>
@@ -20301,16 +20301,16 @@
         </is>
       </c>
       <c r="J277" t="n">
-        <v>4300</v>
+        <v>1600</v>
       </c>
       <c r="K277" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L277" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="M277" t="n">
-        <v>625</v>
+        <v>700</v>
       </c>
       <c r="N277" t="inlineStr">
         <is>
@@ -20323,7 +20323,7 @@
         </is>
       </c>
       <c r="P277" t="n">
-        <v>625</v>
+        <v>700</v>
       </c>
       <c r="Q277" t="n">
         <v>1</v>
@@ -20349,7 +20349,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44463</v>
+        <v>44264</v>
       </c>
       <c r="E278" t="n">
         <v>13</v>
@@ -20373,16 +20373,16 @@
         </is>
       </c>
       <c r="J278" t="n">
-        <v>3400</v>
+        <v>1000</v>
       </c>
       <c r="K278" t="n">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="L278" t="n">
-        <v>650</v>
+        <v>1200</v>
       </c>
       <c r="M278" t="n">
-        <v>625</v>
+        <v>1200</v>
       </c>
       <c r="N278" t="inlineStr">
         <is>
@@ -20391,11 +20391,11 @@
       </c>
       <c r="O278" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P278" t="n">
-        <v>625</v>
+        <v>1200</v>
       </c>
       <c r="Q278" t="n">
         <v>1</v>
@@ -20441,20 +20441,20 @@
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J279" t="n">
-        <v>1240</v>
+        <v>4300</v>
       </c>
       <c r="K279" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="L279" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="M279" t="n">
-        <v>475</v>
+        <v>625</v>
       </c>
       <c r="N279" t="inlineStr">
         <is>
@@ -20467,7 +20467,7 @@
         </is>
       </c>
       <c r="P279" t="n">
-        <v>475</v>
+        <v>625</v>
       </c>
       <c r="Q279" t="n">
         <v>1</v>
@@ -20513,20 +20513,20 @@
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J280" t="n">
-        <v>970</v>
+        <v>3400</v>
       </c>
       <c r="K280" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="L280" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="M280" t="n">
-        <v>475</v>
+        <v>625</v>
       </c>
       <c r="N280" t="inlineStr">
         <is>
@@ -20539,7 +20539,7 @@
         </is>
       </c>
       <c r="P280" t="n">
-        <v>475</v>
+        <v>625</v>
       </c>
       <c r="Q280" t="n">
         <v>1</v>
@@ -20565,7 +20565,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E281" t="n">
         <v>13</v>
@@ -20585,20 +20585,20 @@
       </c>
       <c r="I281" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J281" t="n">
-        <v>3400</v>
+        <v>1240</v>
       </c>
       <c r="K281" t="n">
-        <v>900</v>
+        <v>450</v>
       </c>
       <c r="L281" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="M281" t="n">
-        <v>950</v>
+        <v>475</v>
       </c>
       <c r="N281" t="inlineStr">
         <is>
@@ -20611,7 +20611,7 @@
         </is>
       </c>
       <c r="P281" t="n">
-        <v>950</v>
+        <v>475</v>
       </c>
       <c r="Q281" t="n">
         <v>1</v>
@@ -20637,7 +20637,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44301</v>
+        <v>44463</v>
       </c>
       <c r="E282" t="n">
         <v>13</v>
@@ -20657,20 +20657,20 @@
       </c>
       <c r="I282" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J282" t="n">
-        <v>1600</v>
+        <v>970</v>
       </c>
       <c r="K282" t="n">
-        <v>700</v>
+        <v>450</v>
       </c>
       <c r="L282" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M282" t="n">
-        <v>750</v>
+        <v>475</v>
       </c>
       <c r="N282" t="inlineStr">
         <is>
@@ -20679,11 +20679,11 @@
       </c>
       <c r="O282" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P282" t="n">
-        <v>750</v>
+        <v>475</v>
       </c>
       <c r="Q282" t="n">
         <v>1</v>
@@ -20709,7 +20709,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44252</v>
+        <v>44196</v>
       </c>
       <c r="E283" t="n">
         <v>13</v>
@@ -20733,16 +20733,16 @@
         </is>
       </c>
       <c r="J283" t="n">
-        <v>1200</v>
+        <v>3400</v>
       </c>
       <c r="K283" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="L283" t="n">
         <v>1000</v>
       </c>
       <c r="M283" t="n">
-        <v>1000</v>
+        <v>950</v>
       </c>
       <c r="N283" t="inlineStr">
         <is>
@@ -20751,11 +20751,11 @@
       </c>
       <c r="O283" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P283" t="n">
-        <v>1000</v>
+        <v>950</v>
       </c>
       <c r="Q283" t="n">
         <v>1</v>
@@ -20781,7 +20781,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44252</v>
+        <v>44301</v>
       </c>
       <c r="E284" t="n">
         <v>13</v>
@@ -20801,20 +20801,20 @@
       </c>
       <c r="I284" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J284" t="n">
-        <v>300</v>
+        <v>1600</v>
       </c>
       <c r="K284" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="L284" t="n">
         <v>800</v>
       </c>
       <c r="M284" t="n">
-        <v>800</v>
+        <v>750</v>
       </c>
       <c r="N284" t="inlineStr">
         <is>
@@ -20823,11 +20823,11 @@
       </c>
       <c r="O284" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P284" t="n">
-        <v>800</v>
+        <v>750</v>
       </c>
       <c r="Q284" t="n">
         <v>1</v>
@@ -20853,7 +20853,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E285" t="n">
         <v>13</v>
@@ -20877,16 +20877,16 @@
         </is>
       </c>
       <c r="J285" t="n">
-        <v>3200</v>
+        <v>1200</v>
       </c>
       <c r="K285" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="L285" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="M285" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="N285" t="inlineStr">
         <is>
@@ -20895,11 +20895,11 @@
       </c>
       <c r="O285" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P285" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="Q285" t="n">
         <v>1</v>
@@ -20925,7 +20925,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44369</v>
+        <v>44252</v>
       </c>
       <c r="E286" t="n">
         <v>13</v>
@@ -20945,20 +20945,20 @@
       </c>
       <c r="I286" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J286" t="n">
-        <v>3400</v>
+        <v>300</v>
       </c>
       <c r="K286" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="L286" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M286" t="n">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="N286" t="inlineStr">
         <is>
@@ -20967,11 +20967,11 @@
       </c>
       <c r="O286" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P286" t="n">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="Q286" t="n">
         <v>1</v>
@@ -20997,7 +20997,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44369</v>
+        <v>44166</v>
       </c>
       <c r="E287" t="n">
         <v>13</v>
@@ -21021,16 +21021,16 @@
         </is>
       </c>
       <c r="J287" t="n">
-        <v>2500</v>
+        <v>3200</v>
       </c>
       <c r="K287" t="n">
         <v>500</v>
       </c>
       <c r="L287" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M287" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="N287" t="inlineStr">
         <is>
@@ -21039,11 +21039,11 @@
       </c>
       <c r="O287" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P287" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="Q287" t="n">
         <v>1</v>
@@ -21089,20 +21089,20 @@
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J288" t="n">
-        <v>1600</v>
+        <v>3400</v>
       </c>
       <c r="K288" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L288" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M288" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="N288" t="inlineStr">
         <is>
@@ -21115,7 +21115,7 @@
         </is>
       </c>
       <c r="P288" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="Q288" t="n">
         <v>1</v>
@@ -21161,20 +21161,20 @@
       </c>
       <c r="I289" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J289" t="n">
-        <v>700</v>
+        <v>2500</v>
       </c>
       <c r="K289" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L289" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M289" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="N289" t="inlineStr">
         <is>
@@ -21187,7 +21187,7 @@
         </is>
       </c>
       <c r="P289" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="Q289" t="n">
         <v>1</v>
@@ -21213,7 +21213,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E290" t="n">
         <v>13</v>
@@ -21233,20 +21233,20 @@
       </c>
       <c r="I290" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J290" t="n">
-        <v>3400</v>
+        <v>1600</v>
       </c>
       <c r="K290" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L290" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="M290" t="n">
-        <v>625</v>
+        <v>400</v>
       </c>
       <c r="N290" t="inlineStr">
         <is>
@@ -21259,7 +21259,7 @@
         </is>
       </c>
       <c r="P290" t="n">
-        <v>625</v>
+        <v>400</v>
       </c>
       <c r="Q290" t="n">
         <v>1</v>
@@ -21285,7 +21285,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E291" t="n">
         <v>13</v>
@@ -21305,20 +21305,20 @@
       </c>
       <c r="I291" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J291" t="n">
-        <v>1600</v>
+        <v>700</v>
       </c>
       <c r="K291" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L291" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="M291" t="n">
-        <v>625</v>
+        <v>400</v>
       </c>
       <c r="N291" t="inlineStr">
         <is>
@@ -21331,7 +21331,7 @@
         </is>
       </c>
       <c r="P291" t="n">
-        <v>625</v>
+        <v>400</v>
       </c>
       <c r="Q291" t="n">
         <v>1</v>
@@ -21377,20 +21377,20 @@
       </c>
       <c r="I292" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J292" t="n">
-        <v>970</v>
+        <v>3400</v>
       </c>
       <c r="K292" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L292" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="M292" t="n">
-        <v>525</v>
+        <v>625</v>
       </c>
       <c r="N292" t="inlineStr">
         <is>
@@ -21403,7 +21403,7 @@
         </is>
       </c>
       <c r="P292" t="n">
-        <v>525</v>
+        <v>625</v>
       </c>
       <c r="Q292" t="n">
         <v>1</v>
@@ -21449,20 +21449,20 @@
       </c>
       <c r="I293" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J293" t="n">
-        <v>610</v>
+        <v>1600</v>
       </c>
       <c r="K293" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L293" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="M293" t="n">
-        <v>525</v>
+        <v>625</v>
       </c>
       <c r="N293" t="inlineStr">
         <is>
@@ -21475,7 +21475,7 @@
         </is>
       </c>
       <c r="P293" t="n">
-        <v>525</v>
+        <v>625</v>
       </c>
       <c r="Q293" t="n">
         <v>1</v>
@@ -21501,7 +21501,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E294" t="n">
         <v>13</v>
@@ -21521,20 +21521,20 @@
       </c>
       <c r="I294" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J294" t="n">
-        <v>2500</v>
+        <v>970</v>
       </c>
       <c r="K294" t="n">
         <v>500</v>
       </c>
       <c r="L294" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="M294" t="n">
-        <v>550</v>
+        <v>525</v>
       </c>
       <c r="N294" t="inlineStr">
         <is>
@@ -21547,7 +21547,7 @@
         </is>
       </c>
       <c r="P294" t="n">
-        <v>550</v>
+        <v>525</v>
       </c>
       <c r="Q294" t="n">
         <v>1</v>
@@ -21573,7 +21573,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E295" t="n">
         <v>13</v>
@@ -21593,20 +21593,20 @@
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J295" t="n">
-        <v>3400</v>
+        <v>610</v>
       </c>
       <c r="K295" t="n">
         <v>500</v>
       </c>
       <c r="L295" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="M295" t="n">
-        <v>550</v>
+        <v>525</v>
       </c>
       <c r="N295" t="inlineStr">
         <is>
@@ -21619,7 +21619,7 @@
         </is>
       </c>
       <c r="P295" t="n">
-        <v>550</v>
+        <v>525</v>
       </c>
       <c r="Q295" t="n">
         <v>1</v>
@@ -21665,20 +21665,20 @@
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J296" t="n">
-        <v>970</v>
+        <v>2500</v>
       </c>
       <c r="K296" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L296" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M296" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="N296" t="inlineStr">
         <is>
@@ -21691,7 +21691,7 @@
         </is>
       </c>
       <c r="P296" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="Q296" t="n">
         <v>1</v>
@@ -21737,20 +21737,20 @@
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J297" t="n">
-        <v>1600</v>
+        <v>3400</v>
       </c>
       <c r="K297" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L297" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M297" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="N297" t="inlineStr">
         <is>
@@ -21763,7 +21763,7 @@
         </is>
       </c>
       <c r="P297" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="Q297" t="n">
         <v>1</v>
@@ -21789,7 +21789,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E298" t="n">
         <v>13</v>
@@ -21809,20 +21809,20 @@
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J298" t="n">
-        <v>3400</v>
+        <v>970</v>
       </c>
       <c r="K298" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L298" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="M298" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="N298" t="inlineStr">
         <is>
@@ -21835,7 +21835,7 @@
         </is>
       </c>
       <c r="P298" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="Q298" t="n">
         <v>1</v>
@@ -21861,7 +21861,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E299" t="n">
         <v>13</v>
@@ -21888,13 +21888,13 @@
         <v>1600</v>
       </c>
       <c r="K299" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L299" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M299" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="N299" t="inlineStr">
         <is>
@@ -21903,11 +21903,11 @@
       </c>
       <c r="O299" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P299" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="Q299" t="n">
         <v>1</v>
@@ -21933,7 +21933,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44397</v>
+        <v>44316</v>
       </c>
       <c r="E300" t="n">
         <v>13</v>
@@ -21957,16 +21957,16 @@
         </is>
       </c>
       <c r="J300" t="n">
-        <v>4300</v>
+        <v>3400</v>
       </c>
       <c r="K300" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L300" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M300" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="N300" t="inlineStr">
         <is>
@@ -21979,7 +21979,7 @@
         </is>
       </c>
       <c r="P300" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="Q300" t="n">
         <v>1</v>
@@ -22005,7 +22005,7 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>44397</v>
+        <v>44316</v>
       </c>
       <c r="E301" t="n">
         <v>13</v>
@@ -22025,20 +22025,20 @@
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J301" t="n">
-        <v>3400</v>
+        <v>1600</v>
       </c>
       <c r="K301" t="n">
         <v>500</v>
       </c>
       <c r="L301" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M301" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="N301" t="inlineStr">
         <is>
@@ -22047,11 +22047,11 @@
       </c>
       <c r="O301" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P301" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="Q301" t="n">
         <v>1</v>
@@ -22097,20 +22097,20 @@
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J302" t="n">
-        <v>1600</v>
+        <v>4300</v>
       </c>
       <c r="K302" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L302" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M302" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="N302" t="inlineStr">
         <is>
@@ -22123,7 +22123,7 @@
         </is>
       </c>
       <c r="P302" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="Q302" t="n">
         <v>1</v>
@@ -22169,20 +22169,20 @@
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J303" t="n">
-        <v>970</v>
+        <v>3400</v>
       </c>
       <c r="K303" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L303" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M303" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="N303" t="inlineStr">
         <is>
@@ -22195,7 +22195,7 @@
         </is>
       </c>
       <c r="P303" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="Q303" t="n">
         <v>1</v>
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E304" t="n">
         <v>13</v>
@@ -22241,20 +22241,20 @@
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J304" t="n">
-        <v>2500</v>
+        <v>1600</v>
       </c>
       <c r="K304" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L304" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M304" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="N304" t="inlineStr">
         <is>
@@ -22267,7 +22267,7 @@
         </is>
       </c>
       <c r="P304" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="Q304" t="n">
         <v>1</v>
@@ -22293,7 +22293,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E305" t="n">
         <v>13</v>
@@ -22313,20 +22313,20 @@
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J305" t="n">
-        <v>1600</v>
+        <v>970</v>
       </c>
       <c r="K305" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L305" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M305" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="N305" t="inlineStr">
         <is>
@@ -22339,7 +22339,7 @@
         </is>
       </c>
       <c r="P305" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="Q305" t="n">
         <v>1</v>
@@ -22385,20 +22385,20 @@
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J306" t="n">
-        <v>1600</v>
+        <v>2500</v>
       </c>
       <c r="K306" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L306" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M306" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="N306" t="inlineStr">
         <is>
@@ -22411,7 +22411,7 @@
         </is>
       </c>
       <c r="P306" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="Q306" t="n">
         <v>1</v>
@@ -22457,20 +22457,20 @@
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J307" t="n">
-        <v>700</v>
+        <v>1600</v>
       </c>
       <c r="K307" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L307" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M307" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="N307" t="inlineStr">
         <is>
@@ -22483,7 +22483,7 @@
         </is>
       </c>
       <c r="P307" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="Q307" t="n">
         <v>1</v>
@@ -22509,7 +22509,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44273</v>
+        <v>44363</v>
       </c>
       <c r="E308" t="n">
         <v>13</v>
@@ -22529,20 +22529,20 @@
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J308" t="n">
         <v>1600</v>
       </c>
       <c r="K308" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="L308" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="M308" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="N308" t="inlineStr">
         <is>
@@ -22555,7 +22555,7 @@
         </is>
       </c>
       <c r="P308" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="Q308" t="n">
         <v>1</v>
@@ -22581,7 +22581,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44438</v>
+        <v>44363</v>
       </c>
       <c r="E309" t="n">
         <v>13</v>
@@ -22601,20 +22601,20 @@
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J309" t="n">
-        <v>1600</v>
+        <v>700</v>
       </c>
       <c r="K309" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L309" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="M309" t="n">
-        <v>625</v>
+        <v>400</v>
       </c>
       <c r="N309" t="inlineStr">
         <is>
@@ -22623,11 +22623,11 @@
       </c>
       <c r="O309" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P309" t="n">
-        <v>625</v>
+        <v>400</v>
       </c>
       <c r="Q309" t="n">
         <v>1</v>
@@ -22653,7 +22653,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E310" t="n">
         <v>13</v>
@@ -22673,20 +22673,20 @@
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J310" t="n">
-        <v>610</v>
+        <v>1600</v>
       </c>
       <c r="K310" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="L310" t="n">
-        <v>550</v>
+        <v>1000</v>
       </c>
       <c r="M310" t="n">
-        <v>525</v>
+        <v>1000</v>
       </c>
       <c r="N310" t="inlineStr">
         <is>
@@ -22699,7 +22699,7 @@
         </is>
       </c>
       <c r="P310" t="n">
-        <v>525</v>
+        <v>1000</v>
       </c>
       <c r="Q310" t="n">
         <v>1</v>
@@ -22725,7 +22725,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E311" t="n">
         <v>13</v>
@@ -22749,16 +22749,16 @@
         </is>
       </c>
       <c r="J311" t="n">
-        <v>3400</v>
+        <v>1600</v>
       </c>
       <c r="K311" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L311" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="M311" t="n">
-        <v>550</v>
+        <v>625</v>
       </c>
       <c r="N311" t="inlineStr">
         <is>
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="P311" t="n">
-        <v>550</v>
+        <v>625</v>
       </c>
       <c r="Q311" t="n">
         <v>1</v>
@@ -22797,7 +22797,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E312" t="n">
         <v>13</v>
@@ -22821,16 +22821,16 @@
         </is>
       </c>
       <c r="J312" t="n">
-        <v>970</v>
+        <v>610</v>
       </c>
       <c r="K312" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L312" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="M312" t="n">
-        <v>400</v>
+        <v>525</v>
       </c>
       <c r="N312" t="inlineStr">
         <is>
@@ -22843,7 +22843,7 @@
         </is>
       </c>
       <c r="P312" t="n">
-        <v>400</v>
+        <v>525</v>
       </c>
       <c r="Q312" t="n">
         <v>1</v>
@@ -22869,7 +22869,7 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E313" t="n">
         <v>13</v>
@@ -22893,16 +22893,16 @@
         </is>
       </c>
       <c r="J313" t="n">
-        <v>1600</v>
+        <v>3400</v>
       </c>
       <c r="K313" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="L313" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="M313" t="n">
-        <v>900</v>
+        <v>550</v>
       </c>
       <c r="N313" t="inlineStr">
         <is>
@@ -22915,7 +22915,7 @@
         </is>
       </c>
       <c r="P313" t="n">
-        <v>900</v>
+        <v>550</v>
       </c>
       <c r="Q313" t="n">
         <v>1</v>
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>44356</v>
+        <v>44372</v>
       </c>
       <c r="E314" t="n">
         <v>13</v>
@@ -22961,20 +22961,20 @@
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J314" t="n">
-        <v>2500</v>
+        <v>970</v>
       </c>
       <c r="K314" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L314" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M314" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="N314" t="inlineStr">
         <is>
@@ -22983,11 +22983,11 @@
       </c>
       <c r="O314" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P314" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="Q314" t="n">
         <v>1</v>
@@ -23013,7 +23013,7 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>44356</v>
+        <v>44286</v>
       </c>
       <c r="E315" t="n">
         <v>13</v>
@@ -23033,20 +23033,20 @@
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J315" t="n">
-        <v>700</v>
+        <v>1600</v>
       </c>
       <c r="K315" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="L315" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="M315" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="N315" t="inlineStr">
         <is>
@@ -23055,11 +23055,11 @@
       </c>
       <c r="O315" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P315" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="Q315" t="n">
         <v>1</v>
@@ -23085,7 +23085,7 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E316" t="n">
         <v>13</v>
@@ -23109,7 +23109,7 @@
         </is>
       </c>
       <c r="J316" t="n">
-        <v>3600</v>
+        <v>2500</v>
       </c>
       <c r="K316" t="n">
         <v>500</v>
@@ -23118,7 +23118,7 @@
         <v>600</v>
       </c>
       <c r="M316" t="n">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="N316" t="inlineStr">
         <is>
@@ -23127,11 +23127,11 @@
       </c>
       <c r="O316" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P316" t="n">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="Q316" t="n">
         <v>1</v>
@@ -23157,7 +23157,7 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E317" t="n">
         <v>13</v>
@@ -23177,20 +23177,20 @@
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J317" t="n">
-        <v>3400</v>
+        <v>700</v>
       </c>
       <c r="K317" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L317" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M317" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="N317" t="inlineStr">
         <is>
@@ -23199,11 +23199,11 @@
       </c>
       <c r="O317" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P317" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="Q317" t="n">
         <v>1</v>
@@ -23229,7 +23229,7 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E318" t="n">
         <v>13</v>
@@ -23253,7 +23253,7 @@
         </is>
       </c>
       <c r="J318" t="n">
-        <v>4300</v>
+        <v>3600</v>
       </c>
       <c r="K318" t="n">
         <v>500</v>
@@ -23262,7 +23262,7 @@
         <v>600</v>
       </c>
       <c r="M318" t="n">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="N318" t="inlineStr">
         <is>
@@ -23271,11 +23271,11 @@
       </c>
       <c r="O318" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P318" t="n">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="Q318" t="n">
         <v>1</v>
@@ -23321,20 +23321,20 @@
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J319" t="n">
-        <v>1600</v>
+        <v>3400</v>
       </c>
       <c r="K319" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L319" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M319" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="N319" t="inlineStr">
         <is>
@@ -23347,7 +23347,7 @@
         </is>
       </c>
       <c r="P319" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="Q319" t="n">
         <v>1</v>
@@ -23393,20 +23393,20 @@
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J320" t="n">
-        <v>2500</v>
+        <v>4300</v>
       </c>
       <c r="K320" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L320" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M320" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="N320" t="inlineStr">
         <is>
@@ -23419,7 +23419,7 @@
         </is>
       </c>
       <c r="P320" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="Q320" t="n">
         <v>1</v>
@@ -23445,7 +23445,7 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E321" t="n">
         <v>13</v>
@@ -23465,20 +23465,20 @@
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J321" t="n">
-        <v>3400</v>
+        <v>1600</v>
       </c>
       <c r="K321" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L321" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M321" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="N321" t="inlineStr">
         <is>
@@ -23491,7 +23491,7 @@
         </is>
       </c>
       <c r="P321" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="Q321" t="n">
         <v>1</v>
@@ -23517,7 +23517,7 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E322" t="n">
         <v>13</v>
@@ -23537,20 +23537,20 @@
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J322" t="n">
         <v>2500</v>
       </c>
       <c r="K322" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L322" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M322" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="N322" t="inlineStr">
         <is>
@@ -23563,7 +23563,7 @@
         </is>
       </c>
       <c r="P322" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="Q322" t="n">
         <v>1</v>
@@ -23609,20 +23609,20 @@
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J323" t="n">
-        <v>1600</v>
+        <v>3400</v>
       </c>
       <c r="K323" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L323" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M323" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="N323" t="inlineStr">
         <is>
@@ -23635,7 +23635,7 @@
         </is>
       </c>
       <c r="P323" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="Q323" t="n">
         <v>1</v>
@@ -23681,20 +23681,20 @@
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J324" t="n">
-        <v>970</v>
+        <v>2500</v>
       </c>
       <c r="K324" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L324" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M324" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="N324" t="inlineStr">
         <is>
@@ -23707,7 +23707,7 @@
         </is>
       </c>
       <c r="P324" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="Q324" t="n">
         <v>1</v>
@@ -23733,7 +23733,7 @@
         </is>
       </c>
       <c r="D325" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E325" t="n">
         <v>13</v>
@@ -23753,20 +23753,20 @@
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J325" t="n">
         <v>1600</v>
       </c>
       <c r="K325" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="L325" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="M325" t="n">
-        <v>750</v>
+        <v>400</v>
       </c>
       <c r="N325" t="inlineStr">
         <is>
@@ -23775,11 +23775,11 @@
       </c>
       <c r="O325" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P325" t="n">
-        <v>750</v>
+        <v>400</v>
       </c>
       <c r="Q325" t="n">
         <v>1</v>
@@ -23805,7 +23805,7 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>44215</v>
+        <v>44365</v>
       </c>
       <c r="E326" t="n">
         <v>13</v>
@@ -23825,20 +23825,20 @@
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J326" t="n">
-        <v>2000</v>
+        <v>970</v>
       </c>
       <c r="K326" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="L326" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="M326" t="n">
-        <v>950</v>
+        <v>400</v>
       </c>
       <c r="N326" t="inlineStr">
         <is>
@@ -23851,7 +23851,7 @@
         </is>
       </c>
       <c r="P326" t="n">
-        <v>950</v>
+        <v>400</v>
       </c>
       <c r="Q326" t="n">
         <v>1</v>
@@ -23877,7 +23877,7 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>44175</v>
+        <v>44306</v>
       </c>
       <c r="E327" t="n">
         <v>13</v>
@@ -23901,16 +23901,16 @@
         </is>
       </c>
       <c r="J327" t="n">
-        <v>5200</v>
+        <v>1600</v>
       </c>
       <c r="K327" t="n">
+        <v>700</v>
+      </c>
+      <c r="L327" t="n">
         <v>800</v>
       </c>
-      <c r="L327" t="n">
-        <v>900</v>
-      </c>
       <c r="M327" t="n">
-        <v>850</v>
+        <v>750</v>
       </c>
       <c r="N327" t="inlineStr">
         <is>
@@ -23919,11 +23919,11 @@
       </c>
       <c r="O327" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P327" t="n">
-        <v>850</v>
+        <v>750</v>
       </c>
       <c r="Q327" t="n">
         <v>1</v>
@@ -23949,7 +23949,7 @@
         </is>
       </c>
       <c r="D328" s="2" t="n">
-        <v>44461</v>
+        <v>44215</v>
       </c>
       <c r="E328" t="n">
         <v>13</v>
@@ -23973,16 +23973,16 @@
         </is>
       </c>
       <c r="J328" t="n">
-        <v>1960</v>
+        <v>2000</v>
       </c>
       <c r="K328" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="L328" t="n">
-        <v>650</v>
+        <v>1000</v>
       </c>
       <c r="M328" t="n">
-        <v>625</v>
+        <v>950</v>
       </c>
       <c r="N328" t="inlineStr">
         <is>
@@ -23991,11 +23991,11 @@
       </c>
       <c r="O328" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P328" t="n">
-        <v>625</v>
+        <v>950</v>
       </c>
       <c r="Q328" t="n">
         <v>1</v>
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E329" t="n">
         <v>13</v>
@@ -24041,20 +24041,20 @@
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J329" t="n">
-        <v>520</v>
+        <v>5200</v>
       </c>
       <c r="K329" t="n">
-        <v>450</v>
+        <v>800</v>
       </c>
       <c r="L329" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="M329" t="n">
-        <v>475</v>
+        <v>850</v>
       </c>
       <c r="N329" t="inlineStr">
         <is>
@@ -24067,7 +24067,7 @@
         </is>
       </c>
       <c r="P329" t="n">
-        <v>475</v>
+        <v>850</v>
       </c>
       <c r="Q329" t="n">
         <v>1</v>
@@ -24093,7 +24093,7 @@
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E330" t="n">
         <v>13</v>
@@ -24117,16 +24117,16 @@
         </is>
       </c>
       <c r="J330" t="n">
-        <v>3400</v>
+        <v>1960</v>
       </c>
       <c r="K330" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L330" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="M330" t="n">
-        <v>550</v>
+        <v>625</v>
       </c>
       <c r="N330" t="inlineStr">
         <is>
@@ -24139,7 +24139,7 @@
         </is>
       </c>
       <c r="P330" t="n">
-        <v>550</v>
+        <v>625</v>
       </c>
       <c r="Q330" t="n">
         <v>1</v>
@@ -24165,7 +24165,7 @@
         </is>
       </c>
       <c r="D331" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E331" t="n">
         <v>13</v>
@@ -24185,20 +24185,20 @@
       </c>
       <c r="I331" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J331" t="n">
-        <v>4300</v>
+        <v>520</v>
       </c>
       <c r="K331" t="n">
+        <v>450</v>
+      </c>
+      <c r="L331" t="n">
         <v>500</v>
       </c>
-      <c r="L331" t="n">
-        <v>600</v>
-      </c>
       <c r="M331" t="n">
-        <v>550</v>
+        <v>475</v>
       </c>
       <c r="N331" t="inlineStr">
         <is>
@@ -24207,11 +24207,11 @@
       </c>
       <c r="O331" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P331" t="n">
-        <v>550</v>
+        <v>475</v>
       </c>
       <c r="Q331" t="n">
         <v>1</v>
@@ -24257,20 +24257,20 @@
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J332" t="n">
-        <v>1300</v>
+        <v>3400</v>
       </c>
       <c r="K332" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L332" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M332" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="N332" t="inlineStr">
         <is>
@@ -24283,7 +24283,7 @@
         </is>
       </c>
       <c r="P332" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="Q332" t="n">
         <v>1</v>
@@ -24329,20 +24329,20 @@
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J333" t="n">
-        <v>1600</v>
+        <v>4300</v>
       </c>
       <c r="K333" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L333" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M333" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="N333" t="inlineStr">
         <is>
@@ -24355,7 +24355,7 @@
         </is>
       </c>
       <c r="P333" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="Q333" t="n">
         <v>1</v>
@@ -24381,7 +24381,7 @@
         </is>
       </c>
       <c r="D334" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E334" t="n">
         <v>13</v>
@@ -24401,20 +24401,20 @@
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J334" t="n">
-        <v>4500</v>
+        <v>1300</v>
       </c>
       <c r="K334" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="L334" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="M334" t="n">
-        <v>756</v>
+        <v>400</v>
       </c>
       <c r="N334" t="inlineStr">
         <is>
@@ -24423,11 +24423,11 @@
       </c>
       <c r="O334" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P334" t="n">
-        <v>756</v>
+        <v>400</v>
       </c>
       <c r="Q334" t="n">
         <v>1</v>
@@ -24453,7 +24453,7 @@
         </is>
       </c>
       <c r="D335" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E335" t="n">
         <v>13</v>
@@ -24477,16 +24477,16 @@
         </is>
       </c>
       <c r="J335" t="n">
-        <v>2000</v>
+        <v>1600</v>
       </c>
       <c r="K335" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L335" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M335" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="N335" t="inlineStr">
         <is>
@@ -24495,11 +24495,11 @@
       </c>
       <c r="O335" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P335" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="Q335" t="n">
         <v>1</v>
@@ -24525,7 +24525,7 @@
         </is>
       </c>
       <c r="D336" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E336" t="n">
         <v>13</v>
@@ -24549,16 +24549,16 @@
         </is>
       </c>
       <c r="J336" t="n">
-        <v>4800</v>
+        <v>4500</v>
       </c>
       <c r="K336" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="L336" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M336" t="n">
-        <v>448</v>
+        <v>756</v>
       </c>
       <c r="N336" t="inlineStr">
         <is>
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="P336" t="n">
-        <v>448</v>
+        <v>756</v>
       </c>
       <c r="Q336" t="n">
         <v>1</v>
@@ -24597,7 +24597,7 @@
         </is>
       </c>
       <c r="D337" s="2" t="n">
-        <v>44411</v>
+        <v>44203</v>
       </c>
       <c r="E337" t="n">
         <v>13</v>
@@ -24617,20 +24617,20 @@
       </c>
       <c r="I337" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J337" t="n">
-        <v>3400</v>
+        <v>2000</v>
       </c>
       <c r="K337" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L337" t="n">
         <v>600</v>
       </c>
       <c r="M337" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="N337" t="inlineStr">
         <is>
@@ -24639,11 +24639,11 @@
       </c>
       <c r="O337" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P337" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="Q337" t="n">
         <v>1</v>
@@ -24669,7 +24669,7 @@
         </is>
       </c>
       <c r="D338" s="2" t="n">
-        <v>44411</v>
+        <v>44162</v>
       </c>
       <c r="E338" t="n">
         <v>13</v>
@@ -24693,16 +24693,16 @@
         </is>
       </c>
       <c r="J338" t="n">
-        <v>2500</v>
+        <v>4800</v>
       </c>
       <c r="K338" t="n">
+        <v>400</v>
+      </c>
+      <c r="L338" t="n">
         <v>500</v>
       </c>
-      <c r="L338" t="n">
-        <v>600</v>
-      </c>
       <c r="M338" t="n">
-        <v>550</v>
+        <v>448</v>
       </c>
       <c r="N338" t="inlineStr">
         <is>
@@ -24711,11 +24711,11 @@
       </c>
       <c r="O338" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P338" t="n">
-        <v>550</v>
+        <v>448</v>
       </c>
       <c r="Q338" t="n">
         <v>1</v>
@@ -24761,20 +24761,20 @@
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J339" t="n">
-        <v>970</v>
+        <v>3400</v>
       </c>
       <c r="K339" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L339" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M339" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="N339" t="inlineStr">
         <is>
@@ -24787,7 +24787,7 @@
         </is>
       </c>
       <c r="P339" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="Q339" t="n">
         <v>1</v>
@@ -24833,20 +24833,20 @@
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J340" t="n">
-        <v>790</v>
+        <v>2500</v>
       </c>
       <c r="K340" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L340" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M340" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="N340" t="inlineStr">
         <is>
@@ -24859,7 +24859,7 @@
         </is>
       </c>
       <c r="P340" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="Q340" t="n">
         <v>1</v>
@@ -24885,7 +24885,7 @@
         </is>
       </c>
       <c r="D341" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E341" t="n">
         <v>13</v>
@@ -24905,20 +24905,20 @@
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J341" t="n">
-        <v>700</v>
+        <v>970</v>
       </c>
       <c r="K341" t="n">
-        <v>1200</v>
+        <v>400</v>
       </c>
       <c r="L341" t="n">
-        <v>1200</v>
+        <v>400</v>
       </c>
       <c r="M341" t="n">
-        <v>1200</v>
+        <v>400</v>
       </c>
       <c r="N341" t="inlineStr">
         <is>
@@ -24931,7 +24931,7 @@
         </is>
       </c>
       <c r="P341" t="n">
-        <v>1200</v>
+        <v>400</v>
       </c>
       <c r="Q341" t="n">
         <v>1</v>
@@ -24957,7 +24957,7 @@
         </is>
       </c>
       <c r="D342" s="2" t="n">
-        <v>44176</v>
+        <v>44411</v>
       </c>
       <c r="E342" t="n">
         <v>13</v>
@@ -24977,20 +24977,20 @@
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J342" t="n">
-        <v>5200</v>
+        <v>790</v>
       </c>
       <c r="K342" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="L342" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="M342" t="n">
-        <v>750</v>
+        <v>400</v>
       </c>
       <c r="N342" t="inlineStr">
         <is>
@@ -24999,11 +24999,11 @@
       </c>
       <c r="O342" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P342" t="n">
-        <v>750</v>
+        <v>400</v>
       </c>
       <c r="Q342" t="n">
         <v>1</v>
@@ -25029,7 +25029,7 @@
         </is>
       </c>
       <c r="D343" s="2" t="n">
-        <v>44239</v>
+        <v>44257</v>
       </c>
       <c r="E343" t="n">
         <v>13</v>
@@ -25053,16 +25053,16 @@
         </is>
       </c>
       <c r="J343" t="n">
-        <v>1600</v>
+        <v>700</v>
       </c>
       <c r="K343" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="L343" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="M343" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="N343" t="inlineStr">
         <is>
@@ -25075,7 +25075,7 @@
         </is>
       </c>
       <c r="P343" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="Q343" t="n">
         <v>1</v>
@@ -25101,7 +25101,7 @@
         </is>
       </c>
       <c r="D344" s="2" t="n">
-        <v>44376</v>
+        <v>44176</v>
       </c>
       <c r="E344" t="n">
         <v>13</v>
@@ -25125,16 +25125,16 @@
         </is>
       </c>
       <c r="J344" t="n">
-        <v>3400</v>
+        <v>5200</v>
       </c>
       <c r="K344" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L344" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M344" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="N344" t="inlineStr">
         <is>
@@ -25147,7 +25147,7 @@
         </is>
       </c>
       <c r="P344" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="Q344" t="n">
         <v>1</v>
@@ -25173,7 +25173,7 @@
         </is>
       </c>
       <c r="D345" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E345" t="n">
         <v>13</v>
@@ -25197,16 +25197,16 @@
         </is>
       </c>
       <c r="J345" t="n">
-        <v>2500</v>
+        <v>1600</v>
       </c>
       <c r="K345" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="L345" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="M345" t="n">
-        <v>550</v>
+        <v>1000</v>
       </c>
       <c r="N345" t="inlineStr">
         <is>
@@ -25215,11 +25215,11 @@
       </c>
       <c r="O345" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P345" t="n">
-        <v>550</v>
+        <v>1000</v>
       </c>
       <c r="Q345" t="n">
         <v>1</v>
@@ -25265,20 +25265,20 @@
       </c>
       <c r="I346" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J346" t="n">
-        <v>1600</v>
+        <v>3400</v>
       </c>
       <c r="K346" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L346" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M346" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="N346" t="inlineStr">
         <is>
@@ -25291,7 +25291,7 @@
         </is>
       </c>
       <c r="P346" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="Q346" t="n">
         <v>1</v>
@@ -25337,20 +25337,20 @@
       </c>
       <c r="I347" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J347" t="n">
-        <v>970</v>
+        <v>2500</v>
       </c>
       <c r="K347" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L347" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M347" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="N347" t="inlineStr">
         <is>
@@ -25363,7 +25363,7 @@
         </is>
       </c>
       <c r="P347" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="Q347" t="n">
         <v>1</v>
@@ -25389,7 +25389,7 @@
         </is>
       </c>
       <c r="D348" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E348" t="n">
         <v>13</v>
@@ -25409,20 +25409,20 @@
       </c>
       <c r="I348" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J348" t="n">
         <v>1600</v>
       </c>
       <c r="K348" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="L348" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="M348" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="N348" t="inlineStr">
         <is>
@@ -25435,7 +25435,7 @@
         </is>
       </c>
       <c r="P348" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="Q348" t="n">
         <v>1</v>
@@ -25461,7 +25461,7 @@
         </is>
       </c>
       <c r="D349" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E349" t="n">
         <v>13</v>
@@ -25481,20 +25481,20 @@
       </c>
       <c r="I349" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J349" t="n">
-        <v>4300</v>
+        <v>970</v>
       </c>
       <c r="K349" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L349" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M349" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="N349" t="inlineStr">
         <is>
@@ -25503,11 +25503,11 @@
       </c>
       <c r="O349" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P349" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="Q349" t="n">
         <v>1</v>
@@ -25533,7 +25533,7 @@
         </is>
       </c>
       <c r="D350" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E350" t="n">
         <v>13</v>
@@ -25557,16 +25557,16 @@
         </is>
       </c>
       <c r="J350" t="n">
-        <v>3400</v>
+        <v>1600</v>
       </c>
       <c r="K350" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="L350" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="M350" t="n">
-        <v>550</v>
+        <v>900</v>
       </c>
       <c r="N350" t="inlineStr">
         <is>
@@ -25575,11 +25575,11 @@
       </c>
       <c r="O350" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P350" t="n">
-        <v>550</v>
+        <v>900</v>
       </c>
       <c r="Q350" t="n">
         <v>1</v>
@@ -25625,20 +25625,20 @@
       </c>
       <c r="I351" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J351" t="n">
-        <v>2500</v>
+        <v>4300</v>
       </c>
       <c r="K351" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L351" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M351" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="N351" t="inlineStr">
         <is>
@@ -25651,7 +25651,7 @@
         </is>
       </c>
       <c r="P351" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="Q351" t="n">
         <v>1</v>
@@ -25697,20 +25697,20 @@
       </c>
       <c r="I352" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J352" t="n">
-        <v>1600</v>
+        <v>3400</v>
       </c>
       <c r="K352" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L352" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M352" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="N352" t="inlineStr">
         <is>
@@ -25723,7 +25723,7 @@
         </is>
       </c>
       <c r="P352" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="Q352" t="n">
         <v>1</v>
@@ -25749,7 +25749,7 @@
         </is>
       </c>
       <c r="D353" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E353" t="n">
         <v>13</v>
@@ -25769,20 +25769,20 @@
       </c>
       <c r="I353" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J353" t="n">
         <v>2500</v>
       </c>
       <c r="K353" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="L353" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="M353" t="n">
-        <v>950</v>
+        <v>400</v>
       </c>
       <c r="N353" t="inlineStr">
         <is>
@@ -25795,7 +25795,7 @@
         </is>
       </c>
       <c r="P353" t="n">
-        <v>950</v>
+        <v>400</v>
       </c>
       <c r="Q353" t="n">
         <v>1</v>
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="D354" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E354" t="n">
         <v>13</v>
@@ -25841,20 +25841,20 @@
       </c>
       <c r="I354" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J354" t="n">
-        <v>4300</v>
+        <v>1600</v>
       </c>
       <c r="K354" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L354" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="M354" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="N354" t="inlineStr">
         <is>
@@ -25863,11 +25863,11 @@
       </c>
       <c r="O354" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P354" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="Q354" t="n">
         <v>1</v>
@@ -25893,7 +25893,7 @@
         </is>
       </c>
       <c r="D355" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E355" t="n">
         <v>13</v>
@@ -25917,16 +25917,16 @@
         </is>
       </c>
       <c r="J355" t="n">
-        <v>3400</v>
+        <v>2500</v>
       </c>
       <c r="K355" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="L355" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="M355" t="n">
-        <v>650</v>
+        <v>950</v>
       </c>
       <c r="N355" t="inlineStr">
         <is>
@@ -25935,11 +25935,11 @@
       </c>
       <c r="O355" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P355" t="n">
-        <v>650</v>
+        <v>950</v>
       </c>
       <c r="Q355" t="n">
         <v>1</v>
@@ -25985,20 +25985,20 @@
       </c>
       <c r="I356" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J356" t="n">
-        <v>1600</v>
+        <v>4300</v>
       </c>
       <c r="K356" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L356" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M356" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="N356" t="inlineStr">
         <is>
@@ -26011,7 +26011,7 @@
         </is>
       </c>
       <c r="P356" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="Q356" t="n">
         <v>1</v>
@@ -26057,20 +26057,20 @@
       </c>
       <c r="I357" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J357" t="n">
-        <v>1300</v>
+        <v>3400</v>
       </c>
       <c r="K357" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L357" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M357" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="N357" t="inlineStr">
         <is>
@@ -26083,7 +26083,7 @@
         </is>
       </c>
       <c r="P357" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="Q357" t="n">
         <v>1</v>
@@ -26109,7 +26109,7 @@
         </is>
       </c>
       <c r="D358" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E358" t="n">
         <v>13</v>
@@ -26129,20 +26129,20 @@
       </c>
       <c r="I358" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J358" t="n">
-        <v>2500</v>
+        <v>1600</v>
       </c>
       <c r="K358" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L358" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M358" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="N358" t="inlineStr">
         <is>
@@ -26155,7 +26155,7 @@
         </is>
       </c>
       <c r="P358" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="Q358" t="n">
         <v>1</v>
@@ -26181,7 +26181,7 @@
         </is>
       </c>
       <c r="D359" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E359" t="n">
         <v>13</v>
@@ -26205,34 +26205,178 @@
         </is>
       </c>
       <c r="J359" t="n">
-        <v>700</v>
+        <v>1300</v>
       </c>
       <c r="K359" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L359" t="n">
         <v>500</v>
       </c>
       <c r="M359" t="n">
+        <v>450</v>
+      </c>
+      <c r="N359" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O359" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P359" t="n">
+        <v>450</v>
+      </c>
+      <c r="Q359" t="n">
+        <v>1</v>
+      </c>
+      <c r="R359" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="n">
+        <v>9</v>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D360" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E360" t="n">
+        <v>13</v>
+      </c>
+      <c r="F360" t="n">
+        <v>100112008</v>
+      </c>
+      <c r="G360" t="inlineStr">
+        <is>
+          <t>Coliflor</t>
+        </is>
+      </c>
+      <c r="H360" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I360" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J360" t="n">
+        <v>2500</v>
+      </c>
+      <c r="K360" t="n">
+        <v>600</v>
+      </c>
+      <c r="L360" t="n">
+        <v>600</v>
+      </c>
+      <c r="M360" t="n">
+        <v>600</v>
+      </c>
+      <c r="N360" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O360" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P360" t="n">
+        <v>600</v>
+      </c>
+      <c r="Q360" t="n">
+        <v>1</v>
+      </c>
+      <c r="R360" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="n">
+        <v>9</v>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D361" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E361" t="n">
+        <v>13</v>
+      </c>
+      <c r="F361" t="n">
+        <v>100112008</v>
+      </c>
+      <c r="G361" t="inlineStr">
+        <is>
+          <t>Coliflor</t>
+        </is>
+      </c>
+      <c r="H361" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I361" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J361" t="n">
+        <v>700</v>
+      </c>
+      <c r="K361" t="n">
         <v>500</v>
       </c>
-      <c r="N359" t="inlineStr">
-        <is>
-          <t>$/unidad</t>
-        </is>
-      </c>
-      <c r="O359" t="inlineStr">
+      <c r="L361" t="n">
+        <v>500</v>
+      </c>
+      <c r="M361" t="n">
+        <v>500</v>
+      </c>
+      <c r="N361" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O361" t="inlineStr">
         <is>
           <t>Región Metropolitana</t>
         </is>
       </c>
-      <c r="P359" t="n">
+      <c r="P361" t="n">
         <v>500</v>
       </c>
-      <c r="Q359" t="n">
-        <v>1</v>
-      </c>
-      <c r="R359" t="inlineStr">
+      <c r="Q361" t="n">
+        <v>1</v>
+      </c>
+      <c r="R361" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Coliflor.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Coliflor.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R361"/>
+  <dimension ref="A1:R365"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8901,7 +8901,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44299</v>
+        <v>44469</v>
       </c>
       <c r="E119" t="n">
         <v>13</v>
@@ -8925,16 +8925,16 @@
         </is>
       </c>
       <c r="J119" t="n">
-        <v>1600</v>
+        <v>3400</v>
       </c>
       <c r="K119" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="L119" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="M119" t="n">
-        <v>750</v>
+        <v>625</v>
       </c>
       <c r="N119" t="inlineStr">
         <is>
@@ -8947,7 +8947,7 @@
         </is>
       </c>
       <c r="P119" t="n">
-        <v>750</v>
+        <v>625</v>
       </c>
       <c r="Q119" t="n">
         <v>1</v>
@@ -8973,7 +8973,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44320</v>
+        <v>44469</v>
       </c>
       <c r="E120" t="n">
         <v>13</v>
@@ -9000,13 +9000,13 @@
         <v>2500</v>
       </c>
       <c r="K120" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="L120" t="n">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="M120" t="n">
-        <v>700</v>
+        <v>625</v>
       </c>
       <c r="N120" t="inlineStr">
         <is>
@@ -9015,11 +9015,11 @@
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P120" t="n">
-        <v>700</v>
+        <v>625</v>
       </c>
       <c r="Q120" t="n">
         <v>1</v>
@@ -9045,7 +9045,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44320</v>
+        <v>44469</v>
       </c>
       <c r="E121" t="n">
         <v>13</v>
@@ -9069,16 +9069,16 @@
         </is>
       </c>
       <c r="J121" t="n">
-        <v>700</v>
+        <v>1060</v>
       </c>
       <c r="K121" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="L121" t="n">
         <v>500</v>
       </c>
       <c r="M121" t="n">
-        <v>500</v>
+        <v>475</v>
       </c>
       <c r="N121" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         </is>
       </c>
       <c r="P121" t="n">
-        <v>500</v>
+        <v>475</v>
       </c>
       <c r="Q121" t="n">
         <v>1</v>
@@ -9117,7 +9117,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44385</v>
+        <v>44469</v>
       </c>
       <c r="E122" t="n">
         <v>13</v>
@@ -9137,20 +9137,20 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J122" t="n">
-        <v>3400</v>
+        <v>970</v>
       </c>
       <c r="K122" t="n">
+        <v>450</v>
+      </c>
+      <c r="L122" t="n">
         <v>500</v>
       </c>
-      <c r="L122" t="n">
-        <v>600</v>
-      </c>
       <c r="M122" t="n">
-        <v>550</v>
+        <v>475</v>
       </c>
       <c r="N122" t="inlineStr">
         <is>
@@ -9159,11 +9159,11 @@
       </c>
       <c r="O122" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P122" t="n">
-        <v>550</v>
+        <v>475</v>
       </c>
       <c r="Q122" t="n">
         <v>1</v>
@@ -9189,7 +9189,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44385</v>
+        <v>44299</v>
       </c>
       <c r="E123" t="n">
         <v>13</v>
@@ -9213,16 +9213,16 @@
         </is>
       </c>
       <c r="J123" t="n">
-        <v>4300</v>
+        <v>1600</v>
       </c>
       <c r="K123" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L123" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M123" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="N123" t="inlineStr">
         <is>
@@ -9231,11 +9231,11 @@
       </c>
       <c r="O123" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P123" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="Q123" t="n">
         <v>1</v>
@@ -9261,7 +9261,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44385</v>
+        <v>44320</v>
       </c>
       <c r="E124" t="n">
         <v>13</v>
@@ -9281,20 +9281,20 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J124" t="n">
-        <v>970</v>
+        <v>2500</v>
       </c>
       <c r="K124" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="L124" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="M124" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="N124" t="inlineStr">
         <is>
@@ -9307,7 +9307,7 @@
         </is>
       </c>
       <c r="P124" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="Q124" t="n">
         <v>1</v>
@@ -9333,7 +9333,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44385</v>
+        <v>44320</v>
       </c>
       <c r="E125" t="n">
         <v>13</v>
@@ -9357,16 +9357,16 @@
         </is>
       </c>
       <c r="J125" t="n">
-        <v>1600</v>
+        <v>700</v>
       </c>
       <c r="K125" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L125" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M125" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N125" t="inlineStr">
         <is>
@@ -9375,11 +9375,11 @@
       </c>
       <c r="O125" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P125" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Q125" t="n">
         <v>1</v>
@@ -9405,7 +9405,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44391</v>
+        <v>44385</v>
       </c>
       <c r="E126" t="n">
         <v>13</v>
@@ -9429,7 +9429,7 @@
         </is>
       </c>
       <c r="J126" t="n">
-        <v>1600</v>
+        <v>3400</v>
       </c>
       <c r="K126" t="n">
         <v>500</v>
@@ -9477,7 +9477,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44391</v>
+        <v>44385</v>
       </c>
       <c r="E127" t="n">
         <v>13</v>
@@ -9501,7 +9501,7 @@
         </is>
       </c>
       <c r="J127" t="n">
-        <v>2500</v>
+        <v>4300</v>
       </c>
       <c r="K127" t="n">
         <v>500</v>
@@ -9549,7 +9549,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44391</v>
+        <v>44385</v>
       </c>
       <c r="E128" t="n">
         <v>13</v>
@@ -9573,7 +9573,7 @@
         </is>
       </c>
       <c r="J128" t="n">
-        <v>520</v>
+        <v>970</v>
       </c>
       <c r="K128" t="n">
         <v>400</v>
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44391</v>
+        <v>44385</v>
       </c>
       <c r="E129" t="n">
         <v>13</v>
@@ -9645,7 +9645,7 @@
         </is>
       </c>
       <c r="J129" t="n">
-        <v>970</v>
+        <v>1600</v>
       </c>
       <c r="K129" t="n">
         <v>400</v>
@@ -9693,7 +9693,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44417</v>
+        <v>44391</v>
       </c>
       <c r="E130" t="n">
         <v>13</v>
@@ -9720,13 +9720,13 @@
         <v>1600</v>
       </c>
       <c r="K130" t="n">
+        <v>500</v>
+      </c>
+      <c r="L130" t="n">
         <v>600</v>
       </c>
-      <c r="L130" t="n">
-        <v>700</v>
-      </c>
       <c r="M130" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="N130" t="inlineStr">
         <is>
@@ -9739,7 +9739,7 @@
         </is>
       </c>
       <c r="P130" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="Q130" t="n">
         <v>1</v>
@@ -9765,7 +9765,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44229</v>
+        <v>44391</v>
       </c>
       <c r="E131" t="n">
         <v>13</v>
@@ -9789,16 +9789,16 @@
         </is>
       </c>
       <c r="J131" t="n">
-        <v>1800</v>
+        <v>2500</v>
       </c>
       <c r="K131" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="L131" t="n">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="M131" t="n">
-        <v>1089</v>
+        <v>550</v>
       </c>
       <c r="N131" t="inlineStr">
         <is>
@@ -9807,11 +9807,11 @@
       </c>
       <c r="O131" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P131" t="n">
-        <v>1089</v>
+        <v>550</v>
       </c>
       <c r="Q131" t="n">
         <v>1</v>
@@ -9837,7 +9837,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44245</v>
+        <v>44391</v>
       </c>
       <c r="E132" t="n">
         <v>13</v>
@@ -9857,20 +9857,20 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J132" t="n">
-        <v>1600</v>
+        <v>520</v>
       </c>
       <c r="K132" t="n">
-        <v>1200</v>
+        <v>400</v>
       </c>
       <c r="L132" t="n">
-        <v>1200</v>
+        <v>400</v>
       </c>
       <c r="M132" t="n">
-        <v>1200</v>
+        <v>400</v>
       </c>
       <c r="N132" t="inlineStr">
         <is>
@@ -9883,7 +9883,7 @@
         </is>
       </c>
       <c r="P132" t="n">
-        <v>1200</v>
+        <v>400</v>
       </c>
       <c r="Q132" t="n">
         <v>1</v>
@@ -9909,7 +9909,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44334</v>
+        <v>44391</v>
       </c>
       <c r="E133" t="n">
         <v>13</v>
@@ -9929,20 +9929,20 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J133" t="n">
-        <v>4300</v>
+        <v>970</v>
       </c>
       <c r="K133" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L133" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="M133" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="N133" t="inlineStr">
         <is>
@@ -9951,11 +9951,11 @@
       </c>
       <c r="O133" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P133" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="Q133" t="n">
         <v>1</v>
@@ -9981,7 +9981,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44334</v>
+        <v>44417</v>
       </c>
       <c r="E134" t="n">
         <v>13</v>
@@ -10005,7 +10005,7 @@
         </is>
       </c>
       <c r="J134" t="n">
-        <v>5200</v>
+        <v>1600</v>
       </c>
       <c r="K134" t="n">
         <v>600</v>
@@ -10023,7 +10023,7 @@
       </c>
       <c r="O134" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P134" t="n">
@@ -10053,7 +10053,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44334</v>
+        <v>44229</v>
       </c>
       <c r="E135" t="n">
         <v>13</v>
@@ -10073,20 +10073,20 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J135" t="n">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="K135" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="L135" t="n">
-        <v>400</v>
+        <v>1200</v>
       </c>
       <c r="M135" t="n">
-        <v>400</v>
+        <v>1089</v>
       </c>
       <c r="N135" t="inlineStr">
         <is>
@@ -10095,11 +10095,11 @@
       </c>
       <c r="O135" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P135" t="n">
-        <v>400</v>
+        <v>1089</v>
       </c>
       <c r="Q135" t="n">
         <v>1</v>
@@ -10125,7 +10125,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44334</v>
+        <v>44245</v>
       </c>
       <c r="E136" t="n">
         <v>13</v>
@@ -10145,20 +10145,20 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J136" t="n">
-        <v>2500</v>
+        <v>1600</v>
       </c>
       <c r="K136" t="n">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="L136" t="n">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="M136" t="n">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="N136" t="inlineStr">
         <is>
@@ -10167,11 +10167,11 @@
       </c>
       <c r="O136" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P136" t="n">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="Q136" t="n">
         <v>1</v>
@@ -10197,7 +10197,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44419</v>
+        <v>44334</v>
       </c>
       <c r="E137" t="n">
         <v>13</v>
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="J137" t="n">
-        <v>3400</v>
+        <v>4300</v>
       </c>
       <c r="K137" t="n">
         <v>600</v>
@@ -10269,7 +10269,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44419</v>
+        <v>44334</v>
       </c>
       <c r="E138" t="n">
         <v>13</v>
@@ -10293,7 +10293,7 @@
         </is>
       </c>
       <c r="J138" t="n">
-        <v>2500</v>
+        <v>5200</v>
       </c>
       <c r="K138" t="n">
         <v>600</v>
@@ -10341,7 +10341,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44419</v>
+        <v>44334</v>
       </c>
       <c r="E139" t="n">
         <v>13</v>
@@ -10365,16 +10365,16 @@
         </is>
       </c>
       <c r="J139" t="n">
-        <v>970</v>
+        <v>1600</v>
       </c>
       <c r="K139" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L139" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M139" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="N139" t="inlineStr">
         <is>
@@ -10387,7 +10387,7 @@
         </is>
       </c>
       <c r="P139" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="Q139" t="n">
         <v>1</v>
@@ -10413,7 +10413,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44419</v>
+        <v>44334</v>
       </c>
       <c r="E140" t="n">
         <v>13</v>
@@ -10437,7 +10437,7 @@
         </is>
       </c>
       <c r="J140" t="n">
-        <v>790</v>
+        <v>2500</v>
       </c>
       <c r="K140" t="n">
         <v>500</v>
@@ -10485,7 +10485,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44250</v>
+        <v>44419</v>
       </c>
       <c r="E141" t="n">
         <v>13</v>
@@ -10509,16 +10509,16 @@
         </is>
       </c>
       <c r="J141" t="n">
+        <v>3400</v>
+      </c>
+      <c r="K141" t="n">
+        <v>600</v>
+      </c>
+      <c r="L141" t="n">
         <v>700</v>
       </c>
-      <c r="K141" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L141" t="n">
-        <v>1000</v>
-      </c>
       <c r="M141" t="n">
-        <v>1000</v>
+        <v>650</v>
       </c>
       <c r="N141" t="inlineStr">
         <is>
@@ -10531,7 +10531,7 @@
         </is>
       </c>
       <c r="P141" t="n">
-        <v>1000</v>
+        <v>650</v>
       </c>
       <c r="Q141" t="n">
         <v>1</v>
@@ -10557,7 +10557,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44467</v>
+        <v>44419</v>
       </c>
       <c r="E142" t="n">
         <v>13</v>
@@ -10581,16 +10581,16 @@
         </is>
       </c>
       <c r="J142" t="n">
-        <v>3400</v>
+        <v>2500</v>
       </c>
       <c r="K142" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="L142" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M142" t="n">
-        <v>575</v>
+        <v>650</v>
       </c>
       <c r="N142" t="inlineStr">
         <is>
@@ -10599,11 +10599,11 @@
       </c>
       <c r="O142" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P142" t="n">
-        <v>575</v>
+        <v>650</v>
       </c>
       <c r="Q142" t="n">
         <v>1</v>
@@ -10629,7 +10629,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44467</v>
+        <v>44419</v>
       </c>
       <c r="E143" t="n">
         <v>13</v>
@@ -10649,20 +10649,20 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J143" t="n">
-        <v>2500</v>
+        <v>970</v>
       </c>
       <c r="K143" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="L143" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M143" t="n">
-        <v>575</v>
+        <v>500</v>
       </c>
       <c r="N143" t="inlineStr">
         <is>
@@ -10671,11 +10671,11 @@
       </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P143" t="n">
-        <v>575</v>
+        <v>500</v>
       </c>
       <c r="Q143" t="n">
         <v>1</v>
@@ -10701,7 +10701,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44467</v>
+        <v>44419</v>
       </c>
       <c r="E144" t="n">
         <v>13</v>
@@ -10725,16 +10725,16 @@
         </is>
       </c>
       <c r="J144" t="n">
-        <v>1330</v>
+        <v>790</v>
       </c>
       <c r="K144" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L144" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="M144" t="n">
-        <v>425</v>
+        <v>500</v>
       </c>
       <c r="N144" t="inlineStr">
         <is>
@@ -10743,11 +10743,11 @@
       </c>
       <c r="O144" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P144" t="n">
-        <v>425</v>
+        <v>500</v>
       </c>
       <c r="Q144" t="n">
         <v>1</v>
@@ -10773,7 +10773,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44467</v>
+        <v>44250</v>
       </c>
       <c r="E145" t="n">
         <v>13</v>
@@ -10793,20 +10793,20 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J145" t="n">
-        <v>970</v>
+        <v>700</v>
       </c>
       <c r="K145" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="L145" t="n">
-        <v>450</v>
+        <v>1000</v>
       </c>
       <c r="M145" t="n">
-        <v>425</v>
+        <v>1000</v>
       </c>
       <c r="N145" t="inlineStr">
         <is>
@@ -10815,11 +10815,11 @@
       </c>
       <c r="O145" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P145" t="n">
-        <v>425</v>
+        <v>1000</v>
       </c>
       <c r="Q145" t="n">
         <v>1</v>
@@ -10845,7 +10845,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44342</v>
+        <v>44467</v>
       </c>
       <c r="E146" t="n">
         <v>13</v>
@@ -10869,16 +10869,16 @@
         </is>
       </c>
       <c r="J146" t="n">
-        <v>2400</v>
+        <v>3400</v>
       </c>
       <c r="K146" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L146" t="n">
         <v>600</v>
       </c>
       <c r="M146" t="n">
-        <v>550</v>
+        <v>575</v>
       </c>
       <c r="N146" t="inlineStr">
         <is>
@@ -10891,7 +10891,7 @@
         </is>
       </c>
       <c r="P146" t="n">
-        <v>550</v>
+        <v>575</v>
       </c>
       <c r="Q146" t="n">
         <v>1</v>
@@ -10917,7 +10917,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44342</v>
+        <v>44467</v>
       </c>
       <c r="E147" t="n">
         <v>13</v>
@@ -10941,16 +10941,16 @@
         </is>
       </c>
       <c r="J147" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="K147" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L147" t="n">
         <v>600</v>
       </c>
       <c r="M147" t="n">
-        <v>550</v>
+        <v>575</v>
       </c>
       <c r="N147" t="inlineStr">
         <is>
@@ -10963,7 +10963,7 @@
         </is>
       </c>
       <c r="P147" t="n">
-        <v>550</v>
+        <v>575</v>
       </c>
       <c r="Q147" t="n">
         <v>1</v>
@@ -10989,7 +10989,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44225</v>
+        <v>44467</v>
       </c>
       <c r="E148" t="n">
         <v>13</v>
@@ -11009,20 +11009,20 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J148" t="n">
-        <v>2200</v>
+        <v>1330</v>
       </c>
       <c r="K148" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="L148" t="n">
-        <v>1200</v>
+        <v>450</v>
       </c>
       <c r="M148" t="n">
-        <v>1091</v>
+        <v>425</v>
       </c>
       <c r="N148" t="inlineStr">
         <is>
@@ -11035,7 +11035,7 @@
         </is>
       </c>
       <c r="P148" t="n">
-        <v>1091</v>
+        <v>425</v>
       </c>
       <c r="Q148" t="n">
         <v>1</v>
@@ -11061,7 +11061,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44434</v>
+        <v>44467</v>
       </c>
       <c r="E149" t="n">
         <v>13</v>
@@ -11081,20 +11081,20 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J149" t="n">
-        <v>3400</v>
+        <v>970</v>
       </c>
       <c r="K149" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L149" t="n">
-        <v>650</v>
+        <v>450</v>
       </c>
       <c r="M149" t="n">
-        <v>625</v>
+        <v>425</v>
       </c>
       <c r="N149" t="inlineStr">
         <is>
@@ -11103,11 +11103,11 @@
       </c>
       <c r="O149" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P149" t="n">
-        <v>625</v>
+        <v>425</v>
       </c>
       <c r="Q149" t="n">
         <v>1</v>
@@ -11133,7 +11133,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44434</v>
+        <v>44342</v>
       </c>
       <c r="E150" t="n">
         <v>13</v>
@@ -11157,16 +11157,16 @@
         </is>
       </c>
       <c r="J150" t="n">
-        <v>4300</v>
+        <v>2400</v>
       </c>
       <c r="K150" t="n">
+        <v>500</v>
+      </c>
+      <c r="L150" t="n">
         <v>600</v>
       </c>
-      <c r="L150" t="n">
-        <v>650</v>
-      </c>
       <c r="M150" t="n">
-        <v>625</v>
+        <v>550</v>
       </c>
       <c r="N150" t="inlineStr">
         <is>
@@ -11175,11 +11175,11 @@
       </c>
       <c r="O150" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P150" t="n">
-        <v>625</v>
+        <v>550</v>
       </c>
       <c r="Q150" t="n">
         <v>1</v>
@@ -11205,7 +11205,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44434</v>
+        <v>44342</v>
       </c>
       <c r="E151" t="n">
         <v>13</v>
@@ -11225,21 +11225,21 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J151" t="n">
-        <v>970</v>
+        <v>2800</v>
       </c>
       <c r="K151" t="n">
         <v>500</v>
       </c>
       <c r="L151" t="n">
+        <v>600</v>
+      </c>
+      <c r="M151" t="n">
         <v>550</v>
       </c>
-      <c r="M151" t="n">
-        <v>525</v>
-      </c>
       <c r="N151" t="inlineStr">
         <is>
           <t>$/unidad</t>
@@ -11247,11 +11247,11 @@
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P151" t="n">
-        <v>525</v>
+        <v>550</v>
       </c>
       <c r="Q151" t="n">
         <v>1</v>
@@ -11277,7 +11277,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44434</v>
+        <v>44225</v>
       </c>
       <c r="E152" t="n">
         <v>13</v>
@@ -11297,20 +11297,20 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J152" t="n">
-        <v>1600</v>
+        <v>2200</v>
       </c>
       <c r="K152" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="L152" t="n">
-        <v>550</v>
+        <v>1200</v>
       </c>
       <c r="M152" t="n">
-        <v>525</v>
+        <v>1091</v>
       </c>
       <c r="N152" t="inlineStr">
         <is>
@@ -11319,11 +11319,11 @@
       </c>
       <c r="O152" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P152" t="n">
-        <v>525</v>
+        <v>1091</v>
       </c>
       <c r="Q152" t="n">
         <v>1</v>
@@ -11349,7 +11349,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44327</v>
+        <v>44434</v>
       </c>
       <c r="E153" t="n">
         <v>13</v>
@@ -11373,16 +11373,16 @@
         </is>
       </c>
       <c r="J153" t="n">
-        <v>4300</v>
+        <v>3400</v>
       </c>
       <c r="K153" t="n">
         <v>600</v>
       </c>
       <c r="L153" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="M153" t="n">
-        <v>600</v>
+        <v>625</v>
       </c>
       <c r="N153" t="inlineStr">
         <is>
@@ -11391,11 +11391,11 @@
       </c>
       <c r="O153" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P153" t="n">
-        <v>600</v>
+        <v>625</v>
       </c>
       <c r="Q153" t="n">
         <v>1</v>
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44327</v>
+        <v>44434</v>
       </c>
       <c r="E154" t="n">
         <v>13</v>
@@ -11441,20 +11441,20 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J154" t="n">
-        <v>1600</v>
+        <v>4300</v>
       </c>
       <c r="K154" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L154" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="M154" t="n">
-        <v>400</v>
+        <v>625</v>
       </c>
       <c r="N154" t="inlineStr">
         <is>
@@ -11467,7 +11467,7 @@
         </is>
       </c>
       <c r="P154" t="n">
-        <v>400</v>
+        <v>625</v>
       </c>
       <c r="Q154" t="n">
         <v>1</v>
@@ -11493,7 +11493,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44321</v>
+        <v>44434</v>
       </c>
       <c r="E155" t="n">
         <v>13</v>
@@ -11513,20 +11513,20 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J155" t="n">
-        <v>2500</v>
+        <v>970</v>
       </c>
       <c r="K155" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L155" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="M155" t="n">
-        <v>600</v>
+        <v>525</v>
       </c>
       <c r="N155" t="inlineStr">
         <is>
@@ -11539,7 +11539,7 @@
         </is>
       </c>
       <c r="P155" t="n">
-        <v>600</v>
+        <v>525</v>
       </c>
       <c r="Q155" t="n">
         <v>1</v>
@@ -11565,7 +11565,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44321</v>
+        <v>44434</v>
       </c>
       <c r="E156" t="n">
         <v>13</v>
@@ -11585,20 +11585,20 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J156" t="n">
         <v>1600</v>
       </c>
       <c r="K156" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L156" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="M156" t="n">
-        <v>600</v>
+        <v>525</v>
       </c>
       <c r="N156" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         </is>
       </c>
       <c r="P156" t="n">
-        <v>600</v>
+        <v>525</v>
       </c>
       <c r="Q156" t="n">
         <v>1</v>
@@ -11637,7 +11637,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44300</v>
+        <v>44327</v>
       </c>
       <c r="E157" t="n">
         <v>13</v>
@@ -11661,16 +11661,16 @@
         </is>
       </c>
       <c r="J157" t="n">
-        <v>1600</v>
+        <v>4300</v>
       </c>
       <c r="K157" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="L157" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M157" t="n">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="N157" t="inlineStr">
         <is>
@@ -11679,11 +11679,11 @@
       </c>
       <c r="O157" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P157" t="n">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="Q157" t="n">
         <v>1</v>
@@ -11709,7 +11709,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44399</v>
+        <v>44327</v>
       </c>
       <c r="E158" t="n">
         <v>13</v>
@@ -11729,20 +11729,20 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J158" t="n">
-        <v>4300</v>
+        <v>1600</v>
       </c>
       <c r="K158" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L158" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M158" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="N158" t="inlineStr">
         <is>
@@ -11751,11 +11751,11 @@
       </c>
       <c r="O158" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P158" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="Q158" t="n">
         <v>1</v>
@@ -11781,7 +11781,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44399</v>
+        <v>44321</v>
       </c>
       <c r="E159" t="n">
         <v>13</v>
@@ -11805,16 +11805,16 @@
         </is>
       </c>
       <c r="J159" t="n">
-        <v>3400</v>
+        <v>2500</v>
       </c>
       <c r="K159" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L159" t="n">
         <v>600</v>
       </c>
       <c r="M159" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="N159" t="inlineStr">
         <is>
@@ -11823,11 +11823,11 @@
       </c>
       <c r="O159" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P159" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="Q159" t="n">
         <v>1</v>
@@ -11853,7 +11853,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44399</v>
+        <v>44321</v>
       </c>
       <c r="E160" t="n">
         <v>13</v>
@@ -11873,20 +11873,20 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J160" t="n">
         <v>1600</v>
       </c>
       <c r="K160" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L160" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M160" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="N160" t="inlineStr">
         <is>
@@ -11895,11 +11895,11 @@
       </c>
       <c r="O160" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P160" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="Q160" t="n">
         <v>1</v>
@@ -11925,7 +11925,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44399</v>
+        <v>44300</v>
       </c>
       <c r="E161" t="n">
         <v>13</v>
@@ -11945,20 +11945,20 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J161" t="n">
-        <v>970</v>
+        <v>1600</v>
       </c>
       <c r="K161" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="L161" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="M161" t="n">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="N161" t="inlineStr">
         <is>
@@ -11967,11 +11967,11 @@
       </c>
       <c r="O161" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P161" t="n">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="Q161" t="n">
         <v>1</v>
@@ -11997,7 +11997,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44218</v>
+        <v>44399</v>
       </c>
       <c r="E162" t="n">
         <v>13</v>
@@ -12021,16 +12021,16 @@
         </is>
       </c>
       <c r="J162" t="n">
-        <v>2200</v>
+        <v>4300</v>
       </c>
       <c r="K162" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="L162" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="M162" t="n">
-        <v>955</v>
+        <v>550</v>
       </c>
       <c r="N162" t="inlineStr">
         <is>
@@ -12043,7 +12043,7 @@
         </is>
       </c>
       <c r="P162" t="n">
-        <v>955</v>
+        <v>550</v>
       </c>
       <c r="Q162" t="n">
         <v>1</v>
@@ -12069,7 +12069,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44383</v>
+        <v>44399</v>
       </c>
       <c r="E163" t="n">
         <v>13</v>
@@ -12093,7 +12093,7 @@
         </is>
       </c>
       <c r="J163" t="n">
-        <v>4300</v>
+        <v>3400</v>
       </c>
       <c r="K163" t="n">
         <v>500</v>
@@ -12111,7 +12111,7 @@
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P163" t="n">
@@ -12141,7 +12141,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44383</v>
+        <v>44399</v>
       </c>
       <c r="E164" t="n">
         <v>13</v>
@@ -12161,20 +12161,20 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J164" t="n">
-        <v>3400</v>
+        <v>1600</v>
       </c>
       <c r="K164" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L164" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M164" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="N164" t="inlineStr">
         <is>
@@ -12183,11 +12183,11 @@
       </c>
       <c r="O164" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P164" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="Q164" t="n">
         <v>1</v>
@@ -12213,7 +12213,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44383</v>
+        <v>44399</v>
       </c>
       <c r="E165" t="n">
         <v>13</v>
@@ -12237,7 +12237,7 @@
         </is>
       </c>
       <c r="J165" t="n">
-        <v>1600</v>
+        <v>970</v>
       </c>
       <c r="K165" t="n">
         <v>400</v>
@@ -12255,7 +12255,7 @@
       </c>
       <c r="O165" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P165" t="n">
@@ -12285,7 +12285,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44383</v>
+        <v>44218</v>
       </c>
       <c r="E166" t="n">
         <v>13</v>
@@ -12305,20 +12305,20 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J166" t="n">
-        <v>970</v>
+        <v>2200</v>
       </c>
       <c r="K166" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="L166" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="M166" t="n">
-        <v>400</v>
+        <v>955</v>
       </c>
       <c r="N166" t="inlineStr">
         <is>
@@ -12327,11 +12327,11 @@
       </c>
       <c r="O166" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P166" t="n">
-        <v>400</v>
+        <v>955</v>
       </c>
       <c r="Q166" t="n">
         <v>1</v>
@@ -12357,7 +12357,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44441</v>
+        <v>44383</v>
       </c>
       <c r="E167" t="n">
         <v>13</v>
@@ -12381,16 +12381,16 @@
         </is>
       </c>
       <c r="J167" t="n">
-        <v>3400</v>
+        <v>4300</v>
       </c>
       <c r="K167" t="n">
+        <v>500</v>
+      </c>
+      <c r="L167" t="n">
         <v>600</v>
       </c>
-      <c r="L167" t="n">
-        <v>650</v>
-      </c>
       <c r="M167" t="n">
-        <v>625</v>
+        <v>550</v>
       </c>
       <c r="N167" t="inlineStr">
         <is>
@@ -12403,7 +12403,7 @@
         </is>
       </c>
       <c r="P167" t="n">
-        <v>625</v>
+        <v>550</v>
       </c>
       <c r="Q167" t="n">
         <v>1</v>
@@ -12429,7 +12429,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44441</v>
+        <v>44383</v>
       </c>
       <c r="E168" t="n">
         <v>13</v>
@@ -12453,16 +12453,16 @@
         </is>
       </c>
       <c r="J168" t="n">
-        <v>2500</v>
+        <v>3400</v>
       </c>
       <c r="K168" t="n">
+        <v>500</v>
+      </c>
+      <c r="L168" t="n">
         <v>600</v>
       </c>
-      <c r="L168" t="n">
-        <v>650</v>
-      </c>
       <c r="M168" t="n">
-        <v>625</v>
+        <v>550</v>
       </c>
       <c r="N168" t="inlineStr">
         <is>
@@ -12475,7 +12475,7 @@
         </is>
       </c>
       <c r="P168" t="n">
-        <v>625</v>
+        <v>550</v>
       </c>
       <c r="Q168" t="n">
         <v>1</v>
@@ -12501,7 +12501,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44441</v>
+        <v>44383</v>
       </c>
       <c r="E169" t="n">
         <v>13</v>
@@ -12525,16 +12525,16 @@
         </is>
       </c>
       <c r="J169" t="n">
-        <v>970</v>
+        <v>1600</v>
       </c>
       <c r="K169" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L169" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="M169" t="n">
-        <v>525</v>
+        <v>400</v>
       </c>
       <c r="N169" t="inlineStr">
         <is>
@@ -12547,7 +12547,7 @@
         </is>
       </c>
       <c r="P169" t="n">
-        <v>525</v>
+        <v>400</v>
       </c>
       <c r="Q169" t="n">
         <v>1</v>
@@ -12573,7 +12573,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44441</v>
+        <v>44383</v>
       </c>
       <c r="E170" t="n">
         <v>13</v>
@@ -12597,16 +12597,16 @@
         </is>
       </c>
       <c r="J170" t="n">
-        <v>790</v>
+        <v>970</v>
       </c>
       <c r="K170" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L170" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="M170" t="n">
-        <v>525</v>
+        <v>400</v>
       </c>
       <c r="N170" t="inlineStr">
         <is>
@@ -12619,7 +12619,7 @@
         </is>
       </c>
       <c r="P170" t="n">
-        <v>525</v>
+        <v>400</v>
       </c>
       <c r="Q170" t="n">
         <v>1</v>
@@ -12645,7 +12645,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44405</v>
+        <v>44441</v>
       </c>
       <c r="E171" t="n">
         <v>13</v>
@@ -12669,16 +12669,16 @@
         </is>
       </c>
       <c r="J171" t="n">
-        <v>1600</v>
+        <v>3400</v>
       </c>
       <c r="K171" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L171" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="M171" t="n">
-        <v>550</v>
+        <v>625</v>
       </c>
       <c r="N171" t="inlineStr">
         <is>
@@ -12687,11 +12687,11 @@
       </c>
       <c r="O171" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P171" t="n">
-        <v>550</v>
+        <v>625</v>
       </c>
       <c r="Q171" t="n">
         <v>1</v>
@@ -12717,7 +12717,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44405</v>
+        <v>44441</v>
       </c>
       <c r="E172" t="n">
         <v>13</v>
@@ -12737,20 +12737,20 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J172" t="n">
-        <v>790</v>
+        <v>2500</v>
       </c>
       <c r="K172" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L172" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="M172" t="n">
-        <v>400</v>
+        <v>625</v>
       </c>
       <c r="N172" t="inlineStr">
         <is>
@@ -12763,7 +12763,7 @@
         </is>
       </c>
       <c r="P172" t="n">
-        <v>400</v>
+        <v>625</v>
       </c>
       <c r="Q172" t="n">
         <v>1</v>
@@ -12789,7 +12789,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44246</v>
+        <v>44441</v>
       </c>
       <c r="E173" t="n">
         <v>13</v>
@@ -12809,20 +12809,20 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J173" t="n">
-        <v>1600</v>
+        <v>970</v>
       </c>
       <c r="K173" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="L173" t="n">
-        <v>1200</v>
+        <v>550</v>
       </c>
       <c r="M173" t="n">
-        <v>1200</v>
+        <v>525</v>
       </c>
       <c r="N173" t="inlineStr">
         <is>
@@ -12835,7 +12835,7 @@
         </is>
       </c>
       <c r="P173" t="n">
-        <v>1200</v>
+        <v>525</v>
       </c>
       <c r="Q173" t="n">
         <v>1</v>
@@ -12861,7 +12861,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44161</v>
+        <v>44441</v>
       </c>
       <c r="E174" t="n">
         <v>13</v>
@@ -12881,20 +12881,20 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J174" t="n">
-        <v>4500</v>
+        <v>790</v>
       </c>
       <c r="K174" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L174" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="M174" t="n">
-        <v>456</v>
+        <v>525</v>
       </c>
       <c r="N174" t="inlineStr">
         <is>
@@ -12903,11 +12903,11 @@
       </c>
       <c r="O174" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P174" t="n">
-        <v>456</v>
+        <v>525</v>
       </c>
       <c r="Q174" t="n">
         <v>1</v>
@@ -12933,7 +12933,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44407</v>
+        <v>44405</v>
       </c>
       <c r="E175" t="n">
         <v>13</v>
@@ -12957,7 +12957,7 @@
         </is>
       </c>
       <c r="J175" t="n">
-        <v>2500</v>
+        <v>1600</v>
       </c>
       <c r="K175" t="n">
         <v>500</v>
@@ -12975,7 +12975,7 @@
       </c>
       <c r="O175" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P175" t="n">
@@ -13005,7 +13005,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44407</v>
+        <v>44405</v>
       </c>
       <c r="E176" t="n">
         <v>13</v>
@@ -13025,20 +13025,20 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J176" t="n">
-        <v>3400</v>
+        <v>790</v>
       </c>
       <c r="K176" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L176" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M176" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="N176" t="inlineStr">
         <is>
@@ -13051,7 +13051,7 @@
         </is>
       </c>
       <c r="P176" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="Q176" t="n">
         <v>1</v>
@@ -13077,7 +13077,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44407</v>
+        <v>44246</v>
       </c>
       <c r="E177" t="n">
         <v>13</v>
@@ -13097,20 +13097,20 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J177" t="n">
-        <v>790</v>
+        <v>1600</v>
       </c>
       <c r="K177" t="n">
-        <v>400</v>
+        <v>1200</v>
       </c>
       <c r="L177" t="n">
-        <v>400</v>
+        <v>1200</v>
       </c>
       <c r="M177" t="n">
-        <v>400</v>
+        <v>1200</v>
       </c>
       <c r="N177" t="inlineStr">
         <is>
@@ -13123,7 +13123,7 @@
         </is>
       </c>
       <c r="P177" t="n">
-        <v>400</v>
+        <v>1200</v>
       </c>
       <c r="Q177" t="n">
         <v>1</v>
@@ -13149,7 +13149,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44407</v>
+        <v>44161</v>
       </c>
       <c r="E178" t="n">
         <v>13</v>
@@ -13169,20 +13169,20 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J178" t="n">
-        <v>970</v>
+        <v>4500</v>
       </c>
       <c r="K178" t="n">
         <v>400</v>
       </c>
       <c r="L178" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M178" t="n">
-        <v>400</v>
+        <v>456</v>
       </c>
       <c r="N178" t="inlineStr">
         <is>
@@ -13191,11 +13191,11 @@
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P178" t="n">
-        <v>400</v>
+        <v>456</v>
       </c>
       <c r="Q178" t="n">
         <v>1</v>
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44307</v>
+        <v>44407</v>
       </c>
       <c r="E179" t="n">
         <v>13</v>
@@ -13245,16 +13245,16 @@
         </is>
       </c>
       <c r="J179" t="n">
-        <v>2100</v>
+        <v>2500</v>
       </c>
       <c r="K179" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L179" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M179" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="N179" t="inlineStr">
         <is>
@@ -13267,7 +13267,7 @@
         </is>
       </c>
       <c r="P179" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="Q179" t="n">
         <v>1</v>
@@ -13293,7 +13293,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44336</v>
+        <v>44407</v>
       </c>
       <c r="E180" t="n">
         <v>13</v>
@@ -13317,16 +13317,16 @@
         </is>
       </c>
       <c r="J180" t="n">
-        <v>4300</v>
+        <v>3400</v>
       </c>
       <c r="K180" t="n">
+        <v>500</v>
+      </c>
+      <c r="L180" t="n">
         <v>600</v>
       </c>
-      <c r="L180" t="n">
-        <v>700</v>
-      </c>
       <c r="M180" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="N180" t="inlineStr">
         <is>
@@ -13335,11 +13335,11 @@
       </c>
       <c r="O180" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P180" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="Q180" t="n">
         <v>1</v>
@@ -13365,7 +13365,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44336</v>
+        <v>44407</v>
       </c>
       <c r="E181" t="n">
         <v>13</v>
@@ -13385,20 +13385,20 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J181" t="n">
-        <v>3400</v>
+        <v>790</v>
       </c>
       <c r="K181" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L181" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="M181" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="N181" t="inlineStr">
         <is>
@@ -13407,11 +13407,11 @@
       </c>
       <c r="O181" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P181" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="Q181" t="n">
         <v>1</v>
@@ -13437,7 +13437,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44336</v>
+        <v>44407</v>
       </c>
       <c r="E182" t="n">
         <v>13</v>
@@ -13461,7 +13461,7 @@
         </is>
       </c>
       <c r="J182" t="n">
-        <v>1600</v>
+        <v>970</v>
       </c>
       <c r="K182" t="n">
         <v>400</v>
@@ -13479,7 +13479,7 @@
       </c>
       <c r="O182" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P182" t="n">
@@ -13509,7 +13509,7 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>44336</v>
+        <v>44307</v>
       </c>
       <c r="E183" t="n">
         <v>13</v>
@@ -13529,20 +13529,20 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J183" t="n">
-        <v>1600</v>
+        <v>2100</v>
       </c>
       <c r="K183" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L183" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M183" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="N183" t="inlineStr">
         <is>
@@ -13551,11 +13551,11 @@
       </c>
       <c r="O183" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P183" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="Q183" t="n">
         <v>1</v>
@@ -13581,7 +13581,7 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>44341</v>
+        <v>44336</v>
       </c>
       <c r="E184" t="n">
         <v>13</v>
@@ -13605,16 +13605,16 @@
         </is>
       </c>
       <c r="J184" t="n">
-        <v>7600</v>
+        <v>4300</v>
       </c>
       <c r="K184" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L184" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M184" t="n">
-        <v>551</v>
+        <v>650</v>
       </c>
       <c r="N184" t="inlineStr">
         <is>
@@ -13627,7 +13627,7 @@
         </is>
       </c>
       <c r="P184" t="n">
-        <v>551</v>
+        <v>650</v>
       </c>
       <c r="Q184" t="n">
         <v>1</v>
@@ -13653,7 +13653,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44341</v>
+        <v>44336</v>
       </c>
       <c r="E185" t="n">
         <v>13</v>
@@ -13677,16 +13677,16 @@
         </is>
       </c>
       <c r="J185" t="n">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="K185" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L185" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M185" t="n">
-        <v>551</v>
+        <v>650</v>
       </c>
       <c r="N185" t="inlineStr">
         <is>
@@ -13699,7 +13699,7 @@
         </is>
       </c>
       <c r="P185" t="n">
-        <v>551</v>
+        <v>650</v>
       </c>
       <c r="Q185" t="n">
         <v>1</v>
@@ -13725,7 +13725,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44274</v>
+        <v>44336</v>
       </c>
       <c r="E186" t="n">
         <v>13</v>
@@ -13745,20 +13745,20 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J186" t="n">
         <v>1600</v>
       </c>
       <c r="K186" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="L186" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="M186" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="N186" t="inlineStr">
         <is>
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="P186" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="Q186" t="n">
         <v>1</v>
@@ -13797,7 +13797,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44426</v>
+        <v>44336</v>
       </c>
       <c r="E187" t="n">
         <v>13</v>
@@ -13817,20 +13817,20 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J187" t="n">
-        <v>3400</v>
+        <v>1600</v>
       </c>
       <c r="K187" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L187" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M187" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="N187" t="inlineStr">
         <is>
@@ -13839,11 +13839,11 @@
       </c>
       <c r="O187" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P187" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="Q187" t="n">
         <v>1</v>
@@ -13869,7 +13869,7 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>44426</v>
+        <v>44341</v>
       </c>
       <c r="E188" t="n">
         <v>13</v>
@@ -13889,20 +13889,20 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J188" t="n">
-        <v>970</v>
+        <v>7600</v>
       </c>
       <c r="K188" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L188" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M188" t="n">
-        <v>400</v>
+        <v>551</v>
       </c>
       <c r="N188" t="inlineStr">
         <is>
@@ -13915,7 +13915,7 @@
         </is>
       </c>
       <c r="P188" t="n">
-        <v>400</v>
+        <v>551</v>
       </c>
       <c r="Q188" t="n">
         <v>1</v>
@@ -13941,7 +13941,7 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>44328</v>
+        <v>44341</v>
       </c>
       <c r="E189" t="n">
         <v>13</v>
@@ -13965,16 +13965,16 @@
         </is>
       </c>
       <c r="J189" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="K189" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L189" t="n">
         <v>600</v>
       </c>
       <c r="M189" t="n">
-        <v>600</v>
+        <v>551</v>
       </c>
       <c r="N189" t="inlineStr">
         <is>
@@ -13983,11 +13983,11 @@
       </c>
       <c r="O189" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P189" t="n">
-        <v>600</v>
+        <v>551</v>
       </c>
       <c r="Q189" t="n">
         <v>1</v>
@@ -14013,7 +14013,7 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>44328</v>
+        <v>44274</v>
       </c>
       <c r="E190" t="n">
         <v>13</v>
@@ -14033,20 +14033,20 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J190" t="n">
-        <v>700</v>
+        <v>1600</v>
       </c>
       <c r="K190" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="L190" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="M190" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="N190" t="inlineStr">
         <is>
@@ -14059,7 +14059,7 @@
         </is>
       </c>
       <c r="P190" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="Q190" t="n">
         <v>1</v>
@@ -14085,7 +14085,7 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>44400</v>
+        <v>44426</v>
       </c>
       <c r="E191" t="n">
         <v>13</v>
@@ -14109,16 +14109,16 @@
         </is>
       </c>
       <c r="J191" t="n">
-        <v>4300</v>
+        <v>3400</v>
       </c>
       <c r="K191" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L191" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M191" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="N191" t="inlineStr">
         <is>
@@ -14131,7 +14131,7 @@
         </is>
       </c>
       <c r="P191" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="Q191" t="n">
         <v>1</v>
@@ -14157,7 +14157,7 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>44400</v>
+        <v>44426</v>
       </c>
       <c r="E192" t="n">
         <v>13</v>
@@ -14177,20 +14177,20 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J192" t="n">
-        <v>3400</v>
+        <v>970</v>
       </c>
       <c r="K192" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L192" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M192" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="N192" t="inlineStr">
         <is>
@@ -14199,11 +14199,11 @@
       </c>
       <c r="O192" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P192" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="Q192" t="n">
         <v>1</v>
@@ -14229,7 +14229,7 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>44400</v>
+        <v>44328</v>
       </c>
       <c r="E193" t="n">
         <v>13</v>
@@ -14249,20 +14249,20 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J193" t="n">
-        <v>1600</v>
+        <v>2500</v>
       </c>
       <c r="K193" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L193" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M193" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="N193" t="inlineStr">
         <is>
@@ -14275,7 +14275,7 @@
         </is>
       </c>
       <c r="P193" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="Q193" t="n">
         <v>1</v>
@@ -14301,7 +14301,7 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>44400</v>
+        <v>44328</v>
       </c>
       <c r="E194" t="n">
         <v>13</v>
@@ -14325,7 +14325,7 @@
         </is>
       </c>
       <c r="J194" t="n">
-        <v>970</v>
+        <v>700</v>
       </c>
       <c r="K194" t="n">
         <v>400</v>
@@ -14343,7 +14343,7 @@
       </c>
       <c r="O194" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P194" t="n">
@@ -14373,7 +14373,7 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>44392</v>
+        <v>44400</v>
       </c>
       <c r="E195" t="n">
         <v>13</v>
@@ -14397,7 +14397,7 @@
         </is>
       </c>
       <c r="J195" t="n">
-        <v>3400</v>
+        <v>4300</v>
       </c>
       <c r="K195" t="n">
         <v>500</v>
@@ -14445,7 +14445,7 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>44392</v>
+        <v>44400</v>
       </c>
       <c r="E196" t="n">
         <v>13</v>
@@ -14469,7 +14469,7 @@
         </is>
       </c>
       <c r="J196" t="n">
-        <v>4300</v>
+        <v>3400</v>
       </c>
       <c r="K196" t="n">
         <v>500</v>
@@ -14517,7 +14517,7 @@
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>44392</v>
+        <v>44400</v>
       </c>
       <c r="E197" t="n">
         <v>13</v>
@@ -14541,7 +14541,7 @@
         </is>
       </c>
       <c r="J197" t="n">
-        <v>970</v>
+        <v>1600</v>
       </c>
       <c r="K197" t="n">
         <v>400</v>
@@ -14589,7 +14589,7 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>44392</v>
+        <v>44400</v>
       </c>
       <c r="E198" t="n">
         <v>13</v>
@@ -14613,7 +14613,7 @@
         </is>
       </c>
       <c r="J198" t="n">
-        <v>1600</v>
+        <v>970</v>
       </c>
       <c r="K198" t="n">
         <v>400</v>
@@ -14661,7 +14661,7 @@
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>44442</v>
+        <v>44392</v>
       </c>
       <c r="E199" t="n">
         <v>13</v>
@@ -14688,13 +14688,13 @@
         <v>3400</v>
       </c>
       <c r="K199" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="L199" t="n">
         <v>600</v>
       </c>
       <c r="M199" t="n">
-        <v>575</v>
+        <v>550</v>
       </c>
       <c r="N199" t="inlineStr">
         <is>
@@ -14707,7 +14707,7 @@
         </is>
       </c>
       <c r="P199" t="n">
-        <v>575</v>
+        <v>550</v>
       </c>
       <c r="Q199" t="n">
         <v>1</v>
@@ -14733,7 +14733,7 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>44442</v>
+        <v>44392</v>
       </c>
       <c r="E200" t="n">
         <v>13</v>
@@ -14760,13 +14760,13 @@
         <v>4300</v>
       </c>
       <c r="K200" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="L200" t="n">
         <v>600</v>
       </c>
       <c r="M200" t="n">
-        <v>575</v>
+        <v>550</v>
       </c>
       <c r="N200" t="inlineStr">
         <is>
@@ -14779,7 +14779,7 @@
         </is>
       </c>
       <c r="P200" t="n">
-        <v>575</v>
+        <v>550</v>
       </c>
       <c r="Q200" t="n">
         <v>1</v>
@@ -14805,7 +14805,7 @@
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>44442</v>
+        <v>44392</v>
       </c>
       <c r="E201" t="n">
         <v>13</v>
@@ -14829,16 +14829,16 @@
         </is>
       </c>
       <c r="J201" t="n">
-        <v>1330</v>
+        <v>970</v>
       </c>
       <c r="K201" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="L201" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M201" t="n">
-        <v>475</v>
+        <v>400</v>
       </c>
       <c r="N201" t="inlineStr">
         <is>
@@ -14851,7 +14851,7 @@
         </is>
       </c>
       <c r="P201" t="n">
-        <v>475</v>
+        <v>400</v>
       </c>
       <c r="Q201" t="n">
         <v>1</v>
@@ -14877,7 +14877,7 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>44442</v>
+        <v>44392</v>
       </c>
       <c r="E202" t="n">
         <v>13</v>
@@ -14901,16 +14901,16 @@
         </is>
       </c>
       <c r="J202" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="K202" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="L202" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M202" t="n">
-        <v>475</v>
+        <v>400</v>
       </c>
       <c r="N202" t="inlineStr">
         <is>
@@ -14923,7 +14923,7 @@
         </is>
       </c>
       <c r="P202" t="n">
-        <v>475</v>
+        <v>400</v>
       </c>
       <c r="Q202" t="n">
         <v>1</v>
@@ -14949,7 +14949,7 @@
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>44453</v>
+        <v>44442</v>
       </c>
       <c r="E203" t="n">
         <v>13</v>
@@ -14973,16 +14973,16 @@
         </is>
       </c>
       <c r="J203" t="n">
-        <v>4300</v>
+        <v>3400</v>
       </c>
       <c r="K203" t="n">
+        <v>550</v>
+      </c>
+      <c r="L203" t="n">
         <v>600</v>
       </c>
-      <c r="L203" t="n">
-        <v>650</v>
-      </c>
       <c r="M203" t="n">
-        <v>625</v>
+        <v>575</v>
       </c>
       <c r="N203" t="inlineStr">
         <is>
@@ -14995,7 +14995,7 @@
         </is>
       </c>
       <c r="P203" t="n">
-        <v>625</v>
+        <v>575</v>
       </c>
       <c r="Q203" t="n">
         <v>1</v>
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>44453</v>
+        <v>44442</v>
       </c>
       <c r="E204" t="n">
         <v>13</v>
@@ -15045,16 +15045,16 @@
         </is>
       </c>
       <c r="J204" t="n">
-        <v>3400</v>
+        <v>4300</v>
       </c>
       <c r="K204" t="n">
+        <v>550</v>
+      </c>
+      <c r="L204" t="n">
         <v>600</v>
       </c>
-      <c r="L204" t="n">
-        <v>650</v>
-      </c>
       <c r="M204" t="n">
-        <v>625</v>
+        <v>575</v>
       </c>
       <c r="N204" t="inlineStr">
         <is>
@@ -15067,7 +15067,7 @@
         </is>
       </c>
       <c r="P204" t="n">
-        <v>625</v>
+        <v>575</v>
       </c>
       <c r="Q204" t="n">
         <v>1</v>
@@ -15093,7 +15093,7 @@
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>44453</v>
+        <v>44442</v>
       </c>
       <c r="E205" t="n">
         <v>13</v>
@@ -15165,7 +15165,7 @@
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>44453</v>
+        <v>44442</v>
       </c>
       <c r="E206" t="n">
         <v>13</v>
@@ -15189,7 +15189,7 @@
         </is>
       </c>
       <c r="J206" t="n">
-        <v>970</v>
+        <v>1500</v>
       </c>
       <c r="K206" t="n">
         <v>450</v>
@@ -15237,7 +15237,7 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>44309</v>
+        <v>44453</v>
       </c>
       <c r="E207" t="n">
         <v>13</v>
@@ -15261,16 +15261,16 @@
         </is>
       </c>
       <c r="J207" t="n">
-        <v>2500</v>
+        <v>4300</v>
       </c>
       <c r="K207" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="L207" t="n">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="M207" t="n">
-        <v>700</v>
+        <v>625</v>
       </c>
       <c r="N207" t="inlineStr">
         <is>
@@ -15283,7 +15283,7 @@
         </is>
       </c>
       <c r="P207" t="n">
-        <v>700</v>
+        <v>625</v>
       </c>
       <c r="Q207" t="n">
         <v>1</v>
@@ -15309,7 +15309,7 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>44309</v>
+        <v>44453</v>
       </c>
       <c r="E208" t="n">
         <v>13</v>
@@ -15329,20 +15329,20 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J208" t="n">
-        <v>700</v>
+        <v>3400</v>
       </c>
       <c r="K208" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L208" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="M208" t="n">
-        <v>500</v>
+        <v>625</v>
       </c>
       <c r="N208" t="inlineStr">
         <is>
@@ -15351,11 +15351,11 @@
       </c>
       <c r="O208" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P208" t="n">
-        <v>500</v>
+        <v>625</v>
       </c>
       <c r="Q208" t="n">
         <v>1</v>
@@ -15381,7 +15381,7 @@
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>44448</v>
+        <v>44453</v>
       </c>
       <c r="E209" t="n">
         <v>13</v>
@@ -15401,20 +15401,20 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J209" t="n">
-        <v>3400</v>
+        <v>1330</v>
       </c>
       <c r="K209" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="L209" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="M209" t="n">
-        <v>625</v>
+        <v>475</v>
       </c>
       <c r="N209" t="inlineStr">
         <is>
@@ -15427,7 +15427,7 @@
         </is>
       </c>
       <c r="P209" t="n">
-        <v>625</v>
+        <v>475</v>
       </c>
       <c r="Q209" t="n">
         <v>1</v>
@@ -15453,7 +15453,7 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>44448</v>
+        <v>44453</v>
       </c>
       <c r="E210" t="n">
         <v>13</v>
@@ -15473,20 +15473,20 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J210" t="n">
-        <v>4300</v>
+        <v>970</v>
       </c>
       <c r="K210" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="L210" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="M210" t="n">
-        <v>625</v>
+        <v>475</v>
       </c>
       <c r="N210" t="inlineStr">
         <is>
@@ -15499,7 +15499,7 @@
         </is>
       </c>
       <c r="P210" t="n">
-        <v>625</v>
+        <v>475</v>
       </c>
       <c r="Q210" t="n">
         <v>1</v>
@@ -15525,7 +15525,7 @@
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>44448</v>
+        <v>44309</v>
       </c>
       <c r="E211" t="n">
         <v>13</v>
@@ -15545,20 +15545,20 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J211" t="n">
-        <v>970</v>
+        <v>2500</v>
       </c>
       <c r="K211" t="n">
-        <v>450</v>
+        <v>700</v>
       </c>
       <c r="L211" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M211" t="n">
-        <v>475</v>
+        <v>700</v>
       </c>
       <c r="N211" t="inlineStr">
         <is>
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="P211" t="n">
-        <v>475</v>
+        <v>700</v>
       </c>
       <c r="Q211" t="n">
         <v>1</v>
@@ -15597,7 +15597,7 @@
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>44448</v>
+        <v>44309</v>
       </c>
       <c r="E212" t="n">
         <v>13</v>
@@ -15621,16 +15621,16 @@
         </is>
       </c>
       <c r="J212" t="n">
-        <v>1600</v>
+        <v>700</v>
       </c>
       <c r="K212" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="L212" t="n">
         <v>500</v>
       </c>
       <c r="M212" t="n">
-        <v>475</v>
+        <v>500</v>
       </c>
       <c r="N212" t="inlineStr">
         <is>
@@ -15639,11 +15639,11 @@
       </c>
       <c r="O212" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P212" t="n">
-        <v>475</v>
+        <v>500</v>
       </c>
       <c r="Q212" t="n">
         <v>1</v>
@@ -15669,7 +15669,7 @@
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>44214</v>
+        <v>44448</v>
       </c>
       <c r="E213" t="n">
         <v>13</v>
@@ -15693,16 +15693,16 @@
         </is>
       </c>
       <c r="J213" t="n">
-        <v>1300</v>
+        <v>3400</v>
       </c>
       <c r="K213" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="L213" t="n">
-        <v>1000</v>
+        <v>650</v>
       </c>
       <c r="M213" t="n">
-        <v>1000</v>
+        <v>625</v>
       </c>
       <c r="N213" t="inlineStr">
         <is>
@@ -15715,7 +15715,7 @@
         </is>
       </c>
       <c r="P213" t="n">
-        <v>1000</v>
+        <v>625</v>
       </c>
       <c r="Q213" t="n">
         <v>1</v>
@@ -15741,7 +15741,7 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>44354</v>
+        <v>44448</v>
       </c>
       <c r="E214" t="n">
         <v>13</v>
@@ -15765,16 +15765,16 @@
         </is>
       </c>
       <c r="J214" t="n">
-        <v>2500</v>
+        <v>4300</v>
       </c>
       <c r="K214" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L214" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="M214" t="n">
-        <v>550</v>
+        <v>625</v>
       </c>
       <c r="N214" t="inlineStr">
         <is>
@@ -15783,11 +15783,11 @@
       </c>
       <c r="O214" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P214" t="n">
-        <v>550</v>
+        <v>625</v>
       </c>
       <c r="Q214" t="n">
         <v>1</v>
@@ -15813,7 +15813,7 @@
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>44420</v>
+        <v>44448</v>
       </c>
       <c r="E215" t="n">
         <v>13</v>
@@ -15833,20 +15833,20 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J215" t="n">
-        <v>4300</v>
+        <v>970</v>
       </c>
       <c r="K215" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="L215" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M215" t="n">
-        <v>650</v>
+        <v>475</v>
       </c>
       <c r="N215" t="inlineStr">
         <is>
@@ -15859,7 +15859,7 @@
         </is>
       </c>
       <c r="P215" t="n">
-        <v>650</v>
+        <v>475</v>
       </c>
       <c r="Q215" t="n">
         <v>1</v>
@@ -15885,7 +15885,7 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>44420</v>
+        <v>44448</v>
       </c>
       <c r="E216" t="n">
         <v>13</v>
@@ -15905,20 +15905,20 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J216" t="n">
-        <v>3400</v>
+        <v>1600</v>
       </c>
       <c r="K216" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="L216" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M216" t="n">
-        <v>650</v>
+        <v>475</v>
       </c>
       <c r="N216" t="inlineStr">
         <is>
@@ -15931,7 +15931,7 @@
         </is>
       </c>
       <c r="P216" t="n">
-        <v>650</v>
+        <v>475</v>
       </c>
       <c r="Q216" t="n">
         <v>1</v>
@@ -15957,7 +15957,7 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44420</v>
+        <v>44214</v>
       </c>
       <c r="E217" t="n">
         <v>13</v>
@@ -15977,20 +15977,20 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J217" t="n">
-        <v>1600</v>
+        <v>1300</v>
       </c>
       <c r="K217" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="L217" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="M217" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="N217" t="inlineStr">
         <is>
@@ -16003,7 +16003,7 @@
         </is>
       </c>
       <c r="P217" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="Q217" t="n">
         <v>1</v>
@@ -16029,7 +16029,7 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>44420</v>
+        <v>44354</v>
       </c>
       <c r="E218" t="n">
         <v>13</v>
@@ -16049,20 +16049,20 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J218" t="n">
-        <v>970</v>
+        <v>2500</v>
       </c>
       <c r="K218" t="n">
         <v>500</v>
       </c>
       <c r="L218" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M218" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="N218" t="inlineStr">
         <is>
@@ -16071,11 +16071,11 @@
       </c>
       <c r="O218" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P218" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="Q218" t="n">
         <v>1</v>
@@ -16101,7 +16101,7 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>44370</v>
+        <v>44420</v>
       </c>
       <c r="E219" t="n">
         <v>13</v>
@@ -16125,16 +16125,16 @@
         </is>
       </c>
       <c r="J219" t="n">
-        <v>1600</v>
+        <v>4300</v>
       </c>
       <c r="K219" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L219" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M219" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="N219" t="inlineStr">
         <is>
@@ -16147,7 +16147,7 @@
         </is>
       </c>
       <c r="P219" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="Q219" t="n">
         <v>1</v>
@@ -16173,7 +16173,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44370</v>
+        <v>44420</v>
       </c>
       <c r="E220" t="n">
         <v>13</v>
@@ -16197,16 +16197,16 @@
         </is>
       </c>
       <c r="J220" t="n">
-        <v>2500</v>
+        <v>3400</v>
       </c>
       <c r="K220" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L220" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M220" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="N220" t="inlineStr">
         <is>
@@ -16219,7 +16219,7 @@
         </is>
       </c>
       <c r="P220" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="Q220" t="n">
         <v>1</v>
@@ -16245,7 +16245,7 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44370</v>
+        <v>44420</v>
       </c>
       <c r="E221" t="n">
         <v>13</v>
@@ -16269,16 +16269,16 @@
         </is>
       </c>
       <c r="J221" t="n">
-        <v>700</v>
+        <v>1600</v>
       </c>
       <c r="K221" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L221" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M221" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N221" t="inlineStr">
         <is>
@@ -16291,7 +16291,7 @@
         </is>
       </c>
       <c r="P221" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Q221" t="n">
         <v>1</v>
@@ -16317,7 +16317,7 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>44370</v>
+        <v>44420</v>
       </c>
       <c r="E222" t="n">
         <v>13</v>
@@ -16344,13 +16344,13 @@
         <v>970</v>
       </c>
       <c r="K222" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L222" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M222" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N222" t="inlineStr">
         <is>
@@ -16363,7 +16363,7 @@
         </is>
       </c>
       <c r="P222" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Q222" t="n">
         <v>1</v>
@@ -16389,7 +16389,7 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>44237</v>
+        <v>44370</v>
       </c>
       <c r="E223" t="n">
         <v>13</v>
@@ -16413,16 +16413,16 @@
         </is>
       </c>
       <c r="J223" t="n">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="K223" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="L223" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="M223" t="n">
-        <v>1000</v>
+        <v>550</v>
       </c>
       <c r="N223" t="inlineStr">
         <is>
@@ -16435,7 +16435,7 @@
         </is>
       </c>
       <c r="P223" t="n">
-        <v>1000</v>
+        <v>550</v>
       </c>
       <c r="Q223" t="n">
         <v>1</v>
@@ -16461,7 +16461,7 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>44285</v>
+        <v>44370</v>
       </c>
       <c r="E224" t="n">
         <v>13</v>
@@ -16485,16 +16485,16 @@
         </is>
       </c>
       <c r="J224" t="n">
-        <v>1600</v>
+        <v>2500</v>
       </c>
       <c r="K224" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="L224" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="M224" t="n">
-        <v>900</v>
+        <v>550</v>
       </c>
       <c r="N224" t="inlineStr">
         <is>
@@ -16503,11 +16503,11 @@
       </c>
       <c r="O224" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P224" t="n">
-        <v>900</v>
+        <v>550</v>
       </c>
       <c r="Q224" t="n">
         <v>1</v>
@@ -16533,7 +16533,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44167</v>
+        <v>44370</v>
       </c>
       <c r="E225" t="n">
         <v>13</v>
@@ -16553,20 +16553,20 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J225" t="n">
-        <v>3500</v>
+        <v>700</v>
       </c>
       <c r="K225" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L225" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M225" t="n">
-        <v>543</v>
+        <v>400</v>
       </c>
       <c r="N225" t="inlineStr">
         <is>
@@ -16579,7 +16579,7 @@
         </is>
       </c>
       <c r="P225" t="n">
-        <v>543</v>
+        <v>400</v>
       </c>
       <c r="Q225" t="n">
         <v>1</v>
@@ -16605,7 +16605,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44344</v>
+        <v>44370</v>
       </c>
       <c r="E226" t="n">
         <v>13</v>
@@ -16625,20 +16625,20 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J226" t="n">
-        <v>5200</v>
+        <v>970</v>
       </c>
       <c r="K226" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L226" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M226" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="N226" t="inlineStr">
         <is>
@@ -16647,11 +16647,11 @@
       </c>
       <c r="O226" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P226" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="Q226" t="n">
         <v>1</v>
@@ -16677,7 +16677,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44344</v>
+        <v>44237</v>
       </c>
       <c r="E227" t="n">
         <v>13</v>
@@ -16701,16 +16701,16 @@
         </is>
       </c>
       <c r="J227" t="n">
-        <v>3900</v>
+        <v>1800</v>
       </c>
       <c r="K227" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="L227" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="M227" t="n">
-        <v>550</v>
+        <v>1000</v>
       </c>
       <c r="N227" t="inlineStr">
         <is>
@@ -16719,11 +16719,11 @@
       </c>
       <c r="O227" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P227" t="n">
-        <v>550</v>
+        <v>1000</v>
       </c>
       <c r="Q227" t="n">
         <v>1</v>
@@ -16749,7 +16749,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44344</v>
+        <v>44285</v>
       </c>
       <c r="E228" t="n">
         <v>13</v>
@@ -16769,20 +16769,20 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J228" t="n">
-        <v>2100</v>
+        <v>1600</v>
       </c>
       <c r="K228" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="L228" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="M228" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="N228" t="inlineStr">
         <is>
@@ -16795,7 +16795,7 @@
         </is>
       </c>
       <c r="P228" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="Q228" t="n">
         <v>1</v>
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44344</v>
+        <v>44167</v>
       </c>
       <c r="E229" t="n">
         <v>13</v>
@@ -16841,20 +16841,20 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J229" t="n">
-        <v>1800</v>
+        <v>3500</v>
       </c>
       <c r="K229" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L229" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M229" t="n">
-        <v>400</v>
+        <v>543</v>
       </c>
       <c r="N229" t="inlineStr">
         <is>
@@ -16863,11 +16863,11 @@
       </c>
       <c r="O229" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P229" t="n">
-        <v>400</v>
+        <v>543</v>
       </c>
       <c r="Q229" t="n">
         <v>1</v>
@@ -16893,7 +16893,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44217</v>
+        <v>44344</v>
       </c>
       <c r="E230" t="n">
         <v>13</v>
@@ -16917,16 +16917,16 @@
         </is>
       </c>
       <c r="J230" t="n">
-        <v>2700</v>
+        <v>5200</v>
       </c>
       <c r="K230" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="L230" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="M230" t="n">
-        <v>956</v>
+        <v>550</v>
       </c>
       <c r="N230" t="inlineStr">
         <is>
@@ -16939,7 +16939,7 @@
         </is>
       </c>
       <c r="P230" t="n">
-        <v>956</v>
+        <v>550</v>
       </c>
       <c r="Q230" t="n">
         <v>1</v>
@@ -16965,7 +16965,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44266</v>
+        <v>44344</v>
       </c>
       <c r="E231" t="n">
         <v>13</v>
@@ -16989,16 +16989,16 @@
         </is>
       </c>
       <c r="J231" t="n">
-        <v>800</v>
+        <v>3900</v>
       </c>
       <c r="K231" t="n">
-        <v>1100</v>
+        <v>500</v>
       </c>
       <c r="L231" t="n">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="M231" t="n">
-        <v>1100</v>
+        <v>550</v>
       </c>
       <c r="N231" t="inlineStr">
         <is>
@@ -17011,7 +17011,7 @@
         </is>
       </c>
       <c r="P231" t="n">
-        <v>1100</v>
+        <v>550</v>
       </c>
       <c r="Q231" t="n">
         <v>1</v>
@@ -17037,7 +17037,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44350</v>
+        <v>44344</v>
       </c>
       <c r="E232" t="n">
         <v>13</v>
@@ -17057,20 +17057,20 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J232" t="n">
-        <v>21000</v>
+        <v>2100</v>
       </c>
       <c r="K232" t="n">
         <v>400</v>
       </c>
       <c r="L232" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M232" t="n">
-        <v>467</v>
+        <v>400</v>
       </c>
       <c r="N232" t="inlineStr">
         <is>
@@ -17083,7 +17083,7 @@
         </is>
       </c>
       <c r="P232" t="n">
-        <v>467</v>
+        <v>400</v>
       </c>
       <c r="Q232" t="n">
         <v>1</v>
@@ -17109,7 +17109,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44350</v>
+        <v>44344</v>
       </c>
       <c r="E233" t="n">
         <v>13</v>
@@ -17129,20 +17129,20 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J233" t="n">
-        <v>6200</v>
+        <v>1800</v>
       </c>
       <c r="K233" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L233" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M233" t="n">
-        <v>523</v>
+        <v>400</v>
       </c>
       <c r="N233" t="inlineStr">
         <is>
@@ -17155,7 +17155,7 @@
         </is>
       </c>
       <c r="P233" t="n">
-        <v>523</v>
+        <v>400</v>
       </c>
       <c r="Q233" t="n">
         <v>1</v>
@@ -17181,7 +17181,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44350</v>
+        <v>44217</v>
       </c>
       <c r="E234" t="n">
         <v>13</v>
@@ -17201,20 +17201,20 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J234" t="n">
-        <v>7500</v>
+        <v>2700</v>
       </c>
       <c r="K234" t="n">
-        <v>250</v>
+        <v>900</v>
       </c>
       <c r="L234" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="M234" t="n">
-        <v>299</v>
+        <v>956</v>
       </c>
       <c r="N234" t="inlineStr">
         <is>
@@ -17227,7 +17227,7 @@
         </is>
       </c>
       <c r="P234" t="n">
-        <v>299</v>
+        <v>956</v>
       </c>
       <c r="Q234" t="n">
         <v>1</v>
@@ -17253,7 +17253,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44350</v>
+        <v>44266</v>
       </c>
       <c r="E235" t="n">
         <v>13</v>
@@ -17273,20 +17273,20 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J235" t="n">
-        <v>1300</v>
+        <v>800</v>
       </c>
       <c r="K235" t="n">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="L235" t="n">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="M235" t="n">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="N235" t="inlineStr">
         <is>
@@ -17299,7 +17299,7 @@
         </is>
       </c>
       <c r="P235" t="n">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="Q235" t="n">
         <v>1</v>
@@ -17325,7 +17325,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44455</v>
+        <v>44350</v>
       </c>
       <c r="E236" t="n">
         <v>13</v>
@@ -17349,16 +17349,16 @@
         </is>
       </c>
       <c r="J236" t="n">
-        <v>3400</v>
+        <v>21000</v>
       </c>
       <c r="K236" t="n">
+        <v>400</v>
+      </c>
+      <c r="L236" t="n">
         <v>600</v>
       </c>
-      <c r="L236" t="n">
-        <v>650</v>
-      </c>
       <c r="M236" t="n">
-        <v>625</v>
+        <v>467</v>
       </c>
       <c r="N236" t="inlineStr">
         <is>
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="P236" t="n">
-        <v>625</v>
+        <v>467</v>
       </c>
       <c r="Q236" t="n">
         <v>1</v>
@@ -17397,7 +17397,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44455</v>
+        <v>44350</v>
       </c>
       <c r="E237" t="n">
         <v>13</v>
@@ -17421,16 +17421,16 @@
         </is>
       </c>
       <c r="J237" t="n">
-        <v>2500</v>
+        <v>6200</v>
       </c>
       <c r="K237" t="n">
+        <v>500</v>
+      </c>
+      <c r="L237" t="n">
         <v>600</v>
       </c>
-      <c r="L237" t="n">
-        <v>650</v>
-      </c>
       <c r="M237" t="n">
-        <v>625</v>
+        <v>523</v>
       </c>
       <c r="N237" t="inlineStr">
         <is>
@@ -17443,7 +17443,7 @@
         </is>
       </c>
       <c r="P237" t="n">
-        <v>625</v>
+        <v>523</v>
       </c>
       <c r="Q237" t="n">
         <v>1</v>
@@ -17469,7 +17469,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44455</v>
+        <v>44350</v>
       </c>
       <c r="E238" t="n">
         <v>13</v>
@@ -17493,16 +17493,16 @@
         </is>
       </c>
       <c r="J238" t="n">
-        <v>970</v>
+        <v>7500</v>
       </c>
       <c r="K238" t="n">
-        <v>450</v>
+        <v>250</v>
       </c>
       <c r="L238" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M238" t="n">
-        <v>475</v>
+        <v>299</v>
       </c>
       <c r="N238" t="inlineStr">
         <is>
@@ -17515,7 +17515,7 @@
         </is>
       </c>
       <c r="P238" t="n">
-        <v>475</v>
+        <v>299</v>
       </c>
       <c r="Q238" t="n">
         <v>1</v>
@@ -17541,7 +17541,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44455</v>
+        <v>44350</v>
       </c>
       <c r="E239" t="n">
         <v>13</v>
@@ -17565,16 +17565,16 @@
         </is>
       </c>
       <c r="J239" t="n">
-        <v>790</v>
+        <v>1300</v>
       </c>
       <c r="K239" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="L239" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M239" t="n">
-        <v>475</v>
+        <v>400</v>
       </c>
       <c r="N239" t="inlineStr">
         <is>
@@ -17587,7 +17587,7 @@
         </is>
       </c>
       <c r="P239" t="n">
-        <v>475</v>
+        <v>400</v>
       </c>
       <c r="Q239" t="n">
         <v>1</v>
@@ -17613,7 +17613,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44418</v>
+        <v>44455</v>
       </c>
       <c r="E240" t="n">
         <v>13</v>
@@ -17643,10 +17643,10 @@
         <v>600</v>
       </c>
       <c r="L240" t="n">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="M240" t="n">
-        <v>650</v>
+        <v>625</v>
       </c>
       <c r="N240" t="inlineStr">
         <is>
@@ -17659,7 +17659,7 @@
         </is>
       </c>
       <c r="P240" t="n">
-        <v>650</v>
+        <v>625</v>
       </c>
       <c r="Q240" t="n">
         <v>1</v>
@@ -17685,7 +17685,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44418</v>
+        <v>44455</v>
       </c>
       <c r="E241" t="n">
         <v>13</v>
@@ -17709,16 +17709,16 @@
         </is>
       </c>
       <c r="J241" t="n">
-        <v>4300</v>
+        <v>2500</v>
       </c>
       <c r="K241" t="n">
         <v>600</v>
       </c>
       <c r="L241" t="n">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="M241" t="n">
-        <v>650</v>
+        <v>625</v>
       </c>
       <c r="N241" t="inlineStr">
         <is>
@@ -17731,7 +17731,7 @@
         </is>
       </c>
       <c r="P241" t="n">
-        <v>650</v>
+        <v>625</v>
       </c>
       <c r="Q241" t="n">
         <v>1</v>
@@ -17757,7 +17757,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44418</v>
+        <v>44455</v>
       </c>
       <c r="E242" t="n">
         <v>13</v>
@@ -17784,13 +17784,13 @@
         <v>970</v>
       </c>
       <c r="K242" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="L242" t="n">
         <v>500</v>
       </c>
       <c r="M242" t="n">
-        <v>500</v>
+        <v>475</v>
       </c>
       <c r="N242" t="inlineStr">
         <is>
@@ -17803,7 +17803,7 @@
         </is>
       </c>
       <c r="P242" t="n">
-        <v>500</v>
+        <v>475</v>
       </c>
       <c r="Q242" t="n">
         <v>1</v>
@@ -17829,7 +17829,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44418</v>
+        <v>44455</v>
       </c>
       <c r="E243" t="n">
         <v>13</v>
@@ -17853,16 +17853,16 @@
         </is>
       </c>
       <c r="J243" t="n">
-        <v>1600</v>
+        <v>790</v>
       </c>
       <c r="K243" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="L243" t="n">
         <v>500</v>
       </c>
       <c r="M243" t="n">
-        <v>500</v>
+        <v>475</v>
       </c>
       <c r="N243" t="inlineStr">
         <is>
@@ -17875,7 +17875,7 @@
         </is>
       </c>
       <c r="P243" t="n">
-        <v>500</v>
+        <v>475</v>
       </c>
       <c r="Q243" t="n">
         <v>1</v>
@@ -17901,7 +17901,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44460</v>
+        <v>44418</v>
       </c>
       <c r="E244" t="n">
         <v>13</v>
@@ -17931,11 +17931,11 @@
         <v>600</v>
       </c>
       <c r="L244" t="n">
+        <v>700</v>
+      </c>
+      <c r="M244" t="n">
         <v>650</v>
       </c>
-      <c r="M244" t="n">
-        <v>625</v>
-      </c>
       <c r="N244" t="inlineStr">
         <is>
           <t>$/unidad</t>
@@ -17947,7 +17947,7 @@
         </is>
       </c>
       <c r="P244" t="n">
-        <v>625</v>
+        <v>650</v>
       </c>
       <c r="Q244" t="n">
         <v>1</v>
@@ -17973,7 +17973,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44460</v>
+        <v>44418</v>
       </c>
       <c r="E245" t="n">
         <v>13</v>
@@ -17997,17 +17997,17 @@
         </is>
       </c>
       <c r="J245" t="n">
-        <v>2500</v>
+        <v>4300</v>
       </c>
       <c r="K245" t="n">
         <v>600</v>
       </c>
       <c r="L245" t="n">
+        <v>700</v>
+      </c>
+      <c r="M245" t="n">
         <v>650</v>
       </c>
-      <c r="M245" t="n">
-        <v>625</v>
-      </c>
       <c r="N245" t="inlineStr">
         <is>
           <t>$/unidad</t>
@@ -18019,7 +18019,7 @@
         </is>
       </c>
       <c r="P245" t="n">
-        <v>625</v>
+        <v>650</v>
       </c>
       <c r="Q245" t="n">
         <v>1</v>
@@ -18045,7 +18045,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44460</v>
+        <v>44418</v>
       </c>
       <c r="E246" t="n">
         <v>13</v>
@@ -18069,16 +18069,16 @@
         </is>
       </c>
       <c r="J246" t="n">
-        <v>1330</v>
+        <v>970</v>
       </c>
       <c r="K246" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="L246" t="n">
         <v>500</v>
       </c>
       <c r="M246" t="n">
-        <v>475</v>
+        <v>500</v>
       </c>
       <c r="N246" t="inlineStr">
         <is>
@@ -18091,7 +18091,7 @@
         </is>
       </c>
       <c r="P246" t="n">
-        <v>475</v>
+        <v>500</v>
       </c>
       <c r="Q246" t="n">
         <v>1</v>
@@ -18117,7 +18117,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44460</v>
+        <v>44418</v>
       </c>
       <c r="E247" t="n">
         <v>13</v>
@@ -18141,16 +18141,16 @@
         </is>
       </c>
       <c r="J247" t="n">
-        <v>970</v>
+        <v>1600</v>
       </c>
       <c r="K247" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="L247" t="n">
         <v>500</v>
       </c>
       <c r="M247" t="n">
-        <v>475</v>
+        <v>500</v>
       </c>
       <c r="N247" t="inlineStr">
         <is>
@@ -18163,7 +18163,7 @@
         </is>
       </c>
       <c r="P247" t="n">
-        <v>475</v>
+        <v>500</v>
       </c>
       <c r="Q247" t="n">
         <v>1</v>
@@ -18189,7 +18189,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44414</v>
+        <v>44460</v>
       </c>
       <c r="E248" t="n">
         <v>13</v>
@@ -18213,16 +18213,16 @@
         </is>
       </c>
       <c r="J248" t="n">
-        <v>4300</v>
+        <v>3400</v>
       </c>
       <c r="K248" t="n">
         <v>600</v>
       </c>
       <c r="L248" t="n">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="M248" t="n">
-        <v>650</v>
+        <v>625</v>
       </c>
       <c r="N248" t="inlineStr">
         <is>
@@ -18235,7 +18235,7 @@
         </is>
       </c>
       <c r="P248" t="n">
-        <v>650</v>
+        <v>625</v>
       </c>
       <c r="Q248" t="n">
         <v>1</v>
@@ -18261,7 +18261,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44414</v>
+        <v>44460</v>
       </c>
       <c r="E249" t="n">
         <v>13</v>
@@ -18285,16 +18285,16 @@
         </is>
       </c>
       <c r="J249" t="n">
-        <v>5200</v>
+        <v>2500</v>
       </c>
       <c r="K249" t="n">
         <v>600</v>
       </c>
       <c r="L249" t="n">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="M249" t="n">
-        <v>650</v>
+        <v>625</v>
       </c>
       <c r="N249" t="inlineStr">
         <is>
@@ -18307,7 +18307,7 @@
         </is>
       </c>
       <c r="P249" t="n">
-        <v>650</v>
+        <v>625</v>
       </c>
       <c r="Q249" t="n">
         <v>1</v>
@@ -18333,7 +18333,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44414</v>
+        <v>44460</v>
       </c>
       <c r="E250" t="n">
         <v>13</v>
@@ -18357,16 +18357,16 @@
         </is>
       </c>
       <c r="J250" t="n">
-        <v>1600</v>
+        <v>1330</v>
       </c>
       <c r="K250" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="L250" t="n">
         <v>500</v>
       </c>
       <c r="M250" t="n">
-        <v>500</v>
+        <v>475</v>
       </c>
       <c r="N250" t="inlineStr">
         <is>
@@ -18379,7 +18379,7 @@
         </is>
       </c>
       <c r="P250" t="n">
-        <v>500</v>
+        <v>475</v>
       </c>
       <c r="Q250" t="n">
         <v>1</v>
@@ -18405,7 +18405,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44414</v>
+        <v>44460</v>
       </c>
       <c r="E251" t="n">
         <v>13</v>
@@ -18429,16 +18429,16 @@
         </is>
       </c>
       <c r="J251" t="n">
-        <v>2500</v>
+        <v>970</v>
       </c>
       <c r="K251" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="L251" t="n">
         <v>500</v>
       </c>
       <c r="M251" t="n">
-        <v>500</v>
+        <v>475</v>
       </c>
       <c r="N251" t="inlineStr">
         <is>
@@ -18451,7 +18451,7 @@
         </is>
       </c>
       <c r="P251" t="n">
-        <v>500</v>
+        <v>475</v>
       </c>
       <c r="Q251" t="n">
         <v>1</v>
@@ -18477,7 +18477,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44427</v>
+        <v>44414</v>
       </c>
       <c r="E252" t="n">
         <v>13</v>
@@ -18549,7 +18549,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44427</v>
+        <v>44414</v>
       </c>
       <c r="E253" t="n">
         <v>13</v>
@@ -18569,20 +18569,20 @@
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J253" t="n">
-        <v>1600</v>
+        <v>5200</v>
       </c>
       <c r="K253" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L253" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M253" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="N253" t="inlineStr">
         <is>
@@ -18591,11 +18591,11 @@
       </c>
       <c r="O253" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P253" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="Q253" t="n">
         <v>1</v>
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44389</v>
+        <v>44414</v>
       </c>
       <c r="E254" t="n">
         <v>13</v>
@@ -18641,7 +18641,7 @@
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J254" t="n">
@@ -18651,10 +18651,10 @@
         <v>500</v>
       </c>
       <c r="L254" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M254" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="N254" t="inlineStr">
         <is>
@@ -18663,11 +18663,11 @@
       </c>
       <c r="O254" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P254" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="Q254" t="n">
         <v>1</v>
@@ -18693,7 +18693,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44389</v>
+        <v>44414</v>
       </c>
       <c r="E255" t="n">
         <v>13</v>
@@ -18717,16 +18717,16 @@
         </is>
       </c>
       <c r="J255" t="n">
-        <v>520</v>
+        <v>2500</v>
       </c>
       <c r="K255" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L255" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M255" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N255" t="inlineStr">
         <is>
@@ -18739,7 +18739,7 @@
         </is>
       </c>
       <c r="P255" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Q255" t="n">
         <v>1</v>
@@ -18765,7 +18765,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44249</v>
+        <v>44427</v>
       </c>
       <c r="E256" t="n">
         <v>13</v>
@@ -18789,16 +18789,16 @@
         </is>
       </c>
       <c r="J256" t="n">
+        <v>4300</v>
+      </c>
+      <c r="K256" t="n">
+        <v>600</v>
+      </c>
+      <c r="L256" t="n">
         <v>700</v>
       </c>
-      <c r="K256" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L256" t="n">
-        <v>1000</v>
-      </c>
       <c r="M256" t="n">
-        <v>1000</v>
+        <v>650</v>
       </c>
       <c r="N256" t="inlineStr">
         <is>
@@ -18811,7 +18811,7 @@
         </is>
       </c>
       <c r="P256" t="n">
-        <v>1000</v>
+        <v>650</v>
       </c>
       <c r="Q256" t="n">
         <v>1</v>
@@ -18837,7 +18837,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44343</v>
+        <v>44427</v>
       </c>
       <c r="E257" t="n">
         <v>13</v>
@@ -18857,20 +18857,20 @@
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J257" t="n">
-        <v>4200</v>
+        <v>1600</v>
       </c>
       <c r="K257" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L257" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M257" t="n">
-        <v>650</v>
+        <v>450</v>
       </c>
       <c r="N257" t="inlineStr">
         <is>
@@ -18883,7 +18883,7 @@
         </is>
       </c>
       <c r="P257" t="n">
-        <v>650</v>
+        <v>450</v>
       </c>
       <c r="Q257" t="n">
         <v>1</v>
@@ -18909,7 +18909,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44343</v>
+        <v>44389</v>
       </c>
       <c r="E258" t="n">
         <v>13</v>
@@ -18933,16 +18933,16 @@
         </is>
       </c>
       <c r="J258" t="n">
-        <v>3500</v>
+        <v>1600</v>
       </c>
       <c r="K258" t="n">
+        <v>500</v>
+      </c>
+      <c r="L258" t="n">
         <v>600</v>
       </c>
-      <c r="L258" t="n">
-        <v>700</v>
-      </c>
       <c r="M258" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="N258" t="inlineStr">
         <is>
@@ -18955,7 +18955,7 @@
         </is>
       </c>
       <c r="P258" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="Q258" t="n">
         <v>1</v>
@@ -18981,7 +18981,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44343</v>
+        <v>44389</v>
       </c>
       <c r="E259" t="n">
         <v>13</v>
@@ -19005,7 +19005,7 @@
         </is>
       </c>
       <c r="J259" t="n">
-        <v>1800</v>
+        <v>520</v>
       </c>
       <c r="K259" t="n">
         <v>400</v>
@@ -19023,7 +19023,7 @@
       </c>
       <c r="O259" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P259" t="n">
@@ -19053,7 +19053,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44343</v>
+        <v>44249</v>
       </c>
       <c r="E260" t="n">
         <v>13</v>
@@ -19073,20 +19073,20 @@
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J260" t="n">
-        <v>1700</v>
+        <v>700</v>
       </c>
       <c r="K260" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="L260" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="M260" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="N260" t="inlineStr">
         <is>
@@ -19095,11 +19095,11 @@
       </c>
       <c r="O260" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P260" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="Q260" t="n">
         <v>1</v>
@@ -19125,7 +19125,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44201</v>
+        <v>44343</v>
       </c>
       <c r="E261" t="n">
         <v>13</v>
@@ -19149,7 +19149,7 @@
         </is>
       </c>
       <c r="J261" t="n">
-        <v>3600</v>
+        <v>4200</v>
       </c>
       <c r="K261" t="n">
         <v>600</v>
@@ -19158,7 +19158,7 @@
         <v>700</v>
       </c>
       <c r="M261" t="n">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="N261" t="inlineStr">
         <is>
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="P261" t="n">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="Q261" t="n">
         <v>1</v>
@@ -19197,7 +19197,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44280</v>
+        <v>44343</v>
       </c>
       <c r="E262" t="n">
         <v>13</v>
@@ -19221,16 +19221,16 @@
         </is>
       </c>
       <c r="J262" t="n">
-        <v>1600</v>
+        <v>3500</v>
       </c>
       <c r="K262" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="L262" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M262" t="n">
-        <v>900</v>
+        <v>650</v>
       </c>
       <c r="N262" t="inlineStr">
         <is>
@@ -19239,11 +19239,11 @@
       </c>
       <c r="O262" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P262" t="n">
-        <v>900</v>
+        <v>650</v>
       </c>
       <c r="Q262" t="n">
         <v>1</v>
@@ -19269,7 +19269,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44447</v>
+        <v>44343</v>
       </c>
       <c r="E263" t="n">
         <v>13</v>
@@ -19289,20 +19289,20 @@
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J263" t="n">
-        <v>2500</v>
+        <v>1800</v>
       </c>
       <c r="K263" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L263" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="M263" t="n">
-        <v>625</v>
+        <v>400</v>
       </c>
       <c r="N263" t="inlineStr">
         <is>
@@ -19315,7 +19315,7 @@
         </is>
       </c>
       <c r="P263" t="n">
-        <v>625</v>
+        <v>400</v>
       </c>
       <c r="Q263" t="n">
         <v>1</v>
@@ -19341,7 +19341,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44447</v>
+        <v>44343</v>
       </c>
       <c r="E264" t="n">
         <v>13</v>
@@ -19365,16 +19365,16 @@
         </is>
       </c>
       <c r="J264" t="n">
-        <v>970</v>
+        <v>1700</v>
       </c>
       <c r="K264" t="n">
         <v>400</v>
       </c>
       <c r="L264" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="M264" t="n">
-        <v>425</v>
+        <v>400</v>
       </c>
       <c r="N264" t="inlineStr">
         <is>
@@ -19383,11 +19383,11 @@
       </c>
       <c r="O264" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P264" t="n">
-        <v>425</v>
+        <v>400</v>
       </c>
       <c r="Q264" t="n">
         <v>1</v>
@@ -19413,7 +19413,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44267</v>
+        <v>44201</v>
       </c>
       <c r="E265" t="n">
         <v>13</v>
@@ -19437,16 +19437,16 @@
         </is>
       </c>
       <c r="J265" t="n">
-        <v>1200</v>
+        <v>3600</v>
       </c>
       <c r="K265" t="n">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="L265" t="n">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="M265" t="n">
-        <v>1100</v>
+        <v>656</v>
       </c>
       <c r="N265" t="inlineStr">
         <is>
@@ -19459,7 +19459,7 @@
         </is>
       </c>
       <c r="P265" t="n">
-        <v>1100</v>
+        <v>656</v>
       </c>
       <c r="Q265" t="n">
         <v>1</v>
@@ -19485,7 +19485,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44468</v>
+        <v>44280</v>
       </c>
       <c r="E266" t="n">
         <v>13</v>
@@ -19509,16 +19509,16 @@
         </is>
       </c>
       <c r="J266" t="n">
-        <v>2500</v>
+        <v>1600</v>
       </c>
       <c r="K266" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="L266" t="n">
-        <v>650</v>
+        <v>900</v>
       </c>
       <c r="M266" t="n">
-        <v>625</v>
+        <v>900</v>
       </c>
       <c r="N266" t="inlineStr">
         <is>
@@ -19531,7 +19531,7 @@
         </is>
       </c>
       <c r="P266" t="n">
-        <v>625</v>
+        <v>900</v>
       </c>
       <c r="Q266" t="n">
         <v>1</v>
@@ -19557,7 +19557,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44468</v>
+        <v>44447</v>
       </c>
       <c r="E267" t="n">
         <v>13</v>
@@ -19577,20 +19577,20 @@
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J267" t="n">
-        <v>1300</v>
+        <v>2500</v>
       </c>
       <c r="K267" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="L267" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="M267" t="n">
-        <v>475</v>
+        <v>625</v>
       </c>
       <c r="N267" t="inlineStr">
         <is>
@@ -19603,7 +19603,7 @@
         </is>
       </c>
       <c r="P267" t="n">
-        <v>475</v>
+        <v>625</v>
       </c>
       <c r="Q267" t="n">
         <v>1</v>
@@ -19629,7 +19629,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44187</v>
+        <v>44447</v>
       </c>
       <c r="E268" t="n">
         <v>13</v>
@@ -19649,20 +19649,20 @@
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J268" t="n">
-        <v>4900</v>
+        <v>970</v>
       </c>
       <c r="K268" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="L268" t="n">
-        <v>1000</v>
+        <v>450</v>
       </c>
       <c r="M268" t="n">
-        <v>902</v>
+        <v>425</v>
       </c>
       <c r="N268" t="inlineStr">
         <is>
@@ -19671,11 +19671,11 @@
       </c>
       <c r="O268" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P268" t="n">
-        <v>902</v>
+        <v>425</v>
       </c>
       <c r="Q268" t="n">
         <v>1</v>
@@ -19701,7 +19701,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44390</v>
+        <v>44267</v>
       </c>
       <c r="E269" t="n">
         <v>13</v>
@@ -19725,16 +19725,16 @@
         </is>
       </c>
       <c r="J269" t="n">
-        <v>4300</v>
+        <v>1200</v>
       </c>
       <c r="K269" t="n">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="L269" t="n">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="M269" t="n">
-        <v>550</v>
+        <v>1100</v>
       </c>
       <c r="N269" t="inlineStr">
         <is>
@@ -19747,7 +19747,7 @@
         </is>
       </c>
       <c r="P269" t="n">
-        <v>550</v>
+        <v>1100</v>
       </c>
       <c r="Q269" t="n">
         <v>1</v>
@@ -19773,7 +19773,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44390</v>
+        <v>44468</v>
       </c>
       <c r="E270" t="n">
         <v>13</v>
@@ -19797,16 +19797,16 @@
         </is>
       </c>
       <c r="J270" t="n">
-        <v>3400</v>
+        <v>2500</v>
       </c>
       <c r="K270" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L270" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="M270" t="n">
-        <v>550</v>
+        <v>625</v>
       </c>
       <c r="N270" t="inlineStr">
         <is>
@@ -19815,11 +19815,11 @@
       </c>
       <c r="O270" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P270" t="n">
-        <v>550</v>
+        <v>625</v>
       </c>
       <c r="Q270" t="n">
         <v>1</v>
@@ -19845,7 +19845,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44390</v>
+        <v>44468</v>
       </c>
       <c r="E271" t="n">
         <v>13</v>
@@ -19869,16 +19869,16 @@
         </is>
       </c>
       <c r="J271" t="n">
-        <v>1600</v>
+        <v>1300</v>
       </c>
       <c r="K271" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="L271" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M271" t="n">
-        <v>400</v>
+        <v>475</v>
       </c>
       <c r="N271" t="inlineStr">
         <is>
@@ -19891,7 +19891,7 @@
         </is>
       </c>
       <c r="P271" t="n">
-        <v>400</v>
+        <v>475</v>
       </c>
       <c r="Q271" t="n">
         <v>1</v>
@@ -19917,7 +19917,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44390</v>
+        <v>44187</v>
       </c>
       <c r="E272" t="n">
         <v>13</v>
@@ -19937,20 +19937,20 @@
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J272" t="n">
-        <v>970</v>
+        <v>4900</v>
       </c>
       <c r="K272" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="L272" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="M272" t="n">
-        <v>400</v>
+        <v>902</v>
       </c>
       <c r="N272" t="inlineStr">
         <is>
@@ -19959,11 +19959,11 @@
       </c>
       <c r="O272" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P272" t="n">
-        <v>400</v>
+        <v>902</v>
       </c>
       <c r="Q272" t="n">
         <v>1</v>
@@ -19989,7 +19989,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E273" t="n">
         <v>13</v>
@@ -20061,7 +20061,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E274" t="n">
         <v>13</v>
@@ -20133,7 +20133,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E275" t="n">
         <v>13</v>
@@ -20205,7 +20205,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E276" t="n">
         <v>13</v>
@@ -20277,7 +20277,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E277" t="n">
         <v>13</v>
@@ -20301,16 +20301,16 @@
         </is>
       </c>
       <c r="J277" t="n">
-        <v>1600</v>
+        <v>4300</v>
       </c>
       <c r="K277" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L277" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M277" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="N277" t="inlineStr">
         <is>
@@ -20323,7 +20323,7 @@
         </is>
       </c>
       <c r="P277" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="Q277" t="n">
         <v>1</v>
@@ -20349,7 +20349,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44264</v>
+        <v>44386</v>
       </c>
       <c r="E278" t="n">
         <v>13</v>
@@ -20373,16 +20373,16 @@
         </is>
       </c>
       <c r="J278" t="n">
-        <v>1000</v>
+        <v>3400</v>
       </c>
       <c r="K278" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="L278" t="n">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="M278" t="n">
-        <v>1200</v>
+        <v>550</v>
       </c>
       <c r="N278" t="inlineStr">
         <is>
@@ -20391,11 +20391,11 @@
       </c>
       <c r="O278" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P278" t="n">
-        <v>1200</v>
+        <v>550</v>
       </c>
       <c r="Q278" t="n">
         <v>1</v>
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44463</v>
+        <v>44386</v>
       </c>
       <c r="E279" t="n">
         <v>13</v>
@@ -20441,20 +20441,20 @@
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J279" t="n">
-        <v>4300</v>
+        <v>1600</v>
       </c>
       <c r="K279" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L279" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="M279" t="n">
-        <v>625</v>
+        <v>400</v>
       </c>
       <c r="N279" t="inlineStr">
         <is>
@@ -20467,7 +20467,7 @@
         </is>
       </c>
       <c r="P279" t="n">
-        <v>625</v>
+        <v>400</v>
       </c>
       <c r="Q279" t="n">
         <v>1</v>
@@ -20493,7 +20493,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44463</v>
+        <v>44386</v>
       </c>
       <c r="E280" t="n">
         <v>13</v>
@@ -20513,20 +20513,20 @@
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J280" t="n">
-        <v>3400</v>
+        <v>970</v>
       </c>
       <c r="K280" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L280" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="M280" t="n">
-        <v>625</v>
+        <v>400</v>
       </c>
       <c r="N280" t="inlineStr">
         <is>
@@ -20539,7 +20539,7 @@
         </is>
       </c>
       <c r="P280" t="n">
-        <v>625</v>
+        <v>400</v>
       </c>
       <c r="Q280" t="n">
         <v>1</v>
@@ -20565,7 +20565,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44463</v>
+        <v>44308</v>
       </c>
       <c r="E281" t="n">
         <v>13</v>
@@ -20585,20 +20585,20 @@
       </c>
       <c r="I281" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J281" t="n">
-        <v>1240</v>
+        <v>1600</v>
       </c>
       <c r="K281" t="n">
-        <v>450</v>
+        <v>700</v>
       </c>
       <c r="L281" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M281" t="n">
-        <v>475</v>
+        <v>700</v>
       </c>
       <c r="N281" t="inlineStr">
         <is>
@@ -20611,7 +20611,7 @@
         </is>
       </c>
       <c r="P281" t="n">
-        <v>475</v>
+        <v>700</v>
       </c>
       <c r="Q281" t="n">
         <v>1</v>
@@ -20637,7 +20637,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44463</v>
+        <v>44264</v>
       </c>
       <c r="E282" t="n">
         <v>13</v>
@@ -20657,20 +20657,20 @@
       </c>
       <c r="I282" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J282" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="K282" t="n">
-        <v>450</v>
+        <v>1200</v>
       </c>
       <c r="L282" t="n">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="M282" t="n">
-        <v>475</v>
+        <v>1200</v>
       </c>
       <c r="N282" t="inlineStr">
         <is>
@@ -20679,11 +20679,11 @@
       </c>
       <c r="O282" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P282" t="n">
-        <v>475</v>
+        <v>1200</v>
       </c>
       <c r="Q282" t="n">
         <v>1</v>
@@ -20709,7 +20709,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E283" t="n">
         <v>13</v>
@@ -20733,16 +20733,16 @@
         </is>
       </c>
       <c r="J283" t="n">
-        <v>3400</v>
+        <v>4300</v>
       </c>
       <c r="K283" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="L283" t="n">
-        <v>1000</v>
+        <v>650</v>
       </c>
       <c r="M283" t="n">
-        <v>950</v>
+        <v>625</v>
       </c>
       <c r="N283" t="inlineStr">
         <is>
@@ -20755,7 +20755,7 @@
         </is>
       </c>
       <c r="P283" t="n">
-        <v>950</v>
+        <v>625</v>
       </c>
       <c r="Q283" t="n">
         <v>1</v>
@@ -20781,7 +20781,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44301</v>
+        <v>44463</v>
       </c>
       <c r="E284" t="n">
         <v>13</v>
@@ -20805,16 +20805,16 @@
         </is>
       </c>
       <c r="J284" t="n">
-        <v>1600</v>
+        <v>3400</v>
       </c>
       <c r="K284" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="L284" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="M284" t="n">
-        <v>750</v>
+        <v>625</v>
       </c>
       <c r="N284" t="inlineStr">
         <is>
@@ -20823,11 +20823,11 @@
       </c>
       <c r="O284" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P284" t="n">
-        <v>750</v>
+        <v>625</v>
       </c>
       <c r="Q284" t="n">
         <v>1</v>
@@ -20853,7 +20853,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44252</v>
+        <v>44463</v>
       </c>
       <c r="E285" t="n">
         <v>13</v>
@@ -20873,20 +20873,20 @@
       </c>
       <c r="I285" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J285" t="n">
-        <v>1200</v>
+        <v>1240</v>
       </c>
       <c r="K285" t="n">
-        <v>1000</v>
+        <v>450</v>
       </c>
       <c r="L285" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="M285" t="n">
-        <v>1000</v>
+        <v>475</v>
       </c>
       <c r="N285" t="inlineStr">
         <is>
@@ -20895,11 +20895,11 @@
       </c>
       <c r="O285" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P285" t="n">
-        <v>1000</v>
+        <v>475</v>
       </c>
       <c r="Q285" t="n">
         <v>1</v>
@@ -20925,7 +20925,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44252</v>
+        <v>44463</v>
       </c>
       <c r="E286" t="n">
         <v>13</v>
@@ -20949,16 +20949,16 @@
         </is>
       </c>
       <c r="J286" t="n">
-        <v>300</v>
+        <v>970</v>
       </c>
       <c r="K286" t="n">
-        <v>800</v>
+        <v>450</v>
       </c>
       <c r="L286" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M286" t="n">
-        <v>800</v>
+        <v>475</v>
       </c>
       <c r="N286" t="inlineStr">
         <is>
@@ -20967,11 +20967,11 @@
       </c>
       <c r="O286" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P286" t="n">
-        <v>800</v>
+        <v>475</v>
       </c>
       <c r="Q286" t="n">
         <v>1</v>
@@ -20997,7 +20997,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44166</v>
+        <v>44196</v>
       </c>
       <c r="E287" t="n">
         <v>13</v>
@@ -21021,16 +21021,16 @@
         </is>
       </c>
       <c r="J287" t="n">
-        <v>3200</v>
+        <v>3400</v>
       </c>
       <c r="K287" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="L287" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="M287" t="n">
-        <v>500</v>
+        <v>950</v>
       </c>
       <c r="N287" t="inlineStr">
         <is>
@@ -21039,11 +21039,11 @@
       </c>
       <c r="O287" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P287" t="n">
-        <v>500</v>
+        <v>950</v>
       </c>
       <c r="Q287" t="n">
         <v>1</v>
@@ -21069,7 +21069,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44369</v>
+        <v>44301</v>
       </c>
       <c r="E288" t="n">
         <v>13</v>
@@ -21093,16 +21093,16 @@
         </is>
       </c>
       <c r="J288" t="n">
-        <v>3400</v>
+        <v>1600</v>
       </c>
       <c r="K288" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L288" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M288" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="N288" t="inlineStr">
         <is>
@@ -21115,7 +21115,7 @@
         </is>
       </c>
       <c r="P288" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="Q288" t="n">
         <v>1</v>
@@ -21141,7 +21141,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44369</v>
+        <v>44252</v>
       </c>
       <c r="E289" t="n">
         <v>13</v>
@@ -21165,16 +21165,16 @@
         </is>
       </c>
       <c r="J289" t="n">
-        <v>2500</v>
+        <v>1200</v>
       </c>
       <c r="K289" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="L289" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="M289" t="n">
-        <v>550</v>
+        <v>1000</v>
       </c>
       <c r="N289" t="inlineStr">
         <is>
@@ -21183,11 +21183,11 @@
       </c>
       <c r="O289" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P289" t="n">
-        <v>550</v>
+        <v>1000</v>
       </c>
       <c r="Q289" t="n">
         <v>1</v>
@@ -21213,7 +21213,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44369</v>
+        <v>44252</v>
       </c>
       <c r="E290" t="n">
         <v>13</v>
@@ -21237,16 +21237,16 @@
         </is>
       </c>
       <c r="J290" t="n">
-        <v>1600</v>
+        <v>300</v>
       </c>
       <c r="K290" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="L290" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="M290" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="N290" t="inlineStr">
         <is>
@@ -21255,11 +21255,11 @@
       </c>
       <c r="O290" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P290" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="Q290" t="n">
         <v>1</v>
@@ -21285,7 +21285,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44369</v>
+        <v>44166</v>
       </c>
       <c r="E291" t="n">
         <v>13</v>
@@ -21305,20 +21305,20 @@
       </c>
       <c r="I291" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J291" t="n">
-        <v>700</v>
+        <v>3200</v>
       </c>
       <c r="K291" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L291" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M291" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N291" t="inlineStr">
         <is>
@@ -21327,11 +21327,11 @@
       </c>
       <c r="O291" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P291" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Q291" t="n">
         <v>1</v>
@@ -21357,7 +21357,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E292" t="n">
         <v>13</v>
@@ -21384,13 +21384,13 @@
         <v>3400</v>
       </c>
       <c r="K292" t="n">
+        <v>500</v>
+      </c>
+      <c r="L292" t="n">
         <v>600</v>
       </c>
-      <c r="L292" t="n">
-        <v>650</v>
-      </c>
       <c r="M292" t="n">
-        <v>625</v>
+        <v>550</v>
       </c>
       <c r="N292" t="inlineStr">
         <is>
@@ -21403,7 +21403,7 @@
         </is>
       </c>
       <c r="P292" t="n">
-        <v>625</v>
+        <v>550</v>
       </c>
       <c r="Q292" t="n">
         <v>1</v>
@@ -21429,7 +21429,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E293" t="n">
         <v>13</v>
@@ -21453,16 +21453,16 @@
         </is>
       </c>
       <c r="J293" t="n">
-        <v>1600</v>
+        <v>2500</v>
       </c>
       <c r="K293" t="n">
+        <v>500</v>
+      </c>
+      <c r="L293" t="n">
         <v>600</v>
       </c>
-      <c r="L293" t="n">
-        <v>650</v>
-      </c>
       <c r="M293" t="n">
-        <v>625</v>
+        <v>550</v>
       </c>
       <c r="N293" t="inlineStr">
         <is>
@@ -21475,7 +21475,7 @@
         </is>
       </c>
       <c r="P293" t="n">
-        <v>625</v>
+        <v>550</v>
       </c>
       <c r="Q293" t="n">
         <v>1</v>
@@ -21501,7 +21501,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E294" t="n">
         <v>13</v>
@@ -21525,16 +21525,16 @@
         </is>
       </c>
       <c r="J294" t="n">
-        <v>970</v>
+        <v>1600</v>
       </c>
       <c r="K294" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L294" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="M294" t="n">
-        <v>525</v>
+        <v>400</v>
       </c>
       <c r="N294" t="inlineStr">
         <is>
@@ -21547,7 +21547,7 @@
         </is>
       </c>
       <c r="P294" t="n">
-        <v>525</v>
+        <v>400</v>
       </c>
       <c r="Q294" t="n">
         <v>1</v>
@@ -21573,7 +21573,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E295" t="n">
         <v>13</v>
@@ -21597,16 +21597,16 @@
         </is>
       </c>
       <c r="J295" t="n">
-        <v>610</v>
+        <v>700</v>
       </c>
       <c r="K295" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L295" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="M295" t="n">
-        <v>525</v>
+        <v>400</v>
       </c>
       <c r="N295" t="inlineStr">
         <is>
@@ -21619,7 +21619,7 @@
         </is>
       </c>
       <c r="P295" t="n">
-        <v>525</v>
+        <v>400</v>
       </c>
       <c r="Q295" t="n">
         <v>1</v>
@@ -21645,7 +21645,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E296" t="n">
         <v>13</v>
@@ -21669,16 +21669,16 @@
         </is>
       </c>
       <c r="J296" t="n">
-        <v>2500</v>
+        <v>3400</v>
       </c>
       <c r="K296" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L296" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="M296" t="n">
-        <v>550</v>
+        <v>625</v>
       </c>
       <c r="N296" t="inlineStr">
         <is>
@@ -21691,7 +21691,7 @@
         </is>
       </c>
       <c r="P296" t="n">
-        <v>550</v>
+        <v>625</v>
       </c>
       <c r="Q296" t="n">
         <v>1</v>
@@ -21717,7 +21717,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E297" t="n">
         <v>13</v>
@@ -21741,16 +21741,16 @@
         </is>
       </c>
       <c r="J297" t="n">
-        <v>3400</v>
+        <v>1600</v>
       </c>
       <c r="K297" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L297" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="M297" t="n">
-        <v>550</v>
+        <v>625</v>
       </c>
       <c r="N297" t="inlineStr">
         <is>
@@ -21763,7 +21763,7 @@
         </is>
       </c>
       <c r="P297" t="n">
-        <v>550</v>
+        <v>625</v>
       </c>
       <c r="Q297" t="n">
         <v>1</v>
@@ -21789,7 +21789,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E298" t="n">
         <v>13</v>
@@ -21816,13 +21816,13 @@
         <v>970</v>
       </c>
       <c r="K298" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L298" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="M298" t="n">
-        <v>400</v>
+        <v>525</v>
       </c>
       <c r="N298" t="inlineStr">
         <is>
@@ -21835,7 +21835,7 @@
         </is>
       </c>
       <c r="P298" t="n">
-        <v>400</v>
+        <v>525</v>
       </c>
       <c r="Q298" t="n">
         <v>1</v>
@@ -21861,7 +21861,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E299" t="n">
         <v>13</v>
@@ -21885,16 +21885,16 @@
         </is>
       </c>
       <c r="J299" t="n">
-        <v>1600</v>
+        <v>610</v>
       </c>
       <c r="K299" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L299" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="M299" t="n">
-        <v>400</v>
+        <v>525</v>
       </c>
       <c r="N299" t="inlineStr">
         <is>
@@ -21907,7 +21907,7 @@
         </is>
       </c>
       <c r="P299" t="n">
-        <v>400</v>
+        <v>525</v>
       </c>
       <c r="Q299" t="n">
         <v>1</v>
@@ -21933,7 +21933,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E300" t="n">
         <v>13</v>
@@ -21957,16 +21957,16 @@
         </is>
       </c>
       <c r="J300" t="n">
-        <v>3400</v>
+        <v>2500</v>
       </c>
       <c r="K300" t="n">
+        <v>500</v>
+      </c>
+      <c r="L300" t="n">
         <v>600</v>
       </c>
-      <c r="L300" t="n">
-        <v>700</v>
-      </c>
       <c r="M300" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="N300" t="inlineStr">
         <is>
@@ -21979,7 +21979,7 @@
         </is>
       </c>
       <c r="P300" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="Q300" t="n">
         <v>1</v>
@@ -22005,7 +22005,7 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E301" t="n">
         <v>13</v>
@@ -22025,20 +22025,20 @@
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J301" t="n">
-        <v>1600</v>
+        <v>3400</v>
       </c>
       <c r="K301" t="n">
         <v>500</v>
       </c>
       <c r="L301" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M301" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="N301" t="inlineStr">
         <is>
@@ -22047,11 +22047,11 @@
       </c>
       <c r="O301" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P301" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="Q301" t="n">
         <v>1</v>
@@ -22077,7 +22077,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44397</v>
+        <v>44371</v>
       </c>
       <c r="E302" t="n">
         <v>13</v>
@@ -22097,20 +22097,20 @@
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J302" t="n">
-        <v>4300</v>
+        <v>970</v>
       </c>
       <c r="K302" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L302" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M302" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="N302" t="inlineStr">
         <is>
@@ -22123,7 +22123,7 @@
         </is>
       </c>
       <c r="P302" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="Q302" t="n">
         <v>1</v>
@@ -22149,7 +22149,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44397</v>
+        <v>44371</v>
       </c>
       <c r="E303" t="n">
         <v>13</v>
@@ -22169,20 +22169,20 @@
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J303" t="n">
-        <v>3400</v>
+        <v>1600</v>
       </c>
       <c r="K303" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L303" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M303" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="N303" t="inlineStr">
         <is>
@@ -22195,7 +22195,7 @@
         </is>
       </c>
       <c r="P303" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="Q303" t="n">
         <v>1</v>
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44397</v>
+        <v>44316</v>
       </c>
       <c r="E304" t="n">
         <v>13</v>
@@ -22241,20 +22241,20 @@
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J304" t="n">
-        <v>1600</v>
+        <v>3400</v>
       </c>
       <c r="K304" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L304" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="M304" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="N304" t="inlineStr">
         <is>
@@ -22267,7 +22267,7 @@
         </is>
       </c>
       <c r="P304" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="Q304" t="n">
         <v>1</v>
@@ -22293,7 +22293,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44397</v>
+        <v>44316</v>
       </c>
       <c r="E305" t="n">
         <v>13</v>
@@ -22317,16 +22317,16 @@
         </is>
       </c>
       <c r="J305" t="n">
-        <v>970</v>
+        <v>1600</v>
       </c>
       <c r="K305" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L305" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M305" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N305" t="inlineStr">
         <is>
@@ -22335,11 +22335,11 @@
       </c>
       <c r="O305" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P305" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Q305" t="n">
         <v>1</v>
@@ -22365,7 +22365,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E306" t="n">
         <v>13</v>
@@ -22389,7 +22389,7 @@
         </is>
       </c>
       <c r="J306" t="n">
-        <v>2500</v>
+        <v>4300</v>
       </c>
       <c r="K306" t="n">
         <v>500</v>
@@ -22437,7 +22437,7 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E307" t="n">
         <v>13</v>
@@ -22461,7 +22461,7 @@
         </is>
       </c>
       <c r="J307" t="n">
-        <v>1600</v>
+        <v>3400</v>
       </c>
       <c r="K307" t="n">
         <v>500</v>
@@ -22509,7 +22509,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E308" t="n">
         <v>13</v>
@@ -22581,7 +22581,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E309" t="n">
         <v>13</v>
@@ -22605,7 +22605,7 @@
         </is>
       </c>
       <c r="J309" t="n">
-        <v>700</v>
+        <v>970</v>
       </c>
       <c r="K309" t="n">
         <v>400</v>
@@ -22653,7 +22653,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44273</v>
+        <v>44363</v>
       </c>
       <c r="E310" t="n">
         <v>13</v>
@@ -22677,16 +22677,16 @@
         </is>
       </c>
       <c r="J310" t="n">
-        <v>1600</v>
+        <v>2500</v>
       </c>
       <c r="K310" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="L310" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="M310" t="n">
-        <v>1000</v>
+        <v>550</v>
       </c>
       <c r="N310" t="inlineStr">
         <is>
@@ -22699,7 +22699,7 @@
         </is>
       </c>
       <c r="P310" t="n">
-        <v>1000</v>
+        <v>550</v>
       </c>
       <c r="Q310" t="n">
         <v>1</v>
@@ -22725,7 +22725,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44438</v>
+        <v>44363</v>
       </c>
       <c r="E311" t="n">
         <v>13</v>
@@ -22752,13 +22752,13 @@
         <v>1600</v>
       </c>
       <c r="K311" t="n">
+        <v>500</v>
+      </c>
+      <c r="L311" t="n">
         <v>600</v>
       </c>
-      <c r="L311" t="n">
-        <v>650</v>
-      </c>
       <c r="M311" t="n">
-        <v>625</v>
+        <v>550</v>
       </c>
       <c r="N311" t="inlineStr">
         <is>
@@ -22767,11 +22767,11 @@
       </c>
       <c r="O311" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P311" t="n">
-        <v>625</v>
+        <v>550</v>
       </c>
       <c r="Q311" t="n">
         <v>1</v>
@@ -22797,7 +22797,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44438</v>
+        <v>44363</v>
       </c>
       <c r="E312" t="n">
         <v>13</v>
@@ -22821,16 +22821,16 @@
         </is>
       </c>
       <c r="J312" t="n">
-        <v>610</v>
+        <v>1600</v>
       </c>
       <c r="K312" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L312" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="M312" t="n">
-        <v>525</v>
+        <v>400</v>
       </c>
       <c r="N312" t="inlineStr">
         <is>
@@ -22843,7 +22843,7 @@
         </is>
       </c>
       <c r="P312" t="n">
-        <v>525</v>
+        <v>400</v>
       </c>
       <c r="Q312" t="n">
         <v>1</v>
@@ -22869,7 +22869,7 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>44372</v>
+        <v>44363</v>
       </c>
       <c r="E313" t="n">
         <v>13</v>
@@ -22889,20 +22889,20 @@
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J313" t="n">
-        <v>3400</v>
+        <v>700</v>
       </c>
       <c r="K313" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L313" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M313" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="N313" t="inlineStr">
         <is>
@@ -22911,11 +22911,11 @@
       </c>
       <c r="O313" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P313" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="Q313" t="n">
         <v>1</v>
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>44372</v>
+        <v>44273</v>
       </c>
       <c r="E314" t="n">
         <v>13</v>
@@ -22961,20 +22961,20 @@
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J314" t="n">
-        <v>970</v>
+        <v>1600</v>
       </c>
       <c r="K314" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="L314" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="M314" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="N314" t="inlineStr">
         <is>
@@ -22987,7 +22987,7 @@
         </is>
       </c>
       <c r="P314" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="Q314" t="n">
         <v>1</v>
@@ -23013,7 +23013,7 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>44286</v>
+        <v>44438</v>
       </c>
       <c r="E315" t="n">
         <v>13</v>
@@ -23040,13 +23040,13 @@
         <v>1600</v>
       </c>
       <c r="K315" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="L315" t="n">
-        <v>900</v>
+        <v>650</v>
       </c>
       <c r="M315" t="n">
-        <v>900</v>
+        <v>625</v>
       </c>
       <c r="N315" t="inlineStr">
         <is>
@@ -23059,7 +23059,7 @@
         </is>
       </c>
       <c r="P315" t="n">
-        <v>900</v>
+        <v>625</v>
       </c>
       <c r="Q315" t="n">
         <v>1</v>
@@ -23085,7 +23085,7 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>44356</v>
+        <v>44438</v>
       </c>
       <c r="E316" t="n">
         <v>13</v>
@@ -23105,20 +23105,20 @@
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J316" t="n">
-        <v>2500</v>
+        <v>610</v>
       </c>
       <c r="K316" t="n">
         <v>500</v>
       </c>
       <c r="L316" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="M316" t="n">
-        <v>550</v>
+        <v>525</v>
       </c>
       <c r="N316" t="inlineStr">
         <is>
@@ -23127,11 +23127,11 @@
       </c>
       <c r="O316" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P316" t="n">
-        <v>550</v>
+        <v>525</v>
       </c>
       <c r="Q316" t="n">
         <v>1</v>
@@ -23157,7 +23157,7 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>44356</v>
+        <v>44372</v>
       </c>
       <c r="E317" t="n">
         <v>13</v>
@@ -23177,20 +23177,20 @@
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J317" t="n">
-        <v>700</v>
+        <v>3400</v>
       </c>
       <c r="K317" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L317" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M317" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="N317" t="inlineStr">
         <is>
@@ -23199,11 +23199,11 @@
       </c>
       <c r="O317" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P317" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="Q317" t="n">
         <v>1</v>
@@ -23229,7 +23229,7 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>44160</v>
+        <v>44372</v>
       </c>
       <c r="E318" t="n">
         <v>13</v>
@@ -23249,20 +23249,20 @@
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J318" t="n">
-        <v>3600</v>
+        <v>970</v>
       </c>
       <c r="K318" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L318" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M318" t="n">
-        <v>556</v>
+        <v>400</v>
       </c>
       <c r="N318" t="inlineStr">
         <is>
@@ -23271,11 +23271,11 @@
       </c>
       <c r="O318" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P318" t="n">
-        <v>556</v>
+        <v>400</v>
       </c>
       <c r="Q318" t="n">
         <v>1</v>
@@ -23301,7 +23301,7 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>44351</v>
+        <v>44286</v>
       </c>
       <c r="E319" t="n">
         <v>13</v>
@@ -23325,16 +23325,16 @@
         </is>
       </c>
       <c r="J319" t="n">
-        <v>3400</v>
+        <v>1600</v>
       </c>
       <c r="K319" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="L319" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="M319" t="n">
-        <v>550</v>
+        <v>900</v>
       </c>
       <c r="N319" t="inlineStr">
         <is>
@@ -23347,7 +23347,7 @@
         </is>
       </c>
       <c r="P319" t="n">
-        <v>550</v>
+        <v>900</v>
       </c>
       <c r="Q319" t="n">
         <v>1</v>
@@ -23373,7 +23373,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E320" t="n">
         <v>13</v>
@@ -23397,7 +23397,7 @@
         </is>
       </c>
       <c r="J320" t="n">
-        <v>4300</v>
+        <v>2500</v>
       </c>
       <c r="K320" t="n">
         <v>500</v>
@@ -23445,7 +23445,7 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E321" t="n">
         <v>13</v>
@@ -23469,7 +23469,7 @@
         </is>
       </c>
       <c r="J321" t="n">
-        <v>1600</v>
+        <v>700</v>
       </c>
       <c r="K321" t="n">
         <v>400</v>
@@ -23487,7 +23487,7 @@
       </c>
       <c r="O321" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P321" t="n">
@@ -23517,7 +23517,7 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E322" t="n">
         <v>13</v>
@@ -23537,20 +23537,20 @@
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J322" t="n">
-        <v>2500</v>
+        <v>3600</v>
       </c>
       <c r="K322" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L322" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M322" t="n">
-        <v>400</v>
+        <v>556</v>
       </c>
       <c r="N322" t="inlineStr">
         <is>
@@ -23559,11 +23559,11 @@
       </c>
       <c r="O322" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P322" t="n">
-        <v>400</v>
+        <v>556</v>
       </c>
       <c r="Q322" t="n">
         <v>1</v>
@@ -23589,7 +23589,7 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E323" t="n">
         <v>13</v>
@@ -23661,7 +23661,7 @@
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E324" t="n">
         <v>13</v>
@@ -23685,7 +23685,7 @@
         </is>
       </c>
       <c r="J324" t="n">
-        <v>2500</v>
+        <v>4300</v>
       </c>
       <c r="K324" t="n">
         <v>500</v>
@@ -23733,7 +23733,7 @@
         </is>
       </c>
       <c r="D325" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E325" t="n">
         <v>13</v>
@@ -23805,7 +23805,7 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E326" t="n">
         <v>13</v>
@@ -23829,7 +23829,7 @@
         </is>
       </c>
       <c r="J326" t="n">
-        <v>970</v>
+        <v>2500</v>
       </c>
       <c r="K326" t="n">
         <v>400</v>
@@ -23877,7 +23877,7 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E327" t="n">
         <v>13</v>
@@ -23901,16 +23901,16 @@
         </is>
       </c>
       <c r="J327" t="n">
-        <v>1600</v>
+        <v>3400</v>
       </c>
       <c r="K327" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L327" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M327" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="N327" t="inlineStr">
         <is>
@@ -23919,11 +23919,11 @@
       </c>
       <c r="O327" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P327" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="Q327" t="n">
         <v>1</v>
@@ -23949,7 +23949,7 @@
         </is>
       </c>
       <c r="D328" s="2" t="n">
-        <v>44215</v>
+        <v>44365</v>
       </c>
       <c r="E328" t="n">
         <v>13</v>
@@ -23973,16 +23973,16 @@
         </is>
       </c>
       <c r="J328" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="K328" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="L328" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="M328" t="n">
-        <v>950</v>
+        <v>550</v>
       </c>
       <c r="N328" t="inlineStr">
         <is>
@@ -23995,7 +23995,7 @@
         </is>
       </c>
       <c r="P328" t="n">
-        <v>950</v>
+        <v>550</v>
       </c>
       <c r="Q328" t="n">
         <v>1</v>
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>44175</v>
+        <v>44365</v>
       </c>
       <c r="E329" t="n">
         <v>13</v>
@@ -24041,20 +24041,20 @@
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J329" t="n">
-        <v>5200</v>
+        <v>1600</v>
       </c>
       <c r="K329" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="L329" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="M329" t="n">
-        <v>850</v>
+        <v>400</v>
       </c>
       <c r="N329" t="inlineStr">
         <is>
@@ -24067,7 +24067,7 @@
         </is>
       </c>
       <c r="P329" t="n">
-        <v>850</v>
+        <v>400</v>
       </c>
       <c r="Q329" t="n">
         <v>1</v>
@@ -24093,7 +24093,7 @@
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>44461</v>
+        <v>44365</v>
       </c>
       <c r="E330" t="n">
         <v>13</v>
@@ -24113,20 +24113,20 @@
       </c>
       <c r="I330" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J330" t="n">
-        <v>1960</v>
+        <v>970</v>
       </c>
       <c r="K330" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L330" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="M330" t="n">
-        <v>625</v>
+        <v>400</v>
       </c>
       <c r="N330" t="inlineStr">
         <is>
@@ -24135,11 +24135,11 @@
       </c>
       <c r="O330" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P330" t="n">
-        <v>625</v>
+        <v>400</v>
       </c>
       <c r="Q330" t="n">
         <v>1</v>
@@ -24165,7 +24165,7 @@
         </is>
       </c>
       <c r="D331" s="2" t="n">
-        <v>44461</v>
+        <v>44306</v>
       </c>
       <c r="E331" t="n">
         <v>13</v>
@@ -24185,20 +24185,20 @@
       </c>
       <c r="I331" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J331" t="n">
-        <v>520</v>
+        <v>1600</v>
       </c>
       <c r="K331" t="n">
-        <v>450</v>
+        <v>700</v>
       </c>
       <c r="L331" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M331" t="n">
-        <v>475</v>
+        <v>750</v>
       </c>
       <c r="N331" t="inlineStr">
         <is>
@@ -24207,11 +24207,11 @@
       </c>
       <c r="O331" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P331" t="n">
-        <v>475</v>
+        <v>750</v>
       </c>
       <c r="Q331" t="n">
         <v>1</v>
@@ -24237,7 +24237,7 @@
         </is>
       </c>
       <c r="D332" s="2" t="n">
-        <v>44357</v>
+        <v>44215</v>
       </c>
       <c r="E332" t="n">
         <v>13</v>
@@ -24261,16 +24261,16 @@
         </is>
       </c>
       <c r="J332" t="n">
-        <v>3400</v>
+        <v>2000</v>
       </c>
       <c r="K332" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="L332" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="M332" t="n">
-        <v>550</v>
+        <v>950</v>
       </c>
       <c r="N332" t="inlineStr">
         <is>
@@ -24279,11 +24279,11 @@
       </c>
       <c r="O332" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P332" t="n">
-        <v>550</v>
+        <v>950</v>
       </c>
       <c r="Q332" t="n">
         <v>1</v>
@@ -24309,7 +24309,7 @@
         </is>
       </c>
       <c r="D333" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E333" t="n">
         <v>13</v>
@@ -24333,16 +24333,16 @@
         </is>
       </c>
       <c r="J333" t="n">
-        <v>4300</v>
+        <v>5200</v>
       </c>
       <c r="K333" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="L333" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="M333" t="n">
-        <v>550</v>
+        <v>850</v>
       </c>
       <c r="N333" t="inlineStr">
         <is>
@@ -24351,11 +24351,11 @@
       </c>
       <c r="O333" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P333" t="n">
-        <v>550</v>
+        <v>850</v>
       </c>
       <c r="Q333" t="n">
         <v>1</v>
@@ -24381,7 +24381,7 @@
         </is>
       </c>
       <c r="D334" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E334" t="n">
         <v>13</v>
@@ -24401,20 +24401,20 @@
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J334" t="n">
-        <v>1300</v>
+        <v>1960</v>
       </c>
       <c r="K334" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L334" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="M334" t="n">
-        <v>400</v>
+        <v>625</v>
       </c>
       <c r="N334" t="inlineStr">
         <is>
@@ -24427,7 +24427,7 @@
         </is>
       </c>
       <c r="P334" t="n">
-        <v>400</v>
+        <v>625</v>
       </c>
       <c r="Q334" t="n">
         <v>1</v>
@@ -24453,7 +24453,7 @@
         </is>
       </c>
       <c r="D335" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E335" t="n">
         <v>13</v>
@@ -24477,16 +24477,16 @@
         </is>
       </c>
       <c r="J335" t="n">
-        <v>1600</v>
+        <v>520</v>
       </c>
       <c r="K335" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="L335" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M335" t="n">
-        <v>400</v>
+        <v>475</v>
       </c>
       <c r="N335" t="inlineStr">
         <is>
@@ -24495,11 +24495,11 @@
       </c>
       <c r="O335" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P335" t="n">
-        <v>400</v>
+        <v>475</v>
       </c>
       <c r="Q335" t="n">
         <v>1</v>
@@ -24525,7 +24525,7 @@
         </is>
       </c>
       <c r="D336" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E336" t="n">
         <v>13</v>
@@ -24549,16 +24549,16 @@
         </is>
       </c>
       <c r="J336" t="n">
-        <v>4500</v>
+        <v>3400</v>
       </c>
       <c r="K336" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L336" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M336" t="n">
-        <v>756</v>
+        <v>550</v>
       </c>
       <c r="N336" t="inlineStr">
         <is>
@@ -24567,11 +24567,11 @@
       </c>
       <c r="O336" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P336" t="n">
-        <v>756</v>
+        <v>550</v>
       </c>
       <c r="Q336" t="n">
         <v>1</v>
@@ -24597,7 +24597,7 @@
         </is>
       </c>
       <c r="D337" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E337" t="n">
         <v>13</v>
@@ -24617,20 +24617,20 @@
       </c>
       <c r="I337" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J337" t="n">
-        <v>2000</v>
+        <v>4300</v>
       </c>
       <c r="K337" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L337" t="n">
         <v>600</v>
       </c>
       <c r="M337" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="N337" t="inlineStr">
         <is>
@@ -24639,11 +24639,11 @@
       </c>
       <c r="O337" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P337" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="Q337" t="n">
         <v>1</v>
@@ -24669,7 +24669,7 @@
         </is>
       </c>
       <c r="D338" s="2" t="n">
-        <v>44162</v>
+        <v>44357</v>
       </c>
       <c r="E338" t="n">
         <v>13</v>
@@ -24689,20 +24689,20 @@
       </c>
       <c r="I338" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J338" t="n">
-        <v>4800</v>
+        <v>1300</v>
       </c>
       <c r="K338" t="n">
         <v>400</v>
       </c>
       <c r="L338" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M338" t="n">
-        <v>448</v>
+        <v>400</v>
       </c>
       <c r="N338" t="inlineStr">
         <is>
@@ -24711,11 +24711,11 @@
       </c>
       <c r="O338" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P338" t="n">
-        <v>448</v>
+        <v>400</v>
       </c>
       <c r="Q338" t="n">
         <v>1</v>
@@ -24741,7 +24741,7 @@
         </is>
       </c>
       <c r="D339" s="2" t="n">
-        <v>44411</v>
+        <v>44357</v>
       </c>
       <c r="E339" t="n">
         <v>13</v>
@@ -24761,20 +24761,20 @@
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J339" t="n">
-        <v>3400</v>
+        <v>1600</v>
       </c>
       <c r="K339" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L339" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M339" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="N339" t="inlineStr">
         <is>
@@ -24783,11 +24783,11 @@
       </c>
       <c r="O339" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P339" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="Q339" t="n">
         <v>1</v>
@@ -24813,7 +24813,7 @@
         </is>
       </c>
       <c r="D340" s="2" t="n">
-        <v>44411</v>
+        <v>44203</v>
       </c>
       <c r="E340" t="n">
         <v>13</v>
@@ -24837,16 +24837,16 @@
         </is>
       </c>
       <c r="J340" t="n">
-        <v>2500</v>
+        <v>4500</v>
       </c>
       <c r="K340" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L340" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M340" t="n">
-        <v>550</v>
+        <v>756</v>
       </c>
       <c r="N340" t="inlineStr">
         <is>
@@ -24855,11 +24855,11 @@
       </c>
       <c r="O340" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P340" t="n">
-        <v>550</v>
+        <v>756</v>
       </c>
       <c r="Q340" t="n">
         <v>1</v>
@@ -24885,7 +24885,7 @@
         </is>
       </c>
       <c r="D341" s="2" t="n">
-        <v>44411</v>
+        <v>44203</v>
       </c>
       <c r="E341" t="n">
         <v>13</v>
@@ -24909,16 +24909,16 @@
         </is>
       </c>
       <c r="J341" t="n">
-        <v>970</v>
+        <v>2000</v>
       </c>
       <c r="K341" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L341" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M341" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="N341" t="inlineStr">
         <is>
@@ -24927,11 +24927,11 @@
       </c>
       <c r="O341" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P341" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="Q341" t="n">
         <v>1</v>
@@ -24957,7 +24957,7 @@
         </is>
       </c>
       <c r="D342" s="2" t="n">
-        <v>44411</v>
+        <v>44162</v>
       </c>
       <c r="E342" t="n">
         <v>13</v>
@@ -24977,20 +24977,20 @@
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J342" t="n">
-        <v>790</v>
+        <v>4800</v>
       </c>
       <c r="K342" t="n">
         <v>400</v>
       </c>
       <c r="L342" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M342" t="n">
-        <v>400</v>
+        <v>448</v>
       </c>
       <c r="N342" t="inlineStr">
         <is>
@@ -24999,11 +24999,11 @@
       </c>
       <c r="O342" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P342" t="n">
-        <v>400</v>
+        <v>448</v>
       </c>
       <c r="Q342" t="n">
         <v>1</v>
@@ -25029,7 +25029,7 @@
         </is>
       </c>
       <c r="D343" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E343" t="n">
         <v>13</v>
@@ -25053,16 +25053,16 @@
         </is>
       </c>
       <c r="J343" t="n">
-        <v>700</v>
+        <v>3400</v>
       </c>
       <c r="K343" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="L343" t="n">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="M343" t="n">
-        <v>1200</v>
+        <v>550</v>
       </c>
       <c r="N343" t="inlineStr">
         <is>
@@ -25075,7 +25075,7 @@
         </is>
       </c>
       <c r="P343" t="n">
-        <v>1200</v>
+        <v>550</v>
       </c>
       <c r="Q343" t="n">
         <v>1</v>
@@ -25101,7 +25101,7 @@
         </is>
       </c>
       <c r="D344" s="2" t="n">
-        <v>44176</v>
+        <v>44411</v>
       </c>
       <c r="E344" t="n">
         <v>13</v>
@@ -25125,16 +25125,16 @@
         </is>
       </c>
       <c r="J344" t="n">
-        <v>5200</v>
+        <v>2500</v>
       </c>
       <c r="K344" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L344" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M344" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="N344" t="inlineStr">
         <is>
@@ -25143,11 +25143,11 @@
       </c>
       <c r="O344" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P344" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="Q344" t="n">
         <v>1</v>
@@ -25173,7 +25173,7 @@
         </is>
       </c>
       <c r="D345" s="2" t="n">
-        <v>44239</v>
+        <v>44411</v>
       </c>
       <c r="E345" t="n">
         <v>13</v>
@@ -25193,20 +25193,20 @@
       </c>
       <c r="I345" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J345" t="n">
-        <v>1600</v>
+        <v>970</v>
       </c>
       <c r="K345" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="L345" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="M345" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="N345" t="inlineStr">
         <is>
@@ -25219,7 +25219,7 @@
         </is>
       </c>
       <c r="P345" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="Q345" t="n">
         <v>1</v>
@@ -25245,7 +25245,7 @@
         </is>
       </c>
       <c r="D346" s="2" t="n">
-        <v>44376</v>
+        <v>44411</v>
       </c>
       <c r="E346" t="n">
         <v>13</v>
@@ -25265,20 +25265,20 @@
       </c>
       <c r="I346" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J346" t="n">
-        <v>3400</v>
+        <v>790</v>
       </c>
       <c r="K346" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L346" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M346" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="N346" t="inlineStr">
         <is>
@@ -25287,11 +25287,11 @@
       </c>
       <c r="O346" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P346" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="Q346" t="n">
         <v>1</v>
@@ -25317,7 +25317,7 @@
         </is>
       </c>
       <c r="D347" s="2" t="n">
-        <v>44376</v>
+        <v>44257</v>
       </c>
       <c r="E347" t="n">
         <v>13</v>
@@ -25341,16 +25341,16 @@
         </is>
       </c>
       <c r="J347" t="n">
-        <v>2500</v>
+        <v>700</v>
       </c>
       <c r="K347" t="n">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="L347" t="n">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="M347" t="n">
-        <v>550</v>
+        <v>1200</v>
       </c>
       <c r="N347" t="inlineStr">
         <is>
@@ -25359,11 +25359,11 @@
       </c>
       <c r="O347" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P347" t="n">
-        <v>550</v>
+        <v>1200</v>
       </c>
       <c r="Q347" t="n">
         <v>1</v>
@@ -25389,7 +25389,7 @@
         </is>
       </c>
       <c r="D348" s="2" t="n">
-        <v>44376</v>
+        <v>44176</v>
       </c>
       <c r="E348" t="n">
         <v>13</v>
@@ -25409,20 +25409,20 @@
       </c>
       <c r="I348" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J348" t="n">
-        <v>1600</v>
+        <v>5200</v>
       </c>
       <c r="K348" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="L348" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="M348" t="n">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="N348" t="inlineStr">
         <is>
@@ -25435,7 +25435,7 @@
         </is>
       </c>
       <c r="P348" t="n">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="Q348" t="n">
         <v>1</v>
@@ -25461,7 +25461,7 @@
         </is>
       </c>
       <c r="D349" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E349" t="n">
         <v>13</v>
@@ -25481,20 +25481,20 @@
       </c>
       <c r="I349" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J349" t="n">
-        <v>970</v>
+        <v>1600</v>
       </c>
       <c r="K349" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="L349" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="M349" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="N349" t="inlineStr">
         <is>
@@ -25503,11 +25503,11 @@
       </c>
       <c r="O349" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P349" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="Q349" t="n">
         <v>1</v>
@@ -25533,7 +25533,7 @@
         </is>
       </c>
       <c r="D350" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E350" t="n">
         <v>13</v>
@@ -25557,16 +25557,16 @@
         </is>
       </c>
       <c r="J350" t="n">
-        <v>1600</v>
+        <v>3400</v>
       </c>
       <c r="K350" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="L350" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="M350" t="n">
-        <v>900</v>
+        <v>550</v>
       </c>
       <c r="N350" t="inlineStr">
         <is>
@@ -25579,7 +25579,7 @@
         </is>
       </c>
       <c r="P350" t="n">
-        <v>900</v>
+        <v>550</v>
       </c>
       <c r="Q350" t="n">
         <v>1</v>
@@ -25605,7 +25605,7 @@
         </is>
       </c>
       <c r="D351" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E351" t="n">
         <v>13</v>
@@ -25629,7 +25629,7 @@
         </is>
       </c>
       <c r="J351" t="n">
-        <v>4300</v>
+        <v>2500</v>
       </c>
       <c r="K351" t="n">
         <v>500</v>
@@ -25647,7 +25647,7 @@
       </c>
       <c r="O351" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P351" t="n">
@@ -25677,7 +25677,7 @@
         </is>
       </c>
       <c r="D352" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E352" t="n">
         <v>13</v>
@@ -25697,20 +25697,20 @@
       </c>
       <c r="I352" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J352" t="n">
-        <v>3400</v>
+        <v>1600</v>
       </c>
       <c r="K352" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L352" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M352" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="N352" t="inlineStr">
         <is>
@@ -25719,11 +25719,11 @@
       </c>
       <c r="O352" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P352" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="Q352" t="n">
         <v>1</v>
@@ -25749,7 +25749,7 @@
         </is>
       </c>
       <c r="D353" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E353" t="n">
         <v>13</v>
@@ -25773,7 +25773,7 @@
         </is>
       </c>
       <c r="J353" t="n">
-        <v>2500</v>
+        <v>970</v>
       </c>
       <c r="K353" t="n">
         <v>400</v>
@@ -25791,7 +25791,7 @@
       </c>
       <c r="O353" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P353" t="n">
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="D354" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E354" t="n">
         <v>13</v>
@@ -25841,20 +25841,20 @@
       </c>
       <c r="I354" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J354" t="n">
         <v>1600</v>
       </c>
       <c r="K354" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="L354" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="M354" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="N354" t="inlineStr">
         <is>
@@ -25863,11 +25863,11 @@
       </c>
       <c r="O354" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P354" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="Q354" t="n">
         <v>1</v>
@@ -25893,7 +25893,7 @@
         </is>
       </c>
       <c r="D355" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E355" t="n">
         <v>13</v>
@@ -25917,16 +25917,16 @@
         </is>
       </c>
       <c r="J355" t="n">
-        <v>2500</v>
+        <v>4300</v>
       </c>
       <c r="K355" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="L355" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="M355" t="n">
-        <v>950</v>
+        <v>550</v>
       </c>
       <c r="N355" t="inlineStr">
         <is>
@@ -25939,7 +25939,7 @@
         </is>
       </c>
       <c r="P355" t="n">
-        <v>950</v>
+        <v>550</v>
       </c>
       <c r="Q355" t="n">
         <v>1</v>
@@ -25965,7 +25965,7 @@
         </is>
       </c>
       <c r="D356" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E356" t="n">
         <v>13</v>
@@ -25989,16 +25989,16 @@
         </is>
       </c>
       <c r="J356" t="n">
-        <v>4300</v>
+        <v>3400</v>
       </c>
       <c r="K356" t="n">
+        <v>500</v>
+      </c>
+      <c r="L356" t="n">
         <v>600</v>
       </c>
-      <c r="L356" t="n">
-        <v>700</v>
-      </c>
       <c r="M356" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="N356" t="inlineStr">
         <is>
@@ -26007,11 +26007,11 @@
       </c>
       <c r="O356" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P356" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="Q356" t="n">
         <v>1</v>
@@ -26037,7 +26037,7 @@
         </is>
       </c>
       <c r="D357" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E357" t="n">
         <v>13</v>
@@ -26057,20 +26057,20 @@
       </c>
       <c r="I357" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J357" t="n">
-        <v>3400</v>
+        <v>2500</v>
       </c>
       <c r="K357" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L357" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="M357" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="N357" t="inlineStr">
         <is>
@@ -26079,11 +26079,11 @@
       </c>
       <c r="O357" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P357" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="Q357" t="n">
         <v>1</v>
@@ -26109,7 +26109,7 @@
         </is>
       </c>
       <c r="D358" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E358" t="n">
         <v>13</v>
@@ -26139,10 +26139,10 @@
         <v>400</v>
       </c>
       <c r="L358" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M358" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="N358" t="inlineStr">
         <is>
@@ -26151,11 +26151,11 @@
       </c>
       <c r="O358" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P358" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="Q358" t="n">
         <v>1</v>
@@ -26181,7 +26181,7 @@
         </is>
       </c>
       <c r="D359" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E359" t="n">
         <v>13</v>
@@ -26201,20 +26201,20 @@
       </c>
       <c r="I359" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J359" t="n">
-        <v>1300</v>
+        <v>2500</v>
       </c>
       <c r="K359" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="L359" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="M359" t="n">
-        <v>450</v>
+        <v>950</v>
       </c>
       <c r="N359" t="inlineStr">
         <is>
@@ -26223,11 +26223,11 @@
       </c>
       <c r="O359" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P359" t="n">
-        <v>450</v>
+        <v>950</v>
       </c>
       <c r="Q359" t="n">
         <v>1</v>
@@ -26253,7 +26253,7 @@
         </is>
       </c>
       <c r="D360" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E360" t="n">
         <v>13</v>
@@ -26277,16 +26277,16 @@
         </is>
       </c>
       <c r="J360" t="n">
-        <v>2500</v>
+        <v>4300</v>
       </c>
       <c r="K360" t="n">
         <v>600</v>
       </c>
       <c r="L360" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M360" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="N360" t="inlineStr">
         <is>
@@ -26299,7 +26299,7 @@
         </is>
       </c>
       <c r="P360" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="Q360" t="n">
         <v>1</v>
@@ -26325,58 +26325,346 @@
         </is>
       </c>
       <c r="D361" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E361" t="n">
+        <v>13</v>
+      </c>
+      <c r="F361" t="n">
+        <v>100112008</v>
+      </c>
+      <c r="G361" t="inlineStr">
+        <is>
+          <t>Coliflor</t>
+        </is>
+      </c>
+      <c r="H361" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I361" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J361" t="n">
+        <v>3400</v>
+      </c>
+      <c r="K361" t="n">
+        <v>600</v>
+      </c>
+      <c r="L361" t="n">
+        <v>700</v>
+      </c>
+      <c r="M361" t="n">
+        <v>650</v>
+      </c>
+      <c r="N361" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O361" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P361" t="n">
+        <v>650</v>
+      </c>
+      <c r="Q361" t="n">
+        <v>1</v>
+      </c>
+      <c r="R361" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="n">
+        <v>9</v>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D362" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E362" t="n">
+        <v>13</v>
+      </c>
+      <c r="F362" t="n">
+        <v>100112008</v>
+      </c>
+      <c r="G362" t="inlineStr">
+        <is>
+          <t>Coliflor</t>
+        </is>
+      </c>
+      <c r="H362" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I362" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J362" t="n">
+        <v>1600</v>
+      </c>
+      <c r="K362" t="n">
+        <v>400</v>
+      </c>
+      <c r="L362" t="n">
+        <v>500</v>
+      </c>
+      <c r="M362" t="n">
+        <v>450</v>
+      </c>
+      <c r="N362" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O362" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P362" t="n">
+        <v>450</v>
+      </c>
+      <c r="Q362" t="n">
+        <v>1</v>
+      </c>
+      <c r="R362" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="n">
+        <v>9</v>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D363" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E363" t="n">
+        <v>13</v>
+      </c>
+      <c r="F363" t="n">
+        <v>100112008</v>
+      </c>
+      <c r="G363" t="inlineStr">
+        <is>
+          <t>Coliflor</t>
+        </is>
+      </c>
+      <c r="H363" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I363" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J363" t="n">
+        <v>1300</v>
+      </c>
+      <c r="K363" t="n">
+        <v>400</v>
+      </c>
+      <c r="L363" t="n">
+        <v>500</v>
+      </c>
+      <c r="M363" t="n">
+        <v>450</v>
+      </c>
+      <c r="N363" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O363" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P363" t="n">
+        <v>450</v>
+      </c>
+      <c r="Q363" t="n">
+        <v>1</v>
+      </c>
+      <c r="R363" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="n">
+        <v>9</v>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D364" s="2" t="n">
         <v>44323</v>
       </c>
-      <c r="E361" t="n">
-        <v>13</v>
-      </c>
-      <c r="F361" t="n">
-        <v>100112008</v>
-      </c>
-      <c r="G361" t="inlineStr">
-        <is>
-          <t>Coliflor</t>
-        </is>
-      </c>
-      <c r="H361" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="I361" t="inlineStr">
+      <c r="E364" t="n">
+        <v>13</v>
+      </c>
+      <c r="F364" t="n">
+        <v>100112008</v>
+      </c>
+      <c r="G364" t="inlineStr">
+        <is>
+          <t>Coliflor</t>
+        </is>
+      </c>
+      <c r="H364" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I364" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J364" t="n">
+        <v>2500</v>
+      </c>
+      <c r="K364" t="n">
+        <v>600</v>
+      </c>
+      <c r="L364" t="n">
+        <v>600</v>
+      </c>
+      <c r="M364" t="n">
+        <v>600</v>
+      </c>
+      <c r="N364" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O364" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P364" t="n">
+        <v>600</v>
+      </c>
+      <c r="Q364" t="n">
+        <v>1</v>
+      </c>
+      <c r="R364" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="n">
+        <v>9</v>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D365" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E365" t="n">
+        <v>13</v>
+      </c>
+      <c r="F365" t="n">
+        <v>100112008</v>
+      </c>
+      <c r="G365" t="inlineStr">
+        <is>
+          <t>Coliflor</t>
+        </is>
+      </c>
+      <c r="H365" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I365" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J361" t="n">
+      <c r="J365" t="n">
         <v>700</v>
       </c>
-      <c r="K361" t="n">
+      <c r="K365" t="n">
         <v>500</v>
       </c>
-      <c r="L361" t="n">
+      <c r="L365" t="n">
         <v>500</v>
       </c>
-      <c r="M361" t="n">
+      <c r="M365" t="n">
         <v>500</v>
       </c>
-      <c r="N361" t="inlineStr">
-        <is>
-          <t>$/unidad</t>
-        </is>
-      </c>
-      <c r="O361" t="inlineStr">
+      <c r="N365" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O365" t="inlineStr">
         <is>
           <t>Región Metropolitana</t>
         </is>
       </c>
-      <c r="P361" t="n">
+      <c r="P365" t="n">
         <v>500</v>
       </c>
-      <c r="Q361" t="n">
-        <v>1</v>
-      </c>
-      <c r="R361" t="inlineStr">
+      <c r="Q365" t="n">
+        <v>1</v>
+      </c>
+      <c r="R365" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Coliflor.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Coliflor.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R365"/>
+  <dimension ref="A1:R369"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23013,7 +23013,7 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>44438</v>
+        <v>44474</v>
       </c>
       <c r="E315" t="n">
         <v>13</v>
@@ -23037,7 +23037,7 @@
         </is>
       </c>
       <c r="J315" t="n">
-        <v>1600</v>
+        <v>4300</v>
       </c>
       <c r="K315" t="n">
         <v>600</v>
@@ -23085,7 +23085,7 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>44438</v>
+        <v>44474</v>
       </c>
       <c r="E316" t="n">
         <v>13</v>
@@ -23105,20 +23105,20 @@
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J316" t="n">
-        <v>610</v>
+        <v>3400</v>
       </c>
       <c r="K316" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L316" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="M316" t="n">
-        <v>525</v>
+        <v>625</v>
       </c>
       <c r="N316" t="inlineStr">
         <is>
@@ -23127,11 +23127,11 @@
       </c>
       <c r="O316" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P316" t="n">
-        <v>525</v>
+        <v>625</v>
       </c>
       <c r="Q316" t="n">
         <v>1</v>
@@ -23157,7 +23157,7 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>44372</v>
+        <v>44474</v>
       </c>
       <c r="E317" t="n">
         <v>13</v>
@@ -23177,20 +23177,20 @@
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J317" t="n">
-        <v>3400</v>
+        <v>1780</v>
       </c>
       <c r="K317" t="n">
+        <v>450</v>
+      </c>
+      <c r="L317" t="n">
         <v>500</v>
       </c>
-      <c r="L317" t="n">
-        <v>600</v>
-      </c>
       <c r="M317" t="n">
-        <v>550</v>
+        <v>475</v>
       </c>
       <c r="N317" t="inlineStr">
         <is>
@@ -23203,7 +23203,7 @@
         </is>
       </c>
       <c r="P317" t="n">
-        <v>550</v>
+        <v>475</v>
       </c>
       <c r="Q317" t="n">
         <v>1</v>
@@ -23229,7 +23229,7 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>44372</v>
+        <v>44474</v>
       </c>
       <c r="E318" t="n">
         <v>13</v>
@@ -23253,16 +23253,16 @@
         </is>
       </c>
       <c r="J318" t="n">
-        <v>970</v>
+        <v>1060</v>
       </c>
       <c r="K318" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="L318" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M318" t="n">
-        <v>400</v>
+        <v>475</v>
       </c>
       <c r="N318" t="inlineStr">
         <is>
@@ -23271,11 +23271,11 @@
       </c>
       <c r="O318" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P318" t="n">
-        <v>400</v>
+        <v>475</v>
       </c>
       <c r="Q318" t="n">
         <v>1</v>
@@ -23301,7 +23301,7 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>44286</v>
+        <v>44438</v>
       </c>
       <c r="E319" t="n">
         <v>13</v>
@@ -23328,13 +23328,13 @@
         <v>1600</v>
       </c>
       <c r="K319" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="L319" t="n">
-        <v>900</v>
+        <v>650</v>
       </c>
       <c r="M319" t="n">
-        <v>900</v>
+        <v>625</v>
       </c>
       <c r="N319" t="inlineStr">
         <is>
@@ -23347,7 +23347,7 @@
         </is>
       </c>
       <c r="P319" t="n">
-        <v>900</v>
+        <v>625</v>
       </c>
       <c r="Q319" t="n">
         <v>1</v>
@@ -23373,7 +23373,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44356</v>
+        <v>44438</v>
       </c>
       <c r="E320" t="n">
         <v>13</v>
@@ -23393,20 +23393,20 @@
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J320" t="n">
-        <v>2500</v>
+        <v>610</v>
       </c>
       <c r="K320" t="n">
         <v>500</v>
       </c>
       <c r="L320" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="M320" t="n">
-        <v>550</v>
+        <v>525</v>
       </c>
       <c r="N320" t="inlineStr">
         <is>
@@ -23415,11 +23415,11 @@
       </c>
       <c r="O320" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P320" t="n">
-        <v>550</v>
+        <v>525</v>
       </c>
       <c r="Q320" t="n">
         <v>1</v>
@@ -23445,7 +23445,7 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>44356</v>
+        <v>44372</v>
       </c>
       <c r="E321" t="n">
         <v>13</v>
@@ -23465,20 +23465,20 @@
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J321" t="n">
-        <v>700</v>
+        <v>3400</v>
       </c>
       <c r="K321" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L321" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M321" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="N321" t="inlineStr">
         <is>
@@ -23487,11 +23487,11 @@
       </c>
       <c r="O321" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P321" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="Q321" t="n">
         <v>1</v>
@@ -23517,7 +23517,7 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>44160</v>
+        <v>44372</v>
       </c>
       <c r="E322" t="n">
         <v>13</v>
@@ -23537,20 +23537,20 @@
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J322" t="n">
-        <v>3600</v>
+        <v>970</v>
       </c>
       <c r="K322" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L322" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M322" t="n">
-        <v>556</v>
+        <v>400</v>
       </c>
       <c r="N322" t="inlineStr">
         <is>
@@ -23559,11 +23559,11 @@
       </c>
       <c r="O322" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P322" t="n">
-        <v>556</v>
+        <v>400</v>
       </c>
       <c r="Q322" t="n">
         <v>1</v>
@@ -23589,7 +23589,7 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>44351</v>
+        <v>44286</v>
       </c>
       <c r="E323" t="n">
         <v>13</v>
@@ -23613,16 +23613,16 @@
         </is>
       </c>
       <c r="J323" t="n">
-        <v>3400</v>
+        <v>1600</v>
       </c>
       <c r="K323" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="L323" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="M323" t="n">
-        <v>550</v>
+        <v>900</v>
       </c>
       <c r="N323" t="inlineStr">
         <is>
@@ -23635,7 +23635,7 @@
         </is>
       </c>
       <c r="P323" t="n">
-        <v>550</v>
+        <v>900</v>
       </c>
       <c r="Q323" t="n">
         <v>1</v>
@@ -23661,7 +23661,7 @@
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E324" t="n">
         <v>13</v>
@@ -23685,7 +23685,7 @@
         </is>
       </c>
       <c r="J324" t="n">
-        <v>4300</v>
+        <v>2500</v>
       </c>
       <c r="K324" t="n">
         <v>500</v>
@@ -23733,7 +23733,7 @@
         </is>
       </c>
       <c r="D325" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E325" t="n">
         <v>13</v>
@@ -23757,7 +23757,7 @@
         </is>
       </c>
       <c r="J325" t="n">
-        <v>1600</v>
+        <v>700</v>
       </c>
       <c r="K325" t="n">
         <v>400</v>
@@ -23775,7 +23775,7 @@
       </c>
       <c r="O325" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P325" t="n">
@@ -23805,7 +23805,7 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E326" t="n">
         <v>13</v>
@@ -23825,20 +23825,20 @@
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J326" t="n">
-        <v>2500</v>
+        <v>3600</v>
       </c>
       <c r="K326" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L326" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M326" t="n">
-        <v>400</v>
+        <v>556</v>
       </c>
       <c r="N326" t="inlineStr">
         <is>
@@ -23847,11 +23847,11 @@
       </c>
       <c r="O326" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P326" t="n">
-        <v>400</v>
+        <v>556</v>
       </c>
       <c r="Q326" t="n">
         <v>1</v>
@@ -23877,7 +23877,7 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E327" t="n">
         <v>13</v>
@@ -23949,7 +23949,7 @@
         </is>
       </c>
       <c r="D328" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E328" t="n">
         <v>13</v>
@@ -23973,7 +23973,7 @@
         </is>
       </c>
       <c r="J328" t="n">
-        <v>2500</v>
+        <v>4300</v>
       </c>
       <c r="K328" t="n">
         <v>500</v>
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E329" t="n">
         <v>13</v>
@@ -24093,7 +24093,7 @@
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E330" t="n">
         <v>13</v>
@@ -24117,7 +24117,7 @@
         </is>
       </c>
       <c r="J330" t="n">
-        <v>970</v>
+        <v>2500</v>
       </c>
       <c r="K330" t="n">
         <v>400</v>
@@ -24165,7 +24165,7 @@
         </is>
       </c>
       <c r="D331" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E331" t="n">
         <v>13</v>
@@ -24189,16 +24189,16 @@
         </is>
       </c>
       <c r="J331" t="n">
-        <v>1600</v>
+        <v>3400</v>
       </c>
       <c r="K331" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L331" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M331" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="N331" t="inlineStr">
         <is>
@@ -24207,11 +24207,11 @@
       </c>
       <c r="O331" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P331" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="Q331" t="n">
         <v>1</v>
@@ -24237,7 +24237,7 @@
         </is>
       </c>
       <c r="D332" s="2" t="n">
-        <v>44215</v>
+        <v>44365</v>
       </c>
       <c r="E332" t="n">
         <v>13</v>
@@ -24261,16 +24261,16 @@
         </is>
       </c>
       <c r="J332" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="K332" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="L332" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="M332" t="n">
-        <v>950</v>
+        <v>550</v>
       </c>
       <c r="N332" t="inlineStr">
         <is>
@@ -24283,7 +24283,7 @@
         </is>
       </c>
       <c r="P332" t="n">
-        <v>950</v>
+        <v>550</v>
       </c>
       <c r="Q332" t="n">
         <v>1</v>
@@ -24309,7 +24309,7 @@
         </is>
       </c>
       <c r="D333" s="2" t="n">
-        <v>44175</v>
+        <v>44365</v>
       </c>
       <c r="E333" t="n">
         <v>13</v>
@@ -24329,20 +24329,20 @@
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J333" t="n">
-        <v>5200</v>
+        <v>1600</v>
       </c>
       <c r="K333" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="L333" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="M333" t="n">
-        <v>850</v>
+        <v>400</v>
       </c>
       <c r="N333" t="inlineStr">
         <is>
@@ -24355,7 +24355,7 @@
         </is>
       </c>
       <c r="P333" t="n">
-        <v>850</v>
+        <v>400</v>
       </c>
       <c r="Q333" t="n">
         <v>1</v>
@@ -24381,7 +24381,7 @@
         </is>
       </c>
       <c r="D334" s="2" t="n">
-        <v>44461</v>
+        <v>44365</v>
       </c>
       <c r="E334" t="n">
         <v>13</v>
@@ -24401,20 +24401,20 @@
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J334" t="n">
-        <v>1960</v>
+        <v>970</v>
       </c>
       <c r="K334" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L334" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="M334" t="n">
-        <v>625</v>
+        <v>400</v>
       </c>
       <c r="N334" t="inlineStr">
         <is>
@@ -24423,11 +24423,11 @@
       </c>
       <c r="O334" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P334" t="n">
-        <v>625</v>
+        <v>400</v>
       </c>
       <c r="Q334" t="n">
         <v>1</v>
@@ -24453,7 +24453,7 @@
         </is>
       </c>
       <c r="D335" s="2" t="n">
-        <v>44461</v>
+        <v>44306</v>
       </c>
       <c r="E335" t="n">
         <v>13</v>
@@ -24473,20 +24473,20 @@
       </c>
       <c r="I335" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J335" t="n">
-        <v>520</v>
+        <v>1600</v>
       </c>
       <c r="K335" t="n">
-        <v>450</v>
+        <v>700</v>
       </c>
       <c r="L335" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M335" t="n">
-        <v>475</v>
+        <v>750</v>
       </c>
       <c r="N335" t="inlineStr">
         <is>
@@ -24495,11 +24495,11 @@
       </c>
       <c r="O335" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P335" t="n">
-        <v>475</v>
+        <v>750</v>
       </c>
       <c r="Q335" t="n">
         <v>1</v>
@@ -24525,7 +24525,7 @@
         </is>
       </c>
       <c r="D336" s="2" t="n">
-        <v>44357</v>
+        <v>44215</v>
       </c>
       <c r="E336" t="n">
         <v>13</v>
@@ -24549,16 +24549,16 @@
         </is>
       </c>
       <c r="J336" t="n">
-        <v>3400</v>
+        <v>2000</v>
       </c>
       <c r="K336" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="L336" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="M336" t="n">
-        <v>550</v>
+        <v>950</v>
       </c>
       <c r="N336" t="inlineStr">
         <is>
@@ -24567,11 +24567,11 @@
       </c>
       <c r="O336" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P336" t="n">
-        <v>550</v>
+        <v>950</v>
       </c>
       <c r="Q336" t="n">
         <v>1</v>
@@ -24597,7 +24597,7 @@
         </is>
       </c>
       <c r="D337" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E337" t="n">
         <v>13</v>
@@ -24621,16 +24621,16 @@
         </is>
       </c>
       <c r="J337" t="n">
-        <v>4300</v>
+        <v>5200</v>
       </c>
       <c r="K337" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="L337" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="M337" t="n">
-        <v>550</v>
+        <v>850</v>
       </c>
       <c r="N337" t="inlineStr">
         <is>
@@ -24639,11 +24639,11 @@
       </c>
       <c r="O337" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P337" t="n">
-        <v>550</v>
+        <v>850</v>
       </c>
       <c r="Q337" t="n">
         <v>1</v>
@@ -24669,7 +24669,7 @@
         </is>
       </c>
       <c r="D338" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E338" t="n">
         <v>13</v>
@@ -24689,20 +24689,20 @@
       </c>
       <c r="I338" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J338" t="n">
-        <v>1300</v>
+        <v>1960</v>
       </c>
       <c r="K338" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L338" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="M338" t="n">
-        <v>400</v>
+        <v>625</v>
       </c>
       <c r="N338" t="inlineStr">
         <is>
@@ -24715,7 +24715,7 @@
         </is>
       </c>
       <c r="P338" t="n">
-        <v>400</v>
+        <v>625</v>
       </c>
       <c r="Q338" t="n">
         <v>1</v>
@@ -24741,7 +24741,7 @@
         </is>
       </c>
       <c r="D339" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E339" t="n">
         <v>13</v>
@@ -24765,16 +24765,16 @@
         </is>
       </c>
       <c r="J339" t="n">
-        <v>1600</v>
+        <v>520</v>
       </c>
       <c r="K339" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="L339" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M339" t="n">
-        <v>400</v>
+        <v>475</v>
       </c>
       <c r="N339" t="inlineStr">
         <is>
@@ -24783,11 +24783,11 @@
       </c>
       <c r="O339" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P339" t="n">
-        <v>400</v>
+        <v>475</v>
       </c>
       <c r="Q339" t="n">
         <v>1</v>
@@ -24813,7 +24813,7 @@
         </is>
       </c>
       <c r="D340" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E340" t="n">
         <v>13</v>
@@ -24837,16 +24837,16 @@
         </is>
       </c>
       <c r="J340" t="n">
-        <v>4500</v>
+        <v>3400</v>
       </c>
       <c r="K340" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L340" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M340" t="n">
-        <v>756</v>
+        <v>550</v>
       </c>
       <c r="N340" t="inlineStr">
         <is>
@@ -24855,11 +24855,11 @@
       </c>
       <c r="O340" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P340" t="n">
-        <v>756</v>
+        <v>550</v>
       </c>
       <c r="Q340" t="n">
         <v>1</v>
@@ -24885,7 +24885,7 @@
         </is>
       </c>
       <c r="D341" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E341" t="n">
         <v>13</v>
@@ -24905,20 +24905,20 @@
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J341" t="n">
-        <v>2000</v>
+        <v>4300</v>
       </c>
       <c r="K341" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L341" t="n">
         <v>600</v>
       </c>
       <c r="M341" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="N341" t="inlineStr">
         <is>
@@ -24927,11 +24927,11 @@
       </c>
       <c r="O341" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P341" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="Q341" t="n">
         <v>1</v>
@@ -24957,7 +24957,7 @@
         </is>
       </c>
       <c r="D342" s="2" t="n">
-        <v>44162</v>
+        <v>44357</v>
       </c>
       <c r="E342" t="n">
         <v>13</v>
@@ -24977,20 +24977,20 @@
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J342" t="n">
-        <v>4800</v>
+        <v>1300</v>
       </c>
       <c r="K342" t="n">
         <v>400</v>
       </c>
       <c r="L342" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M342" t="n">
-        <v>448</v>
+        <v>400</v>
       </c>
       <c r="N342" t="inlineStr">
         <is>
@@ -24999,11 +24999,11 @@
       </c>
       <c r="O342" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P342" t="n">
-        <v>448</v>
+        <v>400</v>
       </c>
       <c r="Q342" t="n">
         <v>1</v>
@@ -25029,7 +25029,7 @@
         </is>
       </c>
       <c r="D343" s="2" t="n">
-        <v>44411</v>
+        <v>44357</v>
       </c>
       <c r="E343" t="n">
         <v>13</v>
@@ -25049,20 +25049,20 @@
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J343" t="n">
-        <v>3400</v>
+        <v>1600</v>
       </c>
       <c r="K343" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L343" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M343" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="N343" t="inlineStr">
         <is>
@@ -25071,11 +25071,11 @@
       </c>
       <c r="O343" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P343" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="Q343" t="n">
         <v>1</v>
@@ -25101,7 +25101,7 @@
         </is>
       </c>
       <c r="D344" s="2" t="n">
-        <v>44411</v>
+        <v>44203</v>
       </c>
       <c r="E344" t="n">
         <v>13</v>
@@ -25125,16 +25125,16 @@
         </is>
       </c>
       <c r="J344" t="n">
-        <v>2500</v>
+        <v>4500</v>
       </c>
       <c r="K344" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L344" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M344" t="n">
-        <v>550</v>
+        <v>756</v>
       </c>
       <c r="N344" t="inlineStr">
         <is>
@@ -25143,11 +25143,11 @@
       </c>
       <c r="O344" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P344" t="n">
-        <v>550</v>
+        <v>756</v>
       </c>
       <c r="Q344" t="n">
         <v>1</v>
@@ -25173,7 +25173,7 @@
         </is>
       </c>
       <c r="D345" s="2" t="n">
-        <v>44411</v>
+        <v>44203</v>
       </c>
       <c r="E345" t="n">
         <v>13</v>
@@ -25197,16 +25197,16 @@
         </is>
       </c>
       <c r="J345" t="n">
-        <v>970</v>
+        <v>2000</v>
       </c>
       <c r="K345" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L345" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M345" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="N345" t="inlineStr">
         <is>
@@ -25215,11 +25215,11 @@
       </c>
       <c r="O345" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P345" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="Q345" t="n">
         <v>1</v>
@@ -25245,7 +25245,7 @@
         </is>
       </c>
       <c r="D346" s="2" t="n">
-        <v>44411</v>
+        <v>44162</v>
       </c>
       <c r="E346" t="n">
         <v>13</v>
@@ -25265,20 +25265,20 @@
       </c>
       <c r="I346" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J346" t="n">
-        <v>790</v>
+        <v>4800</v>
       </c>
       <c r="K346" t="n">
         <v>400</v>
       </c>
       <c r="L346" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M346" t="n">
-        <v>400</v>
+        <v>448</v>
       </c>
       <c r="N346" t="inlineStr">
         <is>
@@ -25287,11 +25287,11 @@
       </c>
       <c r="O346" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P346" t="n">
-        <v>400</v>
+        <v>448</v>
       </c>
       <c r="Q346" t="n">
         <v>1</v>
@@ -25317,7 +25317,7 @@
         </is>
       </c>
       <c r="D347" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E347" t="n">
         <v>13</v>
@@ -25341,16 +25341,16 @@
         </is>
       </c>
       <c r="J347" t="n">
-        <v>700</v>
+        <v>3400</v>
       </c>
       <c r="K347" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="L347" t="n">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="M347" t="n">
-        <v>1200</v>
+        <v>550</v>
       </c>
       <c r="N347" t="inlineStr">
         <is>
@@ -25363,7 +25363,7 @@
         </is>
       </c>
       <c r="P347" t="n">
-        <v>1200</v>
+        <v>550</v>
       </c>
       <c r="Q347" t="n">
         <v>1</v>
@@ -25389,7 +25389,7 @@
         </is>
       </c>
       <c r="D348" s="2" t="n">
-        <v>44176</v>
+        <v>44411</v>
       </c>
       <c r="E348" t="n">
         <v>13</v>
@@ -25413,16 +25413,16 @@
         </is>
       </c>
       <c r="J348" t="n">
-        <v>5200</v>
+        <v>2500</v>
       </c>
       <c r="K348" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L348" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M348" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="N348" t="inlineStr">
         <is>
@@ -25431,11 +25431,11 @@
       </c>
       <c r="O348" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P348" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="Q348" t="n">
         <v>1</v>
@@ -25461,7 +25461,7 @@
         </is>
       </c>
       <c r="D349" s="2" t="n">
-        <v>44239</v>
+        <v>44411</v>
       </c>
       <c r="E349" t="n">
         <v>13</v>
@@ -25481,20 +25481,20 @@
       </c>
       <c r="I349" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J349" t="n">
-        <v>1600</v>
+        <v>970</v>
       </c>
       <c r="K349" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="L349" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="M349" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="N349" t="inlineStr">
         <is>
@@ -25507,7 +25507,7 @@
         </is>
       </c>
       <c r="P349" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="Q349" t="n">
         <v>1</v>
@@ -25533,7 +25533,7 @@
         </is>
       </c>
       <c r="D350" s="2" t="n">
-        <v>44376</v>
+        <v>44411</v>
       </c>
       <c r="E350" t="n">
         <v>13</v>
@@ -25553,20 +25553,20 @@
       </c>
       <c r="I350" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J350" t="n">
-        <v>3400</v>
+        <v>790</v>
       </c>
       <c r="K350" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L350" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M350" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="N350" t="inlineStr">
         <is>
@@ -25575,11 +25575,11 @@
       </c>
       <c r="O350" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P350" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="Q350" t="n">
         <v>1</v>
@@ -25605,7 +25605,7 @@
         </is>
       </c>
       <c r="D351" s="2" t="n">
-        <v>44376</v>
+        <v>44257</v>
       </c>
       <c r="E351" t="n">
         <v>13</v>
@@ -25629,16 +25629,16 @@
         </is>
       </c>
       <c r="J351" t="n">
-        <v>2500</v>
+        <v>700</v>
       </c>
       <c r="K351" t="n">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="L351" t="n">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="M351" t="n">
-        <v>550</v>
+        <v>1200</v>
       </c>
       <c r="N351" t="inlineStr">
         <is>
@@ -25647,11 +25647,11 @@
       </c>
       <c r="O351" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P351" t="n">
-        <v>550</v>
+        <v>1200</v>
       </c>
       <c r="Q351" t="n">
         <v>1</v>
@@ -25677,7 +25677,7 @@
         </is>
       </c>
       <c r="D352" s="2" t="n">
-        <v>44376</v>
+        <v>44176</v>
       </c>
       <c r="E352" t="n">
         <v>13</v>
@@ -25697,20 +25697,20 @@
       </c>
       <c r="I352" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J352" t="n">
-        <v>1600</v>
+        <v>5200</v>
       </c>
       <c r="K352" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="L352" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="M352" t="n">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="N352" t="inlineStr">
         <is>
@@ -25723,7 +25723,7 @@
         </is>
       </c>
       <c r="P352" t="n">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="Q352" t="n">
         <v>1</v>
@@ -25749,7 +25749,7 @@
         </is>
       </c>
       <c r="D353" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E353" t="n">
         <v>13</v>
@@ -25769,20 +25769,20 @@
       </c>
       <c r="I353" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J353" t="n">
-        <v>970</v>
+        <v>1600</v>
       </c>
       <c r="K353" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="L353" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="M353" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="N353" t="inlineStr">
         <is>
@@ -25791,11 +25791,11 @@
       </c>
       <c r="O353" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P353" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="Q353" t="n">
         <v>1</v>
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="D354" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E354" t="n">
         <v>13</v>
@@ -25845,16 +25845,16 @@
         </is>
       </c>
       <c r="J354" t="n">
-        <v>1600</v>
+        <v>3400</v>
       </c>
       <c r="K354" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="L354" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="M354" t="n">
-        <v>900</v>
+        <v>550</v>
       </c>
       <c r="N354" t="inlineStr">
         <is>
@@ -25867,7 +25867,7 @@
         </is>
       </c>
       <c r="P354" t="n">
-        <v>900</v>
+        <v>550</v>
       </c>
       <c r="Q354" t="n">
         <v>1</v>
@@ -25893,7 +25893,7 @@
         </is>
       </c>
       <c r="D355" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E355" t="n">
         <v>13</v>
@@ -25917,7 +25917,7 @@
         </is>
       </c>
       <c r="J355" t="n">
-        <v>4300</v>
+        <v>2500</v>
       </c>
       <c r="K355" t="n">
         <v>500</v>
@@ -25935,7 +25935,7 @@
       </c>
       <c r="O355" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P355" t="n">
@@ -25965,7 +25965,7 @@
         </is>
       </c>
       <c r="D356" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E356" t="n">
         <v>13</v>
@@ -25985,20 +25985,20 @@
       </c>
       <c r="I356" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J356" t="n">
-        <v>3400</v>
+        <v>1600</v>
       </c>
       <c r="K356" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L356" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M356" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="N356" t="inlineStr">
         <is>
@@ -26007,11 +26007,11 @@
       </c>
       <c r="O356" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P356" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="Q356" t="n">
         <v>1</v>
@@ -26037,7 +26037,7 @@
         </is>
       </c>
       <c r="D357" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E357" t="n">
         <v>13</v>
@@ -26061,7 +26061,7 @@
         </is>
       </c>
       <c r="J357" t="n">
-        <v>2500</v>
+        <v>970</v>
       </c>
       <c r="K357" t="n">
         <v>400</v>
@@ -26079,7 +26079,7 @@
       </c>
       <c r="O357" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P357" t="n">
@@ -26109,7 +26109,7 @@
         </is>
       </c>
       <c r="D358" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E358" t="n">
         <v>13</v>
@@ -26129,20 +26129,20 @@
       </c>
       <c r="I358" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J358" t="n">
         <v>1600</v>
       </c>
       <c r="K358" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="L358" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="M358" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="N358" t="inlineStr">
         <is>
@@ -26151,11 +26151,11 @@
       </c>
       <c r="O358" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P358" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="Q358" t="n">
         <v>1</v>
@@ -26181,7 +26181,7 @@
         </is>
       </c>
       <c r="D359" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E359" t="n">
         <v>13</v>
@@ -26205,16 +26205,16 @@
         </is>
       </c>
       <c r="J359" t="n">
-        <v>2500</v>
+        <v>4300</v>
       </c>
       <c r="K359" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="L359" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="M359" t="n">
-        <v>950</v>
+        <v>550</v>
       </c>
       <c r="N359" t="inlineStr">
         <is>
@@ -26227,7 +26227,7 @@
         </is>
       </c>
       <c r="P359" t="n">
-        <v>950</v>
+        <v>550</v>
       </c>
       <c r="Q359" t="n">
         <v>1</v>
@@ -26253,7 +26253,7 @@
         </is>
       </c>
       <c r="D360" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E360" t="n">
         <v>13</v>
@@ -26277,16 +26277,16 @@
         </is>
       </c>
       <c r="J360" t="n">
-        <v>4300</v>
+        <v>3400</v>
       </c>
       <c r="K360" t="n">
+        <v>500</v>
+      </c>
+      <c r="L360" t="n">
         <v>600</v>
       </c>
-      <c r="L360" t="n">
-        <v>700</v>
-      </c>
       <c r="M360" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="N360" t="inlineStr">
         <is>
@@ -26295,11 +26295,11 @@
       </c>
       <c r="O360" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P360" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="Q360" t="n">
         <v>1</v>
@@ -26325,7 +26325,7 @@
         </is>
       </c>
       <c r="D361" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E361" t="n">
         <v>13</v>
@@ -26345,20 +26345,20 @@
       </c>
       <c r="I361" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J361" t="n">
-        <v>3400</v>
+        <v>2500</v>
       </c>
       <c r="K361" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L361" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="M361" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="N361" t="inlineStr">
         <is>
@@ -26367,11 +26367,11 @@
       </c>
       <c r="O361" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P361" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="Q361" t="n">
         <v>1</v>
@@ -26397,7 +26397,7 @@
         </is>
       </c>
       <c r="D362" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E362" t="n">
         <v>13</v>
@@ -26427,10 +26427,10 @@
         <v>400</v>
       </c>
       <c r="L362" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M362" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="N362" t="inlineStr">
         <is>
@@ -26439,11 +26439,11 @@
       </c>
       <c r="O362" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P362" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="Q362" t="n">
         <v>1</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="D363" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E363" t="n">
         <v>13</v>
@@ -26489,20 +26489,20 @@
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J363" t="n">
-        <v>1300</v>
+        <v>2500</v>
       </c>
       <c r="K363" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="L363" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="M363" t="n">
-        <v>450</v>
+        <v>950</v>
       </c>
       <c r="N363" t="inlineStr">
         <is>
@@ -26511,11 +26511,11 @@
       </c>
       <c r="O363" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P363" t="n">
-        <v>450</v>
+        <v>950</v>
       </c>
       <c r="Q363" t="n">
         <v>1</v>
@@ -26541,7 +26541,7 @@
         </is>
       </c>
       <c r="D364" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E364" t="n">
         <v>13</v>
@@ -26565,16 +26565,16 @@
         </is>
       </c>
       <c r="J364" t="n">
-        <v>2500</v>
+        <v>4300</v>
       </c>
       <c r="K364" t="n">
         <v>600</v>
       </c>
       <c r="L364" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M364" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="N364" t="inlineStr">
         <is>
@@ -26587,7 +26587,7 @@
         </is>
       </c>
       <c r="P364" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="Q364" t="n">
         <v>1</v>
@@ -26613,58 +26613,346 @@
         </is>
       </c>
       <c r="D365" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E365" t="n">
+        <v>13</v>
+      </c>
+      <c r="F365" t="n">
+        <v>100112008</v>
+      </c>
+      <c r="G365" t="inlineStr">
+        <is>
+          <t>Coliflor</t>
+        </is>
+      </c>
+      <c r="H365" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I365" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J365" t="n">
+        <v>3400</v>
+      </c>
+      <c r="K365" t="n">
+        <v>600</v>
+      </c>
+      <c r="L365" t="n">
+        <v>700</v>
+      </c>
+      <c r="M365" t="n">
+        <v>650</v>
+      </c>
+      <c r="N365" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O365" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P365" t="n">
+        <v>650</v>
+      </c>
+      <c r="Q365" t="n">
+        <v>1</v>
+      </c>
+      <c r="R365" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="n">
+        <v>9</v>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D366" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E366" t="n">
+        <v>13</v>
+      </c>
+      <c r="F366" t="n">
+        <v>100112008</v>
+      </c>
+      <c r="G366" t="inlineStr">
+        <is>
+          <t>Coliflor</t>
+        </is>
+      </c>
+      <c r="H366" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I366" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J366" t="n">
+        <v>1600</v>
+      </c>
+      <c r="K366" t="n">
+        <v>400</v>
+      </c>
+      <c r="L366" t="n">
+        <v>500</v>
+      </c>
+      <c r="M366" t="n">
+        <v>450</v>
+      </c>
+      <c r="N366" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O366" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P366" t="n">
+        <v>450</v>
+      </c>
+      <c r="Q366" t="n">
+        <v>1</v>
+      </c>
+      <c r="R366" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="n">
+        <v>9</v>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D367" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E367" t="n">
+        <v>13</v>
+      </c>
+      <c r="F367" t="n">
+        <v>100112008</v>
+      </c>
+      <c r="G367" t="inlineStr">
+        <is>
+          <t>Coliflor</t>
+        </is>
+      </c>
+      <c r="H367" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I367" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J367" t="n">
+        <v>1300</v>
+      </c>
+      <c r="K367" t="n">
+        <v>400</v>
+      </c>
+      <c r="L367" t="n">
+        <v>500</v>
+      </c>
+      <c r="M367" t="n">
+        <v>450</v>
+      </c>
+      <c r="N367" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O367" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P367" t="n">
+        <v>450</v>
+      </c>
+      <c r="Q367" t="n">
+        <v>1</v>
+      </c>
+      <c r="R367" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="n">
+        <v>9</v>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D368" s="2" t="n">
         <v>44323</v>
       </c>
-      <c r="E365" t="n">
-        <v>13</v>
-      </c>
-      <c r="F365" t="n">
-        <v>100112008</v>
-      </c>
-      <c r="G365" t="inlineStr">
-        <is>
-          <t>Coliflor</t>
-        </is>
-      </c>
-      <c r="H365" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="I365" t="inlineStr">
+      <c r="E368" t="n">
+        <v>13</v>
+      </c>
+      <c r="F368" t="n">
+        <v>100112008</v>
+      </c>
+      <c r="G368" t="inlineStr">
+        <is>
+          <t>Coliflor</t>
+        </is>
+      </c>
+      <c r="H368" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I368" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J368" t="n">
+        <v>2500</v>
+      </c>
+      <c r="K368" t="n">
+        <v>600</v>
+      </c>
+      <c r="L368" t="n">
+        <v>600</v>
+      </c>
+      <c r="M368" t="n">
+        <v>600</v>
+      </c>
+      <c r="N368" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O368" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P368" t="n">
+        <v>600</v>
+      </c>
+      <c r="Q368" t="n">
+        <v>1</v>
+      </c>
+      <c r="R368" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="n">
+        <v>9</v>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D369" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E369" t="n">
+        <v>13</v>
+      </c>
+      <c r="F369" t="n">
+        <v>100112008</v>
+      </c>
+      <c r="G369" t="inlineStr">
+        <is>
+          <t>Coliflor</t>
+        </is>
+      </c>
+      <c r="H369" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I369" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J365" t="n">
+      <c r="J369" t="n">
         <v>700</v>
       </c>
-      <c r="K365" t="n">
+      <c r="K369" t="n">
         <v>500</v>
       </c>
-      <c r="L365" t="n">
+      <c r="L369" t="n">
         <v>500</v>
       </c>
-      <c r="M365" t="n">
+      <c r="M369" t="n">
         <v>500</v>
       </c>
-      <c r="N365" t="inlineStr">
-        <is>
-          <t>$/unidad</t>
-        </is>
-      </c>
-      <c r="O365" t="inlineStr">
+      <c r="N369" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O369" t="inlineStr">
         <is>
           <t>Región Metropolitana</t>
         </is>
       </c>
-      <c r="P365" t="n">
+      <c r="P369" t="n">
         <v>500</v>
       </c>
-      <c r="Q365" t="n">
-        <v>1</v>
-      </c>
-      <c r="R365" t="inlineStr">
+      <c r="Q369" t="n">
+        <v>1</v>
+      </c>
+      <c r="R369" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Coliflor.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Coliflor.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R371"/>
+  <dimension ref="A1:R375"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22581,7 +22581,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E309" t="n">
         <v>13</v>
@@ -22605,16 +22605,16 @@
         </is>
       </c>
       <c r="J309" t="n">
-        <v>2500</v>
+        <v>3400</v>
       </c>
       <c r="K309" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L309" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="M309" t="n">
-        <v>625</v>
+        <v>675</v>
       </c>
       <c r="N309" t="inlineStr">
         <is>
@@ -22627,7 +22627,7 @@
         </is>
       </c>
       <c r="P309" t="n">
-        <v>625</v>
+        <v>675</v>
       </c>
       <c r="Q309" t="n">
         <v>1</v>
@@ -22653,7 +22653,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E310" t="n">
         <v>13</v>
@@ -22673,20 +22673,20 @@
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J310" t="n">
-        <v>1300</v>
+        <v>2500</v>
       </c>
       <c r="K310" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="L310" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M310" t="n">
-        <v>475</v>
+        <v>675</v>
       </c>
       <c r="N310" t="inlineStr">
         <is>
@@ -22695,11 +22695,11 @@
       </c>
       <c r="O310" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P310" t="n">
-        <v>475</v>
+        <v>675</v>
       </c>
       <c r="Q310" t="n">
         <v>1</v>
@@ -22725,7 +22725,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44386</v>
+        <v>44476</v>
       </c>
       <c r="E311" t="n">
         <v>13</v>
@@ -22745,20 +22745,20 @@
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J311" t="n">
-        <v>4300</v>
+        <v>1330</v>
       </c>
       <c r="K311" t="n">
         <v>500</v>
       </c>
       <c r="L311" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="M311" t="n">
-        <v>550</v>
+        <v>525</v>
       </c>
       <c r="N311" t="inlineStr">
         <is>
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="P311" t="n">
-        <v>550</v>
+        <v>525</v>
       </c>
       <c r="Q311" t="n">
         <v>1</v>
@@ -22797,7 +22797,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44386</v>
+        <v>44476</v>
       </c>
       <c r="E312" t="n">
         <v>13</v>
@@ -22817,20 +22817,20 @@
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J312" t="n">
-        <v>3400</v>
+        <v>1060</v>
       </c>
       <c r="K312" t="n">
         <v>500</v>
       </c>
       <c r="L312" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="M312" t="n">
-        <v>550</v>
+        <v>525</v>
       </c>
       <c r="N312" t="inlineStr">
         <is>
@@ -22843,7 +22843,7 @@
         </is>
       </c>
       <c r="P312" t="n">
-        <v>550</v>
+        <v>525</v>
       </c>
       <c r="Q312" t="n">
         <v>1</v>
@@ -22869,7 +22869,7 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>44386</v>
+        <v>44468</v>
       </c>
       <c r="E313" t="n">
         <v>13</v>
@@ -22889,20 +22889,20 @@
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J313" t="n">
-        <v>1600</v>
+        <v>2500</v>
       </c>
       <c r="K313" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L313" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="M313" t="n">
-        <v>400</v>
+        <v>625</v>
       </c>
       <c r="N313" t="inlineStr">
         <is>
@@ -22915,7 +22915,7 @@
         </is>
       </c>
       <c r="P313" t="n">
-        <v>400</v>
+        <v>625</v>
       </c>
       <c r="Q313" t="n">
         <v>1</v>
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>44386</v>
+        <v>44468</v>
       </c>
       <c r="E314" t="n">
         <v>13</v>
@@ -22965,16 +22965,16 @@
         </is>
       </c>
       <c r="J314" t="n">
-        <v>970</v>
+        <v>1300</v>
       </c>
       <c r="K314" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="L314" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M314" t="n">
-        <v>400</v>
+        <v>475</v>
       </c>
       <c r="N314" t="inlineStr">
         <is>
@@ -22983,11 +22983,11 @@
       </c>
       <c r="O314" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P314" t="n">
-        <v>400</v>
+        <v>475</v>
       </c>
       <c r="Q314" t="n">
         <v>1</v>
@@ -23013,7 +23013,7 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>44384</v>
+        <v>44386</v>
       </c>
       <c r="E315" t="n">
         <v>13</v>
@@ -23037,7 +23037,7 @@
         </is>
       </c>
       <c r="J315" t="n">
-        <v>2500</v>
+        <v>4300</v>
       </c>
       <c r="K315" t="n">
         <v>500</v>
@@ -23055,7 +23055,7 @@
       </c>
       <c r="O315" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P315" t="n">
@@ -23085,7 +23085,7 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>44384</v>
+        <v>44386</v>
       </c>
       <c r="E316" t="n">
         <v>13</v>
@@ -23105,20 +23105,20 @@
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J316" t="n">
-        <v>970</v>
+        <v>3400</v>
       </c>
       <c r="K316" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L316" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M316" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="N316" t="inlineStr">
         <is>
@@ -23131,7 +23131,7 @@
         </is>
       </c>
       <c r="P316" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="Q316" t="n">
         <v>1</v>
@@ -23157,7 +23157,7 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>44363</v>
+        <v>44386</v>
       </c>
       <c r="E317" t="n">
         <v>13</v>
@@ -23177,20 +23177,20 @@
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J317" t="n">
-        <v>2500</v>
+        <v>1600</v>
       </c>
       <c r="K317" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L317" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M317" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="N317" t="inlineStr">
         <is>
@@ -23203,7 +23203,7 @@
         </is>
       </c>
       <c r="P317" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="Q317" t="n">
         <v>1</v>
@@ -23229,7 +23229,7 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>44363</v>
+        <v>44386</v>
       </c>
       <c r="E318" t="n">
         <v>13</v>
@@ -23249,20 +23249,20 @@
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J318" t="n">
-        <v>1600</v>
+        <v>970</v>
       </c>
       <c r="K318" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L318" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M318" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="N318" t="inlineStr">
         <is>
@@ -23275,7 +23275,7 @@
         </is>
       </c>
       <c r="P318" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="Q318" t="n">
         <v>1</v>
@@ -23301,7 +23301,7 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>44363</v>
+        <v>44384</v>
       </c>
       <c r="E319" t="n">
         <v>13</v>
@@ -23321,20 +23321,20 @@
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J319" t="n">
-        <v>1600</v>
+        <v>2500</v>
       </c>
       <c r="K319" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L319" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M319" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="N319" t="inlineStr">
         <is>
@@ -23343,11 +23343,11 @@
       </c>
       <c r="O319" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P319" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="Q319" t="n">
         <v>1</v>
@@ -23373,7 +23373,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44363</v>
+        <v>44384</v>
       </c>
       <c r="E320" t="n">
         <v>13</v>
@@ -23397,7 +23397,7 @@
         </is>
       </c>
       <c r="J320" t="n">
-        <v>700</v>
+        <v>970</v>
       </c>
       <c r="K320" t="n">
         <v>400</v>
@@ -23445,7 +23445,7 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>44306</v>
+        <v>44363</v>
       </c>
       <c r="E321" t="n">
         <v>13</v>
@@ -23469,16 +23469,16 @@
         </is>
       </c>
       <c r="J321" t="n">
-        <v>1600</v>
+        <v>2500</v>
       </c>
       <c r="K321" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L321" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M321" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="N321" t="inlineStr">
         <is>
@@ -23487,11 +23487,11 @@
       </c>
       <c r="O321" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P321" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="Q321" t="n">
         <v>1</v>
@@ -23517,7 +23517,7 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>44369</v>
+        <v>44363</v>
       </c>
       <c r="E322" t="n">
         <v>13</v>
@@ -23541,7 +23541,7 @@
         </is>
       </c>
       <c r="J322" t="n">
-        <v>3400</v>
+        <v>1600</v>
       </c>
       <c r="K322" t="n">
         <v>500</v>
@@ -23559,7 +23559,7 @@
       </c>
       <c r="O322" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P322" t="n">
@@ -23589,7 +23589,7 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>44369</v>
+        <v>44363</v>
       </c>
       <c r="E323" t="n">
         <v>13</v>
@@ -23609,20 +23609,20 @@
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J323" t="n">
-        <v>2500</v>
+        <v>1600</v>
       </c>
       <c r="K323" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L323" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M323" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="N323" t="inlineStr">
         <is>
@@ -23631,11 +23631,11 @@
       </c>
       <c r="O323" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P323" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="Q323" t="n">
         <v>1</v>
@@ -23661,7 +23661,7 @@
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>44369</v>
+        <v>44363</v>
       </c>
       <c r="E324" t="n">
         <v>13</v>
@@ -23685,7 +23685,7 @@
         </is>
       </c>
       <c r="J324" t="n">
-        <v>1600</v>
+        <v>700</v>
       </c>
       <c r="K324" t="n">
         <v>400</v>
@@ -23703,7 +23703,7 @@
       </c>
       <c r="O324" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P324" t="n">
@@ -23733,7 +23733,7 @@
         </is>
       </c>
       <c r="D325" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E325" t="n">
         <v>13</v>
@@ -23753,20 +23753,20 @@
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J325" t="n">
+        <v>1600</v>
+      </c>
+      <c r="K325" t="n">
         <v>700</v>
       </c>
-      <c r="K325" t="n">
-        <v>400</v>
-      </c>
       <c r="L325" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="M325" t="n">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="N325" t="inlineStr">
         <is>
@@ -23775,11 +23775,11 @@
       </c>
       <c r="O325" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P325" t="n">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="Q325" t="n">
         <v>1</v>
@@ -23805,7 +23805,7 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>44301</v>
+        <v>44369</v>
       </c>
       <c r="E326" t="n">
         <v>13</v>
@@ -23829,16 +23829,16 @@
         </is>
       </c>
       <c r="J326" t="n">
-        <v>1600</v>
+        <v>3400</v>
       </c>
       <c r="K326" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L326" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M326" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="N326" t="inlineStr">
         <is>
@@ -23851,7 +23851,7 @@
         </is>
       </c>
       <c r="P326" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="Q326" t="n">
         <v>1</v>
@@ -23877,7 +23877,7 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>44357</v>
+        <v>44369</v>
       </c>
       <c r="E327" t="n">
         <v>13</v>
@@ -23901,7 +23901,7 @@
         </is>
       </c>
       <c r="J327" t="n">
-        <v>3400</v>
+        <v>2500</v>
       </c>
       <c r="K327" t="n">
         <v>500</v>
@@ -23919,7 +23919,7 @@
       </c>
       <c r="O327" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P327" t="n">
@@ -23949,7 +23949,7 @@
         </is>
       </c>
       <c r="D328" s="2" t="n">
-        <v>44357</v>
+        <v>44369</v>
       </c>
       <c r="E328" t="n">
         <v>13</v>
@@ -23969,20 +23969,20 @@
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J328" t="n">
-        <v>4300</v>
+        <v>1600</v>
       </c>
       <c r="K328" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L328" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M328" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="N328" t="inlineStr">
         <is>
@@ -23991,11 +23991,11 @@
       </c>
       <c r="O328" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P328" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="Q328" t="n">
         <v>1</v>
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>44357</v>
+        <v>44369</v>
       </c>
       <c r="E329" t="n">
         <v>13</v>
@@ -24045,7 +24045,7 @@
         </is>
       </c>
       <c r="J329" t="n">
-        <v>1300</v>
+        <v>700</v>
       </c>
       <c r="K329" t="n">
         <v>400</v>
@@ -24063,7 +24063,7 @@
       </c>
       <c r="O329" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P329" t="n">
@@ -24093,7 +24093,7 @@
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E330" t="n">
         <v>13</v>
@@ -24113,20 +24113,20 @@
       </c>
       <c r="I330" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J330" t="n">
         <v>1600</v>
       </c>
       <c r="K330" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="L330" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="M330" t="n">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="N330" t="inlineStr">
         <is>
@@ -24135,11 +24135,11 @@
       </c>
       <c r="O330" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P330" t="n">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="Q330" t="n">
         <v>1</v>
@@ -24165,7 +24165,7 @@
         </is>
       </c>
       <c r="D331" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E331" t="n">
         <v>13</v>
@@ -24189,16 +24189,16 @@
         </is>
       </c>
       <c r="J331" t="n">
-        <v>2500</v>
+        <v>3400</v>
       </c>
       <c r="K331" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L331" t="n">
         <v>600</v>
       </c>
       <c r="M331" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="N331" t="inlineStr">
         <is>
@@ -24211,7 +24211,7 @@
         </is>
       </c>
       <c r="P331" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="Q331" t="n">
         <v>1</v>
@@ -24237,7 +24237,7 @@
         </is>
       </c>
       <c r="D332" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E332" t="n">
         <v>13</v>
@@ -24257,20 +24257,20 @@
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J332" t="n">
-        <v>700</v>
+        <v>4300</v>
       </c>
       <c r="K332" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L332" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M332" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="N332" t="inlineStr">
         <is>
@@ -24279,11 +24279,11 @@
       </c>
       <c r="O332" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P332" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="Q332" t="n">
         <v>1</v>
@@ -24309,7 +24309,7 @@
         </is>
       </c>
       <c r="D333" s="2" t="n">
-        <v>44321</v>
+        <v>44357</v>
       </c>
       <c r="E333" t="n">
         <v>13</v>
@@ -24329,20 +24329,20 @@
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J333" t="n">
-        <v>2500</v>
+        <v>1300</v>
       </c>
       <c r="K333" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L333" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M333" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="N333" t="inlineStr">
         <is>
@@ -24355,7 +24355,7 @@
         </is>
       </c>
       <c r="P333" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="Q333" t="n">
         <v>1</v>
@@ -24381,7 +24381,7 @@
         </is>
       </c>
       <c r="D334" s="2" t="n">
-        <v>44321</v>
+        <v>44357</v>
       </c>
       <c r="E334" t="n">
         <v>13</v>
@@ -24401,20 +24401,20 @@
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J334" t="n">
         <v>1600</v>
       </c>
       <c r="K334" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L334" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M334" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="N334" t="inlineStr">
         <is>
@@ -24427,7 +24427,7 @@
         </is>
       </c>
       <c r="P334" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="Q334" t="n">
         <v>1</v>
@@ -24453,7 +24453,7 @@
         </is>
       </c>
       <c r="D335" s="2" t="n">
-        <v>44397</v>
+        <v>44328</v>
       </c>
       <c r="E335" t="n">
         <v>13</v>
@@ -24477,16 +24477,16 @@
         </is>
       </c>
       <c r="J335" t="n">
-        <v>4300</v>
+        <v>2500</v>
       </c>
       <c r="K335" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L335" t="n">
         <v>600</v>
       </c>
       <c r="M335" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="N335" t="inlineStr">
         <is>
@@ -24499,7 +24499,7 @@
         </is>
       </c>
       <c r="P335" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="Q335" t="n">
         <v>1</v>
@@ -24525,7 +24525,7 @@
         </is>
       </c>
       <c r="D336" s="2" t="n">
-        <v>44397</v>
+        <v>44328</v>
       </c>
       <c r="E336" t="n">
         <v>13</v>
@@ -24545,20 +24545,20 @@
       </c>
       <c r="I336" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J336" t="n">
-        <v>3400</v>
+        <v>700</v>
       </c>
       <c r="K336" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L336" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M336" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="N336" t="inlineStr">
         <is>
@@ -24567,11 +24567,11 @@
       </c>
       <c r="O336" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P336" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="Q336" t="n">
         <v>1</v>
@@ -24597,7 +24597,7 @@
         </is>
       </c>
       <c r="D337" s="2" t="n">
-        <v>44397</v>
+        <v>44321</v>
       </c>
       <c r="E337" t="n">
         <v>13</v>
@@ -24617,20 +24617,20 @@
       </c>
       <c r="I337" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J337" t="n">
-        <v>1600</v>
+        <v>2500</v>
       </c>
       <c r="K337" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L337" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M337" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="N337" t="inlineStr">
         <is>
@@ -24643,7 +24643,7 @@
         </is>
       </c>
       <c r="P337" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="Q337" t="n">
         <v>1</v>
@@ -24669,7 +24669,7 @@
         </is>
       </c>
       <c r="D338" s="2" t="n">
-        <v>44397</v>
+        <v>44321</v>
       </c>
       <c r="E338" t="n">
         <v>13</v>
@@ -24689,20 +24689,20 @@
       </c>
       <c r="I338" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J338" t="n">
-        <v>970</v>
+        <v>1600</v>
       </c>
       <c r="K338" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L338" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M338" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="N338" t="inlineStr">
         <is>
@@ -24715,7 +24715,7 @@
         </is>
       </c>
       <c r="P338" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="Q338" t="n">
         <v>1</v>
@@ -24741,7 +24741,7 @@
         </is>
       </c>
       <c r="D339" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E339" t="n">
         <v>13</v>
@@ -24768,13 +24768,13 @@
         <v>4300</v>
       </c>
       <c r="K339" t="n">
+        <v>500</v>
+      </c>
+      <c r="L339" t="n">
         <v>600</v>
       </c>
-      <c r="L339" t="n">
-        <v>700</v>
-      </c>
       <c r="M339" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="N339" t="inlineStr">
         <is>
@@ -24787,7 +24787,7 @@
         </is>
       </c>
       <c r="P339" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="Q339" t="n">
         <v>1</v>
@@ -24813,7 +24813,7 @@
         </is>
       </c>
       <c r="D340" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E340" t="n">
         <v>13</v>
@@ -24837,16 +24837,16 @@
         </is>
       </c>
       <c r="J340" t="n">
-        <v>5200</v>
+        <v>3400</v>
       </c>
       <c r="K340" t="n">
+        <v>500</v>
+      </c>
+      <c r="L340" t="n">
         <v>600</v>
       </c>
-      <c r="L340" t="n">
-        <v>700</v>
-      </c>
       <c r="M340" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="N340" t="inlineStr">
         <is>
@@ -24859,7 +24859,7 @@
         </is>
       </c>
       <c r="P340" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="Q340" t="n">
         <v>1</v>
@@ -24885,7 +24885,7 @@
         </is>
       </c>
       <c r="D341" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E341" t="n">
         <v>13</v>
@@ -24912,13 +24912,13 @@
         <v>1600</v>
       </c>
       <c r="K341" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L341" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M341" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="N341" t="inlineStr">
         <is>
@@ -24931,7 +24931,7 @@
         </is>
       </c>
       <c r="P341" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="Q341" t="n">
         <v>1</v>
@@ -24957,7 +24957,7 @@
         </is>
       </c>
       <c r="D342" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E342" t="n">
         <v>13</v>
@@ -24981,16 +24981,16 @@
         </is>
       </c>
       <c r="J342" t="n">
-        <v>2500</v>
+        <v>970</v>
       </c>
       <c r="K342" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L342" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M342" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="N342" t="inlineStr">
         <is>
@@ -25003,7 +25003,7 @@
         </is>
       </c>
       <c r="P342" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="Q342" t="n">
         <v>1</v>
@@ -25029,7 +25029,7 @@
         </is>
       </c>
       <c r="D343" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E343" t="n">
         <v>13</v>
@@ -25053,7 +25053,7 @@
         </is>
       </c>
       <c r="J343" t="n">
-        <v>1400</v>
+        <v>4300</v>
       </c>
       <c r="K343" t="n">
         <v>600</v>
@@ -25101,7 +25101,7 @@
         </is>
       </c>
       <c r="D344" s="2" t="n">
-        <v>44314</v>
+        <v>44414</v>
       </c>
       <c r="E344" t="n">
         <v>13</v>
@@ -25125,16 +25125,16 @@
         </is>
       </c>
       <c r="J344" t="n">
-        <v>2500</v>
+        <v>5200</v>
       </c>
       <c r="K344" t="n">
         <v>600</v>
       </c>
       <c r="L344" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M344" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="N344" t="inlineStr">
         <is>
@@ -25147,7 +25147,7 @@
         </is>
       </c>
       <c r="P344" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="Q344" t="n">
         <v>1</v>
@@ -25173,7 +25173,7 @@
         </is>
       </c>
       <c r="D345" s="2" t="n">
-        <v>44392</v>
+        <v>44414</v>
       </c>
       <c r="E345" t="n">
         <v>13</v>
@@ -25193,20 +25193,20 @@
       </c>
       <c r="I345" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J345" t="n">
-        <v>3400</v>
+        <v>1600</v>
       </c>
       <c r="K345" t="n">
         <v>500</v>
       </c>
       <c r="L345" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M345" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="N345" t="inlineStr">
         <is>
@@ -25219,7 +25219,7 @@
         </is>
       </c>
       <c r="P345" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="Q345" t="n">
         <v>1</v>
@@ -25245,7 +25245,7 @@
         </is>
       </c>
       <c r="D346" s="2" t="n">
-        <v>44392</v>
+        <v>44414</v>
       </c>
       <c r="E346" t="n">
         <v>13</v>
@@ -25265,20 +25265,20 @@
       </c>
       <c r="I346" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J346" t="n">
-        <v>4300</v>
+        <v>2500</v>
       </c>
       <c r="K346" t="n">
         <v>500</v>
       </c>
       <c r="L346" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M346" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="N346" t="inlineStr">
         <is>
@@ -25291,7 +25291,7 @@
         </is>
       </c>
       <c r="P346" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="Q346" t="n">
         <v>1</v>
@@ -25317,7 +25317,7 @@
         </is>
       </c>
       <c r="D347" s="2" t="n">
-        <v>44392</v>
+        <v>44333</v>
       </c>
       <c r="E347" t="n">
         <v>13</v>
@@ -25337,20 +25337,20 @@
       </c>
       <c r="I347" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J347" t="n">
-        <v>970</v>
+        <v>1400</v>
       </c>
       <c r="K347" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L347" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="M347" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="N347" t="inlineStr">
         <is>
@@ -25363,7 +25363,7 @@
         </is>
       </c>
       <c r="P347" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="Q347" t="n">
         <v>1</v>
@@ -25389,7 +25389,7 @@
         </is>
       </c>
       <c r="D348" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E348" t="n">
         <v>13</v>
@@ -25409,20 +25409,20 @@
       </c>
       <c r="I348" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J348" t="n">
-        <v>1600</v>
+        <v>2500</v>
       </c>
       <c r="K348" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L348" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M348" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="N348" t="inlineStr">
         <is>
@@ -25435,7 +25435,7 @@
         </is>
       </c>
       <c r="P348" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="Q348" t="n">
         <v>1</v>
@@ -25461,7 +25461,7 @@
         </is>
       </c>
       <c r="D349" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E349" t="n">
         <v>13</v>
@@ -25485,16 +25485,16 @@
         </is>
       </c>
       <c r="J349" t="n">
-        <v>4300</v>
+        <v>3400</v>
       </c>
       <c r="K349" t="n">
+        <v>500</v>
+      </c>
+      <c r="L349" t="n">
         <v>600</v>
       </c>
-      <c r="L349" t="n">
-        <v>700</v>
-      </c>
       <c r="M349" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="N349" t="inlineStr">
         <is>
@@ -25507,7 +25507,7 @@
         </is>
       </c>
       <c r="P349" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="Q349" t="n">
         <v>1</v>
@@ -25533,7 +25533,7 @@
         </is>
       </c>
       <c r="D350" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E350" t="n">
         <v>13</v>
@@ -25557,16 +25557,16 @@
         </is>
       </c>
       <c r="J350" t="n">
-        <v>3400</v>
+        <v>4300</v>
       </c>
       <c r="K350" t="n">
+        <v>500</v>
+      </c>
+      <c r="L350" t="n">
         <v>600</v>
       </c>
-      <c r="L350" t="n">
-        <v>700</v>
-      </c>
       <c r="M350" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="N350" t="inlineStr">
         <is>
@@ -25579,7 +25579,7 @@
         </is>
       </c>
       <c r="P350" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="Q350" t="n">
         <v>1</v>
@@ -25605,7 +25605,7 @@
         </is>
       </c>
       <c r="D351" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E351" t="n">
         <v>13</v>
@@ -25629,16 +25629,16 @@
         </is>
       </c>
       <c r="J351" t="n">
-        <v>1600</v>
+        <v>970</v>
       </c>
       <c r="K351" t="n">
         <v>400</v>
       </c>
       <c r="L351" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M351" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="N351" t="inlineStr">
         <is>
@@ -25651,7 +25651,7 @@
         </is>
       </c>
       <c r="P351" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="Q351" t="n">
         <v>1</v>
@@ -25677,7 +25677,7 @@
         </is>
       </c>
       <c r="D352" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E352" t="n">
         <v>13</v>
@@ -25701,16 +25701,16 @@
         </is>
       </c>
       <c r="J352" t="n">
-        <v>1300</v>
+        <v>1600</v>
       </c>
       <c r="K352" t="n">
         <v>400</v>
       </c>
       <c r="L352" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M352" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="N352" t="inlineStr">
         <is>
@@ -25723,7 +25723,7 @@
         </is>
       </c>
       <c r="P352" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="Q352" t="n">
         <v>1</v>
@@ -25749,7 +25749,7 @@
         </is>
       </c>
       <c r="D353" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E353" t="n">
         <v>13</v>
@@ -25776,13 +25776,13 @@
         <v>4300</v>
       </c>
       <c r="K353" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L353" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M353" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="N353" t="inlineStr">
         <is>
@@ -25795,7 +25795,7 @@
         </is>
       </c>
       <c r="P353" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="Q353" t="n">
         <v>1</v>
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="D354" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E354" t="n">
         <v>13</v>
@@ -25848,13 +25848,13 @@
         <v>3400</v>
       </c>
       <c r="K354" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L354" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M354" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="N354" t="inlineStr">
         <is>
@@ -25867,7 +25867,7 @@
         </is>
       </c>
       <c r="P354" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="Q354" t="n">
         <v>1</v>
@@ -25893,7 +25893,7 @@
         </is>
       </c>
       <c r="D355" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E355" t="n">
         <v>13</v>
@@ -25923,10 +25923,10 @@
         <v>400</v>
       </c>
       <c r="L355" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M355" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="N355" t="inlineStr">
         <is>
@@ -25939,7 +25939,7 @@
         </is>
       </c>
       <c r="P355" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="Q355" t="n">
         <v>1</v>
@@ -25965,7 +25965,7 @@
         </is>
       </c>
       <c r="D356" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E356" t="n">
         <v>13</v>
@@ -25989,16 +25989,16 @@
         </is>
       </c>
       <c r="J356" t="n">
-        <v>970</v>
+        <v>1300</v>
       </c>
       <c r="K356" t="n">
         <v>400</v>
       </c>
       <c r="L356" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M356" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="N356" t="inlineStr">
         <is>
@@ -26011,7 +26011,7 @@
         </is>
       </c>
       <c r="P356" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="Q356" t="n">
         <v>1</v>
@@ -26037,7 +26037,7 @@
         </is>
       </c>
       <c r="D357" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E357" t="n">
         <v>13</v>
@@ -26061,16 +26061,16 @@
         </is>
       </c>
       <c r="J357" t="n">
-        <v>4900</v>
+        <v>4300</v>
       </c>
       <c r="K357" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="L357" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="M357" t="n">
-        <v>902</v>
+        <v>550</v>
       </c>
       <c r="N357" t="inlineStr">
         <is>
@@ -26079,11 +26079,11 @@
       </c>
       <c r="O357" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P357" t="n">
-        <v>902</v>
+        <v>550</v>
       </c>
       <c r="Q357" t="n">
         <v>1</v>
@@ -26109,7 +26109,7 @@
         </is>
       </c>
       <c r="D358" s="2" t="n">
-        <v>44250</v>
+        <v>44390</v>
       </c>
       <c r="E358" t="n">
         <v>13</v>
@@ -26133,16 +26133,16 @@
         </is>
       </c>
       <c r="J358" t="n">
-        <v>700</v>
+        <v>3400</v>
       </c>
       <c r="K358" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="L358" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="M358" t="n">
-        <v>1000</v>
+        <v>550</v>
       </c>
       <c r="N358" t="inlineStr">
         <is>
@@ -26151,11 +26151,11 @@
       </c>
       <c r="O358" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P358" t="n">
-        <v>1000</v>
+        <v>550</v>
       </c>
       <c r="Q358" t="n">
         <v>1</v>
@@ -26181,7 +26181,7 @@
         </is>
       </c>
       <c r="D359" s="2" t="n">
-        <v>44438</v>
+        <v>44390</v>
       </c>
       <c r="E359" t="n">
         <v>13</v>
@@ -26201,20 +26201,20 @@
       </c>
       <c r="I359" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J359" t="n">
         <v>1600</v>
       </c>
       <c r="K359" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L359" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="M359" t="n">
-        <v>625</v>
+        <v>400</v>
       </c>
       <c r="N359" t="inlineStr">
         <is>
@@ -26227,7 +26227,7 @@
         </is>
       </c>
       <c r="P359" t="n">
-        <v>625</v>
+        <v>400</v>
       </c>
       <c r="Q359" t="n">
         <v>1</v>
@@ -26253,7 +26253,7 @@
         </is>
       </c>
       <c r="D360" s="2" t="n">
-        <v>44438</v>
+        <v>44390</v>
       </c>
       <c r="E360" t="n">
         <v>13</v>
@@ -26277,16 +26277,16 @@
         </is>
       </c>
       <c r="J360" t="n">
-        <v>610</v>
+        <v>970</v>
       </c>
       <c r="K360" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L360" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="M360" t="n">
-        <v>525</v>
+        <v>400</v>
       </c>
       <c r="N360" t="inlineStr">
         <is>
@@ -26295,11 +26295,11 @@
       </c>
       <c r="O360" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P360" t="n">
-        <v>525</v>
+        <v>400</v>
       </c>
       <c r="Q360" t="n">
         <v>1</v>
@@ -26325,7 +26325,7 @@
         </is>
       </c>
       <c r="D361" s="2" t="n">
-        <v>44201</v>
+        <v>44187</v>
       </c>
       <c r="E361" t="n">
         <v>13</v>
@@ -26349,16 +26349,16 @@
         </is>
       </c>
       <c r="J361" t="n">
-        <v>3600</v>
+        <v>4900</v>
       </c>
       <c r="K361" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L361" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="M361" t="n">
-        <v>656</v>
+        <v>902</v>
       </c>
       <c r="N361" t="inlineStr">
         <is>
@@ -26367,11 +26367,11 @@
       </c>
       <c r="O361" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P361" t="n">
-        <v>656</v>
+        <v>902</v>
       </c>
       <c r="Q361" t="n">
         <v>1</v>
@@ -26397,7 +26397,7 @@
         </is>
       </c>
       <c r="D362" s="2" t="n">
-        <v>44461</v>
+        <v>44250</v>
       </c>
       <c r="E362" t="n">
         <v>13</v>
@@ -26421,16 +26421,16 @@
         </is>
       </c>
       <c r="J362" t="n">
-        <v>1960</v>
+        <v>700</v>
       </c>
       <c r="K362" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="L362" t="n">
-        <v>650</v>
+        <v>1000</v>
       </c>
       <c r="M362" t="n">
-        <v>625</v>
+        <v>1000</v>
       </c>
       <c r="N362" t="inlineStr">
         <is>
@@ -26443,7 +26443,7 @@
         </is>
       </c>
       <c r="P362" t="n">
-        <v>625</v>
+        <v>1000</v>
       </c>
       <c r="Q362" t="n">
         <v>1</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="D363" s="2" t="n">
-        <v>44461</v>
+        <v>44438</v>
       </c>
       <c r="E363" t="n">
         <v>13</v>
@@ -26489,20 +26489,20 @@
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J363" t="n">
-        <v>520</v>
+        <v>1600</v>
       </c>
       <c r="K363" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="L363" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="M363" t="n">
-        <v>475</v>
+        <v>625</v>
       </c>
       <c r="N363" t="inlineStr">
         <is>
@@ -26515,7 +26515,7 @@
         </is>
       </c>
       <c r="P363" t="n">
-        <v>475</v>
+        <v>625</v>
       </c>
       <c r="Q363" t="n">
         <v>1</v>
@@ -26541,7 +26541,7 @@
         </is>
       </c>
       <c r="D364" s="2" t="n">
-        <v>44286</v>
+        <v>44438</v>
       </c>
       <c r="E364" t="n">
         <v>13</v>
@@ -26561,20 +26561,20 @@
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J364" t="n">
-        <v>1600</v>
+        <v>610</v>
       </c>
       <c r="K364" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="L364" t="n">
-        <v>900</v>
+        <v>550</v>
       </c>
       <c r="M364" t="n">
-        <v>900</v>
+        <v>525</v>
       </c>
       <c r="N364" t="inlineStr">
         <is>
@@ -26587,7 +26587,7 @@
         </is>
       </c>
       <c r="P364" t="n">
-        <v>900</v>
+        <v>525</v>
       </c>
       <c r="Q364" t="n">
         <v>1</v>
@@ -26613,7 +26613,7 @@
         </is>
       </c>
       <c r="D365" s="2" t="n">
-        <v>44389</v>
+        <v>44201</v>
       </c>
       <c r="E365" t="n">
         <v>13</v>
@@ -26637,16 +26637,16 @@
         </is>
       </c>
       <c r="J365" t="n">
-        <v>1600</v>
+        <v>3600</v>
       </c>
       <c r="K365" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L365" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M365" t="n">
-        <v>550</v>
+        <v>656</v>
       </c>
       <c r="N365" t="inlineStr">
         <is>
@@ -26655,11 +26655,11 @@
       </c>
       <c r="O365" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P365" t="n">
-        <v>550</v>
+        <v>656</v>
       </c>
       <c r="Q365" t="n">
         <v>1</v>
@@ -26685,7 +26685,7 @@
         </is>
       </c>
       <c r="D366" s="2" t="n">
-        <v>44389</v>
+        <v>44461</v>
       </c>
       <c r="E366" t="n">
         <v>13</v>
@@ -26705,20 +26705,20 @@
       </c>
       <c r="I366" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J366" t="n">
-        <v>520</v>
+        <v>1960</v>
       </c>
       <c r="K366" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L366" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="M366" t="n">
-        <v>400</v>
+        <v>625</v>
       </c>
       <c r="N366" t="inlineStr">
         <is>
@@ -26727,11 +26727,11 @@
       </c>
       <c r="O366" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P366" t="n">
-        <v>400</v>
+        <v>625</v>
       </c>
       <c r="Q366" t="n">
         <v>1</v>
@@ -26757,7 +26757,7 @@
         </is>
       </c>
       <c r="D367" s="2" t="n">
-        <v>44326</v>
+        <v>44461</v>
       </c>
       <c r="E367" t="n">
         <v>13</v>
@@ -26777,20 +26777,20 @@
       </c>
       <c r="I367" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J367" t="n">
-        <v>700</v>
+        <v>520</v>
       </c>
       <c r="K367" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="L367" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M367" t="n">
-        <v>600</v>
+        <v>475</v>
       </c>
       <c r="N367" t="inlineStr">
         <is>
@@ -26803,7 +26803,7 @@
         </is>
       </c>
       <c r="P367" t="n">
-        <v>600</v>
+        <v>475</v>
       </c>
       <c r="Q367" t="n">
         <v>1</v>
@@ -26829,7 +26829,7 @@
         </is>
       </c>
       <c r="D368" s="2" t="n">
-        <v>44432</v>
+        <v>44286</v>
       </c>
       <c r="E368" t="n">
         <v>13</v>
@@ -26853,16 +26853,16 @@
         </is>
       </c>
       <c r="J368" t="n">
-        <v>4300</v>
+        <v>1600</v>
       </c>
       <c r="K368" t="n">
-        <v>650</v>
+        <v>900</v>
       </c>
       <c r="L368" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M368" t="n">
-        <v>675</v>
+        <v>900</v>
       </c>
       <c r="N368" t="inlineStr">
         <is>
@@ -26875,7 +26875,7 @@
         </is>
       </c>
       <c r="P368" t="n">
-        <v>675</v>
+        <v>900</v>
       </c>
       <c r="Q368" t="n">
         <v>1</v>
@@ -26901,7 +26901,7 @@
         </is>
       </c>
       <c r="D369" s="2" t="n">
-        <v>44432</v>
+        <v>44389</v>
       </c>
       <c r="E369" t="n">
         <v>13</v>
@@ -26925,16 +26925,16 @@
         </is>
       </c>
       <c r="J369" t="n">
-        <v>3400</v>
+        <v>1600</v>
       </c>
       <c r="K369" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="L369" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M369" t="n">
-        <v>675</v>
+        <v>550</v>
       </c>
       <c r="N369" t="inlineStr">
         <is>
@@ -26947,7 +26947,7 @@
         </is>
       </c>
       <c r="P369" t="n">
-        <v>675</v>
+        <v>550</v>
       </c>
       <c r="Q369" t="n">
         <v>1</v>
@@ -26973,7 +26973,7 @@
         </is>
       </c>
       <c r="D370" s="2" t="n">
-        <v>44432</v>
+        <v>44389</v>
       </c>
       <c r="E370" t="n">
         <v>13</v>
@@ -26997,16 +26997,16 @@
         </is>
       </c>
       <c r="J370" t="n">
-        <v>1600</v>
+        <v>520</v>
       </c>
       <c r="K370" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="L370" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M370" t="n">
-        <v>575</v>
+        <v>400</v>
       </c>
       <c r="N370" t="inlineStr">
         <is>
@@ -27015,11 +27015,11 @@
       </c>
       <c r="O370" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P370" t="n">
-        <v>575</v>
+        <v>400</v>
       </c>
       <c r="Q370" t="n">
         <v>1</v>
@@ -27045,7 +27045,7 @@
         </is>
       </c>
       <c r="D371" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E371" t="n">
         <v>13</v>
@@ -27065,38 +27065,326 @@
       </c>
       <c r="I371" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J371" t="n">
-        <v>970</v>
+        <v>700</v>
       </c>
       <c r="K371" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="L371" t="n">
         <v>600</v>
       </c>
       <c r="M371" t="n">
+        <v>600</v>
+      </c>
+      <c r="N371" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O371" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P371" t="n">
+        <v>600</v>
+      </c>
+      <c r="Q371" t="n">
+        <v>1</v>
+      </c>
+      <c r="R371" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="n">
+        <v>9</v>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D372" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E372" t="n">
+        <v>13</v>
+      </c>
+      <c r="F372" t="n">
+        <v>100112008</v>
+      </c>
+      <c r="G372" t="inlineStr">
+        <is>
+          <t>Coliflor</t>
+        </is>
+      </c>
+      <c r="H372" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I372" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J372" t="n">
+        <v>4300</v>
+      </c>
+      <c r="K372" t="n">
+        <v>650</v>
+      </c>
+      <c r="L372" t="n">
+        <v>700</v>
+      </c>
+      <c r="M372" t="n">
+        <v>675</v>
+      </c>
+      <c r="N372" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O372" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P372" t="n">
+        <v>675</v>
+      </c>
+      <c r="Q372" t="n">
+        <v>1</v>
+      </c>
+      <c r="R372" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="n">
+        <v>9</v>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D373" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E373" t="n">
+        <v>13</v>
+      </c>
+      <c r="F373" t="n">
+        <v>100112008</v>
+      </c>
+      <c r="G373" t="inlineStr">
+        <is>
+          <t>Coliflor</t>
+        </is>
+      </c>
+      <c r="H373" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I373" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J373" t="n">
+        <v>3400</v>
+      </c>
+      <c r="K373" t="n">
+        <v>650</v>
+      </c>
+      <c r="L373" t="n">
+        <v>700</v>
+      </c>
+      <c r="M373" t="n">
+        <v>675</v>
+      </c>
+      <c r="N373" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O373" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P373" t="n">
+        <v>675</v>
+      </c>
+      <c r="Q373" t="n">
+        <v>1</v>
+      </c>
+      <c r="R373" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="n">
+        <v>9</v>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D374" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E374" t="n">
+        <v>13</v>
+      </c>
+      <c r="F374" t="n">
+        <v>100112008</v>
+      </c>
+      <c r="G374" t="inlineStr">
+        <is>
+          <t>Coliflor</t>
+        </is>
+      </c>
+      <c r="H374" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I374" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J374" t="n">
+        <v>1600</v>
+      </c>
+      <c r="K374" t="n">
+        <v>550</v>
+      </c>
+      <c r="L374" t="n">
+        <v>600</v>
+      </c>
+      <c r="M374" t="n">
         <v>575</v>
       </c>
-      <c r="N371" t="inlineStr">
-        <is>
-          <t>$/unidad</t>
-        </is>
-      </c>
-      <c r="O371" t="inlineStr">
+      <c r="N374" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O374" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P374" t="n">
+        <v>575</v>
+      </c>
+      <c r="Q374" t="n">
+        <v>1</v>
+      </c>
+      <c r="R374" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="n">
+        <v>9</v>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D375" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E375" t="n">
+        <v>13</v>
+      </c>
+      <c r="F375" t="n">
+        <v>100112008</v>
+      </c>
+      <c r="G375" t="inlineStr">
+        <is>
+          <t>Coliflor</t>
+        </is>
+      </c>
+      <c r="H375" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I375" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J375" t="n">
+        <v>970</v>
+      </c>
+      <c r="K375" t="n">
+        <v>550</v>
+      </c>
+      <c r="L375" t="n">
+        <v>600</v>
+      </c>
+      <c r="M375" t="n">
+        <v>575</v>
+      </c>
+      <c r="N375" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O375" t="inlineStr">
         <is>
           <t>Región de O'Higgins</t>
         </is>
       </c>
-      <c r="P371" t="n">
+      <c r="P375" t="n">
         <v>575</v>
       </c>
-      <c r="Q371" t="n">
-        <v>1</v>
-      </c>
-      <c r="R371" t="inlineStr">
+      <c r="Q375" t="n">
+        <v>1</v>
+      </c>
+      <c r="R375" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Coliflor.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Coliflor.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R379"/>
+  <dimension ref="A1:R381"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10485,7 +10485,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44449</v>
+        <v>44482</v>
       </c>
       <c r="E141" t="n">
         <v>13</v>
@@ -10509,7 +10509,7 @@
         </is>
       </c>
       <c r="J141" t="n">
-        <v>2500</v>
+        <v>1960</v>
       </c>
       <c r="K141" t="n">
         <v>600</v>
@@ -10557,7 +10557,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44449</v>
+        <v>44482</v>
       </c>
       <c r="E142" t="n">
         <v>13</v>
@@ -10577,20 +10577,20 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J142" t="n">
-        <v>3400</v>
+        <v>610</v>
       </c>
       <c r="K142" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="L142" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="M142" t="n">
-        <v>625</v>
+        <v>475</v>
       </c>
       <c r="N142" t="inlineStr">
         <is>
@@ -10599,11 +10599,11 @@
       </c>
       <c r="O142" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P142" t="n">
-        <v>625</v>
+        <v>475</v>
       </c>
       <c r="Q142" t="n">
         <v>1</v>
@@ -10649,20 +10649,20 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J143" t="n">
-        <v>970</v>
+        <v>2500</v>
       </c>
       <c r="K143" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="L143" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="M143" t="n">
-        <v>475</v>
+        <v>625</v>
       </c>
       <c r="N143" t="inlineStr">
         <is>
@@ -10675,7 +10675,7 @@
         </is>
       </c>
       <c r="P143" t="n">
-        <v>475</v>
+        <v>625</v>
       </c>
       <c r="Q143" t="n">
         <v>1</v>
@@ -10721,20 +10721,20 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J144" t="n">
-        <v>1330</v>
+        <v>3400</v>
       </c>
       <c r="K144" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="L144" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="M144" t="n">
-        <v>475</v>
+        <v>625</v>
       </c>
       <c r="N144" t="inlineStr">
         <is>
@@ -10747,7 +10747,7 @@
         </is>
       </c>
       <c r="P144" t="n">
-        <v>475</v>
+        <v>625</v>
       </c>
       <c r="Q144" t="n">
         <v>1</v>
@@ -10773,7 +10773,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44412</v>
+        <v>44449</v>
       </c>
       <c r="E145" t="n">
         <v>13</v>
@@ -10793,20 +10793,20 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J145" t="n">
-        <v>2500</v>
+        <v>970</v>
       </c>
       <c r="K145" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="L145" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M145" t="n">
-        <v>650</v>
+        <v>475</v>
       </c>
       <c r="N145" t="inlineStr">
         <is>
@@ -10819,7 +10819,7 @@
         </is>
       </c>
       <c r="P145" t="n">
-        <v>650</v>
+        <v>475</v>
       </c>
       <c r="Q145" t="n">
         <v>1</v>
@@ -10845,7 +10845,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44412</v>
+        <v>44449</v>
       </c>
       <c r="E146" t="n">
         <v>13</v>
@@ -10865,20 +10865,20 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J146" t="n">
-        <v>1600</v>
+        <v>1330</v>
       </c>
       <c r="K146" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="L146" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M146" t="n">
-        <v>650</v>
+        <v>475</v>
       </c>
       <c r="N146" t="inlineStr">
         <is>
@@ -10891,7 +10891,7 @@
         </is>
       </c>
       <c r="P146" t="n">
-        <v>650</v>
+        <v>475</v>
       </c>
       <c r="Q146" t="n">
         <v>1</v>
@@ -10937,20 +10937,20 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J147" t="n">
-        <v>970</v>
+        <v>2500</v>
       </c>
       <c r="K147" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L147" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M147" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="N147" t="inlineStr">
         <is>
@@ -10963,7 +10963,7 @@
         </is>
       </c>
       <c r="P147" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="Q147" t="n">
         <v>1</v>
@@ -11009,20 +11009,20 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J148" t="n">
-        <v>790</v>
+        <v>1600</v>
       </c>
       <c r="K148" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L148" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M148" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="N148" t="inlineStr">
         <is>
@@ -11035,7 +11035,7 @@
         </is>
       </c>
       <c r="P148" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="Q148" t="n">
         <v>1</v>
@@ -11061,7 +11061,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44336</v>
+        <v>44412</v>
       </c>
       <c r="E149" t="n">
         <v>13</v>
@@ -11081,20 +11081,20 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J149" t="n">
-        <v>4300</v>
+        <v>970</v>
       </c>
       <c r="K149" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L149" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M149" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="N149" t="inlineStr">
         <is>
@@ -11107,7 +11107,7 @@
         </is>
       </c>
       <c r="P149" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="Q149" t="n">
         <v>1</v>
@@ -11133,7 +11133,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44336</v>
+        <v>44412</v>
       </c>
       <c r="E150" t="n">
         <v>13</v>
@@ -11153,20 +11153,20 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J150" t="n">
-        <v>3400</v>
+        <v>790</v>
       </c>
       <c r="K150" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L150" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M150" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="N150" t="inlineStr">
         <is>
@@ -11179,7 +11179,7 @@
         </is>
       </c>
       <c r="P150" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="Q150" t="n">
         <v>1</v>
@@ -11225,20 +11225,20 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J151" t="n">
-        <v>1600</v>
+        <v>4300</v>
       </c>
       <c r="K151" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L151" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="M151" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="N151" t="inlineStr">
         <is>
@@ -11251,7 +11251,7 @@
         </is>
       </c>
       <c r="P151" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="Q151" t="n">
         <v>1</v>
@@ -11297,20 +11297,20 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J152" t="n">
-        <v>1600</v>
+        <v>3400</v>
       </c>
       <c r="K152" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L152" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M152" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="N152" t="inlineStr">
         <is>
@@ -11323,7 +11323,7 @@
         </is>
       </c>
       <c r="P152" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="Q152" t="n">
         <v>1</v>
@@ -11349,7 +11349,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44271</v>
+        <v>44336</v>
       </c>
       <c r="E153" t="n">
         <v>13</v>
@@ -11369,20 +11369,20 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J153" t="n">
         <v>1600</v>
       </c>
       <c r="K153" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="L153" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="M153" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="N153" t="inlineStr">
         <is>
@@ -11395,7 +11395,7 @@
         </is>
       </c>
       <c r="P153" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="Q153" t="n">
         <v>1</v>
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44308</v>
+        <v>44336</v>
       </c>
       <c r="E154" t="n">
         <v>13</v>
@@ -11441,20 +11441,20 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J154" t="n">
         <v>1600</v>
       </c>
       <c r="K154" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L154" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M154" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="N154" t="inlineStr">
         <is>
@@ -11463,11 +11463,11 @@
       </c>
       <c r="O154" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P154" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="Q154" t="n">
         <v>1</v>
@@ -11493,7 +11493,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44330</v>
+        <v>44271</v>
       </c>
       <c r="E155" t="n">
         <v>13</v>
@@ -11517,16 +11517,16 @@
         </is>
       </c>
       <c r="J155" t="n">
-        <v>2500</v>
+        <v>1600</v>
       </c>
       <c r="K155" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="L155" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="M155" t="n">
-        <v>650</v>
+        <v>1000</v>
       </c>
       <c r="N155" t="inlineStr">
         <is>
@@ -11539,7 +11539,7 @@
         </is>
       </c>
       <c r="P155" t="n">
-        <v>650</v>
+        <v>1000</v>
       </c>
       <c r="Q155" t="n">
         <v>1</v>
@@ -11565,7 +11565,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44330</v>
+        <v>44308</v>
       </c>
       <c r="E156" t="n">
         <v>13</v>
@@ -11589,16 +11589,16 @@
         </is>
       </c>
       <c r="J156" t="n">
-        <v>3400</v>
+        <v>1600</v>
       </c>
       <c r="K156" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L156" t="n">
         <v>700</v>
       </c>
       <c r="M156" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="N156" t="inlineStr">
         <is>
@@ -11607,11 +11607,11 @@
       </c>
       <c r="O156" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P156" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="Q156" t="n">
         <v>1</v>
@@ -11657,20 +11657,20 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J157" t="n">
+        <v>2500</v>
+      </c>
+      <c r="K157" t="n">
+        <v>600</v>
+      </c>
+      <c r="L157" t="n">
         <v>700</v>
       </c>
-      <c r="K157" t="n">
-        <v>400</v>
-      </c>
-      <c r="L157" t="n">
-        <v>400</v>
-      </c>
       <c r="M157" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="N157" t="inlineStr">
         <is>
@@ -11683,7 +11683,7 @@
         </is>
       </c>
       <c r="P157" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="Q157" t="n">
         <v>1</v>
@@ -11729,20 +11729,20 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J158" t="n">
-        <v>1600</v>
+        <v>3400</v>
       </c>
       <c r="K158" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L158" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="M158" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="N158" t="inlineStr">
         <is>
@@ -11755,7 +11755,7 @@
         </is>
       </c>
       <c r="P158" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="Q158" t="n">
         <v>1</v>
@@ -11781,7 +11781,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44463</v>
+        <v>44330</v>
       </c>
       <c r="E159" t="n">
         <v>13</v>
@@ -11801,20 +11801,20 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J159" t="n">
-        <v>4300</v>
+        <v>700</v>
       </c>
       <c r="K159" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L159" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="M159" t="n">
-        <v>625</v>
+        <v>400</v>
       </c>
       <c r="N159" t="inlineStr">
         <is>
@@ -11827,7 +11827,7 @@
         </is>
       </c>
       <c r="P159" t="n">
-        <v>625</v>
+        <v>400</v>
       </c>
       <c r="Q159" t="n">
         <v>1</v>
@@ -11853,7 +11853,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44463</v>
+        <v>44330</v>
       </c>
       <c r="E160" t="n">
         <v>13</v>
@@ -11873,20 +11873,20 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J160" t="n">
-        <v>3400</v>
+        <v>1600</v>
       </c>
       <c r="K160" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L160" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="M160" t="n">
-        <v>625</v>
+        <v>400</v>
       </c>
       <c r="N160" t="inlineStr">
         <is>
@@ -11899,7 +11899,7 @@
         </is>
       </c>
       <c r="P160" t="n">
-        <v>625</v>
+        <v>400</v>
       </c>
       <c r="Q160" t="n">
         <v>1</v>
@@ -11945,20 +11945,20 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J161" t="n">
-        <v>1240</v>
+        <v>4300</v>
       </c>
       <c r="K161" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="L161" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="M161" t="n">
-        <v>475</v>
+        <v>625</v>
       </c>
       <c r="N161" t="inlineStr">
         <is>
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="P161" t="n">
-        <v>475</v>
+        <v>625</v>
       </c>
       <c r="Q161" t="n">
         <v>1</v>
@@ -12017,20 +12017,20 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J162" t="n">
-        <v>970</v>
+        <v>3400</v>
       </c>
       <c r="K162" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="L162" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="M162" t="n">
-        <v>475</v>
+        <v>625</v>
       </c>
       <c r="N162" t="inlineStr">
         <is>
@@ -12043,7 +12043,7 @@
         </is>
       </c>
       <c r="P162" t="n">
-        <v>475</v>
+        <v>625</v>
       </c>
       <c r="Q162" t="n">
         <v>1</v>
@@ -12069,7 +12069,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44322</v>
+        <v>44463</v>
       </c>
       <c r="E163" t="n">
         <v>13</v>
@@ -12089,20 +12089,20 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J163" t="n">
-        <v>1600</v>
+        <v>1240</v>
       </c>
       <c r="K163" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="L163" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M163" t="n">
-        <v>600</v>
+        <v>475</v>
       </c>
       <c r="N163" t="inlineStr">
         <is>
@@ -12115,7 +12115,7 @@
         </is>
       </c>
       <c r="P163" t="n">
-        <v>600</v>
+        <v>475</v>
       </c>
       <c r="Q163" t="n">
         <v>1</v>
@@ -12141,7 +12141,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44322</v>
+        <v>44463</v>
       </c>
       <c r="E164" t="n">
         <v>13</v>
@@ -12161,20 +12161,20 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J164" t="n">
-        <v>3400</v>
+        <v>970</v>
       </c>
       <c r="K164" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="L164" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M164" t="n">
-        <v>600</v>
+        <v>475</v>
       </c>
       <c r="N164" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         </is>
       </c>
       <c r="P164" t="n">
-        <v>600</v>
+        <v>475</v>
       </c>
       <c r="Q164" t="n">
         <v>1</v>
@@ -12233,20 +12233,20 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J165" t="n">
         <v>1600</v>
       </c>
       <c r="K165" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L165" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M165" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="N165" t="inlineStr">
         <is>
@@ -12255,11 +12255,11 @@
       </c>
       <c r="O165" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P165" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="Q165" t="n">
         <v>1</v>
@@ -12285,7 +12285,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44428</v>
+        <v>44322</v>
       </c>
       <c r="E166" t="n">
         <v>13</v>
@@ -12315,10 +12315,10 @@
         <v>600</v>
       </c>
       <c r="L166" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M166" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="N166" t="inlineStr">
         <is>
@@ -12327,11 +12327,11 @@
       </c>
       <c r="O166" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P166" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="Q166" t="n">
         <v>1</v>
@@ -12357,7 +12357,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44428</v>
+        <v>44322</v>
       </c>
       <c r="E167" t="n">
         <v>13</v>
@@ -12377,20 +12377,20 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J167" t="n">
-        <v>4300</v>
+        <v>1600</v>
       </c>
       <c r="K167" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L167" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="M167" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="N167" t="inlineStr">
         <is>
@@ -12403,7 +12403,7 @@
         </is>
       </c>
       <c r="P167" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="Q167" t="n">
         <v>1</v>
@@ -12449,20 +12449,20 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J168" t="n">
-        <v>970</v>
+        <v>3400</v>
       </c>
       <c r="K168" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L168" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M168" t="n">
-        <v>451</v>
+        <v>650</v>
       </c>
       <c r="N168" t="inlineStr">
         <is>
@@ -12475,7 +12475,7 @@
         </is>
       </c>
       <c r="P168" t="n">
-        <v>451</v>
+        <v>650</v>
       </c>
       <c r="Q168" t="n">
         <v>1</v>
@@ -12521,20 +12521,20 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J169" t="n">
-        <v>1060</v>
+        <v>4300</v>
       </c>
       <c r="K169" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L169" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M169" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="N169" t="inlineStr">
         <is>
@@ -12547,7 +12547,7 @@
         </is>
       </c>
       <c r="P169" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="Q169" t="n">
         <v>1</v>
@@ -12573,7 +12573,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44264</v>
+        <v>44428</v>
       </c>
       <c r="E170" t="n">
         <v>13</v>
@@ -12593,20 +12593,20 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J170" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="K170" t="n">
-        <v>1200</v>
+        <v>400</v>
       </c>
       <c r="L170" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="M170" t="n">
-        <v>1200</v>
+        <v>451</v>
       </c>
       <c r="N170" t="inlineStr">
         <is>
@@ -12619,7 +12619,7 @@
         </is>
       </c>
       <c r="P170" t="n">
-        <v>1200</v>
+        <v>451</v>
       </c>
       <c r="Q170" t="n">
         <v>1</v>
@@ -12645,7 +12645,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44315</v>
+        <v>44428</v>
       </c>
       <c r="E171" t="n">
         <v>13</v>
@@ -12665,20 +12665,20 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J171" t="n">
-        <v>2500</v>
+        <v>1060</v>
       </c>
       <c r="K171" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L171" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M171" t="n">
-        <v>650</v>
+        <v>450</v>
       </c>
       <c r="N171" t="inlineStr">
         <is>
@@ -12687,11 +12687,11 @@
       </c>
       <c r="O171" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P171" t="n">
-        <v>650</v>
+        <v>450</v>
       </c>
       <c r="Q171" t="n">
         <v>1</v>
@@ -12717,7 +12717,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44315</v>
+        <v>44264</v>
       </c>
       <c r="E172" t="n">
         <v>13</v>
@@ -12741,16 +12741,16 @@
         </is>
       </c>
       <c r="J172" t="n">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="K172" t="n">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="L172" t="n">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="M172" t="n">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="N172" t="inlineStr">
         <is>
@@ -12759,11 +12759,11 @@
       </c>
       <c r="O172" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P172" t="n">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="Q172" t="n">
         <v>1</v>
@@ -12789,7 +12789,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44343</v>
+        <v>44315</v>
       </c>
       <c r="E173" t="n">
         <v>13</v>
@@ -12813,7 +12813,7 @@
         </is>
       </c>
       <c r="J173" t="n">
-        <v>4200</v>
+        <v>2500</v>
       </c>
       <c r="K173" t="n">
         <v>600</v>
@@ -12861,7 +12861,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44343</v>
+        <v>44315</v>
       </c>
       <c r="E174" t="n">
         <v>13</v>
@@ -12885,16 +12885,16 @@
         </is>
       </c>
       <c r="J174" t="n">
-        <v>3500</v>
+        <v>1600</v>
       </c>
       <c r="K174" t="n">
         <v>600</v>
       </c>
       <c r="L174" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M174" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="N174" t="inlineStr">
         <is>
@@ -12907,7 +12907,7 @@
         </is>
       </c>
       <c r="P174" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="Q174" t="n">
         <v>1</v>
@@ -12953,20 +12953,20 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J175" t="n">
-        <v>1800</v>
+        <v>4200</v>
       </c>
       <c r="K175" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L175" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="M175" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="N175" t="inlineStr">
         <is>
@@ -12979,7 +12979,7 @@
         </is>
       </c>
       <c r="P175" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="Q175" t="n">
         <v>1</v>
@@ -13025,20 +13025,20 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J176" t="n">
-        <v>1700</v>
+        <v>3500</v>
       </c>
       <c r="K176" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L176" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="M176" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="N176" t="inlineStr">
         <is>
@@ -13051,7 +13051,7 @@
         </is>
       </c>
       <c r="P176" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="Q176" t="n">
         <v>1</v>
@@ -13077,7 +13077,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44195</v>
+        <v>44343</v>
       </c>
       <c r="E177" t="n">
         <v>13</v>
@@ -13097,20 +13097,20 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J177" t="n">
-        <v>4300</v>
+        <v>1800</v>
       </c>
       <c r="K177" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="L177" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="M177" t="n">
-        <v>950</v>
+        <v>400</v>
       </c>
       <c r="N177" t="inlineStr">
         <is>
@@ -13123,7 +13123,7 @@
         </is>
       </c>
       <c r="P177" t="n">
-        <v>950</v>
+        <v>400</v>
       </c>
       <c r="Q177" t="n">
         <v>1</v>
@@ -13149,7 +13149,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44447</v>
+        <v>44343</v>
       </c>
       <c r="E178" t="n">
         <v>13</v>
@@ -13169,20 +13169,20 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J178" t="n">
-        <v>2500</v>
+        <v>1700</v>
       </c>
       <c r="K178" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L178" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="M178" t="n">
-        <v>625</v>
+        <v>400</v>
       </c>
       <c r="N178" t="inlineStr">
         <is>
@@ -13191,11 +13191,11 @@
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P178" t="n">
-        <v>625</v>
+        <v>400</v>
       </c>
       <c r="Q178" t="n">
         <v>1</v>
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44447</v>
+        <v>44195</v>
       </c>
       <c r="E179" t="n">
         <v>13</v>
@@ -13241,20 +13241,20 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J179" t="n">
-        <v>970</v>
+        <v>4300</v>
       </c>
       <c r="K179" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="L179" t="n">
-        <v>450</v>
+        <v>1000</v>
       </c>
       <c r="M179" t="n">
-        <v>425</v>
+        <v>950</v>
       </c>
       <c r="N179" t="inlineStr">
         <is>
@@ -13267,7 +13267,7 @@
         </is>
       </c>
       <c r="P179" t="n">
-        <v>425</v>
+        <v>950</v>
       </c>
       <c r="Q179" t="n">
         <v>1</v>
@@ -13293,7 +13293,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44421</v>
+        <v>44447</v>
       </c>
       <c r="E180" t="n">
         <v>13</v>
@@ -13317,16 +13317,16 @@
         </is>
       </c>
       <c r="J180" t="n">
-        <v>3400</v>
+        <v>2500</v>
       </c>
       <c r="K180" t="n">
         <v>600</v>
       </c>
       <c r="L180" t="n">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="M180" t="n">
-        <v>650</v>
+        <v>625</v>
       </c>
       <c r="N180" t="inlineStr">
         <is>
@@ -13339,7 +13339,7 @@
         </is>
       </c>
       <c r="P180" t="n">
-        <v>650</v>
+        <v>625</v>
       </c>
       <c r="Q180" t="n">
         <v>1</v>
@@ -13365,7 +13365,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44421</v>
+        <v>44447</v>
       </c>
       <c r="E181" t="n">
         <v>13</v>
@@ -13385,20 +13385,20 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J181" t="n">
-        <v>4300</v>
+        <v>970</v>
       </c>
       <c r="K181" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L181" t="n">
-        <v>700</v>
+        <v>450</v>
       </c>
       <c r="M181" t="n">
-        <v>650</v>
+        <v>425</v>
       </c>
       <c r="N181" t="inlineStr">
         <is>
@@ -13407,11 +13407,11 @@
       </c>
       <c r="O181" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P181" t="n">
-        <v>650</v>
+        <v>425</v>
       </c>
       <c r="Q181" t="n">
         <v>1</v>
@@ -13457,20 +13457,20 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J182" t="n">
-        <v>1600</v>
+        <v>3400</v>
       </c>
       <c r="K182" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L182" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M182" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="N182" t="inlineStr">
         <is>
@@ -13483,7 +13483,7 @@
         </is>
       </c>
       <c r="P182" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="Q182" t="n">
         <v>1</v>
@@ -13529,20 +13529,20 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J183" t="n">
-        <v>2500</v>
+        <v>4300</v>
       </c>
       <c r="K183" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L183" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M183" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="N183" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         </is>
       </c>
       <c r="P183" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="Q183" t="n">
         <v>1</v>
@@ -13581,7 +13581,7 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>44294</v>
+        <v>44421</v>
       </c>
       <c r="E184" t="n">
         <v>13</v>
@@ -13601,20 +13601,20 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J184" t="n">
         <v>1600</v>
       </c>
       <c r="K184" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="L184" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M184" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="N184" t="inlineStr">
         <is>
@@ -13627,7 +13627,7 @@
         </is>
       </c>
       <c r="P184" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="Q184" t="n">
         <v>1</v>
@@ -13653,7 +13653,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44294</v>
+        <v>44421</v>
       </c>
       <c r="E185" t="n">
         <v>13</v>
@@ -13673,20 +13673,20 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J185" t="n">
-        <v>1600</v>
+        <v>2500</v>
       </c>
       <c r="K185" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="L185" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="M185" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="N185" t="inlineStr">
         <is>
@@ -13699,7 +13699,7 @@
         </is>
       </c>
       <c r="P185" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="Q185" t="n">
         <v>1</v>
@@ -13725,7 +13725,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44232</v>
+        <v>44294</v>
       </c>
       <c r="E186" t="n">
         <v>13</v>
@@ -13749,16 +13749,16 @@
         </is>
       </c>
       <c r="J186" t="n">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="K186" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="L186" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="M186" t="n">
-        <v>1111</v>
+        <v>800</v>
       </c>
       <c r="N186" t="inlineStr">
         <is>
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="P186" t="n">
-        <v>1111</v>
+        <v>800</v>
       </c>
       <c r="Q186" t="n">
         <v>1</v>
@@ -13797,7 +13797,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44316</v>
+        <v>44294</v>
       </c>
       <c r="E187" t="n">
         <v>13</v>
@@ -13821,16 +13821,16 @@
         </is>
       </c>
       <c r="J187" t="n">
-        <v>3400</v>
+        <v>1600</v>
       </c>
       <c r="K187" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="L187" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M187" t="n">
-        <v>650</v>
+        <v>900</v>
       </c>
       <c r="N187" t="inlineStr">
         <is>
@@ -13839,11 +13839,11 @@
       </c>
       <c r="O187" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P187" t="n">
-        <v>650</v>
+        <v>900</v>
       </c>
       <c r="Q187" t="n">
         <v>1</v>
@@ -13869,7 +13869,7 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>44316</v>
+        <v>44232</v>
       </c>
       <c r="E188" t="n">
         <v>13</v>
@@ -13889,20 +13889,20 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J188" t="n">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="K188" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="L188" t="n">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="M188" t="n">
-        <v>500</v>
+        <v>1111</v>
       </c>
       <c r="N188" t="inlineStr">
         <is>
@@ -13915,7 +13915,7 @@
         </is>
       </c>
       <c r="P188" t="n">
-        <v>500</v>
+        <v>1111</v>
       </c>
       <c r="Q188" t="n">
         <v>1</v>
@@ -13941,7 +13941,7 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>44356</v>
+        <v>44316</v>
       </c>
       <c r="E189" t="n">
         <v>13</v>
@@ -13965,16 +13965,16 @@
         </is>
       </c>
       <c r="J189" t="n">
-        <v>2500</v>
+        <v>3400</v>
       </c>
       <c r="K189" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L189" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M189" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="N189" t="inlineStr">
         <is>
@@ -13983,11 +13983,11 @@
       </c>
       <c r="O189" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P189" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="Q189" t="n">
         <v>1</v>
@@ -14013,7 +14013,7 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>44356</v>
+        <v>44316</v>
       </c>
       <c r="E190" t="n">
         <v>13</v>
@@ -14037,16 +14037,16 @@
         </is>
       </c>
       <c r="J190" t="n">
-        <v>700</v>
+        <v>1600</v>
       </c>
       <c r="K190" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L190" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M190" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N190" t="inlineStr">
         <is>
@@ -14055,11 +14055,11 @@
       </c>
       <c r="O190" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P190" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Q190" t="n">
         <v>1</v>
@@ -14085,7 +14085,7 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>44454</v>
+        <v>44356</v>
       </c>
       <c r="E191" t="n">
         <v>13</v>
@@ -14112,13 +14112,13 @@
         <v>2500</v>
       </c>
       <c r="K191" t="n">
+        <v>500</v>
+      </c>
+      <c r="L191" t="n">
         <v>600</v>
       </c>
-      <c r="L191" t="n">
-        <v>650</v>
-      </c>
       <c r="M191" t="n">
-        <v>625</v>
+        <v>550</v>
       </c>
       <c r="N191" t="inlineStr">
         <is>
@@ -14127,11 +14127,11 @@
       </c>
       <c r="O191" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P191" t="n">
-        <v>625</v>
+        <v>550</v>
       </c>
       <c r="Q191" t="n">
         <v>1</v>
@@ -14157,7 +14157,7 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>44454</v>
+        <v>44356</v>
       </c>
       <c r="E192" t="n">
         <v>13</v>
@@ -14181,16 +14181,16 @@
         </is>
       </c>
       <c r="J192" t="n">
-        <v>970</v>
+        <v>700</v>
       </c>
       <c r="K192" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="L192" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M192" t="n">
-        <v>475</v>
+        <v>400</v>
       </c>
       <c r="N192" t="inlineStr">
         <is>
@@ -14199,11 +14199,11 @@
       </c>
       <c r="O192" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P192" t="n">
-        <v>475</v>
+        <v>400</v>
       </c>
       <c r="Q192" t="n">
         <v>1</v>
@@ -14229,7 +14229,7 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>44467</v>
+        <v>44454</v>
       </c>
       <c r="E193" t="n">
         <v>13</v>
@@ -14253,16 +14253,16 @@
         </is>
       </c>
       <c r="J193" t="n">
-        <v>3400</v>
+        <v>2500</v>
       </c>
       <c r="K193" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="L193" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="M193" t="n">
-        <v>575</v>
+        <v>625</v>
       </c>
       <c r="N193" t="inlineStr">
         <is>
@@ -14275,7 +14275,7 @@
         </is>
       </c>
       <c r="P193" t="n">
-        <v>575</v>
+        <v>625</v>
       </c>
       <c r="Q193" t="n">
         <v>1</v>
@@ -14301,7 +14301,7 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>44467</v>
+        <v>44454</v>
       </c>
       <c r="E194" t="n">
         <v>13</v>
@@ -14321,20 +14321,20 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J194" t="n">
-        <v>2500</v>
+        <v>970</v>
       </c>
       <c r="K194" t="n">
-        <v>550</v>
+        <v>450</v>
       </c>
       <c r="L194" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M194" t="n">
-        <v>575</v>
+        <v>475</v>
       </c>
       <c r="N194" t="inlineStr">
         <is>
@@ -14343,11 +14343,11 @@
       </c>
       <c r="O194" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P194" t="n">
-        <v>575</v>
+        <v>475</v>
       </c>
       <c r="Q194" t="n">
         <v>1</v>
@@ -14393,20 +14393,20 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J195" t="n">
-        <v>1330</v>
+        <v>3400</v>
       </c>
       <c r="K195" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="L195" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="M195" t="n">
-        <v>425</v>
+        <v>575</v>
       </c>
       <c r="N195" t="inlineStr">
         <is>
@@ -14419,7 +14419,7 @@
         </is>
       </c>
       <c r="P195" t="n">
-        <v>425</v>
+        <v>575</v>
       </c>
       <c r="Q195" t="n">
         <v>1</v>
@@ -14465,20 +14465,20 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J196" t="n">
-        <v>970</v>
+        <v>2500</v>
       </c>
       <c r="K196" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="L196" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="M196" t="n">
-        <v>425</v>
+        <v>575</v>
       </c>
       <c r="N196" t="inlineStr">
         <is>
@@ -14491,7 +14491,7 @@
         </is>
       </c>
       <c r="P196" t="n">
-        <v>425</v>
+        <v>575</v>
       </c>
       <c r="Q196" t="n">
         <v>1</v>
@@ -14517,7 +14517,7 @@
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>44427</v>
+        <v>44467</v>
       </c>
       <c r="E197" t="n">
         <v>13</v>
@@ -14537,20 +14537,20 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J197" t="n">
-        <v>4300</v>
+        <v>1330</v>
       </c>
       <c r="K197" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L197" t="n">
-        <v>700</v>
+        <v>450</v>
       </c>
       <c r="M197" t="n">
-        <v>650</v>
+        <v>425</v>
       </c>
       <c r="N197" t="inlineStr">
         <is>
@@ -14563,7 +14563,7 @@
         </is>
       </c>
       <c r="P197" t="n">
-        <v>650</v>
+        <v>425</v>
       </c>
       <c r="Q197" t="n">
         <v>1</v>
@@ -14589,7 +14589,7 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>44427</v>
+        <v>44467</v>
       </c>
       <c r="E198" t="n">
         <v>13</v>
@@ -14613,16 +14613,16 @@
         </is>
       </c>
       <c r="J198" t="n">
-        <v>1600</v>
+        <v>970</v>
       </c>
       <c r="K198" t="n">
         <v>400</v>
       </c>
       <c r="L198" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="M198" t="n">
-        <v>450</v>
+        <v>425</v>
       </c>
       <c r="N198" t="inlineStr">
         <is>
@@ -14631,11 +14631,11 @@
       </c>
       <c r="O198" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P198" t="n">
-        <v>450</v>
+        <v>425</v>
       </c>
       <c r="Q198" t="n">
         <v>1</v>
@@ -14661,7 +14661,7 @@
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>44319</v>
+        <v>44427</v>
       </c>
       <c r="E199" t="n">
         <v>13</v>
@@ -14685,16 +14685,16 @@
         </is>
       </c>
       <c r="J199" t="n">
-        <v>1600</v>
+        <v>4300</v>
       </c>
       <c r="K199" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="L199" t="n">
         <v>700</v>
       </c>
       <c r="M199" t="n">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="N199" t="inlineStr">
         <is>
@@ -14707,7 +14707,7 @@
         </is>
       </c>
       <c r="P199" t="n">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="Q199" t="n">
         <v>1</v>
@@ -14733,7 +14733,7 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>44273</v>
+        <v>44427</v>
       </c>
       <c r="E200" t="n">
         <v>13</v>
@@ -14753,20 +14753,20 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J200" t="n">
         <v>1600</v>
       </c>
       <c r="K200" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="L200" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="M200" t="n">
-        <v>1000</v>
+        <v>450</v>
       </c>
       <c r="N200" t="inlineStr">
         <is>
@@ -14779,7 +14779,7 @@
         </is>
       </c>
       <c r="P200" t="n">
-        <v>1000</v>
+        <v>450</v>
       </c>
       <c r="Q200" t="n">
         <v>1</v>
@@ -14805,7 +14805,7 @@
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>44411</v>
+        <v>44319</v>
       </c>
       <c r="E201" t="n">
         <v>13</v>
@@ -14829,16 +14829,16 @@
         </is>
       </c>
       <c r="J201" t="n">
-        <v>3400</v>
+        <v>1600</v>
       </c>
       <c r="K201" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L201" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M201" t="n">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="N201" t="inlineStr">
         <is>
@@ -14851,7 +14851,7 @@
         </is>
       </c>
       <c r="P201" t="n">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="Q201" t="n">
         <v>1</v>
@@ -14877,7 +14877,7 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>44411</v>
+        <v>44273</v>
       </c>
       <c r="E202" t="n">
         <v>13</v>
@@ -14901,16 +14901,16 @@
         </is>
       </c>
       <c r="J202" t="n">
-        <v>2500</v>
+        <v>1600</v>
       </c>
       <c r="K202" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="L202" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="M202" t="n">
-        <v>550</v>
+        <v>1000</v>
       </c>
       <c r="N202" t="inlineStr">
         <is>
@@ -14919,11 +14919,11 @@
       </c>
       <c r="O202" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P202" t="n">
-        <v>550</v>
+        <v>1000</v>
       </c>
       <c r="Q202" t="n">
         <v>1</v>
@@ -14969,20 +14969,20 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J203" t="n">
-        <v>970</v>
+        <v>3400</v>
       </c>
       <c r="K203" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L203" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M203" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="N203" t="inlineStr">
         <is>
@@ -14995,7 +14995,7 @@
         </is>
       </c>
       <c r="P203" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="Q203" t="n">
         <v>1</v>
@@ -15041,20 +15041,20 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J204" t="n">
-        <v>790</v>
+        <v>2500</v>
       </c>
       <c r="K204" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L204" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M204" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="N204" t="inlineStr">
         <is>
@@ -15067,7 +15067,7 @@
         </is>
       </c>
       <c r="P204" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="Q204" t="n">
         <v>1</v>
@@ -15093,7 +15093,7 @@
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>44215</v>
+        <v>44411</v>
       </c>
       <c r="E205" t="n">
         <v>13</v>
@@ -15113,20 +15113,20 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J205" t="n">
-        <v>2000</v>
+        <v>970</v>
       </c>
       <c r="K205" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="L205" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="M205" t="n">
-        <v>950</v>
+        <v>400</v>
       </c>
       <c r="N205" t="inlineStr">
         <is>
@@ -15135,11 +15135,11 @@
       </c>
       <c r="O205" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P205" t="n">
-        <v>950</v>
+        <v>400</v>
       </c>
       <c r="Q205" t="n">
         <v>1</v>
@@ -15165,7 +15165,7 @@
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>44235</v>
+        <v>44411</v>
       </c>
       <c r="E206" t="n">
         <v>13</v>
@@ -15185,20 +15185,20 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J206" t="n">
-        <v>800</v>
+        <v>790</v>
       </c>
       <c r="K206" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="L206" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="M206" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="N206" t="inlineStr">
         <is>
@@ -15207,11 +15207,11 @@
       </c>
       <c r="O206" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P206" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="Q206" t="n">
         <v>1</v>
@@ -15237,7 +15237,7 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>44403</v>
+        <v>44215</v>
       </c>
       <c r="E207" t="n">
         <v>13</v>
@@ -15261,16 +15261,16 @@
         </is>
       </c>
       <c r="J207" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="K207" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="L207" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="M207" t="n">
-        <v>550</v>
+        <v>950</v>
       </c>
       <c r="N207" t="inlineStr">
         <is>
@@ -15279,11 +15279,11 @@
       </c>
       <c r="O207" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P207" t="n">
-        <v>550</v>
+        <v>950</v>
       </c>
       <c r="Q207" t="n">
         <v>1</v>
@@ -15309,7 +15309,7 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>44403</v>
+        <v>44235</v>
       </c>
       <c r="E208" t="n">
         <v>13</v>
@@ -15329,20 +15329,20 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J208" t="n">
-        <v>970</v>
+        <v>800</v>
       </c>
       <c r="K208" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="L208" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="M208" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="N208" t="inlineStr">
         <is>
@@ -15355,7 +15355,7 @@
         </is>
       </c>
       <c r="P208" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="Q208" t="n">
         <v>1</v>
@@ -15381,7 +15381,7 @@
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>44203</v>
+        <v>44403</v>
       </c>
       <c r="E209" t="n">
         <v>13</v>
@@ -15405,16 +15405,16 @@
         </is>
       </c>
       <c r="J209" t="n">
-        <v>4500</v>
+        <v>1600</v>
       </c>
       <c r="K209" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L209" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M209" t="n">
-        <v>756</v>
+        <v>550</v>
       </c>
       <c r="N209" t="inlineStr">
         <is>
@@ -15423,11 +15423,11 @@
       </c>
       <c r="O209" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P209" t="n">
-        <v>756</v>
+        <v>550</v>
       </c>
       <c r="Q209" t="n">
         <v>1</v>
@@ -15453,7 +15453,7 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>44203</v>
+        <v>44403</v>
       </c>
       <c r="E210" t="n">
         <v>13</v>
@@ -15477,16 +15477,16 @@
         </is>
       </c>
       <c r="J210" t="n">
-        <v>2000</v>
+        <v>970</v>
       </c>
       <c r="K210" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L210" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M210" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="N210" t="inlineStr">
         <is>
@@ -15495,11 +15495,11 @@
       </c>
       <c r="O210" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P210" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="Q210" t="n">
         <v>1</v>
@@ -15525,7 +15525,7 @@
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>44413</v>
+        <v>44203</v>
       </c>
       <c r="E211" t="n">
         <v>13</v>
@@ -15549,16 +15549,16 @@
         </is>
       </c>
       <c r="J211" t="n">
-        <v>4300</v>
+        <v>4500</v>
       </c>
       <c r="K211" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L211" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M211" t="n">
-        <v>650</v>
+        <v>756</v>
       </c>
       <c r="N211" t="inlineStr">
         <is>
@@ -15567,11 +15567,11 @@
       </c>
       <c r="O211" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P211" t="n">
-        <v>650</v>
+        <v>756</v>
       </c>
       <c r="Q211" t="n">
         <v>1</v>
@@ -15597,7 +15597,7 @@
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>44413</v>
+        <v>44203</v>
       </c>
       <c r="E212" t="n">
         <v>13</v>
@@ -15617,20 +15617,20 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J212" t="n">
-        <v>5200</v>
+        <v>2000</v>
       </c>
       <c r="K212" t="n">
         <v>600</v>
       </c>
       <c r="L212" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M212" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="N212" t="inlineStr">
         <is>
@@ -15639,11 +15639,11 @@
       </c>
       <c r="O212" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P212" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="Q212" t="n">
         <v>1</v>
@@ -15689,20 +15689,20 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J213" t="n">
-        <v>2500</v>
+        <v>4300</v>
       </c>
       <c r="K213" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L213" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M213" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="N213" t="inlineStr">
         <is>
@@ -15715,7 +15715,7 @@
         </is>
       </c>
       <c r="P213" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="Q213" t="n">
         <v>1</v>
@@ -15761,20 +15761,20 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J214" t="n">
-        <v>3400</v>
+        <v>5200</v>
       </c>
       <c r="K214" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L214" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M214" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="N214" t="inlineStr">
         <is>
@@ -15787,7 +15787,7 @@
         </is>
       </c>
       <c r="P214" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="Q214" t="n">
         <v>1</v>
@@ -15813,7 +15813,7 @@
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>44426</v>
+        <v>44413</v>
       </c>
       <c r="E215" t="n">
         <v>13</v>
@@ -15833,20 +15833,20 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J215" t="n">
-        <v>3400</v>
+        <v>2500</v>
       </c>
       <c r="K215" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L215" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M215" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="N215" t="inlineStr">
         <is>
@@ -15859,7 +15859,7 @@
         </is>
       </c>
       <c r="P215" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="Q215" t="n">
         <v>1</v>
@@ -15885,7 +15885,7 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>44426</v>
+        <v>44413</v>
       </c>
       <c r="E216" t="n">
         <v>13</v>
@@ -15909,16 +15909,16 @@
         </is>
       </c>
       <c r="J216" t="n">
-        <v>970</v>
+        <v>3400</v>
       </c>
       <c r="K216" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L216" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M216" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N216" t="inlineStr">
         <is>
@@ -15927,11 +15927,11 @@
       </c>
       <c r="O216" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P216" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Q216" t="n">
         <v>1</v>
@@ -15957,7 +15957,7 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44469</v>
+        <v>44426</v>
       </c>
       <c r="E217" t="n">
         <v>13</v>
@@ -15987,11 +15987,11 @@
         <v>600</v>
       </c>
       <c r="L217" t="n">
+        <v>700</v>
+      </c>
+      <c r="M217" t="n">
         <v>650</v>
       </c>
-      <c r="M217" t="n">
-        <v>625</v>
-      </c>
       <c r="N217" t="inlineStr">
         <is>
           <t>$/unidad</t>
@@ -16003,7 +16003,7 @@
         </is>
       </c>
       <c r="P217" t="n">
-        <v>625</v>
+        <v>650</v>
       </c>
       <c r="Q217" t="n">
         <v>1</v>
@@ -16029,7 +16029,7 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>44469</v>
+        <v>44426</v>
       </c>
       <c r="E218" t="n">
         <v>13</v>
@@ -16049,20 +16049,20 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J218" t="n">
-        <v>2500</v>
+        <v>970</v>
       </c>
       <c r="K218" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L218" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="M218" t="n">
-        <v>625</v>
+        <v>400</v>
       </c>
       <c r="N218" t="inlineStr">
         <is>
@@ -16071,11 +16071,11 @@
       </c>
       <c r="O218" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P218" t="n">
-        <v>625</v>
+        <v>400</v>
       </c>
       <c r="Q218" t="n">
         <v>1</v>
@@ -16121,20 +16121,20 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J219" t="n">
-        <v>1060</v>
+        <v>3400</v>
       </c>
       <c r="K219" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="L219" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="M219" t="n">
-        <v>475</v>
+        <v>625</v>
       </c>
       <c r="N219" t="inlineStr">
         <is>
@@ -16147,7 +16147,7 @@
         </is>
       </c>
       <c r="P219" t="n">
-        <v>475</v>
+        <v>625</v>
       </c>
       <c r="Q219" t="n">
         <v>1</v>
@@ -16193,20 +16193,20 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J220" t="n">
-        <v>970</v>
+        <v>2500</v>
       </c>
       <c r="K220" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="L220" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="M220" t="n">
-        <v>475</v>
+        <v>625</v>
       </c>
       <c r="N220" t="inlineStr">
         <is>
@@ -16219,7 +16219,7 @@
         </is>
       </c>
       <c r="P220" t="n">
-        <v>475</v>
+        <v>625</v>
       </c>
       <c r="Q220" t="n">
         <v>1</v>
@@ -16245,7 +16245,7 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44434</v>
+        <v>44469</v>
       </c>
       <c r="E221" t="n">
         <v>13</v>
@@ -16265,20 +16265,20 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J221" t="n">
-        <v>3400</v>
+        <v>1060</v>
       </c>
       <c r="K221" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="L221" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="M221" t="n">
-        <v>625</v>
+        <v>475</v>
       </c>
       <c r="N221" t="inlineStr">
         <is>
@@ -16291,7 +16291,7 @@
         </is>
       </c>
       <c r="P221" t="n">
-        <v>625</v>
+        <v>475</v>
       </c>
       <c r="Q221" t="n">
         <v>1</v>
@@ -16317,7 +16317,7 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>44434</v>
+        <v>44469</v>
       </c>
       <c r="E222" t="n">
         <v>13</v>
@@ -16337,20 +16337,20 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J222" t="n">
-        <v>4300</v>
+        <v>970</v>
       </c>
       <c r="K222" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="L222" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="M222" t="n">
-        <v>625</v>
+        <v>475</v>
       </c>
       <c r="N222" t="inlineStr">
         <is>
@@ -16363,7 +16363,7 @@
         </is>
       </c>
       <c r="P222" t="n">
-        <v>625</v>
+        <v>475</v>
       </c>
       <c r="Q222" t="n">
         <v>1</v>
@@ -16409,20 +16409,20 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J223" t="n">
-        <v>970</v>
+        <v>3400</v>
       </c>
       <c r="K223" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L223" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="M223" t="n">
-        <v>525</v>
+        <v>625</v>
       </c>
       <c r="N223" t="inlineStr">
         <is>
@@ -16435,7 +16435,7 @@
         </is>
       </c>
       <c r="P223" t="n">
-        <v>525</v>
+        <v>625</v>
       </c>
       <c r="Q223" t="n">
         <v>1</v>
@@ -16481,20 +16481,20 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J224" t="n">
-        <v>1600</v>
+        <v>4300</v>
       </c>
       <c r="K224" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L224" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="M224" t="n">
-        <v>525</v>
+        <v>625</v>
       </c>
       <c r="N224" t="inlineStr">
         <is>
@@ -16507,7 +16507,7 @@
         </is>
       </c>
       <c r="P224" t="n">
-        <v>525</v>
+        <v>625</v>
       </c>
       <c r="Q224" t="n">
         <v>1</v>
@@ -16533,7 +16533,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44292</v>
+        <v>44434</v>
       </c>
       <c r="E225" t="n">
         <v>13</v>
@@ -16553,20 +16553,20 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J225" t="n">
-        <v>1600</v>
+        <v>970</v>
       </c>
       <c r="K225" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="L225" t="n">
-        <v>900</v>
+        <v>550</v>
       </c>
       <c r="M225" t="n">
-        <v>900</v>
+        <v>525</v>
       </c>
       <c r="N225" t="inlineStr">
         <is>
@@ -16579,7 +16579,7 @@
         </is>
       </c>
       <c r="P225" t="n">
-        <v>900</v>
+        <v>525</v>
       </c>
       <c r="Q225" t="n">
         <v>1</v>
@@ -16605,7 +16605,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44161</v>
+        <v>44434</v>
       </c>
       <c r="E226" t="n">
         <v>13</v>
@@ -16625,20 +16625,20 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J226" t="n">
-        <v>4500</v>
+        <v>1600</v>
       </c>
       <c r="K226" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L226" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="M226" t="n">
-        <v>456</v>
+        <v>525</v>
       </c>
       <c r="N226" t="inlineStr">
         <is>
@@ -16647,11 +16647,11 @@
       </c>
       <c r="O226" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P226" t="n">
-        <v>456</v>
+        <v>525</v>
       </c>
       <c r="Q226" t="n">
         <v>1</v>
@@ -16677,7 +16677,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44351</v>
+        <v>44292</v>
       </c>
       <c r="E227" t="n">
         <v>13</v>
@@ -16701,16 +16701,16 @@
         </is>
       </c>
       <c r="J227" t="n">
-        <v>3400</v>
+        <v>1600</v>
       </c>
       <c r="K227" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="L227" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="M227" t="n">
-        <v>550</v>
+        <v>900</v>
       </c>
       <c r="N227" t="inlineStr">
         <is>
@@ -16723,7 +16723,7 @@
         </is>
       </c>
       <c r="P227" t="n">
-        <v>550</v>
+        <v>900</v>
       </c>
       <c r="Q227" t="n">
         <v>1</v>
@@ -16749,7 +16749,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44351</v>
+        <v>44161</v>
       </c>
       <c r="E228" t="n">
         <v>13</v>
@@ -16773,16 +16773,16 @@
         </is>
       </c>
       <c r="J228" t="n">
-        <v>4300</v>
+        <v>4500</v>
       </c>
       <c r="K228" t="n">
+        <v>400</v>
+      </c>
+      <c r="L228" t="n">
         <v>500</v>
       </c>
-      <c r="L228" t="n">
-        <v>600</v>
-      </c>
       <c r="M228" t="n">
-        <v>550</v>
+        <v>456</v>
       </c>
       <c r="N228" t="inlineStr">
         <is>
@@ -16791,11 +16791,11 @@
       </c>
       <c r="O228" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P228" t="n">
-        <v>550</v>
+        <v>456</v>
       </c>
       <c r="Q228" t="n">
         <v>1</v>
@@ -16841,20 +16841,20 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J229" t="n">
-        <v>1600</v>
+        <v>3400</v>
       </c>
       <c r="K229" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L229" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M229" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="N229" t="inlineStr">
         <is>
@@ -16867,7 +16867,7 @@
         </is>
       </c>
       <c r="P229" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="Q229" t="n">
         <v>1</v>
@@ -16913,20 +16913,20 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J230" t="n">
-        <v>2500</v>
+        <v>4300</v>
       </c>
       <c r="K230" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L230" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M230" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="N230" t="inlineStr">
         <is>
@@ -16939,7 +16939,7 @@
         </is>
       </c>
       <c r="P230" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="Q230" t="n">
         <v>1</v>
@@ -16965,7 +16965,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44214</v>
+        <v>44351</v>
       </c>
       <c r="E231" t="n">
         <v>13</v>
@@ -16985,20 +16985,20 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J231" t="n">
-        <v>1300</v>
+        <v>1600</v>
       </c>
       <c r="K231" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="L231" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="M231" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="N231" t="inlineStr">
         <is>
@@ -17011,7 +17011,7 @@
         </is>
       </c>
       <c r="P231" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="Q231" t="n">
         <v>1</v>
@@ -17037,7 +17037,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44280</v>
+        <v>44351</v>
       </c>
       <c r="E232" t="n">
         <v>13</v>
@@ -17057,20 +17057,20 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J232" t="n">
-        <v>1600</v>
+        <v>2500</v>
       </c>
       <c r="K232" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="L232" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="M232" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="N232" t="inlineStr">
         <is>
@@ -17079,11 +17079,11 @@
       </c>
       <c r="O232" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P232" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="Q232" t="n">
         <v>1</v>
@@ -17109,7 +17109,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44274</v>
+        <v>44214</v>
       </c>
       <c r="E233" t="n">
         <v>13</v>
@@ -17133,7 +17133,7 @@
         </is>
       </c>
       <c r="J233" t="n">
-        <v>1600</v>
+        <v>1300</v>
       </c>
       <c r="K233" t="n">
         <v>1000</v>
@@ -17181,7 +17181,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44445</v>
+        <v>44280</v>
       </c>
       <c r="E234" t="n">
         <v>13</v>
@@ -17205,16 +17205,16 @@
         </is>
       </c>
       <c r="J234" t="n">
-        <v>2500</v>
+        <v>1600</v>
       </c>
       <c r="K234" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="L234" t="n">
-        <v>650</v>
+        <v>900</v>
       </c>
       <c r="M234" t="n">
-        <v>625</v>
+        <v>900</v>
       </c>
       <c r="N234" t="inlineStr">
         <is>
@@ -17227,7 +17227,7 @@
         </is>
       </c>
       <c r="P234" t="n">
-        <v>625</v>
+        <v>900</v>
       </c>
       <c r="Q234" t="n">
         <v>1</v>
@@ -17253,7 +17253,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44445</v>
+        <v>44274</v>
       </c>
       <c r="E235" t="n">
         <v>13</v>
@@ -17273,20 +17273,20 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J235" t="n">
-        <v>970</v>
+        <v>1600</v>
       </c>
       <c r="K235" t="n">
-        <v>450</v>
+        <v>1000</v>
       </c>
       <c r="L235" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="M235" t="n">
-        <v>475</v>
+        <v>1000</v>
       </c>
       <c r="N235" t="inlineStr">
         <is>
@@ -17299,7 +17299,7 @@
         </is>
       </c>
       <c r="P235" t="n">
-        <v>475</v>
+        <v>1000</v>
       </c>
       <c r="Q235" t="n">
         <v>1</v>
@@ -17325,7 +17325,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44229</v>
+        <v>44445</v>
       </c>
       <c r="E236" t="n">
         <v>13</v>
@@ -17349,16 +17349,16 @@
         </is>
       </c>
       <c r="J236" t="n">
-        <v>1800</v>
+        <v>2500</v>
       </c>
       <c r="K236" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="L236" t="n">
-        <v>1200</v>
+        <v>650</v>
       </c>
       <c r="M236" t="n">
-        <v>1089</v>
+        <v>625</v>
       </c>
       <c r="N236" t="inlineStr">
         <is>
@@ -17367,11 +17367,11 @@
       </c>
       <c r="O236" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P236" t="n">
-        <v>1089</v>
+        <v>625</v>
       </c>
       <c r="Q236" t="n">
         <v>1</v>
@@ -17397,7 +17397,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44344</v>
+        <v>44445</v>
       </c>
       <c r="E237" t="n">
         <v>13</v>
@@ -17417,20 +17417,20 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J237" t="n">
-        <v>5200</v>
+        <v>970</v>
       </c>
       <c r="K237" t="n">
+        <v>450</v>
+      </c>
+      <c r="L237" t="n">
         <v>500</v>
       </c>
-      <c r="L237" t="n">
-        <v>600</v>
-      </c>
       <c r="M237" t="n">
-        <v>550</v>
+        <v>475</v>
       </c>
       <c r="N237" t="inlineStr">
         <is>
@@ -17443,7 +17443,7 @@
         </is>
       </c>
       <c r="P237" t="n">
-        <v>550</v>
+        <v>475</v>
       </c>
       <c r="Q237" t="n">
         <v>1</v>
@@ -17469,7 +17469,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44344</v>
+        <v>44229</v>
       </c>
       <c r="E238" t="n">
         <v>13</v>
@@ -17493,16 +17493,16 @@
         </is>
       </c>
       <c r="J238" t="n">
-        <v>3900</v>
+        <v>1800</v>
       </c>
       <c r="K238" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="L238" t="n">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="M238" t="n">
-        <v>550</v>
+        <v>1089</v>
       </c>
       <c r="N238" t="inlineStr">
         <is>
@@ -17511,11 +17511,11 @@
       </c>
       <c r="O238" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P238" t="n">
-        <v>550</v>
+        <v>1089</v>
       </c>
       <c r="Q238" t="n">
         <v>1</v>
@@ -17561,20 +17561,20 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J239" t="n">
-        <v>2100</v>
+        <v>5200</v>
       </c>
       <c r="K239" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L239" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M239" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="N239" t="inlineStr">
         <is>
@@ -17587,7 +17587,7 @@
         </is>
       </c>
       <c r="P239" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="Q239" t="n">
         <v>1</v>
@@ -17633,20 +17633,20 @@
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J240" t="n">
-        <v>1800</v>
+        <v>3900</v>
       </c>
       <c r="K240" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L240" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M240" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="N240" t="inlineStr">
         <is>
@@ -17659,7 +17659,7 @@
         </is>
       </c>
       <c r="P240" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="Q240" t="n">
         <v>1</v>
@@ -17685,7 +17685,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44407</v>
+        <v>44344</v>
       </c>
       <c r="E241" t="n">
         <v>13</v>
@@ -17705,20 +17705,20 @@
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J241" t="n">
-        <v>2500</v>
+        <v>2100</v>
       </c>
       <c r="K241" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L241" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M241" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="N241" t="inlineStr">
         <is>
@@ -17731,7 +17731,7 @@
         </is>
       </c>
       <c r="P241" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="Q241" t="n">
         <v>1</v>
@@ -17757,7 +17757,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44407</v>
+        <v>44344</v>
       </c>
       <c r="E242" t="n">
         <v>13</v>
@@ -17777,20 +17777,20 @@
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J242" t="n">
-        <v>3400</v>
+        <v>1800</v>
       </c>
       <c r="K242" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L242" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M242" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="N242" t="inlineStr">
         <is>
@@ -17803,7 +17803,7 @@
         </is>
       </c>
       <c r="P242" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="Q242" t="n">
         <v>1</v>
@@ -17849,20 +17849,20 @@
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J243" t="n">
-        <v>790</v>
+        <v>2500</v>
       </c>
       <c r="K243" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L243" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M243" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="N243" t="inlineStr">
         <is>
@@ -17875,7 +17875,7 @@
         </is>
       </c>
       <c r="P243" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="Q243" t="n">
         <v>1</v>
@@ -17921,20 +17921,20 @@
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J244" t="n">
-        <v>970</v>
+        <v>3400</v>
       </c>
       <c r="K244" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L244" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M244" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="N244" t="inlineStr">
         <is>
@@ -17947,7 +17947,7 @@
         </is>
       </c>
       <c r="P244" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="Q244" t="n">
         <v>1</v>
@@ -17973,7 +17973,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44358</v>
+        <v>44407</v>
       </c>
       <c r="E245" t="n">
         <v>13</v>
@@ -17993,20 +17993,20 @@
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J245" t="n">
-        <v>4300</v>
+        <v>790</v>
       </c>
       <c r="K245" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L245" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M245" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="N245" t="inlineStr">
         <is>
@@ -18019,7 +18019,7 @@
         </is>
       </c>
       <c r="P245" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="Q245" t="n">
         <v>1</v>
@@ -18045,7 +18045,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44358</v>
+        <v>44407</v>
       </c>
       <c r="E246" t="n">
         <v>13</v>
@@ -18065,20 +18065,20 @@
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J246" t="n">
-        <v>3400</v>
+        <v>970</v>
       </c>
       <c r="K246" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L246" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M246" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="N246" t="inlineStr">
         <is>
@@ -18091,7 +18091,7 @@
         </is>
       </c>
       <c r="P246" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="Q246" t="n">
         <v>1</v>
@@ -18137,20 +18137,20 @@
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J247" t="n">
-        <v>2500</v>
+        <v>4300</v>
       </c>
       <c r="K247" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L247" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M247" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="N247" t="inlineStr">
         <is>
@@ -18163,7 +18163,7 @@
         </is>
       </c>
       <c r="P247" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="Q247" t="n">
         <v>1</v>
@@ -18209,20 +18209,20 @@
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J248" t="n">
-        <v>1600</v>
+        <v>3400</v>
       </c>
       <c r="K248" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L248" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M248" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="N248" t="inlineStr">
         <is>
@@ -18235,7 +18235,7 @@
         </is>
       </c>
       <c r="P248" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="Q248" t="n">
         <v>1</v>
@@ -18261,7 +18261,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44391</v>
+        <v>44358</v>
       </c>
       <c r="E249" t="n">
         <v>13</v>
@@ -18281,20 +18281,20 @@
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J249" t="n">
-        <v>1600</v>
+        <v>2500</v>
       </c>
       <c r="K249" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L249" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M249" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="N249" t="inlineStr">
         <is>
@@ -18307,7 +18307,7 @@
         </is>
       </c>
       <c r="P249" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="Q249" t="n">
         <v>1</v>
@@ -18333,7 +18333,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44391</v>
+        <v>44358</v>
       </c>
       <c r="E250" t="n">
         <v>13</v>
@@ -18353,20 +18353,20 @@
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J250" t="n">
-        <v>2500</v>
+        <v>1600</v>
       </c>
       <c r="K250" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L250" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M250" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="N250" t="inlineStr">
         <is>
@@ -18379,7 +18379,7 @@
         </is>
       </c>
       <c r="P250" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="Q250" t="n">
         <v>1</v>
@@ -18425,20 +18425,20 @@
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J251" t="n">
-        <v>520</v>
+        <v>1600</v>
       </c>
       <c r="K251" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L251" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M251" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="N251" t="inlineStr">
         <is>
@@ -18451,7 +18451,7 @@
         </is>
       </c>
       <c r="P251" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="Q251" t="n">
         <v>1</v>
@@ -18497,20 +18497,20 @@
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J252" t="n">
-        <v>970</v>
+        <v>2500</v>
       </c>
       <c r="K252" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L252" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M252" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="N252" t="inlineStr">
         <is>
@@ -18523,7 +18523,7 @@
         </is>
       </c>
       <c r="P252" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="Q252" t="n">
         <v>1</v>
@@ -18549,7 +18549,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44335</v>
+        <v>44391</v>
       </c>
       <c r="E253" t="n">
         <v>13</v>
@@ -18569,20 +18569,20 @@
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J253" t="n">
-        <v>3400</v>
+        <v>520</v>
       </c>
       <c r="K253" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L253" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="M253" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="N253" t="inlineStr">
         <is>
@@ -18595,7 +18595,7 @@
         </is>
       </c>
       <c r="P253" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="Q253" t="n">
         <v>1</v>
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44335</v>
+        <v>44391</v>
       </c>
       <c r="E254" t="n">
         <v>13</v>
@@ -18641,20 +18641,20 @@
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J254" t="n">
-        <v>2500</v>
+        <v>970</v>
       </c>
       <c r="K254" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L254" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="M254" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="N254" t="inlineStr">
         <is>
@@ -18667,7 +18667,7 @@
         </is>
       </c>
       <c r="P254" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="Q254" t="n">
         <v>1</v>
@@ -18713,20 +18713,20 @@
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J255" t="n">
-        <v>1600</v>
+        <v>3400</v>
       </c>
       <c r="K255" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L255" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M255" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="N255" t="inlineStr">
         <is>
@@ -18739,7 +18739,7 @@
         </is>
       </c>
       <c r="P255" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="Q255" t="n">
         <v>1</v>
@@ -18785,20 +18785,20 @@
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J256" t="n">
+        <v>2500</v>
+      </c>
+      <c r="K256" t="n">
+        <v>600</v>
+      </c>
+      <c r="L256" t="n">
         <v>700</v>
       </c>
-      <c r="K256" t="n">
-        <v>500</v>
-      </c>
-      <c r="L256" t="n">
-        <v>500</v>
-      </c>
       <c r="M256" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="N256" t="inlineStr">
         <is>
@@ -18811,7 +18811,7 @@
         </is>
       </c>
       <c r="P256" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="Q256" t="n">
         <v>1</v>
@@ -18837,7 +18837,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44320</v>
+        <v>44335</v>
       </c>
       <c r="E257" t="n">
         <v>13</v>
@@ -18857,20 +18857,20 @@
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J257" t="n">
-        <v>2500</v>
+        <v>1600</v>
       </c>
       <c r="K257" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L257" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M257" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="N257" t="inlineStr">
         <is>
@@ -18883,7 +18883,7 @@
         </is>
       </c>
       <c r="P257" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="Q257" t="n">
         <v>1</v>
@@ -18909,7 +18909,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44320</v>
+        <v>44335</v>
       </c>
       <c r="E258" t="n">
         <v>13</v>
@@ -18951,7 +18951,7 @@
       </c>
       <c r="O258" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P258" t="n">
@@ -18981,7 +18981,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44475</v>
+        <v>44320</v>
       </c>
       <c r="E259" t="n">
         <v>13</v>
@@ -19008,13 +19008,13 @@
         <v>2500</v>
       </c>
       <c r="K259" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L259" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="M259" t="n">
-        <v>625</v>
+        <v>700</v>
       </c>
       <c r="N259" t="inlineStr">
         <is>
@@ -19027,7 +19027,7 @@
         </is>
       </c>
       <c r="P259" t="n">
-        <v>625</v>
+        <v>700</v>
       </c>
       <c r="Q259" t="n">
         <v>1</v>
@@ -19053,7 +19053,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44475</v>
+        <v>44320</v>
       </c>
       <c r="E260" t="n">
         <v>13</v>
@@ -19077,16 +19077,16 @@
         </is>
       </c>
       <c r="J260" t="n">
-        <v>1060</v>
+        <v>700</v>
       </c>
       <c r="K260" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="L260" t="n">
         <v>500</v>
       </c>
       <c r="M260" t="n">
-        <v>475</v>
+        <v>500</v>
       </c>
       <c r="N260" t="inlineStr">
         <is>
@@ -19099,7 +19099,7 @@
         </is>
       </c>
       <c r="P260" t="n">
-        <v>475</v>
+        <v>500</v>
       </c>
       <c r="Q260" t="n">
         <v>1</v>
@@ -19125,7 +19125,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44474</v>
+        <v>44475</v>
       </c>
       <c r="E261" t="n">
         <v>13</v>
@@ -19149,7 +19149,7 @@
         </is>
       </c>
       <c r="J261" t="n">
-        <v>4300</v>
+        <v>2500</v>
       </c>
       <c r="K261" t="n">
         <v>600</v>
@@ -19197,7 +19197,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44474</v>
+        <v>44475</v>
       </c>
       <c r="E262" t="n">
         <v>13</v>
@@ -19217,20 +19217,20 @@
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J262" t="n">
-        <v>3400</v>
+        <v>1060</v>
       </c>
       <c r="K262" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="L262" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="M262" t="n">
-        <v>625</v>
+        <v>475</v>
       </c>
       <c r="N262" t="inlineStr">
         <is>
@@ -19239,11 +19239,11 @@
       </c>
       <c r="O262" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P262" t="n">
-        <v>625</v>
+        <v>475</v>
       </c>
       <c r="Q262" t="n">
         <v>1</v>
@@ -19289,20 +19289,20 @@
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J263" t="n">
-        <v>1780</v>
+        <v>4300</v>
       </c>
       <c r="K263" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="L263" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="M263" t="n">
-        <v>475</v>
+        <v>625</v>
       </c>
       <c r="N263" t="inlineStr">
         <is>
@@ -19315,7 +19315,7 @@
         </is>
       </c>
       <c r="P263" t="n">
-        <v>475</v>
+        <v>625</v>
       </c>
       <c r="Q263" t="n">
         <v>1</v>
@@ -19361,20 +19361,20 @@
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J264" t="n">
-        <v>1060</v>
+        <v>3400</v>
       </c>
       <c r="K264" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="L264" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="M264" t="n">
-        <v>475</v>
+        <v>625</v>
       </c>
       <c r="N264" t="inlineStr">
         <is>
@@ -19387,7 +19387,7 @@
         </is>
       </c>
       <c r="P264" t="n">
-        <v>475</v>
+        <v>625</v>
       </c>
       <c r="Q264" t="n">
         <v>1</v>
@@ -19413,7 +19413,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44252</v>
+        <v>44474</v>
       </c>
       <c r="E265" t="n">
         <v>13</v>
@@ -19433,20 +19433,20 @@
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J265" t="n">
-        <v>1200</v>
+        <v>1780</v>
       </c>
       <c r="K265" t="n">
-        <v>1000</v>
+        <v>450</v>
       </c>
       <c r="L265" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="M265" t="n">
-        <v>1000</v>
+        <v>475</v>
       </c>
       <c r="N265" t="inlineStr">
         <is>
@@ -19455,11 +19455,11 @@
       </c>
       <c r="O265" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P265" t="n">
-        <v>1000</v>
+        <v>475</v>
       </c>
       <c r="Q265" t="n">
         <v>1</v>
@@ -19485,7 +19485,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44252</v>
+        <v>44474</v>
       </c>
       <c r="E266" t="n">
         <v>13</v>
@@ -19509,16 +19509,16 @@
         </is>
       </c>
       <c r="J266" t="n">
-        <v>300</v>
+        <v>1060</v>
       </c>
       <c r="K266" t="n">
-        <v>800</v>
+        <v>450</v>
       </c>
       <c r="L266" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M266" t="n">
-        <v>800</v>
+        <v>475</v>
       </c>
       <c r="N266" t="inlineStr">
         <is>
@@ -19527,11 +19527,11 @@
       </c>
       <c r="O266" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P266" t="n">
-        <v>800</v>
+        <v>475</v>
       </c>
       <c r="Q266" t="n">
         <v>1</v>
@@ -19557,7 +19557,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44204</v>
+        <v>44252</v>
       </c>
       <c r="E267" t="n">
         <v>13</v>
@@ -19581,16 +19581,16 @@
         </is>
       </c>
       <c r="J267" t="n">
-        <v>4300</v>
+        <v>1200</v>
       </c>
       <c r="K267" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="L267" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M267" t="n">
-        <v>747</v>
+        <v>1000</v>
       </c>
       <c r="N267" t="inlineStr">
         <is>
@@ -19599,11 +19599,11 @@
       </c>
       <c r="O267" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P267" t="n">
-        <v>747</v>
+        <v>1000</v>
       </c>
       <c r="Q267" t="n">
         <v>1</v>
@@ -19629,7 +19629,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44362</v>
+        <v>44252</v>
       </c>
       <c r="E268" t="n">
         <v>13</v>
@@ -19649,20 +19649,20 @@
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J268" t="n">
-        <v>2500</v>
+        <v>300</v>
       </c>
       <c r="K268" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="L268" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M268" t="n">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="N268" t="inlineStr">
         <is>
@@ -19671,11 +19671,11 @@
       </c>
       <c r="O268" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P268" t="n">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="Q268" t="n">
         <v>1</v>
@@ -19701,7 +19701,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44362</v>
+        <v>44204</v>
       </c>
       <c r="E269" t="n">
         <v>13</v>
@@ -19725,16 +19725,16 @@
         </is>
       </c>
       <c r="J269" t="n">
-        <v>3400</v>
+        <v>4300</v>
       </c>
       <c r="K269" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L269" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M269" t="n">
-        <v>550</v>
+        <v>747</v>
       </c>
       <c r="N269" t="inlineStr">
         <is>
@@ -19743,11 +19743,11 @@
       </c>
       <c r="O269" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P269" t="n">
-        <v>550</v>
+        <v>747</v>
       </c>
       <c r="Q269" t="n">
         <v>1</v>
@@ -19793,20 +19793,20 @@
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J270" t="n">
-        <v>700</v>
+        <v>2500</v>
       </c>
       <c r="K270" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L270" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M270" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="N270" t="inlineStr">
         <is>
@@ -19819,7 +19819,7 @@
         </is>
       </c>
       <c r="P270" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="Q270" t="n">
         <v>1</v>
@@ -19865,20 +19865,20 @@
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J271" t="n">
-        <v>1600</v>
+        <v>3400</v>
       </c>
       <c r="K271" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L271" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M271" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="N271" t="inlineStr">
         <is>
@@ -19891,7 +19891,7 @@
         </is>
       </c>
       <c r="P271" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="Q271" t="n">
         <v>1</v>
@@ -19917,7 +19917,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44300</v>
+        <v>44362</v>
       </c>
       <c r="E272" t="n">
         <v>13</v>
@@ -19937,20 +19937,20 @@
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J272" t="n">
-        <v>1600</v>
+        <v>700</v>
       </c>
       <c r="K272" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="L272" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="M272" t="n">
-        <v>750</v>
+        <v>400</v>
       </c>
       <c r="N272" t="inlineStr">
         <is>
@@ -19963,7 +19963,7 @@
         </is>
       </c>
       <c r="P272" t="n">
-        <v>750</v>
+        <v>400</v>
       </c>
       <c r="Q272" t="n">
         <v>1</v>
@@ -19989,7 +19989,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44349</v>
+        <v>44362</v>
       </c>
       <c r="E273" t="n">
         <v>13</v>
@@ -20009,20 +20009,20 @@
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J273" t="n">
-        <v>3300</v>
+        <v>1600</v>
       </c>
       <c r="K273" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L273" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M273" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="N273" t="inlineStr">
         <is>
@@ -20035,7 +20035,7 @@
         </is>
       </c>
       <c r="P273" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="Q273" t="n">
         <v>1</v>
@@ -20061,7 +20061,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44349</v>
+        <v>44300</v>
       </c>
       <c r="E274" t="n">
         <v>13</v>
@@ -20081,20 +20081,20 @@
       </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J274" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="K274" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="L274" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="M274" t="n">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="N274" t="inlineStr">
         <is>
@@ -20103,11 +20103,11 @@
       </c>
       <c r="O274" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P274" t="n">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="Q274" t="n">
         <v>1</v>
@@ -20133,7 +20133,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44372</v>
+        <v>44349</v>
       </c>
       <c r="E275" t="n">
         <v>13</v>
@@ -20157,7 +20157,7 @@
         </is>
       </c>
       <c r="J275" t="n">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="K275" t="n">
         <v>500</v>
@@ -20175,7 +20175,7 @@
       </c>
       <c r="O275" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P275" t="n">
@@ -20205,7 +20205,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44372</v>
+        <v>44349</v>
       </c>
       <c r="E276" t="n">
         <v>13</v>
@@ -20229,7 +20229,7 @@
         </is>
       </c>
       <c r="J276" t="n">
-        <v>970</v>
+        <v>1500</v>
       </c>
       <c r="K276" t="n">
         <v>400</v>
@@ -20247,7 +20247,7 @@
       </c>
       <c r="O276" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P276" t="n">
@@ -20277,7 +20277,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44350</v>
+        <v>44372</v>
       </c>
       <c r="E277" t="n">
         <v>13</v>
@@ -20301,16 +20301,16 @@
         </is>
       </c>
       <c r="J277" t="n">
-        <v>21000</v>
+        <v>3400</v>
       </c>
       <c r="K277" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L277" t="n">
         <v>600</v>
       </c>
       <c r="M277" t="n">
-        <v>467</v>
+        <v>550</v>
       </c>
       <c r="N277" t="inlineStr">
         <is>
@@ -20323,7 +20323,7 @@
         </is>
       </c>
       <c r="P277" t="n">
-        <v>467</v>
+        <v>550</v>
       </c>
       <c r="Q277" t="n">
         <v>1</v>
@@ -20349,7 +20349,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44350</v>
+        <v>44372</v>
       </c>
       <c r="E278" t="n">
         <v>13</v>
@@ -20369,20 +20369,20 @@
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J278" t="n">
-        <v>6200</v>
+        <v>970</v>
       </c>
       <c r="K278" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L278" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M278" t="n">
-        <v>523</v>
+        <v>400</v>
       </c>
       <c r="N278" t="inlineStr">
         <is>
@@ -20391,11 +20391,11 @@
       </c>
       <c r="O278" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P278" t="n">
-        <v>523</v>
+        <v>400</v>
       </c>
       <c r="Q278" t="n">
         <v>1</v>
@@ -20441,20 +20441,20 @@
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J279" t="n">
-        <v>7500</v>
+        <v>21000</v>
       </c>
       <c r="K279" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="L279" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M279" t="n">
-        <v>299</v>
+        <v>467</v>
       </c>
       <c r="N279" t="inlineStr">
         <is>
@@ -20467,7 +20467,7 @@
         </is>
       </c>
       <c r="P279" t="n">
-        <v>299</v>
+        <v>467</v>
       </c>
       <c r="Q279" t="n">
         <v>1</v>
@@ -20513,20 +20513,20 @@
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J280" t="n">
-        <v>1300</v>
+        <v>6200</v>
       </c>
       <c r="K280" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L280" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M280" t="n">
-        <v>400</v>
+        <v>523</v>
       </c>
       <c r="N280" t="inlineStr">
         <is>
@@ -20539,7 +20539,7 @@
         </is>
       </c>
       <c r="P280" t="n">
-        <v>400</v>
+        <v>523</v>
       </c>
       <c r="Q280" t="n">
         <v>1</v>
@@ -20565,7 +20565,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44448</v>
+        <v>44350</v>
       </c>
       <c r="E281" t="n">
         <v>13</v>
@@ -20585,20 +20585,20 @@
       </c>
       <c r="I281" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J281" t="n">
-        <v>3400</v>
+        <v>7500</v>
       </c>
       <c r="K281" t="n">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="L281" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="M281" t="n">
-        <v>625</v>
+        <v>299</v>
       </c>
       <c r="N281" t="inlineStr">
         <is>
@@ -20611,7 +20611,7 @@
         </is>
       </c>
       <c r="P281" t="n">
-        <v>625</v>
+        <v>299</v>
       </c>
       <c r="Q281" t="n">
         <v>1</v>
@@ -20637,7 +20637,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44448</v>
+        <v>44350</v>
       </c>
       <c r="E282" t="n">
         <v>13</v>
@@ -20657,20 +20657,20 @@
       </c>
       <c r="I282" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J282" t="n">
-        <v>4300</v>
+        <v>1300</v>
       </c>
       <c r="K282" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L282" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="M282" t="n">
-        <v>625</v>
+        <v>400</v>
       </c>
       <c r="N282" t="inlineStr">
         <is>
@@ -20683,7 +20683,7 @@
         </is>
       </c>
       <c r="P282" t="n">
-        <v>625</v>
+        <v>400</v>
       </c>
       <c r="Q282" t="n">
         <v>1</v>
@@ -20729,20 +20729,20 @@
       </c>
       <c r="I283" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J283" t="n">
-        <v>970</v>
+        <v>3400</v>
       </c>
       <c r="K283" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="L283" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="M283" t="n">
-        <v>475</v>
+        <v>625</v>
       </c>
       <c r="N283" t="inlineStr">
         <is>
@@ -20755,7 +20755,7 @@
         </is>
       </c>
       <c r="P283" t="n">
-        <v>475</v>
+        <v>625</v>
       </c>
       <c r="Q283" t="n">
         <v>1</v>
@@ -20801,20 +20801,20 @@
       </c>
       <c r="I284" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J284" t="n">
-        <v>1600</v>
+        <v>4300</v>
       </c>
       <c r="K284" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="L284" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="M284" t="n">
-        <v>475</v>
+        <v>625</v>
       </c>
       <c r="N284" t="inlineStr">
         <is>
@@ -20827,7 +20827,7 @@
         </is>
       </c>
       <c r="P284" t="n">
-        <v>475</v>
+        <v>625</v>
       </c>
       <c r="Q284" t="n">
         <v>1</v>
@@ -20853,7 +20853,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44385</v>
+        <v>44448</v>
       </c>
       <c r="E285" t="n">
         <v>13</v>
@@ -20873,20 +20873,20 @@
       </c>
       <c r="I285" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J285" t="n">
-        <v>3400</v>
+        <v>970</v>
       </c>
       <c r="K285" t="n">
+        <v>450</v>
+      </c>
+      <c r="L285" t="n">
         <v>500</v>
       </c>
-      <c r="L285" t="n">
-        <v>600</v>
-      </c>
       <c r="M285" t="n">
-        <v>550</v>
+        <v>475</v>
       </c>
       <c r="N285" t="inlineStr">
         <is>
@@ -20899,7 +20899,7 @@
         </is>
       </c>
       <c r="P285" t="n">
-        <v>550</v>
+        <v>475</v>
       </c>
       <c r="Q285" t="n">
         <v>1</v>
@@ -20925,7 +20925,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44385</v>
+        <v>44448</v>
       </c>
       <c r="E286" t="n">
         <v>13</v>
@@ -20945,20 +20945,20 @@
       </c>
       <c r="I286" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J286" t="n">
-        <v>4300</v>
+        <v>1600</v>
       </c>
       <c r="K286" t="n">
+        <v>450</v>
+      </c>
+      <c r="L286" t="n">
         <v>500</v>
       </c>
-      <c r="L286" t="n">
-        <v>600</v>
-      </c>
       <c r="M286" t="n">
-        <v>550</v>
+        <v>475</v>
       </c>
       <c r="N286" t="inlineStr">
         <is>
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="P286" t="n">
-        <v>550</v>
+        <v>475</v>
       </c>
       <c r="Q286" t="n">
         <v>1</v>
@@ -21017,20 +21017,20 @@
       </c>
       <c r="I287" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J287" t="n">
-        <v>970</v>
+        <v>3400</v>
       </c>
       <c r="K287" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L287" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M287" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="N287" t="inlineStr">
         <is>
@@ -21043,7 +21043,7 @@
         </is>
       </c>
       <c r="P287" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="Q287" t="n">
         <v>1</v>
@@ -21089,20 +21089,20 @@
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J288" t="n">
-        <v>1600</v>
+        <v>4300</v>
       </c>
       <c r="K288" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L288" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M288" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="N288" t="inlineStr">
         <is>
@@ -21115,7 +21115,7 @@
         </is>
       </c>
       <c r="P288" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="Q288" t="n">
         <v>1</v>
@@ -21141,7 +21141,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44202</v>
+        <v>44385</v>
       </c>
       <c r="E289" t="n">
         <v>13</v>
@@ -21161,20 +21161,20 @@
       </c>
       <c r="I289" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J289" t="n">
-        <v>3100</v>
+        <v>970</v>
       </c>
       <c r="K289" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="L289" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="M289" t="n">
-        <v>748</v>
+        <v>400</v>
       </c>
       <c r="N289" t="inlineStr">
         <is>
@@ -21183,11 +21183,11 @@
       </c>
       <c r="O289" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P289" t="n">
-        <v>748</v>
+        <v>400</v>
       </c>
       <c r="Q289" t="n">
         <v>1</v>
@@ -21213,7 +21213,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44453</v>
+        <v>44385</v>
       </c>
       <c r="E290" t="n">
         <v>13</v>
@@ -21233,20 +21233,20 @@
       </c>
       <c r="I290" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J290" t="n">
-        <v>4300</v>
+        <v>1600</v>
       </c>
       <c r="K290" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L290" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="M290" t="n">
-        <v>625</v>
+        <v>400</v>
       </c>
       <c r="N290" t="inlineStr">
         <is>
@@ -21255,11 +21255,11 @@
       </c>
       <c r="O290" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P290" t="n">
-        <v>625</v>
+        <v>400</v>
       </c>
       <c r="Q290" t="n">
         <v>1</v>
@@ -21285,7 +21285,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44453</v>
+        <v>44202</v>
       </c>
       <c r="E291" t="n">
         <v>13</v>
@@ -21309,16 +21309,16 @@
         </is>
       </c>
       <c r="J291" t="n">
-        <v>3400</v>
+        <v>3100</v>
       </c>
       <c r="K291" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L291" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="M291" t="n">
-        <v>625</v>
+        <v>748</v>
       </c>
       <c r="N291" t="inlineStr">
         <is>
@@ -21327,11 +21327,11 @@
       </c>
       <c r="O291" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P291" t="n">
-        <v>625</v>
+        <v>748</v>
       </c>
       <c r="Q291" t="n">
         <v>1</v>
@@ -21377,20 +21377,20 @@
       </c>
       <c r="I292" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J292" t="n">
-        <v>1330</v>
+        <v>4300</v>
       </c>
       <c r="K292" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="L292" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="M292" t="n">
-        <v>475</v>
+        <v>625</v>
       </c>
       <c r="N292" t="inlineStr">
         <is>
@@ -21403,7 +21403,7 @@
         </is>
       </c>
       <c r="P292" t="n">
-        <v>475</v>
+        <v>625</v>
       </c>
       <c r="Q292" t="n">
         <v>1</v>
@@ -21449,20 +21449,20 @@
       </c>
       <c r="I293" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J293" t="n">
-        <v>970</v>
+        <v>3400</v>
       </c>
       <c r="K293" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="L293" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="M293" t="n">
-        <v>475</v>
+        <v>625</v>
       </c>
       <c r="N293" t="inlineStr">
         <is>
@@ -21475,7 +21475,7 @@
         </is>
       </c>
       <c r="P293" t="n">
-        <v>475</v>
+        <v>625</v>
       </c>
       <c r="Q293" t="n">
         <v>1</v>
@@ -21501,7 +21501,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44435</v>
+        <v>44453</v>
       </c>
       <c r="E294" t="n">
         <v>13</v>
@@ -21521,20 +21521,20 @@
       </c>
       <c r="I294" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J294" t="n">
-        <v>18800</v>
+        <v>1330</v>
       </c>
       <c r="K294" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="L294" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M294" t="n">
-        <v>636</v>
+        <v>475</v>
       </c>
       <c r="N294" t="inlineStr">
         <is>
@@ -21547,7 +21547,7 @@
         </is>
       </c>
       <c r="P294" t="n">
-        <v>636</v>
+        <v>475</v>
       </c>
       <c r="Q294" t="n">
         <v>1</v>
@@ -21573,7 +21573,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44435</v>
+        <v>44453</v>
       </c>
       <c r="E295" t="n">
         <v>13</v>
@@ -21593,20 +21593,20 @@
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J295" t="n">
-        <v>13600</v>
+        <v>970</v>
       </c>
       <c r="K295" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="L295" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M295" t="n">
-        <v>638</v>
+        <v>475</v>
       </c>
       <c r="N295" t="inlineStr">
         <is>
@@ -21619,7 +21619,7 @@
         </is>
       </c>
       <c r="P295" t="n">
-        <v>638</v>
+        <v>475</v>
       </c>
       <c r="Q295" t="n">
         <v>1</v>
@@ -21665,20 +21665,20 @@
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J296" t="n">
-        <v>7550</v>
+        <v>18800</v>
       </c>
       <c r="K296" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L296" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M296" t="n">
-        <v>530</v>
+        <v>636</v>
       </c>
       <c r="N296" t="inlineStr">
         <is>
@@ -21691,7 +21691,7 @@
         </is>
       </c>
       <c r="P296" t="n">
-        <v>530</v>
+        <v>636</v>
       </c>
       <c r="Q296" t="n">
         <v>1</v>
@@ -21737,20 +21737,20 @@
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J297" t="n">
-        <v>5680</v>
+        <v>13600</v>
       </c>
       <c r="K297" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L297" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M297" t="n">
-        <v>534</v>
+        <v>638</v>
       </c>
       <c r="N297" t="inlineStr">
         <is>
@@ -21763,7 +21763,7 @@
         </is>
       </c>
       <c r="P297" t="n">
-        <v>534</v>
+        <v>638</v>
       </c>
       <c r="Q297" t="n">
         <v>1</v>
@@ -21789,7 +21789,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44377</v>
+        <v>44435</v>
       </c>
       <c r="E298" t="n">
         <v>13</v>
@@ -21809,20 +21809,20 @@
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J298" t="n">
-        <v>1600</v>
+        <v>7550</v>
       </c>
       <c r="K298" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L298" t="n">
         <v>600</v>
       </c>
       <c r="M298" t="n">
-        <v>550</v>
+        <v>530</v>
       </c>
       <c r="N298" t="inlineStr">
         <is>
@@ -21835,7 +21835,7 @@
         </is>
       </c>
       <c r="P298" t="n">
-        <v>550</v>
+        <v>530</v>
       </c>
       <c r="Q298" t="n">
         <v>1</v>
@@ -21861,7 +21861,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44377</v>
+        <v>44435</v>
       </c>
       <c r="E299" t="n">
         <v>13</v>
@@ -21881,11 +21881,11 @@
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J299" t="n">
-        <v>2500</v>
+        <v>5680</v>
       </c>
       <c r="K299" t="n">
         <v>500</v>
@@ -21894,7 +21894,7 @@
         <v>600</v>
       </c>
       <c r="M299" t="n">
-        <v>550</v>
+        <v>534</v>
       </c>
       <c r="N299" t="inlineStr">
         <is>
@@ -21907,7 +21907,7 @@
         </is>
       </c>
       <c r="P299" t="n">
-        <v>550</v>
+        <v>534</v>
       </c>
       <c r="Q299" t="n">
         <v>1</v>
@@ -21953,20 +21953,20 @@
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J300" t="n">
-        <v>520</v>
+        <v>1600</v>
       </c>
       <c r="K300" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L300" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M300" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="N300" t="inlineStr">
         <is>
@@ -21979,7 +21979,7 @@
         </is>
       </c>
       <c r="P300" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="Q300" t="n">
         <v>1</v>
@@ -22025,20 +22025,20 @@
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J301" t="n">
-        <v>970</v>
+        <v>2500</v>
       </c>
       <c r="K301" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L301" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M301" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="N301" t="inlineStr">
         <is>
@@ -22051,7 +22051,7 @@
         </is>
       </c>
       <c r="P301" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="Q301" t="n">
         <v>1</v>
@@ -22077,7 +22077,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44433</v>
+        <v>44377</v>
       </c>
       <c r="E302" t="n">
         <v>13</v>
@@ -22097,20 +22097,20 @@
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J302" t="n">
-        <v>3400</v>
+        <v>520</v>
       </c>
       <c r="K302" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L302" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="M302" t="n">
-        <v>625</v>
+        <v>400</v>
       </c>
       <c r="N302" t="inlineStr">
         <is>
@@ -22123,7 +22123,7 @@
         </is>
       </c>
       <c r="P302" t="n">
-        <v>625</v>
+        <v>400</v>
       </c>
       <c r="Q302" t="n">
         <v>1</v>
@@ -22149,7 +22149,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44433</v>
+        <v>44377</v>
       </c>
       <c r="E303" t="n">
         <v>13</v>
@@ -22169,20 +22169,20 @@
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J303" t="n">
-        <v>1600</v>
+        <v>970</v>
       </c>
       <c r="K303" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L303" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="M303" t="n">
-        <v>625</v>
+        <v>400</v>
       </c>
       <c r="N303" t="inlineStr">
         <is>
@@ -22195,7 +22195,7 @@
         </is>
       </c>
       <c r="P303" t="n">
-        <v>625</v>
+        <v>400</v>
       </c>
       <c r="Q303" t="n">
         <v>1</v>
@@ -22241,20 +22241,20 @@
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J304" t="n">
-        <v>970</v>
+        <v>3400</v>
       </c>
       <c r="K304" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L304" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="M304" t="n">
-        <v>525</v>
+        <v>625</v>
       </c>
       <c r="N304" t="inlineStr">
         <is>
@@ -22267,7 +22267,7 @@
         </is>
       </c>
       <c r="P304" t="n">
-        <v>525</v>
+        <v>625</v>
       </c>
       <c r="Q304" t="n">
         <v>1</v>
@@ -22313,20 +22313,20 @@
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J305" t="n">
-        <v>610</v>
+        <v>1600</v>
       </c>
       <c r="K305" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L305" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="M305" t="n">
-        <v>525</v>
+        <v>625</v>
       </c>
       <c r="N305" t="inlineStr">
         <is>
@@ -22339,7 +22339,7 @@
         </is>
       </c>
       <c r="P305" t="n">
-        <v>525</v>
+        <v>625</v>
       </c>
       <c r="Q305" t="n">
         <v>1</v>
@@ -22365,7 +22365,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44307</v>
+        <v>44433</v>
       </c>
       <c r="E306" t="n">
         <v>13</v>
@@ -22385,20 +22385,20 @@
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J306" t="n">
-        <v>2100</v>
+        <v>970</v>
       </c>
       <c r="K306" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L306" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="M306" t="n">
-        <v>700</v>
+        <v>525</v>
       </c>
       <c r="N306" t="inlineStr">
         <is>
@@ -22411,7 +22411,7 @@
         </is>
       </c>
       <c r="P306" t="n">
-        <v>700</v>
+        <v>525</v>
       </c>
       <c r="Q306" t="n">
         <v>1</v>
@@ -22437,7 +22437,7 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>44159</v>
+        <v>44433</v>
       </c>
       <c r="E307" t="n">
         <v>13</v>
@@ -22457,20 +22457,20 @@
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J307" t="n">
-        <v>4500</v>
+        <v>610</v>
       </c>
       <c r="K307" t="n">
         <v>500</v>
       </c>
       <c r="L307" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="M307" t="n">
-        <v>544</v>
+        <v>525</v>
       </c>
       <c r="N307" t="inlineStr">
         <is>
@@ -22479,11 +22479,11 @@
       </c>
       <c r="O307" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P307" t="n">
-        <v>544</v>
+        <v>525</v>
       </c>
       <c r="Q307" t="n">
         <v>1</v>
@@ -22509,7 +22509,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44166</v>
+        <v>44307</v>
       </c>
       <c r="E308" t="n">
         <v>13</v>
@@ -22533,16 +22533,16 @@
         </is>
       </c>
       <c r="J308" t="n">
-        <v>3200</v>
+        <v>2100</v>
       </c>
       <c r="K308" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L308" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M308" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="N308" t="inlineStr">
         <is>
@@ -22551,11 +22551,11 @@
       </c>
       <c r="O308" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P308" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="Q308" t="n">
         <v>1</v>
@@ -22581,7 +22581,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44334</v>
+        <v>44159</v>
       </c>
       <c r="E309" t="n">
         <v>13</v>
@@ -22605,16 +22605,16 @@
         </is>
       </c>
       <c r="J309" t="n">
-        <v>4300</v>
+        <v>4500</v>
       </c>
       <c r="K309" t="n">
+        <v>500</v>
+      </c>
+      <c r="L309" t="n">
         <v>600</v>
       </c>
-      <c r="L309" t="n">
-        <v>700</v>
-      </c>
       <c r="M309" t="n">
-        <v>650</v>
+        <v>544</v>
       </c>
       <c r="N309" t="inlineStr">
         <is>
@@ -22623,11 +22623,11 @@
       </c>
       <c r="O309" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P309" t="n">
-        <v>650</v>
+        <v>544</v>
       </c>
       <c r="Q309" t="n">
         <v>1</v>
@@ -22653,7 +22653,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44334</v>
+        <v>44166</v>
       </c>
       <c r="E310" t="n">
         <v>13</v>
@@ -22677,16 +22677,16 @@
         </is>
       </c>
       <c r="J310" t="n">
-        <v>5200</v>
+        <v>3200</v>
       </c>
       <c r="K310" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L310" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M310" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="N310" t="inlineStr">
         <is>
@@ -22695,11 +22695,11 @@
       </c>
       <c r="O310" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P310" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="Q310" t="n">
         <v>1</v>
@@ -22745,20 +22745,20 @@
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J311" t="n">
-        <v>1600</v>
+        <v>4300</v>
       </c>
       <c r="K311" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L311" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="M311" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="N311" t="inlineStr">
         <is>
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="P311" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="Q311" t="n">
         <v>1</v>
@@ -22817,20 +22817,20 @@
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J312" t="n">
-        <v>2500</v>
+        <v>5200</v>
       </c>
       <c r="K312" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L312" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M312" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="N312" t="inlineStr">
         <is>
@@ -22843,7 +22843,7 @@
         </is>
       </c>
       <c r="P312" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="Q312" t="n">
         <v>1</v>
@@ -22869,7 +22869,7 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>44476</v>
+        <v>44334</v>
       </c>
       <c r="E313" t="n">
         <v>13</v>
@@ -22889,20 +22889,20 @@
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J313" t="n">
-        <v>3400</v>
+        <v>1600</v>
       </c>
       <c r="K313" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="L313" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="M313" t="n">
-        <v>675</v>
+        <v>400</v>
       </c>
       <c r="N313" t="inlineStr">
         <is>
@@ -22915,7 +22915,7 @@
         </is>
       </c>
       <c r="P313" t="n">
-        <v>675</v>
+        <v>400</v>
       </c>
       <c r="Q313" t="n">
         <v>1</v>
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>44476</v>
+        <v>44334</v>
       </c>
       <c r="E314" t="n">
         <v>13</v>
@@ -22961,20 +22961,20 @@
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J314" t="n">
         <v>2500</v>
       </c>
       <c r="K314" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="L314" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M314" t="n">
-        <v>675</v>
+        <v>500</v>
       </c>
       <c r="N314" t="inlineStr">
         <is>
@@ -22987,7 +22987,7 @@
         </is>
       </c>
       <c r="P314" t="n">
-        <v>675</v>
+        <v>500</v>
       </c>
       <c r="Q314" t="n">
         <v>1</v>
@@ -23033,20 +23033,20 @@
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J315" t="n">
-        <v>1330</v>
+        <v>3400</v>
       </c>
       <c r="K315" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="L315" t="n">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="M315" t="n">
-        <v>525</v>
+        <v>675</v>
       </c>
       <c r="N315" t="inlineStr">
         <is>
@@ -23059,7 +23059,7 @@
         </is>
       </c>
       <c r="P315" t="n">
-        <v>525</v>
+        <v>675</v>
       </c>
       <c r="Q315" t="n">
         <v>1</v>
@@ -23105,20 +23105,20 @@
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J316" t="n">
-        <v>1060</v>
+        <v>2500</v>
       </c>
       <c r="K316" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="L316" t="n">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="M316" t="n">
-        <v>525</v>
+        <v>675</v>
       </c>
       <c r="N316" t="inlineStr">
         <is>
@@ -23131,7 +23131,7 @@
         </is>
       </c>
       <c r="P316" t="n">
-        <v>525</v>
+        <v>675</v>
       </c>
       <c r="Q316" t="n">
         <v>1</v>
@@ -23157,7 +23157,7 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E317" t="n">
         <v>13</v>
@@ -23177,20 +23177,20 @@
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J317" t="n">
-        <v>2500</v>
+        <v>1330</v>
       </c>
       <c r="K317" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L317" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="M317" t="n">
-        <v>625</v>
+        <v>525</v>
       </c>
       <c r="N317" t="inlineStr">
         <is>
@@ -23203,7 +23203,7 @@
         </is>
       </c>
       <c r="P317" t="n">
-        <v>625</v>
+        <v>525</v>
       </c>
       <c r="Q317" t="n">
         <v>1</v>
@@ -23229,7 +23229,7 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E318" t="n">
         <v>13</v>
@@ -23253,16 +23253,16 @@
         </is>
       </c>
       <c r="J318" t="n">
-        <v>1300</v>
+        <v>1060</v>
       </c>
       <c r="K318" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="L318" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="M318" t="n">
-        <v>475</v>
+        <v>525</v>
       </c>
       <c r="N318" t="inlineStr">
         <is>
@@ -23271,11 +23271,11 @@
       </c>
       <c r="O318" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P318" t="n">
-        <v>475</v>
+        <v>525</v>
       </c>
       <c r="Q318" t="n">
         <v>1</v>
@@ -23301,7 +23301,7 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>44386</v>
+        <v>44468</v>
       </c>
       <c r="E319" t="n">
         <v>13</v>
@@ -23325,16 +23325,16 @@
         </is>
       </c>
       <c r="J319" t="n">
-        <v>4300</v>
+        <v>2500</v>
       </c>
       <c r="K319" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L319" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="M319" t="n">
-        <v>550</v>
+        <v>625</v>
       </c>
       <c r="N319" t="inlineStr">
         <is>
@@ -23347,7 +23347,7 @@
         </is>
       </c>
       <c r="P319" t="n">
-        <v>550</v>
+        <v>625</v>
       </c>
       <c r="Q319" t="n">
         <v>1</v>
@@ -23373,7 +23373,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44386</v>
+        <v>44468</v>
       </c>
       <c r="E320" t="n">
         <v>13</v>
@@ -23393,20 +23393,20 @@
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J320" t="n">
-        <v>3400</v>
+        <v>1300</v>
       </c>
       <c r="K320" t="n">
+        <v>450</v>
+      </c>
+      <c r="L320" t="n">
         <v>500</v>
       </c>
-      <c r="L320" t="n">
-        <v>600</v>
-      </c>
       <c r="M320" t="n">
-        <v>550</v>
+        <v>475</v>
       </c>
       <c r="N320" t="inlineStr">
         <is>
@@ -23415,11 +23415,11 @@
       </c>
       <c r="O320" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P320" t="n">
-        <v>550</v>
+        <v>475</v>
       </c>
       <c r="Q320" t="n">
         <v>1</v>
@@ -23465,20 +23465,20 @@
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J321" t="n">
-        <v>1600</v>
+        <v>4300</v>
       </c>
       <c r="K321" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L321" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M321" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="N321" t="inlineStr">
         <is>
@@ -23491,7 +23491,7 @@
         </is>
       </c>
       <c r="P321" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="Q321" t="n">
         <v>1</v>
@@ -23537,20 +23537,20 @@
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J322" t="n">
-        <v>970</v>
+        <v>3400</v>
       </c>
       <c r="K322" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L322" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M322" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="N322" t="inlineStr">
         <is>
@@ -23563,7 +23563,7 @@
         </is>
       </c>
       <c r="P322" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="Q322" t="n">
         <v>1</v>
@@ -23589,7 +23589,7 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>44384</v>
+        <v>44386</v>
       </c>
       <c r="E323" t="n">
         <v>13</v>
@@ -23609,20 +23609,20 @@
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J323" t="n">
-        <v>2500</v>
+        <v>1600</v>
       </c>
       <c r="K323" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L323" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M323" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="N323" t="inlineStr">
         <is>
@@ -23631,11 +23631,11 @@
       </c>
       <c r="O323" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P323" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="Q323" t="n">
         <v>1</v>
@@ -23661,7 +23661,7 @@
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>44384</v>
+        <v>44386</v>
       </c>
       <c r="E324" t="n">
         <v>13</v>
@@ -23733,7 +23733,7 @@
         </is>
       </c>
       <c r="D325" s="2" t="n">
-        <v>44363</v>
+        <v>44384</v>
       </c>
       <c r="E325" t="n">
         <v>13</v>
@@ -23775,7 +23775,7 @@
       </c>
       <c r="O325" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P325" t="n">
@@ -23805,7 +23805,7 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>44363</v>
+        <v>44384</v>
       </c>
       <c r="E326" t="n">
         <v>13</v>
@@ -23825,20 +23825,20 @@
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J326" t="n">
-        <v>1600</v>
+        <v>970</v>
       </c>
       <c r="K326" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L326" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M326" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="N326" t="inlineStr">
         <is>
@@ -23851,7 +23851,7 @@
         </is>
       </c>
       <c r="P326" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="Q326" t="n">
         <v>1</v>
@@ -23897,20 +23897,20 @@
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J327" t="n">
-        <v>1600</v>
+        <v>2500</v>
       </c>
       <c r="K327" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L327" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M327" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="N327" t="inlineStr">
         <is>
@@ -23923,7 +23923,7 @@
         </is>
       </c>
       <c r="P327" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="Q327" t="n">
         <v>1</v>
@@ -23969,20 +23969,20 @@
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J328" t="n">
-        <v>700</v>
+        <v>1600</v>
       </c>
       <c r="K328" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L328" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M328" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="N328" t="inlineStr">
         <is>
@@ -23995,7 +23995,7 @@
         </is>
       </c>
       <c r="P328" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="Q328" t="n">
         <v>1</v>
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>44306</v>
+        <v>44363</v>
       </c>
       <c r="E329" t="n">
         <v>13</v>
@@ -24041,20 +24041,20 @@
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J329" t="n">
         <v>1600</v>
       </c>
       <c r="K329" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="L329" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="M329" t="n">
-        <v>750</v>
+        <v>400</v>
       </c>
       <c r="N329" t="inlineStr">
         <is>
@@ -24063,11 +24063,11 @@
       </c>
       <c r="O329" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P329" t="n">
-        <v>750</v>
+        <v>400</v>
       </c>
       <c r="Q329" t="n">
         <v>1</v>
@@ -24093,7 +24093,7 @@
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>44369</v>
+        <v>44363</v>
       </c>
       <c r="E330" t="n">
         <v>13</v>
@@ -24113,20 +24113,20 @@
       </c>
       <c r="I330" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J330" t="n">
-        <v>3400</v>
+        <v>700</v>
       </c>
       <c r="K330" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L330" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M330" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="N330" t="inlineStr">
         <is>
@@ -24135,11 +24135,11 @@
       </c>
       <c r="O330" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P330" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="Q330" t="n">
         <v>1</v>
@@ -24165,7 +24165,7 @@
         </is>
       </c>
       <c r="D331" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E331" t="n">
         <v>13</v>
@@ -24189,16 +24189,16 @@
         </is>
       </c>
       <c r="J331" t="n">
-        <v>2500</v>
+        <v>1600</v>
       </c>
       <c r="K331" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L331" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M331" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="N331" t="inlineStr">
         <is>
@@ -24207,11 +24207,11 @@
       </c>
       <c r="O331" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P331" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="Q331" t="n">
         <v>1</v>
@@ -24257,20 +24257,20 @@
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J332" t="n">
-        <v>1600</v>
+        <v>3400</v>
       </c>
       <c r="K332" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L332" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M332" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="N332" t="inlineStr">
         <is>
@@ -24283,7 +24283,7 @@
         </is>
       </c>
       <c r="P332" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="Q332" t="n">
         <v>1</v>
@@ -24329,20 +24329,20 @@
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J333" t="n">
-        <v>700</v>
+        <v>2500</v>
       </c>
       <c r="K333" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L333" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M333" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="N333" t="inlineStr">
         <is>
@@ -24355,7 +24355,7 @@
         </is>
       </c>
       <c r="P333" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="Q333" t="n">
         <v>1</v>
@@ -24381,7 +24381,7 @@
         </is>
       </c>
       <c r="D334" s="2" t="n">
-        <v>44301</v>
+        <v>44369</v>
       </c>
       <c r="E334" t="n">
         <v>13</v>
@@ -24401,20 +24401,20 @@
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J334" t="n">
         <v>1600</v>
       </c>
       <c r="K334" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="L334" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="M334" t="n">
-        <v>750</v>
+        <v>400</v>
       </c>
       <c r="N334" t="inlineStr">
         <is>
@@ -24427,7 +24427,7 @@
         </is>
       </c>
       <c r="P334" t="n">
-        <v>750</v>
+        <v>400</v>
       </c>
       <c r="Q334" t="n">
         <v>1</v>
@@ -24453,7 +24453,7 @@
         </is>
       </c>
       <c r="D335" s="2" t="n">
-        <v>44357</v>
+        <v>44369</v>
       </c>
       <c r="E335" t="n">
         <v>13</v>
@@ -24473,20 +24473,20 @@
       </c>
       <c r="I335" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J335" t="n">
-        <v>3400</v>
+        <v>700</v>
       </c>
       <c r="K335" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L335" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M335" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="N335" t="inlineStr">
         <is>
@@ -24495,11 +24495,11 @@
       </c>
       <c r="O335" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P335" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="Q335" t="n">
         <v>1</v>
@@ -24525,7 +24525,7 @@
         </is>
       </c>
       <c r="D336" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E336" t="n">
         <v>13</v>
@@ -24549,16 +24549,16 @@
         </is>
       </c>
       <c r="J336" t="n">
-        <v>4300</v>
+        <v>1600</v>
       </c>
       <c r="K336" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L336" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M336" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="N336" t="inlineStr">
         <is>
@@ -24567,11 +24567,11 @@
       </c>
       <c r="O336" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P336" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="Q336" t="n">
         <v>1</v>
@@ -24617,20 +24617,20 @@
       </c>
       <c r="I337" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J337" t="n">
-        <v>1300</v>
+        <v>3400</v>
       </c>
       <c r="K337" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L337" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M337" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="N337" t="inlineStr">
         <is>
@@ -24643,7 +24643,7 @@
         </is>
       </c>
       <c r="P337" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="Q337" t="n">
         <v>1</v>
@@ -24689,20 +24689,20 @@
       </c>
       <c r="I338" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J338" t="n">
-        <v>1600</v>
+        <v>4300</v>
       </c>
       <c r="K338" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L338" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M338" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="N338" t="inlineStr">
         <is>
@@ -24715,7 +24715,7 @@
         </is>
       </c>
       <c r="P338" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="Q338" t="n">
         <v>1</v>
@@ -24741,7 +24741,7 @@
         </is>
       </c>
       <c r="D339" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E339" t="n">
         <v>13</v>
@@ -24761,20 +24761,20 @@
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J339" t="n">
-        <v>2500</v>
+        <v>1300</v>
       </c>
       <c r="K339" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L339" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M339" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="N339" t="inlineStr">
         <is>
@@ -24787,7 +24787,7 @@
         </is>
       </c>
       <c r="P339" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="Q339" t="n">
         <v>1</v>
@@ -24813,7 +24813,7 @@
         </is>
       </c>
       <c r="D340" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E340" t="n">
         <v>13</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="J340" t="n">
-        <v>700</v>
+        <v>1600</v>
       </c>
       <c r="K340" t="n">
         <v>400</v>
@@ -24855,7 +24855,7 @@
       </c>
       <c r="O340" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P340" t="n">
@@ -24885,7 +24885,7 @@
         </is>
       </c>
       <c r="D341" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E341" t="n">
         <v>13</v>
@@ -24957,7 +24957,7 @@
         </is>
       </c>
       <c r="D342" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E342" t="n">
         <v>13</v>
@@ -24977,20 +24977,20 @@
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J342" t="n">
-        <v>1600</v>
+        <v>700</v>
       </c>
       <c r="K342" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L342" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M342" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="N342" t="inlineStr">
         <is>
@@ -24999,11 +24999,11 @@
       </c>
       <c r="O342" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P342" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="Q342" t="n">
         <v>1</v>
@@ -25029,7 +25029,7 @@
         </is>
       </c>
       <c r="D343" s="2" t="n">
-        <v>44397</v>
+        <v>44321</v>
       </c>
       <c r="E343" t="n">
         <v>13</v>
@@ -25053,16 +25053,16 @@
         </is>
       </c>
       <c r="J343" t="n">
-        <v>4300</v>
+        <v>2500</v>
       </c>
       <c r="K343" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L343" t="n">
         <v>600</v>
       </c>
       <c r="M343" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="N343" t="inlineStr">
         <is>
@@ -25075,7 +25075,7 @@
         </is>
       </c>
       <c r="P343" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="Q343" t="n">
         <v>1</v>
@@ -25101,7 +25101,7 @@
         </is>
       </c>
       <c r="D344" s="2" t="n">
-        <v>44397</v>
+        <v>44321</v>
       </c>
       <c r="E344" t="n">
         <v>13</v>
@@ -25125,16 +25125,16 @@
         </is>
       </c>
       <c r="J344" t="n">
-        <v>3400</v>
+        <v>1600</v>
       </c>
       <c r="K344" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L344" t="n">
         <v>600</v>
       </c>
       <c r="M344" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="N344" t="inlineStr">
         <is>
@@ -25147,7 +25147,7 @@
         </is>
       </c>
       <c r="P344" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="Q344" t="n">
         <v>1</v>
@@ -25193,20 +25193,20 @@
       </c>
       <c r="I345" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J345" t="n">
-        <v>1600</v>
+        <v>4300</v>
       </c>
       <c r="K345" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L345" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M345" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="N345" t="inlineStr">
         <is>
@@ -25219,7 +25219,7 @@
         </is>
       </c>
       <c r="P345" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="Q345" t="n">
         <v>1</v>
@@ -25265,20 +25265,20 @@
       </c>
       <c r="I346" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J346" t="n">
-        <v>970</v>
+        <v>3400</v>
       </c>
       <c r="K346" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L346" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M346" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="N346" t="inlineStr">
         <is>
@@ -25291,7 +25291,7 @@
         </is>
       </c>
       <c r="P346" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="Q346" t="n">
         <v>1</v>
@@ -25317,7 +25317,7 @@
         </is>
       </c>
       <c r="D347" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E347" t="n">
         <v>13</v>
@@ -25337,20 +25337,20 @@
       </c>
       <c r="I347" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J347" t="n">
-        <v>4300</v>
+        <v>1600</v>
       </c>
       <c r="K347" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L347" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="M347" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="N347" t="inlineStr">
         <is>
@@ -25363,7 +25363,7 @@
         </is>
       </c>
       <c r="P347" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="Q347" t="n">
         <v>1</v>
@@ -25389,7 +25389,7 @@
         </is>
       </c>
       <c r="D348" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E348" t="n">
         <v>13</v>
@@ -25409,20 +25409,20 @@
       </c>
       <c r="I348" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J348" t="n">
-        <v>5200</v>
+        <v>970</v>
       </c>
       <c r="K348" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L348" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="M348" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="N348" t="inlineStr">
         <is>
@@ -25435,7 +25435,7 @@
         </is>
       </c>
       <c r="P348" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="Q348" t="n">
         <v>1</v>
@@ -25481,20 +25481,20 @@
       </c>
       <c r="I349" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J349" t="n">
-        <v>1600</v>
+        <v>4300</v>
       </c>
       <c r="K349" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L349" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M349" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="N349" t="inlineStr">
         <is>
@@ -25507,7 +25507,7 @@
         </is>
       </c>
       <c r="P349" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="Q349" t="n">
         <v>1</v>
@@ -25553,20 +25553,20 @@
       </c>
       <c r="I350" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J350" t="n">
-        <v>2500</v>
+        <v>5200</v>
       </c>
       <c r="K350" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L350" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M350" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="N350" t="inlineStr">
         <is>
@@ -25579,7 +25579,7 @@
         </is>
       </c>
       <c r="P350" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="Q350" t="n">
         <v>1</v>
@@ -25605,7 +25605,7 @@
         </is>
       </c>
       <c r="D351" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E351" t="n">
         <v>13</v>
@@ -25625,20 +25625,20 @@
       </c>
       <c r="I351" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J351" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="K351" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L351" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M351" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="N351" t="inlineStr">
         <is>
@@ -25651,7 +25651,7 @@
         </is>
       </c>
       <c r="P351" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="Q351" t="n">
         <v>1</v>
@@ -25677,7 +25677,7 @@
         </is>
       </c>
       <c r="D352" s="2" t="n">
-        <v>44314</v>
+        <v>44414</v>
       </c>
       <c r="E352" t="n">
         <v>13</v>
@@ -25697,20 +25697,20 @@
       </c>
       <c r="I352" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J352" t="n">
         <v>2500</v>
       </c>
       <c r="K352" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L352" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M352" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N352" t="inlineStr">
         <is>
@@ -25723,7 +25723,7 @@
         </is>
       </c>
       <c r="P352" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q352" t="n">
         <v>1</v>
@@ -25749,7 +25749,7 @@
         </is>
       </c>
       <c r="D353" s="2" t="n">
-        <v>44392</v>
+        <v>44333</v>
       </c>
       <c r="E353" t="n">
         <v>13</v>
@@ -25773,16 +25773,16 @@
         </is>
       </c>
       <c r="J353" t="n">
-        <v>3400</v>
+        <v>1400</v>
       </c>
       <c r="K353" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L353" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M353" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="N353" t="inlineStr">
         <is>
@@ -25795,7 +25795,7 @@
         </is>
       </c>
       <c r="P353" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="Q353" t="n">
         <v>1</v>
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="D354" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E354" t="n">
         <v>13</v>
@@ -25845,16 +25845,16 @@
         </is>
       </c>
       <c r="J354" t="n">
-        <v>4300</v>
+        <v>2500</v>
       </c>
       <c r="K354" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L354" t="n">
         <v>600</v>
       </c>
       <c r="M354" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="N354" t="inlineStr">
         <is>
@@ -25867,7 +25867,7 @@
         </is>
       </c>
       <c r="P354" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="Q354" t="n">
         <v>1</v>
@@ -25913,20 +25913,20 @@
       </c>
       <c r="I355" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J355" t="n">
-        <v>970</v>
+        <v>3400</v>
       </c>
       <c r="K355" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L355" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M355" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="N355" t="inlineStr">
         <is>
@@ -25939,7 +25939,7 @@
         </is>
       </c>
       <c r="P355" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="Q355" t="n">
         <v>1</v>
@@ -25985,20 +25985,20 @@
       </c>
       <c r="I356" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J356" t="n">
-        <v>1600</v>
+        <v>4300</v>
       </c>
       <c r="K356" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L356" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M356" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="N356" t="inlineStr">
         <is>
@@ -26011,7 +26011,7 @@
         </is>
       </c>
       <c r="P356" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="Q356" t="n">
         <v>1</v>
@@ -26037,7 +26037,7 @@
         </is>
       </c>
       <c r="D357" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E357" t="n">
         <v>13</v>
@@ -26057,20 +26057,20 @@
       </c>
       <c r="I357" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J357" t="n">
-        <v>4300</v>
+        <v>970</v>
       </c>
       <c r="K357" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L357" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="M357" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="N357" t="inlineStr">
         <is>
@@ -26083,7 +26083,7 @@
         </is>
       </c>
       <c r="P357" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="Q357" t="n">
         <v>1</v>
@@ -26109,7 +26109,7 @@
         </is>
       </c>
       <c r="D358" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E358" t="n">
         <v>13</v>
@@ -26129,20 +26129,20 @@
       </c>
       <c r="I358" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J358" t="n">
-        <v>3400</v>
+        <v>1600</v>
       </c>
       <c r="K358" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L358" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="M358" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="N358" t="inlineStr">
         <is>
@@ -26155,7 +26155,7 @@
         </is>
       </c>
       <c r="P358" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="Q358" t="n">
         <v>1</v>
@@ -26201,20 +26201,20 @@
       </c>
       <c r="I359" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J359" t="n">
-        <v>1600</v>
+        <v>4300</v>
       </c>
       <c r="K359" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L359" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M359" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="N359" t="inlineStr">
         <is>
@@ -26227,7 +26227,7 @@
         </is>
       </c>
       <c r="P359" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="Q359" t="n">
         <v>1</v>
@@ -26273,20 +26273,20 @@
       </c>
       <c r="I360" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J360" t="n">
-        <v>1300</v>
+        <v>3400</v>
       </c>
       <c r="K360" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L360" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M360" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="N360" t="inlineStr">
         <is>
@@ -26299,7 +26299,7 @@
         </is>
       </c>
       <c r="P360" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="Q360" t="n">
         <v>1</v>
@@ -26325,7 +26325,7 @@
         </is>
       </c>
       <c r="D361" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E361" t="n">
         <v>13</v>
@@ -26345,20 +26345,20 @@
       </c>
       <c r="I361" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J361" t="n">
-        <v>4300</v>
+        <v>1600</v>
       </c>
       <c r="K361" t="n">
+        <v>400</v>
+      </c>
+      <c r="L361" t="n">
         <v>500</v>
       </c>
-      <c r="L361" t="n">
-        <v>600</v>
-      </c>
       <c r="M361" t="n">
-        <v>550</v>
+        <v>450</v>
       </c>
       <c r="N361" t="inlineStr">
         <is>
@@ -26371,7 +26371,7 @@
         </is>
       </c>
       <c r="P361" t="n">
-        <v>550</v>
+        <v>450</v>
       </c>
       <c r="Q361" t="n">
         <v>1</v>
@@ -26397,7 +26397,7 @@
         </is>
       </c>
       <c r="D362" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E362" t="n">
         <v>13</v>
@@ -26417,20 +26417,20 @@
       </c>
       <c r="I362" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J362" t="n">
-        <v>3400</v>
+        <v>1300</v>
       </c>
       <c r="K362" t="n">
+        <v>400</v>
+      </c>
+      <c r="L362" t="n">
         <v>500</v>
       </c>
-      <c r="L362" t="n">
-        <v>600</v>
-      </c>
       <c r="M362" t="n">
-        <v>550</v>
+        <v>450</v>
       </c>
       <c r="N362" t="inlineStr">
         <is>
@@ -26443,7 +26443,7 @@
         </is>
       </c>
       <c r="P362" t="n">
-        <v>550</v>
+        <v>450</v>
       </c>
       <c r="Q362" t="n">
         <v>1</v>
@@ -26489,20 +26489,20 @@
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J363" t="n">
-        <v>1600</v>
+        <v>4300</v>
       </c>
       <c r="K363" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L363" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M363" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="N363" t="inlineStr">
         <is>
@@ -26515,7 +26515,7 @@
         </is>
       </c>
       <c r="P363" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="Q363" t="n">
         <v>1</v>
@@ -26561,20 +26561,20 @@
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J364" t="n">
-        <v>970</v>
+        <v>3400</v>
       </c>
       <c r="K364" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L364" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M364" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="N364" t="inlineStr">
         <is>
@@ -26587,7 +26587,7 @@
         </is>
       </c>
       <c r="P364" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="Q364" t="n">
         <v>1</v>
@@ -26613,7 +26613,7 @@
         </is>
       </c>
       <c r="D365" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E365" t="n">
         <v>13</v>
@@ -26633,20 +26633,20 @@
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J365" t="n">
-        <v>4900</v>
+        <v>1600</v>
       </c>
       <c r="K365" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="L365" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="M365" t="n">
-        <v>902</v>
+        <v>400</v>
       </c>
       <c r="N365" t="inlineStr">
         <is>
@@ -26655,11 +26655,11 @@
       </c>
       <c r="O365" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P365" t="n">
-        <v>902</v>
+        <v>400</v>
       </c>
       <c r="Q365" t="n">
         <v>1</v>
@@ -26685,7 +26685,7 @@
         </is>
       </c>
       <c r="D366" s="2" t="n">
-        <v>44250</v>
+        <v>44390</v>
       </c>
       <c r="E366" t="n">
         <v>13</v>
@@ -26705,20 +26705,20 @@
       </c>
       <c r="I366" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J366" t="n">
-        <v>700</v>
+        <v>970</v>
       </c>
       <c r="K366" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="L366" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="M366" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="N366" t="inlineStr">
         <is>
@@ -26727,11 +26727,11 @@
       </c>
       <c r="O366" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P366" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="Q366" t="n">
         <v>1</v>
@@ -26757,7 +26757,7 @@
         </is>
       </c>
       <c r="D367" s="2" t="n">
-        <v>44438</v>
+        <v>44187</v>
       </c>
       <c r="E367" t="n">
         <v>13</v>
@@ -26781,16 +26781,16 @@
         </is>
       </c>
       <c r="J367" t="n">
-        <v>1600</v>
+        <v>4900</v>
       </c>
       <c r="K367" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L367" t="n">
-        <v>650</v>
+        <v>1000</v>
       </c>
       <c r="M367" t="n">
-        <v>625</v>
+        <v>902</v>
       </c>
       <c r="N367" t="inlineStr">
         <is>
@@ -26799,11 +26799,11 @@
       </c>
       <c r="O367" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P367" t="n">
-        <v>625</v>
+        <v>902</v>
       </c>
       <c r="Q367" t="n">
         <v>1</v>
@@ -26829,7 +26829,7 @@
         </is>
       </c>
       <c r="D368" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E368" t="n">
         <v>13</v>
@@ -26849,20 +26849,20 @@
       </c>
       <c r="I368" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J368" t="n">
-        <v>610</v>
+        <v>700</v>
       </c>
       <c r="K368" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="L368" t="n">
-        <v>550</v>
+        <v>1000</v>
       </c>
       <c r="M368" t="n">
-        <v>525</v>
+        <v>1000</v>
       </c>
       <c r="N368" t="inlineStr">
         <is>
@@ -26875,7 +26875,7 @@
         </is>
       </c>
       <c r="P368" t="n">
-        <v>525</v>
+        <v>1000</v>
       </c>
       <c r="Q368" t="n">
         <v>1</v>
@@ -26901,7 +26901,7 @@
         </is>
       </c>
       <c r="D369" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E369" t="n">
         <v>13</v>
@@ -26925,16 +26925,16 @@
         </is>
       </c>
       <c r="J369" t="n">
-        <v>3600</v>
+        <v>1600</v>
       </c>
       <c r="K369" t="n">
         <v>600</v>
       </c>
       <c r="L369" t="n">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="M369" t="n">
-        <v>656</v>
+        <v>625</v>
       </c>
       <c r="N369" t="inlineStr">
         <is>
@@ -26947,7 +26947,7 @@
         </is>
       </c>
       <c r="P369" t="n">
-        <v>656</v>
+        <v>625</v>
       </c>
       <c r="Q369" t="n">
         <v>1</v>
@@ -26973,7 +26973,7 @@
         </is>
       </c>
       <c r="D370" s="2" t="n">
-        <v>44461</v>
+        <v>44438</v>
       </c>
       <c r="E370" t="n">
         <v>13</v>
@@ -26993,20 +26993,20 @@
       </c>
       <c r="I370" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J370" t="n">
-        <v>1960</v>
+        <v>610</v>
       </c>
       <c r="K370" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L370" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="M370" t="n">
-        <v>625</v>
+        <v>525</v>
       </c>
       <c r="N370" t="inlineStr">
         <is>
@@ -27019,7 +27019,7 @@
         </is>
       </c>
       <c r="P370" t="n">
-        <v>625</v>
+        <v>525</v>
       </c>
       <c r="Q370" t="n">
         <v>1</v>
@@ -27045,7 +27045,7 @@
         </is>
       </c>
       <c r="D371" s="2" t="n">
-        <v>44461</v>
+        <v>44201</v>
       </c>
       <c r="E371" t="n">
         <v>13</v>
@@ -27065,20 +27065,20 @@
       </c>
       <c r="I371" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J371" t="n">
-        <v>520</v>
+        <v>3600</v>
       </c>
       <c r="K371" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="L371" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M371" t="n">
-        <v>475</v>
+        <v>656</v>
       </c>
       <c r="N371" t="inlineStr">
         <is>
@@ -27091,7 +27091,7 @@
         </is>
       </c>
       <c r="P371" t="n">
-        <v>475</v>
+        <v>656</v>
       </c>
       <c r="Q371" t="n">
         <v>1</v>
@@ -27117,7 +27117,7 @@
         </is>
       </c>
       <c r="D372" s="2" t="n">
-        <v>44286</v>
+        <v>44461</v>
       </c>
       <c r="E372" t="n">
         <v>13</v>
@@ -27141,16 +27141,16 @@
         </is>
       </c>
       <c r="J372" t="n">
-        <v>1600</v>
+        <v>1960</v>
       </c>
       <c r="K372" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="L372" t="n">
-        <v>900</v>
+        <v>650</v>
       </c>
       <c r="M372" t="n">
-        <v>900</v>
+        <v>625</v>
       </c>
       <c r="N372" t="inlineStr">
         <is>
@@ -27163,7 +27163,7 @@
         </is>
       </c>
       <c r="P372" t="n">
-        <v>900</v>
+        <v>625</v>
       </c>
       <c r="Q372" t="n">
         <v>1</v>
@@ -27189,7 +27189,7 @@
         </is>
       </c>
       <c r="D373" s="2" t="n">
-        <v>44389</v>
+        <v>44461</v>
       </c>
       <c r="E373" t="n">
         <v>13</v>
@@ -27209,20 +27209,20 @@
       </c>
       <c r="I373" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J373" t="n">
-        <v>1600</v>
+        <v>520</v>
       </c>
       <c r="K373" t="n">
+        <v>450</v>
+      </c>
+      <c r="L373" t="n">
         <v>500</v>
       </c>
-      <c r="L373" t="n">
-        <v>600</v>
-      </c>
       <c r="M373" t="n">
-        <v>550</v>
+        <v>475</v>
       </c>
       <c r="N373" t="inlineStr">
         <is>
@@ -27231,11 +27231,11 @@
       </c>
       <c r="O373" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P373" t="n">
-        <v>550</v>
+        <v>475</v>
       </c>
       <c r="Q373" t="n">
         <v>1</v>
@@ -27261,7 +27261,7 @@
         </is>
       </c>
       <c r="D374" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E374" t="n">
         <v>13</v>
@@ -27281,20 +27281,20 @@
       </c>
       <c r="I374" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J374" t="n">
-        <v>520</v>
+        <v>1600</v>
       </c>
       <c r="K374" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="L374" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="M374" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="N374" t="inlineStr">
         <is>
@@ -27303,11 +27303,11 @@
       </c>
       <c r="O374" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P374" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="Q374" t="n">
         <v>1</v>
@@ -27333,7 +27333,7 @@
         </is>
       </c>
       <c r="D375" s="2" t="n">
-        <v>44326</v>
+        <v>44389</v>
       </c>
       <c r="E375" t="n">
         <v>13</v>
@@ -27357,16 +27357,16 @@
         </is>
       </c>
       <c r="J375" t="n">
-        <v>700</v>
+        <v>1600</v>
       </c>
       <c r="K375" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L375" t="n">
         <v>600</v>
       </c>
       <c r="M375" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="N375" t="inlineStr">
         <is>
@@ -27375,11 +27375,11 @@
       </c>
       <c r="O375" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P375" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="Q375" t="n">
         <v>1</v>
@@ -27405,7 +27405,7 @@
         </is>
       </c>
       <c r="D376" s="2" t="n">
-        <v>44432</v>
+        <v>44389</v>
       </c>
       <c r="E376" t="n">
         <v>13</v>
@@ -27425,20 +27425,20 @@
       </c>
       <c r="I376" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J376" t="n">
-        <v>4300</v>
+        <v>520</v>
       </c>
       <c r="K376" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="L376" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="M376" t="n">
-        <v>675</v>
+        <v>400</v>
       </c>
       <c r="N376" t="inlineStr">
         <is>
@@ -27447,11 +27447,11 @@
       </c>
       <c r="O376" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P376" t="n">
-        <v>675</v>
+        <v>400</v>
       </c>
       <c r="Q376" t="n">
         <v>1</v>
@@ -27477,7 +27477,7 @@
         </is>
       </c>
       <c r="D377" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E377" t="n">
         <v>13</v>
@@ -27501,16 +27501,16 @@
         </is>
       </c>
       <c r="J377" t="n">
-        <v>3400</v>
+        <v>700</v>
       </c>
       <c r="K377" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L377" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M377" t="n">
-        <v>675</v>
+        <v>600</v>
       </c>
       <c r="N377" t="inlineStr">
         <is>
@@ -27519,11 +27519,11 @@
       </c>
       <c r="O377" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P377" t="n">
-        <v>675</v>
+        <v>600</v>
       </c>
       <c r="Q377" t="n">
         <v>1</v>
@@ -27569,20 +27569,20 @@
       </c>
       <c r="I378" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J378" t="n">
-        <v>1600</v>
+        <v>4300</v>
       </c>
       <c r="K378" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="L378" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M378" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="N378" t="inlineStr">
         <is>
@@ -27595,7 +27595,7 @@
         </is>
       </c>
       <c r="P378" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="Q378" t="n">
         <v>1</v>
@@ -27641,38 +27641,182 @@
       </c>
       <c r="I379" t="inlineStr">
         <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J379" t="n">
+        <v>3400</v>
+      </c>
+      <c r="K379" t="n">
+        <v>650</v>
+      </c>
+      <c r="L379" t="n">
+        <v>700</v>
+      </c>
+      <c r="M379" t="n">
+        <v>675</v>
+      </c>
+      <c r="N379" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O379" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P379" t="n">
+        <v>675</v>
+      </c>
+      <c r="Q379" t="n">
+        <v>1</v>
+      </c>
+      <c r="R379" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="n">
+        <v>9</v>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D380" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E380" t="n">
+        <v>13</v>
+      </c>
+      <c r="F380" t="n">
+        <v>100112008</v>
+      </c>
+      <c r="G380" t="inlineStr">
+        <is>
+          <t>Coliflor</t>
+        </is>
+      </c>
+      <c r="H380" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I380" t="inlineStr">
+        <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J379" t="n">
+      <c r="J380" t="n">
+        <v>1600</v>
+      </c>
+      <c r="K380" t="n">
+        <v>550</v>
+      </c>
+      <c r="L380" t="n">
+        <v>600</v>
+      </c>
+      <c r="M380" t="n">
+        <v>575</v>
+      </c>
+      <c r="N380" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O380" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P380" t="n">
+        <v>575</v>
+      </c>
+      <c r="Q380" t="n">
+        <v>1</v>
+      </c>
+      <c r="R380" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="n">
+        <v>9</v>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D381" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E381" t="n">
+        <v>13</v>
+      </c>
+      <c r="F381" t="n">
+        <v>100112008</v>
+      </c>
+      <c r="G381" t="inlineStr">
+        <is>
+          <t>Coliflor</t>
+        </is>
+      </c>
+      <c r="H381" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I381" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J381" t="n">
         <v>970</v>
       </c>
-      <c r="K379" t="n">
+      <c r="K381" t="n">
         <v>550</v>
       </c>
-      <c r="L379" t="n">
+      <c r="L381" t="n">
         <v>600</v>
       </c>
-      <c r="M379" t="n">
+      <c r="M381" t="n">
         <v>575</v>
       </c>
-      <c r="N379" t="inlineStr">
-        <is>
-          <t>$/unidad</t>
-        </is>
-      </c>
-      <c r="O379" t="inlineStr">
+      <c r="N381" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O381" t="inlineStr">
         <is>
           <t>Región de O'Higgins</t>
         </is>
       </c>
-      <c r="P379" t="n">
+      <c r="P381" t="n">
         <v>575</v>
       </c>
-      <c r="Q379" t="n">
-        <v>1</v>
-      </c>
-      <c r="R379" t="inlineStr">
+      <c r="Q381" t="n">
+        <v>1</v>
+      </c>
+      <c r="R381" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Coliflor.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Coliflor.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R381"/>
+  <dimension ref="A1:R385"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11565,7 +11565,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44308</v>
+        <v>44483</v>
       </c>
       <c r="E156" t="n">
         <v>13</v>
@@ -11589,16 +11589,16 @@
         </is>
       </c>
       <c r="J156" t="n">
-        <v>1600</v>
+        <v>3400</v>
       </c>
       <c r="K156" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="L156" t="n">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="M156" t="n">
-        <v>700</v>
+        <v>625</v>
       </c>
       <c r="N156" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         </is>
       </c>
       <c r="P156" t="n">
-        <v>700</v>
+        <v>625</v>
       </c>
       <c r="Q156" t="n">
         <v>1</v>
@@ -11637,7 +11637,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44330</v>
+        <v>44483</v>
       </c>
       <c r="E157" t="n">
         <v>13</v>
@@ -11667,10 +11667,10 @@
         <v>600</v>
       </c>
       <c r="L157" t="n">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="M157" t="n">
-        <v>650</v>
+        <v>625</v>
       </c>
       <c r="N157" t="inlineStr">
         <is>
@@ -11679,11 +11679,11 @@
       </c>
       <c r="O157" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P157" t="n">
-        <v>650</v>
+        <v>625</v>
       </c>
       <c r="Q157" t="n">
         <v>1</v>
@@ -11709,7 +11709,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44330</v>
+        <v>44483</v>
       </c>
       <c r="E158" t="n">
         <v>13</v>
@@ -11729,20 +11729,20 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J158" t="n">
-        <v>3400</v>
+        <v>1600</v>
       </c>
       <c r="K158" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="L158" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M158" t="n">
-        <v>650</v>
+        <v>475</v>
       </c>
       <c r="N158" t="inlineStr">
         <is>
@@ -11751,11 +11751,11 @@
       </c>
       <c r="O158" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P158" t="n">
-        <v>650</v>
+        <v>475</v>
       </c>
       <c r="Q158" t="n">
         <v>1</v>
@@ -11781,7 +11781,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44330</v>
+        <v>44483</v>
       </c>
       <c r="E159" t="n">
         <v>13</v>
@@ -11805,16 +11805,16 @@
         </is>
       </c>
       <c r="J159" t="n">
-        <v>700</v>
+        <v>1060</v>
       </c>
       <c r="K159" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="L159" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M159" t="n">
-        <v>400</v>
+        <v>475</v>
       </c>
       <c r="N159" t="inlineStr">
         <is>
@@ -11823,11 +11823,11 @@
       </c>
       <c r="O159" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P159" t="n">
-        <v>400</v>
+        <v>475</v>
       </c>
       <c r="Q159" t="n">
         <v>1</v>
@@ -11853,7 +11853,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44330</v>
+        <v>44308</v>
       </c>
       <c r="E160" t="n">
         <v>13</v>
@@ -11873,20 +11873,20 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J160" t="n">
         <v>1600</v>
       </c>
       <c r="K160" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="L160" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="M160" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="N160" t="inlineStr">
         <is>
@@ -11895,11 +11895,11 @@
       </c>
       <c r="O160" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P160" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="Q160" t="n">
         <v>1</v>
@@ -11925,7 +11925,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44463</v>
+        <v>44330</v>
       </c>
       <c r="E161" t="n">
         <v>13</v>
@@ -11949,17 +11949,17 @@
         </is>
       </c>
       <c r="J161" t="n">
-        <v>4300</v>
+        <v>2500</v>
       </c>
       <c r="K161" t="n">
         <v>600</v>
       </c>
       <c r="L161" t="n">
+        <v>700</v>
+      </c>
+      <c r="M161" t="n">
         <v>650</v>
       </c>
-      <c r="M161" t="n">
-        <v>625</v>
-      </c>
       <c r="N161" t="inlineStr">
         <is>
           <t>$/unidad</t>
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="P161" t="n">
-        <v>625</v>
+        <v>650</v>
       </c>
       <c r="Q161" t="n">
         <v>1</v>
@@ -11997,7 +11997,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44463</v>
+        <v>44330</v>
       </c>
       <c r="E162" t="n">
         <v>13</v>
@@ -12027,11 +12027,11 @@
         <v>600</v>
       </c>
       <c r="L162" t="n">
+        <v>700</v>
+      </c>
+      <c r="M162" t="n">
         <v>650</v>
       </c>
-      <c r="M162" t="n">
-        <v>625</v>
-      </c>
       <c r="N162" t="inlineStr">
         <is>
           <t>$/unidad</t>
@@ -12043,7 +12043,7 @@
         </is>
       </c>
       <c r="P162" t="n">
-        <v>625</v>
+        <v>650</v>
       </c>
       <c r="Q162" t="n">
         <v>1</v>
@@ -12069,7 +12069,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44463</v>
+        <v>44330</v>
       </c>
       <c r="E163" t="n">
         <v>13</v>
@@ -12093,16 +12093,16 @@
         </is>
       </c>
       <c r="J163" t="n">
-        <v>1240</v>
+        <v>700</v>
       </c>
       <c r="K163" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="L163" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M163" t="n">
-        <v>475</v>
+        <v>400</v>
       </c>
       <c r="N163" t="inlineStr">
         <is>
@@ -12115,7 +12115,7 @@
         </is>
       </c>
       <c r="P163" t="n">
-        <v>475</v>
+        <v>400</v>
       </c>
       <c r="Q163" t="n">
         <v>1</v>
@@ -12141,7 +12141,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44463</v>
+        <v>44330</v>
       </c>
       <c r="E164" t="n">
         <v>13</v>
@@ -12165,16 +12165,16 @@
         </is>
       </c>
       <c r="J164" t="n">
-        <v>970</v>
+        <v>1600</v>
       </c>
       <c r="K164" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="L164" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M164" t="n">
-        <v>475</v>
+        <v>400</v>
       </c>
       <c r="N164" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         </is>
       </c>
       <c r="P164" t="n">
-        <v>475</v>
+        <v>400</v>
       </c>
       <c r="Q164" t="n">
         <v>1</v>
@@ -12213,7 +12213,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44322</v>
+        <v>44463</v>
       </c>
       <c r="E165" t="n">
         <v>13</v>
@@ -12237,16 +12237,16 @@
         </is>
       </c>
       <c r="J165" t="n">
-        <v>1600</v>
+        <v>4300</v>
       </c>
       <c r="K165" t="n">
         <v>600</v>
       </c>
       <c r="L165" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="M165" t="n">
-        <v>600</v>
+        <v>625</v>
       </c>
       <c r="N165" t="inlineStr">
         <is>
@@ -12259,7 +12259,7 @@
         </is>
       </c>
       <c r="P165" t="n">
-        <v>600</v>
+        <v>625</v>
       </c>
       <c r="Q165" t="n">
         <v>1</v>
@@ -12285,7 +12285,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44322</v>
+        <v>44463</v>
       </c>
       <c r="E166" t="n">
         <v>13</v>
@@ -12315,10 +12315,10 @@
         <v>600</v>
       </c>
       <c r="L166" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="M166" t="n">
-        <v>600</v>
+        <v>625</v>
       </c>
       <c r="N166" t="inlineStr">
         <is>
@@ -12331,7 +12331,7 @@
         </is>
       </c>
       <c r="P166" t="n">
-        <v>600</v>
+        <v>625</v>
       </c>
       <c r="Q166" t="n">
         <v>1</v>
@@ -12357,7 +12357,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44322</v>
+        <v>44463</v>
       </c>
       <c r="E167" t="n">
         <v>13</v>
@@ -12381,16 +12381,16 @@
         </is>
       </c>
       <c r="J167" t="n">
-        <v>1600</v>
+        <v>1240</v>
       </c>
       <c r="K167" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="L167" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M167" t="n">
-        <v>400</v>
+        <v>475</v>
       </c>
       <c r="N167" t="inlineStr">
         <is>
@@ -12399,11 +12399,11 @@
       </c>
       <c r="O167" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P167" t="n">
-        <v>400</v>
+        <v>475</v>
       </c>
       <c r="Q167" t="n">
         <v>1</v>
@@ -12429,7 +12429,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44428</v>
+        <v>44463</v>
       </c>
       <c r="E168" t="n">
         <v>13</v>
@@ -12449,20 +12449,20 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J168" t="n">
-        <v>3400</v>
+        <v>970</v>
       </c>
       <c r="K168" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="L168" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M168" t="n">
-        <v>650</v>
+        <v>475</v>
       </c>
       <c r="N168" t="inlineStr">
         <is>
@@ -12471,11 +12471,11 @@
       </c>
       <c r="O168" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P168" t="n">
-        <v>650</v>
+        <v>475</v>
       </c>
       <c r="Q168" t="n">
         <v>1</v>
@@ -12501,7 +12501,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44428</v>
+        <v>44322</v>
       </c>
       <c r="E169" t="n">
         <v>13</v>
@@ -12525,16 +12525,16 @@
         </is>
       </c>
       <c r="J169" t="n">
-        <v>4300</v>
+        <v>1600</v>
       </c>
       <c r="K169" t="n">
         <v>600</v>
       </c>
       <c r="L169" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M169" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="N169" t="inlineStr">
         <is>
@@ -12543,11 +12543,11 @@
       </c>
       <c r="O169" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P169" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="Q169" t="n">
         <v>1</v>
@@ -12573,7 +12573,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44428</v>
+        <v>44322</v>
       </c>
       <c r="E170" t="n">
         <v>13</v>
@@ -12593,20 +12593,20 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J170" t="n">
-        <v>970</v>
+        <v>3400</v>
       </c>
       <c r="K170" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L170" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M170" t="n">
-        <v>451</v>
+        <v>600</v>
       </c>
       <c r="N170" t="inlineStr">
         <is>
@@ -12615,11 +12615,11 @@
       </c>
       <c r="O170" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P170" t="n">
-        <v>451</v>
+        <v>600</v>
       </c>
       <c r="Q170" t="n">
         <v>1</v>
@@ -12645,7 +12645,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44428</v>
+        <v>44322</v>
       </c>
       <c r="E171" t="n">
         <v>13</v>
@@ -12669,16 +12669,16 @@
         </is>
       </c>
       <c r="J171" t="n">
-        <v>1060</v>
+        <v>1600</v>
       </c>
       <c r="K171" t="n">
         <v>400</v>
       </c>
       <c r="L171" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M171" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="N171" t="inlineStr">
         <is>
@@ -12691,7 +12691,7 @@
         </is>
       </c>
       <c r="P171" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="Q171" t="n">
         <v>1</v>
@@ -12717,7 +12717,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44264</v>
+        <v>44428</v>
       </c>
       <c r="E172" t="n">
         <v>13</v>
@@ -12741,16 +12741,16 @@
         </is>
       </c>
       <c r="J172" t="n">
-        <v>1000</v>
+        <v>3400</v>
       </c>
       <c r="K172" t="n">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="L172" t="n">
-        <v>1200</v>
+        <v>700</v>
       </c>
       <c r="M172" t="n">
-        <v>1200</v>
+        <v>650</v>
       </c>
       <c r="N172" t="inlineStr">
         <is>
@@ -12763,7 +12763,7 @@
         </is>
       </c>
       <c r="P172" t="n">
-        <v>1200</v>
+        <v>650</v>
       </c>
       <c r="Q172" t="n">
         <v>1</v>
@@ -12789,7 +12789,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44315</v>
+        <v>44428</v>
       </c>
       <c r="E173" t="n">
         <v>13</v>
@@ -12813,7 +12813,7 @@
         </is>
       </c>
       <c r="J173" t="n">
-        <v>2500</v>
+        <v>4300</v>
       </c>
       <c r="K173" t="n">
         <v>600</v>
@@ -12831,7 +12831,7 @@
       </c>
       <c r="O173" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P173" t="n">
@@ -12861,7 +12861,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44315</v>
+        <v>44428</v>
       </c>
       <c r="E174" t="n">
         <v>13</v>
@@ -12881,20 +12881,20 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J174" t="n">
-        <v>1600</v>
+        <v>970</v>
       </c>
       <c r="K174" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L174" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M174" t="n">
-        <v>600</v>
+        <v>451</v>
       </c>
       <c r="N174" t="inlineStr">
         <is>
@@ -12903,11 +12903,11 @@
       </c>
       <c r="O174" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P174" t="n">
-        <v>600</v>
+        <v>451</v>
       </c>
       <c r="Q174" t="n">
         <v>1</v>
@@ -12933,7 +12933,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44343</v>
+        <v>44428</v>
       </c>
       <c r="E175" t="n">
         <v>13</v>
@@ -12953,20 +12953,20 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J175" t="n">
-        <v>4200</v>
+        <v>1060</v>
       </c>
       <c r="K175" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L175" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M175" t="n">
-        <v>650</v>
+        <v>450</v>
       </c>
       <c r="N175" t="inlineStr">
         <is>
@@ -12975,11 +12975,11 @@
       </c>
       <c r="O175" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P175" t="n">
-        <v>650</v>
+        <v>450</v>
       </c>
       <c r="Q175" t="n">
         <v>1</v>
@@ -13005,7 +13005,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44343</v>
+        <v>44264</v>
       </c>
       <c r="E176" t="n">
         <v>13</v>
@@ -13029,16 +13029,16 @@
         </is>
       </c>
       <c r="J176" t="n">
-        <v>3500</v>
+        <v>1000</v>
       </c>
       <c r="K176" t="n">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="L176" t="n">
-        <v>700</v>
+        <v>1200</v>
       </c>
       <c r="M176" t="n">
-        <v>650</v>
+        <v>1200</v>
       </c>
       <c r="N176" t="inlineStr">
         <is>
@@ -13047,11 +13047,11 @@
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P176" t="n">
-        <v>650</v>
+        <v>1200</v>
       </c>
       <c r="Q176" t="n">
         <v>1</v>
@@ -13077,7 +13077,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44343</v>
+        <v>44315</v>
       </c>
       <c r="E177" t="n">
         <v>13</v>
@@ -13097,20 +13097,20 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J177" t="n">
-        <v>1800</v>
+        <v>2500</v>
       </c>
       <c r="K177" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L177" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="M177" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="N177" t="inlineStr">
         <is>
@@ -13123,7 +13123,7 @@
         </is>
       </c>
       <c r="P177" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="Q177" t="n">
         <v>1</v>
@@ -13149,7 +13149,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44343</v>
+        <v>44315</v>
       </c>
       <c r="E178" t="n">
         <v>13</v>
@@ -13169,20 +13169,20 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J178" t="n">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="K178" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L178" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M178" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="N178" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         </is>
       </c>
       <c r="P178" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="Q178" t="n">
         <v>1</v>
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44195</v>
+        <v>44343</v>
       </c>
       <c r="E179" t="n">
         <v>13</v>
@@ -13245,16 +13245,16 @@
         </is>
       </c>
       <c r="J179" t="n">
-        <v>4300</v>
+        <v>4200</v>
       </c>
       <c r="K179" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="L179" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="M179" t="n">
-        <v>950</v>
+        <v>650</v>
       </c>
       <c r="N179" t="inlineStr">
         <is>
@@ -13267,7 +13267,7 @@
         </is>
       </c>
       <c r="P179" t="n">
-        <v>950</v>
+        <v>650</v>
       </c>
       <c r="Q179" t="n">
         <v>1</v>
@@ -13293,7 +13293,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44447</v>
+        <v>44343</v>
       </c>
       <c r="E180" t="n">
         <v>13</v>
@@ -13317,17 +13317,17 @@
         </is>
       </c>
       <c r="J180" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="K180" t="n">
         <v>600</v>
       </c>
       <c r="L180" t="n">
+        <v>700</v>
+      </c>
+      <c r="M180" t="n">
         <v>650</v>
       </c>
-      <c r="M180" t="n">
-        <v>625</v>
-      </c>
       <c r="N180" t="inlineStr">
         <is>
           <t>$/unidad</t>
@@ -13335,11 +13335,11 @@
       </c>
       <c r="O180" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P180" t="n">
-        <v>625</v>
+        <v>650</v>
       </c>
       <c r="Q180" t="n">
         <v>1</v>
@@ -13365,7 +13365,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44447</v>
+        <v>44343</v>
       </c>
       <c r="E181" t="n">
         <v>13</v>
@@ -13389,16 +13389,16 @@
         </is>
       </c>
       <c r="J181" t="n">
-        <v>970</v>
+        <v>1800</v>
       </c>
       <c r="K181" t="n">
         <v>400</v>
       </c>
       <c r="L181" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="M181" t="n">
-        <v>425</v>
+        <v>400</v>
       </c>
       <c r="N181" t="inlineStr">
         <is>
@@ -13411,7 +13411,7 @@
         </is>
       </c>
       <c r="P181" t="n">
-        <v>425</v>
+        <v>400</v>
       </c>
       <c r="Q181" t="n">
         <v>1</v>
@@ -13437,7 +13437,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44421</v>
+        <v>44343</v>
       </c>
       <c r="E182" t="n">
         <v>13</v>
@@ -13457,20 +13457,20 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J182" t="n">
-        <v>3400</v>
+        <v>1700</v>
       </c>
       <c r="K182" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L182" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="M182" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="N182" t="inlineStr">
         <is>
@@ -13479,11 +13479,11 @@
       </c>
       <c r="O182" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P182" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="Q182" t="n">
         <v>1</v>
@@ -13509,7 +13509,7 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>44421</v>
+        <v>44195</v>
       </c>
       <c r="E183" t="n">
         <v>13</v>
@@ -13536,13 +13536,13 @@
         <v>4300</v>
       </c>
       <c r="K183" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="L183" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="M183" t="n">
-        <v>650</v>
+        <v>950</v>
       </c>
       <c r="N183" t="inlineStr">
         <is>
@@ -13551,11 +13551,11 @@
       </c>
       <c r="O183" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P183" t="n">
-        <v>650</v>
+        <v>950</v>
       </c>
       <c r="Q183" t="n">
         <v>1</v>
@@ -13581,7 +13581,7 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>44421</v>
+        <v>44447</v>
       </c>
       <c r="E184" t="n">
         <v>13</v>
@@ -13601,20 +13601,20 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J184" t="n">
-        <v>1600</v>
+        <v>2500</v>
       </c>
       <c r="K184" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L184" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="M184" t="n">
-        <v>500</v>
+        <v>625</v>
       </c>
       <c r="N184" t="inlineStr">
         <is>
@@ -13627,7 +13627,7 @@
         </is>
       </c>
       <c r="P184" t="n">
-        <v>500</v>
+        <v>625</v>
       </c>
       <c r="Q184" t="n">
         <v>1</v>
@@ -13653,7 +13653,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44421</v>
+        <v>44447</v>
       </c>
       <c r="E185" t="n">
         <v>13</v>
@@ -13677,16 +13677,16 @@
         </is>
       </c>
       <c r="J185" t="n">
-        <v>2500</v>
+        <v>970</v>
       </c>
       <c r="K185" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L185" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="M185" t="n">
-        <v>500</v>
+        <v>425</v>
       </c>
       <c r="N185" t="inlineStr">
         <is>
@@ -13695,11 +13695,11 @@
       </c>
       <c r="O185" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P185" t="n">
-        <v>500</v>
+        <v>425</v>
       </c>
       <c r="Q185" t="n">
         <v>1</v>
@@ -13725,7 +13725,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44294</v>
+        <v>44421</v>
       </c>
       <c r="E186" t="n">
         <v>13</v>
@@ -13749,16 +13749,16 @@
         </is>
       </c>
       <c r="J186" t="n">
-        <v>1600</v>
+        <v>3400</v>
       </c>
       <c r="K186" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="L186" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M186" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="N186" t="inlineStr">
         <is>
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="P186" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="Q186" t="n">
         <v>1</v>
@@ -13797,7 +13797,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44294</v>
+        <v>44421</v>
       </c>
       <c r="E187" t="n">
         <v>13</v>
@@ -13821,16 +13821,16 @@
         </is>
       </c>
       <c r="J187" t="n">
-        <v>1600</v>
+        <v>4300</v>
       </c>
       <c r="K187" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="L187" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M187" t="n">
-        <v>900</v>
+        <v>650</v>
       </c>
       <c r="N187" t="inlineStr">
         <is>
@@ -13843,7 +13843,7 @@
         </is>
       </c>
       <c r="P187" t="n">
-        <v>900</v>
+        <v>650</v>
       </c>
       <c r="Q187" t="n">
         <v>1</v>
@@ -13869,7 +13869,7 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>44232</v>
+        <v>44421</v>
       </c>
       <c r="E188" t="n">
         <v>13</v>
@@ -13889,20 +13889,20 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J188" t="n">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="K188" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="L188" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="M188" t="n">
-        <v>1111</v>
+        <v>500</v>
       </c>
       <c r="N188" t="inlineStr">
         <is>
@@ -13915,7 +13915,7 @@
         </is>
       </c>
       <c r="P188" t="n">
-        <v>1111</v>
+        <v>500</v>
       </c>
       <c r="Q188" t="n">
         <v>1</v>
@@ -13941,7 +13941,7 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>44316</v>
+        <v>44421</v>
       </c>
       <c r="E189" t="n">
         <v>13</v>
@@ -13961,20 +13961,20 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J189" t="n">
-        <v>3400</v>
+        <v>2500</v>
       </c>
       <c r="K189" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L189" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M189" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="N189" t="inlineStr">
         <is>
@@ -13983,11 +13983,11 @@
       </c>
       <c r="O189" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P189" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="Q189" t="n">
         <v>1</v>
@@ -14013,7 +14013,7 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>44316</v>
+        <v>44294</v>
       </c>
       <c r="E190" t="n">
         <v>13</v>
@@ -14033,20 +14033,20 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J190" t="n">
         <v>1600</v>
       </c>
       <c r="K190" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="L190" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M190" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="N190" t="inlineStr">
         <is>
@@ -14059,7 +14059,7 @@
         </is>
       </c>
       <c r="P190" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="Q190" t="n">
         <v>1</v>
@@ -14085,7 +14085,7 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>44356</v>
+        <v>44294</v>
       </c>
       <c r="E191" t="n">
         <v>13</v>
@@ -14109,16 +14109,16 @@
         </is>
       </c>
       <c r="J191" t="n">
-        <v>2500</v>
+        <v>1600</v>
       </c>
       <c r="K191" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="L191" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="M191" t="n">
-        <v>550</v>
+        <v>900</v>
       </c>
       <c r="N191" t="inlineStr">
         <is>
@@ -14131,7 +14131,7 @@
         </is>
       </c>
       <c r="P191" t="n">
-        <v>550</v>
+        <v>900</v>
       </c>
       <c r="Q191" t="n">
         <v>1</v>
@@ -14157,7 +14157,7 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>44356</v>
+        <v>44232</v>
       </c>
       <c r="E192" t="n">
         <v>13</v>
@@ -14177,20 +14177,20 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J192" t="n">
-        <v>700</v>
+        <v>1800</v>
       </c>
       <c r="K192" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="L192" t="n">
-        <v>400</v>
+        <v>1200</v>
       </c>
       <c r="M192" t="n">
-        <v>400</v>
+        <v>1111</v>
       </c>
       <c r="N192" t="inlineStr">
         <is>
@@ -14199,11 +14199,11 @@
       </c>
       <c r="O192" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P192" t="n">
-        <v>400</v>
+        <v>1111</v>
       </c>
       <c r="Q192" t="n">
         <v>1</v>
@@ -14229,7 +14229,7 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>44454</v>
+        <v>44316</v>
       </c>
       <c r="E193" t="n">
         <v>13</v>
@@ -14253,17 +14253,17 @@
         </is>
       </c>
       <c r="J193" t="n">
-        <v>2500</v>
+        <v>3400</v>
       </c>
       <c r="K193" t="n">
         <v>600</v>
       </c>
       <c r="L193" t="n">
+        <v>700</v>
+      </c>
+      <c r="M193" t="n">
         <v>650</v>
       </c>
-      <c r="M193" t="n">
-        <v>625</v>
-      </c>
       <c r="N193" t="inlineStr">
         <is>
           <t>$/unidad</t>
@@ -14275,7 +14275,7 @@
         </is>
       </c>
       <c r="P193" t="n">
-        <v>625</v>
+        <v>650</v>
       </c>
       <c r="Q193" t="n">
         <v>1</v>
@@ -14301,7 +14301,7 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>44454</v>
+        <v>44316</v>
       </c>
       <c r="E194" t="n">
         <v>13</v>
@@ -14325,16 +14325,16 @@
         </is>
       </c>
       <c r="J194" t="n">
-        <v>970</v>
+        <v>1600</v>
       </c>
       <c r="K194" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="L194" t="n">
         <v>500</v>
       </c>
       <c r="M194" t="n">
-        <v>475</v>
+        <v>500</v>
       </c>
       <c r="N194" t="inlineStr">
         <is>
@@ -14347,7 +14347,7 @@
         </is>
       </c>
       <c r="P194" t="n">
-        <v>475</v>
+        <v>500</v>
       </c>
       <c r="Q194" t="n">
         <v>1</v>
@@ -14373,7 +14373,7 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>44467</v>
+        <v>44356</v>
       </c>
       <c r="E195" t="n">
         <v>13</v>
@@ -14397,16 +14397,16 @@
         </is>
       </c>
       <c r="J195" t="n">
-        <v>3400</v>
+        <v>2500</v>
       </c>
       <c r="K195" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="L195" t="n">
         <v>600</v>
       </c>
       <c r="M195" t="n">
-        <v>575</v>
+        <v>550</v>
       </c>
       <c r="N195" t="inlineStr">
         <is>
@@ -14415,11 +14415,11 @@
       </c>
       <c r="O195" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P195" t="n">
-        <v>575</v>
+        <v>550</v>
       </c>
       <c r="Q195" t="n">
         <v>1</v>
@@ -14445,7 +14445,7 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>44467</v>
+        <v>44356</v>
       </c>
       <c r="E196" t="n">
         <v>13</v>
@@ -14465,20 +14465,20 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J196" t="n">
-        <v>2500</v>
+        <v>700</v>
       </c>
       <c r="K196" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="L196" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M196" t="n">
-        <v>575</v>
+        <v>400</v>
       </c>
       <c r="N196" t="inlineStr">
         <is>
@@ -14491,7 +14491,7 @@
         </is>
       </c>
       <c r="P196" t="n">
-        <v>575</v>
+        <v>400</v>
       </c>
       <c r="Q196" t="n">
         <v>1</v>
@@ -14517,7 +14517,7 @@
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>44467</v>
+        <v>44454</v>
       </c>
       <c r="E197" t="n">
         <v>13</v>
@@ -14537,20 +14537,20 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J197" t="n">
-        <v>1330</v>
+        <v>2500</v>
       </c>
       <c r="K197" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L197" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="M197" t="n">
-        <v>425</v>
+        <v>625</v>
       </c>
       <c r="N197" t="inlineStr">
         <is>
@@ -14563,7 +14563,7 @@
         </is>
       </c>
       <c r="P197" t="n">
-        <v>425</v>
+        <v>625</v>
       </c>
       <c r="Q197" t="n">
         <v>1</v>
@@ -14589,7 +14589,7 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>44467</v>
+        <v>44454</v>
       </c>
       <c r="E198" t="n">
         <v>13</v>
@@ -14616,13 +14616,13 @@
         <v>970</v>
       </c>
       <c r="K198" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="L198" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="M198" t="n">
-        <v>425</v>
+        <v>475</v>
       </c>
       <c r="N198" t="inlineStr">
         <is>
@@ -14631,11 +14631,11 @@
       </c>
       <c r="O198" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P198" t="n">
-        <v>425</v>
+        <v>475</v>
       </c>
       <c r="Q198" t="n">
         <v>1</v>
@@ -14661,7 +14661,7 @@
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>44427</v>
+        <v>44467</v>
       </c>
       <c r="E199" t="n">
         <v>13</v>
@@ -14685,16 +14685,16 @@
         </is>
       </c>
       <c r="J199" t="n">
-        <v>4300</v>
+        <v>3400</v>
       </c>
       <c r="K199" t="n">
+        <v>550</v>
+      </c>
+      <c r="L199" t="n">
         <v>600</v>
       </c>
-      <c r="L199" t="n">
-        <v>700</v>
-      </c>
       <c r="M199" t="n">
-        <v>650</v>
+        <v>575</v>
       </c>
       <c r="N199" t="inlineStr">
         <is>
@@ -14707,7 +14707,7 @@
         </is>
       </c>
       <c r="P199" t="n">
-        <v>650</v>
+        <v>575</v>
       </c>
       <c r="Q199" t="n">
         <v>1</v>
@@ -14733,7 +14733,7 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>44427</v>
+        <v>44467</v>
       </c>
       <c r="E200" t="n">
         <v>13</v>
@@ -14753,20 +14753,20 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J200" t="n">
-        <v>1600</v>
+        <v>2500</v>
       </c>
       <c r="K200" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="L200" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M200" t="n">
-        <v>450</v>
+        <v>575</v>
       </c>
       <c r="N200" t="inlineStr">
         <is>
@@ -14775,11 +14775,11 @@
       </c>
       <c r="O200" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P200" t="n">
-        <v>450</v>
+        <v>575</v>
       </c>
       <c r="Q200" t="n">
         <v>1</v>
@@ -14805,7 +14805,7 @@
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>44319</v>
+        <v>44467</v>
       </c>
       <c r="E201" t="n">
         <v>13</v>
@@ -14825,20 +14825,20 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J201" t="n">
-        <v>1600</v>
+        <v>1330</v>
       </c>
       <c r="K201" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="L201" t="n">
-        <v>700</v>
+        <v>450</v>
       </c>
       <c r="M201" t="n">
-        <v>700</v>
+        <v>425</v>
       </c>
       <c r="N201" t="inlineStr">
         <is>
@@ -14851,7 +14851,7 @@
         </is>
       </c>
       <c r="P201" t="n">
-        <v>700</v>
+        <v>425</v>
       </c>
       <c r="Q201" t="n">
         <v>1</v>
@@ -14877,7 +14877,7 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>44273</v>
+        <v>44467</v>
       </c>
       <c r="E202" t="n">
         <v>13</v>
@@ -14897,20 +14897,20 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J202" t="n">
-        <v>1600</v>
+        <v>970</v>
       </c>
       <c r="K202" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="L202" t="n">
-        <v>1000</v>
+        <v>450</v>
       </c>
       <c r="M202" t="n">
-        <v>1000</v>
+        <v>425</v>
       </c>
       <c r="N202" t="inlineStr">
         <is>
@@ -14919,11 +14919,11 @@
       </c>
       <c r="O202" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P202" t="n">
-        <v>1000</v>
+        <v>425</v>
       </c>
       <c r="Q202" t="n">
         <v>1</v>
@@ -14949,7 +14949,7 @@
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>44411</v>
+        <v>44427</v>
       </c>
       <c r="E203" t="n">
         <v>13</v>
@@ -14973,16 +14973,16 @@
         </is>
       </c>
       <c r="J203" t="n">
-        <v>3400</v>
+        <v>4300</v>
       </c>
       <c r="K203" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L203" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M203" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="N203" t="inlineStr">
         <is>
@@ -14995,7 +14995,7 @@
         </is>
       </c>
       <c r="P203" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="Q203" t="n">
         <v>1</v>
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>44411</v>
+        <v>44427</v>
       </c>
       <c r="E204" t="n">
         <v>13</v>
@@ -15041,20 +15041,20 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J204" t="n">
-        <v>2500</v>
+        <v>1600</v>
       </c>
       <c r="K204" t="n">
+        <v>400</v>
+      </c>
+      <c r="L204" t="n">
         <v>500</v>
       </c>
-      <c r="L204" t="n">
-        <v>600</v>
-      </c>
       <c r="M204" t="n">
-        <v>550</v>
+        <v>450</v>
       </c>
       <c r="N204" t="inlineStr">
         <is>
@@ -15063,11 +15063,11 @@
       </c>
       <c r="O204" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P204" t="n">
-        <v>550</v>
+        <v>450</v>
       </c>
       <c r="Q204" t="n">
         <v>1</v>
@@ -15093,7 +15093,7 @@
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>44411</v>
+        <v>44319</v>
       </c>
       <c r="E205" t="n">
         <v>13</v>
@@ -15113,20 +15113,20 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J205" t="n">
-        <v>970</v>
+        <v>1600</v>
       </c>
       <c r="K205" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="L205" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="M205" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="N205" t="inlineStr">
         <is>
@@ -15139,7 +15139,7 @@
         </is>
       </c>
       <c r="P205" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="Q205" t="n">
         <v>1</v>
@@ -15165,7 +15165,7 @@
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>44411</v>
+        <v>44273</v>
       </c>
       <c r="E206" t="n">
         <v>13</v>
@@ -15185,20 +15185,20 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J206" t="n">
-        <v>790</v>
+        <v>1600</v>
       </c>
       <c r="K206" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="L206" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="M206" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="N206" t="inlineStr">
         <is>
@@ -15207,11 +15207,11 @@
       </c>
       <c r="O206" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P206" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="Q206" t="n">
         <v>1</v>
@@ -15237,7 +15237,7 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>44215</v>
+        <v>44411</v>
       </c>
       <c r="E207" t="n">
         <v>13</v>
@@ -15261,16 +15261,16 @@
         </is>
       </c>
       <c r="J207" t="n">
-        <v>2000</v>
+        <v>3400</v>
       </c>
       <c r="K207" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="L207" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="M207" t="n">
-        <v>950</v>
+        <v>550</v>
       </c>
       <c r="N207" t="inlineStr">
         <is>
@@ -15279,11 +15279,11 @@
       </c>
       <c r="O207" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P207" t="n">
-        <v>950</v>
+        <v>550</v>
       </c>
       <c r="Q207" t="n">
         <v>1</v>
@@ -15309,7 +15309,7 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>44235</v>
+        <v>44411</v>
       </c>
       <c r="E208" t="n">
         <v>13</v>
@@ -15333,16 +15333,16 @@
         </is>
       </c>
       <c r="J208" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="K208" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="L208" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="M208" t="n">
-        <v>1000</v>
+        <v>550</v>
       </c>
       <c r="N208" t="inlineStr">
         <is>
@@ -15351,11 +15351,11 @@
       </c>
       <c r="O208" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P208" t="n">
-        <v>1000</v>
+        <v>550</v>
       </c>
       <c r="Q208" t="n">
         <v>1</v>
@@ -15381,7 +15381,7 @@
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>44403</v>
+        <v>44411</v>
       </c>
       <c r="E209" t="n">
         <v>13</v>
@@ -15401,20 +15401,20 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J209" t="n">
-        <v>1600</v>
+        <v>970</v>
       </c>
       <c r="K209" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L209" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M209" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="N209" t="inlineStr">
         <is>
@@ -15427,7 +15427,7 @@
         </is>
       </c>
       <c r="P209" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="Q209" t="n">
         <v>1</v>
@@ -15453,7 +15453,7 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>44403</v>
+        <v>44411</v>
       </c>
       <c r="E210" t="n">
         <v>13</v>
@@ -15477,7 +15477,7 @@
         </is>
       </c>
       <c r="J210" t="n">
-        <v>970</v>
+        <v>790</v>
       </c>
       <c r="K210" t="n">
         <v>400</v>
@@ -15495,7 +15495,7 @@
       </c>
       <c r="O210" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P210" t="n">
@@ -15525,7 +15525,7 @@
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>44203</v>
+        <v>44215</v>
       </c>
       <c r="E211" t="n">
         <v>13</v>
@@ -15549,16 +15549,16 @@
         </is>
       </c>
       <c r="J211" t="n">
-        <v>4500</v>
+        <v>2000</v>
       </c>
       <c r="K211" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="L211" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M211" t="n">
-        <v>756</v>
+        <v>950</v>
       </c>
       <c r="N211" t="inlineStr">
         <is>
@@ -15567,11 +15567,11 @@
       </c>
       <c r="O211" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P211" t="n">
-        <v>756</v>
+        <v>950</v>
       </c>
       <c r="Q211" t="n">
         <v>1</v>
@@ -15597,7 +15597,7 @@
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>44203</v>
+        <v>44235</v>
       </c>
       <c r="E212" t="n">
         <v>13</v>
@@ -15617,20 +15617,20 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J212" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="K212" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="L212" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="M212" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="N212" t="inlineStr">
         <is>
@@ -15639,11 +15639,11 @@
       </c>
       <c r="O212" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P212" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="Q212" t="n">
         <v>1</v>
@@ -15669,7 +15669,7 @@
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>44413</v>
+        <v>44403</v>
       </c>
       <c r="E213" t="n">
         <v>13</v>
@@ -15693,16 +15693,16 @@
         </is>
       </c>
       <c r="J213" t="n">
-        <v>4300</v>
+        <v>1600</v>
       </c>
       <c r="K213" t="n">
+        <v>500</v>
+      </c>
+      <c r="L213" t="n">
         <v>600</v>
       </c>
-      <c r="L213" t="n">
-        <v>700</v>
-      </c>
       <c r="M213" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="N213" t="inlineStr">
         <is>
@@ -15715,7 +15715,7 @@
         </is>
       </c>
       <c r="P213" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="Q213" t="n">
         <v>1</v>
@@ -15741,7 +15741,7 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>44413</v>
+        <v>44403</v>
       </c>
       <c r="E214" t="n">
         <v>13</v>
@@ -15761,20 +15761,20 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J214" t="n">
-        <v>5200</v>
+        <v>970</v>
       </c>
       <c r="K214" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L214" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="M214" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="N214" t="inlineStr">
         <is>
@@ -15783,11 +15783,11 @@
       </c>
       <c r="O214" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P214" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="Q214" t="n">
         <v>1</v>
@@ -15813,7 +15813,7 @@
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>44413</v>
+        <v>44203</v>
       </c>
       <c r="E215" t="n">
         <v>13</v>
@@ -15833,20 +15833,20 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J215" t="n">
-        <v>2500</v>
+        <v>4500</v>
       </c>
       <c r="K215" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L215" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M215" t="n">
-        <v>500</v>
+        <v>756</v>
       </c>
       <c r="N215" t="inlineStr">
         <is>
@@ -15855,11 +15855,11 @@
       </c>
       <c r="O215" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P215" t="n">
-        <v>500</v>
+        <v>756</v>
       </c>
       <c r="Q215" t="n">
         <v>1</v>
@@ -15885,7 +15885,7 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>44413</v>
+        <v>44203</v>
       </c>
       <c r="E216" t="n">
         <v>13</v>
@@ -15909,16 +15909,16 @@
         </is>
       </c>
       <c r="J216" t="n">
-        <v>3400</v>
+        <v>2000</v>
       </c>
       <c r="K216" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L216" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M216" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N216" t="inlineStr">
         <is>
@@ -15927,11 +15927,11 @@
       </c>
       <c r="O216" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P216" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q216" t="n">
         <v>1</v>
@@ -15957,7 +15957,7 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44426</v>
+        <v>44413</v>
       </c>
       <c r="E217" t="n">
         <v>13</v>
@@ -15981,7 +15981,7 @@
         </is>
       </c>
       <c r="J217" t="n">
-        <v>3400</v>
+        <v>4300</v>
       </c>
       <c r="K217" t="n">
         <v>600</v>
@@ -16029,7 +16029,7 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>44426</v>
+        <v>44413</v>
       </c>
       <c r="E218" t="n">
         <v>13</v>
@@ -16049,20 +16049,20 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J218" t="n">
-        <v>970</v>
+        <v>5200</v>
       </c>
       <c r="K218" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L218" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="M218" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="N218" t="inlineStr">
         <is>
@@ -16071,11 +16071,11 @@
       </c>
       <c r="O218" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P218" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="Q218" t="n">
         <v>1</v>
@@ -16101,7 +16101,7 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>44469</v>
+        <v>44413</v>
       </c>
       <c r="E219" t="n">
         <v>13</v>
@@ -16121,20 +16121,20 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J219" t="n">
-        <v>3400</v>
+        <v>2500</v>
       </c>
       <c r="K219" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L219" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="M219" t="n">
-        <v>625</v>
+        <v>500</v>
       </c>
       <c r="N219" t="inlineStr">
         <is>
@@ -16147,7 +16147,7 @@
         </is>
       </c>
       <c r="P219" t="n">
-        <v>625</v>
+        <v>500</v>
       </c>
       <c r="Q219" t="n">
         <v>1</v>
@@ -16173,7 +16173,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44469</v>
+        <v>44413</v>
       </c>
       <c r="E220" t="n">
         <v>13</v>
@@ -16193,20 +16193,20 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J220" t="n">
-        <v>2500</v>
+        <v>3400</v>
       </c>
       <c r="K220" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L220" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="M220" t="n">
-        <v>625</v>
+        <v>500</v>
       </c>
       <c r="N220" t="inlineStr">
         <is>
@@ -16219,7 +16219,7 @@
         </is>
       </c>
       <c r="P220" t="n">
-        <v>625</v>
+        <v>500</v>
       </c>
       <c r="Q220" t="n">
         <v>1</v>
@@ -16245,7 +16245,7 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44469</v>
+        <v>44426</v>
       </c>
       <c r="E221" t="n">
         <v>13</v>
@@ -16265,20 +16265,20 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J221" t="n">
-        <v>1060</v>
+        <v>3400</v>
       </c>
       <c r="K221" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="L221" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M221" t="n">
-        <v>475</v>
+        <v>650</v>
       </c>
       <c r="N221" t="inlineStr">
         <is>
@@ -16291,7 +16291,7 @@
         </is>
       </c>
       <c r="P221" t="n">
-        <v>475</v>
+        <v>650</v>
       </c>
       <c r="Q221" t="n">
         <v>1</v>
@@ -16317,7 +16317,7 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>44469</v>
+        <v>44426</v>
       </c>
       <c r="E222" t="n">
         <v>13</v>
@@ -16344,13 +16344,13 @@
         <v>970</v>
       </c>
       <c r="K222" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="L222" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M222" t="n">
-        <v>475</v>
+        <v>400</v>
       </c>
       <c r="N222" t="inlineStr">
         <is>
@@ -16359,11 +16359,11 @@
       </c>
       <c r="O222" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P222" t="n">
-        <v>475</v>
+        <v>400</v>
       </c>
       <c r="Q222" t="n">
         <v>1</v>
@@ -16389,7 +16389,7 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>44434</v>
+        <v>44469</v>
       </c>
       <c r="E223" t="n">
         <v>13</v>
@@ -16461,7 +16461,7 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>44434</v>
+        <v>44469</v>
       </c>
       <c r="E224" t="n">
         <v>13</v>
@@ -16485,7 +16485,7 @@
         </is>
       </c>
       <c r="J224" t="n">
-        <v>4300</v>
+        <v>2500</v>
       </c>
       <c r="K224" t="n">
         <v>600</v>
@@ -16533,7 +16533,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44434</v>
+        <v>44469</v>
       </c>
       <c r="E225" t="n">
         <v>13</v>
@@ -16557,16 +16557,16 @@
         </is>
       </c>
       <c r="J225" t="n">
-        <v>970</v>
+        <v>1060</v>
       </c>
       <c r="K225" t="n">
+        <v>450</v>
+      </c>
+      <c r="L225" t="n">
         <v>500</v>
       </c>
-      <c r="L225" t="n">
-        <v>550</v>
-      </c>
       <c r="M225" t="n">
-        <v>525</v>
+        <v>475</v>
       </c>
       <c r="N225" t="inlineStr">
         <is>
@@ -16579,7 +16579,7 @@
         </is>
       </c>
       <c r="P225" t="n">
-        <v>525</v>
+        <v>475</v>
       </c>
       <c r="Q225" t="n">
         <v>1</v>
@@ -16605,7 +16605,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44434</v>
+        <v>44469</v>
       </c>
       <c r="E226" t="n">
         <v>13</v>
@@ -16629,16 +16629,16 @@
         </is>
       </c>
       <c r="J226" t="n">
-        <v>1600</v>
+        <v>970</v>
       </c>
       <c r="K226" t="n">
+        <v>450</v>
+      </c>
+      <c r="L226" t="n">
         <v>500</v>
       </c>
-      <c r="L226" t="n">
-        <v>550</v>
-      </c>
       <c r="M226" t="n">
-        <v>525</v>
+        <v>475</v>
       </c>
       <c r="N226" t="inlineStr">
         <is>
@@ -16651,7 +16651,7 @@
         </is>
       </c>
       <c r="P226" t="n">
-        <v>525</v>
+        <v>475</v>
       </c>
       <c r="Q226" t="n">
         <v>1</v>
@@ -16677,7 +16677,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44292</v>
+        <v>44434</v>
       </c>
       <c r="E227" t="n">
         <v>13</v>
@@ -16701,16 +16701,16 @@
         </is>
       </c>
       <c r="J227" t="n">
-        <v>1600</v>
+        <v>3400</v>
       </c>
       <c r="K227" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="L227" t="n">
-        <v>900</v>
+        <v>650</v>
       </c>
       <c r="M227" t="n">
-        <v>900</v>
+        <v>625</v>
       </c>
       <c r="N227" t="inlineStr">
         <is>
@@ -16723,7 +16723,7 @@
         </is>
       </c>
       <c r="P227" t="n">
-        <v>900</v>
+        <v>625</v>
       </c>
       <c r="Q227" t="n">
         <v>1</v>
@@ -16749,7 +16749,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44161</v>
+        <v>44434</v>
       </c>
       <c r="E228" t="n">
         <v>13</v>
@@ -16773,16 +16773,16 @@
         </is>
       </c>
       <c r="J228" t="n">
-        <v>4500</v>
+        <v>4300</v>
       </c>
       <c r="K228" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L228" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="M228" t="n">
-        <v>456</v>
+        <v>625</v>
       </c>
       <c r="N228" t="inlineStr">
         <is>
@@ -16791,11 +16791,11 @@
       </c>
       <c r="O228" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P228" t="n">
-        <v>456</v>
+        <v>625</v>
       </c>
       <c r="Q228" t="n">
         <v>1</v>
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44351</v>
+        <v>44434</v>
       </c>
       <c r="E229" t="n">
         <v>13</v>
@@ -16841,20 +16841,20 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J229" t="n">
-        <v>3400</v>
+        <v>970</v>
       </c>
       <c r="K229" t="n">
         <v>500</v>
       </c>
       <c r="L229" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="M229" t="n">
-        <v>550</v>
+        <v>525</v>
       </c>
       <c r="N229" t="inlineStr">
         <is>
@@ -16867,7 +16867,7 @@
         </is>
       </c>
       <c r="P229" t="n">
-        <v>550</v>
+        <v>525</v>
       </c>
       <c r="Q229" t="n">
         <v>1</v>
@@ -16893,7 +16893,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44351</v>
+        <v>44434</v>
       </c>
       <c r="E230" t="n">
         <v>13</v>
@@ -16913,20 +16913,20 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J230" t="n">
-        <v>4300</v>
+        <v>1600</v>
       </c>
       <c r="K230" t="n">
         <v>500</v>
       </c>
       <c r="L230" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="M230" t="n">
-        <v>550</v>
+        <v>525</v>
       </c>
       <c r="N230" t="inlineStr">
         <is>
@@ -16939,7 +16939,7 @@
         </is>
       </c>
       <c r="P230" t="n">
-        <v>550</v>
+        <v>525</v>
       </c>
       <c r="Q230" t="n">
         <v>1</v>
@@ -16965,7 +16965,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44351</v>
+        <v>44292</v>
       </c>
       <c r="E231" t="n">
         <v>13</v>
@@ -16985,20 +16985,20 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J231" t="n">
         <v>1600</v>
       </c>
       <c r="K231" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="L231" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="M231" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="N231" t="inlineStr">
         <is>
@@ -17011,7 +17011,7 @@
         </is>
       </c>
       <c r="P231" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="Q231" t="n">
         <v>1</v>
@@ -17037,7 +17037,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44351</v>
+        <v>44161</v>
       </c>
       <c r="E232" t="n">
         <v>13</v>
@@ -17057,20 +17057,20 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J232" t="n">
-        <v>2500</v>
+        <v>4500</v>
       </c>
       <c r="K232" t="n">
         <v>400</v>
       </c>
       <c r="L232" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M232" t="n">
-        <v>400</v>
+        <v>456</v>
       </c>
       <c r="N232" t="inlineStr">
         <is>
@@ -17079,11 +17079,11 @@
       </c>
       <c r="O232" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P232" t="n">
-        <v>400</v>
+        <v>456</v>
       </c>
       <c r="Q232" t="n">
         <v>1</v>
@@ -17109,7 +17109,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44214</v>
+        <v>44351</v>
       </c>
       <c r="E233" t="n">
         <v>13</v>
@@ -17133,16 +17133,16 @@
         </is>
       </c>
       <c r="J233" t="n">
-        <v>1300</v>
+        <v>3400</v>
       </c>
       <c r="K233" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="L233" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="M233" t="n">
-        <v>1000</v>
+        <v>550</v>
       </c>
       <c r="N233" t="inlineStr">
         <is>
@@ -17155,7 +17155,7 @@
         </is>
       </c>
       <c r="P233" t="n">
-        <v>1000</v>
+        <v>550</v>
       </c>
       <c r="Q233" t="n">
         <v>1</v>
@@ -17181,7 +17181,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44280</v>
+        <v>44351</v>
       </c>
       <c r="E234" t="n">
         <v>13</v>
@@ -17205,16 +17205,16 @@
         </is>
       </c>
       <c r="J234" t="n">
-        <v>1600</v>
+        <v>4300</v>
       </c>
       <c r="K234" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="L234" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="M234" t="n">
-        <v>900</v>
+        <v>550</v>
       </c>
       <c r="N234" t="inlineStr">
         <is>
@@ -17223,11 +17223,11 @@
       </c>
       <c r="O234" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P234" t="n">
-        <v>900</v>
+        <v>550</v>
       </c>
       <c r="Q234" t="n">
         <v>1</v>
@@ -17253,7 +17253,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44274</v>
+        <v>44351</v>
       </c>
       <c r="E235" t="n">
         <v>13</v>
@@ -17273,20 +17273,20 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J235" t="n">
         <v>1600</v>
       </c>
       <c r="K235" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="L235" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="M235" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="N235" t="inlineStr">
         <is>
@@ -17299,7 +17299,7 @@
         </is>
       </c>
       <c r="P235" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="Q235" t="n">
         <v>1</v>
@@ -17325,7 +17325,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44445</v>
+        <v>44351</v>
       </c>
       <c r="E236" t="n">
         <v>13</v>
@@ -17345,20 +17345,20 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J236" t="n">
         <v>2500</v>
       </c>
       <c r="K236" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L236" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="M236" t="n">
-        <v>625</v>
+        <v>400</v>
       </c>
       <c r="N236" t="inlineStr">
         <is>
@@ -17367,11 +17367,11 @@
       </c>
       <c r="O236" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P236" t="n">
-        <v>625</v>
+        <v>400</v>
       </c>
       <c r="Q236" t="n">
         <v>1</v>
@@ -17397,7 +17397,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44445</v>
+        <v>44214</v>
       </c>
       <c r="E237" t="n">
         <v>13</v>
@@ -17417,20 +17417,20 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J237" t="n">
-        <v>970</v>
+        <v>1300</v>
       </c>
       <c r="K237" t="n">
-        <v>450</v>
+        <v>1000</v>
       </c>
       <c r="L237" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="M237" t="n">
-        <v>475</v>
+        <v>1000</v>
       </c>
       <c r="N237" t="inlineStr">
         <is>
@@ -17443,7 +17443,7 @@
         </is>
       </c>
       <c r="P237" t="n">
-        <v>475</v>
+        <v>1000</v>
       </c>
       <c r="Q237" t="n">
         <v>1</v>
@@ -17469,7 +17469,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44229</v>
+        <v>44280</v>
       </c>
       <c r="E238" t="n">
         <v>13</v>
@@ -17493,16 +17493,16 @@
         </is>
       </c>
       <c r="J238" t="n">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="K238" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="L238" t="n">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="M238" t="n">
-        <v>1089</v>
+        <v>900</v>
       </c>
       <c r="N238" t="inlineStr">
         <is>
@@ -17511,11 +17511,11 @@
       </c>
       <c r="O238" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P238" t="n">
-        <v>1089</v>
+        <v>900</v>
       </c>
       <c r="Q238" t="n">
         <v>1</v>
@@ -17541,7 +17541,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44344</v>
+        <v>44274</v>
       </c>
       <c r="E239" t="n">
         <v>13</v>
@@ -17565,16 +17565,16 @@
         </is>
       </c>
       <c r="J239" t="n">
-        <v>5200</v>
+        <v>1600</v>
       </c>
       <c r="K239" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="L239" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="M239" t="n">
-        <v>550</v>
+        <v>1000</v>
       </c>
       <c r="N239" t="inlineStr">
         <is>
@@ -17587,7 +17587,7 @@
         </is>
       </c>
       <c r="P239" t="n">
-        <v>550</v>
+        <v>1000</v>
       </c>
       <c r="Q239" t="n">
         <v>1</v>
@@ -17613,7 +17613,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44344</v>
+        <v>44445</v>
       </c>
       <c r="E240" t="n">
         <v>13</v>
@@ -17637,16 +17637,16 @@
         </is>
       </c>
       <c r="J240" t="n">
-        <v>3900</v>
+        <v>2500</v>
       </c>
       <c r="K240" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L240" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="M240" t="n">
-        <v>550</v>
+        <v>625</v>
       </c>
       <c r="N240" t="inlineStr">
         <is>
@@ -17655,11 +17655,11 @@
       </c>
       <c r="O240" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P240" t="n">
-        <v>550</v>
+        <v>625</v>
       </c>
       <c r="Q240" t="n">
         <v>1</v>
@@ -17685,7 +17685,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44344</v>
+        <v>44445</v>
       </c>
       <c r="E241" t="n">
         <v>13</v>
@@ -17709,16 +17709,16 @@
         </is>
       </c>
       <c r="J241" t="n">
-        <v>2100</v>
+        <v>970</v>
       </c>
       <c r="K241" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="L241" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M241" t="n">
-        <v>400</v>
+        <v>475</v>
       </c>
       <c r="N241" t="inlineStr">
         <is>
@@ -17731,7 +17731,7 @@
         </is>
       </c>
       <c r="P241" t="n">
-        <v>400</v>
+        <v>475</v>
       </c>
       <c r="Q241" t="n">
         <v>1</v>
@@ -17757,7 +17757,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44344</v>
+        <v>44229</v>
       </c>
       <c r="E242" t="n">
         <v>13</v>
@@ -17777,20 +17777,20 @@
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J242" t="n">
         <v>1800</v>
       </c>
       <c r="K242" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="L242" t="n">
-        <v>400</v>
+        <v>1200</v>
       </c>
       <c r="M242" t="n">
-        <v>400</v>
+        <v>1089</v>
       </c>
       <c r="N242" t="inlineStr">
         <is>
@@ -17799,11 +17799,11 @@
       </c>
       <c r="O242" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P242" t="n">
-        <v>400</v>
+        <v>1089</v>
       </c>
       <c r="Q242" t="n">
         <v>1</v>
@@ -17829,7 +17829,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44407</v>
+        <v>44344</v>
       </c>
       <c r="E243" t="n">
         <v>13</v>
@@ -17853,7 +17853,7 @@
         </is>
       </c>
       <c r="J243" t="n">
-        <v>2500</v>
+        <v>5200</v>
       </c>
       <c r="K243" t="n">
         <v>500</v>
@@ -17901,7 +17901,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44407</v>
+        <v>44344</v>
       </c>
       <c r="E244" t="n">
         <v>13</v>
@@ -17925,7 +17925,7 @@
         </is>
       </c>
       <c r="J244" t="n">
-        <v>3400</v>
+        <v>3900</v>
       </c>
       <c r="K244" t="n">
         <v>500</v>
@@ -17973,7 +17973,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44407</v>
+        <v>44344</v>
       </c>
       <c r="E245" t="n">
         <v>13</v>
@@ -17997,7 +17997,7 @@
         </is>
       </c>
       <c r="J245" t="n">
-        <v>790</v>
+        <v>2100</v>
       </c>
       <c r="K245" t="n">
         <v>400</v>
@@ -18045,7 +18045,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44407</v>
+        <v>44344</v>
       </c>
       <c r="E246" t="n">
         <v>13</v>
@@ -18069,7 +18069,7 @@
         </is>
       </c>
       <c r="J246" t="n">
-        <v>970</v>
+        <v>1800</v>
       </c>
       <c r="K246" t="n">
         <v>400</v>
@@ -18117,7 +18117,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44358</v>
+        <v>44407</v>
       </c>
       <c r="E247" t="n">
         <v>13</v>
@@ -18141,7 +18141,7 @@
         </is>
       </c>
       <c r="J247" t="n">
-        <v>4300</v>
+        <v>2500</v>
       </c>
       <c r="K247" t="n">
         <v>500</v>
@@ -18189,7 +18189,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44358</v>
+        <v>44407</v>
       </c>
       <c r="E248" t="n">
         <v>13</v>
@@ -18261,7 +18261,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44358</v>
+        <v>44407</v>
       </c>
       <c r="E249" t="n">
         <v>13</v>
@@ -18285,7 +18285,7 @@
         </is>
       </c>
       <c r="J249" t="n">
-        <v>2500</v>
+        <v>790</v>
       </c>
       <c r="K249" t="n">
         <v>400</v>
@@ -18333,7 +18333,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44358</v>
+        <v>44407</v>
       </c>
       <c r="E250" t="n">
         <v>13</v>
@@ -18357,7 +18357,7 @@
         </is>
       </c>
       <c r="J250" t="n">
-        <v>1600</v>
+        <v>970</v>
       </c>
       <c r="K250" t="n">
         <v>400</v>
@@ -18405,7 +18405,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44391</v>
+        <v>44358</v>
       </c>
       <c r="E251" t="n">
         <v>13</v>
@@ -18429,7 +18429,7 @@
         </is>
       </c>
       <c r="J251" t="n">
-        <v>1600</v>
+        <v>4300</v>
       </c>
       <c r="K251" t="n">
         <v>500</v>
@@ -18477,7 +18477,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44391</v>
+        <v>44358</v>
       </c>
       <c r="E252" t="n">
         <v>13</v>
@@ -18501,7 +18501,7 @@
         </is>
       </c>
       <c r="J252" t="n">
-        <v>2500</v>
+        <v>3400</v>
       </c>
       <c r="K252" t="n">
         <v>500</v>
@@ -18549,7 +18549,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44391</v>
+        <v>44358</v>
       </c>
       <c r="E253" t="n">
         <v>13</v>
@@ -18573,7 +18573,7 @@
         </is>
       </c>
       <c r="J253" t="n">
-        <v>520</v>
+        <v>2500</v>
       </c>
       <c r="K253" t="n">
         <v>400</v>
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44391</v>
+        <v>44358</v>
       </c>
       <c r="E254" t="n">
         <v>13</v>
@@ -18645,7 +18645,7 @@
         </is>
       </c>
       <c r="J254" t="n">
-        <v>970</v>
+        <v>1600</v>
       </c>
       <c r="K254" t="n">
         <v>400</v>
@@ -18693,7 +18693,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44335</v>
+        <v>44391</v>
       </c>
       <c r="E255" t="n">
         <v>13</v>
@@ -18717,16 +18717,16 @@
         </is>
       </c>
       <c r="J255" t="n">
-        <v>3400</v>
+        <v>1600</v>
       </c>
       <c r="K255" t="n">
+        <v>500</v>
+      </c>
+      <c r="L255" t="n">
         <v>600</v>
       </c>
-      <c r="L255" t="n">
-        <v>700</v>
-      </c>
       <c r="M255" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="N255" t="inlineStr">
         <is>
@@ -18739,7 +18739,7 @@
         </is>
       </c>
       <c r="P255" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="Q255" t="n">
         <v>1</v>
@@ -18765,7 +18765,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44335</v>
+        <v>44391</v>
       </c>
       <c r="E256" t="n">
         <v>13</v>
@@ -18792,13 +18792,13 @@
         <v>2500</v>
       </c>
       <c r="K256" t="n">
+        <v>500</v>
+      </c>
+      <c r="L256" t="n">
         <v>600</v>
       </c>
-      <c r="L256" t="n">
-        <v>700</v>
-      </c>
       <c r="M256" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="N256" t="inlineStr">
         <is>
@@ -18811,7 +18811,7 @@
         </is>
       </c>
       <c r="P256" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="Q256" t="n">
         <v>1</v>
@@ -18837,7 +18837,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44335</v>
+        <v>44391</v>
       </c>
       <c r="E257" t="n">
         <v>13</v>
@@ -18861,16 +18861,16 @@
         </is>
       </c>
       <c r="J257" t="n">
-        <v>1600</v>
+        <v>520</v>
       </c>
       <c r="K257" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L257" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M257" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="N257" t="inlineStr">
         <is>
@@ -18883,7 +18883,7 @@
         </is>
       </c>
       <c r="P257" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="Q257" t="n">
         <v>1</v>
@@ -18909,7 +18909,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44335</v>
+        <v>44391</v>
       </c>
       <c r="E258" t="n">
         <v>13</v>
@@ -18933,16 +18933,16 @@
         </is>
       </c>
       <c r="J258" t="n">
-        <v>700</v>
+        <v>970</v>
       </c>
       <c r="K258" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L258" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M258" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="N258" t="inlineStr">
         <is>
@@ -18955,7 +18955,7 @@
         </is>
       </c>
       <c r="P258" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="Q258" t="n">
         <v>1</v>
@@ -18981,7 +18981,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44320</v>
+        <v>44335</v>
       </c>
       <c r="E259" t="n">
         <v>13</v>
@@ -19005,16 +19005,16 @@
         </is>
       </c>
       <c r="J259" t="n">
-        <v>2500</v>
+        <v>3400</v>
       </c>
       <c r="K259" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="L259" t="n">
         <v>700</v>
       </c>
       <c r="M259" t="n">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="N259" t="inlineStr">
         <is>
@@ -19027,7 +19027,7 @@
         </is>
       </c>
       <c r="P259" t="n">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="Q259" t="n">
         <v>1</v>
@@ -19053,7 +19053,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44320</v>
+        <v>44335</v>
       </c>
       <c r="E260" t="n">
         <v>13</v>
@@ -19073,20 +19073,20 @@
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J260" t="n">
+        <v>2500</v>
+      </c>
+      <c r="K260" t="n">
+        <v>600</v>
+      </c>
+      <c r="L260" t="n">
         <v>700</v>
       </c>
-      <c r="K260" t="n">
-        <v>500</v>
-      </c>
-      <c r="L260" t="n">
-        <v>500</v>
-      </c>
       <c r="M260" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="N260" t="inlineStr">
         <is>
@@ -19095,11 +19095,11 @@
       </c>
       <c r="O260" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P260" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="Q260" t="n">
         <v>1</v>
@@ -19125,7 +19125,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44475</v>
+        <v>44335</v>
       </c>
       <c r="E261" t="n">
         <v>13</v>
@@ -19145,20 +19145,20 @@
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J261" t="n">
-        <v>2500</v>
+        <v>1600</v>
       </c>
       <c r="K261" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L261" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="M261" t="n">
-        <v>625</v>
+        <v>500</v>
       </c>
       <c r="N261" t="inlineStr">
         <is>
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="P261" t="n">
-        <v>625</v>
+        <v>500</v>
       </c>
       <c r="Q261" t="n">
         <v>1</v>
@@ -19197,7 +19197,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44475</v>
+        <v>44335</v>
       </c>
       <c r="E262" t="n">
         <v>13</v>
@@ -19221,16 +19221,16 @@
         </is>
       </c>
       <c r="J262" t="n">
-        <v>1060</v>
+        <v>700</v>
       </c>
       <c r="K262" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="L262" t="n">
         <v>500</v>
       </c>
       <c r="M262" t="n">
-        <v>475</v>
+        <v>500</v>
       </c>
       <c r="N262" t="inlineStr">
         <is>
@@ -19239,11 +19239,11 @@
       </c>
       <c r="O262" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P262" t="n">
-        <v>475</v>
+        <v>500</v>
       </c>
       <c r="Q262" t="n">
         <v>1</v>
@@ -19269,7 +19269,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44474</v>
+        <v>44320</v>
       </c>
       <c r="E263" t="n">
         <v>13</v>
@@ -19293,16 +19293,16 @@
         </is>
       </c>
       <c r="J263" t="n">
-        <v>4300</v>
+        <v>2500</v>
       </c>
       <c r="K263" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L263" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="M263" t="n">
-        <v>625</v>
+        <v>700</v>
       </c>
       <c r="N263" t="inlineStr">
         <is>
@@ -19315,7 +19315,7 @@
         </is>
       </c>
       <c r="P263" t="n">
-        <v>625</v>
+        <v>700</v>
       </c>
       <c r="Q263" t="n">
         <v>1</v>
@@ -19341,7 +19341,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44474</v>
+        <v>44320</v>
       </c>
       <c r="E264" t="n">
         <v>13</v>
@@ -19361,20 +19361,20 @@
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J264" t="n">
-        <v>3400</v>
+        <v>700</v>
       </c>
       <c r="K264" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L264" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="M264" t="n">
-        <v>625</v>
+        <v>500</v>
       </c>
       <c r="N264" t="inlineStr">
         <is>
@@ -19383,11 +19383,11 @@
       </c>
       <c r="O264" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P264" t="n">
-        <v>625</v>
+        <v>500</v>
       </c>
       <c r="Q264" t="n">
         <v>1</v>
@@ -19413,7 +19413,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44474</v>
+        <v>44475</v>
       </c>
       <c r="E265" t="n">
         <v>13</v>
@@ -19433,20 +19433,20 @@
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J265" t="n">
-        <v>1780</v>
+        <v>2500</v>
       </c>
       <c r="K265" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="L265" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="M265" t="n">
-        <v>475</v>
+        <v>625</v>
       </c>
       <c r="N265" t="inlineStr">
         <is>
@@ -19459,7 +19459,7 @@
         </is>
       </c>
       <c r="P265" t="n">
-        <v>475</v>
+        <v>625</v>
       </c>
       <c r="Q265" t="n">
         <v>1</v>
@@ -19485,7 +19485,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44474</v>
+        <v>44475</v>
       </c>
       <c r="E266" t="n">
         <v>13</v>
@@ -19527,7 +19527,7 @@
       </c>
       <c r="O266" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P266" t="n">
@@ -19557,7 +19557,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44252</v>
+        <v>44474</v>
       </c>
       <c r="E267" t="n">
         <v>13</v>
@@ -19581,16 +19581,16 @@
         </is>
       </c>
       <c r="J267" t="n">
-        <v>1200</v>
+        <v>4300</v>
       </c>
       <c r="K267" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="L267" t="n">
-        <v>1000</v>
+        <v>650</v>
       </c>
       <c r="M267" t="n">
-        <v>1000</v>
+        <v>625</v>
       </c>
       <c r="N267" t="inlineStr">
         <is>
@@ -19599,11 +19599,11 @@
       </c>
       <c r="O267" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P267" t="n">
-        <v>1000</v>
+        <v>625</v>
       </c>
       <c r="Q267" t="n">
         <v>1</v>
@@ -19629,7 +19629,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44252</v>
+        <v>44474</v>
       </c>
       <c r="E268" t="n">
         <v>13</v>
@@ -19649,20 +19649,20 @@
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J268" t="n">
-        <v>300</v>
+        <v>3400</v>
       </c>
       <c r="K268" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="L268" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="M268" t="n">
-        <v>800</v>
+        <v>625</v>
       </c>
       <c r="N268" t="inlineStr">
         <is>
@@ -19671,11 +19671,11 @@
       </c>
       <c r="O268" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P268" t="n">
-        <v>800</v>
+        <v>625</v>
       </c>
       <c r="Q268" t="n">
         <v>1</v>
@@ -19701,7 +19701,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44204</v>
+        <v>44474</v>
       </c>
       <c r="E269" t="n">
         <v>13</v>
@@ -19721,20 +19721,20 @@
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J269" t="n">
-        <v>4300</v>
+        <v>1780</v>
       </c>
       <c r="K269" t="n">
-        <v>700</v>
+        <v>450</v>
       </c>
       <c r="L269" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M269" t="n">
-        <v>747</v>
+        <v>475</v>
       </c>
       <c r="N269" t="inlineStr">
         <is>
@@ -19743,11 +19743,11 @@
       </c>
       <c r="O269" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P269" t="n">
-        <v>747</v>
+        <v>475</v>
       </c>
       <c r="Q269" t="n">
         <v>1</v>
@@ -19773,7 +19773,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44362</v>
+        <v>44474</v>
       </c>
       <c r="E270" t="n">
         <v>13</v>
@@ -19793,20 +19793,20 @@
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J270" t="n">
-        <v>2500</v>
+        <v>1060</v>
       </c>
       <c r="K270" t="n">
+        <v>450</v>
+      </c>
+      <c r="L270" t="n">
         <v>500</v>
       </c>
-      <c r="L270" t="n">
-        <v>600</v>
-      </c>
       <c r="M270" t="n">
-        <v>550</v>
+        <v>475</v>
       </c>
       <c r="N270" t="inlineStr">
         <is>
@@ -19815,11 +19815,11 @@
       </c>
       <c r="O270" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P270" t="n">
-        <v>550</v>
+        <v>475</v>
       </c>
       <c r="Q270" t="n">
         <v>1</v>
@@ -19845,7 +19845,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44362</v>
+        <v>44252</v>
       </c>
       <c r="E271" t="n">
         <v>13</v>
@@ -19869,16 +19869,16 @@
         </is>
       </c>
       <c r="J271" t="n">
-        <v>3400</v>
+        <v>1200</v>
       </c>
       <c r="K271" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="L271" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="M271" t="n">
-        <v>550</v>
+        <v>1000</v>
       </c>
       <c r="N271" t="inlineStr">
         <is>
@@ -19887,11 +19887,11 @@
       </c>
       <c r="O271" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P271" t="n">
-        <v>550</v>
+        <v>1000</v>
       </c>
       <c r="Q271" t="n">
         <v>1</v>
@@ -19917,7 +19917,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44362</v>
+        <v>44252</v>
       </c>
       <c r="E272" t="n">
         <v>13</v>
@@ -19941,16 +19941,16 @@
         </is>
       </c>
       <c r="J272" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="K272" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="L272" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="M272" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="N272" t="inlineStr">
         <is>
@@ -19959,11 +19959,11 @@
       </c>
       <c r="O272" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P272" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="Q272" t="n">
         <v>1</v>
@@ -19989,7 +19989,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44362</v>
+        <v>44204</v>
       </c>
       <c r="E273" t="n">
         <v>13</v>
@@ -20009,20 +20009,20 @@
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J273" t="n">
-        <v>1600</v>
+        <v>4300</v>
       </c>
       <c r="K273" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="L273" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="M273" t="n">
-        <v>400</v>
+        <v>747</v>
       </c>
       <c r="N273" t="inlineStr">
         <is>
@@ -20031,11 +20031,11 @@
       </c>
       <c r="O273" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P273" t="n">
-        <v>400</v>
+        <v>747</v>
       </c>
       <c r="Q273" t="n">
         <v>1</v>
@@ -20061,7 +20061,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44300</v>
+        <v>44362</v>
       </c>
       <c r="E274" t="n">
         <v>13</v>
@@ -20085,16 +20085,16 @@
         </is>
       </c>
       <c r="J274" t="n">
-        <v>1600</v>
+        <v>2500</v>
       </c>
       <c r="K274" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L274" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M274" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="N274" t="inlineStr">
         <is>
@@ -20107,7 +20107,7 @@
         </is>
       </c>
       <c r="P274" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="Q274" t="n">
         <v>1</v>
@@ -20133,7 +20133,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44349</v>
+        <v>44362</v>
       </c>
       <c r="E275" t="n">
         <v>13</v>
@@ -20157,7 +20157,7 @@
         </is>
       </c>
       <c r="J275" t="n">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="K275" t="n">
         <v>500</v>
@@ -20205,7 +20205,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44349</v>
+        <v>44362</v>
       </c>
       <c r="E276" t="n">
         <v>13</v>
@@ -20229,7 +20229,7 @@
         </is>
       </c>
       <c r="J276" t="n">
-        <v>1500</v>
+        <v>700</v>
       </c>
       <c r="K276" t="n">
         <v>400</v>
@@ -20247,7 +20247,7 @@
       </c>
       <c r="O276" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P276" t="n">
@@ -20277,7 +20277,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44372</v>
+        <v>44362</v>
       </c>
       <c r="E277" t="n">
         <v>13</v>
@@ -20297,20 +20297,20 @@
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J277" t="n">
-        <v>3400</v>
+        <v>1600</v>
       </c>
       <c r="K277" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L277" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M277" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="N277" t="inlineStr">
         <is>
@@ -20319,11 +20319,11 @@
       </c>
       <c r="O277" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P277" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="Q277" t="n">
         <v>1</v>
@@ -20349,7 +20349,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44372</v>
+        <v>44300</v>
       </c>
       <c r="E278" t="n">
         <v>13</v>
@@ -20369,20 +20369,20 @@
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J278" t="n">
-        <v>970</v>
+        <v>1600</v>
       </c>
       <c r="K278" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="L278" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="M278" t="n">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="N278" t="inlineStr">
         <is>
@@ -20395,7 +20395,7 @@
         </is>
       </c>
       <c r="P278" t="n">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="Q278" t="n">
         <v>1</v>
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44350</v>
+        <v>44349</v>
       </c>
       <c r="E279" t="n">
         <v>13</v>
@@ -20445,16 +20445,16 @@
         </is>
       </c>
       <c r="J279" t="n">
-        <v>21000</v>
+        <v>3300</v>
       </c>
       <c r="K279" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L279" t="n">
         <v>600</v>
       </c>
       <c r="M279" t="n">
-        <v>467</v>
+        <v>550</v>
       </c>
       <c r="N279" t="inlineStr">
         <is>
@@ -20463,11 +20463,11 @@
       </c>
       <c r="O279" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P279" t="n">
-        <v>467</v>
+        <v>550</v>
       </c>
       <c r="Q279" t="n">
         <v>1</v>
@@ -20493,7 +20493,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44350</v>
+        <v>44349</v>
       </c>
       <c r="E280" t="n">
         <v>13</v>
@@ -20513,20 +20513,20 @@
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J280" t="n">
-        <v>6200</v>
+        <v>1500</v>
       </c>
       <c r="K280" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L280" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M280" t="n">
-        <v>523</v>
+        <v>400</v>
       </c>
       <c r="N280" t="inlineStr">
         <is>
@@ -20539,7 +20539,7 @@
         </is>
       </c>
       <c r="P280" t="n">
-        <v>523</v>
+        <v>400</v>
       </c>
       <c r="Q280" t="n">
         <v>1</v>
@@ -20565,7 +20565,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44350</v>
+        <v>44372</v>
       </c>
       <c r="E281" t="n">
         <v>13</v>
@@ -20585,20 +20585,20 @@
       </c>
       <c r="I281" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J281" t="n">
-        <v>7500</v>
+        <v>3400</v>
       </c>
       <c r="K281" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="L281" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M281" t="n">
-        <v>299</v>
+        <v>550</v>
       </c>
       <c r="N281" t="inlineStr">
         <is>
@@ -20611,7 +20611,7 @@
         </is>
       </c>
       <c r="P281" t="n">
-        <v>299</v>
+        <v>550</v>
       </c>
       <c r="Q281" t="n">
         <v>1</v>
@@ -20637,7 +20637,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44350</v>
+        <v>44372</v>
       </c>
       <c r="E282" t="n">
         <v>13</v>
@@ -20661,7 +20661,7 @@
         </is>
       </c>
       <c r="J282" t="n">
-        <v>1300</v>
+        <v>970</v>
       </c>
       <c r="K282" t="n">
         <v>400</v>
@@ -20679,7 +20679,7 @@
       </c>
       <c r="O282" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P282" t="n">
@@ -20709,7 +20709,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44448</v>
+        <v>44350</v>
       </c>
       <c r="E283" t="n">
         <v>13</v>
@@ -20733,16 +20733,16 @@
         </is>
       </c>
       <c r="J283" t="n">
-        <v>3400</v>
+        <v>21000</v>
       </c>
       <c r="K283" t="n">
+        <v>400</v>
+      </c>
+      <c r="L283" t="n">
         <v>600</v>
       </c>
-      <c r="L283" t="n">
-        <v>650</v>
-      </c>
       <c r="M283" t="n">
-        <v>625</v>
+        <v>467</v>
       </c>
       <c r="N283" t="inlineStr">
         <is>
@@ -20755,7 +20755,7 @@
         </is>
       </c>
       <c r="P283" t="n">
-        <v>625</v>
+        <v>467</v>
       </c>
       <c r="Q283" t="n">
         <v>1</v>
@@ -20781,7 +20781,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44448</v>
+        <v>44350</v>
       </c>
       <c r="E284" t="n">
         <v>13</v>
@@ -20805,16 +20805,16 @@
         </is>
       </c>
       <c r="J284" t="n">
-        <v>4300</v>
+        <v>6200</v>
       </c>
       <c r="K284" t="n">
+        <v>500</v>
+      </c>
+      <c r="L284" t="n">
         <v>600</v>
       </c>
-      <c r="L284" t="n">
-        <v>650</v>
-      </c>
       <c r="M284" t="n">
-        <v>625</v>
+        <v>523</v>
       </c>
       <c r="N284" t="inlineStr">
         <is>
@@ -20827,7 +20827,7 @@
         </is>
       </c>
       <c r="P284" t="n">
-        <v>625</v>
+        <v>523</v>
       </c>
       <c r="Q284" t="n">
         <v>1</v>
@@ -20853,7 +20853,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44448</v>
+        <v>44350</v>
       </c>
       <c r="E285" t="n">
         <v>13</v>
@@ -20877,16 +20877,16 @@
         </is>
       </c>
       <c r="J285" t="n">
-        <v>970</v>
+        <v>7500</v>
       </c>
       <c r="K285" t="n">
-        <v>450</v>
+        <v>250</v>
       </c>
       <c r="L285" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M285" t="n">
-        <v>475</v>
+        <v>299</v>
       </c>
       <c r="N285" t="inlineStr">
         <is>
@@ -20899,7 +20899,7 @@
         </is>
       </c>
       <c r="P285" t="n">
-        <v>475</v>
+        <v>299</v>
       </c>
       <c r="Q285" t="n">
         <v>1</v>
@@ -20925,7 +20925,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44448</v>
+        <v>44350</v>
       </c>
       <c r="E286" t="n">
         <v>13</v>
@@ -20949,16 +20949,16 @@
         </is>
       </c>
       <c r="J286" t="n">
-        <v>1600</v>
+        <v>1300</v>
       </c>
       <c r="K286" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="L286" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M286" t="n">
-        <v>475</v>
+        <v>400</v>
       </c>
       <c r="N286" t="inlineStr">
         <is>
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="P286" t="n">
-        <v>475</v>
+        <v>400</v>
       </c>
       <c r="Q286" t="n">
         <v>1</v>
@@ -20997,7 +20997,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44385</v>
+        <v>44448</v>
       </c>
       <c r="E287" t="n">
         <v>13</v>
@@ -21024,13 +21024,13 @@
         <v>3400</v>
       </c>
       <c r="K287" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L287" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="M287" t="n">
-        <v>550</v>
+        <v>625</v>
       </c>
       <c r="N287" t="inlineStr">
         <is>
@@ -21043,7 +21043,7 @@
         </is>
       </c>
       <c r="P287" t="n">
-        <v>550</v>
+        <v>625</v>
       </c>
       <c r="Q287" t="n">
         <v>1</v>
@@ -21069,7 +21069,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44385</v>
+        <v>44448</v>
       </c>
       <c r="E288" t="n">
         <v>13</v>
@@ -21096,13 +21096,13 @@
         <v>4300</v>
       </c>
       <c r="K288" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L288" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="M288" t="n">
-        <v>550</v>
+        <v>625</v>
       </c>
       <c r="N288" t="inlineStr">
         <is>
@@ -21115,7 +21115,7 @@
         </is>
       </c>
       <c r="P288" t="n">
-        <v>550</v>
+        <v>625</v>
       </c>
       <c r="Q288" t="n">
         <v>1</v>
@@ -21141,7 +21141,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44385</v>
+        <v>44448</v>
       </c>
       <c r="E289" t="n">
         <v>13</v>
@@ -21168,13 +21168,13 @@
         <v>970</v>
       </c>
       <c r="K289" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="L289" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M289" t="n">
-        <v>400</v>
+        <v>475</v>
       </c>
       <c r="N289" t="inlineStr">
         <is>
@@ -21187,7 +21187,7 @@
         </is>
       </c>
       <c r="P289" t="n">
-        <v>400</v>
+        <v>475</v>
       </c>
       <c r="Q289" t="n">
         <v>1</v>
@@ -21213,7 +21213,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44385</v>
+        <v>44448</v>
       </c>
       <c r="E290" t="n">
         <v>13</v>
@@ -21240,13 +21240,13 @@
         <v>1600</v>
       </c>
       <c r="K290" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="L290" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M290" t="n">
-        <v>400</v>
+        <v>475</v>
       </c>
       <c r="N290" t="inlineStr">
         <is>
@@ -21259,7 +21259,7 @@
         </is>
       </c>
       <c r="P290" t="n">
-        <v>400</v>
+        <v>475</v>
       </c>
       <c r="Q290" t="n">
         <v>1</v>
@@ -21285,7 +21285,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44202</v>
+        <v>44385</v>
       </c>
       <c r="E291" t="n">
         <v>13</v>
@@ -21309,16 +21309,16 @@
         </is>
       </c>
       <c r="J291" t="n">
-        <v>3100</v>
+        <v>3400</v>
       </c>
       <c r="K291" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L291" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M291" t="n">
-        <v>748</v>
+        <v>550</v>
       </c>
       <c r="N291" t="inlineStr">
         <is>
@@ -21327,11 +21327,11 @@
       </c>
       <c r="O291" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P291" t="n">
-        <v>748</v>
+        <v>550</v>
       </c>
       <c r="Q291" t="n">
         <v>1</v>
@@ -21357,7 +21357,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44453</v>
+        <v>44385</v>
       </c>
       <c r="E292" t="n">
         <v>13</v>
@@ -21384,13 +21384,13 @@
         <v>4300</v>
       </c>
       <c r="K292" t="n">
+        <v>500</v>
+      </c>
+      <c r="L292" t="n">
         <v>600</v>
       </c>
-      <c r="L292" t="n">
-        <v>650</v>
-      </c>
       <c r="M292" t="n">
-        <v>625</v>
+        <v>550</v>
       </c>
       <c r="N292" t="inlineStr">
         <is>
@@ -21399,11 +21399,11 @@
       </c>
       <c r="O292" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P292" t="n">
-        <v>625</v>
+        <v>550</v>
       </c>
       <c r="Q292" t="n">
         <v>1</v>
@@ -21429,7 +21429,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44453</v>
+        <v>44385</v>
       </c>
       <c r="E293" t="n">
         <v>13</v>
@@ -21449,20 +21449,20 @@
       </c>
       <c r="I293" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J293" t="n">
-        <v>3400</v>
+        <v>970</v>
       </c>
       <c r="K293" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L293" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="M293" t="n">
-        <v>625</v>
+        <v>400</v>
       </c>
       <c r="N293" t="inlineStr">
         <is>
@@ -21471,11 +21471,11 @@
       </c>
       <c r="O293" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P293" t="n">
-        <v>625</v>
+        <v>400</v>
       </c>
       <c r="Q293" t="n">
         <v>1</v>
@@ -21501,7 +21501,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44453</v>
+        <v>44385</v>
       </c>
       <c r="E294" t="n">
         <v>13</v>
@@ -21525,16 +21525,16 @@
         </is>
       </c>
       <c r="J294" t="n">
-        <v>1330</v>
+        <v>1600</v>
       </c>
       <c r="K294" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="L294" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M294" t="n">
-        <v>475</v>
+        <v>400</v>
       </c>
       <c r="N294" t="inlineStr">
         <is>
@@ -21543,11 +21543,11 @@
       </c>
       <c r="O294" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P294" t="n">
-        <v>475</v>
+        <v>400</v>
       </c>
       <c r="Q294" t="n">
         <v>1</v>
@@ -21573,7 +21573,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44453</v>
+        <v>44202</v>
       </c>
       <c r="E295" t="n">
         <v>13</v>
@@ -21593,20 +21593,20 @@
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J295" t="n">
-        <v>970</v>
+        <v>3100</v>
       </c>
       <c r="K295" t="n">
-        <v>450</v>
+        <v>700</v>
       </c>
       <c r="L295" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M295" t="n">
-        <v>475</v>
+        <v>748</v>
       </c>
       <c r="N295" t="inlineStr">
         <is>
@@ -21615,11 +21615,11 @@
       </c>
       <c r="O295" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P295" t="n">
-        <v>475</v>
+        <v>748</v>
       </c>
       <c r="Q295" t="n">
         <v>1</v>
@@ -21645,7 +21645,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44435</v>
+        <v>44453</v>
       </c>
       <c r="E296" t="n">
         <v>13</v>
@@ -21669,16 +21669,16 @@
         </is>
       </c>
       <c r="J296" t="n">
-        <v>18800</v>
+        <v>4300</v>
       </c>
       <c r="K296" t="n">
         <v>600</v>
       </c>
       <c r="L296" t="n">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="M296" t="n">
-        <v>636</v>
+        <v>625</v>
       </c>
       <c r="N296" t="inlineStr">
         <is>
@@ -21691,7 +21691,7 @@
         </is>
       </c>
       <c r="P296" t="n">
-        <v>636</v>
+        <v>625</v>
       </c>
       <c r="Q296" t="n">
         <v>1</v>
@@ -21717,7 +21717,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44435</v>
+        <v>44453</v>
       </c>
       <c r="E297" t="n">
         <v>13</v>
@@ -21741,16 +21741,16 @@
         </is>
       </c>
       <c r="J297" t="n">
-        <v>13600</v>
+        <v>3400</v>
       </c>
       <c r="K297" t="n">
         <v>600</v>
       </c>
       <c r="L297" t="n">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="M297" t="n">
-        <v>638</v>
+        <v>625</v>
       </c>
       <c r="N297" t="inlineStr">
         <is>
@@ -21763,7 +21763,7 @@
         </is>
       </c>
       <c r="P297" t="n">
-        <v>638</v>
+        <v>625</v>
       </c>
       <c r="Q297" t="n">
         <v>1</v>
@@ -21789,7 +21789,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44435</v>
+        <v>44453</v>
       </c>
       <c r="E298" t="n">
         <v>13</v>
@@ -21813,16 +21813,16 @@
         </is>
       </c>
       <c r="J298" t="n">
-        <v>7550</v>
+        <v>1330</v>
       </c>
       <c r="K298" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="L298" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M298" t="n">
-        <v>530</v>
+        <v>475</v>
       </c>
       <c r="N298" t="inlineStr">
         <is>
@@ -21835,7 +21835,7 @@
         </is>
       </c>
       <c r="P298" t="n">
-        <v>530</v>
+        <v>475</v>
       </c>
       <c r="Q298" t="n">
         <v>1</v>
@@ -21861,7 +21861,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44435</v>
+        <v>44453</v>
       </c>
       <c r="E299" t="n">
         <v>13</v>
@@ -21885,16 +21885,16 @@
         </is>
       </c>
       <c r="J299" t="n">
-        <v>5680</v>
+        <v>970</v>
       </c>
       <c r="K299" t="n">
+        <v>450</v>
+      </c>
+      <c r="L299" t="n">
         <v>500</v>
       </c>
-      <c r="L299" t="n">
-        <v>600</v>
-      </c>
       <c r="M299" t="n">
-        <v>534</v>
+        <v>475</v>
       </c>
       <c r="N299" t="inlineStr">
         <is>
@@ -21907,7 +21907,7 @@
         </is>
       </c>
       <c r="P299" t="n">
-        <v>534</v>
+        <v>475</v>
       </c>
       <c r="Q299" t="n">
         <v>1</v>
@@ -21933,7 +21933,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44377</v>
+        <v>44435</v>
       </c>
       <c r="E300" t="n">
         <v>13</v>
@@ -21957,16 +21957,16 @@
         </is>
       </c>
       <c r="J300" t="n">
-        <v>1600</v>
+        <v>18800</v>
       </c>
       <c r="K300" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L300" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M300" t="n">
-        <v>550</v>
+        <v>636</v>
       </c>
       <c r="N300" t="inlineStr">
         <is>
@@ -21979,7 +21979,7 @@
         </is>
       </c>
       <c r="P300" t="n">
-        <v>550</v>
+        <v>636</v>
       </c>
       <c r="Q300" t="n">
         <v>1</v>
@@ -22005,7 +22005,7 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>44377</v>
+        <v>44435</v>
       </c>
       <c r="E301" t="n">
         <v>13</v>
@@ -22029,16 +22029,16 @@
         </is>
       </c>
       <c r="J301" t="n">
-        <v>2500</v>
+        <v>13600</v>
       </c>
       <c r="K301" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L301" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M301" t="n">
-        <v>550</v>
+        <v>638</v>
       </c>
       <c r="N301" t="inlineStr">
         <is>
@@ -22051,7 +22051,7 @@
         </is>
       </c>
       <c r="P301" t="n">
-        <v>550</v>
+        <v>638</v>
       </c>
       <c r="Q301" t="n">
         <v>1</v>
@@ -22077,7 +22077,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44377</v>
+        <v>44435</v>
       </c>
       <c r="E302" t="n">
         <v>13</v>
@@ -22101,16 +22101,16 @@
         </is>
       </c>
       <c r="J302" t="n">
-        <v>520</v>
+        <v>7550</v>
       </c>
       <c r="K302" t="n">
         <v>400</v>
       </c>
       <c r="L302" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M302" t="n">
-        <v>400</v>
+        <v>530</v>
       </c>
       <c r="N302" t="inlineStr">
         <is>
@@ -22123,7 +22123,7 @@
         </is>
       </c>
       <c r="P302" t="n">
-        <v>400</v>
+        <v>530</v>
       </c>
       <c r="Q302" t="n">
         <v>1</v>
@@ -22149,7 +22149,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44377</v>
+        <v>44435</v>
       </c>
       <c r="E303" t="n">
         <v>13</v>
@@ -22173,16 +22173,16 @@
         </is>
       </c>
       <c r="J303" t="n">
-        <v>970</v>
+        <v>5680</v>
       </c>
       <c r="K303" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L303" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M303" t="n">
-        <v>400</v>
+        <v>534</v>
       </c>
       <c r="N303" t="inlineStr">
         <is>
@@ -22195,7 +22195,7 @@
         </is>
       </c>
       <c r="P303" t="n">
-        <v>400</v>
+        <v>534</v>
       </c>
       <c r="Q303" t="n">
         <v>1</v>
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44433</v>
+        <v>44377</v>
       </c>
       <c r="E304" t="n">
         <v>13</v>
@@ -22245,16 +22245,16 @@
         </is>
       </c>
       <c r="J304" t="n">
-        <v>3400</v>
+        <v>1600</v>
       </c>
       <c r="K304" t="n">
+        <v>500</v>
+      </c>
+      <c r="L304" t="n">
         <v>600</v>
       </c>
-      <c r="L304" t="n">
-        <v>650</v>
-      </c>
       <c r="M304" t="n">
-        <v>625</v>
+        <v>550</v>
       </c>
       <c r="N304" t="inlineStr">
         <is>
@@ -22267,7 +22267,7 @@
         </is>
       </c>
       <c r="P304" t="n">
-        <v>625</v>
+        <v>550</v>
       </c>
       <c r="Q304" t="n">
         <v>1</v>
@@ -22293,7 +22293,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44433</v>
+        <v>44377</v>
       </c>
       <c r="E305" t="n">
         <v>13</v>
@@ -22317,16 +22317,16 @@
         </is>
       </c>
       <c r="J305" t="n">
-        <v>1600</v>
+        <v>2500</v>
       </c>
       <c r="K305" t="n">
+        <v>500</v>
+      </c>
+      <c r="L305" t="n">
         <v>600</v>
       </c>
-      <c r="L305" t="n">
-        <v>650</v>
-      </c>
       <c r="M305" t="n">
-        <v>625</v>
+        <v>550</v>
       </c>
       <c r="N305" t="inlineStr">
         <is>
@@ -22339,7 +22339,7 @@
         </is>
       </c>
       <c r="P305" t="n">
-        <v>625</v>
+        <v>550</v>
       </c>
       <c r="Q305" t="n">
         <v>1</v>
@@ -22365,7 +22365,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44433</v>
+        <v>44377</v>
       </c>
       <c r="E306" t="n">
         <v>13</v>
@@ -22389,16 +22389,16 @@
         </is>
       </c>
       <c r="J306" t="n">
-        <v>970</v>
+        <v>520</v>
       </c>
       <c r="K306" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L306" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="M306" t="n">
-        <v>525</v>
+        <v>400</v>
       </c>
       <c r="N306" t="inlineStr">
         <is>
@@ -22411,7 +22411,7 @@
         </is>
       </c>
       <c r="P306" t="n">
-        <v>525</v>
+        <v>400</v>
       </c>
       <c r="Q306" t="n">
         <v>1</v>
@@ -22437,7 +22437,7 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>44433</v>
+        <v>44377</v>
       </c>
       <c r="E307" t="n">
         <v>13</v>
@@ -22461,16 +22461,16 @@
         </is>
       </c>
       <c r="J307" t="n">
-        <v>610</v>
+        <v>970</v>
       </c>
       <c r="K307" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L307" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="M307" t="n">
-        <v>525</v>
+        <v>400</v>
       </c>
       <c r="N307" t="inlineStr">
         <is>
@@ -22483,7 +22483,7 @@
         </is>
       </c>
       <c r="P307" t="n">
-        <v>525</v>
+        <v>400</v>
       </c>
       <c r="Q307" t="n">
         <v>1</v>
@@ -22509,7 +22509,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44307</v>
+        <v>44433</v>
       </c>
       <c r="E308" t="n">
         <v>13</v>
@@ -22533,16 +22533,16 @@
         </is>
       </c>
       <c r="J308" t="n">
-        <v>2100</v>
+        <v>3400</v>
       </c>
       <c r="K308" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="L308" t="n">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="M308" t="n">
-        <v>700</v>
+        <v>625</v>
       </c>
       <c r="N308" t="inlineStr">
         <is>
@@ -22555,7 +22555,7 @@
         </is>
       </c>
       <c r="P308" t="n">
-        <v>700</v>
+        <v>625</v>
       </c>
       <c r="Q308" t="n">
         <v>1</v>
@@ -22581,7 +22581,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44159</v>
+        <v>44433</v>
       </c>
       <c r="E309" t="n">
         <v>13</v>
@@ -22605,16 +22605,16 @@
         </is>
       </c>
       <c r="J309" t="n">
-        <v>4500</v>
+        <v>1600</v>
       </c>
       <c r="K309" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L309" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="M309" t="n">
-        <v>544</v>
+        <v>625</v>
       </c>
       <c r="N309" t="inlineStr">
         <is>
@@ -22623,11 +22623,11 @@
       </c>
       <c r="O309" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P309" t="n">
-        <v>544</v>
+        <v>625</v>
       </c>
       <c r="Q309" t="n">
         <v>1</v>
@@ -22653,7 +22653,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44166</v>
+        <v>44433</v>
       </c>
       <c r="E310" t="n">
         <v>13</v>
@@ -22673,20 +22673,20 @@
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J310" t="n">
-        <v>3200</v>
+        <v>970</v>
       </c>
       <c r="K310" t="n">
         <v>500</v>
       </c>
       <c r="L310" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="M310" t="n">
-        <v>500</v>
+        <v>525</v>
       </c>
       <c r="N310" t="inlineStr">
         <is>
@@ -22695,11 +22695,11 @@
       </c>
       <c r="O310" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P310" t="n">
-        <v>500</v>
+        <v>525</v>
       </c>
       <c r="Q310" t="n">
         <v>1</v>
@@ -22725,7 +22725,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44334</v>
+        <v>44433</v>
       </c>
       <c r="E311" t="n">
         <v>13</v>
@@ -22745,20 +22745,20 @@
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J311" t="n">
-        <v>4300</v>
+        <v>610</v>
       </c>
       <c r="K311" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L311" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="M311" t="n">
-        <v>650</v>
+        <v>525</v>
       </c>
       <c r="N311" t="inlineStr">
         <is>
@@ -22767,11 +22767,11 @@
       </c>
       <c r="O311" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P311" t="n">
-        <v>650</v>
+        <v>525</v>
       </c>
       <c r="Q311" t="n">
         <v>1</v>
@@ -22797,7 +22797,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44334</v>
+        <v>44307</v>
       </c>
       <c r="E312" t="n">
         <v>13</v>
@@ -22821,16 +22821,16 @@
         </is>
       </c>
       <c r="J312" t="n">
-        <v>5200</v>
+        <v>2100</v>
       </c>
       <c r="K312" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L312" t="n">
         <v>700</v>
       </c>
       <c r="M312" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="N312" t="inlineStr">
         <is>
@@ -22839,11 +22839,11 @@
       </c>
       <c r="O312" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P312" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="Q312" t="n">
         <v>1</v>
@@ -22869,7 +22869,7 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>44334</v>
+        <v>44159</v>
       </c>
       <c r="E313" t="n">
         <v>13</v>
@@ -22889,20 +22889,20 @@
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J313" t="n">
-        <v>1600</v>
+        <v>4500</v>
       </c>
       <c r="K313" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L313" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M313" t="n">
-        <v>400</v>
+        <v>544</v>
       </c>
       <c r="N313" t="inlineStr">
         <is>
@@ -22911,11 +22911,11 @@
       </c>
       <c r="O313" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P313" t="n">
-        <v>400</v>
+        <v>544</v>
       </c>
       <c r="Q313" t="n">
         <v>1</v>
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>44334</v>
+        <v>44166</v>
       </c>
       <c r="E314" t="n">
         <v>13</v>
@@ -22961,11 +22961,11 @@
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J314" t="n">
-        <v>2500</v>
+        <v>3200</v>
       </c>
       <c r="K314" t="n">
         <v>500</v>
@@ -22983,7 +22983,7 @@
       </c>
       <c r="O314" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P314" t="n">
@@ -23013,7 +23013,7 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>44476</v>
+        <v>44334</v>
       </c>
       <c r="E315" t="n">
         <v>13</v>
@@ -23037,16 +23037,16 @@
         </is>
       </c>
       <c r="J315" t="n">
-        <v>3400</v>
+        <v>4300</v>
       </c>
       <c r="K315" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L315" t="n">
         <v>700</v>
       </c>
       <c r="M315" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N315" t="inlineStr">
         <is>
@@ -23059,7 +23059,7 @@
         </is>
       </c>
       <c r="P315" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q315" t="n">
         <v>1</v>
@@ -23085,7 +23085,7 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>44476</v>
+        <v>44334</v>
       </c>
       <c r="E316" t="n">
         <v>13</v>
@@ -23109,16 +23109,16 @@
         </is>
       </c>
       <c r="J316" t="n">
-        <v>2500</v>
+        <v>5200</v>
       </c>
       <c r="K316" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L316" t="n">
         <v>700</v>
       </c>
       <c r="M316" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N316" t="inlineStr">
         <is>
@@ -23131,7 +23131,7 @@
         </is>
       </c>
       <c r="P316" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q316" t="n">
         <v>1</v>
@@ -23157,7 +23157,7 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>44476</v>
+        <v>44334</v>
       </c>
       <c r="E317" t="n">
         <v>13</v>
@@ -23181,16 +23181,16 @@
         </is>
       </c>
       <c r="J317" t="n">
-        <v>1330</v>
+        <v>1600</v>
       </c>
       <c r="K317" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L317" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="M317" t="n">
-        <v>525</v>
+        <v>400</v>
       </c>
       <c r="N317" t="inlineStr">
         <is>
@@ -23203,7 +23203,7 @@
         </is>
       </c>
       <c r="P317" t="n">
-        <v>525</v>
+        <v>400</v>
       </c>
       <c r="Q317" t="n">
         <v>1</v>
@@ -23229,7 +23229,7 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>44476</v>
+        <v>44334</v>
       </c>
       <c r="E318" t="n">
         <v>13</v>
@@ -23253,16 +23253,16 @@
         </is>
       </c>
       <c r="J318" t="n">
-        <v>1060</v>
+        <v>2500</v>
       </c>
       <c r="K318" t="n">
         <v>500</v>
       </c>
       <c r="L318" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="M318" t="n">
-        <v>525</v>
+        <v>500</v>
       </c>
       <c r="N318" t="inlineStr">
         <is>
@@ -23275,7 +23275,7 @@
         </is>
       </c>
       <c r="P318" t="n">
-        <v>525</v>
+        <v>500</v>
       </c>
       <c r="Q318" t="n">
         <v>1</v>
@@ -23301,7 +23301,7 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E319" t="n">
         <v>13</v>
@@ -23325,16 +23325,16 @@
         </is>
       </c>
       <c r="J319" t="n">
-        <v>2500</v>
+        <v>3400</v>
       </c>
       <c r="K319" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L319" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="M319" t="n">
-        <v>625</v>
+        <v>675</v>
       </c>
       <c r="N319" t="inlineStr">
         <is>
@@ -23347,7 +23347,7 @@
         </is>
       </c>
       <c r="P319" t="n">
-        <v>625</v>
+        <v>675</v>
       </c>
       <c r="Q319" t="n">
         <v>1</v>
@@ -23373,7 +23373,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E320" t="n">
         <v>13</v>
@@ -23393,20 +23393,20 @@
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J320" t="n">
-        <v>1300</v>
+        <v>2500</v>
       </c>
       <c r="K320" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="L320" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M320" t="n">
-        <v>475</v>
+        <v>675</v>
       </c>
       <c r="N320" t="inlineStr">
         <is>
@@ -23415,11 +23415,11 @@
       </c>
       <c r="O320" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P320" t="n">
-        <v>475</v>
+        <v>675</v>
       </c>
       <c r="Q320" t="n">
         <v>1</v>
@@ -23445,7 +23445,7 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>44386</v>
+        <v>44476</v>
       </c>
       <c r="E321" t="n">
         <v>13</v>
@@ -23465,20 +23465,20 @@
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J321" t="n">
-        <v>4300</v>
+        <v>1330</v>
       </c>
       <c r="K321" t="n">
         <v>500</v>
       </c>
       <c r="L321" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="M321" t="n">
-        <v>550</v>
+        <v>525</v>
       </c>
       <c r="N321" t="inlineStr">
         <is>
@@ -23491,7 +23491,7 @@
         </is>
       </c>
       <c r="P321" t="n">
-        <v>550</v>
+        <v>525</v>
       </c>
       <c r="Q321" t="n">
         <v>1</v>
@@ -23517,7 +23517,7 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>44386</v>
+        <v>44476</v>
       </c>
       <c r="E322" t="n">
         <v>13</v>
@@ -23537,20 +23537,20 @@
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J322" t="n">
-        <v>3400</v>
+        <v>1060</v>
       </c>
       <c r="K322" t="n">
         <v>500</v>
       </c>
       <c r="L322" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="M322" t="n">
-        <v>550</v>
+        <v>525</v>
       </c>
       <c r="N322" t="inlineStr">
         <is>
@@ -23563,7 +23563,7 @@
         </is>
       </c>
       <c r="P322" t="n">
-        <v>550</v>
+        <v>525</v>
       </c>
       <c r="Q322" t="n">
         <v>1</v>
@@ -23589,7 +23589,7 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>44386</v>
+        <v>44468</v>
       </c>
       <c r="E323" t="n">
         <v>13</v>
@@ -23609,20 +23609,20 @@
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J323" t="n">
-        <v>1600</v>
+        <v>2500</v>
       </c>
       <c r="K323" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L323" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="M323" t="n">
-        <v>400</v>
+        <v>625</v>
       </c>
       <c r="N323" t="inlineStr">
         <is>
@@ -23635,7 +23635,7 @@
         </is>
       </c>
       <c r="P323" t="n">
-        <v>400</v>
+        <v>625</v>
       </c>
       <c r="Q323" t="n">
         <v>1</v>
@@ -23661,7 +23661,7 @@
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>44386</v>
+        <v>44468</v>
       </c>
       <c r="E324" t="n">
         <v>13</v>
@@ -23685,16 +23685,16 @@
         </is>
       </c>
       <c r="J324" t="n">
-        <v>970</v>
+        <v>1300</v>
       </c>
       <c r="K324" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="L324" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M324" t="n">
-        <v>400</v>
+        <v>475</v>
       </c>
       <c r="N324" t="inlineStr">
         <is>
@@ -23703,11 +23703,11 @@
       </c>
       <c r="O324" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P324" t="n">
-        <v>400</v>
+        <v>475</v>
       </c>
       <c r="Q324" t="n">
         <v>1</v>
@@ -23733,7 +23733,7 @@
         </is>
       </c>
       <c r="D325" s="2" t="n">
-        <v>44384</v>
+        <v>44386</v>
       </c>
       <c r="E325" t="n">
         <v>13</v>
@@ -23757,7 +23757,7 @@
         </is>
       </c>
       <c r="J325" t="n">
-        <v>2500</v>
+        <v>4300</v>
       </c>
       <c r="K325" t="n">
         <v>500</v>
@@ -23775,7 +23775,7 @@
       </c>
       <c r="O325" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P325" t="n">
@@ -23805,7 +23805,7 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>44384</v>
+        <v>44386</v>
       </c>
       <c r="E326" t="n">
         <v>13</v>
@@ -23825,20 +23825,20 @@
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J326" t="n">
-        <v>970</v>
+        <v>3400</v>
       </c>
       <c r="K326" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L326" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M326" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="N326" t="inlineStr">
         <is>
@@ -23851,7 +23851,7 @@
         </is>
       </c>
       <c r="P326" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="Q326" t="n">
         <v>1</v>
@@ -23877,7 +23877,7 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>44363</v>
+        <v>44386</v>
       </c>
       <c r="E327" t="n">
         <v>13</v>
@@ -23897,20 +23897,20 @@
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J327" t="n">
-        <v>2500</v>
+        <v>1600</v>
       </c>
       <c r="K327" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L327" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M327" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="N327" t="inlineStr">
         <is>
@@ -23923,7 +23923,7 @@
         </is>
       </c>
       <c r="P327" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="Q327" t="n">
         <v>1</v>
@@ -23949,7 +23949,7 @@
         </is>
       </c>
       <c r="D328" s="2" t="n">
-        <v>44363</v>
+        <v>44386</v>
       </c>
       <c r="E328" t="n">
         <v>13</v>
@@ -23969,20 +23969,20 @@
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J328" t="n">
-        <v>1600</v>
+        <v>970</v>
       </c>
       <c r="K328" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L328" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M328" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="N328" t="inlineStr">
         <is>
@@ -23995,7 +23995,7 @@
         </is>
       </c>
       <c r="P328" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="Q328" t="n">
         <v>1</v>
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>44363</v>
+        <v>44384</v>
       </c>
       <c r="E329" t="n">
         <v>13</v>
@@ -24041,20 +24041,20 @@
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J329" t="n">
-        <v>1600</v>
+        <v>2500</v>
       </c>
       <c r="K329" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L329" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M329" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="N329" t="inlineStr">
         <is>
@@ -24063,11 +24063,11 @@
       </c>
       <c r="O329" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P329" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="Q329" t="n">
         <v>1</v>
@@ -24093,7 +24093,7 @@
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>44363</v>
+        <v>44384</v>
       </c>
       <c r="E330" t="n">
         <v>13</v>
@@ -24117,7 +24117,7 @@
         </is>
       </c>
       <c r="J330" t="n">
-        <v>700</v>
+        <v>970</v>
       </c>
       <c r="K330" t="n">
         <v>400</v>
@@ -24165,7 +24165,7 @@
         </is>
       </c>
       <c r="D331" s="2" t="n">
-        <v>44306</v>
+        <v>44363</v>
       </c>
       <c r="E331" t="n">
         <v>13</v>
@@ -24189,16 +24189,16 @@
         </is>
       </c>
       <c r="J331" t="n">
-        <v>1600</v>
+        <v>2500</v>
       </c>
       <c r="K331" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L331" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M331" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="N331" t="inlineStr">
         <is>
@@ -24207,11 +24207,11 @@
       </c>
       <c r="O331" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P331" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="Q331" t="n">
         <v>1</v>
@@ -24237,7 +24237,7 @@
         </is>
       </c>
       <c r="D332" s="2" t="n">
-        <v>44369</v>
+        <v>44363</v>
       </c>
       <c r="E332" t="n">
         <v>13</v>
@@ -24261,7 +24261,7 @@
         </is>
       </c>
       <c r="J332" t="n">
-        <v>3400</v>
+        <v>1600</v>
       </c>
       <c r="K332" t="n">
         <v>500</v>
@@ -24279,7 +24279,7 @@
       </c>
       <c r="O332" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P332" t="n">
@@ -24309,7 +24309,7 @@
         </is>
       </c>
       <c r="D333" s="2" t="n">
-        <v>44369</v>
+        <v>44363</v>
       </c>
       <c r="E333" t="n">
         <v>13</v>
@@ -24329,20 +24329,20 @@
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J333" t="n">
-        <v>2500</v>
+        <v>1600</v>
       </c>
       <c r="K333" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L333" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M333" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="N333" t="inlineStr">
         <is>
@@ -24351,11 +24351,11 @@
       </c>
       <c r="O333" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P333" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="Q333" t="n">
         <v>1</v>
@@ -24381,7 +24381,7 @@
         </is>
       </c>
       <c r="D334" s="2" t="n">
-        <v>44369</v>
+        <v>44363</v>
       </c>
       <c r="E334" t="n">
         <v>13</v>
@@ -24405,7 +24405,7 @@
         </is>
       </c>
       <c r="J334" t="n">
-        <v>1600</v>
+        <v>700</v>
       </c>
       <c r="K334" t="n">
         <v>400</v>
@@ -24423,7 +24423,7 @@
       </c>
       <c r="O334" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P334" t="n">
@@ -24453,7 +24453,7 @@
         </is>
       </c>
       <c r="D335" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E335" t="n">
         <v>13</v>
@@ -24473,20 +24473,20 @@
       </c>
       <c r="I335" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J335" t="n">
+        <v>1600</v>
+      </c>
+      <c r="K335" t="n">
         <v>700</v>
       </c>
-      <c r="K335" t="n">
-        <v>400</v>
-      </c>
       <c r="L335" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="M335" t="n">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="N335" t="inlineStr">
         <is>
@@ -24495,11 +24495,11 @@
       </c>
       <c r="O335" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P335" t="n">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="Q335" t="n">
         <v>1</v>
@@ -24525,7 +24525,7 @@
         </is>
       </c>
       <c r="D336" s="2" t="n">
-        <v>44301</v>
+        <v>44369</v>
       </c>
       <c r="E336" t="n">
         <v>13</v>
@@ -24549,16 +24549,16 @@
         </is>
       </c>
       <c r="J336" t="n">
-        <v>1600</v>
+        <v>3400</v>
       </c>
       <c r="K336" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L336" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M336" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="N336" t="inlineStr">
         <is>
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="P336" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="Q336" t="n">
         <v>1</v>
@@ -24597,7 +24597,7 @@
         </is>
       </c>
       <c r="D337" s="2" t="n">
-        <v>44357</v>
+        <v>44369</v>
       </c>
       <c r="E337" t="n">
         <v>13</v>
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="J337" t="n">
-        <v>3400</v>
+        <v>2500</v>
       </c>
       <c r="K337" t="n">
         <v>500</v>
@@ -24639,7 +24639,7 @@
       </c>
       <c r="O337" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P337" t="n">
@@ -24669,7 +24669,7 @@
         </is>
       </c>
       <c r="D338" s="2" t="n">
-        <v>44357</v>
+        <v>44369</v>
       </c>
       <c r="E338" t="n">
         <v>13</v>
@@ -24689,20 +24689,20 @@
       </c>
       <c r="I338" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J338" t="n">
-        <v>4300</v>
+        <v>1600</v>
       </c>
       <c r="K338" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L338" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M338" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="N338" t="inlineStr">
         <is>
@@ -24711,11 +24711,11 @@
       </c>
       <c r="O338" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P338" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="Q338" t="n">
         <v>1</v>
@@ -24741,7 +24741,7 @@
         </is>
       </c>
       <c r="D339" s="2" t="n">
-        <v>44357</v>
+        <v>44369</v>
       </c>
       <c r="E339" t="n">
         <v>13</v>
@@ -24765,7 +24765,7 @@
         </is>
       </c>
       <c r="J339" t="n">
-        <v>1300</v>
+        <v>700</v>
       </c>
       <c r="K339" t="n">
         <v>400</v>
@@ -24783,7 +24783,7 @@
       </c>
       <c r="O339" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P339" t="n">
@@ -24813,7 +24813,7 @@
         </is>
       </c>
       <c r="D340" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E340" t="n">
         <v>13</v>
@@ -24833,20 +24833,20 @@
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J340" t="n">
         <v>1600</v>
       </c>
       <c r="K340" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="L340" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="M340" t="n">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="N340" t="inlineStr">
         <is>
@@ -24855,11 +24855,11 @@
       </c>
       <c r="O340" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P340" t="n">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="Q340" t="n">
         <v>1</v>
@@ -24885,7 +24885,7 @@
         </is>
       </c>
       <c r="D341" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E341" t="n">
         <v>13</v>
@@ -24909,16 +24909,16 @@
         </is>
       </c>
       <c r="J341" t="n">
-        <v>2500</v>
+        <v>3400</v>
       </c>
       <c r="K341" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L341" t="n">
         <v>600</v>
       </c>
       <c r="M341" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="N341" t="inlineStr">
         <is>
@@ -24931,7 +24931,7 @@
         </is>
       </c>
       <c r="P341" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="Q341" t="n">
         <v>1</v>
@@ -24957,7 +24957,7 @@
         </is>
       </c>
       <c r="D342" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E342" t="n">
         <v>13</v>
@@ -24977,20 +24977,20 @@
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J342" t="n">
-        <v>700</v>
+        <v>4300</v>
       </c>
       <c r="K342" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L342" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M342" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="N342" t="inlineStr">
         <is>
@@ -24999,11 +24999,11 @@
       </c>
       <c r="O342" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P342" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="Q342" t="n">
         <v>1</v>
@@ -25029,7 +25029,7 @@
         </is>
       </c>
       <c r="D343" s="2" t="n">
-        <v>44321</v>
+        <v>44357</v>
       </c>
       <c r="E343" t="n">
         <v>13</v>
@@ -25049,20 +25049,20 @@
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J343" t="n">
-        <v>2500</v>
+        <v>1300</v>
       </c>
       <c r="K343" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L343" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M343" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="N343" t="inlineStr">
         <is>
@@ -25075,7 +25075,7 @@
         </is>
       </c>
       <c r="P343" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="Q343" t="n">
         <v>1</v>
@@ -25101,7 +25101,7 @@
         </is>
       </c>
       <c r="D344" s="2" t="n">
-        <v>44321</v>
+        <v>44357</v>
       </c>
       <c r="E344" t="n">
         <v>13</v>
@@ -25121,20 +25121,20 @@
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J344" t="n">
         <v>1600</v>
       </c>
       <c r="K344" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L344" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M344" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="N344" t="inlineStr">
         <is>
@@ -25147,7 +25147,7 @@
         </is>
       </c>
       <c r="P344" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="Q344" t="n">
         <v>1</v>
@@ -25173,7 +25173,7 @@
         </is>
       </c>
       <c r="D345" s="2" t="n">
-        <v>44397</v>
+        <v>44328</v>
       </c>
       <c r="E345" t="n">
         <v>13</v>
@@ -25197,16 +25197,16 @@
         </is>
       </c>
       <c r="J345" t="n">
-        <v>4300</v>
+        <v>2500</v>
       </c>
       <c r="K345" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L345" t="n">
         <v>600</v>
       </c>
       <c r="M345" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="N345" t="inlineStr">
         <is>
@@ -25219,7 +25219,7 @@
         </is>
       </c>
       <c r="P345" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="Q345" t="n">
         <v>1</v>
@@ -25245,7 +25245,7 @@
         </is>
       </c>
       <c r="D346" s="2" t="n">
-        <v>44397</v>
+        <v>44328</v>
       </c>
       <c r="E346" t="n">
         <v>13</v>
@@ -25265,20 +25265,20 @@
       </c>
       <c r="I346" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J346" t="n">
-        <v>3400</v>
+        <v>700</v>
       </c>
       <c r="K346" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L346" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M346" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="N346" t="inlineStr">
         <is>
@@ -25287,11 +25287,11 @@
       </c>
       <c r="O346" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P346" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="Q346" t="n">
         <v>1</v>
@@ -25317,7 +25317,7 @@
         </is>
       </c>
       <c r="D347" s="2" t="n">
-        <v>44397</v>
+        <v>44321</v>
       </c>
       <c r="E347" t="n">
         <v>13</v>
@@ -25337,20 +25337,20 @@
       </c>
       <c r="I347" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J347" t="n">
-        <v>1600</v>
+        <v>2500</v>
       </c>
       <c r="K347" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L347" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M347" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="N347" t="inlineStr">
         <is>
@@ -25363,7 +25363,7 @@
         </is>
       </c>
       <c r="P347" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="Q347" t="n">
         <v>1</v>
@@ -25389,7 +25389,7 @@
         </is>
       </c>
       <c r="D348" s="2" t="n">
-        <v>44397</v>
+        <v>44321</v>
       </c>
       <c r="E348" t="n">
         <v>13</v>
@@ -25409,20 +25409,20 @@
       </c>
       <c r="I348" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J348" t="n">
-        <v>970</v>
+        <v>1600</v>
       </c>
       <c r="K348" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L348" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M348" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="N348" t="inlineStr">
         <is>
@@ -25435,7 +25435,7 @@
         </is>
       </c>
       <c r="P348" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="Q348" t="n">
         <v>1</v>
@@ -25461,7 +25461,7 @@
         </is>
       </c>
       <c r="D349" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E349" t="n">
         <v>13</v>
@@ -25488,13 +25488,13 @@
         <v>4300</v>
       </c>
       <c r="K349" t="n">
+        <v>500</v>
+      </c>
+      <c r="L349" t="n">
         <v>600</v>
       </c>
-      <c r="L349" t="n">
-        <v>700</v>
-      </c>
       <c r="M349" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="N349" t="inlineStr">
         <is>
@@ -25507,7 +25507,7 @@
         </is>
       </c>
       <c r="P349" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="Q349" t="n">
         <v>1</v>
@@ -25533,7 +25533,7 @@
         </is>
       </c>
       <c r="D350" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E350" t="n">
         <v>13</v>
@@ -25557,16 +25557,16 @@
         </is>
       </c>
       <c r="J350" t="n">
-        <v>5200</v>
+        <v>3400</v>
       </c>
       <c r="K350" t="n">
+        <v>500</v>
+      </c>
+      <c r="L350" t="n">
         <v>600</v>
       </c>
-      <c r="L350" t="n">
-        <v>700</v>
-      </c>
       <c r="M350" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="N350" t="inlineStr">
         <is>
@@ -25579,7 +25579,7 @@
         </is>
       </c>
       <c r="P350" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="Q350" t="n">
         <v>1</v>
@@ -25605,7 +25605,7 @@
         </is>
       </c>
       <c r="D351" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E351" t="n">
         <v>13</v>
@@ -25632,13 +25632,13 @@
         <v>1600</v>
       </c>
       <c r="K351" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L351" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M351" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="N351" t="inlineStr">
         <is>
@@ -25651,7 +25651,7 @@
         </is>
       </c>
       <c r="P351" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="Q351" t="n">
         <v>1</v>
@@ -25677,7 +25677,7 @@
         </is>
       </c>
       <c r="D352" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E352" t="n">
         <v>13</v>
@@ -25701,16 +25701,16 @@
         </is>
       </c>
       <c r="J352" t="n">
-        <v>2500</v>
+        <v>970</v>
       </c>
       <c r="K352" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L352" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M352" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="N352" t="inlineStr">
         <is>
@@ -25723,7 +25723,7 @@
         </is>
       </c>
       <c r="P352" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="Q352" t="n">
         <v>1</v>
@@ -25749,7 +25749,7 @@
         </is>
       </c>
       <c r="D353" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E353" t="n">
         <v>13</v>
@@ -25773,7 +25773,7 @@
         </is>
       </c>
       <c r="J353" t="n">
-        <v>1400</v>
+        <v>4300</v>
       </c>
       <c r="K353" t="n">
         <v>600</v>
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="D354" s="2" t="n">
-        <v>44314</v>
+        <v>44414</v>
       </c>
       <c r="E354" t="n">
         <v>13</v>
@@ -25845,16 +25845,16 @@
         </is>
       </c>
       <c r="J354" t="n">
-        <v>2500</v>
+        <v>5200</v>
       </c>
       <c r="K354" t="n">
         <v>600</v>
       </c>
       <c r="L354" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M354" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="N354" t="inlineStr">
         <is>
@@ -25867,7 +25867,7 @@
         </is>
       </c>
       <c r="P354" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="Q354" t="n">
         <v>1</v>
@@ -25893,7 +25893,7 @@
         </is>
       </c>
       <c r="D355" s="2" t="n">
-        <v>44392</v>
+        <v>44414</v>
       </c>
       <c r="E355" t="n">
         <v>13</v>
@@ -25913,20 +25913,20 @@
       </c>
       <c r="I355" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J355" t="n">
-        <v>3400</v>
+        <v>1600</v>
       </c>
       <c r="K355" t="n">
         <v>500</v>
       </c>
       <c r="L355" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M355" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="N355" t="inlineStr">
         <is>
@@ -25939,7 +25939,7 @@
         </is>
       </c>
       <c r="P355" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="Q355" t="n">
         <v>1</v>
@@ -25965,7 +25965,7 @@
         </is>
       </c>
       <c r="D356" s="2" t="n">
-        <v>44392</v>
+        <v>44414</v>
       </c>
       <c r="E356" t="n">
         <v>13</v>
@@ -25985,20 +25985,20 @@
       </c>
       <c r="I356" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J356" t="n">
-        <v>4300</v>
+        <v>2500</v>
       </c>
       <c r="K356" t="n">
         <v>500</v>
       </c>
       <c r="L356" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M356" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="N356" t="inlineStr">
         <is>
@@ -26011,7 +26011,7 @@
         </is>
       </c>
       <c r="P356" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="Q356" t="n">
         <v>1</v>
@@ -26037,7 +26037,7 @@
         </is>
       </c>
       <c r="D357" s="2" t="n">
-        <v>44392</v>
+        <v>44333</v>
       </c>
       <c r="E357" t="n">
         <v>13</v>
@@ -26057,20 +26057,20 @@
       </c>
       <c r="I357" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J357" t="n">
-        <v>970</v>
+        <v>1400</v>
       </c>
       <c r="K357" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L357" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="M357" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="N357" t="inlineStr">
         <is>
@@ -26083,7 +26083,7 @@
         </is>
       </c>
       <c r="P357" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="Q357" t="n">
         <v>1</v>
@@ -26109,7 +26109,7 @@
         </is>
       </c>
       <c r="D358" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E358" t="n">
         <v>13</v>
@@ -26129,20 +26129,20 @@
       </c>
       <c r="I358" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J358" t="n">
-        <v>1600</v>
+        <v>2500</v>
       </c>
       <c r="K358" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L358" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M358" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="N358" t="inlineStr">
         <is>
@@ -26155,7 +26155,7 @@
         </is>
       </c>
       <c r="P358" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="Q358" t="n">
         <v>1</v>
@@ -26181,7 +26181,7 @@
         </is>
       </c>
       <c r="D359" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E359" t="n">
         <v>13</v>
@@ -26205,16 +26205,16 @@
         </is>
       </c>
       <c r="J359" t="n">
-        <v>4300</v>
+        <v>3400</v>
       </c>
       <c r="K359" t="n">
+        <v>500</v>
+      </c>
+      <c r="L359" t="n">
         <v>600</v>
       </c>
-      <c r="L359" t="n">
-        <v>700</v>
-      </c>
       <c r="M359" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="N359" t="inlineStr">
         <is>
@@ -26227,7 +26227,7 @@
         </is>
       </c>
       <c r="P359" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="Q359" t="n">
         <v>1</v>
@@ -26253,7 +26253,7 @@
         </is>
       </c>
       <c r="D360" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E360" t="n">
         <v>13</v>
@@ -26277,16 +26277,16 @@
         </is>
       </c>
       <c r="J360" t="n">
-        <v>3400</v>
+        <v>4300</v>
       </c>
       <c r="K360" t="n">
+        <v>500</v>
+      </c>
+      <c r="L360" t="n">
         <v>600</v>
       </c>
-      <c r="L360" t="n">
-        <v>700</v>
-      </c>
       <c r="M360" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="N360" t="inlineStr">
         <is>
@@ -26299,7 +26299,7 @@
         </is>
       </c>
       <c r="P360" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="Q360" t="n">
         <v>1</v>
@@ -26325,7 +26325,7 @@
         </is>
       </c>
       <c r="D361" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E361" t="n">
         <v>13</v>
@@ -26349,16 +26349,16 @@
         </is>
       </c>
       <c r="J361" t="n">
-        <v>1600</v>
+        <v>970</v>
       </c>
       <c r="K361" t="n">
         <v>400</v>
       </c>
       <c r="L361" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M361" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="N361" t="inlineStr">
         <is>
@@ -26371,7 +26371,7 @@
         </is>
       </c>
       <c r="P361" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="Q361" t="n">
         <v>1</v>
@@ -26397,7 +26397,7 @@
         </is>
       </c>
       <c r="D362" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E362" t="n">
         <v>13</v>
@@ -26421,16 +26421,16 @@
         </is>
       </c>
       <c r="J362" t="n">
-        <v>1300</v>
+        <v>1600</v>
       </c>
       <c r="K362" t="n">
         <v>400</v>
       </c>
       <c r="L362" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M362" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="N362" t="inlineStr">
         <is>
@@ -26443,7 +26443,7 @@
         </is>
       </c>
       <c r="P362" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="Q362" t="n">
         <v>1</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="D363" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E363" t="n">
         <v>13</v>
@@ -26496,13 +26496,13 @@
         <v>4300</v>
       </c>
       <c r="K363" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L363" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M363" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="N363" t="inlineStr">
         <is>
@@ -26515,7 +26515,7 @@
         </is>
       </c>
       <c r="P363" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="Q363" t="n">
         <v>1</v>
@@ -26541,7 +26541,7 @@
         </is>
       </c>
       <c r="D364" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E364" t="n">
         <v>13</v>
@@ -26568,13 +26568,13 @@
         <v>3400</v>
       </c>
       <c r="K364" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L364" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M364" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="N364" t="inlineStr">
         <is>
@@ -26587,7 +26587,7 @@
         </is>
       </c>
       <c r="P364" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="Q364" t="n">
         <v>1</v>
@@ -26613,7 +26613,7 @@
         </is>
       </c>
       <c r="D365" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E365" t="n">
         <v>13</v>
@@ -26643,10 +26643,10 @@
         <v>400</v>
       </c>
       <c r="L365" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M365" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="N365" t="inlineStr">
         <is>
@@ -26659,7 +26659,7 @@
         </is>
       </c>
       <c r="P365" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="Q365" t="n">
         <v>1</v>
@@ -26685,7 +26685,7 @@
         </is>
       </c>
       <c r="D366" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E366" t="n">
         <v>13</v>
@@ -26709,16 +26709,16 @@
         </is>
       </c>
       <c r="J366" t="n">
-        <v>970</v>
+        <v>1300</v>
       </c>
       <c r="K366" t="n">
         <v>400</v>
       </c>
       <c r="L366" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M366" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="N366" t="inlineStr">
         <is>
@@ -26731,7 +26731,7 @@
         </is>
       </c>
       <c r="P366" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="Q366" t="n">
         <v>1</v>
@@ -26757,7 +26757,7 @@
         </is>
       </c>
       <c r="D367" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E367" t="n">
         <v>13</v>
@@ -26781,16 +26781,16 @@
         </is>
       </c>
       <c r="J367" t="n">
-        <v>4900</v>
+        <v>4300</v>
       </c>
       <c r="K367" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="L367" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="M367" t="n">
-        <v>902</v>
+        <v>550</v>
       </c>
       <c r="N367" t="inlineStr">
         <is>
@@ -26799,11 +26799,11 @@
       </c>
       <c r="O367" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P367" t="n">
-        <v>902</v>
+        <v>550</v>
       </c>
       <c r="Q367" t="n">
         <v>1</v>
@@ -26829,7 +26829,7 @@
         </is>
       </c>
       <c r="D368" s="2" t="n">
-        <v>44250</v>
+        <v>44390</v>
       </c>
       <c r="E368" t="n">
         <v>13</v>
@@ -26853,16 +26853,16 @@
         </is>
       </c>
       <c r="J368" t="n">
-        <v>700</v>
+        <v>3400</v>
       </c>
       <c r="K368" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="L368" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="M368" t="n">
-        <v>1000</v>
+        <v>550</v>
       </c>
       <c r="N368" t="inlineStr">
         <is>
@@ -26871,11 +26871,11 @@
       </c>
       <c r="O368" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P368" t="n">
-        <v>1000</v>
+        <v>550</v>
       </c>
       <c r="Q368" t="n">
         <v>1</v>
@@ -26901,7 +26901,7 @@
         </is>
       </c>
       <c r="D369" s="2" t="n">
-        <v>44438</v>
+        <v>44390</v>
       </c>
       <c r="E369" t="n">
         <v>13</v>
@@ -26921,20 +26921,20 @@
       </c>
       <c r="I369" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J369" t="n">
         <v>1600</v>
       </c>
       <c r="K369" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L369" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="M369" t="n">
-        <v>625</v>
+        <v>400</v>
       </c>
       <c r="N369" t="inlineStr">
         <is>
@@ -26947,7 +26947,7 @@
         </is>
       </c>
       <c r="P369" t="n">
-        <v>625</v>
+        <v>400</v>
       </c>
       <c r="Q369" t="n">
         <v>1</v>
@@ -26973,7 +26973,7 @@
         </is>
       </c>
       <c r="D370" s="2" t="n">
-        <v>44438</v>
+        <v>44390</v>
       </c>
       <c r="E370" t="n">
         <v>13</v>
@@ -26997,16 +26997,16 @@
         </is>
       </c>
       <c r="J370" t="n">
-        <v>610</v>
+        <v>970</v>
       </c>
       <c r="K370" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L370" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="M370" t="n">
-        <v>525</v>
+        <v>400</v>
       </c>
       <c r="N370" t="inlineStr">
         <is>
@@ -27015,11 +27015,11 @@
       </c>
       <c r="O370" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P370" t="n">
-        <v>525</v>
+        <v>400</v>
       </c>
       <c r="Q370" t="n">
         <v>1</v>
@@ -27045,7 +27045,7 @@
         </is>
       </c>
       <c r="D371" s="2" t="n">
-        <v>44201</v>
+        <v>44187</v>
       </c>
       <c r="E371" t="n">
         <v>13</v>
@@ -27069,16 +27069,16 @@
         </is>
       </c>
       <c r="J371" t="n">
-        <v>3600</v>
+        <v>4900</v>
       </c>
       <c r="K371" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L371" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="M371" t="n">
-        <v>656</v>
+        <v>902</v>
       </c>
       <c r="N371" t="inlineStr">
         <is>
@@ -27087,11 +27087,11 @@
       </c>
       <c r="O371" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P371" t="n">
-        <v>656</v>
+        <v>902</v>
       </c>
       <c r="Q371" t="n">
         <v>1</v>
@@ -27117,7 +27117,7 @@
         </is>
       </c>
       <c r="D372" s="2" t="n">
-        <v>44461</v>
+        <v>44250</v>
       </c>
       <c r="E372" t="n">
         <v>13</v>
@@ -27141,16 +27141,16 @@
         </is>
       </c>
       <c r="J372" t="n">
-        <v>1960</v>
+        <v>700</v>
       </c>
       <c r="K372" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="L372" t="n">
-        <v>650</v>
+        <v>1000</v>
       </c>
       <c r="M372" t="n">
-        <v>625</v>
+        <v>1000</v>
       </c>
       <c r="N372" t="inlineStr">
         <is>
@@ -27163,7 +27163,7 @@
         </is>
       </c>
       <c r="P372" t="n">
-        <v>625</v>
+        <v>1000</v>
       </c>
       <c r="Q372" t="n">
         <v>1</v>
@@ -27189,7 +27189,7 @@
         </is>
       </c>
       <c r="D373" s="2" t="n">
-        <v>44461</v>
+        <v>44438</v>
       </c>
       <c r="E373" t="n">
         <v>13</v>
@@ -27209,20 +27209,20 @@
       </c>
       <c r="I373" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J373" t="n">
-        <v>520</v>
+        <v>1600</v>
       </c>
       <c r="K373" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="L373" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="M373" t="n">
-        <v>475</v>
+        <v>625</v>
       </c>
       <c r="N373" t="inlineStr">
         <is>
@@ -27235,7 +27235,7 @@
         </is>
       </c>
       <c r="P373" t="n">
-        <v>475</v>
+        <v>625</v>
       </c>
       <c r="Q373" t="n">
         <v>1</v>
@@ -27261,7 +27261,7 @@
         </is>
       </c>
       <c r="D374" s="2" t="n">
-        <v>44286</v>
+        <v>44438</v>
       </c>
       <c r="E374" t="n">
         <v>13</v>
@@ -27281,20 +27281,20 @@
       </c>
       <c r="I374" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J374" t="n">
-        <v>1600</v>
+        <v>610</v>
       </c>
       <c r="K374" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="L374" t="n">
-        <v>900</v>
+        <v>550</v>
       </c>
       <c r="M374" t="n">
-        <v>900</v>
+        <v>525</v>
       </c>
       <c r="N374" t="inlineStr">
         <is>
@@ -27307,7 +27307,7 @@
         </is>
       </c>
       <c r="P374" t="n">
-        <v>900</v>
+        <v>525</v>
       </c>
       <c r="Q374" t="n">
         <v>1</v>
@@ -27333,7 +27333,7 @@
         </is>
       </c>
       <c r="D375" s="2" t="n">
-        <v>44389</v>
+        <v>44201</v>
       </c>
       <c r="E375" t="n">
         <v>13</v>
@@ -27357,16 +27357,16 @@
         </is>
       </c>
       <c r="J375" t="n">
-        <v>1600</v>
+        <v>3600</v>
       </c>
       <c r="K375" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L375" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M375" t="n">
-        <v>550</v>
+        <v>656</v>
       </c>
       <c r="N375" t="inlineStr">
         <is>
@@ -27375,11 +27375,11 @@
       </c>
       <c r="O375" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P375" t="n">
-        <v>550</v>
+        <v>656</v>
       </c>
       <c r="Q375" t="n">
         <v>1</v>
@@ -27405,7 +27405,7 @@
         </is>
       </c>
       <c r="D376" s="2" t="n">
-        <v>44389</v>
+        <v>44461</v>
       </c>
       <c r="E376" t="n">
         <v>13</v>
@@ -27425,20 +27425,20 @@
       </c>
       <c r="I376" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J376" t="n">
-        <v>520</v>
+        <v>1960</v>
       </c>
       <c r="K376" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L376" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="M376" t="n">
-        <v>400</v>
+        <v>625</v>
       </c>
       <c r="N376" t="inlineStr">
         <is>
@@ -27447,11 +27447,11 @@
       </c>
       <c r="O376" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P376" t="n">
-        <v>400</v>
+        <v>625</v>
       </c>
       <c r="Q376" t="n">
         <v>1</v>
@@ -27477,7 +27477,7 @@
         </is>
       </c>
       <c r="D377" s="2" t="n">
-        <v>44326</v>
+        <v>44461</v>
       </c>
       <c r="E377" t="n">
         <v>13</v>
@@ -27497,20 +27497,20 @@
       </c>
       <c r="I377" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J377" t="n">
-        <v>700</v>
+        <v>520</v>
       </c>
       <c r="K377" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="L377" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M377" t="n">
-        <v>600</v>
+        <v>475</v>
       </c>
       <c r="N377" t="inlineStr">
         <is>
@@ -27523,7 +27523,7 @@
         </is>
       </c>
       <c r="P377" t="n">
-        <v>600</v>
+        <v>475</v>
       </c>
       <c r="Q377" t="n">
         <v>1</v>
@@ -27549,7 +27549,7 @@
         </is>
       </c>
       <c r="D378" s="2" t="n">
-        <v>44432</v>
+        <v>44286</v>
       </c>
       <c r="E378" t="n">
         <v>13</v>
@@ -27573,16 +27573,16 @@
         </is>
       </c>
       <c r="J378" t="n">
-        <v>4300</v>
+        <v>1600</v>
       </c>
       <c r="K378" t="n">
-        <v>650</v>
+        <v>900</v>
       </c>
       <c r="L378" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M378" t="n">
-        <v>675</v>
+        <v>900</v>
       </c>
       <c r="N378" t="inlineStr">
         <is>
@@ -27595,7 +27595,7 @@
         </is>
       </c>
       <c r="P378" t="n">
-        <v>675</v>
+        <v>900</v>
       </c>
       <c r="Q378" t="n">
         <v>1</v>
@@ -27621,7 +27621,7 @@
         </is>
       </c>
       <c r="D379" s="2" t="n">
-        <v>44432</v>
+        <v>44389</v>
       </c>
       <c r="E379" t="n">
         <v>13</v>
@@ -27645,16 +27645,16 @@
         </is>
       </c>
       <c r="J379" t="n">
-        <v>3400</v>
+        <v>1600</v>
       </c>
       <c r="K379" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="L379" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M379" t="n">
-        <v>675</v>
+        <v>550</v>
       </c>
       <c r="N379" t="inlineStr">
         <is>
@@ -27667,7 +27667,7 @@
         </is>
       </c>
       <c r="P379" t="n">
-        <v>675</v>
+        <v>550</v>
       </c>
       <c r="Q379" t="n">
         <v>1</v>
@@ -27693,7 +27693,7 @@
         </is>
       </c>
       <c r="D380" s="2" t="n">
-        <v>44432</v>
+        <v>44389</v>
       </c>
       <c r="E380" t="n">
         <v>13</v>
@@ -27717,16 +27717,16 @@
         </is>
       </c>
       <c r="J380" t="n">
-        <v>1600</v>
+        <v>520</v>
       </c>
       <c r="K380" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="L380" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M380" t="n">
-        <v>575</v>
+        <v>400</v>
       </c>
       <c r="N380" t="inlineStr">
         <is>
@@ -27735,11 +27735,11 @@
       </c>
       <c r="O380" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P380" t="n">
-        <v>575</v>
+        <v>400</v>
       </c>
       <c r="Q380" t="n">
         <v>1</v>
@@ -27765,7 +27765,7 @@
         </is>
       </c>
       <c r="D381" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E381" t="n">
         <v>13</v>
@@ -27785,38 +27785,326 @@
       </c>
       <c r="I381" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J381" t="n">
-        <v>970</v>
+        <v>700</v>
       </c>
       <c r="K381" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="L381" t="n">
         <v>600</v>
       </c>
       <c r="M381" t="n">
+        <v>600</v>
+      </c>
+      <c r="N381" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O381" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P381" t="n">
+        <v>600</v>
+      </c>
+      <c r="Q381" t="n">
+        <v>1</v>
+      </c>
+      <c r="R381" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="n">
+        <v>9</v>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D382" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E382" t="n">
+        <v>13</v>
+      </c>
+      <c r="F382" t="n">
+        <v>100112008</v>
+      </c>
+      <c r="G382" t="inlineStr">
+        <is>
+          <t>Coliflor</t>
+        </is>
+      </c>
+      <c r="H382" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I382" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J382" t="n">
+        <v>4300</v>
+      </c>
+      <c r="K382" t="n">
+        <v>650</v>
+      </c>
+      <c r="L382" t="n">
+        <v>700</v>
+      </c>
+      <c r="M382" t="n">
+        <v>675</v>
+      </c>
+      <c r="N382" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O382" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P382" t="n">
+        <v>675</v>
+      </c>
+      <c r="Q382" t="n">
+        <v>1</v>
+      </c>
+      <c r="R382" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="n">
+        <v>9</v>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D383" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E383" t="n">
+        <v>13</v>
+      </c>
+      <c r="F383" t="n">
+        <v>100112008</v>
+      </c>
+      <c r="G383" t="inlineStr">
+        <is>
+          <t>Coliflor</t>
+        </is>
+      </c>
+      <c r="H383" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I383" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J383" t="n">
+        <v>3400</v>
+      </c>
+      <c r="K383" t="n">
+        <v>650</v>
+      </c>
+      <c r="L383" t="n">
+        <v>700</v>
+      </c>
+      <c r="M383" t="n">
+        <v>675</v>
+      </c>
+      <c r="N383" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O383" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P383" t="n">
+        <v>675</v>
+      </c>
+      <c r="Q383" t="n">
+        <v>1</v>
+      </c>
+      <c r="R383" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="n">
+        <v>9</v>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D384" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E384" t="n">
+        <v>13</v>
+      </c>
+      <c r="F384" t="n">
+        <v>100112008</v>
+      </c>
+      <c r="G384" t="inlineStr">
+        <is>
+          <t>Coliflor</t>
+        </is>
+      </c>
+      <c r="H384" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I384" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J384" t="n">
+        <v>1600</v>
+      </c>
+      <c r="K384" t="n">
+        <v>550</v>
+      </c>
+      <c r="L384" t="n">
+        <v>600</v>
+      </c>
+      <c r="M384" t="n">
         <v>575</v>
       </c>
-      <c r="N381" t="inlineStr">
-        <is>
-          <t>$/unidad</t>
-        </is>
-      </c>
-      <c r="O381" t="inlineStr">
+      <c r="N384" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O384" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P384" t="n">
+        <v>575</v>
+      </c>
+      <c r="Q384" t="n">
+        <v>1</v>
+      </c>
+      <c r="R384" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="n">
+        <v>9</v>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D385" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E385" t="n">
+        <v>13</v>
+      </c>
+      <c r="F385" t="n">
+        <v>100112008</v>
+      </c>
+      <c r="G385" t="inlineStr">
+        <is>
+          <t>Coliflor</t>
+        </is>
+      </c>
+      <c r="H385" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I385" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J385" t="n">
+        <v>970</v>
+      </c>
+      <c r="K385" t="n">
+        <v>550</v>
+      </c>
+      <c r="L385" t="n">
+        <v>600</v>
+      </c>
+      <c r="M385" t="n">
+        <v>575</v>
+      </c>
+      <c r="N385" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O385" t="inlineStr">
         <is>
           <t>Región de O'Higgins</t>
         </is>
       </c>
-      <c r="P381" t="n">
+      <c r="P385" t="n">
         <v>575</v>
       </c>
-      <c r="Q381" t="n">
-        <v>1</v>
-      </c>
-      <c r="R381" t="inlineStr">
+      <c r="Q385" t="n">
+        <v>1</v>
+      </c>
+      <c r="R385" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Coliflor.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Coliflor.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R385"/>
+  <dimension ref="A1:R389"/>
   <sheetViews>
     <sheetView workbookView